--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EH167"/>
+  <dimension ref="A1:EH168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -72097,6 +72097,434 @@
         <v>0</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Trash Wheel Collection Data</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, waffle, tidytuesdayR, sysfonts, rcartocolor</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2024/2024-03-05/20240305.R</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2024/2024-03-05/20240305.png</t>
+        </is>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
+      <c r="AG168">
+        <v>0</v>
+      </c>
+      <c r="AH168">
+        <v>0</v>
+      </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>0</v>
+      </c>
+      <c r="AO168">
+        <v>0</v>
+      </c>
+      <c r="AP168">
+        <v>0</v>
+      </c>
+      <c r="AQ168">
+        <v>0</v>
+      </c>
+      <c r="AR168">
+        <v>0</v>
+      </c>
+      <c r="AS168">
+        <v>0</v>
+      </c>
+      <c r="AT168">
+        <v>0</v>
+      </c>
+      <c r="AU168">
+        <v>0</v>
+      </c>
+      <c r="AV168">
+        <v>0</v>
+      </c>
+      <c r="AW168">
+        <v>0</v>
+      </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
+      <c r="AY168">
+        <v>0</v>
+      </c>
+      <c r="AZ168">
+        <v>0</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>1</v>
+      </c>
+      <c r="BC168">
+        <v>0</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>1</v>
+      </c>
+      <c r="BG168">
+        <v>0</v>
+      </c>
+      <c r="BH168">
+        <v>0</v>
+      </c>
+      <c r="BI168">
+        <v>0</v>
+      </c>
+      <c r="BJ168">
+        <v>0</v>
+      </c>
+      <c r="BK168">
+        <v>0</v>
+      </c>
+      <c r="BL168">
+        <v>0</v>
+      </c>
+      <c r="BM168">
+        <v>0</v>
+      </c>
+      <c r="BN168">
+        <v>0</v>
+      </c>
+      <c r="BO168">
+        <v>0</v>
+      </c>
+      <c r="BP168">
+        <v>0</v>
+      </c>
+      <c r="BQ168">
+        <v>0</v>
+      </c>
+      <c r="BR168">
+        <v>0</v>
+      </c>
+      <c r="BS168">
+        <v>0</v>
+      </c>
+      <c r="BT168">
+        <v>0</v>
+      </c>
+      <c r="BU168">
+        <v>0</v>
+      </c>
+      <c r="BV168">
+        <v>0</v>
+      </c>
+      <c r="BW168">
+        <v>0</v>
+      </c>
+      <c r="BX168">
+        <v>0</v>
+      </c>
+      <c r="BY168">
+        <v>0</v>
+      </c>
+      <c r="BZ168">
+        <v>0</v>
+      </c>
+      <c r="CA168">
+        <v>1</v>
+      </c>
+      <c r="CB168">
+        <v>0</v>
+      </c>
+      <c r="CC168">
+        <v>0</v>
+      </c>
+      <c r="CD168">
+        <v>0</v>
+      </c>
+      <c r="CE168">
+        <v>0</v>
+      </c>
+      <c r="CF168">
+        <v>0</v>
+      </c>
+      <c r="CG168">
+        <v>0</v>
+      </c>
+      <c r="CH168">
+        <v>0</v>
+      </c>
+      <c r="CI168">
+        <v>0</v>
+      </c>
+      <c r="CJ168">
+        <v>0</v>
+      </c>
+      <c r="CK168">
+        <v>0</v>
+      </c>
+      <c r="CL168">
+        <v>0</v>
+      </c>
+      <c r="CM168">
+        <v>0</v>
+      </c>
+      <c r="CN168">
+        <v>0</v>
+      </c>
+      <c r="CO168">
+        <v>0</v>
+      </c>
+      <c r="CP168">
+        <v>0</v>
+      </c>
+      <c r="CQ168">
+        <v>1</v>
+      </c>
+      <c r="CR168">
+        <v>0</v>
+      </c>
+      <c r="CS168">
+        <v>0</v>
+      </c>
+      <c r="CT168">
+        <v>0</v>
+      </c>
+      <c r="CU168">
+        <v>0</v>
+      </c>
+      <c r="CV168">
+        <v>0</v>
+      </c>
+      <c r="CW168">
+        <v>0</v>
+      </c>
+      <c r="CX168">
+        <v>0</v>
+      </c>
+      <c r="CY168">
+        <v>0</v>
+      </c>
+      <c r="CZ168">
+        <v>0</v>
+      </c>
+      <c r="DA168">
+        <v>0</v>
+      </c>
+      <c r="DB168">
+        <v>0</v>
+      </c>
+      <c r="DC168">
+        <v>0</v>
+      </c>
+      <c r="DD168">
+        <v>0</v>
+      </c>
+      <c r="DE168">
+        <v>1</v>
+      </c>
+      <c r="DF168">
+        <v>0</v>
+      </c>
+      <c r="DG168">
+        <v>0</v>
+      </c>
+      <c r="DH168">
+        <v>0</v>
+      </c>
+      <c r="DI168">
+        <v>0</v>
+      </c>
+      <c r="DJ168">
+        <v>0</v>
+      </c>
+      <c r="DK168">
+        <v>0</v>
+      </c>
+      <c r="DL168">
+        <v>0</v>
+      </c>
+      <c r="DM168">
+        <v>0</v>
+      </c>
+      <c r="DN168">
+        <v>0</v>
+      </c>
+      <c r="DO168">
+        <v>1</v>
+      </c>
+      <c r="DP168">
+        <v>0</v>
+      </c>
+      <c r="DQ168">
+        <v>0</v>
+      </c>
+      <c r="DR168">
+        <v>0</v>
+      </c>
+      <c r="DS168">
+        <v>0</v>
+      </c>
+      <c r="DT168">
+        <v>0</v>
+      </c>
+      <c r="DU168">
+        <v>1</v>
+      </c>
+      <c r="DV168">
+        <v>1</v>
+      </c>
+      <c r="DW168">
+        <v>0</v>
+      </c>
+      <c r="DX168">
+        <v>0</v>
+      </c>
+      <c r="DY168">
+        <v>0</v>
+      </c>
+      <c r="DZ168">
+        <v>0</v>
+      </c>
+      <c r="EA168">
+        <v>0</v>
+      </c>
+      <c r="EB168">
+        <v>0</v>
+      </c>
+      <c r="EC168">
+        <v>0</v>
+      </c>
+      <c r="ED168">
+        <v>0</v>
+      </c>
+      <c r="EE168">
+        <v>0</v>
+      </c>
+      <c r="EF168">
+        <v>0</v>
+      </c>
+      <c r="EG168">
+        <v>1</v>
+      </c>
+      <c r="EH168">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -1072,12 +1072,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2020/2020-04-21/20200421.R</t>
+          <t>2020/2020-04-21///20200421.R</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2020/2020-04-21/20200421.jpg</t>
+          <t>2020/2020-04-21///20200421.jpg</t>
         </is>
       </c>
       <c r="G2">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2020/2020-07-28/20200728.R</t>
+          <t>2020/2020-07-28///20200728.R</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020/2020-07-28/20200728.jpg</t>
+          <t>2020/2020-07-28///20200728.jpg</t>
         </is>
       </c>
       <c r="G3">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2020/2020-12-08/20201208.R</t>
+          <t>2020/2020-12-08///20201208.R</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2020/2020-12-08/20201208.jpg</t>
+          <t>2020/2020-12-08///20201208.jpg</t>
         </is>
       </c>
       <c r="G4">
@@ -2356,12 +2356,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021/01-06-2021/01062021.R</t>
+          <t>2021/01-06-2021///01062021.R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021/01-06-2021/01062021.jpg</t>
+          <t>2021/01-06-2021///01062021.jpg</t>
         </is>
       </c>
       <c r="G5">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021/02-02-2021/02022021.R</t>
+          <t>2021/02-02-2021///02022021.R</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021/02-02-2021/02022021.jpg</t>
+          <t>2021/02-02-2021///02022021.jpg</t>
         </is>
       </c>
       <c r="G6">
@@ -3212,12 +3212,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021/02-03-2021/02032021.R</t>
+          <t>2021/02-03-2021///02032021.R</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021/02-03-2021/02032021.jpg</t>
+          <t>2021/02-03-2021///02032021.jpg</t>
         </is>
       </c>
       <c r="G7">
@@ -3640,12 +3640,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021/02-11-2021/02112021.R</t>
+          <t>2021/02-11-2021///02112021.R</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021/02-11-2021/02112021.png</t>
+          <t>2021/02-11-2021///02112021.png</t>
         </is>
       </c>
       <c r="G8">
@@ -4068,12 +4068,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021/03-08-2021/03082021.R</t>
+          <t>2021/03-08-2021///03082021.R</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021/03-08-2021/03082021.jpg</t>
+          <t>2021/03-08-2021///03082021_table.png</t>
         </is>
       </c>
       <c r="G9">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021/04-05-2021/04052021.R</t>
+          <t>2021/04-05-2021///04052021.R</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/04-05-2021/04052021.jpg</t>
+          <t>2021/04-05-2021///04052021.jpg</t>
         </is>
       </c>
       <c r="G10">
@@ -4924,12 +4924,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021/05-01-2021/05012021.R</t>
+          <t>2021/05-01-2021///05012021.R</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/05-01-2021/05012021.jpg</t>
+          <t>2021/05-01-2021///05012021.jpg</t>
         </is>
       </c>
       <c r="G11">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021/05-10-2021/05102021.R</t>
+          <t>2021/05-10-2021///05102021.R</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/05-10-2021/05102021.jpg</t>
+          <t>2021/05-10-2021///05102021.jpg</t>
         </is>
       </c>
       <c r="G12">
@@ -5780,12 +5780,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021/06-04-2021/06042021.R</t>
+          <t>2021/06-04-2021///06042021.R</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/06-04-2021/06042021.jpg</t>
+          <t>2021/06-04-2021///06042021_plot1.jpg</t>
         </is>
       </c>
       <c r="G13">
@@ -6208,12 +6208,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021/06-07-2021/06072021.R</t>
+          <t>2021/06-07-2021///06072021.R</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/06-07-2021/06072021.jpg</t>
+          <t>2021/06-07-2021///06072021.jpg</t>
         </is>
       </c>
       <c r="G14">
@@ -6636,12 +6636,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021/07-09-2021/07092021.R</t>
+          <t>2021/07-09-2021///07092021.R</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/07-09-2021/07092021.jpg</t>
+          <t>2021/07-09-2021///07092021.jpg</t>
         </is>
       </c>
       <c r="G15">
@@ -7064,12 +7064,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021/07-12-2021/07122021.R</t>
+          <t>2021/07-12-2021///07122021.R</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/07-12-2021/07122021.jpeg</t>
+          <t>2021/07-12-2021///07122021.jpeg</t>
         </is>
       </c>
       <c r="G16">
@@ -7492,12 +7492,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021/08-06-2021/08062021.R</t>
+          <t>2021/08-06-2021///08062021.R</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/08-06-2021/08062021.jpg</t>
+          <t>2021/08-06-2021///08062021.jpg</t>
         </is>
       </c>
       <c r="G17">
@@ -7920,12 +7920,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021/09-02-2021/09022021.R</t>
+          <t>2021/09-02-2021///09022021.R</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/09-02-2021/09022021.jpg</t>
+          <t>2021/09-02-2021///09022021.jpg</t>
         </is>
       </c>
       <c r="G18">
@@ -8348,12 +8348,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021/09-03-2021/09032021.R</t>
+          <t>2021/09-03-2021///09032021.R</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/09-03-2021/09032021.jpg</t>
+          <t>2021/09-03-2021///09032021.jpg</t>
         </is>
       </c>
       <c r="G19">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021/09-11-2021/09112021.R</t>
+          <t>2021/09-11-2021///09112021.R</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/09-11-2021/09112021.jpg</t>
+          <t>2021/09-11-2021///09112021.jpg</t>
         </is>
       </c>
       <c r="G20">
@@ -9204,12 +9204,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021/10-08-2021/10082021.R</t>
+          <t>2021/10-08-2021///10082021.R</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/10-08-2021/10082021.jpg</t>
+          <t>2021/10-08-2021///10082021.jpg</t>
         </is>
       </c>
       <c r="G21">
@@ -9632,12 +9632,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021/11-05-2021/11052021.R</t>
+          <t>2021/11-05-2021///11052021.R</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/11-05-2021/11052021.jpg</t>
+          <t>2021/11-05-2021///11052021.jpg</t>
         </is>
       </c>
       <c r="G22">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021/12-01-2021/12012021.R</t>
+          <t>2021/12-01-2021///12012021.R</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/12-01-2021/12012021.jpg</t>
+          <t>2021/12-01-2021///12012021.jpg</t>
         </is>
       </c>
       <c r="G23">
@@ -10488,12 +10488,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021/12-10-2021/12102021.R</t>
+          <t>2021/12-10-2021///12102021.R</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/12-10-2021/12102021_f1.jpg</t>
+          <t>2021/12-10-2021///12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G24">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021/13-04-2021/13042021.R</t>
+          <t>2021/13-04-2021///13042021.R</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/13-04-2021/13042021.jpg</t>
+          <t>2021/13-04-2021///13042021.jpg</t>
         </is>
       </c>
       <c r="G25">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021/13-07-2021/13072021.R</t>
+          <t>2021/13-07-2021///13072021.R</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/13-07-2021/13072021.jpg</t>
+          <t>2021/13-07-2021///13072021.jpg</t>
         </is>
       </c>
       <c r="G26">
@@ -11772,12 +11772,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021/14-09-2021/14092021.R</t>
+          <t>2021/14-09-2021///14092021.R</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/14-09-2021/14092021.jpg</t>
+          <t>2021/14-09-2021///14092021.jpg</t>
         </is>
       </c>
       <c r="G27">
@@ -12200,12 +12200,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021/14-12-2021/14122021.R</t>
+          <t>2021/14-12-2021///14122021.R</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/14-12-2021/14122021.jpg</t>
+          <t>2021/14-12-2021///14122021.jpg</t>
         </is>
       </c>
       <c r="G28">
@@ -12628,12 +12628,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021/15-06-2021/15062021.R</t>
+          <t>2021/15-06-2021///15062021.R</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/15-06-2021/15062021.jpg</t>
+          <t>2021/15-06-2021///15062021.jpg</t>
         </is>
       </c>
       <c r="G29">
@@ -13056,12 +13056,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021/16-02-2021/16022021.R</t>
+          <t>2021/16-02-2021///16022021.R</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/16-02-2021/16022021.jpg</t>
+          <t>2021/16-02-2021///16022021.jpg</t>
         </is>
       </c>
       <c r="G30">
@@ -13484,12 +13484,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021/16-03-2021/16032021.R</t>
+          <t>2021/16-03-2021///16032021.R</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/16-03-2021/16032021.jpg</t>
+          <t>2021/16-03-2021///16032021.jpg</t>
         </is>
       </c>
       <c r="G31">
@@ -13912,12 +13912,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021/17-08-2021/17082021.R</t>
+          <t>2021/17-08-2021///17082021.R</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/17-08-2021/17082021.jpg</t>
+          <t>2021/17-08-2021///17082021.jpg</t>
         </is>
       </c>
       <c r="G32">
@@ -14340,12 +14340,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021/18-05-2021/18052021.R</t>
+          <t>2021/18-05-2021///18052021.R</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/18-05-2021/18052021.jpg</t>
+          <t>2021/18-05-2021///18052021.jpg</t>
         </is>
       </c>
       <c r="G33">
@@ -14768,12 +14768,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021/19-01-2021/19012021.R</t>
+          <t>2021/19-01-2021///19012021.R</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/19-01-2021/19012021.jpg</t>
+          <t>2021/19-01-2021///19012021.jpg</t>
         </is>
       </c>
       <c r="G34">
@@ -15196,12 +15196,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021/19-10-2021/19102021.R</t>
+          <t>2021/19-10-2021///19102021.R</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/19-10-2021/19102021.jpg</t>
+          <t>2021/19-10-2021///19102021.jpg</t>
         </is>
       </c>
       <c r="G35">
@@ -15624,12 +15624,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021/20-04-2021/20042021.R</t>
+          <t>2021/20-04-2021///20042021.R</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/20-04-2021/20042021.png</t>
+          <t>2021/20-04-2021///20042021.png</t>
         </is>
       </c>
       <c r="G36">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021/20-07-2021/20072021.R</t>
+          <t>2021/20-07-2021///20072021.R</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/20-07-2021/20072021.jpg</t>
+          <t>2021/20-07-2021///20072021.jpg</t>
         </is>
       </c>
       <c r="G37">
@@ -16480,12 +16480,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2021/21-09-2021/21092021.R</t>
+          <t>2021/21-09-2021///21092021.R</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/21-09-2021/21092021.jpg</t>
+          <t>2021/21-09-2021///21092021_waffle.jpg</t>
         </is>
       </c>
       <c r="G38">
@@ -16908,12 +16908,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021/21-12-2021/21122021.R</t>
+          <t>2021/21-12-2021///21122021.R</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/21-12-2021/21122021.jpg</t>
+          <t>2021/21-12-2021///21122021.jpg</t>
         </is>
       </c>
       <c r="G39">
@@ -17336,12 +17336,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.R</t>
+          <t>2021/22-06-2021///22062021_stream_plots.R</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.jpg</t>
+          <t>2021/22-06-2021///22062021_v2.jpg</t>
         </is>
       </c>
       <c r="G40">
@@ -17764,12 +17764,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021/23-02-2021/23022021.R</t>
+          <t>2021/23-02-2021///23022021.R</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/23-02-2021/23022021.jpg</t>
+          <t>2021/23-02-2021///23022021.jpg</t>
         </is>
       </c>
       <c r="G41">
@@ -18192,12 +18192,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2021/23-03-2021/23032021.R</t>
+          <t>2021/23-03-2021///23032021.R</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/23-03-2021/23032021.jpg</t>
+          <t>2021/23-03-2021///23032021.jpg</t>
         </is>
       </c>
       <c r="G42">
@@ -18620,12 +18620,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021/23-11-2021/23112021.R</t>
+          <t>2021/23-11-2021///23112021.R</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/23-11-2021/23112021.jpg</t>
+          <t>2021/23-11-2021///23112021.jpg</t>
         </is>
       </c>
       <c r="G43">
@@ -19048,12 +19048,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021/24-08-2021/24082021.R</t>
+          <t>2021/24-08-2021///24082021.R</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/24-08-2021/24082021.jpg</t>
+          <t>2021/24-08-2021///24082021.jpg</t>
         </is>
       </c>
       <c r="G44">
@@ -19476,12 +19476,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021/25-05-2021/25052021.R</t>
+          <t>2021/25-05-2021///25052021.R</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/25-05-2021/25052021.jpg</t>
+          <t>2021/25-05-2021///25052021.jpg</t>
         </is>
       </c>
       <c r="G45">
@@ -19904,12 +19904,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2021/26-01-2021/26012021.R</t>
+          <t>2021/26-01-2021///26012021.R</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/26-01-2021/26012021.jpg</t>
+          <t>2021/26-01-2021///26012021.jpg</t>
         </is>
       </c>
       <c r="G46">
@@ -20332,12 +20332,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2021/26-10-2021/26102021.R</t>
+          <t>2021/26-10-2021///26102021.R</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/26-10-2021/26102021.jpg</t>
+          <t>2021/26-10-2021///26102021.jpg</t>
         </is>
       </c>
       <c r="G47">
@@ -20760,12 +20760,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2021/27-04-2021/27042021.R</t>
+          <t>2021/27-04-2021///27042021.R</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/27-04-2021/27042021.jpg</t>
+          <t>2021/27-04-2021///27042021.jpg</t>
         </is>
       </c>
       <c r="G48">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2021/27-07-2021/27072021.R</t>
+          <t>2021/27-07-2021///27072021.R</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/27-07-2021/27072021.jpg</t>
+          <t>2021/27-07-2021///27072021.jpg</t>
         </is>
       </c>
       <c r="G49">
@@ -21616,12 +21616,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2021/28-09-2021/28092021.R</t>
+          <t>2021/28-09-2021///28092021.R</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/28-09-2021/28092021.jpg</t>
+          <t>2021/28-09-2021///28092021.jpg</t>
         </is>
       </c>
       <c r="G50">
@@ -22044,12 +22044,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2021/29-06-2021/29062021.R</t>
+          <t>2021/29-06-2021///29062021.R</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/29-06-2021/29062021.jpg</t>
+          <t>2021/29-06-2021///29062021.jpg</t>
         </is>
       </c>
       <c r="G51">
@@ -22472,12 +22472,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021/29-12-2020/29122020.R</t>
+          <t>2021/29-12-2020///29122020.R</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/29-12-2020/29122020.jpg</t>
+          <t>2021/29-12-2020///29122020.jpg</t>
         </is>
       </c>
       <c r="G52">
@@ -22900,12 +22900,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2021/30-03-2021/30032021.R</t>
+          <t>2021/30-03-2021///30032021.R</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/30-03-2021/30032021.jpg</t>
+          <t>2021/30-03-2021///30032021.jpg</t>
         </is>
       </c>
       <c r="G53">
@@ -23328,12 +23328,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2021/30-11-2021/30112021.R</t>
+          <t>2021/30-11-2021///30112021.R</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/30-11-2021/30112021.jpeg</t>
+          <t>2021/30-11-2021///30112021_v2.jpeg</t>
         </is>
       </c>
       <c r="G54">
@@ -23756,12 +23756,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2021/31-08-2021/31082021.R</t>
+          <t>2021/31-08-2021///31082021.R</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/31-08-2021/31082021.jpg</t>
+          <t>2021/31-08-2021///31082021.jpg</t>
         </is>
       </c>
       <c r="G55">
@@ -24184,12 +24184,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2022/2022-01-04/20220104.R</t>
+          <t>2022/2022-01-04///20220104.R</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022/2022-01-04/20220104.jpg</t>
+          <t>2022/2022-01-04///20220104.jpg</t>
         </is>
       </c>
       <c r="G56">
@@ -24612,12 +24612,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2022/2022-01-11/20220111.R</t>
+          <t>2022/2022-01-11///20220111.R</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022/2022-01-11/20220111.jpg</t>
+          <t>2022/2022-01-11///20220111.jpg</t>
         </is>
       </c>
       <c r="G57">
@@ -25040,12 +25040,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2022/2022-01-18/20220118.R</t>
+          <t>2022/2022-01-18///20220118.R</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022/2022-01-18/20220118.png</t>
+          <t>2022/2022-01-18///20220118.png</t>
         </is>
       </c>
       <c r="G58">
@@ -25468,12 +25468,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2022/2022-01-25/20220125.R</t>
+          <t>2022/2022-01-25///20220125.R</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022/2022-01-25/20220125.jpeg</t>
+          <t>2022/2022-01-25///20220125.jpeg</t>
         </is>
       </c>
       <c r="G59">
@@ -25896,12 +25896,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2022/2022-02-01/20220201.R</t>
+          <t>2022/2022-02-01///20220201.R</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022/2022-02-01/20220201.jpg</t>
+          <t>2022/2022-02-01///20220201.jpg</t>
         </is>
       </c>
       <c r="G60">
@@ -26324,12 +26324,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2022/2022-02-08/20220208.R</t>
+          <t>2022/2022-02-08///20220208.R</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-02-08/20220208.jpeg</t>
+          <t>2022/2022-02-08///20220208.jpeg</t>
         </is>
       </c>
       <c r="G61">
@@ -26752,12 +26752,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2022/2022-02-15/20220215.R</t>
+          <t>2022/2022-02-15///20220215.R</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-02-15/20220215.jpg</t>
+          <t>2022/2022-02-15///20220215.jpg</t>
         </is>
       </c>
       <c r="G62">
@@ -27180,12 +27180,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2022/2022-02-22/20220222.R</t>
+          <t>2022/2022-02-22///20220222.R</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-02-22/20220222.jpeg</t>
+          <t>2022/2022-02-22///20220222.jpeg</t>
         </is>
       </c>
       <c r="G63">
@@ -27608,12 +27608,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2022/2022-03-01/20220301.R</t>
+          <t>2022/2022-03-01///20220301.R</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-03-01/20220301.jpg</t>
+          <t>2022/2022-03-01///20220301.jpg</t>
         </is>
       </c>
       <c r="G64">
@@ -28036,12 +28036,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2022/2022-03-08/20220308.R</t>
+          <t>2022/2022-03-08///20220308.R</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-03-08/20220308.jpeg</t>
+          <t>2022/2022-03-08///20220308.jpeg</t>
         </is>
       </c>
       <c r="G65">
@@ -28464,12 +28464,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2022/2022-03-15/20220315.R</t>
+          <t>2022/2022-03-15///20220315.R</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-03-15/20220315.jpeg</t>
+          <t>2022/2022-03-15///20220315.jpeg</t>
         </is>
       </c>
       <c r="G66">
@@ -28892,12 +28892,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2022/2022-03-22/20220322.R</t>
+          <t>2022/2022-03-22///20220322.R</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-03-22/20220322.jpeg</t>
+          <t>2022/2022-03-22///20220322.jpeg</t>
         </is>
       </c>
       <c r="G67">
@@ -29320,12 +29320,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2022/2022-03-29/20220329.R</t>
+          <t>2022/2022-03-29///20220329.R</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-03-29/20220329.jpeg</t>
+          <t>2022/2022-03-29///20220329.jpeg</t>
         </is>
       </c>
       <c r="G68">
@@ -29748,12 +29748,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2022/2022-04-05/20220405.R</t>
+          <t>2022/2022-04-05///20220405.R</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-04-05/20220405.png</t>
+          <t>2022/2022-04-05///20220405.png</t>
         </is>
       </c>
       <c r="G69">
@@ -30176,12 +30176,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2022/2022-04-12/20220412.R</t>
+          <t>2022/2022-04-12///20220412.R</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-04-12/20220412.png</t>
+          <t>2022/2022-04-12///20220412.png</t>
         </is>
       </c>
       <c r="G70">
@@ -30604,12 +30604,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2022/2022-04-19/20220419.R</t>
+          <t>2022/2022-04-19///20220419.R</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-04-19/20220419.jpeg</t>
+          <t>2022/2022-04-19///20220419.jpeg</t>
         </is>
       </c>
       <c r="G71">
@@ -31032,12 +31032,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2022/2022-04-26/20220426.R</t>
+          <t>2022/2022-04-26///20220426.R</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-04-26/20220426.png</t>
+          <t>2022/2022-04-26///20220426.png</t>
         </is>
       </c>
       <c r="G72">
@@ -31460,12 +31460,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2022/2022-05-03/20220503.R</t>
+          <t>2022/2022-05-03///20220503.R</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-05-03/20220503_bar.png</t>
+          <t>2022/2022-05-03///20220503_bar.png</t>
         </is>
       </c>
       <c r="G73">
@@ -31888,12 +31888,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2022/2022-05-10/20220510.R</t>
+          <t>2022/2022-05-10///20220510.R</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-05-10/20220510.png</t>
+          <t>2022/2022-05-10///20220510.png</t>
         </is>
       </c>
       <c r="G74">
@@ -32316,12 +32316,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2022/2022-05-17/20220517.R</t>
+          <t>2022/2022-05-17///20220517.R</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-05-17/20220517.png</t>
+          <t>2022/2022-05-17///20220517_tableau.png</t>
         </is>
       </c>
       <c r="G75">
@@ -32744,12 +32744,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2022/2022-05-24/20220524.R</t>
+          <t>2022/2022-05-24///20220524.R</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-05-24/20220524.png</t>
+          <t>2022/2022-05-24///20220524.png</t>
         </is>
       </c>
       <c r="G76">
@@ -33172,12 +33172,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2022/2022-05-31/20220531.R</t>
+          <t>2022/2022-05-31///20220531.R</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-05-31/20220531.png</t>
+          <t>2022/2022-05-31///20220531.png</t>
         </is>
       </c>
       <c r="G77">
@@ -33600,12 +33600,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2022/2022-06-07/20220607.R</t>
+          <t>2022/2022-06-07///20220607.R</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-06-07/20220607.png</t>
+          <t>2022/2022-06-07///20220607.png</t>
         </is>
       </c>
       <c r="G78">
@@ -34028,12 +34028,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2022/2022-06-14/20220614.R</t>
+          <t>2022/2022-06-14///20220614.R</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-06-14/20220614.png</t>
+          <t>2022/2022-06-14///20220614.png</t>
         </is>
       </c>
       <c r="G79">
@@ -34456,12 +34456,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2022/2022-06-21/20220621.R</t>
+          <t>2022/2022-06-21///20220621.R</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-06-21/20220621.png</t>
+          <t>2022/2022-06-21///20220621.png</t>
         </is>
       </c>
       <c r="G80">
@@ -34884,12 +34884,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2022/2022-06-28/20220628.R</t>
+          <t>2022/2022-06-28///20220628.R</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-06-28/20220628.png</t>
+          <t>2022/2022-06-28///20220628.png</t>
         </is>
       </c>
       <c r="G81">
@@ -35312,12 +35312,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2022/2022-07-05/20220705.R</t>
+          <t>2022/2022-07-05///20220705.R</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-07-05/20220705.png</t>
+          <t>2022/2022-07-05///20220705.png</t>
         </is>
       </c>
       <c r="G82">
@@ -35740,12 +35740,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2022/2022-07-12/20220712.R</t>
+          <t>2022/2022-07-12///20220712.R</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-07-12/20220712.png</t>
+          <t>2022/2022-07-12///20220712.png</t>
         </is>
       </c>
       <c r="G83">
@@ -36168,12 +36168,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2022/2022-07-19/20220719.R</t>
+          <t>2022/2022-07-19///20220719.R</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-07-19/20220719.png</t>
+          <t>2022/2022-07-19///20220719.png</t>
         </is>
       </c>
       <c r="G84">
@@ -36596,12 +36596,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2022/2022-08-02/20220802.R</t>
+          <t>2022/2022-08-02///20220802.R</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-08-02/20220802.png</t>
+          <t>2022/2022-08-02///20220802.png</t>
         </is>
       </c>
       <c r="G85">
@@ -37024,12 +37024,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2022/2022-08-09/20220809.R</t>
+          <t>2022/2022-08-09///20220809.R</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-08-09/20220809.png</t>
+          <t>2022/2022-08-09///20220809.png</t>
         </is>
       </c>
       <c r="G86">
@@ -37452,12 +37452,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2022/2022-08-16/20220816.R</t>
+          <t>2022/2022-08-16///20220816.R</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-08-16/20220816.png</t>
+          <t>2022/2022-08-16///20220816.png</t>
         </is>
       </c>
       <c r="G87">
@@ -37880,12 +37880,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2022/2022-08-23/20220823.R</t>
+          <t>2022/2022-08-23///20220823.R</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-08-23/20220823.png</t>
+          <t>2022/2022-08-23///20220823.png</t>
         </is>
       </c>
       <c r="G88">
@@ -38308,12 +38308,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2022/2022-08-30/20220830.R</t>
+          <t>2022/2022-08-30///20220830.R</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-08-30/20220830.png</t>
+          <t>2022/2022-08-30///20220830.png</t>
         </is>
       </c>
       <c r="G89">
@@ -38736,12 +38736,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2022/2022-09-06/20220906.R</t>
+          <t>2022/2022-09-06///20220906.R</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-09-06/20220906.png</t>
+          <t>2022/2022-09-06///20220906.png</t>
         </is>
       </c>
       <c r="G90">
@@ -39164,12 +39164,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2022/2022-09-13/20220913.R</t>
+          <t>2022/2022-09-13///20220913.R</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-09-13/20220913.png</t>
+          <t>2022/2022-09-13///20220913.png</t>
         </is>
       </c>
       <c r="G91">
@@ -39592,12 +39592,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2022/2022-09-20/20220920.R</t>
+          <t>2022/2022-09-20///20220920.R</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-09-20/20220920.png</t>
+          <t>2022/2022-09-20///20220920.png</t>
         </is>
       </c>
       <c r="G92">
@@ -40020,12 +40020,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2022/2022-09-27/20220927.R</t>
+          <t>2022/2022-09-27///20220927.R</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-09-27/20220927.png</t>
+          <t>2022/2022-09-27///20220927.png</t>
         </is>
       </c>
       <c r="G93">
@@ -40448,12 +40448,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2022/2022-10-04/20221004.R</t>
+          <t>2022/2022-10-04///20221004.R</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-10-04/20221004.png</t>
+          <t>2022/2022-10-04///20221004.png</t>
         </is>
       </c>
       <c r="G94">
@@ -40876,12 +40876,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2022/2022-10-11/20221011.R</t>
+          <t>2022/2022-10-11///20221011.R</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-10-11/20221011.png</t>
+          <t>2022/2022-10-11///20221011.png</t>
         </is>
       </c>
       <c r="G95">
@@ -41304,12 +41304,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2022/2022-10-18/20221018.R</t>
+          <t>2022/2022-10-18///20221018.R</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-10-18/20221018.png</t>
+          <t>2022/2022-10-18///20221018.png</t>
         </is>
       </c>
       <c r="G96">
@@ -41732,12 +41732,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2022/2022-10-25/20221025.R</t>
+          <t>2022/2022-10-25///20221025.R</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-10-25/20221025.png</t>
+          <t>2022/2022-10-25///20221025.png</t>
         </is>
       </c>
       <c r="G97">
@@ -42160,12 +42160,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2022/2022-11-01/20221101.R</t>
+          <t>2022/2022-11-01///20221101.R</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-11-01/20221101.png</t>
+          <t>2022/2022-11-01///20221101.png</t>
         </is>
       </c>
       <c r="G98">
@@ -42588,12 +42588,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2022/2022-11-08/20221108.R</t>
+          <t>2022/2022-11-08///20221108.R</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-11-08/20221108.png</t>
+          <t>2022/2022-11-08///20221108.png</t>
         </is>
       </c>
       <c r="G99">
@@ -43016,12 +43016,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2022/2022-11-15/20221115.R</t>
+          <t>2022/2022-11-15///20221115.R</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-11-15/20221115_plot1.png</t>
+          <t>2022/2022-11-15///20221115_plot1.png</t>
         </is>
       </c>
       <c r="G100">
@@ -43444,12 +43444,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2022/2022-11-22/20221122.R</t>
+          <t>2022/2022-11-22///20221122.R</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-11-22/20221122.png</t>
+          <t>2022/2022-11-22///20221122.png</t>
         </is>
       </c>
       <c r="G101">
@@ -43872,12 +43872,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2022/2022-11-29/20221129.R</t>
+          <t>2022/2022-11-29///20221129.R</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-11-29/20221129.png</t>
+          <t>2022/2022-11-29///20221129.png</t>
         </is>
       </c>
       <c r="G102">
@@ -44300,12 +44300,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2022/2022-12-06/20221206.R</t>
+          <t>2022/2022-12-06///20221206.R</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-12-06/20221206.png</t>
+          <t>2022/2022-12-06///20221206.png</t>
         </is>
       </c>
       <c r="G103">
@@ -44728,12 +44728,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2022/2022-12-13/20221213.R</t>
+          <t>2022/2022-12-13///20221213.R</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-12-13/20221213.png</t>
+          <t>2022/2022-12-13///20221213.png</t>
         </is>
       </c>
       <c r="G104">
@@ -45156,12 +45156,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2022/2022-12-20/20221220.R</t>
+          <t>2022/2022-12-20///20221220.R</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-12-20/20221220.png</t>
+          <t>2022/2022-12-20///20221220.png</t>
         </is>
       </c>
       <c r="G105">
@@ -45584,12 +45584,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2022/2022-12-27/20221227.R</t>
+          <t>2022/2022-12-27///20221227.R</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-12-27/20221227.png</t>
+          <t>2022/2022-12-27///20221227.png</t>
         </is>
       </c>
       <c r="G106">
@@ -46012,12 +46012,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023/2023-01-03/20230103.R</t>
+          <t>2023/2023-01-03///20230103.R</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023/2023-01-03/20230103.png</t>
+          <t>2023/2023-01-03///20230103_raw.png</t>
         </is>
       </c>
       <c r="G107">
@@ -46440,12 +46440,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023/2023-01-10/20230110.R</t>
+          <t>2023/2023-01-10///20230110.R</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023/2023-01-10/20230110.png</t>
+          <t>2023/2023-01-10///20230110.png</t>
         </is>
       </c>
       <c r="G108">
@@ -46868,12 +46868,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023/2023-01-17/20230117.R</t>
+          <t>2023/2023-01-17///20230117.R</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2023/2023-01-17/20230117.png</t>
+          <t>2023/2023-01-17///20230117_book.png</t>
         </is>
       </c>
       <c r="G109">
@@ -47296,12 +47296,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023/2023-01-24/20230124.R</t>
+          <t>2023/2023-01-24///20230124.R</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023/2023-01-24/20230124.png</t>
+          <t>2023/2023-01-24///20230124.png</t>
         </is>
       </c>
       <c r="G110">
@@ -47724,12 +47724,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023/2023-01-31/20230131.R</t>
+          <t>2023/2023-01-31///20230131.R</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023/2023-01-31/20230131.png</t>
+          <t>2023/2023-01-31///20230131.png</t>
         </is>
       </c>
       <c r="G111">
@@ -48152,12 +48152,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023/2023-02-07/20230207.R</t>
+          <t>2023/2023-02-07///20230207.R</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-02-07/20230207.png</t>
+          <t>2023/2023-02-07///20230207.png</t>
         </is>
       </c>
       <c r="G112">
@@ -48575,17 +48575,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.R</t>
+          <t>2023/2023-02-14///20230214_love_actually.R</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.png</t>
+          <t>2023/2023-02-14///20230214_love_actually.png</t>
         </is>
       </c>
       <c r="G113">
@@ -48676,7 +48676,7 @@
         <v>0</v>
       </c>
       <c r="AJ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK113">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>0</v>
       </c>
       <c r="CI113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ113">
         <v>0</v>
@@ -48862,7 +48862,7 @@
         <v>0</v>
       </c>
       <c r="CT113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU113">
         <v>0</v>
@@ -49008,12 +49008,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023/2023-02-21/20230221.R</t>
+          <t>2023/2023-02-21///20230221.R</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-02-21/20230221.png</t>
+          <t>2023/2023-02-21///20230221.png</t>
         </is>
       </c>
       <c r="G114">
@@ -49436,12 +49436,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023/2023-02-28/20230228.R</t>
+          <t>2023/2023-02-28///20230228.R</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-02-28/20230228.png</t>
+          <t>2023/2023-02-28///20230228.png</t>
         </is>
       </c>
       <c r="G115">
@@ -49864,12 +49864,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023/2023-03-07/20230307.R</t>
+          <t>2023/2023-03-07///20230307.R</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-03-07/20230307.png</t>
+          <t>2023/2023-03-07///20230307.png</t>
         </is>
       </c>
       <c r="G116">
@@ -50292,12 +50292,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023/2023-03-14/20230314.R</t>
+          <t>2023/2023-03-14///20230314.R</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-03-14/20230314.png</t>
+          <t>2023/2023-03-14///20230314_b.png</t>
         </is>
       </c>
       <c r="G117">
@@ -50720,12 +50720,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023/2023-03-21/20230321.R</t>
+          <t>2023/2023-03-21///20230321.R</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-03-21/20230321.png</t>
+          <t>2023/2023-03-21///20230321.png</t>
         </is>
       </c>
       <c r="G118">
@@ -51148,12 +51148,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023/2023-03-28/20230328.R</t>
+          <t>2023/2023-03-28///20230328.R</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-03-28/20230328.png</t>
+          <t>2023/2023-03-28///20230328.png</t>
         </is>
       </c>
       <c r="G119">
@@ -51576,12 +51576,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023/2023-04-04/20230404.R</t>
+          <t>2023/2023-04-04///20230404.R</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-04-04/20230404.png</t>
+          <t>2023/2023-04-04///20230404.png</t>
         </is>
       </c>
       <c r="G120">
@@ -52004,12 +52004,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023/2023-04-11/20230411.R</t>
+          <t>2023/2023-04-11///20230411.R</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-04-11/20230411.png</t>
+          <t>2023/2023-04-11///20230411.png</t>
         </is>
       </c>
       <c r="G121">
@@ -52432,12 +52432,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023/2023-04-18/20230418.R</t>
+          <t>2023/2023-04-18///20230418.R</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-04-18/20230418.png</t>
+          <t>2023/2023-04-18///20230418.png</t>
         </is>
       </c>
       <c r="G122">
@@ -52860,12 +52860,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023/2023-04-25/20230425.R</t>
+          <t>2023/2023-04-25///20230425.R</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-04-25/20230425.png</t>
+          <t>2023/2023-04-25///20230425.png</t>
         </is>
       </c>
       <c r="G123">
@@ -53288,12 +53288,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023/2023-05-02/20230502.R</t>
+          <t>2023/2023-05-02///20230502.R</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-05-02/20230502.png</t>
+          <t>2023/2023-05-02///20230502.png</t>
         </is>
       </c>
       <c r="G124">
@@ -53716,12 +53716,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023/2023-05-09/20230509.R</t>
+          <t>2023/2023-05-09///20230509.R</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-05-09/20230509.png</t>
+          <t>2023/2023-05-09///20230509.png</t>
         </is>
       </c>
       <c r="G125">
@@ -54144,12 +54144,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023/2023-05-16/20230516.R</t>
+          <t>2023/2023-05-16///20230516.R</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-05-16/20230516.png</t>
+          <t>2023/2023-05-16///20230516.png</t>
         </is>
       </c>
       <c r="G126">
@@ -54572,12 +54572,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023/2023-05-23/20230523.R</t>
+          <t>2023/2023-05-23///20230523.R</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-05-23/20230523.png</t>
+          <t>2023/2023-05-23///20230523.png</t>
         </is>
       </c>
       <c r="G127">
@@ -55000,12 +55000,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023/2023-05-30/20230530.R</t>
+          <t>2023/2023-05-30///20230530.R</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-05-30/20230530.png</t>
+          <t>2023/2023-05-30///20230530.png</t>
         </is>
       </c>
       <c r="G128">
@@ -55423,17 +55423,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
+          <t>tidyverse, showtext, readr</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.R</t>
+          <t>2023/2023-06-06///20230606_baseR.R</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.png</t>
+          <t>2023/2023-06-06///20230606_base.png</t>
         </is>
       </c>
       <c r="G129">
@@ -55443,7 +55443,7 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -55578,7 +55578,7 @@
         <v>0</v>
       </c>
       <c r="BB129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC129">
         <v>0</v>
@@ -55590,7 +55590,7 @@
         <v>0</v>
       </c>
       <c r="BF129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG129">
         <v>0</v>
@@ -55629,7 +55629,7 @@
         <v>0</v>
       </c>
       <c r="BS129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT129">
         <v>0</v>
@@ -55653,7 +55653,7 @@
         <v>0</v>
       </c>
       <c r="CA129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB129">
         <v>0</v>
@@ -55668,7 +55668,7 @@
         <v>0</v>
       </c>
       <c r="CF129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG129">
         <v>0</v>
@@ -55856,12 +55856,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023/2023-06-13/20230613.R</t>
+          <t>2023/2023-06-13///20230613.R</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-06-13/20230613.png</t>
+          <t>2023/2023-06-13///20230613.png</t>
         </is>
       </c>
       <c r="G130">
@@ -56284,12 +56284,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023/2023-06-20/20230620.R</t>
+          <t>2023/2023-06-20///20230620.R</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-06-20/20230620.png</t>
+          <t>2023/2023-06-20///20230620.png</t>
         </is>
       </c>
       <c r="G131">
@@ -56712,12 +56712,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023/2023-06-27/20230627.R</t>
+          <t>2023/2023-06-27///20230627.R</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-06-27/20230627.png</t>
+          <t>2023/2023-06-27///20230627.png</t>
         </is>
       </c>
       <c r="G132">
@@ -57140,12 +57140,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023/2023-07-04/20230704.R</t>
+          <t>2023/2023-07-04///20230704.R</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-07-04/20230704.png</t>
+          <t>2023/2023-07-04///20230704.png</t>
         </is>
       </c>
       <c r="G133">
@@ -57568,12 +57568,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023/2023-07-11/20230711.R</t>
+          <t>2023/2023-07-11///20230711.R</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-07-11/20230711.png</t>
+          <t>2023/2023-07-11///20230711.png</t>
         </is>
       </c>
       <c r="G134">
@@ -57996,12 +57996,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023/2023-07-18/20230718.R</t>
+          <t>2023/2023-07-18///20230718.R</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-07-18/20230718.png</t>
+          <t>2023/2023-07-18///20230718.png</t>
         </is>
       </c>
       <c r="G135">
@@ -58424,12 +58424,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023/2023-07-25/20230725.R</t>
+          <t>2023/2023-07-25///20230725.R</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-07-25/20230725.png</t>
+          <t>2023/2023-07-25///20230725_v2.png</t>
         </is>
       </c>
       <c r="G136">
@@ -58852,12 +58852,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023/2023-08-01/20230801.R</t>
+          <t>2023/2023-08-01///20230801.R</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-08-01/20230801.png</t>
+          <t>2023/2023-08-01///20230801.png</t>
         </is>
       </c>
       <c r="G137">
@@ -59280,12 +59280,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2023/2023-08-08/20230808.R</t>
+          <t>2023/2023-08-08///20230808.R</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-08-08/20230808.png</t>
+          <t>2023/2023-08-08///20230808.png</t>
         </is>
       </c>
       <c r="G138">
@@ -59708,12 +59708,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2023/2023-08-15/20230815.R</t>
+          <t>2023/2023-08-15///20230815.R</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-08-15/20230815.png</t>
+          <t>2023/2023-08-15///20230815.png</t>
         </is>
       </c>
       <c r="G139">
@@ -60136,12 +60136,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2023/2023-08-22/20230822.R</t>
+          <t>2023/2023-08-22///20230822.R</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-08-22/20230822.png</t>
+          <t>2023/2023-08-22///20230822.png</t>
         </is>
       </c>
       <c r="G140">
@@ -60564,12 +60564,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2023/2023-08-29/20230829.R</t>
+          <t>2023/2023-08-29///20230829.R</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-08-29/20230829.png</t>
+          <t>2023/2023-08-29///20230829.png</t>
         </is>
       </c>
       <c r="G141">
@@ -60992,12 +60992,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2023/2023-09-05/20230905.R</t>
+          <t>2023/2023-09-05///20230905.R</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-09-05/20230905.png</t>
+          <t>2023/2023-09-05///20230905.png</t>
         </is>
       </c>
       <c r="G142">
@@ -61420,12 +61420,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2023/2023-09-12/20230912.R</t>
+          <t>2023/2023-09-12///20230912.R</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-09-12/20230912.png</t>
+          <t>2023/2023-09-12///20230912.png</t>
         </is>
       </c>
       <c r="G143">
@@ -61848,12 +61848,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2023/2023-09-19/20230919.R</t>
+          <t>2023/2023-09-19///20230919.R</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-09-19/20230919.png</t>
+          <t>2023/2023-09-19///20230919.png</t>
         </is>
       </c>
       <c r="G144">
@@ -62276,12 +62276,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2023/2023-09-26/20230926.R</t>
+          <t>2023/2023-09-26///20230926.R</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-09-26/20230926.png</t>
+          <t>2023/2023-09-26///20230926.png</t>
         </is>
       </c>
       <c r="G145">
@@ -62704,12 +62704,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2023/2023-10-03/20231003.R</t>
+          <t>2023/2023-10-03///20231003.R</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-10-03/20231003.png</t>
+          <t>2023/2023-10-03///20231003.png</t>
         </is>
       </c>
       <c r="G146">
@@ -63132,12 +63132,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2023/2023-10-10/20231010.R</t>
+          <t>2023/2023-10-10///20231010.R</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-10-10/20231010.png</t>
+          <t>2023/2023-10-10///20231010.png</t>
         </is>
       </c>
       <c r="G147">
@@ -63560,12 +63560,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2023/2023-10-17/20231017.R</t>
+          <t>2023/2023-10-17///20231017.R</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-10-17/20231017.png</t>
+          <t>2023/2023-10-17///20231017.png</t>
         </is>
       </c>
       <c r="G148">
@@ -63988,12 +63988,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2023/2023-10-24/20231024.R</t>
+          <t>2023/2023-10-24///20231024.R</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-10-24/20231024.png</t>
+          <t>2023/2023-10-24///20231024_clusters.png</t>
         </is>
       </c>
       <c r="G149">
@@ -64416,12 +64416,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2023/2023-10-31/20231031.R</t>
+          <t>2023/2023-10-31///20231031.R</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-10-31/20231031.png</t>
+          <t>2023/2023-10-31///20231031.png</t>
         </is>
       </c>
       <c r="G150">
@@ -64844,12 +64844,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2023/2023-11-07/20231107.R</t>
+          <t>2023/2023-11-07///20231107.R</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-11-07/20231107.png</t>
+          <t>2023/2023-11-07///20231107.png</t>
         </is>
       </c>
       <c r="G151">
@@ -65272,12 +65272,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2023/2023-11-14/20231114.R</t>
+          <t>2023/2023-11-14///20231114.R</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-11-14/20231114.png</t>
+          <t>2023/2023-11-14///20231114.png</t>
         </is>
       </c>
       <c r="G152">
@@ -65700,12 +65700,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2023/2023-11-21/20231121.R</t>
+          <t>2023/2023-11-21///20231121.R</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-11-21/20231121.png</t>
+          <t>2023/2023-11-21///20231121.png</t>
         </is>
       </c>
       <c r="G153">
@@ -66128,12 +66128,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2023/2023-11-28/20231128.R</t>
+          <t>2023/2023-11-28///20231128.R</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-11-28/20231128.png</t>
+          <t>2023/2023-11-28///20231128.png</t>
         </is>
       </c>
       <c r="G154">
@@ -66556,12 +66556,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2023/2023-12-05/20231205.R</t>
+          <t>2023/2023-12-05///20231205.R</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-12-05/20231205.png</t>
+          <t>2023/2023-12-05///20231205.png</t>
         </is>
       </c>
       <c r="G155">
@@ -66984,12 +66984,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2023/2023-12-12/20231212.R</t>
+          <t>2023/2023-12-12///20231212.R</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-12-12/20231212.png</t>
+          <t>2023/2023-12-12///20231212.png</t>
         </is>
       </c>
       <c r="G156">
@@ -67412,12 +67412,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2023/2023-12-19/20231219.R</t>
+          <t>2023/2023-12-19///20231219.R</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-12-19/20231219.png</t>
+          <t>2023/2023-12-19///20231219.png</t>
         </is>
       </c>
       <c r="G157">
@@ -67840,12 +67840,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2023/2023-12-26/20231226.R</t>
+          <t>2023/2023-12-26///20231226.R</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-12-26/20231226.png</t>
+          <t>2023/2023-12-26///20231226.png</t>
         </is>
       </c>
       <c r="G158">
@@ -68268,12 +68268,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2024/2024-01-02/20240102.R</t>
+          <t>2024/2024-01-02///20240102.R</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2024/2024-01-02/20240102.png</t>
+          <t>2024/2024-01-02///20240102.png</t>
         </is>
       </c>
       <c r="G159">
@@ -68696,12 +68696,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2024/2024-01-09/20240109.R</t>
+          <t>2024/2024-01-09///20240109.R</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2024/2024-01-09/20240109.png</t>
+          <t>2024/2024-01-09///20240109_canada.png</t>
         </is>
       </c>
       <c r="G160">
@@ -69124,12 +69124,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2024/2024-01-16/20240116.R</t>
+          <t>2024/2024-01-16///20240116.R</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2024/2024-01-16/20240116.png</t>
+          <t>2024/2024-01-16///20240116.png</t>
         </is>
       </c>
       <c r="G161">
@@ -69552,12 +69552,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2024/2024-01-23/20240123.R</t>
+          <t>2024/2024-01-23///20240123.R</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2024/2024-01-23/20240123.png</t>
+          <t>2024/2024-01-23///20240123.png</t>
         </is>
       </c>
       <c r="G162">
@@ -69980,12 +69980,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2024/2024-01-30/20240130.R</t>
+          <t>2024/2024-01-30///20240130.R</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2024/2024-01-30/20240130.png</t>
+          <t>2024/2024-01-30///20240130.png</t>
         </is>
       </c>
       <c r="G163">
@@ -70408,12 +70408,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2024/2024-02-06/20240206.R</t>
+          <t>2024/2024-02-06///20240206.R</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-02-06/20240206.png</t>
+          <t>2024/2024-02-06///20240206.png</t>
         </is>
       </c>
       <c r="G164">
@@ -70836,12 +70836,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2024/2024-02-13/20240213.R</t>
+          <t>2024/2024-02-13///20240213.R</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-02-13/20240213.png</t>
+          <t>2024/2024-02-13///20240213.png</t>
         </is>
       </c>
       <c r="G165">
@@ -71264,12 +71264,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2024/2024-02-20/20240220.R</t>
+          <t>2024/2024-02-20///20240220.R</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-02-20/20240220.png</t>
+          <t>2024/2024-02-20///20240220.png</t>
         </is>
       </c>
       <c r="G166">
@@ -71692,12 +71692,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2024/2024-02-27/20240227.R</t>
+          <t>2024/2024-02-27///20240227.R</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-02-27/20240227.png</t>
+          <t>2024/2024-02-27///20240227.png</t>
         </is>
       </c>
       <c r="G167">
@@ -72120,12 +72120,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2024/2024-03-05/20240305.R</t>
+          <t>2024/2024-03-05///20240305.R</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-03-05/20240305.png</t>
+          <t>2024/2024-03-05///20240305.png</t>
         </is>
       </c>
       <c r="G168">

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EI169"/>
+  <dimension ref="A1:EI170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -73462,6 +73462,437 @@
         <v>0</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>X-Men Mutant Moneyball</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, snakecase, ggchicklet, ggimage, cropcircles, tidytuesdayR, grid</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2024/2024-03-19///20240319.R</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2024/2024-03-19///20240319.png</t>
+        </is>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+      <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+      <c r="AE170">
+        <v>0</v>
+      </c>
+      <c r="AF170">
+        <v>1</v>
+      </c>
+      <c r="AG170">
+        <v>0</v>
+      </c>
+      <c r="AH170">
+        <v>0</v>
+      </c>
+      <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AK170">
+        <v>1</v>
+      </c>
+      <c r="AL170">
+        <v>0</v>
+      </c>
+      <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>0</v>
+      </c>
+      <c r="AO170">
+        <v>0</v>
+      </c>
+      <c r="AP170">
+        <v>0</v>
+      </c>
+      <c r="AQ170">
+        <v>0</v>
+      </c>
+      <c r="AR170">
+        <v>0</v>
+      </c>
+      <c r="AS170">
+        <v>0</v>
+      </c>
+      <c r="AT170">
+        <v>0</v>
+      </c>
+      <c r="AU170">
+        <v>0</v>
+      </c>
+      <c r="AV170">
+        <v>0</v>
+      </c>
+      <c r="AW170">
+        <v>0</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>1</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>1</v>
+      </c>
+      <c r="BH170">
+        <v>1</v>
+      </c>
+      <c r="BI170">
+        <v>0</v>
+      </c>
+      <c r="BJ170">
+        <v>0</v>
+      </c>
+      <c r="BK170">
+        <v>0</v>
+      </c>
+      <c r="BL170">
+        <v>0</v>
+      </c>
+      <c r="BM170">
+        <v>0</v>
+      </c>
+      <c r="BN170">
+        <v>0</v>
+      </c>
+      <c r="BO170">
+        <v>0</v>
+      </c>
+      <c r="BP170">
+        <v>0</v>
+      </c>
+      <c r="BQ170">
+        <v>0</v>
+      </c>
+      <c r="BR170">
+        <v>0</v>
+      </c>
+      <c r="BS170">
+        <v>0</v>
+      </c>
+      <c r="BT170">
+        <v>0</v>
+      </c>
+      <c r="BU170">
+        <v>0</v>
+      </c>
+      <c r="BV170">
+        <v>0</v>
+      </c>
+      <c r="BW170">
+        <v>0</v>
+      </c>
+      <c r="BX170">
+        <v>0</v>
+      </c>
+      <c r="BY170">
+        <v>0</v>
+      </c>
+      <c r="BZ170">
+        <v>0</v>
+      </c>
+      <c r="CA170">
+        <v>0</v>
+      </c>
+      <c r="CB170">
+        <v>1</v>
+      </c>
+      <c r="CC170">
+        <v>0</v>
+      </c>
+      <c r="CD170">
+        <v>0</v>
+      </c>
+      <c r="CE170">
+        <v>0</v>
+      </c>
+      <c r="CF170">
+        <v>0</v>
+      </c>
+      <c r="CG170">
+        <v>0</v>
+      </c>
+      <c r="CH170">
+        <v>0</v>
+      </c>
+      <c r="CI170">
+        <v>0</v>
+      </c>
+      <c r="CJ170">
+        <v>0</v>
+      </c>
+      <c r="CK170">
+        <v>0</v>
+      </c>
+      <c r="CL170">
+        <v>0</v>
+      </c>
+      <c r="CM170">
+        <v>0</v>
+      </c>
+      <c r="CN170">
+        <v>0</v>
+      </c>
+      <c r="CO170">
+        <v>0</v>
+      </c>
+      <c r="CP170">
+        <v>0</v>
+      </c>
+      <c r="CQ170">
+        <v>0</v>
+      </c>
+      <c r="CR170">
+        <v>0</v>
+      </c>
+      <c r="CS170">
+        <v>0</v>
+      </c>
+      <c r="CT170">
+        <v>0</v>
+      </c>
+      <c r="CU170">
+        <v>0</v>
+      </c>
+      <c r="CV170">
+        <v>0</v>
+      </c>
+      <c r="CW170">
+        <v>0</v>
+      </c>
+      <c r="CX170">
+        <v>0</v>
+      </c>
+      <c r="CY170">
+        <v>0</v>
+      </c>
+      <c r="CZ170">
+        <v>0</v>
+      </c>
+      <c r="DA170">
+        <v>0</v>
+      </c>
+      <c r="DB170">
+        <v>0</v>
+      </c>
+      <c r="DC170">
+        <v>0</v>
+      </c>
+      <c r="DD170">
+        <v>0</v>
+      </c>
+      <c r="DE170">
+        <v>0</v>
+      </c>
+      <c r="DF170">
+        <v>1</v>
+      </c>
+      <c r="DG170">
+        <v>1</v>
+      </c>
+      <c r="DH170">
+        <v>0</v>
+      </c>
+      <c r="DI170">
+        <v>0</v>
+      </c>
+      <c r="DJ170">
+        <v>0</v>
+      </c>
+      <c r="DK170">
+        <v>0</v>
+      </c>
+      <c r="DL170">
+        <v>0</v>
+      </c>
+      <c r="DM170">
+        <v>0</v>
+      </c>
+      <c r="DN170">
+        <v>0</v>
+      </c>
+      <c r="DO170">
+        <v>0</v>
+      </c>
+      <c r="DP170">
+        <v>0</v>
+      </c>
+      <c r="DQ170">
+        <v>0</v>
+      </c>
+      <c r="DR170">
+        <v>0</v>
+      </c>
+      <c r="DS170">
+        <v>0</v>
+      </c>
+      <c r="DT170">
+        <v>0</v>
+      </c>
+      <c r="DU170">
+        <v>0</v>
+      </c>
+      <c r="DV170">
+        <v>1</v>
+      </c>
+      <c r="DW170">
+        <v>1</v>
+      </c>
+      <c r="DX170">
+        <v>0</v>
+      </c>
+      <c r="DY170">
+        <v>0</v>
+      </c>
+      <c r="DZ170">
+        <v>0</v>
+      </c>
+      <c r="EA170">
+        <v>0</v>
+      </c>
+      <c r="EB170">
+        <v>0</v>
+      </c>
+      <c r="EC170">
+        <v>0</v>
+      </c>
+      <c r="ED170">
+        <v>0</v>
+      </c>
+      <c r="EE170">
+        <v>0</v>
+      </c>
+      <c r="EF170">
+        <v>0</v>
+      </c>
+      <c r="EG170">
+        <v>0</v>
+      </c>
+      <c r="EH170">
+        <v>0</v>
+      </c>
+      <c r="EI170">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2020/2020-04-21///20200421.R</t>
+          <t>2020/2020-04-21/20200421.R</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2020/2020-04-21///20200421.jpg</t>
+          <t>2020/2020-04-21/20200421.jpg</t>
         </is>
       </c>
       <c r="G2">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2020/2020-07-28///20200728.R</t>
+          <t>2020/2020-07-28/20200728.R</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020/2020-07-28///20200728.jpg</t>
+          <t>2020/2020-07-28/20200728.jpg</t>
         </is>
       </c>
       <c r="G3">
@@ -1939,12 +1939,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2020/2020-12-08///20201208.R</t>
+          <t>2020/2020-12-08/20201208.R</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2020/2020-12-08///20201208.jpg</t>
+          <t>2020/2020-12-08/20201208.jpg</t>
         </is>
       </c>
       <c r="G4">
@@ -2370,12 +2370,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021/01-06-2021///01062021.R</t>
+          <t>2021/01-06-2021/01062021.R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021/01-06-2021///01062021.jpg</t>
+          <t>2021/01-06-2021/01062021.jpg</t>
         </is>
       </c>
       <c r="G5">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021/02-02-2021///02022021.R</t>
+          <t>2021/02-02-2021/02022021.R</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021/02-02-2021///02022021.jpg</t>
+          <t>2021/02-02-2021/02022021.jpg</t>
         </is>
       </c>
       <c r="G6">
@@ -3232,12 +3232,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021/02-03-2021///02032021.R</t>
+          <t>2021/02-03-2021/02032021.R</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021/02-03-2021///02032021.jpg</t>
+          <t>2021/02-03-2021/02032021.jpg</t>
         </is>
       </c>
       <c r="G7">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021/02-11-2021///02112021.R</t>
+          <t>2021/02-11-2021/02112021.R</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021/02-11-2021///02112021.png</t>
+          <t>2021/02-11-2021/02112021.png</t>
         </is>
       </c>
       <c r="G8">
@@ -4094,12 +4094,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021/03-08-2021///03082021.R</t>
+          <t>2021/03-08-2021/03082021.R</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021/03-08-2021///03082021_table.png</t>
+          <t>2021/03-08-2021/03082021.jpg</t>
         </is>
       </c>
       <c r="G9">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021/04-05-2021///04052021.R</t>
+          <t>2021/04-05-2021/04052021.R</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/04-05-2021///04052021.jpg</t>
+          <t>2021/04-05-2021/04052021.jpg</t>
         </is>
       </c>
       <c r="G10">
@@ -4956,12 +4956,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021/05-01-2021///05012021.R</t>
+          <t>2021/05-01-2021/05012021.R</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/05-01-2021///05012021.jpg</t>
+          <t>2021/05-01-2021/05012021.jpg</t>
         </is>
       </c>
       <c r="G11">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021/05-10-2021///05102021.R</t>
+          <t>2021/05-10-2021/05102021.R</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/05-10-2021///05102021.jpg</t>
+          <t>2021/05-10-2021/05102021.jpg</t>
         </is>
       </c>
       <c r="G12">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021/06-04-2021///06042021.R</t>
+          <t>2021/06-04-2021/06042021.R</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/06-04-2021///06042021_plot1.jpg</t>
+          <t>2021/06-04-2021/06042021.jpg</t>
         </is>
       </c>
       <c r="G13">
@@ -6249,12 +6249,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021/06-07-2021///06072021.R</t>
+          <t>2021/06-07-2021/06072021.R</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/06-07-2021///06072021.jpg</t>
+          <t>2021/06-07-2021/06072021.jpg</t>
         </is>
       </c>
       <c r="G14">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021/07-09-2021///07092021.R</t>
+          <t>2021/07-09-2021/07092021.R</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/07-09-2021///07092021.jpg</t>
+          <t>2021/07-09-2021/07092021.jpg</t>
         </is>
       </c>
       <c r="G15">
@@ -7111,12 +7111,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021/07-12-2021///07122021.R</t>
+          <t>2021/07-12-2021/07122021.R</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/07-12-2021///07122021.jpeg</t>
+          <t>2021/07-12-2021/07122021.jpeg</t>
         </is>
       </c>
       <c r="G16">
@@ -7542,12 +7542,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021/08-06-2021///08062021.R</t>
+          <t>2021/08-06-2021/08062021.R</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/08-06-2021///08062021.jpg</t>
+          <t>2021/08-06-2021/08062021.jpg</t>
         </is>
       </c>
       <c r="G17">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021/09-02-2021///09022021.R</t>
+          <t>2021/09-02-2021/09022021.R</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/09-02-2021///09022021.jpg</t>
+          <t>2021/09-02-2021/09022021.jpg</t>
         </is>
       </c>
       <c r="G18">
@@ -8404,12 +8404,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021/09-03-2021///09032021.R</t>
+          <t>2021/09-03-2021/09032021.R</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/09-03-2021///09032021.jpg</t>
+          <t>2021/09-03-2021/09032021.jpg</t>
         </is>
       </c>
       <c r="G19">
@@ -8835,12 +8835,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021/09-11-2021///09112021.R</t>
+          <t>2021/09-11-2021/09112021.R</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/09-11-2021///09112021.jpg</t>
+          <t>2021/09-11-2021/09112021.jpg</t>
         </is>
       </c>
       <c r="G20">
@@ -9266,12 +9266,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021/10-08-2021///10082021.R</t>
+          <t>2021/10-08-2021/10082021.R</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/10-08-2021///10082021.jpg</t>
+          <t>2021/10-08-2021/10082021.jpg</t>
         </is>
       </c>
       <c r="G21">
@@ -9697,12 +9697,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021/11-05-2021///11052021.R</t>
+          <t>2021/11-05-2021/11052021.R</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/11-05-2021///11052021.jpg</t>
+          <t>2021/11-05-2021/11052021.jpg</t>
         </is>
       </c>
       <c r="G22">
@@ -10128,12 +10128,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021/12-01-2021///12012021.R</t>
+          <t>2021/12-01-2021/12012021.R</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/12-01-2021///12012021.jpg</t>
+          <t>2021/12-01-2021/12012021.jpg</t>
         </is>
       </c>
       <c r="G23">
@@ -10559,12 +10559,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021/12-10-2021///12102021.R</t>
+          <t>2021/12-10-2021/12102021.R</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/12-10-2021///12102021_f1.jpg</t>
+          <t>2021/12-10-2021/12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G24">
@@ -10990,12 +10990,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021/13-04-2021///13042021.R</t>
+          <t>2021/13-04-2021/13042021.R</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/13-04-2021///13042021.jpg</t>
+          <t>2021/13-04-2021/13042021.jpg</t>
         </is>
       </c>
       <c r="G25">
@@ -11421,12 +11421,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021/13-07-2021///13072021.R</t>
+          <t>2021/13-07-2021/13072021.R</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/13-07-2021///13072021.jpg</t>
+          <t>2021/13-07-2021/13072021.jpg</t>
         </is>
       </c>
       <c r="G26">
@@ -11852,12 +11852,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021/14-09-2021///14092021.R</t>
+          <t>2021/14-09-2021/14092021.R</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/14-09-2021///14092021.jpg</t>
+          <t>2021/14-09-2021/14092021.jpg</t>
         </is>
       </c>
       <c r="G27">
@@ -12283,12 +12283,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021/14-12-2021///14122021.R</t>
+          <t>2021/14-12-2021/14122021.R</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/14-12-2021///14122021.jpg</t>
+          <t>2021/14-12-2021/14122021.jpg</t>
         </is>
       </c>
       <c r="G28">
@@ -12714,12 +12714,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021/15-06-2021///15062021.R</t>
+          <t>2021/15-06-2021/15062021.R</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/15-06-2021///15062021.jpg</t>
+          <t>2021/15-06-2021/15062021.jpg</t>
         </is>
       </c>
       <c r="G29">
@@ -13145,12 +13145,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021/16-02-2021///16022021.R</t>
+          <t>2021/16-02-2021/16022021.R</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/16-02-2021///16022021.jpg</t>
+          <t>2021/16-02-2021/16022021.jpg</t>
         </is>
       </c>
       <c r="G30">
@@ -13576,12 +13576,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021/16-03-2021///16032021.R</t>
+          <t>2021/16-03-2021/16032021.R</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/16-03-2021///16032021.jpg</t>
+          <t>2021/16-03-2021/16032021.jpg</t>
         </is>
       </c>
       <c r="G31">
@@ -14007,12 +14007,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021/17-08-2021///17082021.R</t>
+          <t>2021/17-08-2021/17082021.R</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/17-08-2021///17082021.jpg</t>
+          <t>2021/17-08-2021/17082021.jpg</t>
         </is>
       </c>
       <c r="G32">
@@ -14438,12 +14438,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021/18-05-2021///18052021.R</t>
+          <t>2021/18-05-2021/18052021.R</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/18-05-2021///18052021.jpg</t>
+          <t>2021/18-05-2021/18052021.jpg</t>
         </is>
       </c>
       <c r="G33">
@@ -14869,12 +14869,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021/19-01-2021///19012021.R</t>
+          <t>2021/19-01-2021/19012021.R</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/19-01-2021///19012021.jpg</t>
+          <t>2021/19-01-2021/19012021.jpg</t>
         </is>
       </c>
       <c r="G34">
@@ -15300,12 +15300,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021/19-10-2021///19102021.R</t>
+          <t>2021/19-10-2021/19102021.R</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/19-10-2021///19102021.jpg</t>
+          <t>2021/19-10-2021/19102021.jpg</t>
         </is>
       </c>
       <c r="G35">
@@ -15731,12 +15731,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021/20-04-2021///20042021.R</t>
+          <t>2021/20-04-2021/20042021.R</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/20-04-2021///20042021.png</t>
+          <t>2021/20-04-2021/20042021.png</t>
         </is>
       </c>
       <c r="G36">
@@ -16162,12 +16162,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021/20-07-2021///20072021.R</t>
+          <t>2021/20-07-2021/20072021.R</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/20-07-2021///20072021.jpg</t>
+          <t>2021/20-07-2021/20072021.jpg</t>
         </is>
       </c>
       <c r="G37">
@@ -16593,12 +16593,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2021/21-09-2021///21092021.R</t>
+          <t>2021/21-09-2021/21092021.R</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/21-09-2021///21092021_waffle.jpg</t>
+          <t>2021/21-09-2021/21092021.jpg</t>
         </is>
       </c>
       <c r="G38">
@@ -17024,12 +17024,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021/21-12-2021///21122021.R</t>
+          <t>2021/21-12-2021/21122021.R</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/21-12-2021///21122021.jpg</t>
+          <t>2021/21-12-2021/21122021.jpg</t>
         </is>
       </c>
       <c r="G39">
@@ -17455,12 +17455,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021/22-06-2021///22062021_stream_plots.R</t>
+          <t>2021/22-06-2021/22062021.R</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/22-06-2021///22062021_v2.jpg</t>
+          <t>2021/22-06-2021/22062021.jpg</t>
         </is>
       </c>
       <c r="G40">
@@ -17886,12 +17886,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021/23-02-2021///23022021.R</t>
+          <t>2021/23-02-2021/23022021.R</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/23-02-2021///23022021.jpg</t>
+          <t>2021/23-02-2021/23022021.jpg</t>
         </is>
       </c>
       <c r="G41">
@@ -18317,12 +18317,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2021/23-03-2021///23032021.R</t>
+          <t>2021/23-03-2021/23032021.R</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/23-03-2021///23032021.jpg</t>
+          <t>2021/23-03-2021/23032021.jpg</t>
         </is>
       </c>
       <c r="G42">
@@ -18748,12 +18748,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021/23-11-2021///23112021.R</t>
+          <t>2021/23-11-2021/23112021.R</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/23-11-2021///23112021.jpg</t>
+          <t>2021/23-11-2021/23112021.jpg</t>
         </is>
       </c>
       <c r="G43">
@@ -19179,12 +19179,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021/24-08-2021///24082021.R</t>
+          <t>2021/24-08-2021/24082021.R</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/24-08-2021///24082021.jpg</t>
+          <t>2021/24-08-2021/24082021.jpg</t>
         </is>
       </c>
       <c r="G44">
@@ -19610,12 +19610,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021/25-05-2021///25052021.R</t>
+          <t>2021/25-05-2021/25052021.R</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/25-05-2021///25052021.jpg</t>
+          <t>2021/25-05-2021/25052021.jpg</t>
         </is>
       </c>
       <c r="G45">
@@ -20041,12 +20041,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2021/26-01-2021///26012021.R</t>
+          <t>2021/26-01-2021/26012021.R</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/26-01-2021///26012021.jpg</t>
+          <t>2021/26-01-2021/26012021.jpg</t>
         </is>
       </c>
       <c r="G46">
@@ -20472,12 +20472,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2021/26-10-2021///26102021.R</t>
+          <t>2021/26-10-2021/26102021.R</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/26-10-2021///26102021.jpg</t>
+          <t>2021/26-10-2021/26102021.jpg</t>
         </is>
       </c>
       <c r="G47">
@@ -20903,12 +20903,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2021/27-04-2021///27042021.R</t>
+          <t>2021/27-04-2021/27042021.R</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/27-04-2021///27042021.jpg</t>
+          <t>2021/27-04-2021/27042021.jpg</t>
         </is>
       </c>
       <c r="G48">
@@ -21334,12 +21334,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2021/27-07-2021///27072021.R</t>
+          <t>2021/27-07-2021/27072021.R</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/27-07-2021///27072021.jpg</t>
+          <t>2021/27-07-2021/27072021.jpg</t>
         </is>
       </c>
       <c r="G49">
@@ -21765,12 +21765,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2021/28-09-2021///28092021.R</t>
+          <t>2021/28-09-2021/28092021.R</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/28-09-2021///28092021.jpg</t>
+          <t>2021/28-09-2021/28092021.jpg</t>
         </is>
       </c>
       <c r="G50">
@@ -22196,12 +22196,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2021/29-06-2021///29062021.R</t>
+          <t>2021/29-06-2021/29062021.R</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/29-06-2021///29062021.jpg</t>
+          <t>2021/29-06-2021/29062021.jpg</t>
         </is>
       </c>
       <c r="G51">
@@ -22627,12 +22627,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021/29-12-2020///29122020.R</t>
+          <t>2021/29-12-2020/29122020.R</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/29-12-2020///29122020.jpg</t>
+          <t>2021/29-12-2020/29122020.jpg</t>
         </is>
       </c>
       <c r="G52">
@@ -23058,12 +23058,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2021/30-03-2021///30032021.R</t>
+          <t>2021/30-03-2021/30032021.R</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/30-03-2021///30032021.jpg</t>
+          <t>2021/30-03-2021/30032021.jpg</t>
         </is>
       </c>
       <c r="G53">
@@ -23489,12 +23489,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2021/30-11-2021///30112021.R</t>
+          <t>2021/30-11-2021/30112021.R</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/30-11-2021///30112021_v2.jpeg</t>
+          <t>2021/30-11-2021/30112021.jpeg</t>
         </is>
       </c>
       <c r="G54">
@@ -23920,12 +23920,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2021/31-08-2021///31082021.R</t>
+          <t>2021/31-08-2021/31082021.R</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/31-08-2021///31082021.jpg</t>
+          <t>2021/31-08-2021/31082021.jpg</t>
         </is>
       </c>
       <c r="G55">
@@ -24351,12 +24351,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2022/2022-01-04///20220104.R</t>
+          <t>2022/2022-01-04/20220104.R</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022/2022-01-04///20220104.jpg</t>
+          <t>2022/2022-01-04/20220104.jpg</t>
         </is>
       </c>
       <c r="G56">
@@ -24782,12 +24782,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2022/2022-01-11///20220111.R</t>
+          <t>2022/2022-01-11/20220111.R</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022/2022-01-11///20220111.jpg</t>
+          <t>2022/2022-01-11/20220111.jpg</t>
         </is>
       </c>
       <c r="G57">
@@ -25213,12 +25213,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2022/2022-01-18///20220118.R</t>
+          <t>2022/2022-01-18/20220118.R</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022/2022-01-18///20220118.png</t>
+          <t>2022/2022-01-18/20220118.png</t>
         </is>
       </c>
       <c r="G58">
@@ -25644,12 +25644,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2022/2022-01-25///20220125.R</t>
+          <t>2022/2022-01-25/20220125.R</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022/2022-01-25///20220125.jpeg</t>
+          <t>2022/2022-01-25/20220125.jpeg</t>
         </is>
       </c>
       <c r="G59">
@@ -26075,12 +26075,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2022/2022-02-01///20220201.R</t>
+          <t>2022/2022-02-01/20220201.R</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022/2022-02-01///20220201.jpg</t>
+          <t>2022/2022-02-01/20220201.jpg</t>
         </is>
       </c>
       <c r="G60">
@@ -26506,12 +26506,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2022/2022-02-08///20220208.R</t>
+          <t>2022/2022-02-08/20220208.R</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-02-08///20220208.jpeg</t>
+          <t>2022/2022-02-08/20220208.jpeg</t>
         </is>
       </c>
       <c r="G61">
@@ -26937,12 +26937,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2022/2022-02-15///20220215.R</t>
+          <t>2022/2022-02-15/20220215.R</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-02-15///20220215.jpg</t>
+          <t>2022/2022-02-15/20220215.jpg</t>
         </is>
       </c>
       <c r="G62">
@@ -27368,12 +27368,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2022/2022-02-22///20220222.R</t>
+          <t>2022/2022-02-22/20220222.R</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-02-22///20220222.jpeg</t>
+          <t>2022/2022-02-22/20220222.jpeg</t>
         </is>
       </c>
       <c r="G63">
@@ -27799,12 +27799,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2022/2022-03-01///20220301.R</t>
+          <t>2022/2022-03-01/20220301.R</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-03-01///20220301.jpg</t>
+          <t>2022/2022-03-01/20220301.jpg</t>
         </is>
       </c>
       <c r="G64">
@@ -28230,12 +28230,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2022/2022-03-08///20220308.R</t>
+          <t>2022/2022-03-08/20220308.R</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-03-08///20220308.jpeg</t>
+          <t>2022/2022-03-08/20220308.jpeg</t>
         </is>
       </c>
       <c r="G65">
@@ -28661,12 +28661,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2022/2022-03-15///20220315.R</t>
+          <t>2022/2022-03-15/20220315.R</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-03-15///20220315.jpeg</t>
+          <t>2022/2022-03-15/20220315.jpeg</t>
         </is>
       </c>
       <c r="G66">
@@ -29092,12 +29092,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2022/2022-03-22///20220322.R</t>
+          <t>2022/2022-03-22/20220322.R</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-03-22///20220322.jpeg</t>
+          <t>2022/2022-03-22/20220322.jpeg</t>
         </is>
       </c>
       <c r="G67">
@@ -29523,12 +29523,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2022/2022-03-29///20220329.R</t>
+          <t>2022/2022-03-29/20220329.R</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-03-29///20220329.jpeg</t>
+          <t>2022/2022-03-29/20220329.jpeg</t>
         </is>
       </c>
       <c r="G68">
@@ -29954,12 +29954,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2022/2022-04-05///20220405.R</t>
+          <t>2022/2022-04-05/20220405.R</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-04-05///20220405.png</t>
+          <t>2022/2022-04-05/20220405.png</t>
         </is>
       </c>
       <c r="G69">
@@ -30385,12 +30385,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2022/2022-04-12///20220412.R</t>
+          <t>2022/2022-04-12/20220412.R</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-04-12///20220412.png</t>
+          <t>2022/2022-04-12/20220412.png</t>
         </is>
       </c>
       <c r="G70">
@@ -30816,12 +30816,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2022/2022-04-19///20220419.R</t>
+          <t>2022/2022-04-19/20220419.R</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-04-19///20220419.jpeg</t>
+          <t>2022/2022-04-19/20220419.jpeg</t>
         </is>
       </c>
       <c r="G71">
@@ -31247,12 +31247,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2022/2022-04-26///20220426.R</t>
+          <t>2022/2022-04-26/20220426.R</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-04-26///20220426.png</t>
+          <t>2022/2022-04-26/20220426.png</t>
         </is>
       </c>
       <c r="G72">
@@ -31678,12 +31678,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2022/2022-05-03///20220503.R</t>
+          <t>2022/2022-05-03/20220503.R</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-05-03///20220503_bar.png</t>
+          <t>2022/2022-05-03/20220503_bar.png</t>
         </is>
       </c>
       <c r="G73">
@@ -32109,12 +32109,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2022/2022-05-10///20220510.R</t>
+          <t>2022/2022-05-10/20220510.R</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-05-10///20220510.png</t>
+          <t>2022/2022-05-10/20220510.png</t>
         </is>
       </c>
       <c r="G74">
@@ -32540,12 +32540,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2022/2022-05-17///20220517.R</t>
+          <t>2022/2022-05-17/20220517.R</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-05-17///20220517_tableau.png</t>
+          <t>2022/2022-05-17/20220517.png</t>
         </is>
       </c>
       <c r="G75">
@@ -32971,12 +32971,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2022/2022-05-24///20220524.R</t>
+          <t>2022/2022-05-24/20220524.R</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-05-24///20220524.png</t>
+          <t>2022/2022-05-24/20220524.png</t>
         </is>
       </c>
       <c r="G76">
@@ -33402,12 +33402,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2022/2022-05-31///20220531.R</t>
+          <t>2022/2022-05-31/20220531.R</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-05-31///20220531.png</t>
+          <t>2022/2022-05-31/20220531.png</t>
         </is>
       </c>
       <c r="G77">
@@ -33833,12 +33833,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2022/2022-06-07///20220607.R</t>
+          <t>2022/2022-06-07/20220607.R</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-06-07///20220607.png</t>
+          <t>2022/2022-06-07/20220607.png</t>
         </is>
       </c>
       <c r="G78">
@@ -34264,12 +34264,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2022/2022-06-14///20220614.R</t>
+          <t>2022/2022-06-14/20220614.R</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-06-14///20220614.png</t>
+          <t>2022/2022-06-14/20220614.png</t>
         </is>
       </c>
       <c r="G79">
@@ -34695,12 +34695,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2022/2022-06-21///20220621.R</t>
+          <t>2022/2022-06-21/20220621.R</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-06-21///20220621.png</t>
+          <t>2022/2022-06-21/20220621.png</t>
         </is>
       </c>
       <c r="G80">
@@ -35126,12 +35126,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2022/2022-06-28///20220628.R</t>
+          <t>2022/2022-06-28/20220628.R</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-06-28///20220628.png</t>
+          <t>2022/2022-06-28/20220628.png</t>
         </is>
       </c>
       <c r="G81">
@@ -35557,12 +35557,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2022/2022-07-05///20220705.R</t>
+          <t>2022/2022-07-05/20220705.R</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-07-05///20220705.png</t>
+          <t>2022/2022-07-05/20220705.png</t>
         </is>
       </c>
       <c r="G82">
@@ -35988,12 +35988,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2022/2022-07-12///20220712.R</t>
+          <t>2022/2022-07-12/20220712.R</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-07-12///20220712.png</t>
+          <t>2022/2022-07-12/20220712.png</t>
         </is>
       </c>
       <c r="G83">
@@ -36419,12 +36419,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2022/2022-07-19///20220719.R</t>
+          <t>2022/2022-07-19/20220719.R</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-07-19///20220719.png</t>
+          <t>2022/2022-07-19/20220719.png</t>
         </is>
       </c>
       <c r="G84">
@@ -36850,12 +36850,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2022/2022-08-02///20220802.R</t>
+          <t>2022/2022-08-02/20220802.R</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-08-02///20220802.png</t>
+          <t>2022/2022-08-02/20220802.png</t>
         </is>
       </c>
       <c r="G85">
@@ -37281,12 +37281,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2022/2022-08-09///20220809.R</t>
+          <t>2022/2022-08-09/20220809.R</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-08-09///20220809.png</t>
+          <t>2022/2022-08-09/20220809.png</t>
         </is>
       </c>
       <c r="G86">
@@ -37712,12 +37712,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2022/2022-08-16///20220816.R</t>
+          <t>2022/2022-08-16/20220816.R</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-08-16///20220816.png</t>
+          <t>2022/2022-08-16/20220816.png</t>
         </is>
       </c>
       <c r="G87">
@@ -38143,12 +38143,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2022/2022-08-23///20220823.R</t>
+          <t>2022/2022-08-23/20220823.R</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-08-23///20220823.png</t>
+          <t>2022/2022-08-23/20220823.png</t>
         </is>
       </c>
       <c r="G88">
@@ -38574,12 +38574,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2022/2022-08-30///20220830.R</t>
+          <t>2022/2022-08-30/20220830.R</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-08-30///20220830.png</t>
+          <t>2022/2022-08-30/20220830.png</t>
         </is>
       </c>
       <c r="G89">
@@ -39005,12 +39005,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2022/2022-09-06///20220906.R</t>
+          <t>2022/2022-09-06/20220906.R</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-09-06///20220906.png</t>
+          <t>2022/2022-09-06/20220906.png</t>
         </is>
       </c>
       <c r="G90">
@@ -39436,12 +39436,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2022/2022-09-13///20220913.R</t>
+          <t>2022/2022-09-13/20220913.R</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-09-13///20220913.png</t>
+          <t>2022/2022-09-13/20220913.png</t>
         </is>
       </c>
       <c r="G91">
@@ -39867,12 +39867,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2022/2022-09-20///20220920.R</t>
+          <t>2022/2022-09-20/20220920.R</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-09-20///20220920.png</t>
+          <t>2022/2022-09-20/20220920.png</t>
         </is>
       </c>
       <c r="G92">
@@ -40298,12 +40298,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2022/2022-09-27///20220927.R</t>
+          <t>2022/2022-09-27/20220927.R</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-09-27///20220927.png</t>
+          <t>2022/2022-09-27/20220927.png</t>
         </is>
       </c>
       <c r="G93">
@@ -40729,12 +40729,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2022/2022-10-04///20221004.R</t>
+          <t>2022/2022-10-04/20221004.R</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-10-04///20221004.png</t>
+          <t>2022/2022-10-04/20221004.png</t>
         </is>
       </c>
       <c r="G94">
@@ -41160,12 +41160,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2022/2022-10-11///20221011.R</t>
+          <t>2022/2022-10-11/20221011.R</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-10-11///20221011.png</t>
+          <t>2022/2022-10-11/20221011.png</t>
         </is>
       </c>
       <c r="G95">
@@ -41591,12 +41591,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2022/2022-10-18///20221018.R</t>
+          <t>2022/2022-10-18/20221018.R</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-10-18///20221018.png</t>
+          <t>2022/2022-10-18/20221018.png</t>
         </is>
       </c>
       <c r="G96">
@@ -42022,12 +42022,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2022/2022-10-25///20221025.R</t>
+          <t>2022/2022-10-25/20221025.R</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-10-25///20221025.png</t>
+          <t>2022/2022-10-25/20221025.png</t>
         </is>
       </c>
       <c r="G97">
@@ -42453,12 +42453,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2022/2022-11-01///20221101.R</t>
+          <t>2022/2022-11-01/20221101.R</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-11-01///20221101.png</t>
+          <t>2022/2022-11-01/20221101.png</t>
         </is>
       </c>
       <c r="G98">
@@ -42884,12 +42884,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2022/2022-11-08///20221108.R</t>
+          <t>2022/2022-11-08/20221108.R</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-11-08///20221108.png</t>
+          <t>2022/2022-11-08/20221108.png</t>
         </is>
       </c>
       <c r="G99">
@@ -43315,12 +43315,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2022/2022-11-15///20221115.R</t>
+          <t>2022/2022-11-15/20221115.R</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-11-15///20221115_plot1.png</t>
+          <t>2022/2022-11-15/20221115_plot1.png</t>
         </is>
       </c>
       <c r="G100">
@@ -43746,12 +43746,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2022/2022-11-22///20221122.R</t>
+          <t>2022/2022-11-22/20221122.R</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-11-22///20221122.png</t>
+          <t>2022/2022-11-22/20221122.png</t>
         </is>
       </c>
       <c r="G101">
@@ -44177,12 +44177,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2022/2022-11-29///20221129.R</t>
+          <t>2022/2022-11-29/20221129.R</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-11-29///20221129.png</t>
+          <t>2022/2022-11-29/20221129.png</t>
         </is>
       </c>
       <c r="G102">
@@ -44608,12 +44608,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2022/2022-12-06///20221206.R</t>
+          <t>2022/2022-12-06/20221206.R</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-12-06///20221206.png</t>
+          <t>2022/2022-12-06/20221206.png</t>
         </is>
       </c>
       <c r="G103">
@@ -45039,12 +45039,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2022/2022-12-13///20221213.R</t>
+          <t>2022/2022-12-13/20221213.R</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-12-13///20221213.png</t>
+          <t>2022/2022-12-13/20221213.png</t>
         </is>
       </c>
       <c r="G104">
@@ -45470,12 +45470,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2022/2022-12-20///20221220.R</t>
+          <t>2022/2022-12-20/20221220.R</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-12-20///20221220.png</t>
+          <t>2022/2022-12-20/20221220.png</t>
         </is>
       </c>
       <c r="G105">
@@ -45901,12 +45901,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2022/2022-12-27///20221227.R</t>
+          <t>2022/2022-12-27/20221227.R</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-12-27///20221227.png</t>
+          <t>2022/2022-12-27/20221227.png</t>
         </is>
       </c>
       <c r="G106">
@@ -46332,12 +46332,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023/2023-01-03///20230103.R</t>
+          <t>2023/2023-01-03/20230103.R</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023/2023-01-03///20230103_raw.png</t>
+          <t>2023/2023-01-03/20230103.png</t>
         </is>
       </c>
       <c r="G107">
@@ -46763,12 +46763,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023/2023-01-10///20230110.R</t>
+          <t>2023/2023-01-10/20230110.R</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023/2023-01-10///20230110.png</t>
+          <t>2023/2023-01-10/20230110.png</t>
         </is>
       </c>
       <c r="G108">
@@ -47194,12 +47194,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023/2023-01-17///20230117.R</t>
+          <t>2023/2023-01-17/20230117.R</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2023/2023-01-17///20230117_book.png</t>
+          <t>2023/2023-01-17/20230117.png</t>
         </is>
       </c>
       <c r="G109">
@@ -47625,12 +47625,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023/2023-01-24///20230124.R</t>
+          <t>2023/2023-01-24/20230124.R</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023/2023-01-24///20230124.png</t>
+          <t>2023/2023-01-24/20230124.png</t>
         </is>
       </c>
       <c r="G110">
@@ -48056,12 +48056,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023/2023-01-31///20230131.R</t>
+          <t>2023/2023-01-31/20230131.R</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023/2023-01-31///20230131.png</t>
+          <t>2023/2023-01-31/20230131.png</t>
         </is>
       </c>
       <c r="G111">
@@ -48487,12 +48487,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023/2023-02-07///20230207.R</t>
+          <t>2023/2023-02-07/20230207.R</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-02-07///20230207.png</t>
+          <t>2023/2023-02-07/20230207.png</t>
         </is>
       </c>
       <c r="G112">
@@ -48913,17 +48913,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023/2023-02-14///20230214_love_actually.R</t>
+          <t>2023/2023-02-14/20230214.R</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-02-14///20230214_love_actually.png</t>
+          <t>2023/2023-02-14/20230214.png</t>
         </is>
       </c>
       <c r="G113">
@@ -49014,7 +49014,7 @@
         <v>0</v>
       </c>
       <c r="AJ113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK113">
         <v>0</v>
@@ -49170,7 +49170,7 @@
         <v>0</v>
       </c>
       <c r="CJ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK113">
         <v>0</v>
@@ -49203,7 +49203,7 @@
         <v>0</v>
       </c>
       <c r="CU113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV113">
         <v>0</v>
@@ -49349,12 +49349,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023/2023-02-21///20230221.R</t>
+          <t>2023/2023-02-21/20230221.R</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-02-21///20230221.png</t>
+          <t>2023/2023-02-21/20230221.png</t>
         </is>
       </c>
       <c r="G114">
@@ -49780,12 +49780,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023/2023-02-28///20230228.R</t>
+          <t>2023/2023-02-28/20230228.R</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-02-28///20230228.png</t>
+          <t>2023/2023-02-28/20230228.png</t>
         </is>
       </c>
       <c r="G115">
@@ -50211,12 +50211,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023/2023-03-07///20230307.R</t>
+          <t>2023/2023-03-07/20230307.R</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-03-07///20230307.png</t>
+          <t>2023/2023-03-07/20230307.png</t>
         </is>
       </c>
       <c r="G116">
@@ -50642,12 +50642,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023/2023-03-14///20230314.R</t>
+          <t>2023/2023-03-14/20230314.R</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-03-14///20230314_b.png</t>
+          <t>2023/2023-03-14/20230314.png</t>
         </is>
       </c>
       <c r="G117">
@@ -51073,12 +51073,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023/2023-03-21///20230321.R</t>
+          <t>2023/2023-03-21/20230321.R</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-03-21///20230321.png</t>
+          <t>2023/2023-03-21/20230321.png</t>
         </is>
       </c>
       <c r="G118">
@@ -51504,12 +51504,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023/2023-03-28///20230328.R</t>
+          <t>2023/2023-03-28/20230328.R</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-03-28///20230328.png</t>
+          <t>2023/2023-03-28/20230328.png</t>
         </is>
       </c>
       <c r="G119">
@@ -51935,12 +51935,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023/2023-04-04///20230404.R</t>
+          <t>2023/2023-04-04/20230404.R</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-04-04///20230404.png</t>
+          <t>2023/2023-04-04/20230404.png</t>
         </is>
       </c>
       <c r="G120">
@@ -52366,12 +52366,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023/2023-04-11///20230411.R</t>
+          <t>2023/2023-04-11/20230411.R</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-04-11///20230411.png</t>
+          <t>2023/2023-04-11/20230411.png</t>
         </is>
       </c>
       <c r="G121">
@@ -52797,12 +52797,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023/2023-04-18///20230418.R</t>
+          <t>2023/2023-04-18/20230418.R</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-04-18///20230418.png</t>
+          <t>2023/2023-04-18/20230418.png</t>
         </is>
       </c>
       <c r="G122">
@@ -53228,12 +53228,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023/2023-04-25///20230425.R</t>
+          <t>2023/2023-04-25/20230425.R</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-04-25///20230425.png</t>
+          <t>2023/2023-04-25/20230425.png</t>
         </is>
       </c>
       <c r="G123">
@@ -53659,12 +53659,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023/2023-05-02///20230502.R</t>
+          <t>2023/2023-05-02/20230502.R</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-05-02///20230502.png</t>
+          <t>2023/2023-05-02/20230502.png</t>
         </is>
       </c>
       <c r="G124">
@@ -54090,12 +54090,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023/2023-05-09///20230509.R</t>
+          <t>2023/2023-05-09/20230509.R</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-05-09///20230509.png</t>
+          <t>2023/2023-05-09/20230509.png</t>
         </is>
       </c>
       <c r="G125">
@@ -54521,12 +54521,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023/2023-05-16///20230516.R</t>
+          <t>2023/2023-05-16/20230516.R</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-05-16///20230516.png</t>
+          <t>2023/2023-05-16/20230516.png</t>
         </is>
       </c>
       <c r="G126">
@@ -54952,12 +54952,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023/2023-05-23///20230523.R</t>
+          <t>2023/2023-05-23/20230523.R</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-05-23///20230523.png</t>
+          <t>2023/2023-05-23/20230523.png</t>
         </is>
       </c>
       <c r="G127">
@@ -55383,12 +55383,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023/2023-05-30///20230530.R</t>
+          <t>2023/2023-05-30/20230530.R</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-05-30///20230530.png</t>
+          <t>2023/2023-05-30/20230530.png</t>
         </is>
       </c>
       <c r="G128">
@@ -55809,17 +55809,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, readr</t>
+          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023/2023-06-06///20230606_baseR.R</t>
+          <t>2023/2023-06-06/20230606.R</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-06-06///20230606_base.png</t>
+          <t>2023/2023-06-06/20230606.png</t>
         </is>
       </c>
       <c r="G129">
@@ -55829,7 +55829,7 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -55964,7 +55964,7 @@
         <v>0</v>
       </c>
       <c r="BB129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC129">
         <v>0</v>
@@ -55979,7 +55979,7 @@
         <v>0</v>
       </c>
       <c r="BG129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH129">
         <v>0</v>
@@ -56018,7 +56018,7 @@
         <v>0</v>
       </c>
       <c r="BT129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU129">
         <v>0</v>
@@ -56042,7 +56042,7 @@
         <v>0</v>
       </c>
       <c r="CB129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC129">
         <v>0</v>
@@ -56057,7 +56057,7 @@
         <v>0</v>
       </c>
       <c r="CG129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH129">
         <v>0</v>
@@ -56245,12 +56245,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023/2023-06-13///20230613.R</t>
+          <t>2023/2023-06-13/20230613.R</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-06-13///20230613.png</t>
+          <t>2023/2023-06-13/20230613.png</t>
         </is>
       </c>
       <c r="G130">
@@ -56676,12 +56676,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023/2023-06-20///20230620.R</t>
+          <t>2023/2023-06-20/20230620.R</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-06-20///20230620.png</t>
+          <t>2023/2023-06-20/20230620.png</t>
         </is>
       </c>
       <c r="G131">
@@ -57107,12 +57107,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023/2023-06-27///20230627.R</t>
+          <t>2023/2023-06-27/20230627.R</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-06-27///20230627.png</t>
+          <t>2023/2023-06-27/20230627.png</t>
         </is>
       </c>
       <c r="G132">
@@ -57538,12 +57538,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023/2023-07-04///20230704.R</t>
+          <t>2023/2023-07-04/20230704.R</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-07-04///20230704.png</t>
+          <t>2023/2023-07-04/20230704.png</t>
         </is>
       </c>
       <c r="G133">
@@ -57969,12 +57969,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023/2023-07-11///20230711.R</t>
+          <t>2023/2023-07-11/20230711.R</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-07-11///20230711.png</t>
+          <t>2023/2023-07-11/20230711.png</t>
         </is>
       </c>
       <c r="G134">
@@ -58400,12 +58400,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023/2023-07-18///20230718.R</t>
+          <t>2023/2023-07-18/20230718.R</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-07-18///20230718.png</t>
+          <t>2023/2023-07-18/20230718.png</t>
         </is>
       </c>
       <c r="G135">
@@ -58831,12 +58831,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023/2023-07-25///20230725.R</t>
+          <t>2023/2023-07-25/20230725.R</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-07-25///20230725_v2.png</t>
+          <t>2023/2023-07-25/20230725.png</t>
         </is>
       </c>
       <c r="G136">
@@ -59262,12 +59262,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023/2023-08-01///20230801.R</t>
+          <t>2023/2023-08-01/20230801.R</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-08-01///20230801.png</t>
+          <t>2023/2023-08-01/20230801.png</t>
         </is>
       </c>
       <c r="G137">
@@ -59693,12 +59693,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2023/2023-08-08///20230808.R</t>
+          <t>2023/2023-08-08/20230808.R</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-08-08///20230808.png</t>
+          <t>2023/2023-08-08/20230808.png</t>
         </is>
       </c>
       <c r="G138">
@@ -60124,12 +60124,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2023/2023-08-15///20230815.R</t>
+          <t>2023/2023-08-15/20230815.R</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-08-15///20230815.png</t>
+          <t>2023/2023-08-15/20230815.png</t>
         </is>
       </c>
       <c r="G139">
@@ -60555,12 +60555,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2023/2023-08-22///20230822.R</t>
+          <t>2023/2023-08-22/20230822.R</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-08-22///20230822.png</t>
+          <t>2023/2023-08-22/20230822.png</t>
         </is>
       </c>
       <c r="G140">
@@ -60986,12 +60986,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2023/2023-08-29///20230829.R</t>
+          <t>2023/2023-08-29/20230829.R</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-08-29///20230829.png</t>
+          <t>2023/2023-08-29/20230829.png</t>
         </is>
       </c>
       <c r="G141">
@@ -61417,12 +61417,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2023/2023-09-05///20230905.R</t>
+          <t>2023/2023-09-05/20230905.R</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-09-05///20230905.png</t>
+          <t>2023/2023-09-05/20230905.png</t>
         </is>
       </c>
       <c r="G142">
@@ -61848,12 +61848,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2023/2023-09-12///20230912.R</t>
+          <t>2023/2023-09-12/20230912.R</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-09-12///20230912.png</t>
+          <t>2023/2023-09-12/20230912.png</t>
         </is>
       </c>
       <c r="G143">
@@ -62279,12 +62279,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2023/2023-09-19///20230919.R</t>
+          <t>2023/2023-09-19/20230919.R</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-09-19///20230919.png</t>
+          <t>2023/2023-09-19/20230919.png</t>
         </is>
       </c>
       <c r="G144">
@@ -62710,12 +62710,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2023/2023-09-26///20230926.R</t>
+          <t>2023/2023-09-26/20230926.R</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-09-26///20230926.png</t>
+          <t>2023/2023-09-26/20230926.png</t>
         </is>
       </c>
       <c r="G145">
@@ -63141,12 +63141,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2023/2023-10-03///20231003.R</t>
+          <t>2023/2023-10-03/20231003.R</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-10-03///20231003.png</t>
+          <t>2023/2023-10-03/20231003.png</t>
         </is>
       </c>
       <c r="G146">
@@ -63572,12 +63572,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2023/2023-10-10///20231010.R</t>
+          <t>2023/2023-10-10/20231010.R</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-10-10///20231010.png</t>
+          <t>2023/2023-10-10/20231010.png</t>
         </is>
       </c>
       <c r="G147">
@@ -64003,12 +64003,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2023/2023-10-17///20231017.R</t>
+          <t>2023/2023-10-17/20231017.R</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-10-17///20231017.png</t>
+          <t>2023/2023-10-17/20231017.png</t>
         </is>
       </c>
       <c r="G148">
@@ -64434,12 +64434,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2023/2023-10-24///20231024.R</t>
+          <t>2023/2023-10-24/20231024.R</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-10-24///20231024_clusters.png</t>
+          <t>2023/2023-10-24/20231024.png</t>
         </is>
       </c>
       <c r="G149">
@@ -64865,12 +64865,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2023/2023-10-31///20231031.R</t>
+          <t>2023/2023-10-31/20231031.R</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-10-31///20231031.png</t>
+          <t>2023/2023-10-31/20231031.png</t>
         </is>
       </c>
       <c r="G150">
@@ -65296,12 +65296,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2023/2023-11-07///20231107.R</t>
+          <t>2023/2023-11-07/20231107.R</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-11-07///20231107.png</t>
+          <t>2023/2023-11-07/20231107.png</t>
         </is>
       </c>
       <c r="G151">
@@ -65727,12 +65727,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2023/2023-11-14///20231114.R</t>
+          <t>2023/2023-11-14/20231114.R</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-11-14///20231114.png</t>
+          <t>2023/2023-11-14/20231114.png</t>
         </is>
       </c>
       <c r="G152">
@@ -66158,12 +66158,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2023/2023-11-21///20231121.R</t>
+          <t>2023/2023-11-21/20231121.R</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-11-21///20231121.png</t>
+          <t>2023/2023-11-21/20231121.png</t>
         </is>
       </c>
       <c r="G153">
@@ -66589,12 +66589,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2023/2023-11-28///20231128.R</t>
+          <t>2023/2023-11-28/20231128.R</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-11-28///20231128.png</t>
+          <t>2023/2023-11-28/20231128.png</t>
         </is>
       </c>
       <c r="G154">
@@ -67020,12 +67020,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2023/2023-12-05///20231205.R</t>
+          <t>2023/2023-12-05/20231205.R</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-12-05///20231205.png</t>
+          <t>2023/2023-12-05/20231205.png</t>
         </is>
       </c>
       <c r="G155">
@@ -67451,12 +67451,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2023/2023-12-12///20231212.R</t>
+          <t>2023/2023-12-12/20231212.R</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-12-12///20231212.png</t>
+          <t>2023/2023-12-12/20231212.png</t>
         </is>
       </c>
       <c r="G156">
@@ -67882,12 +67882,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2023/2023-12-19///20231219.R</t>
+          <t>2023/2023-12-19/20231219.R</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-12-19///20231219.png</t>
+          <t>2023/2023-12-19/20231219.png</t>
         </is>
       </c>
       <c r="G157">
@@ -68313,12 +68313,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2023/2023-12-26///20231226.R</t>
+          <t>2023/2023-12-26/20231226.R</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-12-26///20231226.png</t>
+          <t>2023/2023-12-26/20231226.png</t>
         </is>
       </c>
       <c r="G158">
@@ -68744,12 +68744,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2024/2024-01-02///20240102.R</t>
+          <t>2024/2024-01-02/20240102.R</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2024/2024-01-02///20240102.png</t>
+          <t>2024/2024-01-02/20240102.png</t>
         </is>
       </c>
       <c r="G159">
@@ -69175,12 +69175,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2024/2024-01-09///20240109.R</t>
+          <t>2024/2024-01-09/20240109.R</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2024/2024-01-09///20240109_canada.png</t>
+          <t>2024/2024-01-09/20240109.png</t>
         </is>
       </c>
       <c r="G160">
@@ -69606,12 +69606,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2024/2024-01-16///20240116.R</t>
+          <t>2024/2024-01-16/20240116.R</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2024/2024-01-16///20240116.png</t>
+          <t>2024/2024-01-16/20240116.png</t>
         </is>
       </c>
       <c r="G161">
@@ -70037,12 +70037,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2024/2024-01-23///20240123.R</t>
+          <t>2024/2024-01-23/20240123.R</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2024/2024-01-23///20240123.png</t>
+          <t>2024/2024-01-23/20240123.png</t>
         </is>
       </c>
       <c r="G162">
@@ -70468,12 +70468,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2024/2024-01-30///20240130.R</t>
+          <t>2024/2024-01-30/20240130.R</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2024/2024-01-30///20240130.png</t>
+          <t>2024/2024-01-30/20240130.png</t>
         </is>
       </c>
       <c r="G163">
@@ -70899,12 +70899,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2024/2024-02-06///20240206.R</t>
+          <t>2024/2024-02-06/20240206.R</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-02-06///20240206.png</t>
+          <t>2024/2024-02-06/20240206.png</t>
         </is>
       </c>
       <c r="G164">
@@ -71330,12 +71330,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2024/2024-02-13///20240213.R</t>
+          <t>2024/2024-02-13/20240213.R</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-02-13///20240213.png</t>
+          <t>2024/2024-02-13/20240213.png</t>
         </is>
       </c>
       <c r="G165">
@@ -71761,12 +71761,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2024/2024-02-20///20240220.R</t>
+          <t>2024/2024-02-20/20240220.R</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-02-20///20240220.png</t>
+          <t>2024/2024-02-20/20240220.png</t>
         </is>
       </c>
       <c r="G166">
@@ -72192,12 +72192,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2024/2024-02-27///20240227.R</t>
+          <t>2024/2024-02-27/20240227.R</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-02-27///20240227.png</t>
+          <t>2024/2024-02-27/20240227.png</t>
         </is>
       </c>
       <c r="G167">
@@ -72623,12 +72623,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2024/2024-03-05///20240305.R</t>
+          <t>2024/2024-03-05/20240305.R</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-03-05///20240305.png</t>
+          <t>2024/2024-03-05/20240305.png</t>
         </is>
       </c>
       <c r="G168">
@@ -73054,12 +73054,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2024/2024-03-12///20240312.R</t>
+          <t>2024/2024-03-12/20240312.R</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024/2024-03-12///20240312.png</t>
+          <t>2024/2024-03-12/20240312.png</t>
         </is>
       </c>
       <c r="G169">
@@ -73485,12 +73485,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2024/2024-03-19///20240319.R</t>
+          <t>2024/2024-03-19/20240319.R</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024/2024-03-19///20240319.png</t>
+          <t>2024/2024-03-19/20240319.png</t>
         </is>
       </c>
       <c r="G170">

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EI170"/>
+  <dimension ref="A1:EI171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2020/2020-04-21/20200421.jpg</t>
+          <t>2020/2020-04-21///20200421.jpg</t>
         </is>
       </c>
       <c r="G2">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020/2020-07-28/20200728.jpg</t>
+          <t>2020/2020-07-28///20200728.jpg</t>
         </is>
       </c>
       <c r="G3">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2020/2020-12-08/20201208.jpg</t>
+          <t>2020/2020-12-08///20201208.jpg</t>
         </is>
       </c>
       <c r="G4">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021/01-06-2021/01062021.jpg</t>
+          <t>2021/01-06-2021///01062021.jpg</t>
         </is>
       </c>
       <c r="G5">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021/02-02-2021/02022021.jpg</t>
+          <t>2021/02-02-2021///02022021.jpg</t>
         </is>
       </c>
       <c r="G6">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021/02-03-2021/02032021.jpg</t>
+          <t>2021/02-03-2021///02032021.jpg</t>
         </is>
       </c>
       <c r="G7">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021/02-11-2021/02112021.png</t>
+          <t>2021/02-11-2021///02112021.png</t>
         </is>
       </c>
       <c r="G8">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021/03-08-2021/03082021.jpg</t>
+          <t>2021/03-08-2021///03082021_table.png</t>
         </is>
       </c>
       <c r="G9">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/04-05-2021/04052021.jpg</t>
+          <t>2021/04-05-2021///04052021.jpg</t>
         </is>
       </c>
       <c r="G10">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/05-01-2021/05012021.jpg</t>
+          <t>2021/05-01-2021///05012021.jpg</t>
         </is>
       </c>
       <c r="G11">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/05-10-2021/05102021.jpg</t>
+          <t>2021/05-10-2021///05102021.jpg</t>
         </is>
       </c>
       <c r="G12">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/06-04-2021/06042021.jpg</t>
+          <t>2021/06-04-2021///06042021_plot1.jpg</t>
         </is>
       </c>
       <c r="G13">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/06-07-2021/06072021.jpg</t>
+          <t>2021/06-07-2021///06072021.jpg</t>
         </is>
       </c>
       <c r="G14">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/07-09-2021/07092021.jpg</t>
+          <t>2021/07-09-2021///07092021.jpg</t>
         </is>
       </c>
       <c r="G15">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/07-12-2021/07122021.jpeg</t>
+          <t>2021/07-12-2021///07122021.jpeg</t>
         </is>
       </c>
       <c r="G16">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/08-06-2021/08062021.jpg</t>
+          <t>2021/08-06-2021///08062021.jpg</t>
         </is>
       </c>
       <c r="G17">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/09-02-2021/09022021.jpg</t>
+          <t>2021/09-02-2021///09022021.jpg</t>
         </is>
       </c>
       <c r="G18">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/09-03-2021/09032021.jpg</t>
+          <t>2021/09-03-2021///09032021.jpg</t>
         </is>
       </c>
       <c r="G19">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/09-11-2021/09112021.jpg</t>
+          <t>2021/09-11-2021///09112021.jpg</t>
         </is>
       </c>
       <c r="G20">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/10-08-2021/10082021.jpg</t>
+          <t>2021/10-08-2021///10082021.jpg</t>
         </is>
       </c>
       <c r="G21">
@@ -9702,7 +9702,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/11-05-2021/11052021.jpg</t>
+          <t>2021/11-05-2021///11052021.jpg</t>
         </is>
       </c>
       <c r="G22">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/12-01-2021/12012021.jpg</t>
+          <t>2021/12-01-2021///12012021.jpg</t>
         </is>
       </c>
       <c r="G23">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/12-10-2021/12102021_f1.jpg</t>
+          <t>2021/12-10-2021///12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G24">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/13-04-2021/13042021.jpg</t>
+          <t>2021/13-04-2021///13042021.jpg</t>
         </is>
       </c>
       <c r="G25">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/13-07-2021/13072021.jpg</t>
+          <t>2021/13-07-2021///13072021.jpg</t>
         </is>
       </c>
       <c r="G26">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/14-09-2021/14092021.jpg</t>
+          <t>2021/14-09-2021///14092021.jpg</t>
         </is>
       </c>
       <c r="G27">
@@ -12288,7 +12288,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/14-12-2021/14122021.jpg</t>
+          <t>2021/14-12-2021///14122021.jpg</t>
         </is>
       </c>
       <c r="G28">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/15-06-2021/15062021.jpg</t>
+          <t>2021/15-06-2021///15062021.jpg</t>
         </is>
       </c>
       <c r="G29">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/16-02-2021/16022021.jpg</t>
+          <t>2021/16-02-2021///16022021.jpg</t>
         </is>
       </c>
       <c r="G30">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/16-03-2021/16032021.jpg</t>
+          <t>2021/16-03-2021///16032021.jpg</t>
         </is>
       </c>
       <c r="G31">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/17-08-2021/17082021.jpg</t>
+          <t>2021/17-08-2021///17082021.jpg</t>
         </is>
       </c>
       <c r="G32">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/18-05-2021/18052021.jpg</t>
+          <t>2021/18-05-2021///18052021.jpg</t>
         </is>
       </c>
       <c r="G33">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/19-01-2021/19012021.jpg</t>
+          <t>2021/19-01-2021///19012021.jpg</t>
         </is>
       </c>
       <c r="G34">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/19-10-2021/19102021.jpg</t>
+          <t>2021/19-10-2021///19102021.jpg</t>
         </is>
       </c>
       <c r="G35">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/20-04-2021/20042021.png</t>
+          <t>2021/20-04-2021///20042021.png</t>
         </is>
       </c>
       <c r="G36">
@@ -16167,7 +16167,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/20-07-2021/20072021.jpg</t>
+          <t>2021/20-07-2021///20072021.jpg</t>
         </is>
       </c>
       <c r="G37">
@@ -16598,7 +16598,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/21-09-2021/21092021.jpg</t>
+          <t>2021/21-09-2021///21092021_waffle.jpg</t>
         </is>
       </c>
       <c r="G38">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/21-12-2021/21122021.jpg</t>
+          <t>2021/21-12-2021///21122021.jpg</t>
         </is>
       </c>
       <c r="G39">
@@ -17455,12 +17455,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.R</t>
+          <t>2021/22-06-2021/22062021_stream_plots.R</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.jpg</t>
+          <t>2021/22-06-2021///22062021_v2.jpg</t>
         </is>
       </c>
       <c r="G40">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/23-02-2021/23022021.jpg</t>
+          <t>2021/23-02-2021///23022021.jpg</t>
         </is>
       </c>
       <c r="G41">
@@ -18322,7 +18322,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/23-03-2021/23032021.jpg</t>
+          <t>2021/23-03-2021///23032021.jpg</t>
         </is>
       </c>
       <c r="G42">
@@ -18753,7 +18753,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/23-11-2021/23112021.jpg</t>
+          <t>2021/23-11-2021///23112021.jpg</t>
         </is>
       </c>
       <c r="G43">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/24-08-2021/24082021.jpg</t>
+          <t>2021/24-08-2021///24082021.jpg</t>
         </is>
       </c>
       <c r="G44">
@@ -19615,7 +19615,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/25-05-2021/25052021.jpg</t>
+          <t>2021/25-05-2021///25052021.jpg</t>
         </is>
       </c>
       <c r="G45">
@@ -20046,7 +20046,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/26-01-2021/26012021.jpg</t>
+          <t>2021/26-01-2021///26012021.jpg</t>
         </is>
       </c>
       <c r="G46">
@@ -20477,7 +20477,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/26-10-2021/26102021.jpg</t>
+          <t>2021/26-10-2021///26102021.jpg</t>
         </is>
       </c>
       <c r="G47">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/27-04-2021/27042021.jpg</t>
+          <t>2021/27-04-2021///27042021.jpg</t>
         </is>
       </c>
       <c r="G48">
@@ -21339,7 +21339,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/27-07-2021/27072021.jpg</t>
+          <t>2021/27-07-2021///27072021.jpg</t>
         </is>
       </c>
       <c r="G49">
@@ -21770,7 +21770,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/28-09-2021/28092021.jpg</t>
+          <t>2021/28-09-2021///28092021.jpg</t>
         </is>
       </c>
       <c r="G50">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/29-06-2021/29062021.jpg</t>
+          <t>2021/29-06-2021///29062021.jpg</t>
         </is>
       </c>
       <c r="G51">
@@ -22632,7 +22632,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/29-12-2020/29122020.jpg</t>
+          <t>2021/29-12-2020///29122020.jpg</t>
         </is>
       </c>
       <c r="G52">
@@ -23063,7 +23063,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/30-03-2021/30032021.jpg</t>
+          <t>2021/30-03-2021///30032021.jpg</t>
         </is>
       </c>
       <c r="G53">
@@ -23494,7 +23494,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/30-11-2021/30112021.jpeg</t>
+          <t>2021/30-11-2021///30112021_v2.jpeg</t>
         </is>
       </c>
       <c r="G54">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/31-08-2021/31082021.jpg</t>
+          <t>2021/31-08-2021///31082021.jpg</t>
         </is>
       </c>
       <c r="G55">
@@ -24356,7 +24356,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022/2022-01-04/20220104.jpg</t>
+          <t>2022/2022-01-04///20220104.jpg</t>
         </is>
       </c>
       <c r="G56">
@@ -24787,7 +24787,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022/2022-01-11/20220111.jpg</t>
+          <t>2022/2022-01-11///20220111.jpg</t>
         </is>
       </c>
       <c r="G57">
@@ -25218,7 +25218,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022/2022-01-18/20220118.png</t>
+          <t>2022/2022-01-18///20220118.png</t>
         </is>
       </c>
       <c r="G58">
@@ -25649,7 +25649,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022/2022-01-25/20220125.jpeg</t>
+          <t>2022/2022-01-25///20220125.jpeg</t>
         </is>
       </c>
       <c r="G59">
@@ -26080,7 +26080,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022/2022-02-01/20220201.jpg</t>
+          <t>2022/2022-02-01///20220201.jpg</t>
         </is>
       </c>
       <c r="G60">
@@ -26511,7 +26511,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-02-08/20220208.jpeg</t>
+          <t>2022/2022-02-08///20220208.jpeg</t>
         </is>
       </c>
       <c r="G61">
@@ -26942,7 +26942,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-02-15/20220215.jpg</t>
+          <t>2022/2022-02-15///20220215.jpg</t>
         </is>
       </c>
       <c r="G62">
@@ -27373,7 +27373,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-02-22/20220222.jpeg</t>
+          <t>2022/2022-02-22///20220222.jpeg</t>
         </is>
       </c>
       <c r="G63">
@@ -27804,7 +27804,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-03-01/20220301.jpg</t>
+          <t>2022/2022-03-01///20220301.jpg</t>
         </is>
       </c>
       <c r="G64">
@@ -28235,7 +28235,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-03-08/20220308.jpeg</t>
+          <t>2022/2022-03-08///20220308.jpeg</t>
         </is>
       </c>
       <c r="G65">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-03-15/20220315.jpeg</t>
+          <t>2022/2022-03-15///20220315.jpeg</t>
         </is>
       </c>
       <c r="G66">
@@ -29097,7 +29097,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-03-22/20220322.jpeg</t>
+          <t>2022/2022-03-22///20220322.jpeg</t>
         </is>
       </c>
       <c r="G67">
@@ -29528,7 +29528,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-03-29/20220329.jpeg</t>
+          <t>2022/2022-03-29///20220329.jpeg</t>
         </is>
       </c>
       <c r="G68">
@@ -29959,7 +29959,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-04-05/20220405.png</t>
+          <t>2022/2022-04-05///20220405.png</t>
         </is>
       </c>
       <c r="G69">
@@ -30390,7 +30390,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-04-12/20220412.png</t>
+          <t>2022/2022-04-12///20220412.png</t>
         </is>
       </c>
       <c r="G70">
@@ -30821,7 +30821,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-04-19/20220419.jpeg</t>
+          <t>2022/2022-04-19///20220419.jpeg</t>
         </is>
       </c>
       <c r="G71">
@@ -31252,7 +31252,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-04-26/20220426.png</t>
+          <t>2022/2022-04-26///20220426.png</t>
         </is>
       </c>
       <c r="G72">
@@ -31683,7 +31683,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-05-03/20220503_bar.png</t>
+          <t>2022/2022-05-03///20220503_bar.png</t>
         </is>
       </c>
       <c r="G73">
@@ -32114,7 +32114,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-05-10/20220510.png</t>
+          <t>2022/2022-05-10///20220510.png</t>
         </is>
       </c>
       <c r="G74">
@@ -32545,7 +32545,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-05-17/20220517.png</t>
+          <t>2022/2022-05-17///20220517_tableau.png</t>
         </is>
       </c>
       <c r="G75">
@@ -32976,7 +32976,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-05-24/20220524.png</t>
+          <t>2022/2022-05-24///20220524.png</t>
         </is>
       </c>
       <c r="G76">
@@ -33407,7 +33407,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-05-31/20220531.png</t>
+          <t>2022/2022-05-31///20220531.png</t>
         </is>
       </c>
       <c r="G77">
@@ -33838,7 +33838,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-06-07/20220607.png</t>
+          <t>2022/2022-06-07///20220607.png</t>
         </is>
       </c>
       <c r="G78">
@@ -34269,7 +34269,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-06-14/20220614.png</t>
+          <t>2022/2022-06-14///20220614.png</t>
         </is>
       </c>
       <c r="G79">
@@ -34700,7 +34700,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-06-21/20220621.png</t>
+          <t>2022/2022-06-21///20220621.png</t>
         </is>
       </c>
       <c r="G80">
@@ -35131,7 +35131,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-06-28/20220628.png</t>
+          <t>2022/2022-06-28///20220628.png</t>
         </is>
       </c>
       <c r="G81">
@@ -35562,7 +35562,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-07-05/20220705.png</t>
+          <t>2022/2022-07-05///20220705.png</t>
         </is>
       </c>
       <c r="G82">
@@ -35993,7 +35993,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-07-12/20220712.png</t>
+          <t>2022/2022-07-12///20220712.png</t>
         </is>
       </c>
       <c r="G83">
@@ -36424,7 +36424,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-07-19/20220719.png</t>
+          <t>2022/2022-07-19///20220719.png</t>
         </is>
       </c>
       <c r="G84">
@@ -36855,7 +36855,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-08-02/20220802.png</t>
+          <t>2022/2022-08-02///20220802.png</t>
         </is>
       </c>
       <c r="G85">
@@ -37286,7 +37286,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-08-09/20220809.png</t>
+          <t>2022/2022-08-09///20220809.png</t>
         </is>
       </c>
       <c r="G86">
@@ -37717,7 +37717,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-08-16/20220816.png</t>
+          <t>2022/2022-08-16///20220816.png</t>
         </is>
       </c>
       <c r="G87">
@@ -38148,7 +38148,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-08-23/20220823.png</t>
+          <t>2022/2022-08-23///20220823.png</t>
         </is>
       </c>
       <c r="G88">
@@ -38579,7 +38579,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-08-30/20220830.png</t>
+          <t>2022/2022-08-30///20220830.png</t>
         </is>
       </c>
       <c r="G89">
@@ -39010,7 +39010,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-09-06/20220906.png</t>
+          <t>2022/2022-09-06///20220906.png</t>
         </is>
       </c>
       <c r="G90">
@@ -39441,7 +39441,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-09-13/20220913.png</t>
+          <t>2022/2022-09-13///20220913.png</t>
         </is>
       </c>
       <c r="G91">
@@ -39872,7 +39872,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-09-20/20220920.png</t>
+          <t>2022/2022-09-20///20220920.png</t>
         </is>
       </c>
       <c r="G92">
@@ -40303,7 +40303,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-09-27/20220927.png</t>
+          <t>2022/2022-09-27///20220927.png</t>
         </is>
       </c>
       <c r="G93">
@@ -40734,7 +40734,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-10-04/20221004.png</t>
+          <t>2022/2022-10-04///20221004.png</t>
         </is>
       </c>
       <c r="G94">
@@ -41165,7 +41165,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-10-11/20221011.png</t>
+          <t>2022/2022-10-11///20221011.png</t>
         </is>
       </c>
       <c r="G95">
@@ -41596,7 +41596,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-10-18/20221018.png</t>
+          <t>2022/2022-10-18///20221018.png</t>
         </is>
       </c>
       <c r="G96">
@@ -42027,7 +42027,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-10-25/20221025.png</t>
+          <t>2022/2022-10-25///20221025.png</t>
         </is>
       </c>
       <c r="G97">
@@ -42458,7 +42458,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-11-01/20221101.png</t>
+          <t>2022/2022-11-01///20221101.png</t>
         </is>
       </c>
       <c r="G98">
@@ -42889,7 +42889,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-11-08/20221108.png</t>
+          <t>2022/2022-11-08///20221108.png</t>
         </is>
       </c>
       <c r="G99">
@@ -43320,7 +43320,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-11-15/20221115_plot1.png</t>
+          <t>2022/2022-11-15///20221115_plot1.png</t>
         </is>
       </c>
       <c r="G100">
@@ -43751,7 +43751,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-11-22/20221122.png</t>
+          <t>2022/2022-11-22///20221122.png</t>
         </is>
       </c>
       <c r="G101">
@@ -44182,7 +44182,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-11-29/20221129.png</t>
+          <t>2022/2022-11-29///20221129.png</t>
         </is>
       </c>
       <c r="G102">
@@ -44613,7 +44613,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-12-06/20221206.png</t>
+          <t>2022/2022-12-06///20221206.png</t>
         </is>
       </c>
       <c r="G103">
@@ -45044,7 +45044,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-12-13/20221213.png</t>
+          <t>2022/2022-12-13///20221213.png</t>
         </is>
       </c>
       <c r="G104">
@@ -45475,7 +45475,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-12-20/20221220.png</t>
+          <t>2022/2022-12-20///20221220.png</t>
         </is>
       </c>
       <c r="G105">
@@ -45906,7 +45906,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-12-27/20221227.png</t>
+          <t>2022/2022-12-27///20221227.png</t>
         </is>
       </c>
       <c r="G106">
@@ -46337,7 +46337,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023/2023-01-03/20230103.png</t>
+          <t>2023/2023-01-03///20230103_raw.png</t>
         </is>
       </c>
       <c r="G107">
@@ -46768,7 +46768,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023/2023-01-10/20230110.png</t>
+          <t>2023/2023-01-10///20230110.png</t>
         </is>
       </c>
       <c r="G108">
@@ -47199,7 +47199,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2023/2023-01-17/20230117.png</t>
+          <t>2023/2023-01-17///20230117_book.png</t>
         </is>
       </c>
       <c r="G109">
@@ -47630,7 +47630,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023/2023-01-24/20230124.png</t>
+          <t>2023/2023-01-24///20230124.png</t>
         </is>
       </c>
       <c r="G110">
@@ -48061,7 +48061,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023/2023-01-31/20230131.png</t>
+          <t>2023/2023-01-31///20230131.png</t>
         </is>
       </c>
       <c r="G111">
@@ -48492,7 +48492,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-02-07/20230207.png</t>
+          <t>2023/2023-02-07///20230207.png</t>
         </is>
       </c>
       <c r="G112">
@@ -48913,17 +48913,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.R</t>
+          <t>2023/2023-02-14/20230214_love_actually.R</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.png</t>
+          <t>2023/2023-02-14///20230214_love_actually.png</t>
         </is>
       </c>
       <c r="G113">
@@ -49014,7 +49014,7 @@
         <v>0</v>
       </c>
       <c r="AJ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK113">
         <v>0</v>
@@ -49170,7 +49170,7 @@
         <v>0</v>
       </c>
       <c r="CJ113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK113">
         <v>0</v>
@@ -49203,7 +49203,7 @@
         <v>0</v>
       </c>
       <c r="CU113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV113">
         <v>0</v>
@@ -49354,7 +49354,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-02-21/20230221.png</t>
+          <t>2023/2023-02-21///20230221.png</t>
         </is>
       </c>
       <c r="G114">
@@ -49785,7 +49785,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-02-28/20230228.png</t>
+          <t>2023/2023-02-28///20230228.png</t>
         </is>
       </c>
       <c r="G115">
@@ -50216,7 +50216,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-03-07/20230307.png</t>
+          <t>2023/2023-03-07///20230307.png</t>
         </is>
       </c>
       <c r="G116">
@@ -50647,7 +50647,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-03-14/20230314.png</t>
+          <t>2023/2023-03-14///20230314_b.png</t>
         </is>
       </c>
       <c r="G117">
@@ -51078,7 +51078,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-03-21/20230321.png</t>
+          <t>2023/2023-03-21///20230321.png</t>
         </is>
       </c>
       <c r="G118">
@@ -51509,7 +51509,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-03-28/20230328.png</t>
+          <t>2023/2023-03-28///20230328.png</t>
         </is>
       </c>
       <c r="G119">
@@ -51940,7 +51940,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-04-04/20230404.png</t>
+          <t>2023/2023-04-04///20230404.png</t>
         </is>
       </c>
       <c r="G120">
@@ -52371,7 +52371,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-04-11/20230411.png</t>
+          <t>2023/2023-04-11///20230411.png</t>
         </is>
       </c>
       <c r="G121">
@@ -52802,7 +52802,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-04-18/20230418.png</t>
+          <t>2023/2023-04-18///20230418.png</t>
         </is>
       </c>
       <c r="G122">
@@ -53233,7 +53233,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-04-25/20230425.png</t>
+          <t>2023/2023-04-25///20230425.png</t>
         </is>
       </c>
       <c r="G123">
@@ -53664,7 +53664,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-05-02/20230502.png</t>
+          <t>2023/2023-05-02///20230502.png</t>
         </is>
       </c>
       <c r="G124">
@@ -54095,7 +54095,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-05-09/20230509.png</t>
+          <t>2023/2023-05-09///20230509.png</t>
         </is>
       </c>
       <c r="G125">
@@ -54526,7 +54526,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-05-16/20230516.png</t>
+          <t>2023/2023-05-16///20230516.png</t>
         </is>
       </c>
       <c r="G126">
@@ -54957,7 +54957,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-05-23/20230523.png</t>
+          <t>2023/2023-05-23///20230523.png</t>
         </is>
       </c>
       <c r="G127">
@@ -55388,7 +55388,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-05-30/20230530.png</t>
+          <t>2023/2023-05-30///20230530.png</t>
         </is>
       </c>
       <c r="G128">
@@ -55809,17 +55809,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
+          <t>tidyverse, showtext, readr</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.R</t>
+          <t>2023/2023-06-06/20230606_baseR.R</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.png</t>
+          <t>2023/2023-06-06///20230606_base.png</t>
         </is>
       </c>
       <c r="G129">
@@ -55829,7 +55829,7 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -55964,7 +55964,7 @@
         <v>0</v>
       </c>
       <c r="BB129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC129">
         <v>0</v>
@@ -55979,7 +55979,7 @@
         <v>0</v>
       </c>
       <c r="BG129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH129">
         <v>0</v>
@@ -56018,7 +56018,7 @@
         <v>0</v>
       </c>
       <c r="BT129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU129">
         <v>0</v>
@@ -56042,7 +56042,7 @@
         <v>0</v>
       </c>
       <c r="CB129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC129">
         <v>0</v>
@@ -56057,7 +56057,7 @@
         <v>0</v>
       </c>
       <c r="CG129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH129">
         <v>0</v>
@@ -56250,7 +56250,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-06-13/20230613.png</t>
+          <t>2023/2023-06-13///20230613.png</t>
         </is>
       </c>
       <c r="G130">
@@ -56681,7 +56681,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-06-20/20230620.png</t>
+          <t>2023/2023-06-20///20230620.png</t>
         </is>
       </c>
       <c r="G131">
@@ -57112,7 +57112,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-06-27/20230627.png</t>
+          <t>2023/2023-06-27///20230627.png</t>
         </is>
       </c>
       <c r="G132">
@@ -57543,7 +57543,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-07-04/20230704.png</t>
+          <t>2023/2023-07-04///20230704.png</t>
         </is>
       </c>
       <c r="G133">
@@ -57974,7 +57974,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-07-11/20230711.png</t>
+          <t>2023/2023-07-11///20230711.png</t>
         </is>
       </c>
       <c r="G134">
@@ -58405,7 +58405,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-07-18/20230718.png</t>
+          <t>2023/2023-07-18///20230718.png</t>
         </is>
       </c>
       <c r="G135">
@@ -58836,7 +58836,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-07-25/20230725.png</t>
+          <t>2023/2023-07-25///20230725_v2.png</t>
         </is>
       </c>
       <c r="G136">
@@ -59267,7 +59267,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-08-01/20230801.png</t>
+          <t>2023/2023-08-01///20230801.png</t>
         </is>
       </c>
       <c r="G137">
@@ -59698,7 +59698,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-08-08/20230808.png</t>
+          <t>2023/2023-08-08///20230808.png</t>
         </is>
       </c>
       <c r="G138">
@@ -60129,7 +60129,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-08-15/20230815.png</t>
+          <t>2023/2023-08-15///20230815.png</t>
         </is>
       </c>
       <c r="G139">
@@ -60560,7 +60560,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-08-22/20230822.png</t>
+          <t>2023/2023-08-22///20230822.png</t>
         </is>
       </c>
       <c r="G140">
@@ -60991,7 +60991,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-08-29/20230829.png</t>
+          <t>2023/2023-08-29///20230829.png</t>
         </is>
       </c>
       <c r="G141">
@@ -61422,7 +61422,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-09-05/20230905.png</t>
+          <t>2023/2023-09-05///20230905.png</t>
         </is>
       </c>
       <c r="G142">
@@ -61853,7 +61853,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-09-12/20230912.png</t>
+          <t>2023/2023-09-12///20230912.png</t>
         </is>
       </c>
       <c r="G143">
@@ -62284,7 +62284,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-09-19/20230919.png</t>
+          <t>2023/2023-09-19///20230919.png</t>
         </is>
       </c>
       <c r="G144">
@@ -62715,7 +62715,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-09-26/20230926.png</t>
+          <t>2023/2023-09-26///20230926.png</t>
         </is>
       </c>
       <c r="G145">
@@ -63146,7 +63146,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-10-03/20231003.png</t>
+          <t>2023/2023-10-03///20231003.png</t>
         </is>
       </c>
       <c r="G146">
@@ -63577,7 +63577,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-10-10/20231010.png</t>
+          <t>2023/2023-10-10///20231010.png</t>
         </is>
       </c>
       <c r="G147">
@@ -64008,7 +64008,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-10-17/20231017.png</t>
+          <t>2023/2023-10-17///20231017.png</t>
         </is>
       </c>
       <c r="G148">
@@ -64439,7 +64439,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-10-24/20231024.png</t>
+          <t>2023/2023-10-24///20231024_clusters.png</t>
         </is>
       </c>
       <c r="G149">
@@ -64870,7 +64870,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-10-31/20231031.png</t>
+          <t>2023/2023-10-31///20231031.png</t>
         </is>
       </c>
       <c r="G150">
@@ -65301,7 +65301,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-11-07/20231107.png</t>
+          <t>2023/2023-11-07///20231107.png</t>
         </is>
       </c>
       <c r="G151">
@@ -65732,7 +65732,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-11-14/20231114.png</t>
+          <t>2023/2023-11-14///20231114.png</t>
         </is>
       </c>
       <c r="G152">
@@ -66163,7 +66163,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-11-21/20231121.png</t>
+          <t>2023/2023-11-21///20231121.png</t>
         </is>
       </c>
       <c r="G153">
@@ -66594,7 +66594,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-11-28/20231128.png</t>
+          <t>2023/2023-11-28///20231128.png</t>
         </is>
       </c>
       <c r="G154">
@@ -67025,7 +67025,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-12-05/20231205.png</t>
+          <t>2023/2023-12-05///20231205.png</t>
         </is>
       </c>
       <c r="G155">
@@ -67456,7 +67456,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-12-12/20231212.png</t>
+          <t>2023/2023-12-12///20231212.png</t>
         </is>
       </c>
       <c r="G156">
@@ -67887,7 +67887,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-12-19/20231219.png</t>
+          <t>2023/2023-12-19///20231219.png</t>
         </is>
       </c>
       <c r="G157">
@@ -68318,7 +68318,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-12-26/20231226.png</t>
+          <t>2023/2023-12-26///20231226.png</t>
         </is>
       </c>
       <c r="G158">
@@ -68749,7 +68749,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2024/2024-01-02/20240102.png</t>
+          <t>2024/2024-01-02///20240102.png</t>
         </is>
       </c>
       <c r="G159">
@@ -69180,7 +69180,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2024/2024-01-09/20240109.png</t>
+          <t>2024/2024-01-09///20240109_canada.png</t>
         </is>
       </c>
       <c r="G160">
@@ -69611,7 +69611,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2024/2024-01-16/20240116.png</t>
+          <t>2024/2024-01-16///20240116.png</t>
         </is>
       </c>
       <c r="G161">
@@ -70042,7 +70042,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2024/2024-01-23/20240123.png</t>
+          <t>2024/2024-01-23///20240123.png</t>
         </is>
       </c>
       <c r="G162">
@@ -70473,7 +70473,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2024/2024-01-30/20240130.png</t>
+          <t>2024/2024-01-30///20240130.png</t>
         </is>
       </c>
       <c r="G163">
@@ -70904,7 +70904,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-02-06/20240206.png</t>
+          <t>2024/2024-02-06///20240206.png</t>
         </is>
       </c>
       <c r="G164">
@@ -71335,7 +71335,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-02-13/20240213.png</t>
+          <t>2024/2024-02-13///20240213.png</t>
         </is>
       </c>
       <c r="G165">
@@ -71766,7 +71766,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-02-20/20240220.png</t>
+          <t>2024/2024-02-20///20240220.png</t>
         </is>
       </c>
       <c r="G166">
@@ -72197,7 +72197,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-02-27/20240227.png</t>
+          <t>2024/2024-02-27///20240227.png</t>
         </is>
       </c>
       <c r="G167">
@@ -72628,7 +72628,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-03-05/20240305.png</t>
+          <t>2024/2024-03-05///20240305.png</t>
         </is>
       </c>
       <c r="G168">
@@ -73059,7 +73059,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024/2024-03-12/20240312.png</t>
+          <t>2024/2024-03-12///20240312.png</t>
         </is>
       </c>
       <c r="G169">
@@ -73490,7 +73490,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024/2024-03-19/20240319.png</t>
+          <t>2024/2024-03-19///20240319.png</t>
         </is>
       </c>
       <c r="G170">
@@ -73890,6 +73890,437 @@
         <v>0</v>
       </c>
       <c r="EI170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>NCAA Men's March Madness</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tidytuesdayR, monochromeR</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2024/2024-03-26/20240326.R</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2024/2024-03-26///20240326.png</t>
+        </is>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+      <c r="AC171">
+        <v>0</v>
+      </c>
+      <c r="AD171">
+        <v>0</v>
+      </c>
+      <c r="AE171">
+        <v>0</v>
+      </c>
+      <c r="AF171">
+        <v>0</v>
+      </c>
+      <c r="AG171">
+        <v>0</v>
+      </c>
+      <c r="AH171">
+        <v>0</v>
+      </c>
+      <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>0</v>
+      </c>
+      <c r="AM171">
+        <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>0</v>
+      </c>
+      <c r="AO171">
+        <v>0</v>
+      </c>
+      <c r="AP171">
+        <v>0</v>
+      </c>
+      <c r="AQ171">
+        <v>0</v>
+      </c>
+      <c r="AR171">
+        <v>0</v>
+      </c>
+      <c r="AS171">
+        <v>0</v>
+      </c>
+      <c r="AT171">
+        <v>0</v>
+      </c>
+      <c r="AU171">
+        <v>0</v>
+      </c>
+      <c r="AV171">
+        <v>0</v>
+      </c>
+      <c r="AW171">
+        <v>0</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>1</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
+        <v>1</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>0</v>
+      </c>
+      <c r="BJ171">
+        <v>0</v>
+      </c>
+      <c r="BK171">
+        <v>0</v>
+      </c>
+      <c r="BL171">
+        <v>0</v>
+      </c>
+      <c r="BM171">
+        <v>0</v>
+      </c>
+      <c r="BN171">
+        <v>0</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
+        <v>0</v>
+      </c>
+      <c r="BQ171">
+        <v>0</v>
+      </c>
+      <c r="BR171">
+        <v>0</v>
+      </c>
+      <c r="BS171">
+        <v>0</v>
+      </c>
+      <c r="BT171">
+        <v>0</v>
+      </c>
+      <c r="BU171">
+        <v>0</v>
+      </c>
+      <c r="BV171">
+        <v>0</v>
+      </c>
+      <c r="BW171">
+        <v>0</v>
+      </c>
+      <c r="BX171">
+        <v>0</v>
+      </c>
+      <c r="BY171">
+        <v>0</v>
+      </c>
+      <c r="BZ171">
+        <v>0</v>
+      </c>
+      <c r="CA171">
+        <v>1</v>
+      </c>
+      <c r="CB171">
+        <v>1</v>
+      </c>
+      <c r="CC171">
+        <v>0</v>
+      </c>
+      <c r="CD171">
+        <v>0</v>
+      </c>
+      <c r="CE171">
+        <v>0</v>
+      </c>
+      <c r="CF171">
+        <v>0</v>
+      </c>
+      <c r="CG171">
+        <v>0</v>
+      </c>
+      <c r="CH171">
+        <v>0</v>
+      </c>
+      <c r="CI171">
+        <v>0</v>
+      </c>
+      <c r="CJ171">
+        <v>0</v>
+      </c>
+      <c r="CK171">
+        <v>0</v>
+      </c>
+      <c r="CL171">
+        <v>0</v>
+      </c>
+      <c r="CM171">
+        <v>0</v>
+      </c>
+      <c r="CN171">
+        <v>0</v>
+      </c>
+      <c r="CO171">
+        <v>0</v>
+      </c>
+      <c r="CP171">
+        <v>0</v>
+      </c>
+      <c r="CQ171">
+        <v>0</v>
+      </c>
+      <c r="CR171">
+        <v>0</v>
+      </c>
+      <c r="CS171">
+        <v>0</v>
+      </c>
+      <c r="CT171">
+        <v>0</v>
+      </c>
+      <c r="CU171">
+        <v>0</v>
+      </c>
+      <c r="CV171">
+        <v>0</v>
+      </c>
+      <c r="CW171">
+        <v>0</v>
+      </c>
+      <c r="CX171">
+        <v>0</v>
+      </c>
+      <c r="CY171">
+        <v>0</v>
+      </c>
+      <c r="CZ171">
+        <v>0</v>
+      </c>
+      <c r="DA171">
+        <v>0</v>
+      </c>
+      <c r="DB171">
+        <v>0</v>
+      </c>
+      <c r="DC171">
+        <v>0</v>
+      </c>
+      <c r="DD171">
+        <v>0</v>
+      </c>
+      <c r="DE171">
+        <v>0</v>
+      </c>
+      <c r="DF171">
+        <v>1</v>
+      </c>
+      <c r="DG171">
+        <v>0</v>
+      </c>
+      <c r="DH171">
+        <v>0</v>
+      </c>
+      <c r="DI171">
+        <v>0</v>
+      </c>
+      <c r="DJ171">
+        <v>0</v>
+      </c>
+      <c r="DK171">
+        <v>0</v>
+      </c>
+      <c r="DL171">
+        <v>0</v>
+      </c>
+      <c r="DM171">
+        <v>0</v>
+      </c>
+      <c r="DN171">
+        <v>0</v>
+      </c>
+      <c r="DO171">
+        <v>0</v>
+      </c>
+      <c r="DP171">
+        <v>0</v>
+      </c>
+      <c r="DQ171">
+        <v>0</v>
+      </c>
+      <c r="DR171">
+        <v>0</v>
+      </c>
+      <c r="DS171">
+        <v>0</v>
+      </c>
+      <c r="DT171">
+        <v>0</v>
+      </c>
+      <c r="DU171">
+        <v>0</v>
+      </c>
+      <c r="DV171">
+        <v>1</v>
+      </c>
+      <c r="DW171">
+        <v>1</v>
+      </c>
+      <c r="DX171">
+        <v>0</v>
+      </c>
+      <c r="DY171">
+        <v>0</v>
+      </c>
+      <c r="DZ171">
+        <v>0</v>
+      </c>
+      <c r="EA171">
+        <v>0</v>
+      </c>
+      <c r="EB171">
+        <v>0</v>
+      </c>
+      <c r="EC171">
+        <v>0</v>
+      </c>
+      <c r="ED171">
+        <v>0</v>
+      </c>
+      <c r="EE171">
+        <v>0</v>
+      </c>
+      <c r="EF171">
+        <v>0</v>
+      </c>
+      <c r="EG171">
+        <v>0</v>
+      </c>
+      <c r="EH171">
+        <v>0</v>
+      </c>
+      <c r="EI171">
         <v>0</v>
       </c>
     </row>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EI172"/>
+  <dimension ref="A1:EI173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -74755,6 +74755,437 @@
         <v>0</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Du Bois Visualization Challenge 2024</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggforce, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2024/2024-04-02/20240402.R</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2024/2024-04-02///20240402.png</t>
+        </is>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>0</v>
+      </c>
+      <c r="AD173">
+        <v>0</v>
+      </c>
+      <c r="AE173">
+        <v>0</v>
+      </c>
+      <c r="AF173">
+        <v>0</v>
+      </c>
+      <c r="AG173">
+        <v>0</v>
+      </c>
+      <c r="AH173">
+        <v>1</v>
+      </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>0</v>
+      </c>
+      <c r="AK173">
+        <v>0</v>
+      </c>
+      <c r="AL173">
+        <v>0</v>
+      </c>
+      <c r="AM173">
+        <v>0</v>
+      </c>
+      <c r="AN173">
+        <v>0</v>
+      </c>
+      <c r="AO173">
+        <v>0</v>
+      </c>
+      <c r="AP173">
+        <v>0</v>
+      </c>
+      <c r="AQ173">
+        <v>0</v>
+      </c>
+      <c r="AR173">
+        <v>0</v>
+      </c>
+      <c r="AS173">
+        <v>0</v>
+      </c>
+      <c r="AT173">
+        <v>0</v>
+      </c>
+      <c r="AU173">
+        <v>0</v>
+      </c>
+      <c r="AV173">
+        <v>0</v>
+      </c>
+      <c r="AW173">
+        <v>0</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
+        <v>1</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>0</v>
+      </c>
+      <c r="BJ173">
+        <v>0</v>
+      </c>
+      <c r="BK173">
+        <v>0</v>
+      </c>
+      <c r="BL173">
+        <v>0</v>
+      </c>
+      <c r="BM173">
+        <v>0</v>
+      </c>
+      <c r="BN173">
+        <v>0</v>
+      </c>
+      <c r="BO173">
+        <v>0</v>
+      </c>
+      <c r="BP173">
+        <v>0</v>
+      </c>
+      <c r="BQ173">
+        <v>0</v>
+      </c>
+      <c r="BR173">
+        <v>0</v>
+      </c>
+      <c r="BS173">
+        <v>0</v>
+      </c>
+      <c r="BT173">
+        <v>0</v>
+      </c>
+      <c r="BU173">
+        <v>0</v>
+      </c>
+      <c r="BV173">
+        <v>0</v>
+      </c>
+      <c r="BW173">
+        <v>0</v>
+      </c>
+      <c r="BX173">
+        <v>0</v>
+      </c>
+      <c r="BY173">
+        <v>0</v>
+      </c>
+      <c r="BZ173">
+        <v>0</v>
+      </c>
+      <c r="CA173">
+        <v>0</v>
+      </c>
+      <c r="CB173">
+        <v>1</v>
+      </c>
+      <c r="CC173">
+        <v>0</v>
+      </c>
+      <c r="CD173">
+        <v>0</v>
+      </c>
+      <c r="CE173">
+        <v>0</v>
+      </c>
+      <c r="CF173">
+        <v>0</v>
+      </c>
+      <c r="CG173">
+        <v>0</v>
+      </c>
+      <c r="CH173">
+        <v>0</v>
+      </c>
+      <c r="CI173">
+        <v>0</v>
+      </c>
+      <c r="CJ173">
+        <v>0</v>
+      </c>
+      <c r="CK173">
+        <v>0</v>
+      </c>
+      <c r="CL173">
+        <v>0</v>
+      </c>
+      <c r="CM173">
+        <v>0</v>
+      </c>
+      <c r="CN173">
+        <v>0</v>
+      </c>
+      <c r="CO173">
+        <v>0</v>
+      </c>
+      <c r="CP173">
+        <v>0</v>
+      </c>
+      <c r="CQ173">
+        <v>0</v>
+      </c>
+      <c r="CR173">
+        <v>0</v>
+      </c>
+      <c r="CS173">
+        <v>0</v>
+      </c>
+      <c r="CT173">
+        <v>0</v>
+      </c>
+      <c r="CU173">
+        <v>0</v>
+      </c>
+      <c r="CV173">
+        <v>0</v>
+      </c>
+      <c r="CW173">
+        <v>0</v>
+      </c>
+      <c r="CX173">
+        <v>0</v>
+      </c>
+      <c r="CY173">
+        <v>0</v>
+      </c>
+      <c r="CZ173">
+        <v>0</v>
+      </c>
+      <c r="DA173">
+        <v>0</v>
+      </c>
+      <c r="DB173">
+        <v>0</v>
+      </c>
+      <c r="DC173">
+        <v>0</v>
+      </c>
+      <c r="DD173">
+        <v>0</v>
+      </c>
+      <c r="DE173">
+        <v>0</v>
+      </c>
+      <c r="DF173">
+        <v>1</v>
+      </c>
+      <c r="DG173">
+        <v>0</v>
+      </c>
+      <c r="DH173">
+        <v>0</v>
+      </c>
+      <c r="DI173">
+        <v>0</v>
+      </c>
+      <c r="DJ173">
+        <v>0</v>
+      </c>
+      <c r="DK173">
+        <v>0</v>
+      </c>
+      <c r="DL173">
+        <v>0</v>
+      </c>
+      <c r="DM173">
+        <v>0</v>
+      </c>
+      <c r="DN173">
+        <v>0</v>
+      </c>
+      <c r="DO173">
+        <v>0</v>
+      </c>
+      <c r="DP173">
+        <v>0</v>
+      </c>
+      <c r="DQ173">
+        <v>0</v>
+      </c>
+      <c r="DR173">
+        <v>0</v>
+      </c>
+      <c r="DS173">
+        <v>0</v>
+      </c>
+      <c r="DT173">
+        <v>0</v>
+      </c>
+      <c r="DU173">
+        <v>0</v>
+      </c>
+      <c r="DV173">
+        <v>1</v>
+      </c>
+      <c r="DW173">
+        <v>1</v>
+      </c>
+      <c r="DX173">
+        <v>0</v>
+      </c>
+      <c r="DY173">
+        <v>0</v>
+      </c>
+      <c r="DZ173">
+        <v>0</v>
+      </c>
+      <c r="EA173">
+        <v>0</v>
+      </c>
+      <c r="EB173">
+        <v>0</v>
+      </c>
+      <c r="EC173">
+        <v>0</v>
+      </c>
+      <c r="ED173">
+        <v>0</v>
+      </c>
+      <c r="EE173">
+        <v>0</v>
+      </c>
+      <c r="EF173">
+        <v>0</v>
+      </c>
+      <c r="EG173">
+        <v>0</v>
+      </c>
+      <c r="EH173">
+        <v>0</v>
+      </c>
+      <c r="EI173">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EJ176"/>
+  <dimension ref="A1:EJ177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -77009,6 +77009,440 @@
         <v>0</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Objects Launched into Space</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggforce, ggimage, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2024/2024-04-23/20240423.R</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2024/2024-04-23///20240423.png</t>
+        </is>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <v>0</v>
+      </c>
+      <c r="AD177">
+        <v>0</v>
+      </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>0</v>
+      </c>
+      <c r="AH177">
+        <v>1</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>1</v>
+      </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
+      <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AN177">
+        <v>0</v>
+      </c>
+      <c r="AO177">
+        <v>0</v>
+      </c>
+      <c r="AP177">
+        <v>0</v>
+      </c>
+      <c r="AQ177">
+        <v>0</v>
+      </c>
+      <c r="AR177">
+        <v>0</v>
+      </c>
+      <c r="AS177">
+        <v>0</v>
+      </c>
+      <c r="AT177">
+        <v>0</v>
+      </c>
+      <c r="AU177">
+        <v>0</v>
+      </c>
+      <c r="AV177">
+        <v>0</v>
+      </c>
+      <c r="AW177">
+        <v>0</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>1</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>0</v>
+      </c>
+      <c r="BG177">
+        <v>1</v>
+      </c>
+      <c r="BH177">
+        <v>0</v>
+      </c>
+      <c r="BI177">
+        <v>0</v>
+      </c>
+      <c r="BJ177">
+        <v>0</v>
+      </c>
+      <c r="BK177">
+        <v>0</v>
+      </c>
+      <c r="BL177">
+        <v>0</v>
+      </c>
+      <c r="BM177">
+        <v>0</v>
+      </c>
+      <c r="BN177">
+        <v>0</v>
+      </c>
+      <c r="BO177">
+        <v>0</v>
+      </c>
+      <c r="BP177">
+        <v>0</v>
+      </c>
+      <c r="BQ177">
+        <v>0</v>
+      </c>
+      <c r="BR177">
+        <v>0</v>
+      </c>
+      <c r="BS177">
+        <v>0</v>
+      </c>
+      <c r="BT177">
+        <v>0</v>
+      </c>
+      <c r="BU177">
+        <v>0</v>
+      </c>
+      <c r="BV177">
+        <v>0</v>
+      </c>
+      <c r="BW177">
+        <v>0</v>
+      </c>
+      <c r="BX177">
+        <v>0</v>
+      </c>
+      <c r="BY177">
+        <v>0</v>
+      </c>
+      <c r="BZ177">
+        <v>0</v>
+      </c>
+      <c r="CA177">
+        <v>0</v>
+      </c>
+      <c r="CB177">
+        <v>0</v>
+      </c>
+      <c r="CC177">
+        <v>1</v>
+      </c>
+      <c r="CD177">
+        <v>0</v>
+      </c>
+      <c r="CE177">
+        <v>0</v>
+      </c>
+      <c r="CF177">
+        <v>0</v>
+      </c>
+      <c r="CG177">
+        <v>0</v>
+      </c>
+      <c r="CH177">
+        <v>0</v>
+      </c>
+      <c r="CI177">
+        <v>0</v>
+      </c>
+      <c r="CJ177">
+        <v>0</v>
+      </c>
+      <c r="CK177">
+        <v>0</v>
+      </c>
+      <c r="CL177">
+        <v>0</v>
+      </c>
+      <c r="CM177">
+        <v>0</v>
+      </c>
+      <c r="CN177">
+        <v>0</v>
+      </c>
+      <c r="CO177">
+        <v>0</v>
+      </c>
+      <c r="CP177">
+        <v>0</v>
+      </c>
+      <c r="CQ177">
+        <v>0</v>
+      </c>
+      <c r="CR177">
+        <v>0</v>
+      </c>
+      <c r="CS177">
+        <v>0</v>
+      </c>
+      <c r="CT177">
+        <v>0</v>
+      </c>
+      <c r="CU177">
+        <v>0</v>
+      </c>
+      <c r="CV177">
+        <v>0</v>
+      </c>
+      <c r="CW177">
+        <v>0</v>
+      </c>
+      <c r="CX177">
+        <v>0</v>
+      </c>
+      <c r="CY177">
+        <v>0</v>
+      </c>
+      <c r="CZ177">
+        <v>0</v>
+      </c>
+      <c r="DA177">
+        <v>0</v>
+      </c>
+      <c r="DB177">
+        <v>0</v>
+      </c>
+      <c r="DC177">
+        <v>0</v>
+      </c>
+      <c r="DD177">
+        <v>0</v>
+      </c>
+      <c r="DE177">
+        <v>0</v>
+      </c>
+      <c r="DF177">
+        <v>0</v>
+      </c>
+      <c r="DG177">
+        <v>1</v>
+      </c>
+      <c r="DH177">
+        <v>0</v>
+      </c>
+      <c r="DI177">
+        <v>0</v>
+      </c>
+      <c r="DJ177">
+        <v>0</v>
+      </c>
+      <c r="DK177">
+        <v>0</v>
+      </c>
+      <c r="DL177">
+        <v>0</v>
+      </c>
+      <c r="DM177">
+        <v>0</v>
+      </c>
+      <c r="DN177">
+        <v>0</v>
+      </c>
+      <c r="DO177">
+        <v>0</v>
+      </c>
+      <c r="DP177">
+        <v>0</v>
+      </c>
+      <c r="DQ177">
+        <v>0</v>
+      </c>
+      <c r="DR177">
+        <v>0</v>
+      </c>
+      <c r="DS177">
+        <v>0</v>
+      </c>
+      <c r="DT177">
+        <v>0</v>
+      </c>
+      <c r="DU177">
+        <v>0</v>
+      </c>
+      <c r="DV177">
+        <v>0</v>
+      </c>
+      <c r="DW177">
+        <v>1</v>
+      </c>
+      <c r="DX177">
+        <v>1</v>
+      </c>
+      <c r="DY177">
+        <v>0</v>
+      </c>
+      <c r="DZ177">
+        <v>0</v>
+      </c>
+      <c r="EA177">
+        <v>0</v>
+      </c>
+      <c r="EB177">
+        <v>0</v>
+      </c>
+      <c r="EC177">
+        <v>0</v>
+      </c>
+      <c r="ED177">
+        <v>0</v>
+      </c>
+      <c r="EE177">
+        <v>0</v>
+      </c>
+      <c r="EF177">
+        <v>0</v>
+      </c>
+      <c r="EG177">
+        <v>0</v>
+      </c>
+      <c r="EH177">
+        <v>0</v>
+      </c>
+      <c r="EI177">
+        <v>0</v>
+      </c>
+      <c r="EJ177">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EJ177"/>
+  <dimension ref="A1:EJ178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -77017,429 +77017,863 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Shiny Packages</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, rcartocolor, snakecase, tidytuesdayR, stringr, purrr</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2024/2024-04-16/20240416.R</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2024/2024-04-16///20240416.png</t>
+        </is>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <v>0</v>
+      </c>
+      <c r="AD177">
+        <v>0</v>
+      </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>0</v>
+      </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
+      <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AN177">
+        <v>0</v>
+      </c>
+      <c r="AO177">
+        <v>0</v>
+      </c>
+      <c r="AP177">
+        <v>0</v>
+      </c>
+      <c r="AQ177">
+        <v>0</v>
+      </c>
+      <c r="AR177">
+        <v>0</v>
+      </c>
+      <c r="AS177">
+        <v>0</v>
+      </c>
+      <c r="AT177">
+        <v>0</v>
+      </c>
+      <c r="AU177">
+        <v>0</v>
+      </c>
+      <c r="AV177">
+        <v>0</v>
+      </c>
+      <c r="AW177">
+        <v>0</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>1</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>0</v>
+      </c>
+      <c r="BG177">
+        <v>1</v>
+      </c>
+      <c r="BH177">
+        <v>0</v>
+      </c>
+      <c r="BI177">
+        <v>0</v>
+      </c>
+      <c r="BJ177">
+        <v>0</v>
+      </c>
+      <c r="BK177">
+        <v>0</v>
+      </c>
+      <c r="BL177">
+        <v>0</v>
+      </c>
+      <c r="BM177">
+        <v>0</v>
+      </c>
+      <c r="BN177">
+        <v>0</v>
+      </c>
+      <c r="BO177">
+        <v>0</v>
+      </c>
+      <c r="BP177">
+        <v>0</v>
+      </c>
+      <c r="BQ177">
+        <v>0</v>
+      </c>
+      <c r="BR177">
+        <v>0</v>
+      </c>
+      <c r="BS177">
+        <v>0</v>
+      </c>
+      <c r="BT177">
+        <v>0</v>
+      </c>
+      <c r="BU177">
+        <v>0</v>
+      </c>
+      <c r="BV177">
+        <v>0</v>
+      </c>
+      <c r="BW177">
+        <v>0</v>
+      </c>
+      <c r="BX177">
+        <v>0</v>
+      </c>
+      <c r="BY177">
+        <v>0</v>
+      </c>
+      <c r="BZ177">
+        <v>0</v>
+      </c>
+      <c r="CA177">
+        <v>0</v>
+      </c>
+      <c r="CB177">
+        <v>0</v>
+      </c>
+      <c r="CC177">
+        <v>1</v>
+      </c>
+      <c r="CD177">
+        <v>0</v>
+      </c>
+      <c r="CE177">
+        <v>0</v>
+      </c>
+      <c r="CF177">
+        <v>0</v>
+      </c>
+      <c r="CG177">
+        <v>0</v>
+      </c>
+      <c r="CH177">
+        <v>1</v>
+      </c>
+      <c r="CI177">
+        <v>0</v>
+      </c>
+      <c r="CJ177">
+        <v>0</v>
+      </c>
+      <c r="CK177">
+        <v>0</v>
+      </c>
+      <c r="CL177">
+        <v>0</v>
+      </c>
+      <c r="CM177">
+        <v>0</v>
+      </c>
+      <c r="CN177">
+        <v>0</v>
+      </c>
+      <c r="CO177">
+        <v>0</v>
+      </c>
+      <c r="CP177">
+        <v>1</v>
+      </c>
+      <c r="CQ177">
+        <v>0</v>
+      </c>
+      <c r="CR177">
+        <v>0</v>
+      </c>
+      <c r="CS177">
+        <v>1</v>
+      </c>
+      <c r="CT177">
+        <v>0</v>
+      </c>
+      <c r="CU177">
+        <v>0</v>
+      </c>
+      <c r="CV177">
+        <v>0</v>
+      </c>
+      <c r="CW177">
+        <v>0</v>
+      </c>
+      <c r="CX177">
+        <v>0</v>
+      </c>
+      <c r="CY177">
+        <v>0</v>
+      </c>
+      <c r="CZ177">
+        <v>0</v>
+      </c>
+      <c r="DA177">
+        <v>0</v>
+      </c>
+      <c r="DB177">
+        <v>0</v>
+      </c>
+      <c r="DC177">
+        <v>0</v>
+      </c>
+      <c r="DD177">
+        <v>0</v>
+      </c>
+      <c r="DE177">
+        <v>0</v>
+      </c>
+      <c r="DF177">
+        <v>0</v>
+      </c>
+      <c r="DG177">
+        <v>1</v>
+      </c>
+      <c r="DH177">
+        <v>1</v>
+      </c>
+      <c r="DI177">
+        <v>0</v>
+      </c>
+      <c r="DJ177">
+        <v>0</v>
+      </c>
+      <c r="DK177">
+        <v>0</v>
+      </c>
+      <c r="DL177">
+        <v>0</v>
+      </c>
+      <c r="DM177">
+        <v>0</v>
+      </c>
+      <c r="DN177">
+        <v>0</v>
+      </c>
+      <c r="DO177">
+        <v>0</v>
+      </c>
+      <c r="DP177">
+        <v>1</v>
+      </c>
+      <c r="DQ177">
+        <v>0</v>
+      </c>
+      <c r="DR177">
+        <v>0</v>
+      </c>
+      <c r="DS177">
+        <v>0</v>
+      </c>
+      <c r="DT177">
+        <v>0</v>
+      </c>
+      <c r="DU177">
+        <v>0</v>
+      </c>
+      <c r="DV177">
+        <v>0</v>
+      </c>
+      <c r="DW177">
+        <v>1</v>
+      </c>
+      <c r="DX177">
+        <v>1</v>
+      </c>
+      <c r="DY177">
+        <v>0</v>
+      </c>
+      <c r="DZ177">
+        <v>0</v>
+      </c>
+      <c r="EA177">
+        <v>0</v>
+      </c>
+      <c r="EB177">
+        <v>0</v>
+      </c>
+      <c r="EC177">
+        <v>0</v>
+      </c>
+      <c r="ED177">
+        <v>0</v>
+      </c>
+      <c r="EE177">
+        <v>0</v>
+      </c>
+      <c r="EF177">
+        <v>0</v>
+      </c>
+      <c r="EG177">
+        <v>0</v>
+      </c>
+      <c r="EH177">
+        <v>0</v>
+      </c>
+      <c r="EI177">
+        <v>0</v>
+      </c>
+      <c r="EJ177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Objects Launched into Space</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggforce, ggimage, tidytuesdayR</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2024/2024-04-23/20240423.R</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>2024/2024-04-23///20240423.png</t>
         </is>
       </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-      <c r="M177">
-        <v>0</v>
-      </c>
-      <c r="N177">
-        <v>0</v>
-      </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>0</v>
-      </c>
-      <c r="S177">
-        <v>0</v>
-      </c>
-      <c r="T177">
-        <v>0</v>
-      </c>
-      <c r="U177">
-        <v>0</v>
-      </c>
-      <c r="V177">
-        <v>0</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
-      </c>
-      <c r="Y177">
-        <v>0</v>
-      </c>
-      <c r="Z177">
-        <v>0</v>
-      </c>
-      <c r="AA177">
-        <v>0</v>
-      </c>
-      <c r="AB177">
-        <v>0</v>
-      </c>
-      <c r="AC177">
-        <v>0</v>
-      </c>
-      <c r="AD177">
-        <v>0</v>
-      </c>
-      <c r="AE177">
-        <v>0</v>
-      </c>
-      <c r="AF177">
-        <v>0</v>
-      </c>
-      <c r="AG177">
-        <v>0</v>
-      </c>
-      <c r="AH177">
-        <v>1</v>
-      </c>
-      <c r="AI177">
-        <v>0</v>
-      </c>
-      <c r="AJ177">
-        <v>0</v>
-      </c>
-      <c r="AK177">
-        <v>1</v>
-      </c>
-      <c r="AL177">
-        <v>0</v>
-      </c>
-      <c r="AM177">
-        <v>0</v>
-      </c>
-      <c r="AN177">
-        <v>0</v>
-      </c>
-      <c r="AO177">
-        <v>0</v>
-      </c>
-      <c r="AP177">
-        <v>0</v>
-      </c>
-      <c r="AQ177">
-        <v>0</v>
-      </c>
-      <c r="AR177">
-        <v>0</v>
-      </c>
-      <c r="AS177">
-        <v>0</v>
-      </c>
-      <c r="AT177">
-        <v>0</v>
-      </c>
-      <c r="AU177">
-        <v>0</v>
-      </c>
-      <c r="AV177">
-        <v>0</v>
-      </c>
-      <c r="AW177">
-        <v>0</v>
-      </c>
-      <c r="AX177">
-        <v>0</v>
-      </c>
-      <c r="AY177">
-        <v>0</v>
-      </c>
-      <c r="AZ177">
-        <v>0</v>
-      </c>
-      <c r="BA177">
-        <v>0</v>
-      </c>
-      <c r="BB177">
-        <v>1</v>
-      </c>
-      <c r="BC177">
-        <v>0</v>
-      </c>
-      <c r="BD177">
-        <v>0</v>
-      </c>
-      <c r="BE177">
-        <v>0</v>
-      </c>
-      <c r="BF177">
-        <v>0</v>
-      </c>
-      <c r="BG177">
-        <v>1</v>
-      </c>
-      <c r="BH177">
-        <v>0</v>
-      </c>
-      <c r="BI177">
-        <v>0</v>
-      </c>
-      <c r="BJ177">
-        <v>0</v>
-      </c>
-      <c r="BK177">
-        <v>0</v>
-      </c>
-      <c r="BL177">
-        <v>0</v>
-      </c>
-      <c r="BM177">
-        <v>0</v>
-      </c>
-      <c r="BN177">
-        <v>0</v>
-      </c>
-      <c r="BO177">
-        <v>0</v>
-      </c>
-      <c r="BP177">
-        <v>0</v>
-      </c>
-      <c r="BQ177">
-        <v>0</v>
-      </c>
-      <c r="BR177">
-        <v>0</v>
-      </c>
-      <c r="BS177">
-        <v>0</v>
-      </c>
-      <c r="BT177">
-        <v>0</v>
-      </c>
-      <c r="BU177">
-        <v>0</v>
-      </c>
-      <c r="BV177">
-        <v>0</v>
-      </c>
-      <c r="BW177">
-        <v>0</v>
-      </c>
-      <c r="BX177">
-        <v>0</v>
-      </c>
-      <c r="BY177">
-        <v>0</v>
-      </c>
-      <c r="BZ177">
-        <v>0</v>
-      </c>
-      <c r="CA177">
-        <v>0</v>
-      </c>
-      <c r="CB177">
-        <v>0</v>
-      </c>
-      <c r="CC177">
-        <v>1</v>
-      </c>
-      <c r="CD177">
-        <v>0</v>
-      </c>
-      <c r="CE177">
-        <v>0</v>
-      </c>
-      <c r="CF177">
-        <v>0</v>
-      </c>
-      <c r="CG177">
-        <v>0</v>
-      </c>
-      <c r="CH177">
-        <v>0</v>
-      </c>
-      <c r="CI177">
-        <v>0</v>
-      </c>
-      <c r="CJ177">
-        <v>0</v>
-      </c>
-      <c r="CK177">
-        <v>0</v>
-      </c>
-      <c r="CL177">
-        <v>0</v>
-      </c>
-      <c r="CM177">
-        <v>0</v>
-      </c>
-      <c r="CN177">
-        <v>0</v>
-      </c>
-      <c r="CO177">
-        <v>0</v>
-      </c>
-      <c r="CP177">
-        <v>0</v>
-      </c>
-      <c r="CQ177">
-        <v>0</v>
-      </c>
-      <c r="CR177">
-        <v>0</v>
-      </c>
-      <c r="CS177">
-        <v>0</v>
-      </c>
-      <c r="CT177">
-        <v>0</v>
-      </c>
-      <c r="CU177">
-        <v>0</v>
-      </c>
-      <c r="CV177">
-        <v>0</v>
-      </c>
-      <c r="CW177">
-        <v>0</v>
-      </c>
-      <c r="CX177">
-        <v>0</v>
-      </c>
-      <c r="CY177">
-        <v>0</v>
-      </c>
-      <c r="CZ177">
-        <v>0</v>
-      </c>
-      <c r="DA177">
-        <v>0</v>
-      </c>
-      <c r="DB177">
-        <v>0</v>
-      </c>
-      <c r="DC177">
-        <v>0</v>
-      </c>
-      <c r="DD177">
-        <v>0</v>
-      </c>
-      <c r="DE177">
-        <v>0</v>
-      </c>
-      <c r="DF177">
-        <v>0</v>
-      </c>
-      <c r="DG177">
-        <v>1</v>
-      </c>
-      <c r="DH177">
-        <v>0</v>
-      </c>
-      <c r="DI177">
-        <v>0</v>
-      </c>
-      <c r="DJ177">
-        <v>0</v>
-      </c>
-      <c r="DK177">
-        <v>0</v>
-      </c>
-      <c r="DL177">
-        <v>0</v>
-      </c>
-      <c r="DM177">
-        <v>0</v>
-      </c>
-      <c r="DN177">
-        <v>0</v>
-      </c>
-      <c r="DO177">
-        <v>0</v>
-      </c>
-      <c r="DP177">
-        <v>0</v>
-      </c>
-      <c r="DQ177">
-        <v>0</v>
-      </c>
-      <c r="DR177">
-        <v>0</v>
-      </c>
-      <c r="DS177">
-        <v>0</v>
-      </c>
-      <c r="DT177">
-        <v>0</v>
-      </c>
-      <c r="DU177">
-        <v>0</v>
-      </c>
-      <c r="DV177">
-        <v>0</v>
-      </c>
-      <c r="DW177">
-        <v>1</v>
-      </c>
-      <c r="DX177">
-        <v>1</v>
-      </c>
-      <c r="DY177">
-        <v>0</v>
-      </c>
-      <c r="DZ177">
-        <v>0</v>
-      </c>
-      <c r="EA177">
-        <v>0</v>
-      </c>
-      <c r="EB177">
-        <v>0</v>
-      </c>
-      <c r="EC177">
-        <v>0</v>
-      </c>
-      <c r="ED177">
-        <v>0</v>
-      </c>
-      <c r="EE177">
-        <v>0</v>
-      </c>
-      <c r="EF177">
-        <v>0</v>
-      </c>
-      <c r="EG177">
-        <v>0</v>
-      </c>
-      <c r="EH177">
-        <v>0</v>
-      </c>
-      <c r="EI177">
-        <v>0</v>
-      </c>
-      <c r="EJ177">
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+      <c r="AC178">
+        <v>0</v>
+      </c>
+      <c r="AD178">
+        <v>0</v>
+      </c>
+      <c r="AE178">
+        <v>0</v>
+      </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
+      <c r="AG178">
+        <v>0</v>
+      </c>
+      <c r="AH178">
+        <v>1</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>0</v>
+      </c>
+      <c r="AK178">
+        <v>1</v>
+      </c>
+      <c r="AL178">
+        <v>0</v>
+      </c>
+      <c r="AM178">
+        <v>0</v>
+      </c>
+      <c r="AN178">
+        <v>0</v>
+      </c>
+      <c r="AO178">
+        <v>0</v>
+      </c>
+      <c r="AP178">
+        <v>0</v>
+      </c>
+      <c r="AQ178">
+        <v>0</v>
+      </c>
+      <c r="AR178">
+        <v>0</v>
+      </c>
+      <c r="AS178">
+        <v>0</v>
+      </c>
+      <c r="AT178">
+        <v>0</v>
+      </c>
+      <c r="AU178">
+        <v>0</v>
+      </c>
+      <c r="AV178">
+        <v>0</v>
+      </c>
+      <c r="AW178">
+        <v>0</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>0</v>
+      </c>
+      <c r="BG178">
+        <v>1</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>0</v>
+      </c>
+      <c r="BJ178">
+        <v>0</v>
+      </c>
+      <c r="BK178">
+        <v>0</v>
+      </c>
+      <c r="BL178">
+        <v>0</v>
+      </c>
+      <c r="BM178">
+        <v>0</v>
+      </c>
+      <c r="BN178">
+        <v>0</v>
+      </c>
+      <c r="BO178">
+        <v>0</v>
+      </c>
+      <c r="BP178">
+        <v>0</v>
+      </c>
+      <c r="BQ178">
+        <v>0</v>
+      </c>
+      <c r="BR178">
+        <v>0</v>
+      </c>
+      <c r="BS178">
+        <v>0</v>
+      </c>
+      <c r="BT178">
+        <v>0</v>
+      </c>
+      <c r="BU178">
+        <v>0</v>
+      </c>
+      <c r="BV178">
+        <v>0</v>
+      </c>
+      <c r="BW178">
+        <v>0</v>
+      </c>
+      <c r="BX178">
+        <v>0</v>
+      </c>
+      <c r="BY178">
+        <v>0</v>
+      </c>
+      <c r="BZ178">
+        <v>0</v>
+      </c>
+      <c r="CA178">
+        <v>0</v>
+      </c>
+      <c r="CB178">
+        <v>0</v>
+      </c>
+      <c r="CC178">
+        <v>1</v>
+      </c>
+      <c r="CD178">
+        <v>0</v>
+      </c>
+      <c r="CE178">
+        <v>0</v>
+      </c>
+      <c r="CF178">
+        <v>0</v>
+      </c>
+      <c r="CG178">
+        <v>0</v>
+      </c>
+      <c r="CH178">
+        <v>0</v>
+      </c>
+      <c r="CI178">
+        <v>0</v>
+      </c>
+      <c r="CJ178">
+        <v>0</v>
+      </c>
+      <c r="CK178">
+        <v>0</v>
+      </c>
+      <c r="CL178">
+        <v>0</v>
+      </c>
+      <c r="CM178">
+        <v>0</v>
+      </c>
+      <c r="CN178">
+        <v>0</v>
+      </c>
+      <c r="CO178">
+        <v>0</v>
+      </c>
+      <c r="CP178">
+        <v>0</v>
+      </c>
+      <c r="CQ178">
+        <v>0</v>
+      </c>
+      <c r="CR178">
+        <v>0</v>
+      </c>
+      <c r="CS178">
+        <v>0</v>
+      </c>
+      <c r="CT178">
+        <v>0</v>
+      </c>
+      <c r="CU178">
+        <v>0</v>
+      </c>
+      <c r="CV178">
+        <v>0</v>
+      </c>
+      <c r="CW178">
+        <v>0</v>
+      </c>
+      <c r="CX178">
+        <v>0</v>
+      </c>
+      <c r="CY178">
+        <v>0</v>
+      </c>
+      <c r="CZ178">
+        <v>0</v>
+      </c>
+      <c r="DA178">
+        <v>0</v>
+      </c>
+      <c r="DB178">
+        <v>0</v>
+      </c>
+      <c r="DC178">
+        <v>0</v>
+      </c>
+      <c r="DD178">
+        <v>0</v>
+      </c>
+      <c r="DE178">
+        <v>0</v>
+      </c>
+      <c r="DF178">
+        <v>0</v>
+      </c>
+      <c r="DG178">
+        <v>1</v>
+      </c>
+      <c r="DH178">
+        <v>0</v>
+      </c>
+      <c r="DI178">
+        <v>0</v>
+      </c>
+      <c r="DJ178">
+        <v>0</v>
+      </c>
+      <c r="DK178">
+        <v>0</v>
+      </c>
+      <c r="DL178">
+        <v>0</v>
+      </c>
+      <c r="DM178">
+        <v>0</v>
+      </c>
+      <c r="DN178">
+        <v>0</v>
+      </c>
+      <c r="DO178">
+        <v>0</v>
+      </c>
+      <c r="DP178">
+        <v>0</v>
+      </c>
+      <c r="DQ178">
+        <v>0</v>
+      </c>
+      <c r="DR178">
+        <v>0</v>
+      </c>
+      <c r="DS178">
+        <v>0</v>
+      </c>
+      <c r="DT178">
+        <v>0</v>
+      </c>
+      <c r="DU178">
+        <v>0</v>
+      </c>
+      <c r="DV178">
+        <v>0</v>
+      </c>
+      <c r="DW178">
+        <v>1</v>
+      </c>
+      <c r="DX178">
+        <v>1</v>
+      </c>
+      <c r="DY178">
+        <v>0</v>
+      </c>
+      <c r="DZ178">
+        <v>0</v>
+      </c>
+      <c r="EA178">
+        <v>0</v>
+      </c>
+      <c r="EB178">
+        <v>0</v>
+      </c>
+      <c r="EC178">
+        <v>0</v>
+      </c>
+      <c r="ED178">
+        <v>0</v>
+      </c>
+      <c r="EE178">
+        <v>0</v>
+      </c>
+      <c r="EF178">
+        <v>0</v>
+      </c>
+      <c r="EG178">
+        <v>0</v>
+      </c>
+      <c r="EH178">
+        <v>0</v>
+      </c>
+      <c r="EI178">
+        <v>0</v>
+      </c>
+      <c r="EJ178">
         <v>0</v>
       </c>
     </row>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EJ178"/>
+  <dimension ref="A1:EJ180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -77877,6 +77877,874 @@
         <v>0</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Worldwide Bureaucracy Indicators</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, geofacet, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2024/2024-04-30/20240430.R</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2024/2024-04-30///20240430.png</t>
+        </is>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>1</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>0</v>
+      </c>
+      <c r="AD179">
+        <v>0</v>
+      </c>
+      <c r="AE179">
+        <v>0</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>0</v>
+      </c>
+      <c r="AH179">
+        <v>0</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>0</v>
+      </c>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>0</v>
+      </c>
+      <c r="AO179">
+        <v>0</v>
+      </c>
+      <c r="AP179">
+        <v>0</v>
+      </c>
+      <c r="AQ179">
+        <v>0</v>
+      </c>
+      <c r="AR179">
+        <v>0</v>
+      </c>
+      <c r="AS179">
+        <v>0</v>
+      </c>
+      <c r="AT179">
+        <v>0</v>
+      </c>
+      <c r="AU179">
+        <v>0</v>
+      </c>
+      <c r="AV179">
+        <v>0</v>
+      </c>
+      <c r="AW179">
+        <v>0</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>1</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>0</v>
+      </c>
+      <c r="BG179">
+        <v>1</v>
+      </c>
+      <c r="BH179">
+        <v>0</v>
+      </c>
+      <c r="BI179">
+        <v>0</v>
+      </c>
+      <c r="BJ179">
+        <v>0</v>
+      </c>
+      <c r="BK179">
+        <v>0</v>
+      </c>
+      <c r="BL179">
+        <v>0</v>
+      </c>
+      <c r="BM179">
+        <v>0</v>
+      </c>
+      <c r="BN179">
+        <v>0</v>
+      </c>
+      <c r="BO179">
+        <v>0</v>
+      </c>
+      <c r="BP179">
+        <v>0</v>
+      </c>
+      <c r="BQ179">
+        <v>0</v>
+      </c>
+      <c r="BR179">
+        <v>0</v>
+      </c>
+      <c r="BS179">
+        <v>0</v>
+      </c>
+      <c r="BT179">
+        <v>0</v>
+      </c>
+      <c r="BU179">
+        <v>0</v>
+      </c>
+      <c r="BV179">
+        <v>0</v>
+      </c>
+      <c r="BW179">
+        <v>0</v>
+      </c>
+      <c r="BX179">
+        <v>0</v>
+      </c>
+      <c r="BY179">
+        <v>0</v>
+      </c>
+      <c r="BZ179">
+        <v>0</v>
+      </c>
+      <c r="CA179">
+        <v>0</v>
+      </c>
+      <c r="CB179">
+        <v>0</v>
+      </c>
+      <c r="CC179">
+        <v>1</v>
+      </c>
+      <c r="CD179">
+        <v>0</v>
+      </c>
+      <c r="CE179">
+        <v>0</v>
+      </c>
+      <c r="CF179">
+        <v>0</v>
+      </c>
+      <c r="CG179">
+        <v>0</v>
+      </c>
+      <c r="CH179">
+        <v>1</v>
+      </c>
+      <c r="CI179">
+        <v>0</v>
+      </c>
+      <c r="CJ179">
+        <v>0</v>
+      </c>
+      <c r="CK179">
+        <v>0</v>
+      </c>
+      <c r="CL179">
+        <v>0</v>
+      </c>
+      <c r="CM179">
+        <v>0</v>
+      </c>
+      <c r="CN179">
+        <v>0</v>
+      </c>
+      <c r="CO179">
+        <v>0</v>
+      </c>
+      <c r="CP179">
+        <v>0</v>
+      </c>
+      <c r="CQ179">
+        <v>0</v>
+      </c>
+      <c r="CR179">
+        <v>0</v>
+      </c>
+      <c r="CS179">
+        <v>0</v>
+      </c>
+      <c r="CT179">
+        <v>0</v>
+      </c>
+      <c r="CU179">
+        <v>0</v>
+      </c>
+      <c r="CV179">
+        <v>0</v>
+      </c>
+      <c r="CW179">
+        <v>0</v>
+      </c>
+      <c r="CX179">
+        <v>0</v>
+      </c>
+      <c r="CY179">
+        <v>0</v>
+      </c>
+      <c r="CZ179">
+        <v>0</v>
+      </c>
+      <c r="DA179">
+        <v>0</v>
+      </c>
+      <c r="DB179">
+        <v>0</v>
+      </c>
+      <c r="DC179">
+        <v>0</v>
+      </c>
+      <c r="DD179">
+        <v>0</v>
+      </c>
+      <c r="DE179">
+        <v>0</v>
+      </c>
+      <c r="DF179">
+        <v>0</v>
+      </c>
+      <c r="DG179">
+        <v>1</v>
+      </c>
+      <c r="DH179">
+        <v>0</v>
+      </c>
+      <c r="DI179">
+        <v>0</v>
+      </c>
+      <c r="DJ179">
+        <v>0</v>
+      </c>
+      <c r="DK179">
+        <v>0</v>
+      </c>
+      <c r="DL179">
+        <v>0</v>
+      </c>
+      <c r="DM179">
+        <v>0</v>
+      </c>
+      <c r="DN179">
+        <v>0</v>
+      </c>
+      <c r="DO179">
+        <v>0</v>
+      </c>
+      <c r="DP179">
+        <v>0</v>
+      </c>
+      <c r="DQ179">
+        <v>0</v>
+      </c>
+      <c r="DR179">
+        <v>0</v>
+      </c>
+      <c r="DS179">
+        <v>0</v>
+      </c>
+      <c r="DT179">
+        <v>0</v>
+      </c>
+      <c r="DU179">
+        <v>0</v>
+      </c>
+      <c r="DV179">
+        <v>0</v>
+      </c>
+      <c r="DW179">
+        <v>1</v>
+      </c>
+      <c r="DX179">
+        <v>1</v>
+      </c>
+      <c r="DY179">
+        <v>0</v>
+      </c>
+      <c r="DZ179">
+        <v>0</v>
+      </c>
+      <c r="EA179">
+        <v>0</v>
+      </c>
+      <c r="EB179">
+        <v>0</v>
+      </c>
+      <c r="EC179">
+        <v>0</v>
+      </c>
+      <c r="ED179">
+        <v>0</v>
+      </c>
+      <c r="EE179">
+        <v>0</v>
+      </c>
+      <c r="EF179">
+        <v>0</v>
+      </c>
+      <c r="EG179">
+        <v>0</v>
+      </c>
+      <c r="EH179">
+        <v>0</v>
+      </c>
+      <c r="EI179">
+        <v>0</v>
+      </c>
+      <c r="EJ179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Rolling Stone Album Rankings</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, ggforce, tidytuesdayR, PrettyCols</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2024/2024-05-07/20240507.R</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2024/2024-05-07///20240507.png</t>
+        </is>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
+      <c r="AC180">
+        <v>0</v>
+      </c>
+      <c r="AD180">
+        <v>0</v>
+      </c>
+      <c r="AE180">
+        <v>0</v>
+      </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
+      <c r="AG180">
+        <v>0</v>
+      </c>
+      <c r="AH180">
+        <v>1</v>
+      </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
+        <v>0</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>0</v>
+      </c>
+      <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AN180">
+        <v>0</v>
+      </c>
+      <c r="AO180">
+        <v>0</v>
+      </c>
+      <c r="AP180">
+        <v>0</v>
+      </c>
+      <c r="AQ180">
+        <v>0</v>
+      </c>
+      <c r="AR180">
+        <v>0</v>
+      </c>
+      <c r="AS180">
+        <v>0</v>
+      </c>
+      <c r="AT180">
+        <v>0</v>
+      </c>
+      <c r="AU180">
+        <v>0</v>
+      </c>
+      <c r="AV180">
+        <v>0</v>
+      </c>
+      <c r="AW180">
+        <v>0</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>0</v>
+      </c>
+      <c r="BG180">
+        <v>1</v>
+      </c>
+      <c r="BH180">
+        <v>0</v>
+      </c>
+      <c r="BI180">
+        <v>0</v>
+      </c>
+      <c r="BJ180">
+        <v>0</v>
+      </c>
+      <c r="BK180">
+        <v>0</v>
+      </c>
+      <c r="BL180">
+        <v>0</v>
+      </c>
+      <c r="BM180">
+        <v>0</v>
+      </c>
+      <c r="BN180">
+        <v>0</v>
+      </c>
+      <c r="BO180">
+        <v>0</v>
+      </c>
+      <c r="BP180">
+        <v>0</v>
+      </c>
+      <c r="BQ180">
+        <v>0</v>
+      </c>
+      <c r="BR180">
+        <v>0</v>
+      </c>
+      <c r="BS180">
+        <v>0</v>
+      </c>
+      <c r="BT180">
+        <v>0</v>
+      </c>
+      <c r="BU180">
+        <v>0</v>
+      </c>
+      <c r="BV180">
+        <v>0</v>
+      </c>
+      <c r="BW180">
+        <v>0</v>
+      </c>
+      <c r="BX180">
+        <v>0</v>
+      </c>
+      <c r="BY180">
+        <v>0</v>
+      </c>
+      <c r="BZ180">
+        <v>0</v>
+      </c>
+      <c r="CA180">
+        <v>0</v>
+      </c>
+      <c r="CB180">
+        <v>0</v>
+      </c>
+      <c r="CC180">
+        <v>1</v>
+      </c>
+      <c r="CD180">
+        <v>0</v>
+      </c>
+      <c r="CE180">
+        <v>0</v>
+      </c>
+      <c r="CF180">
+        <v>0</v>
+      </c>
+      <c r="CG180">
+        <v>0</v>
+      </c>
+      <c r="CH180">
+        <v>1</v>
+      </c>
+      <c r="CI180">
+        <v>0</v>
+      </c>
+      <c r="CJ180">
+        <v>0</v>
+      </c>
+      <c r="CK180">
+        <v>0</v>
+      </c>
+      <c r="CL180">
+        <v>0</v>
+      </c>
+      <c r="CM180">
+        <v>0</v>
+      </c>
+      <c r="CN180">
+        <v>0</v>
+      </c>
+      <c r="CO180">
+        <v>1</v>
+      </c>
+      <c r="CP180">
+        <v>0</v>
+      </c>
+      <c r="CQ180">
+        <v>0</v>
+      </c>
+      <c r="CR180">
+        <v>0</v>
+      </c>
+      <c r="CS180">
+        <v>0</v>
+      </c>
+      <c r="CT180">
+        <v>0</v>
+      </c>
+      <c r="CU180">
+        <v>0</v>
+      </c>
+      <c r="CV180">
+        <v>0</v>
+      </c>
+      <c r="CW180">
+        <v>0</v>
+      </c>
+      <c r="CX180">
+        <v>0</v>
+      </c>
+      <c r="CY180">
+        <v>0</v>
+      </c>
+      <c r="CZ180">
+        <v>0</v>
+      </c>
+      <c r="DA180">
+        <v>0</v>
+      </c>
+      <c r="DB180">
+        <v>0</v>
+      </c>
+      <c r="DC180">
+        <v>0</v>
+      </c>
+      <c r="DD180">
+        <v>0</v>
+      </c>
+      <c r="DE180">
+        <v>0</v>
+      </c>
+      <c r="DF180">
+        <v>0</v>
+      </c>
+      <c r="DG180">
+        <v>1</v>
+      </c>
+      <c r="DH180">
+        <v>0</v>
+      </c>
+      <c r="DI180">
+        <v>0</v>
+      </c>
+      <c r="DJ180">
+        <v>0</v>
+      </c>
+      <c r="DK180">
+        <v>0</v>
+      </c>
+      <c r="DL180">
+        <v>0</v>
+      </c>
+      <c r="DM180">
+        <v>0</v>
+      </c>
+      <c r="DN180">
+        <v>0</v>
+      </c>
+      <c r="DO180">
+        <v>0</v>
+      </c>
+      <c r="DP180">
+        <v>0</v>
+      </c>
+      <c r="DQ180">
+        <v>0</v>
+      </c>
+      <c r="DR180">
+        <v>0</v>
+      </c>
+      <c r="DS180">
+        <v>0</v>
+      </c>
+      <c r="DT180">
+        <v>0</v>
+      </c>
+      <c r="DU180">
+        <v>0</v>
+      </c>
+      <c r="DV180">
+        <v>0</v>
+      </c>
+      <c r="DW180">
+        <v>1</v>
+      </c>
+      <c r="DX180">
+        <v>1</v>
+      </c>
+      <c r="DY180">
+        <v>0</v>
+      </c>
+      <c r="DZ180">
+        <v>0</v>
+      </c>
+      <c r="EA180">
+        <v>0</v>
+      </c>
+      <c r="EB180">
+        <v>0</v>
+      </c>
+      <c r="EC180">
+        <v>0</v>
+      </c>
+      <c r="ED180">
+        <v>0</v>
+      </c>
+      <c r="EE180">
+        <v>0</v>
+      </c>
+      <c r="EF180">
+        <v>0</v>
+      </c>
+      <c r="EG180">
+        <v>0</v>
+      </c>
+      <c r="EH180">
+        <v>0</v>
+      </c>
+      <c r="EI180">
+        <v>0</v>
+      </c>
+      <c r="EJ180">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EJ180"/>
+  <dimension ref="A1:EJ181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -78745,6 +78745,440 @@
         <v>0</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>The Great American Coffee Taste Test</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, statebins, readr, sysfonts, grid</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2024/2024-05-14/20240514.R</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2024/2024-05-14///20240514.png</t>
+        </is>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
+      <c r="AC181">
+        <v>0</v>
+      </c>
+      <c r="AD181">
+        <v>0</v>
+      </c>
+      <c r="AE181">
+        <v>0</v>
+      </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
+      <c r="AH181">
+        <v>0</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>0</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>0</v>
+      </c>
+      <c r="AO181">
+        <v>0</v>
+      </c>
+      <c r="AP181">
+        <v>0</v>
+      </c>
+      <c r="AQ181">
+        <v>0</v>
+      </c>
+      <c r="AR181">
+        <v>0</v>
+      </c>
+      <c r="AS181">
+        <v>0</v>
+      </c>
+      <c r="AT181">
+        <v>0</v>
+      </c>
+      <c r="AU181">
+        <v>0</v>
+      </c>
+      <c r="AV181">
+        <v>0</v>
+      </c>
+      <c r="AW181">
+        <v>0</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>1</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>0</v>
+      </c>
+      <c r="BG181">
+        <v>1</v>
+      </c>
+      <c r="BH181">
+        <v>1</v>
+      </c>
+      <c r="BI181">
+        <v>0</v>
+      </c>
+      <c r="BJ181">
+        <v>0</v>
+      </c>
+      <c r="BK181">
+        <v>0</v>
+      </c>
+      <c r="BL181">
+        <v>0</v>
+      </c>
+      <c r="BM181">
+        <v>0</v>
+      </c>
+      <c r="BN181">
+        <v>0</v>
+      </c>
+      <c r="BO181">
+        <v>0</v>
+      </c>
+      <c r="BP181">
+        <v>0</v>
+      </c>
+      <c r="BQ181">
+        <v>0</v>
+      </c>
+      <c r="BR181">
+        <v>0</v>
+      </c>
+      <c r="BS181">
+        <v>0</v>
+      </c>
+      <c r="BT181">
+        <v>0</v>
+      </c>
+      <c r="BU181">
+        <v>0</v>
+      </c>
+      <c r="BV181">
+        <v>0</v>
+      </c>
+      <c r="BW181">
+        <v>0</v>
+      </c>
+      <c r="BX181">
+        <v>0</v>
+      </c>
+      <c r="BY181">
+        <v>0</v>
+      </c>
+      <c r="BZ181">
+        <v>0</v>
+      </c>
+      <c r="CA181">
+        <v>0</v>
+      </c>
+      <c r="CB181">
+        <v>0</v>
+      </c>
+      <c r="CC181">
+        <v>1</v>
+      </c>
+      <c r="CD181">
+        <v>0</v>
+      </c>
+      <c r="CE181">
+        <v>0</v>
+      </c>
+      <c r="CF181">
+        <v>0</v>
+      </c>
+      <c r="CG181">
+        <v>0</v>
+      </c>
+      <c r="CH181">
+        <v>1</v>
+      </c>
+      <c r="CI181">
+        <v>0</v>
+      </c>
+      <c r="CJ181">
+        <v>0</v>
+      </c>
+      <c r="CK181">
+        <v>0</v>
+      </c>
+      <c r="CL181">
+        <v>0</v>
+      </c>
+      <c r="CM181">
+        <v>0</v>
+      </c>
+      <c r="CN181">
+        <v>0</v>
+      </c>
+      <c r="CO181">
+        <v>0</v>
+      </c>
+      <c r="CP181">
+        <v>0</v>
+      </c>
+      <c r="CQ181">
+        <v>0</v>
+      </c>
+      <c r="CR181">
+        <v>0</v>
+      </c>
+      <c r="CS181">
+        <v>0</v>
+      </c>
+      <c r="CT181">
+        <v>0</v>
+      </c>
+      <c r="CU181">
+        <v>0</v>
+      </c>
+      <c r="CV181">
+        <v>1</v>
+      </c>
+      <c r="CW181">
+        <v>0</v>
+      </c>
+      <c r="CX181">
+        <v>0</v>
+      </c>
+      <c r="CY181">
+        <v>0</v>
+      </c>
+      <c r="CZ181">
+        <v>0</v>
+      </c>
+      <c r="DA181">
+        <v>0</v>
+      </c>
+      <c r="DB181">
+        <v>0</v>
+      </c>
+      <c r="DC181">
+        <v>0</v>
+      </c>
+      <c r="DD181">
+        <v>0</v>
+      </c>
+      <c r="DE181">
+        <v>0</v>
+      </c>
+      <c r="DF181">
+        <v>0</v>
+      </c>
+      <c r="DG181">
+        <v>1</v>
+      </c>
+      <c r="DH181">
+        <v>0</v>
+      </c>
+      <c r="DI181">
+        <v>0</v>
+      </c>
+      <c r="DJ181">
+        <v>0</v>
+      </c>
+      <c r="DK181">
+        <v>0</v>
+      </c>
+      <c r="DL181">
+        <v>0</v>
+      </c>
+      <c r="DM181">
+        <v>0</v>
+      </c>
+      <c r="DN181">
+        <v>0</v>
+      </c>
+      <c r="DO181">
+        <v>1</v>
+      </c>
+      <c r="DP181">
+        <v>0</v>
+      </c>
+      <c r="DQ181">
+        <v>1</v>
+      </c>
+      <c r="DR181">
+        <v>0</v>
+      </c>
+      <c r="DS181">
+        <v>0</v>
+      </c>
+      <c r="DT181">
+        <v>0</v>
+      </c>
+      <c r="DU181">
+        <v>0</v>
+      </c>
+      <c r="DV181">
+        <v>0</v>
+      </c>
+      <c r="DW181">
+        <v>0</v>
+      </c>
+      <c r="DX181">
+        <v>1</v>
+      </c>
+      <c r="DY181">
+        <v>0</v>
+      </c>
+      <c r="DZ181">
+        <v>0</v>
+      </c>
+      <c r="EA181">
+        <v>0</v>
+      </c>
+      <c r="EB181">
+        <v>0</v>
+      </c>
+      <c r="EC181">
+        <v>0</v>
+      </c>
+      <c r="ED181">
+        <v>0</v>
+      </c>
+      <c r="EE181">
+        <v>0</v>
+      </c>
+      <c r="EF181">
+        <v>0</v>
+      </c>
+      <c r="EG181">
+        <v>0</v>
+      </c>
+      <c r="EH181">
+        <v>0</v>
+      </c>
+      <c r="EI181">
+        <v>0</v>
+      </c>
+      <c r="EJ181">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EJ181"/>
+  <dimension ref="A1:EJ182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79179,6 +79179,440 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Carbon Majors Emissions Data</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, ggstream, tidytuesdayR, rcartocolor</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2024/2024-05-21/20240521.R</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2024/2024-05-21///20240521.png</t>
+        </is>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <v>0</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+      <c r="AC182">
+        <v>0</v>
+      </c>
+      <c r="AD182">
+        <v>0</v>
+      </c>
+      <c r="AE182">
+        <v>0</v>
+      </c>
+      <c r="AF182">
+        <v>0</v>
+      </c>
+      <c r="AG182">
+        <v>0</v>
+      </c>
+      <c r="AH182">
+        <v>0</v>
+      </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
+        <v>0</v>
+      </c>
+      <c r="AK182">
+        <v>0</v>
+      </c>
+      <c r="AL182">
+        <v>0</v>
+      </c>
+      <c r="AM182">
+        <v>0</v>
+      </c>
+      <c r="AN182">
+        <v>0</v>
+      </c>
+      <c r="AO182">
+        <v>0</v>
+      </c>
+      <c r="AP182">
+        <v>0</v>
+      </c>
+      <c r="AQ182">
+        <v>0</v>
+      </c>
+      <c r="AR182">
+        <v>0</v>
+      </c>
+      <c r="AS182">
+        <v>0</v>
+      </c>
+      <c r="AT182">
+        <v>0</v>
+      </c>
+      <c r="AU182">
+        <v>0</v>
+      </c>
+      <c r="AV182">
+        <v>0</v>
+      </c>
+      <c r="AW182">
+        <v>0</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>1</v>
+      </c>
+      <c r="BB182">
+        <v>1</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>0</v>
+      </c>
+      <c r="BG182">
+        <v>1</v>
+      </c>
+      <c r="BH182">
+        <v>0</v>
+      </c>
+      <c r="BI182">
+        <v>0</v>
+      </c>
+      <c r="BJ182">
+        <v>0</v>
+      </c>
+      <c r="BK182">
+        <v>0</v>
+      </c>
+      <c r="BL182">
+        <v>0</v>
+      </c>
+      <c r="BM182">
+        <v>0</v>
+      </c>
+      <c r="BN182">
+        <v>0</v>
+      </c>
+      <c r="BO182">
+        <v>0</v>
+      </c>
+      <c r="BP182">
+        <v>0</v>
+      </c>
+      <c r="BQ182">
+        <v>0</v>
+      </c>
+      <c r="BR182">
+        <v>0</v>
+      </c>
+      <c r="BS182">
+        <v>0</v>
+      </c>
+      <c r="BT182">
+        <v>0</v>
+      </c>
+      <c r="BU182">
+        <v>0</v>
+      </c>
+      <c r="BV182">
+        <v>0</v>
+      </c>
+      <c r="BW182">
+        <v>0</v>
+      </c>
+      <c r="BX182">
+        <v>0</v>
+      </c>
+      <c r="BY182">
+        <v>0</v>
+      </c>
+      <c r="BZ182">
+        <v>0</v>
+      </c>
+      <c r="CA182">
+        <v>0</v>
+      </c>
+      <c r="CB182">
+        <v>0</v>
+      </c>
+      <c r="CC182">
+        <v>1</v>
+      </c>
+      <c r="CD182">
+        <v>0</v>
+      </c>
+      <c r="CE182">
+        <v>0</v>
+      </c>
+      <c r="CF182">
+        <v>0</v>
+      </c>
+      <c r="CG182">
+        <v>0</v>
+      </c>
+      <c r="CH182">
+        <v>1</v>
+      </c>
+      <c r="CI182">
+        <v>0</v>
+      </c>
+      <c r="CJ182">
+        <v>0</v>
+      </c>
+      <c r="CK182">
+        <v>0</v>
+      </c>
+      <c r="CL182">
+        <v>0</v>
+      </c>
+      <c r="CM182">
+        <v>0</v>
+      </c>
+      <c r="CN182">
+        <v>0</v>
+      </c>
+      <c r="CO182">
+        <v>0</v>
+      </c>
+      <c r="CP182">
+        <v>0</v>
+      </c>
+      <c r="CQ182">
+        <v>0</v>
+      </c>
+      <c r="CR182">
+        <v>0</v>
+      </c>
+      <c r="CS182">
+        <v>1</v>
+      </c>
+      <c r="CT182">
+        <v>0</v>
+      </c>
+      <c r="CU182">
+        <v>0</v>
+      </c>
+      <c r="CV182">
+        <v>0</v>
+      </c>
+      <c r="CW182">
+        <v>0</v>
+      </c>
+      <c r="CX182">
+        <v>0</v>
+      </c>
+      <c r="CY182">
+        <v>0</v>
+      </c>
+      <c r="CZ182">
+        <v>0</v>
+      </c>
+      <c r="DA182">
+        <v>0</v>
+      </c>
+      <c r="DB182">
+        <v>0</v>
+      </c>
+      <c r="DC182">
+        <v>0</v>
+      </c>
+      <c r="DD182">
+        <v>0</v>
+      </c>
+      <c r="DE182">
+        <v>0</v>
+      </c>
+      <c r="DF182">
+        <v>0</v>
+      </c>
+      <c r="DG182">
+        <v>1</v>
+      </c>
+      <c r="DH182">
+        <v>0</v>
+      </c>
+      <c r="DI182">
+        <v>0</v>
+      </c>
+      <c r="DJ182">
+        <v>0</v>
+      </c>
+      <c r="DK182">
+        <v>0</v>
+      </c>
+      <c r="DL182">
+        <v>0</v>
+      </c>
+      <c r="DM182">
+        <v>0</v>
+      </c>
+      <c r="DN182">
+        <v>0</v>
+      </c>
+      <c r="DO182">
+        <v>0</v>
+      </c>
+      <c r="DP182">
+        <v>0</v>
+      </c>
+      <c r="DQ182">
+        <v>0</v>
+      </c>
+      <c r="DR182">
+        <v>0</v>
+      </c>
+      <c r="DS182">
+        <v>0</v>
+      </c>
+      <c r="DT182">
+        <v>0</v>
+      </c>
+      <c r="DU182">
+        <v>0</v>
+      </c>
+      <c r="DV182">
+        <v>0</v>
+      </c>
+      <c r="DW182">
+        <v>1</v>
+      </c>
+      <c r="DX182">
+        <v>1</v>
+      </c>
+      <c r="DY182">
+        <v>0</v>
+      </c>
+      <c r="DZ182">
+        <v>0</v>
+      </c>
+      <c r="EA182">
+        <v>0</v>
+      </c>
+      <c r="EB182">
+        <v>0</v>
+      </c>
+      <c r="EC182">
+        <v>0</v>
+      </c>
+      <c r="ED182">
+        <v>0</v>
+      </c>
+      <c r="EE182">
+        <v>0</v>
+      </c>
+      <c r="EF182">
+        <v>0</v>
+      </c>
+      <c r="EG182">
+        <v>0</v>
+      </c>
+      <c r="EH182">
+        <v>0</v>
+      </c>
+      <c r="EI182">
+        <v>0</v>
+      </c>
+      <c r="EJ182">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EJ182"/>
+  <dimension ref="A1:EJ183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79613,6 +79613,440 @@
         <v>0</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Lisa's Vegetable Garden Data</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2024/2024-05-28/20240528.R</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2024/2024-05-28///20240528.png</t>
+        </is>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
+      <c r="AC183">
+        <v>0</v>
+      </c>
+      <c r="AD183">
+        <v>0</v>
+      </c>
+      <c r="AE183">
+        <v>0</v>
+      </c>
+      <c r="AF183">
+        <v>0</v>
+      </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <v>0</v>
+      </c>
+      <c r="AM183">
+        <v>0</v>
+      </c>
+      <c r="AN183">
+        <v>0</v>
+      </c>
+      <c r="AO183">
+        <v>0</v>
+      </c>
+      <c r="AP183">
+        <v>0</v>
+      </c>
+      <c r="AQ183">
+        <v>0</v>
+      </c>
+      <c r="AR183">
+        <v>0</v>
+      </c>
+      <c r="AS183">
+        <v>0</v>
+      </c>
+      <c r="AT183">
+        <v>0</v>
+      </c>
+      <c r="AU183">
+        <v>0</v>
+      </c>
+      <c r="AV183">
+        <v>0</v>
+      </c>
+      <c r="AW183">
+        <v>0</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>1</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>0</v>
+      </c>
+      <c r="BG183">
+        <v>1</v>
+      </c>
+      <c r="BH183">
+        <v>0</v>
+      </c>
+      <c r="BI183">
+        <v>0</v>
+      </c>
+      <c r="BJ183">
+        <v>0</v>
+      </c>
+      <c r="BK183">
+        <v>0</v>
+      </c>
+      <c r="BL183">
+        <v>0</v>
+      </c>
+      <c r="BM183">
+        <v>0</v>
+      </c>
+      <c r="BN183">
+        <v>0</v>
+      </c>
+      <c r="BO183">
+        <v>0</v>
+      </c>
+      <c r="BP183">
+        <v>0</v>
+      </c>
+      <c r="BQ183">
+        <v>0</v>
+      </c>
+      <c r="BR183">
+        <v>0</v>
+      </c>
+      <c r="BS183">
+        <v>0</v>
+      </c>
+      <c r="BT183">
+        <v>0</v>
+      </c>
+      <c r="BU183">
+        <v>0</v>
+      </c>
+      <c r="BV183">
+        <v>0</v>
+      </c>
+      <c r="BW183">
+        <v>0</v>
+      </c>
+      <c r="BX183">
+        <v>0</v>
+      </c>
+      <c r="BY183">
+        <v>0</v>
+      </c>
+      <c r="BZ183">
+        <v>0</v>
+      </c>
+      <c r="CA183">
+        <v>0</v>
+      </c>
+      <c r="CB183">
+        <v>0</v>
+      </c>
+      <c r="CC183">
+        <v>1</v>
+      </c>
+      <c r="CD183">
+        <v>0</v>
+      </c>
+      <c r="CE183">
+        <v>0</v>
+      </c>
+      <c r="CF183">
+        <v>0</v>
+      </c>
+      <c r="CG183">
+        <v>0</v>
+      </c>
+      <c r="CH183">
+        <v>1</v>
+      </c>
+      <c r="CI183">
+        <v>0</v>
+      </c>
+      <c r="CJ183">
+        <v>0</v>
+      </c>
+      <c r="CK183">
+        <v>0</v>
+      </c>
+      <c r="CL183">
+        <v>0</v>
+      </c>
+      <c r="CM183">
+        <v>0</v>
+      </c>
+      <c r="CN183">
+        <v>0</v>
+      </c>
+      <c r="CO183">
+        <v>0</v>
+      </c>
+      <c r="CP183">
+        <v>0</v>
+      </c>
+      <c r="CQ183">
+        <v>0</v>
+      </c>
+      <c r="CR183">
+        <v>0</v>
+      </c>
+      <c r="CS183">
+        <v>0</v>
+      </c>
+      <c r="CT183">
+        <v>0</v>
+      </c>
+      <c r="CU183">
+        <v>0</v>
+      </c>
+      <c r="CV183">
+        <v>0</v>
+      </c>
+      <c r="CW183">
+        <v>0</v>
+      </c>
+      <c r="CX183">
+        <v>0</v>
+      </c>
+      <c r="CY183">
+        <v>0</v>
+      </c>
+      <c r="CZ183">
+        <v>0</v>
+      </c>
+      <c r="DA183">
+        <v>0</v>
+      </c>
+      <c r="DB183">
+        <v>0</v>
+      </c>
+      <c r="DC183">
+        <v>0</v>
+      </c>
+      <c r="DD183">
+        <v>0</v>
+      </c>
+      <c r="DE183">
+        <v>0</v>
+      </c>
+      <c r="DF183">
+        <v>0</v>
+      </c>
+      <c r="DG183">
+        <v>1</v>
+      </c>
+      <c r="DH183">
+        <v>0</v>
+      </c>
+      <c r="DI183">
+        <v>0</v>
+      </c>
+      <c r="DJ183">
+        <v>0</v>
+      </c>
+      <c r="DK183">
+        <v>0</v>
+      </c>
+      <c r="DL183">
+        <v>0</v>
+      </c>
+      <c r="DM183">
+        <v>0</v>
+      </c>
+      <c r="DN183">
+        <v>0</v>
+      </c>
+      <c r="DO183">
+        <v>0</v>
+      </c>
+      <c r="DP183">
+        <v>0</v>
+      </c>
+      <c r="DQ183">
+        <v>0</v>
+      </c>
+      <c r="DR183">
+        <v>0</v>
+      </c>
+      <c r="DS183">
+        <v>0</v>
+      </c>
+      <c r="DT183">
+        <v>0</v>
+      </c>
+      <c r="DU183">
+        <v>0</v>
+      </c>
+      <c r="DV183">
+        <v>0</v>
+      </c>
+      <c r="DW183">
+        <v>1</v>
+      </c>
+      <c r="DX183">
+        <v>1</v>
+      </c>
+      <c r="DY183">
+        <v>0</v>
+      </c>
+      <c r="DZ183">
+        <v>0</v>
+      </c>
+      <c r="EA183">
+        <v>0</v>
+      </c>
+      <c r="EB183">
+        <v>0</v>
+      </c>
+      <c r="EC183">
+        <v>0</v>
+      </c>
+      <c r="ED183">
+        <v>0</v>
+      </c>
+      <c r="EE183">
+        <v>0</v>
+      </c>
+      <c r="EF183">
+        <v>0</v>
+      </c>
+      <c r="EG183">
+        <v>0</v>
+      </c>
+      <c r="EH183">
+        <v>0</v>
+      </c>
+      <c r="EI183">
+        <v>0</v>
+      </c>
+      <c r="EJ183">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EJ183"/>
+  <dimension ref="A1:EJ184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -80047,6 +80047,440 @@
         <v>0</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Cheese</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggimage, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2024/2024-06-04/20240604.R</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2024/2024-06-04///20240604.png</t>
+        </is>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <v>0</v>
+      </c>
+      <c r="AD184">
+        <v>0</v>
+      </c>
+      <c r="AE184">
+        <v>0</v>
+      </c>
+      <c r="AF184">
+        <v>0</v>
+      </c>
+      <c r="AG184">
+        <v>0</v>
+      </c>
+      <c r="AH184">
+        <v>0</v>
+      </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <v>1</v>
+      </c>
+      <c r="AL184">
+        <v>0</v>
+      </c>
+      <c r="AM184">
+        <v>0</v>
+      </c>
+      <c r="AN184">
+        <v>0</v>
+      </c>
+      <c r="AO184">
+        <v>0</v>
+      </c>
+      <c r="AP184">
+        <v>0</v>
+      </c>
+      <c r="AQ184">
+        <v>0</v>
+      </c>
+      <c r="AR184">
+        <v>0</v>
+      </c>
+      <c r="AS184">
+        <v>0</v>
+      </c>
+      <c r="AT184">
+        <v>0</v>
+      </c>
+      <c r="AU184">
+        <v>0</v>
+      </c>
+      <c r="AV184">
+        <v>0</v>
+      </c>
+      <c r="AW184">
+        <v>0</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>1</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>0</v>
+      </c>
+      <c r="BG184">
+        <v>1</v>
+      </c>
+      <c r="BH184">
+        <v>0</v>
+      </c>
+      <c r="BI184">
+        <v>0</v>
+      </c>
+      <c r="BJ184">
+        <v>0</v>
+      </c>
+      <c r="BK184">
+        <v>0</v>
+      </c>
+      <c r="BL184">
+        <v>0</v>
+      </c>
+      <c r="BM184">
+        <v>0</v>
+      </c>
+      <c r="BN184">
+        <v>0</v>
+      </c>
+      <c r="BO184">
+        <v>0</v>
+      </c>
+      <c r="BP184">
+        <v>0</v>
+      </c>
+      <c r="BQ184">
+        <v>0</v>
+      </c>
+      <c r="BR184">
+        <v>0</v>
+      </c>
+      <c r="BS184">
+        <v>0</v>
+      </c>
+      <c r="BT184">
+        <v>0</v>
+      </c>
+      <c r="BU184">
+        <v>0</v>
+      </c>
+      <c r="BV184">
+        <v>0</v>
+      </c>
+      <c r="BW184">
+        <v>0</v>
+      </c>
+      <c r="BX184">
+        <v>0</v>
+      </c>
+      <c r="BY184">
+        <v>0</v>
+      </c>
+      <c r="BZ184">
+        <v>0</v>
+      </c>
+      <c r="CA184">
+        <v>0</v>
+      </c>
+      <c r="CB184">
+        <v>0</v>
+      </c>
+      <c r="CC184">
+        <v>1</v>
+      </c>
+      <c r="CD184">
+        <v>0</v>
+      </c>
+      <c r="CE184">
+        <v>0</v>
+      </c>
+      <c r="CF184">
+        <v>0</v>
+      </c>
+      <c r="CG184">
+        <v>0</v>
+      </c>
+      <c r="CH184">
+        <v>0</v>
+      </c>
+      <c r="CI184">
+        <v>0</v>
+      </c>
+      <c r="CJ184">
+        <v>0</v>
+      </c>
+      <c r="CK184">
+        <v>0</v>
+      </c>
+      <c r="CL184">
+        <v>0</v>
+      </c>
+      <c r="CM184">
+        <v>0</v>
+      </c>
+      <c r="CN184">
+        <v>0</v>
+      </c>
+      <c r="CO184">
+        <v>0</v>
+      </c>
+      <c r="CP184">
+        <v>0</v>
+      </c>
+      <c r="CQ184">
+        <v>0</v>
+      </c>
+      <c r="CR184">
+        <v>0</v>
+      </c>
+      <c r="CS184">
+        <v>0</v>
+      </c>
+      <c r="CT184">
+        <v>0</v>
+      </c>
+      <c r="CU184">
+        <v>0</v>
+      </c>
+      <c r="CV184">
+        <v>0</v>
+      </c>
+      <c r="CW184">
+        <v>0</v>
+      </c>
+      <c r="CX184">
+        <v>0</v>
+      </c>
+      <c r="CY184">
+        <v>0</v>
+      </c>
+      <c r="CZ184">
+        <v>0</v>
+      </c>
+      <c r="DA184">
+        <v>0</v>
+      </c>
+      <c r="DB184">
+        <v>0</v>
+      </c>
+      <c r="DC184">
+        <v>0</v>
+      </c>
+      <c r="DD184">
+        <v>0</v>
+      </c>
+      <c r="DE184">
+        <v>0</v>
+      </c>
+      <c r="DF184">
+        <v>0</v>
+      </c>
+      <c r="DG184">
+        <v>1</v>
+      </c>
+      <c r="DH184">
+        <v>0</v>
+      </c>
+      <c r="DI184">
+        <v>0</v>
+      </c>
+      <c r="DJ184">
+        <v>0</v>
+      </c>
+      <c r="DK184">
+        <v>0</v>
+      </c>
+      <c r="DL184">
+        <v>0</v>
+      </c>
+      <c r="DM184">
+        <v>0</v>
+      </c>
+      <c r="DN184">
+        <v>0</v>
+      </c>
+      <c r="DO184">
+        <v>0</v>
+      </c>
+      <c r="DP184">
+        <v>0</v>
+      </c>
+      <c r="DQ184">
+        <v>0</v>
+      </c>
+      <c r="DR184">
+        <v>0</v>
+      </c>
+      <c r="DS184">
+        <v>0</v>
+      </c>
+      <c r="DT184">
+        <v>0</v>
+      </c>
+      <c r="DU184">
+        <v>0</v>
+      </c>
+      <c r="DV184">
+        <v>0</v>
+      </c>
+      <c r="DW184">
+        <v>1</v>
+      </c>
+      <c r="DX184">
+        <v>1</v>
+      </c>
+      <c r="DY184">
+        <v>0</v>
+      </c>
+      <c r="DZ184">
+        <v>0</v>
+      </c>
+      <c r="EA184">
+        <v>0</v>
+      </c>
+      <c r="EB184">
+        <v>0</v>
+      </c>
+      <c r="EC184">
+        <v>0</v>
+      </c>
+      <c r="ED184">
+        <v>0</v>
+      </c>
+      <c r="EE184">
+        <v>0</v>
+      </c>
+      <c r="EF184">
+        <v>0</v>
+      </c>
+      <c r="EG184">
+        <v>0</v>
+      </c>
+      <c r="EH184">
+        <v>0</v>
+      </c>
+      <c r="EI184">
+        <v>0</v>
+      </c>
+      <c r="EJ184">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EM186"/>
+  <dimension ref="A1:EM187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -83029,6 +83029,449 @@
         <v>0</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>TidyRainbow</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, gglgbtq, ggstream, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2024/2024-06-25/20240625.R</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2024/2024-06-25///20240625.png</t>
+        </is>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
+        <v>0</v>
+      </c>
+      <c r="AD187">
+        <v>0</v>
+      </c>
+      <c r="AE187">
+        <v>0</v>
+      </c>
+      <c r="AF187">
+        <v>0</v>
+      </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>0</v>
+      </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>0</v>
+      </c>
+      <c r="AK187">
+        <v>0</v>
+      </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
+      <c r="AM187">
+        <v>1</v>
+      </c>
+      <c r="AN187">
+        <v>0</v>
+      </c>
+      <c r="AO187">
+        <v>0</v>
+      </c>
+      <c r="AP187">
+        <v>0</v>
+      </c>
+      <c r="AQ187">
+        <v>0</v>
+      </c>
+      <c r="AR187">
+        <v>0</v>
+      </c>
+      <c r="AS187">
+        <v>0</v>
+      </c>
+      <c r="AT187">
+        <v>0</v>
+      </c>
+      <c r="AU187">
+        <v>0</v>
+      </c>
+      <c r="AV187">
+        <v>0</v>
+      </c>
+      <c r="AW187">
+        <v>0</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>1</v>
+      </c>
+      <c r="BD187">
+        <v>1</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>0</v>
+      </c>
+      <c r="BG187">
+        <v>0</v>
+      </c>
+      <c r="BH187">
+        <v>0</v>
+      </c>
+      <c r="BI187">
+        <v>1</v>
+      </c>
+      <c r="BJ187">
+        <v>0</v>
+      </c>
+      <c r="BK187">
+        <v>0</v>
+      </c>
+      <c r="BL187">
+        <v>0</v>
+      </c>
+      <c r="BM187">
+        <v>0</v>
+      </c>
+      <c r="BN187">
+        <v>0</v>
+      </c>
+      <c r="BO187">
+        <v>0</v>
+      </c>
+      <c r="BP187">
+        <v>0</v>
+      </c>
+      <c r="BQ187">
+        <v>0</v>
+      </c>
+      <c r="BR187">
+        <v>0</v>
+      </c>
+      <c r="BS187">
+        <v>0</v>
+      </c>
+      <c r="BT187">
+        <v>0</v>
+      </c>
+      <c r="BU187">
+        <v>0</v>
+      </c>
+      <c r="BV187">
+        <v>0</v>
+      </c>
+      <c r="BW187">
+        <v>0</v>
+      </c>
+      <c r="BX187">
+        <v>0</v>
+      </c>
+      <c r="BY187">
+        <v>0</v>
+      </c>
+      <c r="BZ187">
+        <v>0</v>
+      </c>
+      <c r="CA187">
+        <v>0</v>
+      </c>
+      <c r="CB187">
+        <v>0</v>
+      </c>
+      <c r="CC187">
+        <v>0</v>
+      </c>
+      <c r="CD187">
+        <v>0</v>
+      </c>
+      <c r="CE187">
+        <v>1</v>
+      </c>
+      <c r="CF187">
+        <v>0</v>
+      </c>
+      <c r="CG187">
+        <v>0</v>
+      </c>
+      <c r="CH187">
+        <v>0</v>
+      </c>
+      <c r="CI187">
+        <v>0</v>
+      </c>
+      <c r="CJ187">
+        <v>1</v>
+      </c>
+      <c r="CK187">
+        <v>0</v>
+      </c>
+      <c r="CL187">
+        <v>0</v>
+      </c>
+      <c r="CM187">
+        <v>0</v>
+      </c>
+      <c r="CN187">
+        <v>0</v>
+      </c>
+      <c r="CO187">
+        <v>0</v>
+      </c>
+      <c r="CP187">
+        <v>0</v>
+      </c>
+      <c r="CQ187">
+        <v>0</v>
+      </c>
+      <c r="CR187">
+        <v>0</v>
+      </c>
+      <c r="CS187">
+        <v>0</v>
+      </c>
+      <c r="CT187">
+        <v>0</v>
+      </c>
+      <c r="CU187">
+        <v>0</v>
+      </c>
+      <c r="CV187">
+        <v>0</v>
+      </c>
+      <c r="CW187">
+        <v>0</v>
+      </c>
+      <c r="CX187">
+        <v>0</v>
+      </c>
+      <c r="CY187">
+        <v>0</v>
+      </c>
+      <c r="CZ187">
+        <v>0</v>
+      </c>
+      <c r="DA187">
+        <v>0</v>
+      </c>
+      <c r="DB187">
+        <v>0</v>
+      </c>
+      <c r="DC187">
+        <v>0</v>
+      </c>
+      <c r="DD187">
+        <v>0</v>
+      </c>
+      <c r="DE187">
+        <v>0</v>
+      </c>
+      <c r="DF187">
+        <v>0</v>
+      </c>
+      <c r="DG187">
+        <v>0</v>
+      </c>
+      <c r="DH187">
+        <v>0</v>
+      </c>
+      <c r="DI187">
+        <v>0</v>
+      </c>
+      <c r="DJ187">
+        <v>1</v>
+      </c>
+      <c r="DK187">
+        <v>0</v>
+      </c>
+      <c r="DL187">
+        <v>0</v>
+      </c>
+      <c r="DM187">
+        <v>0</v>
+      </c>
+      <c r="DN187">
+        <v>0</v>
+      </c>
+      <c r="DO187">
+        <v>0</v>
+      </c>
+      <c r="DP187">
+        <v>0</v>
+      </c>
+      <c r="DQ187">
+        <v>0</v>
+      </c>
+      <c r="DR187">
+        <v>0</v>
+      </c>
+      <c r="DS187">
+        <v>0</v>
+      </c>
+      <c r="DT187">
+        <v>0</v>
+      </c>
+      <c r="DU187">
+        <v>0</v>
+      </c>
+      <c r="DV187">
+        <v>0</v>
+      </c>
+      <c r="DW187">
+        <v>0</v>
+      </c>
+      <c r="DX187">
+        <v>0</v>
+      </c>
+      <c r="DY187">
+        <v>0</v>
+      </c>
+      <c r="DZ187">
+        <v>1</v>
+      </c>
+      <c r="EA187">
+        <v>1</v>
+      </c>
+      <c r="EB187">
+        <v>0</v>
+      </c>
+      <c r="EC187">
+        <v>0</v>
+      </c>
+      <c r="ED187">
+        <v>0</v>
+      </c>
+      <c r="EE187">
+        <v>0</v>
+      </c>
+      <c r="EF187">
+        <v>0</v>
+      </c>
+      <c r="EG187">
+        <v>0</v>
+      </c>
+      <c r="EH187">
+        <v>0</v>
+      </c>
+      <c r="EI187">
+        <v>0</v>
+      </c>
+      <c r="EJ187">
+        <v>0</v>
+      </c>
+      <c r="EK187">
+        <v>0</v>
+      </c>
+      <c r="EL187">
+        <v>0</v>
+      </c>
+      <c r="EM187">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EM187"/>
+  <dimension ref="A1:EM188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -83472,6 +83472,444 @@
         <v>0</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2024/2024-07-02/20240702.R</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2024/2024-07-02///20240702_all.png</t>
+        </is>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
+      <c r="AC188">
+        <v>0</v>
+      </c>
+      <c r="AD188">
+        <v>0</v>
+      </c>
+      <c r="AE188">
+        <v>0</v>
+      </c>
+      <c r="AF188">
+        <v>0</v>
+      </c>
+      <c r="AG188">
+        <v>0</v>
+      </c>
+      <c r="AH188">
+        <v>0</v>
+      </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>0</v>
+      </c>
+      <c r="AK188">
+        <v>0</v>
+      </c>
+      <c r="AL188">
+        <v>0</v>
+      </c>
+      <c r="AM188">
+        <v>0</v>
+      </c>
+      <c r="AN188">
+        <v>0</v>
+      </c>
+      <c r="AO188">
+        <v>0</v>
+      </c>
+      <c r="AP188">
+        <v>0</v>
+      </c>
+      <c r="AQ188">
+        <v>0</v>
+      </c>
+      <c r="AR188">
+        <v>0</v>
+      </c>
+      <c r="AS188">
+        <v>0</v>
+      </c>
+      <c r="AT188">
+        <v>0</v>
+      </c>
+      <c r="AU188">
+        <v>0</v>
+      </c>
+      <c r="AV188">
+        <v>0</v>
+      </c>
+      <c r="AW188">
+        <v>0</v>
+      </c>
+      <c r="AX188">
+        <v>0</v>
+      </c>
+      <c r="AY188">
+        <v>0</v>
+      </c>
+      <c r="AZ188">
+        <v>0</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>0</v>
+      </c>
+      <c r="BC188">
+        <v>0</v>
+      </c>
+      <c r="BD188">
+        <v>1</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
+        <v>0</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
+      </c>
+      <c r="BH188">
+        <v>0</v>
+      </c>
+      <c r="BI188">
+        <v>1</v>
+      </c>
+      <c r="BJ188">
+        <v>0</v>
+      </c>
+      <c r="BK188">
+        <v>0</v>
+      </c>
+      <c r="BL188">
+        <v>0</v>
+      </c>
+      <c r="BM188">
+        <v>0</v>
+      </c>
+      <c r="BN188">
+        <v>0</v>
+      </c>
+      <c r="BO188">
+        <v>0</v>
+      </c>
+      <c r="BP188">
+        <v>0</v>
+      </c>
+      <c r="BQ188">
+        <v>0</v>
+      </c>
+      <c r="BR188">
+        <v>0</v>
+      </c>
+      <c r="BS188">
+        <v>0</v>
+      </c>
+      <c r="BT188">
+        <v>0</v>
+      </c>
+      <c r="BU188">
+        <v>0</v>
+      </c>
+      <c r="BV188">
+        <v>0</v>
+      </c>
+      <c r="BW188">
+        <v>0</v>
+      </c>
+      <c r="BX188">
+        <v>0</v>
+      </c>
+      <c r="BY188">
+        <v>0</v>
+      </c>
+      <c r="BZ188">
+        <v>0</v>
+      </c>
+      <c r="CA188">
+        <v>0</v>
+      </c>
+      <c r="CB188">
+        <v>0</v>
+      </c>
+      <c r="CC188">
+        <v>0</v>
+      </c>
+      <c r="CD188">
+        <v>0</v>
+      </c>
+      <c r="CE188">
+        <v>1</v>
+      </c>
+      <c r="CF188">
+        <v>0</v>
+      </c>
+      <c r="CG188">
+        <v>0</v>
+      </c>
+      <c r="CH188">
+        <v>0</v>
+      </c>
+      <c r="CI188">
+        <v>0</v>
+      </c>
+      <c r="CJ188">
+        <v>0</v>
+      </c>
+      <c r="CK188">
+        <v>0</v>
+      </c>
+      <c r="CL188">
+        <v>0</v>
+      </c>
+      <c r="CM188">
+        <v>0</v>
+      </c>
+      <c r="CN188">
+        <v>0</v>
+      </c>
+      <c r="CO188">
+        <v>0</v>
+      </c>
+      <c r="CP188">
+        <v>0</v>
+      </c>
+      <c r="CQ188">
+        <v>0</v>
+      </c>
+      <c r="CR188">
+        <v>0</v>
+      </c>
+      <c r="CS188">
+        <v>0</v>
+      </c>
+      <c r="CT188">
+        <v>0</v>
+      </c>
+      <c r="CU188">
+        <v>0</v>
+      </c>
+      <c r="CV188">
+        <v>0</v>
+      </c>
+      <c r="CW188">
+        <v>0</v>
+      </c>
+      <c r="CX188">
+        <v>0</v>
+      </c>
+      <c r="CY188">
+        <v>0</v>
+      </c>
+      <c r="CZ188">
+        <v>0</v>
+      </c>
+      <c r="DA188">
+        <v>0</v>
+      </c>
+      <c r="DB188">
+        <v>0</v>
+      </c>
+      <c r="DC188">
+        <v>0</v>
+      </c>
+      <c r="DD188">
+        <v>0</v>
+      </c>
+      <c r="DE188">
+        <v>0</v>
+      </c>
+      <c r="DF188">
+        <v>0</v>
+      </c>
+      <c r="DG188">
+        <v>0</v>
+      </c>
+      <c r="DH188">
+        <v>0</v>
+      </c>
+      <c r="DI188">
+        <v>0</v>
+      </c>
+      <c r="DJ188">
+        <v>1</v>
+      </c>
+      <c r="DK188">
+        <v>0</v>
+      </c>
+      <c r="DL188">
+        <v>0</v>
+      </c>
+      <c r="DM188">
+        <v>0</v>
+      </c>
+      <c r="DN188">
+        <v>0</v>
+      </c>
+      <c r="DO188">
+        <v>0</v>
+      </c>
+      <c r="DP188">
+        <v>0</v>
+      </c>
+      <c r="DQ188">
+        <v>0</v>
+      </c>
+      <c r="DR188">
+        <v>0</v>
+      </c>
+      <c r="DS188">
+        <v>0</v>
+      </c>
+      <c r="DT188">
+        <v>0</v>
+      </c>
+      <c r="DU188">
+        <v>0</v>
+      </c>
+      <c r="DV188">
+        <v>0</v>
+      </c>
+      <c r="DW188">
+        <v>0</v>
+      </c>
+      <c r="DX188">
+        <v>0</v>
+      </c>
+      <c r="DY188">
+        <v>0</v>
+      </c>
+      <c r="DZ188">
+        <v>1</v>
+      </c>
+      <c r="EA188">
+        <v>1</v>
+      </c>
+      <c r="EB188">
+        <v>0</v>
+      </c>
+      <c r="EC188">
+        <v>0</v>
+      </c>
+      <c r="ED188">
+        <v>0</v>
+      </c>
+      <c r="EE188">
+        <v>0</v>
+      </c>
+      <c r="EF188">
+        <v>0</v>
+      </c>
+      <c r="EG188">
+        <v>0</v>
+      </c>
+      <c r="EH188">
+        <v>0</v>
+      </c>
+      <c r="EI188">
+        <v>0</v>
+      </c>
+      <c r="EJ188">
+        <v>0</v>
+      </c>
+      <c r="EK188">
+        <v>0</v>
+      </c>
+      <c r="EL188">
+        <v>0</v>
+      </c>
+      <c r="EM188">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -83483,6 +83483,11 @@
           <t>2024-07-02</t>
         </is>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>#TidyTuesday Datasets</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2019/2019-01-29/20190129.png</t>
+          <t>2019/2019-01-29///20190129.png</t>
         </is>
       </c>
       <c r="G2">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019/2019-03-05/20190305.png</t>
+          <t>2019/2019-03-05///20190305.png</t>
         </is>
       </c>
       <c r="G3">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2019/2019-05-14/20190514-light.png</t>
+          <t>2019/2019-05-14///20190514-light.png</t>
         </is>
       </c>
       <c r="G4">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020/2020-04-21/20200421.jpg</t>
+          <t>2020/2020-04-21///20200421.jpg</t>
         </is>
       </c>
       <c r="G5">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020/2020-07-28/20200728.jpg</t>
+          <t>2020/2020-07-28///20200728.jpg</t>
         </is>
       </c>
       <c r="G6">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020/2020-11-10/20201110.png</t>
+          <t>2020/2020-11-10///20201110.png</t>
         </is>
       </c>
       <c r="G7">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2020/2020-12-08/20201208.jpg</t>
+          <t>2020/2020-12-08///20201208.jpg</t>
         </is>
       </c>
       <c r="G8">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021/01-06-2021/01062021.jpg</t>
+          <t>2021/01-06-2021///01062021.jpg</t>
         </is>
       </c>
       <c r="G9">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/02-02-2021/02022021.jpg</t>
+          <t>2021/02-02-2021///02022021.jpg</t>
         </is>
       </c>
       <c r="G10">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/02-03-2021/02032021.jpg</t>
+          <t>2021/02-03-2021///02032021.jpg</t>
         </is>
       </c>
       <c r="G11">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/02-11-2021/02112021.png</t>
+          <t>2021/02-11-2021///02112021.png</t>
         </is>
       </c>
       <c r="G12">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/03-08-2021/03082021.jpg</t>
+          <t>2021/03-08-2021///03082021_table.png</t>
         </is>
       </c>
       <c r="G13">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/04-05-2021/04052021.jpg</t>
+          <t>2021/04-05-2021///04052021.jpg</t>
         </is>
       </c>
       <c r="G14">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/05-01-2021/05012021.jpg</t>
+          <t>2021/05-01-2021///05012021.jpg</t>
         </is>
       </c>
       <c r="G15">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/05-10-2021/05102021.jpg</t>
+          <t>2021/05-10-2021///05102021.jpg</t>
         </is>
       </c>
       <c r="G16">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/06-04-2021/06042021.jpg</t>
+          <t>2021/06-04-2021///06042021_plot1.jpg</t>
         </is>
       </c>
       <c r="G17">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/06-07-2021/06072021.jpg</t>
+          <t>2021/06-07-2021///06072021.jpg</t>
         </is>
       </c>
       <c r="G18">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/07-09-2021/07092021.jpg</t>
+          <t>2021/07-09-2021///07092021.jpg</t>
         </is>
       </c>
       <c r="G19">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/07-12-2021/07122021.jpeg</t>
+          <t>2021/07-12-2021///07122021.jpeg</t>
         </is>
       </c>
       <c r="G20">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/08-06-2021/08062021.jpg</t>
+          <t>2021/08-06-2021///08062021.jpg</t>
         </is>
       </c>
       <c r="G21">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/09-02-2021/09022021.jpg</t>
+          <t>2021/09-02-2021///09022021.jpg</t>
         </is>
       </c>
       <c r="G22">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/09-03-2021/09032021.jpg</t>
+          <t>2021/09-03-2021///09032021.jpg</t>
         </is>
       </c>
       <c r="G23">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/09-11-2021/09112021.jpg</t>
+          <t>2021/09-11-2021///09112021.jpg</t>
         </is>
       </c>
       <c r="G24">
@@ -11439,7 +11439,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/10-08-2021/10082021.jpg</t>
+          <t>2021/10-08-2021///10082021.jpg</t>
         </is>
       </c>
       <c r="G25">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/11-05-2021/11052021.jpg</t>
+          <t>2021/11-05-2021///11052021.jpg</t>
         </is>
       </c>
       <c r="G26">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/12-01-2021/12012021.jpg</t>
+          <t>2021/12-01-2021///12012021.jpg</t>
         </is>
       </c>
       <c r="G27">
@@ -12786,7 +12786,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/12-10-2021/12102021_f1.jpg</t>
+          <t>2021/12-10-2021///12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G28">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/13-04-2021/13042021.jpg</t>
+          <t>2021/13-04-2021///13042021.jpg</t>
         </is>
       </c>
       <c r="G29">
@@ -13684,7 +13684,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/13-07-2021/13072021.jpg</t>
+          <t>2021/13-07-2021///13072021.jpg</t>
         </is>
       </c>
       <c r="G30">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/14-09-2021/14092021.jpg</t>
+          <t>2021/14-09-2021///14092021.jpg</t>
         </is>
       </c>
       <c r="G31">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/14-12-2021/14122021.jpg</t>
+          <t>2021/14-12-2021///14122021.jpg</t>
         </is>
       </c>
       <c r="G32">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/15-06-2021/15062021.jpg</t>
+          <t>2021/15-06-2021///15062021.jpg</t>
         </is>
       </c>
       <c r="G33">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/16-02-2021/16022021.jpg</t>
+          <t>2021/16-02-2021///16022021.jpg</t>
         </is>
       </c>
       <c r="G34">
@@ -15929,7 +15929,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/16-03-2021/16032021.jpg</t>
+          <t>2021/16-03-2021///16032021.jpg</t>
         </is>
       </c>
       <c r="G35">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/17-08-2021/17082021.jpg</t>
+          <t>2021/17-08-2021///17082021.jpg</t>
         </is>
       </c>
       <c r="G36">
@@ -16827,7 +16827,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/18-05-2021/18052021.jpg</t>
+          <t>2021/18-05-2021///18052021.jpg</t>
         </is>
       </c>
       <c r="G37">
@@ -17276,7 +17276,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/19-01-2021/19012021.jpg</t>
+          <t>2021/19-01-2021///19012021.jpg</t>
         </is>
       </c>
       <c r="G38">
@@ -17725,7 +17725,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/19-10-2021/19102021.jpg</t>
+          <t>2021/19-10-2021///19102021.jpg</t>
         </is>
       </c>
       <c r="G39">
@@ -18174,7 +18174,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/20-04-2021/20042021.png</t>
+          <t>2021/20-04-2021///20042021.png</t>
         </is>
       </c>
       <c r="G40">
@@ -18623,7 +18623,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/20-07-2021/20072021.jpg</t>
+          <t>2021/20-07-2021///20072021.jpg</t>
         </is>
       </c>
       <c r="G41">
@@ -19072,7 +19072,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/21-09-2021/21092021.jpg</t>
+          <t>2021/21-09-2021///21092021_waffle.jpg</t>
         </is>
       </c>
       <c r="G42">
@@ -19521,7 +19521,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/21-12-2021/21122021.jpg</t>
+          <t>2021/21-12-2021///21122021.jpg</t>
         </is>
       </c>
       <c r="G43">
@@ -19965,12 +19965,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.R</t>
+          <t>2021/22-06-2021/22062021_stream_plots.R</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.jpg</t>
+          <t>2021/22-06-2021///22062021_v2.jpg</t>
         </is>
       </c>
       <c r="G44">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/23-02-2021/23022021.jpg</t>
+          <t>2021/23-02-2021///23022021.jpg</t>
         </is>
       </c>
       <c r="G45">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/23-03-2021/23032021.jpg</t>
+          <t>2021/23-03-2021///23032021.jpg</t>
         </is>
       </c>
       <c r="G46">
@@ -21317,7 +21317,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/23-11-2021/23112021.jpg</t>
+          <t>2021/23-11-2021///23112021.jpg</t>
         </is>
       </c>
       <c r="G47">
@@ -21766,7 +21766,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/24-08-2021/24082021.jpg</t>
+          <t>2021/24-08-2021///24082021.jpg</t>
         </is>
       </c>
       <c r="G48">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/25-05-2021/25052021.jpg</t>
+          <t>2021/25-05-2021///25052021.jpg</t>
         </is>
       </c>
       <c r="G49">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/26-01-2021/26012021.jpg</t>
+          <t>2021/26-01-2021///26012021.jpg</t>
         </is>
       </c>
       <c r="G50">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/26-10-2021/26102021.jpg</t>
+          <t>2021/26-10-2021///26102021.jpg</t>
         </is>
       </c>
       <c r="G51">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/27-04-2021/27042021.jpg</t>
+          <t>2021/27-04-2021///27042021.jpg</t>
         </is>
       </c>
       <c r="G52">
@@ -24011,7 +24011,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/27-07-2021/27072021.jpg</t>
+          <t>2021/27-07-2021///27072021.jpg</t>
         </is>
       </c>
       <c r="G53">
@@ -24460,7 +24460,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/28-09-2021/28092021.jpg</t>
+          <t>2021/28-09-2021///28092021.jpg</t>
         </is>
       </c>
       <c r="G54">
@@ -24909,7 +24909,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/29-06-2021/29062021.jpg</t>
+          <t>2021/29-06-2021///29062021.jpg</t>
         </is>
       </c>
       <c r="G55">
@@ -25358,7 +25358,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/29-12-2020/29122020.jpg</t>
+          <t>2021/29-12-2020///29122020.jpg</t>
         </is>
       </c>
       <c r="G56">
@@ -25807,7 +25807,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021/30-03-2021/30032021.jpg</t>
+          <t>2021/30-03-2021///30032021.jpg</t>
         </is>
       </c>
       <c r="G57">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021/30-11-2021/30112021.jpeg</t>
+          <t>2021/30-11-2021///30112021_v2.jpeg</t>
         </is>
       </c>
       <c r="G58">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/31-08-2021/31082021.jpg</t>
+          <t>2021/31-08-2021///31082021.jpg</t>
         </is>
       </c>
       <c r="G59">
@@ -27154,7 +27154,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022/2022-01-04/20220104.jpg</t>
+          <t>2022/2022-01-04///20220104.jpg</t>
         </is>
       </c>
       <c r="G60">
@@ -27603,7 +27603,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-01-11/20220111.jpg</t>
+          <t>2022/2022-01-11///20220111.jpg</t>
         </is>
       </c>
       <c r="G61">
@@ -28052,7 +28052,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-01-18/20220118.png</t>
+          <t>2022/2022-01-18///20220118.png</t>
         </is>
       </c>
       <c r="G62">
@@ -28501,7 +28501,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-01-25/20220125.jpeg</t>
+          <t>2022/2022-01-25///20220125.jpeg</t>
         </is>
       </c>
       <c r="G63">
@@ -28950,7 +28950,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-02-01/20220201.jpg</t>
+          <t>2022/2022-02-01///20220201.jpg</t>
         </is>
       </c>
       <c r="G64">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-02-08/20220208.jpeg</t>
+          <t>2022/2022-02-08///20220208.jpeg</t>
         </is>
       </c>
       <c r="G65">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-02-15/20220215.jpg</t>
+          <t>2022/2022-02-15///20220215.jpg</t>
         </is>
       </c>
       <c r="G66">
@@ -30297,7 +30297,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-02-22/20220222.jpeg</t>
+          <t>2022/2022-02-22///20220222.jpeg</t>
         </is>
       </c>
       <c r="G67">
@@ -30746,7 +30746,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-03-01/20220301.jpg</t>
+          <t>2022/2022-03-01///20220301.jpg</t>
         </is>
       </c>
       <c r="G68">
@@ -31195,7 +31195,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-03-08/20220308.jpeg</t>
+          <t>2022/2022-03-08///20220308.jpeg</t>
         </is>
       </c>
       <c r="G69">
@@ -31644,7 +31644,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-03-15/20220315.jpeg</t>
+          <t>2022/2022-03-15///20220315.jpeg</t>
         </is>
       </c>
       <c r="G70">
@@ -32093,7 +32093,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-03-22/20220322.jpeg</t>
+          <t>2022/2022-03-22///20220322.jpeg</t>
         </is>
       </c>
       <c r="G71">
@@ -32542,7 +32542,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-03-29/20220329.jpeg</t>
+          <t>2022/2022-03-29///20220329.jpeg</t>
         </is>
       </c>
       <c r="G72">
@@ -32991,7 +32991,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-04-05/20220405.png</t>
+          <t>2022/2022-04-05///20220405.png</t>
         </is>
       </c>
       <c r="G73">
@@ -33440,7 +33440,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-04-12/20220412.png</t>
+          <t>2022/2022-04-12///20220412.png</t>
         </is>
       </c>
       <c r="G74">
@@ -33889,7 +33889,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-04-19/20220419.jpeg</t>
+          <t>2022/2022-04-19///20220419.jpeg</t>
         </is>
       </c>
       <c r="G75">
@@ -34338,7 +34338,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-04-26/20220426.png</t>
+          <t>2022/2022-04-26///20220426.png</t>
         </is>
       </c>
       <c r="G76">
@@ -34787,7 +34787,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-05-03/20220503_bar.png</t>
+          <t>2022/2022-05-03///20220503_bar.png</t>
         </is>
       </c>
       <c r="G77">
@@ -35236,7 +35236,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-05-10/20220510.png</t>
+          <t>2022/2022-05-10///20220510.png</t>
         </is>
       </c>
       <c r="G78">
@@ -35685,7 +35685,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-05-17/20220517.png</t>
+          <t>2022/2022-05-17///20220517_tableau.png</t>
         </is>
       </c>
       <c r="G79">
@@ -36134,7 +36134,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-05-24/20220524.png</t>
+          <t>2022/2022-05-24///20220524.png</t>
         </is>
       </c>
       <c r="G80">
@@ -36583,7 +36583,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-05-31/20220531.png</t>
+          <t>2022/2022-05-31///20220531.png</t>
         </is>
       </c>
       <c r="G81">
@@ -37032,7 +37032,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-06-07/20220607.png</t>
+          <t>2022/2022-06-07///20220607.png</t>
         </is>
       </c>
       <c r="G82">
@@ -37481,7 +37481,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-06-14/20220614.png</t>
+          <t>2022/2022-06-14///20220614.png</t>
         </is>
       </c>
       <c r="G83">
@@ -37930,7 +37930,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-06-21/20220621.png</t>
+          <t>2022/2022-06-21///20220621.png</t>
         </is>
       </c>
       <c r="G84">
@@ -38379,7 +38379,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-06-28/20220628.png</t>
+          <t>2022/2022-06-28///20220628.png</t>
         </is>
       </c>
       <c r="G85">
@@ -38828,7 +38828,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-07-05/20220705.png</t>
+          <t>2022/2022-07-05///20220705.png</t>
         </is>
       </c>
       <c r="G86">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-07-12/20220712.png</t>
+          <t>2022/2022-07-12///20220712.png</t>
         </is>
       </c>
       <c r="G87">
@@ -39726,7 +39726,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-07-19/20220719.png</t>
+          <t>2022/2022-07-19///20220719.png</t>
         </is>
       </c>
       <c r="G88">
@@ -40175,7 +40175,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-08-02/20220802.png</t>
+          <t>2022/2022-08-02///20220802.png</t>
         </is>
       </c>
       <c r="G89">
@@ -40624,7 +40624,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-08-09/20220809.png</t>
+          <t>2022/2022-08-09///20220809.png</t>
         </is>
       </c>
       <c r="G90">
@@ -41073,7 +41073,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-08-16/20220816.png</t>
+          <t>2022/2022-08-16///20220816.png</t>
         </is>
       </c>
       <c r="G91">
@@ -41522,7 +41522,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-08-23/20220823.png</t>
+          <t>2022/2022-08-23///20220823.png</t>
         </is>
       </c>
       <c r="G92">
@@ -41971,7 +41971,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-08-30/20220830.png</t>
+          <t>2022/2022-08-30///20220830.png</t>
         </is>
       </c>
       <c r="G93">
@@ -42420,7 +42420,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-09-06/20220906.png</t>
+          <t>2022/2022-09-06///20220906.png</t>
         </is>
       </c>
       <c r="G94">
@@ -42869,7 +42869,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-09-13/20220913.png</t>
+          <t>2022/2022-09-13///20220913.png</t>
         </is>
       </c>
       <c r="G95">
@@ -43318,7 +43318,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-09-20/20220920.png</t>
+          <t>2022/2022-09-20///20220920.png</t>
         </is>
       </c>
       <c r="G96">
@@ -43767,7 +43767,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-09-27/20220927.png</t>
+          <t>2022/2022-09-27///20220927.png</t>
         </is>
       </c>
       <c r="G97">
@@ -44216,7 +44216,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-10-04/20221004.png</t>
+          <t>2022/2022-10-04///20221004.png</t>
         </is>
       </c>
       <c r="G98">
@@ -44665,7 +44665,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-10-11/20221011.png</t>
+          <t>2022/2022-10-11///20221011.png</t>
         </is>
       </c>
       <c r="G99">
@@ -45114,7 +45114,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-10-18/20221018.png</t>
+          <t>2022/2022-10-18///20221018.png</t>
         </is>
       </c>
       <c r="G100">
@@ -45563,7 +45563,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-10-25/20221025.png</t>
+          <t>2022/2022-10-25///20221025.png</t>
         </is>
       </c>
       <c r="G101">
@@ -46012,7 +46012,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-11-01/20221101.png</t>
+          <t>2022/2022-11-01///20221101.png</t>
         </is>
       </c>
       <c r="G102">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-11-08/20221108.png</t>
+          <t>2022/2022-11-08///20221108.png</t>
         </is>
       </c>
       <c r="G103">
@@ -46910,7 +46910,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-11-15/20221115_plot1.png</t>
+          <t>2022/2022-11-15///20221115_plot1.png</t>
         </is>
       </c>
       <c r="G104">
@@ -47359,7 +47359,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-11-22/20221122.png</t>
+          <t>2022/2022-11-22///20221122.png</t>
         </is>
       </c>
       <c r="G105">
@@ -47808,7 +47808,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-11-29/20221129.png</t>
+          <t>2022/2022-11-29///20221129.png</t>
         </is>
       </c>
       <c r="G106">
@@ -48257,7 +48257,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022/2022-12-06/20221206.png</t>
+          <t>2022/2022-12-06///20221206.png</t>
         </is>
       </c>
       <c r="G107">
@@ -48706,7 +48706,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022/2022-12-13/20221213.png</t>
+          <t>2022/2022-12-13///20221213.png</t>
         </is>
       </c>
       <c r="G108">
@@ -49155,7 +49155,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2022/2022-12-20/20221220.png</t>
+          <t>2022/2022-12-20///20221220.png</t>
         </is>
       </c>
       <c r="G109">
@@ -49604,7 +49604,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2022/2022-12-27/20221227.png</t>
+          <t>2022/2022-12-27///20221227.png</t>
         </is>
       </c>
       <c r="G110">
@@ -50053,7 +50053,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023/2023-01-03/20230103.png</t>
+          <t>2023/2023-01-03///20230103_raw.png</t>
         </is>
       </c>
       <c r="G111">
@@ -50502,7 +50502,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-01-10/20230110.png</t>
+          <t>2023/2023-01-10///20230110.png</t>
         </is>
       </c>
       <c r="G112">
@@ -50951,7 +50951,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-01-17/20230117.png</t>
+          <t>2023/2023-01-17///20230117_book.png</t>
         </is>
       </c>
       <c r="G113">
@@ -51400,7 +51400,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-01-24/20230124.png</t>
+          <t>2023/2023-01-24///20230124.png</t>
         </is>
       </c>
       <c r="G114">
@@ -51849,7 +51849,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-01-31/20230131.png</t>
+          <t>2023/2023-01-31///20230131.png</t>
         </is>
       </c>
       <c r="G115">
@@ -52298,7 +52298,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-02-07/20230207.png</t>
+          <t>2023/2023-02-07///20230207.png</t>
         </is>
       </c>
       <c r="G116">
@@ -52737,17 +52737,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.R</t>
+          <t>2023/2023-02-14/20230214_love_actually.R</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.png</t>
+          <t>2023/2023-02-14///20230214_love_actually.png</t>
         </is>
       </c>
       <c r="G117">
@@ -52841,7 +52841,7 @@
         <v>0</v>
       </c>
       <c r="AK117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL117">
         <v>0</v>
@@ -53009,7 +53009,7 @@
         <v>0</v>
       </c>
       <c r="CO117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP117">
         <v>0</v>
@@ -53042,7 +53042,7 @@
         <v>0</v>
       </c>
       <c r="CZ117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA117">
         <v>0</v>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-02-21/20230221.png</t>
+          <t>2023/2023-02-21///20230221.png</t>
         </is>
       </c>
       <c r="G118">
@@ -53645,7 +53645,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-02-28/20230228.png</t>
+          <t>2023/2023-02-28///20230228.png</t>
         </is>
       </c>
       <c r="G119">
@@ -54094,7 +54094,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-03-07/20230307.png</t>
+          <t>2023/2023-03-07///20230307.png</t>
         </is>
       </c>
       <c r="G120">
@@ -54543,7 +54543,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-03-14/20230314.png</t>
+          <t>2023/2023-03-14///20230314_b.png</t>
         </is>
       </c>
       <c r="G121">
@@ -54992,7 +54992,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-03-21/20230321.png</t>
+          <t>2023/2023-03-21///20230321.png</t>
         </is>
       </c>
       <c r="G122">
@@ -55441,7 +55441,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-03-28/20230328.png</t>
+          <t>2023/2023-03-28///20230328.png</t>
         </is>
       </c>
       <c r="G123">
@@ -55890,7 +55890,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-04-04/20230404.png</t>
+          <t>2023/2023-04-04///20230404.png</t>
         </is>
       </c>
       <c r="G124">
@@ -56339,7 +56339,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-04-11/20230411.png</t>
+          <t>2023/2023-04-11///20230411.png</t>
         </is>
       </c>
       <c r="G125">
@@ -56788,7 +56788,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-04-18/20230418.png</t>
+          <t>2023/2023-04-18///20230418.png</t>
         </is>
       </c>
       <c r="G126">
@@ -57237,7 +57237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-04-25/20230425.png</t>
+          <t>2023/2023-04-25///20230425.png</t>
         </is>
       </c>
       <c r="G127">
@@ -57686,7 +57686,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-05-02/20230502.png</t>
+          <t>2023/2023-05-02///20230502.png</t>
         </is>
       </c>
       <c r="G128">
@@ -58135,7 +58135,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-05-09/20230509.png</t>
+          <t>2023/2023-05-09///20230509.png</t>
         </is>
       </c>
       <c r="G129">
@@ -58584,7 +58584,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-05-16/20230516.png</t>
+          <t>2023/2023-05-16///20230516.png</t>
         </is>
       </c>
       <c r="G130">
@@ -59033,7 +59033,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-05-23/20230523.png</t>
+          <t>2023/2023-05-23///20230523.png</t>
         </is>
       </c>
       <c r="G131">
@@ -59482,7 +59482,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-05-30/20230530.png</t>
+          <t>2023/2023-05-30///20230530.png</t>
         </is>
       </c>
       <c r="G132">
@@ -59921,17 +59921,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
+          <t>tidyverse, showtext, readr</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.R</t>
+          <t>2023/2023-06-06/20230606_baseR.R</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.png</t>
+          <t>2023/2023-06-06///20230606_base.png</t>
         </is>
       </c>
       <c r="G133">
@@ -59941,7 +59941,7 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -60082,7 +60082,7 @@
         <v>0</v>
       </c>
       <c r="BD133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE133">
         <v>0</v>
@@ -60097,7 +60097,7 @@
         <v>0</v>
       </c>
       <c r="BI133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ133">
         <v>0</v>
@@ -60139,7 +60139,7 @@
         <v>0</v>
       </c>
       <c r="BW133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX133">
         <v>0</v>
@@ -60163,7 +60163,7 @@
         <v>0</v>
       </c>
       <c r="CE133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF133">
         <v>0</v>
@@ -60181,7 +60181,7 @@
         <v>0</v>
       </c>
       <c r="CK133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL133">
         <v>0</v>
@@ -60380,7 +60380,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-06-13/20230613.png</t>
+          <t>2023/2023-06-13///20230613.png</t>
         </is>
       </c>
       <c r="G134">
@@ -60829,7 +60829,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-06-20/20230620.png</t>
+          <t>2023/2023-06-20///20230620.png</t>
         </is>
       </c>
       <c r="G135">
@@ -61278,7 +61278,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-06-27/20230627.png</t>
+          <t>2023/2023-06-27///20230627.png</t>
         </is>
       </c>
       <c r="G136">
@@ -61727,7 +61727,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-07-04/20230704.png</t>
+          <t>2023/2023-07-04///20230704.png</t>
         </is>
       </c>
       <c r="G137">
@@ -62176,7 +62176,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-07-11/20230711.png</t>
+          <t>2023/2023-07-11///20230711.png</t>
         </is>
       </c>
       <c r="G138">
@@ -62625,7 +62625,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-07-18/20230718.png</t>
+          <t>2023/2023-07-18///20230718.png</t>
         </is>
       </c>
       <c r="G139">
@@ -63074,7 +63074,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-07-25/20230725.png</t>
+          <t>2023/2023-07-25///20230725_v2.png</t>
         </is>
       </c>
       <c r="G140">
@@ -63523,7 +63523,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-08-01/20230801.png</t>
+          <t>2023/2023-08-01///20230801.png</t>
         </is>
       </c>
       <c r="G141">
@@ -63972,7 +63972,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-08-08/20230808.png</t>
+          <t>2023/2023-08-08///20230808.png</t>
         </is>
       </c>
       <c r="G142">
@@ -64421,7 +64421,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-08-15/20230815.png</t>
+          <t>2023/2023-08-15///20230815.png</t>
         </is>
       </c>
       <c r="G143">
@@ -64870,7 +64870,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-08-22/20230822.png</t>
+          <t>2023/2023-08-22///20230822.png</t>
         </is>
       </c>
       <c r="G144">
@@ -65319,7 +65319,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-08-29/20230829.png</t>
+          <t>2023/2023-08-29///20230829.png</t>
         </is>
       </c>
       <c r="G145">
@@ -65768,7 +65768,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-09-05/20230905.png</t>
+          <t>2023/2023-09-05///20230905.png</t>
         </is>
       </c>
       <c r="G146">
@@ -66217,7 +66217,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-09-12/20230912.png</t>
+          <t>2023/2023-09-12///20230912.png</t>
         </is>
       </c>
       <c r="G147">
@@ -66666,7 +66666,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-09-19/20230919.png</t>
+          <t>2023/2023-09-19///20230919.png</t>
         </is>
       </c>
       <c r="G148">
@@ -67115,7 +67115,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-09-26/20230926.png</t>
+          <t>2023/2023-09-26///20230926.png</t>
         </is>
       </c>
       <c r="G149">
@@ -67564,7 +67564,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-10-03/20231003.png</t>
+          <t>2023/2023-10-03///20231003.png</t>
         </is>
       </c>
       <c r="G150">
@@ -68013,7 +68013,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-10-10/20231010.png</t>
+          <t>2023/2023-10-10///20231010.png</t>
         </is>
       </c>
       <c r="G151">
@@ -68462,7 +68462,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-10-17/20231017.png</t>
+          <t>2023/2023-10-17///20231017.png</t>
         </is>
       </c>
       <c r="G152">
@@ -68911,7 +68911,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-10-24/20231024.png</t>
+          <t>2023/2023-10-24///20231024_clusters.png</t>
         </is>
       </c>
       <c r="G153">
@@ -69360,7 +69360,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-10-31/20231031.png</t>
+          <t>2023/2023-10-31///20231031.png</t>
         </is>
       </c>
       <c r="G154">
@@ -69809,7 +69809,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-11-07/20231107.png</t>
+          <t>2023/2023-11-07///20231107.png</t>
         </is>
       </c>
       <c r="G155">
@@ -70258,7 +70258,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-11-14/20231114.png</t>
+          <t>2023/2023-11-14///20231114.png</t>
         </is>
       </c>
       <c r="G156">
@@ -70707,7 +70707,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-11-21/20231121.png</t>
+          <t>2023/2023-11-21///20231121.png</t>
         </is>
       </c>
       <c r="G157">
@@ -71156,7 +71156,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-11-28/20231128.png</t>
+          <t>2023/2023-11-28///20231128.png</t>
         </is>
       </c>
       <c r="G158">
@@ -71605,7 +71605,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023/2023-12-05/20231205.png</t>
+          <t>2023/2023-12-05///20231205.png</t>
         </is>
       </c>
       <c r="G159">
@@ -72054,7 +72054,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023/2023-12-12/20231212.png</t>
+          <t>2023/2023-12-12///20231212.png</t>
         </is>
       </c>
       <c r="G160">
@@ -72503,7 +72503,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023/2023-12-19/20231219.png</t>
+          <t>2023/2023-12-19///20231219.png</t>
         </is>
       </c>
       <c r="G161">
@@ -72952,7 +72952,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023/2023-12-26/20231226.png</t>
+          <t>2023/2023-12-26///20231226.png</t>
         </is>
       </c>
       <c r="G162">
@@ -73401,7 +73401,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2024/2024-01-02/20240102.png</t>
+          <t>2024/2024-01-02///20240102.png</t>
         </is>
       </c>
       <c r="G163">
@@ -73850,7 +73850,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-01-09/20240109.png</t>
+          <t>2024/2024-01-09///20240109_canada.png</t>
         </is>
       </c>
       <c r="G164">
@@ -74299,7 +74299,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-01-16/20240116.png</t>
+          <t>2024/2024-01-16///20240116.png</t>
         </is>
       </c>
       <c r="G165">
@@ -74748,7 +74748,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-01-23/20240123.png</t>
+          <t>2024/2024-01-23///20240123.png</t>
         </is>
       </c>
       <c r="G166">
@@ -75197,7 +75197,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-01-30/20240130.png</t>
+          <t>2024/2024-01-30///20240130.png</t>
         </is>
       </c>
       <c r="G167">
@@ -75646,7 +75646,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-02-06/20240206.png</t>
+          <t>2024/2024-02-06///20240206.png</t>
         </is>
       </c>
       <c r="G168">
@@ -76095,7 +76095,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024/2024-02-13/20240213.png</t>
+          <t>2024/2024-02-13///20240213.png</t>
         </is>
       </c>
       <c r="G169">
@@ -76544,7 +76544,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024/2024-02-20/20240220.png</t>
+          <t>2024/2024-02-20///20240220.png</t>
         </is>
       </c>
       <c r="G170">
@@ -76993,7 +76993,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2024/2024-02-27/20240227.png</t>
+          <t>2024/2024-02-27///20240227.png</t>
         </is>
       </c>
       <c r="G171">
@@ -77442,7 +77442,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2024/2024-03-05/20240305.png</t>
+          <t>2024/2024-03-05///20240305.png</t>
         </is>
       </c>
       <c r="G172">
@@ -77891,7 +77891,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2024/2024-03-12/20240312.png</t>
+          <t>2024/2024-03-12///20240312.png</t>
         </is>
       </c>
       <c r="G173">
@@ -78340,7 +78340,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2024/2024-03-19/20240319.png</t>
+          <t>2024/2024-03-19///20240319.png</t>
         </is>
       </c>
       <c r="G174">
@@ -78789,7 +78789,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2024/2024-03-26/20240326.png</t>
+          <t>2024/2024-03-26///20240326.png</t>
         </is>
       </c>
       <c r="G175">
@@ -79238,7 +79238,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2024/2024-04-02/20240402.png</t>
+          <t>2024/2024-04-02///20240402.png</t>
         </is>
       </c>
       <c r="G176">
@@ -79687,7 +79687,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2024/2024-04-09/20240409.png</t>
+          <t>2024/2024-04-09///20240409.png</t>
         </is>
       </c>
       <c r="G177">
@@ -80136,7 +80136,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2024/2024-04-16/20240416.png</t>
+          <t>2024/2024-04-16///20240416.png</t>
         </is>
       </c>
       <c r="G178">
@@ -80585,7 +80585,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2024/2024-04-23/20240423.png</t>
+          <t>2024/2024-04-23///20240423.png</t>
         </is>
       </c>
       <c r="G179">
@@ -81034,7 +81034,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2024/2024-04-30/20240430.png</t>
+          <t>2024/2024-04-30///20240430.png</t>
         </is>
       </c>
       <c r="G180">
@@ -81483,7 +81483,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2024/2024-05-07/20240507.png</t>
+          <t>2024/2024-05-07///20240507.png</t>
         </is>
       </c>
       <c r="G181">
@@ -81932,7 +81932,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2024/2024-05-14/20240514.png</t>
+          <t>2024/2024-05-14///20240514.png</t>
         </is>
       </c>
       <c r="G182">
@@ -82381,7 +82381,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2024/2024-05-21/20240521.png</t>
+          <t>2024/2024-05-21///20240521.png</t>
         </is>
       </c>
       <c r="G183">
@@ -82830,7 +82830,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2024/2024-05-28/20240528.png</t>
+          <t>2024/2024-05-28///20240528.png</t>
         </is>
       </c>
       <c r="G184">
@@ -83279,7 +83279,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2024/2024-06-04/20240604.png</t>
+          <t>2024/2024-06-04///20240604.png</t>
         </is>
       </c>
       <c r="G185">
@@ -83728,7 +83728,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2024/2024-06-11/20240611.png</t>
+          <t>2024/2024-06-11///20240611.png</t>
         </is>
       </c>
       <c r="G186">
@@ -84177,7 +84177,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2024/2024-06-18/20240618.png</t>
+          <t>2024/2024-06-18///20240618.png</t>
         </is>
       </c>
       <c r="G187">
@@ -84626,7 +84626,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2024/2024-06-25/20240625.png</t>
+          <t>2024/2024-06-25///20240625.png</t>
         </is>
       </c>
       <c r="G188">
@@ -85075,7 +85075,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2024/2024-07-02/20240702.png</t>
+          <t>2024/2024-07-02///20240702_all.png</t>
         </is>
       </c>
       <c r="G189">

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2019/2019-01-29/20190129.png</t>
+          <t>2019/2019-01-29///20190129.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019/2019-03-05/20190305.png</t>
+          <t>2019/2019-03-05///20190305.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2019/2019-05-14/20190514-light.png</t>
+          <t>2019/2019-05-14///20190514-light.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020/2020-04-21/20200421.jpg</t>
+          <t>2020/2020-04-21///20200421.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020/2020-07-28/20200728.jpg</t>
+          <t>2020/2020-07-28///20200728.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020/2020-11-10/20201110.png</t>
+          <t>2020/2020-11-10///20201110.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2020/2020-12-08/20201208.jpg</t>
+          <t>2020/2020-12-08///20201208.jpg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021/01-06-2021/01062021.jpg</t>
+          <t>2021/01-06-2021///01062021.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/02-02-2021/02022021.jpg</t>
+          <t>2021/02-02-2021///02022021.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/02-03-2021/02032021.jpg</t>
+          <t>2021/02-03-2021///02032021.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/02-11-2021/02112021.png</t>
+          <t>2021/02-11-2021///02112021.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/03-08-2021/03082021.jpg</t>
+          <t>2021/03-08-2021///03082021_table.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/04-05-2021/04052021.jpg</t>
+          <t>2021/04-05-2021///04052021.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/05-01-2021/05012021.jpg</t>
+          <t>2021/05-01-2021///05012021.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/05-10-2021/05102021.jpg</t>
+          <t>2021/05-10-2021///05102021.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/06-04-2021/06042021.jpg</t>
+          <t>2021/06-04-2021///06042021_plot1.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/06-07-2021/06072021.jpg</t>
+          <t>2021/06-07-2021///06072021.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/07-09-2021/07092021.jpg</t>
+          <t>2021/07-09-2021///07092021.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/07-12-2021/07122021.jpeg</t>
+          <t>2021/07-12-2021///07122021.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/08-06-2021/08062021.jpg</t>
+          <t>2021/08-06-2021///08062021.jpg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/09-02-2021/09022021.jpg</t>
+          <t>2021/09-02-2021///09022021.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/09-03-2021/09032021.jpg</t>
+          <t>2021/09-03-2021///09032021.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/09-11-2021/09112021.jpg</t>
+          <t>2021/09-11-2021///09112021.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/10-08-2021/10082021.jpg</t>
+          <t>2021/10-08-2021///10082021.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/11-05-2021/11052021.jpg</t>
+          <t>2021/11-05-2021///11052021.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/12-01-2021/12012021.jpg</t>
+          <t>2021/12-01-2021///12012021.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/12-10-2021/12102021_f1.jpg</t>
+          <t>2021/12-10-2021///12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/13-04-2021/13042021.jpg</t>
+          <t>2021/13-04-2021///13042021.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/13-07-2021/13072021.jpg</t>
+          <t>2021/13-07-2021///13072021.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/14-09-2021/14092021.jpg</t>
+          <t>2021/14-09-2021///14092021.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -14737,7 +14737,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/14-12-2021/14122021.jpg</t>
+          <t>2021/14-12-2021///14122021.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/15-06-2021/15062021.jpg</t>
+          <t>2021/15-06-2021///15062021.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/16-02-2021/16022021.jpg</t>
+          <t>2021/16-02-2021///16022021.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/16-03-2021/16032021.jpg</t>
+          <t>2021/16-03-2021///16032021.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -16553,7 +16553,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/17-08-2021/17082021.jpg</t>
+          <t>2021/17-08-2021///17082021.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -17007,7 +17007,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/18-05-2021/18052021.jpg</t>
+          <t>2021/18-05-2021///18052021.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -17461,7 +17461,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/19-01-2021/19012021.jpg</t>
+          <t>2021/19-01-2021///19012021.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/19-10-2021/19102021.jpg</t>
+          <t>2021/19-10-2021///19102021.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/20-04-2021/20042021.png</t>
+          <t>2021/20-04-2021///20042021.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/20-07-2021/20072021.jpg</t>
+          <t>2021/20-07-2021///20072021.jpg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -19277,7 +19277,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/21-09-2021/21092021.jpg</t>
+          <t>2021/21-09-2021///21092021_waffle.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/21-12-2021/21122021.jpg</t>
+          <t>2021/21-12-2021///21122021.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.R</t>
+          <t>2021/22-06-2021/22062021_stream_plots.R</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.jpg</t>
+          <t>2021/22-06-2021///22062021_v2.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -20639,7 +20639,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/23-02-2021/23022021.jpg</t>
+          <t>2021/23-02-2021///23022021.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -21093,7 +21093,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/23-03-2021/23032021.jpg</t>
+          <t>2021/23-03-2021///23032021.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -21547,7 +21547,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/23-11-2021/23112021.jpg</t>
+          <t>2021/23-11-2021///23112021.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/24-08-2021/24082021.jpg</t>
+          <t>2021/24-08-2021///24082021.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -22455,7 +22455,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/25-05-2021/25052021.jpg</t>
+          <t>2021/25-05-2021///25052021.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/26-01-2021/26012021.jpg</t>
+          <t>2021/26-01-2021///26012021.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -23363,7 +23363,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/26-10-2021/26102021.jpg</t>
+          <t>2021/26-10-2021///26102021.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/27-04-2021/27042021.jpg</t>
+          <t>2021/27-04-2021///27042021.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -24271,7 +24271,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/27-07-2021/27072021.jpg</t>
+          <t>2021/27-07-2021///27072021.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/28-09-2021/28092021.jpg</t>
+          <t>2021/28-09-2021///28092021.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/29-06-2021/29062021.jpg</t>
+          <t>2021/29-06-2021///29062021.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/29-12-2020/29122020.jpg</t>
+          <t>2021/29-12-2020///29122020.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -26087,7 +26087,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021/30-03-2021/30032021.jpg</t>
+          <t>2021/30-03-2021///30032021.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021/30-11-2021/30112021.jpeg</t>
+          <t>2021/30-11-2021///30112021_v2.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -26995,7 +26995,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/31-08-2021/31082021.jpg</t>
+          <t>2021/31-08-2021///31082021.jpg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -27449,7 +27449,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022/2022-01-04/20220104.jpg</t>
+          <t>2022/2022-01-04///20220104.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-01-11/20220111.jpg</t>
+          <t>2022/2022-01-11///20220111.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -28357,7 +28357,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-01-18/20220118.png</t>
+          <t>2022/2022-01-18///20220118.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -28811,7 +28811,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-01-25/20220125.jpeg</t>
+          <t>2022/2022-01-25///20220125.jpeg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -29265,7 +29265,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-02-01/20220201.jpg</t>
+          <t>2022/2022-02-01///20220201.jpg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -29719,7 +29719,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-02-08/20220208.jpeg</t>
+          <t>2022/2022-02-08///20220208.jpeg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -30173,7 +30173,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-02-15/20220215.jpg</t>
+          <t>2022/2022-02-15///20220215.jpg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -30627,7 +30627,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-02-22/20220222.jpeg</t>
+          <t>2022/2022-02-22///20220222.jpeg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -31081,7 +31081,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-03-01/20220301.jpg</t>
+          <t>2022/2022-03-01///20220301.jpg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -31535,7 +31535,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-03-08/20220308.jpeg</t>
+          <t>2022/2022-03-08///20220308.jpeg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -31989,7 +31989,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-03-15/20220315.jpeg</t>
+          <t>2022/2022-03-15///20220315.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -32443,7 +32443,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-03-22/20220322.jpeg</t>
+          <t>2022/2022-03-22///20220322.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -32897,7 +32897,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-03-29/20220329.jpeg</t>
+          <t>2022/2022-03-29///20220329.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -33351,7 +33351,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-04-05/20220405.png</t>
+          <t>2022/2022-04-05///20220405.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -33805,7 +33805,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-04-12/20220412.png</t>
+          <t>2022/2022-04-12///20220412.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -34259,7 +34259,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-04-19/20220419.jpeg</t>
+          <t>2022/2022-04-19///20220419.jpeg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -34713,7 +34713,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-04-26/20220426.png</t>
+          <t>2022/2022-04-26///20220426.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -35167,7 +35167,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-05-03/20220503_bar.png</t>
+          <t>2022/2022-05-03///20220503_bar.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -35621,7 +35621,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-05-10/20220510.png</t>
+          <t>2022/2022-05-10///20220510.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -36075,7 +36075,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-05-17/20220517.png</t>
+          <t>2022/2022-05-17///20220517_tableau.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-05-24/20220524.png</t>
+          <t>2022/2022-05-24///20220524.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -36983,7 +36983,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-05-31/20220531.png</t>
+          <t>2022/2022-05-31///20220531.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -37437,7 +37437,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-06-07/20220607.png</t>
+          <t>2022/2022-06-07///20220607.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -37891,7 +37891,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-06-14/20220614.png</t>
+          <t>2022/2022-06-14///20220614.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-06-21/20220621.png</t>
+          <t>2022/2022-06-21///20220621.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -38799,7 +38799,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-06-28/20220628.png</t>
+          <t>2022/2022-06-28///20220628.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -39253,7 +39253,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-07-05/20220705.png</t>
+          <t>2022/2022-07-05///20220705.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -39707,7 +39707,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-07-12/20220712.png</t>
+          <t>2022/2022-07-12///20220712.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -40161,7 +40161,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-07-19/20220719.png</t>
+          <t>2022/2022-07-19///20220719.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -40615,7 +40615,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-08-02/20220802.png</t>
+          <t>2022/2022-08-02///20220802.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -41069,7 +41069,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-08-09/20220809.png</t>
+          <t>2022/2022-08-09///20220809.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -41523,7 +41523,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-08-16/20220816.png</t>
+          <t>2022/2022-08-16///20220816.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -41977,7 +41977,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-08-23/20220823.png</t>
+          <t>2022/2022-08-23///20220823.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -42431,7 +42431,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-08-30/20220830.png</t>
+          <t>2022/2022-08-30///20220830.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-09-06/20220906.png</t>
+          <t>2022/2022-09-06///20220906.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -43339,7 +43339,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-09-13/20220913.png</t>
+          <t>2022/2022-09-13///20220913.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -43793,7 +43793,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-09-20/20220920.png</t>
+          <t>2022/2022-09-20///20220920.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -44247,7 +44247,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-09-27/20220927.png</t>
+          <t>2022/2022-09-27///20220927.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -44701,7 +44701,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-10-04/20221004.png</t>
+          <t>2022/2022-10-04///20221004.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -45155,7 +45155,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-10-11/20221011.png</t>
+          <t>2022/2022-10-11///20221011.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -45609,7 +45609,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-10-18/20221018.png</t>
+          <t>2022/2022-10-18///20221018.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -46063,7 +46063,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-10-25/20221025.png</t>
+          <t>2022/2022-10-25///20221025.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -46517,7 +46517,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-11-01/20221101.png</t>
+          <t>2022/2022-11-01///20221101.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -46971,7 +46971,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-11-08/20221108.png</t>
+          <t>2022/2022-11-08///20221108.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -47425,7 +47425,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-11-15/20221115_plot1.png</t>
+          <t>2022/2022-11-15///20221115_plot1.png</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -47879,7 +47879,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-11-22/20221122.png</t>
+          <t>2022/2022-11-22///20221122.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -48333,7 +48333,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-11-29/20221129.png</t>
+          <t>2022/2022-11-29///20221129.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -48787,7 +48787,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022/2022-12-06/20221206.png</t>
+          <t>2022/2022-12-06///20221206.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -49241,7 +49241,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022/2022-12-13/20221213.png</t>
+          <t>2022/2022-12-13///20221213.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -49695,7 +49695,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2022/2022-12-20/20221220.png</t>
+          <t>2022/2022-12-20///20221220.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -50149,7 +50149,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2022/2022-12-27/20221227.png</t>
+          <t>2022/2022-12-27///20221227.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -50603,7 +50603,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023/2023-01-03/20230103.png</t>
+          <t>2023/2023-01-03///20230103_raw.png</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -51057,7 +51057,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-01-10/20230110.png</t>
+          <t>2023/2023-01-10///20230110.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -51511,7 +51511,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-01-17/20230117.png</t>
+          <t>2023/2023-01-17///20230117_book.png</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -51965,7 +51965,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-01-24/20230124.png</t>
+          <t>2023/2023-01-24///20230124.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -52419,7 +52419,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-01-31/20230131.png</t>
+          <t>2023/2023-01-31///20230131.png</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -52873,7 +52873,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-02-07/20230207.png</t>
+          <t>2023/2023-02-07///20230207.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -53317,17 +53317,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.R</t>
+          <t>2023/2023-02-14/20230214_love_actually.R</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.png</t>
+          <t>2023/2023-02-14///20230214_love_actually.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -53426,7 +53426,7 @@
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM117">
         <v>0</v>
@@ -53594,7 +53594,7 @@
         <v>0</v>
       </c>
       <c r="CP117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ117">
         <v>0</v>
@@ -53627,7 +53627,7 @@
         <v>0</v>
       </c>
       <c r="DA117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB117">
         <v>0</v>
@@ -53781,7 +53781,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-02-21/20230221.png</t>
+          <t>2023/2023-02-21///20230221.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -54235,7 +54235,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-02-28/20230228.png</t>
+          <t>2023/2023-02-28///20230228.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-03-07/20230307.png</t>
+          <t>2023/2023-03-07///20230307.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -55143,7 +55143,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-03-14/20230314.png</t>
+          <t>2023/2023-03-14///20230314_b.png</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -55597,7 +55597,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-03-21/20230321.png</t>
+          <t>2023/2023-03-21///20230321.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -56051,7 +56051,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-03-28/20230328.png</t>
+          <t>2023/2023-03-28///20230328.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -56505,7 +56505,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-04-04/20230404.png</t>
+          <t>2023/2023-04-04///20230404.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -56959,7 +56959,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-04-11/20230411.png</t>
+          <t>2023/2023-04-11///20230411.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -57413,7 +57413,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-04-18/20230418.png</t>
+          <t>2023/2023-04-18///20230418.png</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -57867,7 +57867,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-04-25/20230425.png</t>
+          <t>2023/2023-04-25///20230425.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -58321,7 +58321,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-05-02/20230502.png</t>
+          <t>2023/2023-05-02///20230502.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -58775,7 +58775,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-05-09/20230509.png</t>
+          <t>2023/2023-05-09///20230509.png</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -59229,7 +59229,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-05-16/20230516.png</t>
+          <t>2023/2023-05-16///20230516.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -59683,7 +59683,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-05-23/20230523.png</t>
+          <t>2023/2023-05-23///20230523.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -60137,7 +60137,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-05-30/20230530.png</t>
+          <t>2023/2023-05-30///20230530.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -60581,17 +60581,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
+          <t>tidyverse, showtext, readr</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.R</t>
+          <t>2023/2023-06-06/20230606_baseR.R</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.png</t>
+          <t>2023/2023-06-06///20230606_base.png</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -60606,7 +60606,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -60747,7 +60747,7 @@
         <v>0</v>
       </c>
       <c r="BE133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF133">
         <v>0</v>
@@ -60762,7 +60762,7 @@
         <v>0</v>
       </c>
       <c r="BJ133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK133">
         <v>0</v>
@@ -60804,7 +60804,7 @@
         <v>0</v>
       </c>
       <c r="BX133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY133">
         <v>0</v>
@@ -60828,7 +60828,7 @@
         <v>0</v>
       </c>
       <c r="CF133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG133">
         <v>0</v>
@@ -60846,7 +60846,7 @@
         <v>0</v>
       </c>
       <c r="CL133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM133">
         <v>0</v>
@@ -61045,7 +61045,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-06-13/20230613.png</t>
+          <t>2023/2023-06-13///20230613.png</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -61499,7 +61499,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-06-20/20230620.png</t>
+          <t>2023/2023-06-20///20230620.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -61953,7 +61953,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-06-27/20230627.png</t>
+          <t>2023/2023-06-27///20230627.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -62407,7 +62407,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-07-04/20230704.png</t>
+          <t>2023/2023-07-04///20230704.png</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -62861,7 +62861,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-07-11/20230711.png</t>
+          <t>2023/2023-07-11///20230711.png</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -63315,7 +63315,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-07-18/20230718.png</t>
+          <t>2023/2023-07-18///20230718.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -63769,7 +63769,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-07-25/20230725.png</t>
+          <t>2023/2023-07-25///20230725_v2.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -64223,7 +64223,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-08-01/20230801.png</t>
+          <t>2023/2023-08-01///20230801.png</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -64677,7 +64677,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-08-08/20230808.png</t>
+          <t>2023/2023-08-08///20230808.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -65131,7 +65131,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-08-15/20230815.png</t>
+          <t>2023/2023-08-15///20230815.png</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -65585,7 +65585,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-08-22/20230822.png</t>
+          <t>2023/2023-08-22///20230822.png</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -66039,7 +66039,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-08-29/20230829.png</t>
+          <t>2023/2023-08-29///20230829.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -66493,7 +66493,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-09-05/20230905.png</t>
+          <t>2023/2023-09-05///20230905.png</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -66947,7 +66947,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-09-12/20230912.png</t>
+          <t>2023/2023-09-12///20230912.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -67401,7 +67401,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-09-19/20230919.png</t>
+          <t>2023/2023-09-19///20230919.png</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -67855,7 +67855,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-09-26/20230926.png</t>
+          <t>2023/2023-09-26///20230926.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -68309,7 +68309,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-10-03/20231003.png</t>
+          <t>2023/2023-10-03///20231003.png</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -68763,7 +68763,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-10-10/20231010.png</t>
+          <t>2023/2023-10-10///20231010.png</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -69217,7 +69217,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-10-17/20231017.png</t>
+          <t>2023/2023-10-17///20231017.png</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -69671,7 +69671,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-10-24/20231024.png</t>
+          <t>2023/2023-10-24///20231024_clusters.png</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -70125,7 +70125,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-10-31/20231031.png</t>
+          <t>2023/2023-10-31///20231031.png</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -70579,7 +70579,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-11-07/20231107.png</t>
+          <t>2023/2023-11-07///20231107.png</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -71033,7 +71033,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-11-14/20231114.png</t>
+          <t>2023/2023-11-14///20231114.png</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -71487,7 +71487,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-11-21/20231121.png</t>
+          <t>2023/2023-11-21///20231121.png</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -71941,7 +71941,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-11-28/20231128.png</t>
+          <t>2023/2023-11-28///20231128.png</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -72395,7 +72395,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023/2023-12-05/20231205.png</t>
+          <t>2023/2023-12-05///20231205.png</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -72849,7 +72849,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023/2023-12-12/20231212.png</t>
+          <t>2023/2023-12-12///20231212.png</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -73303,7 +73303,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023/2023-12-19/20231219.png</t>
+          <t>2023/2023-12-19///20231219.png</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -73757,7 +73757,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023/2023-12-26/20231226.png</t>
+          <t>2023/2023-12-26///20231226.png</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -74211,7 +74211,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2024/2024-01-02/20240102.png</t>
+          <t>2024/2024-01-02///20240102.png</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -74665,7 +74665,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-01-09/20240109.png</t>
+          <t>2024/2024-01-09///20240109_canada.png</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -75119,7 +75119,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-01-16/20240116.png</t>
+          <t>2024/2024-01-16///20240116.png</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -75573,7 +75573,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-01-23/20240123.png</t>
+          <t>2024/2024-01-23///20240123.png</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -76027,7 +76027,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-01-30/20240130.png</t>
+          <t>2024/2024-01-30///20240130.png</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -76481,7 +76481,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-02-06/20240206.png</t>
+          <t>2024/2024-02-06///20240206.png</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -76935,7 +76935,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024/2024-02-13/20240213.png</t>
+          <t>2024/2024-02-13///20240213.png</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -77389,7 +77389,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024/2024-02-20/20240220.png</t>
+          <t>2024/2024-02-20///20240220.png</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -77843,7 +77843,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2024/2024-02-27/20240227.png</t>
+          <t>2024/2024-02-27///20240227.png</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -78297,7 +78297,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2024/2024-03-05/20240305.png</t>
+          <t>2024/2024-03-05///20240305.png</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -78751,7 +78751,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2024/2024-03-12/20240312.png</t>
+          <t>2024/2024-03-12///20240312.png</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -79205,7 +79205,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2024/2024-03-19/20240319.png</t>
+          <t>2024/2024-03-19///20240319.png</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -79659,7 +79659,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2024/2024-03-26/20240326.png</t>
+          <t>2024/2024-03-26///20240326.png</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -80113,7 +80113,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2024/2024-04-02/20240402.png</t>
+          <t>2024/2024-04-02///20240402.png</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -80567,7 +80567,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2024/2024-04-09/20240409.png</t>
+          <t>2024/2024-04-09///20240409.png</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -81021,7 +81021,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2024/2024-04-16/20240416.png</t>
+          <t>2024/2024-04-16///20240416.png</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -81475,7 +81475,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2024/2024-04-23/20240423.png</t>
+          <t>2024/2024-04-23///20240423.png</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -81929,7 +81929,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2024/2024-04-30/20240430.png</t>
+          <t>2024/2024-04-30///20240430.png</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -82383,7 +82383,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2024/2024-05-07/20240507.png</t>
+          <t>2024/2024-05-07///20240507.png</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -82837,7 +82837,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2024/2024-05-14/20240514.png</t>
+          <t>2024/2024-05-14///20240514.png</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -83291,7 +83291,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2024/2024-05-21/20240521.png</t>
+          <t>2024/2024-05-21///20240521.png</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -83745,7 +83745,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2024/2024-05-28/20240528.png</t>
+          <t>2024/2024-05-28///20240528.png</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -84199,7 +84199,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2024/2024-06-04/20240604.png</t>
+          <t>2024/2024-06-04///20240604.png</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -84653,7 +84653,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2024/2024-06-11/20240611.png</t>
+          <t>2024/2024-06-11///20240611.png</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -85107,7 +85107,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2024/2024-06-18/20240618.png</t>
+          <t>2024/2024-06-18///20240618.png</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -85561,7 +85561,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2024/2024-06-25/20240625.png</t>
+          <t>2024/2024-06-25///20240625.png</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -86015,7 +86015,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2024/2024-07-02/20240702.png</t>
+          <t>2024/2024-07-02///20240702_all.png</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -87036,6 +87036,11 @@
           <t>2024/2024-07-09/20240709.R</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2024/2024-07-09///20240709.png</t>
+        </is>
+      </c>
       <c r="G190" t="inlineStr">
         <is>
           <t>R</t>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -87028,7 +87028,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, funspotr, png, grid, stringr, readr, rcartocolor, lubridate</t>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, funspotr, stringr, readr, rcartocolor, dplyr, tidyr, lubridate</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -87089,7 +87089,7 @@
         <v>0</v>
       </c>
       <c r="V190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -87215,7 +87215,7 @@
         <v>1</v>
       </c>
       <c r="BL190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM190">
         <v>0</v>
@@ -87308,7 +87308,7 @@
         <v>0</v>
       </c>
       <c r="CQ190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR190">
         <v>0</v>
@@ -87416,7 +87416,7 @@
         <v>0</v>
       </c>
       <c r="EA190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB190">
         <v>0</v>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EV192"/>
+  <dimension ref="A1:EV193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -91271,6 +91271,478 @@
         <v>0</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>American Idol</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, ggtextcircle, camcorder, ggtext, nrBrand, glue, ggimage, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2024/2024-07-23/20240723.R</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2024/2024-07-23///20240723.png</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <v>0</v>
+      </c>
+      <c r="AD193">
+        <v>0</v>
+      </c>
+      <c r="AE193">
+        <v>0</v>
+      </c>
+      <c r="AF193">
+        <v>0</v>
+      </c>
+      <c r="AG193">
+        <v>0</v>
+      </c>
+      <c r="AH193">
+        <v>0</v>
+      </c>
+      <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
+        <v>0</v>
+      </c>
+      <c r="AK193">
+        <v>0</v>
+      </c>
+      <c r="AL193">
+        <v>0</v>
+      </c>
+      <c r="AM193">
+        <v>0</v>
+      </c>
+      <c r="AN193">
+        <v>1</v>
+      </c>
+      <c r="AO193">
+        <v>0</v>
+      </c>
+      <c r="AP193">
+        <v>0</v>
+      </c>
+      <c r="AQ193">
+        <v>0</v>
+      </c>
+      <c r="AR193">
+        <v>0</v>
+      </c>
+      <c r="AS193">
+        <v>0</v>
+      </c>
+      <c r="AT193">
+        <v>0</v>
+      </c>
+      <c r="AU193">
+        <v>0</v>
+      </c>
+      <c r="AV193">
+        <v>0</v>
+      </c>
+      <c r="AW193">
+        <v>0</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>0</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>1</v>
+      </c>
+      <c r="BG193">
+        <v>1</v>
+      </c>
+      <c r="BH193">
+        <v>0</v>
+      </c>
+      <c r="BI193">
+        <v>0</v>
+      </c>
+      <c r="BJ193">
+        <v>0</v>
+      </c>
+      <c r="BK193">
+        <v>1</v>
+      </c>
+      <c r="BL193">
+        <v>0</v>
+      </c>
+      <c r="BM193">
+        <v>0</v>
+      </c>
+      <c r="BN193">
+        <v>0</v>
+      </c>
+      <c r="BO193">
+        <v>0</v>
+      </c>
+      <c r="BP193">
+        <v>0</v>
+      </c>
+      <c r="BQ193">
+        <v>0</v>
+      </c>
+      <c r="BR193">
+        <v>0</v>
+      </c>
+      <c r="BS193">
+        <v>0</v>
+      </c>
+      <c r="BT193">
+        <v>0</v>
+      </c>
+      <c r="BU193">
+        <v>0</v>
+      </c>
+      <c r="BV193">
+        <v>0</v>
+      </c>
+      <c r="BW193">
+        <v>0</v>
+      </c>
+      <c r="BX193">
+        <v>0</v>
+      </c>
+      <c r="BY193">
+        <v>0</v>
+      </c>
+      <c r="BZ193">
+        <v>0</v>
+      </c>
+      <c r="CA193">
+        <v>0</v>
+      </c>
+      <c r="CB193">
+        <v>0</v>
+      </c>
+      <c r="CC193">
+        <v>0</v>
+      </c>
+      <c r="CD193">
+        <v>0</v>
+      </c>
+      <c r="CE193">
+        <v>0</v>
+      </c>
+      <c r="CF193">
+        <v>0</v>
+      </c>
+      <c r="CG193">
+        <v>0</v>
+      </c>
+      <c r="CH193">
+        <v>0</v>
+      </c>
+      <c r="CI193">
+        <v>0</v>
+      </c>
+      <c r="CJ193">
+        <v>0</v>
+      </c>
+      <c r="CK193">
+        <v>1</v>
+      </c>
+      <c r="CL193">
+        <v>0</v>
+      </c>
+      <c r="CM193">
+        <v>0</v>
+      </c>
+      <c r="CN193">
+        <v>0</v>
+      </c>
+      <c r="CO193">
+        <v>0</v>
+      </c>
+      <c r="CP193">
+        <v>0</v>
+      </c>
+      <c r="CQ193">
+        <v>0</v>
+      </c>
+      <c r="CR193">
+        <v>0</v>
+      </c>
+      <c r="CS193">
+        <v>0</v>
+      </c>
+      <c r="CT193">
+        <v>0</v>
+      </c>
+      <c r="CU193">
+        <v>0</v>
+      </c>
+      <c r="CV193">
+        <v>0</v>
+      </c>
+      <c r="CW193">
+        <v>0</v>
+      </c>
+      <c r="CX193">
+        <v>0</v>
+      </c>
+      <c r="CY193">
+        <v>0</v>
+      </c>
+      <c r="CZ193">
+        <v>0</v>
+      </c>
+      <c r="DA193">
+        <v>0</v>
+      </c>
+      <c r="DB193">
+        <v>0</v>
+      </c>
+      <c r="DC193">
+        <v>0</v>
+      </c>
+      <c r="DD193">
+        <v>0</v>
+      </c>
+      <c r="DE193">
+        <v>0</v>
+      </c>
+      <c r="DF193">
+        <v>0</v>
+      </c>
+      <c r="DG193">
+        <v>0</v>
+      </c>
+      <c r="DH193">
+        <v>0</v>
+      </c>
+      <c r="DI193">
+        <v>0</v>
+      </c>
+      <c r="DJ193">
+        <v>0</v>
+      </c>
+      <c r="DK193">
+        <v>0</v>
+      </c>
+      <c r="DL193">
+        <v>0</v>
+      </c>
+      <c r="DM193">
+        <v>0</v>
+      </c>
+      <c r="DN193">
+        <v>0</v>
+      </c>
+      <c r="DO193">
+        <v>0</v>
+      </c>
+      <c r="DP193">
+        <v>0</v>
+      </c>
+      <c r="DQ193">
+        <v>0</v>
+      </c>
+      <c r="DR193">
+        <v>0</v>
+      </c>
+      <c r="DS193">
+        <v>1</v>
+      </c>
+      <c r="DT193">
+        <v>0</v>
+      </c>
+      <c r="DU193">
+        <v>0</v>
+      </c>
+      <c r="DV193">
+        <v>0</v>
+      </c>
+      <c r="DW193">
+        <v>0</v>
+      </c>
+      <c r="DX193">
+        <v>0</v>
+      </c>
+      <c r="DY193">
+        <v>0</v>
+      </c>
+      <c r="DZ193">
+        <v>0</v>
+      </c>
+      <c r="EA193">
+        <v>0</v>
+      </c>
+      <c r="EB193">
+        <v>0</v>
+      </c>
+      <c r="EC193">
+        <v>0</v>
+      </c>
+      <c r="ED193">
+        <v>0</v>
+      </c>
+      <c r="EE193">
+        <v>0</v>
+      </c>
+      <c r="EF193">
+        <v>0</v>
+      </c>
+      <c r="EG193">
+        <v>0</v>
+      </c>
+      <c r="EH193">
+        <v>0</v>
+      </c>
+      <c r="EI193">
+        <v>1</v>
+      </c>
+      <c r="EJ193">
+        <v>1</v>
+      </c>
+      <c r="EK193">
+        <v>0</v>
+      </c>
+      <c r="EL193">
+        <v>0</v>
+      </c>
+      <c r="EM193">
+        <v>0</v>
+      </c>
+      <c r="EN193">
+        <v>0</v>
+      </c>
+      <c r="EO193">
+        <v>0</v>
+      </c>
+      <c r="EP193">
+        <v>0</v>
+      </c>
+      <c r="EQ193">
+        <v>0</v>
+      </c>
+      <c r="ER193">
+        <v>0</v>
+      </c>
+      <c r="ES193">
+        <v>0</v>
+      </c>
+      <c r="ET193">
+        <v>0</v>
+      </c>
+      <c r="EU193">
+        <v>0</v>
+      </c>
+      <c r="EV193">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EV193"/>
+  <dimension ref="A1:EV194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -91743,6 +91743,478 @@
         <v>0</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Summer Movies</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2024/2024-07-30/20240730.R</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2024/2024-07-30///20240730.png</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>0</v>
+      </c>
+      <c r="AC194">
+        <v>0</v>
+      </c>
+      <c r="AD194">
+        <v>0</v>
+      </c>
+      <c r="AE194">
+        <v>0</v>
+      </c>
+      <c r="AF194">
+        <v>0</v>
+      </c>
+      <c r="AG194">
+        <v>0</v>
+      </c>
+      <c r="AH194">
+        <v>0</v>
+      </c>
+      <c r="AI194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
+        <v>0</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AL194">
+        <v>0</v>
+      </c>
+      <c r="AM194">
+        <v>0</v>
+      </c>
+      <c r="AN194">
+        <v>0</v>
+      </c>
+      <c r="AO194">
+        <v>0</v>
+      </c>
+      <c r="AP194">
+        <v>0</v>
+      </c>
+      <c r="AQ194">
+        <v>0</v>
+      </c>
+      <c r="AR194">
+        <v>0</v>
+      </c>
+      <c r="AS194">
+        <v>0</v>
+      </c>
+      <c r="AT194">
+        <v>0</v>
+      </c>
+      <c r="AU194">
+        <v>0</v>
+      </c>
+      <c r="AV194">
+        <v>0</v>
+      </c>
+      <c r="AW194">
+        <v>0</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>1</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
+      </c>
+      <c r="BH194">
+        <v>0</v>
+      </c>
+      <c r="BI194">
+        <v>0</v>
+      </c>
+      <c r="BJ194">
+        <v>0</v>
+      </c>
+      <c r="BK194">
+        <v>1</v>
+      </c>
+      <c r="BL194">
+        <v>0</v>
+      </c>
+      <c r="BM194">
+        <v>0</v>
+      </c>
+      <c r="BN194">
+        <v>0</v>
+      </c>
+      <c r="BO194">
+        <v>0</v>
+      </c>
+      <c r="BP194">
+        <v>0</v>
+      </c>
+      <c r="BQ194">
+        <v>0</v>
+      </c>
+      <c r="BR194">
+        <v>0</v>
+      </c>
+      <c r="BS194">
+        <v>0</v>
+      </c>
+      <c r="BT194">
+        <v>0</v>
+      </c>
+      <c r="BU194">
+        <v>0</v>
+      </c>
+      <c r="BV194">
+        <v>0</v>
+      </c>
+      <c r="BW194">
+        <v>0</v>
+      </c>
+      <c r="BX194">
+        <v>0</v>
+      </c>
+      <c r="BY194">
+        <v>0</v>
+      </c>
+      <c r="BZ194">
+        <v>0</v>
+      </c>
+      <c r="CA194">
+        <v>0</v>
+      </c>
+      <c r="CB194">
+        <v>0</v>
+      </c>
+      <c r="CC194">
+        <v>0</v>
+      </c>
+      <c r="CD194">
+        <v>0</v>
+      </c>
+      <c r="CE194">
+        <v>0</v>
+      </c>
+      <c r="CF194">
+        <v>0</v>
+      </c>
+      <c r="CG194">
+        <v>0</v>
+      </c>
+      <c r="CH194">
+        <v>0</v>
+      </c>
+      <c r="CI194">
+        <v>0</v>
+      </c>
+      <c r="CJ194">
+        <v>0</v>
+      </c>
+      <c r="CK194">
+        <v>1</v>
+      </c>
+      <c r="CL194">
+        <v>0</v>
+      </c>
+      <c r="CM194">
+        <v>0</v>
+      </c>
+      <c r="CN194">
+        <v>0</v>
+      </c>
+      <c r="CO194">
+        <v>0</v>
+      </c>
+      <c r="CP194">
+        <v>0</v>
+      </c>
+      <c r="CQ194">
+        <v>0</v>
+      </c>
+      <c r="CR194">
+        <v>0</v>
+      </c>
+      <c r="CS194">
+        <v>0</v>
+      </c>
+      <c r="CT194">
+        <v>0</v>
+      </c>
+      <c r="CU194">
+        <v>0</v>
+      </c>
+      <c r="CV194">
+        <v>0</v>
+      </c>
+      <c r="CW194">
+        <v>0</v>
+      </c>
+      <c r="CX194">
+        <v>0</v>
+      </c>
+      <c r="CY194">
+        <v>0</v>
+      </c>
+      <c r="CZ194">
+        <v>0</v>
+      </c>
+      <c r="DA194">
+        <v>0</v>
+      </c>
+      <c r="DB194">
+        <v>0</v>
+      </c>
+      <c r="DC194">
+        <v>0</v>
+      </c>
+      <c r="DD194">
+        <v>0</v>
+      </c>
+      <c r="DE194">
+        <v>0</v>
+      </c>
+      <c r="DF194">
+        <v>0</v>
+      </c>
+      <c r="DG194">
+        <v>0</v>
+      </c>
+      <c r="DH194">
+        <v>0</v>
+      </c>
+      <c r="DI194">
+        <v>0</v>
+      </c>
+      <c r="DJ194">
+        <v>0</v>
+      </c>
+      <c r="DK194">
+        <v>0</v>
+      </c>
+      <c r="DL194">
+        <v>0</v>
+      </c>
+      <c r="DM194">
+        <v>0</v>
+      </c>
+      <c r="DN194">
+        <v>0</v>
+      </c>
+      <c r="DO194">
+        <v>0</v>
+      </c>
+      <c r="DP194">
+        <v>0</v>
+      </c>
+      <c r="DQ194">
+        <v>0</v>
+      </c>
+      <c r="DR194">
+        <v>0</v>
+      </c>
+      <c r="DS194">
+        <v>1</v>
+      </c>
+      <c r="DT194">
+        <v>0</v>
+      </c>
+      <c r="DU194">
+        <v>0</v>
+      </c>
+      <c r="DV194">
+        <v>0</v>
+      </c>
+      <c r="DW194">
+        <v>0</v>
+      </c>
+      <c r="DX194">
+        <v>0</v>
+      </c>
+      <c r="DY194">
+        <v>0</v>
+      </c>
+      <c r="DZ194">
+        <v>0</v>
+      </c>
+      <c r="EA194">
+        <v>0</v>
+      </c>
+      <c r="EB194">
+        <v>0</v>
+      </c>
+      <c r="EC194">
+        <v>0</v>
+      </c>
+      <c r="ED194">
+        <v>0</v>
+      </c>
+      <c r="EE194">
+        <v>0</v>
+      </c>
+      <c r="EF194">
+        <v>0</v>
+      </c>
+      <c r="EG194">
+        <v>0</v>
+      </c>
+      <c r="EH194">
+        <v>0</v>
+      </c>
+      <c r="EI194">
+        <v>1</v>
+      </c>
+      <c r="EJ194">
+        <v>1</v>
+      </c>
+      <c r="EK194">
+        <v>0</v>
+      </c>
+      <c r="EL194">
+        <v>0</v>
+      </c>
+      <c r="EM194">
+        <v>0</v>
+      </c>
+      <c r="EN194">
+        <v>0</v>
+      </c>
+      <c r="EO194">
+        <v>0</v>
+      </c>
+      <c r="EP194">
+        <v>0</v>
+      </c>
+      <c r="EQ194">
+        <v>0</v>
+      </c>
+      <c r="ER194">
+        <v>0</v>
+      </c>
+      <c r="ES194">
+        <v>0</v>
+      </c>
+      <c r="ET194">
+        <v>0</v>
+      </c>
+      <c r="EU194">
+        <v>0</v>
+      </c>
+      <c r="EV194">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EV194"/>
+  <dimension ref="A1:EW195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,85 +1035,90 @@
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
+          <t>tibble</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
           <t>tidyr</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>tidyterra</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>tidytext</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>tidytuesdayR</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>tidyverse</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>tigris</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>tm</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>tmap</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>transformr</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>treemapify</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>tsibble</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>usefunc</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>usmap</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>viridis</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>VoronoiPlus</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>waffle</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>wordcloud2</t>
         </is>
@@ -1590,6 +1595,9 @@
       <c r="EV2">
         <v>0</v>
       </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2024,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="EJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2060,6 +2068,9 @@
         <v>0</v>
       </c>
       <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
         <v>0</v>
       </c>
     </row>
@@ -2493,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="EI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
         <v>1</v>
       </c>
       <c r="EK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2532,6 +2543,9 @@
         <v>0</v>
       </c>
       <c r="EV4">
+        <v>0</v>
+      </c>
+      <c r="EW4">
         <v>0</v>
       </c>
     </row>
@@ -2965,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="EI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
         <v>1</v>
       </c>
       <c r="EK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL5">
         <v>0</v>
@@ -2989,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="EQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES5">
         <v>0</v>
@@ -3004,6 +3018,9 @@
         <v>0</v>
       </c>
       <c r="EV5">
+        <v>0</v>
+      </c>
+      <c r="EW5">
         <v>0</v>
       </c>
     </row>
@@ -3440,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="EJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3461,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="EQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES6">
         <v>0</v>
@@ -3476,6 +3493,9 @@
         <v>0</v>
       </c>
       <c r="EV6">
+        <v>0</v>
+      </c>
+      <c r="EW6">
         <v>0</v>
       </c>
     </row>
@@ -3912,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="EJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL7">
         <v>0</v>
@@ -3945,9 +3965,12 @@
         <v>0</v>
       </c>
       <c r="EU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV7">
+        <v>1</v>
+      </c>
+      <c r="EW7">
         <v>0</v>
       </c>
     </row>
@@ -4384,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="EJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL8">
         <v>0</v>
@@ -4420,6 +4443,9 @@
         <v>0</v>
       </c>
       <c r="EV8">
+        <v>0</v>
+      </c>
+      <c r="EW8">
         <v>0</v>
       </c>
     </row>
@@ -4853,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="EI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ9">
         <v>1</v>
       </c>
       <c r="EK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4892,6 +4918,9 @@
         <v>0</v>
       </c>
       <c r="EV9">
+        <v>0</v>
+      </c>
+      <c r="EW9">
         <v>0</v>
       </c>
     </row>
@@ -5325,13 +5354,13 @@
         <v>0</v>
       </c>
       <c r="EI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ10">
         <v>1</v>
       </c>
       <c r="EK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL10">
         <v>0</v>
@@ -5364,6 +5393,9 @@
         <v>0</v>
       </c>
       <c r="EV10">
+        <v>0</v>
+      </c>
+      <c r="EW10">
         <v>0</v>
       </c>
     </row>
@@ -5838,6 +5870,9 @@
       <c r="EV11">
         <v>0</v>
       </c>
+      <c r="EW11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6269,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="EI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ12">
         <v>1</v>
       </c>
       <c r="EK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6308,6 +6343,9 @@
         <v>0</v>
       </c>
       <c r="EV12">
+        <v>0</v>
+      </c>
+      <c r="EW12">
         <v>0</v>
       </c>
     </row>
@@ -6753,10 +6791,10 @@
         <v>0</v>
       </c>
       <c r="EM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO13">
         <v>0</v>
@@ -6780,6 +6818,9 @@
         <v>0</v>
       </c>
       <c r="EV13">
+        <v>0</v>
+      </c>
+      <c r="EW13">
         <v>0</v>
       </c>
     </row>
@@ -7213,13 +7254,13 @@
         <v>0</v>
       </c>
       <c r="EI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ14">
         <v>1</v>
       </c>
       <c r="EK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -7252,6 +7293,9 @@
         <v>0</v>
       </c>
       <c r="EV14">
+        <v>0</v>
+      </c>
+      <c r="EW14">
         <v>0</v>
       </c>
     </row>
@@ -7685,13 +7729,13 @@
         <v>0</v>
       </c>
       <c r="EI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ15">
         <v>1</v>
       </c>
       <c r="EK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL15">
         <v>0</v>
@@ -7724,6 +7768,9 @@
         <v>0</v>
       </c>
       <c r="EV15">
+        <v>0</v>
+      </c>
+      <c r="EW15">
         <v>0</v>
       </c>
     </row>
@@ -8157,13 +8204,13 @@
         <v>0</v>
       </c>
       <c r="EI16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ16">
         <v>1</v>
       </c>
       <c r="EK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL16">
         <v>0</v>
@@ -8196,6 +8243,9 @@
         <v>0</v>
       </c>
       <c r="EV16">
+        <v>0</v>
+      </c>
+      <c r="EW16">
         <v>0</v>
       </c>
     </row>
@@ -8629,13 +8679,13 @@
         <v>0</v>
       </c>
       <c r="EI17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ17">
         <v>1</v>
       </c>
       <c r="EK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL17">
         <v>0</v>
@@ -8653,10 +8703,10 @@
         <v>0</v>
       </c>
       <c r="EQ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES17">
         <v>0</v>
@@ -8668,6 +8718,9 @@
         <v>0</v>
       </c>
       <c r="EV17">
+        <v>0</v>
+      </c>
+      <c r="EW17">
         <v>0</v>
       </c>
     </row>
@@ -9101,13 +9154,13 @@
         <v>0</v>
       </c>
       <c r="EI18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ18">
         <v>1</v>
       </c>
       <c r="EK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL18">
         <v>0</v>
@@ -9116,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="EN18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP18">
         <v>0</v>
@@ -9140,6 +9193,9 @@
         <v>0</v>
       </c>
       <c r="EV18">
+        <v>0</v>
+      </c>
+      <c r="EW18">
         <v>0</v>
       </c>
     </row>
@@ -9573,13 +9629,13 @@
         <v>0</v>
       </c>
       <c r="EI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ19">
         <v>1</v>
       </c>
       <c r="EK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL19">
         <v>0</v>
@@ -9612,6 +9668,9 @@
         <v>0</v>
       </c>
       <c r="EV19">
+        <v>0</v>
+      </c>
+      <c r="EW19">
         <v>0</v>
       </c>
     </row>
@@ -10045,13 +10104,13 @@
         <v>0</v>
       </c>
       <c r="EI20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ20">
         <v>1</v>
       </c>
       <c r="EK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL20">
         <v>0</v>
@@ -10084,6 +10143,9 @@
         <v>0</v>
       </c>
       <c r="EV20">
+        <v>0</v>
+      </c>
+      <c r="EW20">
         <v>0</v>
       </c>
     </row>
@@ -10517,13 +10579,13 @@
         <v>0</v>
       </c>
       <c r="EI21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ21">
         <v>1</v>
       </c>
       <c r="EK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL21">
         <v>0</v>
@@ -10556,6 +10618,9 @@
         <v>0</v>
       </c>
       <c r="EV21">
+        <v>0</v>
+      </c>
+      <c r="EW21">
         <v>0</v>
       </c>
     </row>
@@ -10989,13 +11054,13 @@
         <v>0</v>
       </c>
       <c r="EI22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ22">
         <v>1</v>
       </c>
       <c r="EK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL22">
         <v>0</v>
@@ -11028,6 +11093,9 @@
         <v>0</v>
       </c>
       <c r="EV22">
+        <v>0</v>
+      </c>
+      <c r="EW22">
         <v>0</v>
       </c>
     </row>
@@ -11461,13 +11529,13 @@
         <v>0</v>
       </c>
       <c r="EI23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ23">
         <v>1</v>
       </c>
       <c r="EK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL23">
         <v>0</v>
@@ -11500,6 +11568,9 @@
         <v>0</v>
       </c>
       <c r="EV23">
+        <v>0</v>
+      </c>
+      <c r="EW23">
         <v>0</v>
       </c>
     </row>
@@ -11933,13 +12004,13 @@
         <v>0</v>
       </c>
       <c r="EI24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ24">
         <v>1</v>
       </c>
       <c r="EK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL24">
         <v>0</v>
@@ -11972,6 +12043,9 @@
         <v>0</v>
       </c>
       <c r="EV24">
+        <v>0</v>
+      </c>
+      <c r="EW24">
         <v>0</v>
       </c>
     </row>
@@ -12408,10 +12482,10 @@
         <v>0</v>
       </c>
       <c r="EJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL25">
         <v>0</v>
@@ -12444,6 +12518,9 @@
         <v>0</v>
       </c>
       <c r="EV25">
+        <v>0</v>
+      </c>
+      <c r="EW25">
         <v>0</v>
       </c>
     </row>
@@ -12877,13 +12954,13 @@
         <v>0</v>
       </c>
       <c r="EI26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ26">
         <v>1</v>
       </c>
       <c r="EK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL26">
         <v>0</v>
@@ -12916,6 +12993,9 @@
         <v>0</v>
       </c>
       <c r="EV26">
+        <v>0</v>
+      </c>
+      <c r="EW26">
         <v>0</v>
       </c>
     </row>
@@ -13349,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="EI27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ27">
         <v>1</v>
@@ -13358,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="EL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM27">
         <v>0</v>
@@ -13388,6 +13468,9 @@
         <v>0</v>
       </c>
       <c r="EV27">
+        <v>0</v>
+      </c>
+      <c r="EW27">
         <v>0</v>
       </c>
     </row>
@@ -13821,13 +13904,13 @@
         <v>0</v>
       </c>
       <c r="EI28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ28">
         <v>1</v>
       </c>
       <c r="EK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL28">
         <v>0</v>
@@ -13860,6 +13943,9 @@
         <v>0</v>
       </c>
       <c r="EV28">
+        <v>0</v>
+      </c>
+      <c r="EW28">
         <v>0</v>
       </c>
     </row>
@@ -14293,13 +14379,13 @@
         <v>0</v>
       </c>
       <c r="EI29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ29">
         <v>1</v>
       </c>
       <c r="EK29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL29">
         <v>0</v>
@@ -14332,6 +14418,9 @@
         <v>0</v>
       </c>
       <c r="EV29">
+        <v>0</v>
+      </c>
+      <c r="EW29">
         <v>0</v>
       </c>
     </row>
@@ -14765,13 +14854,13 @@
         <v>0</v>
       </c>
       <c r="EI30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ30">
         <v>1</v>
       </c>
       <c r="EK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL30">
         <v>0</v>
@@ -14804,6 +14893,9 @@
         <v>0</v>
       </c>
       <c r="EV30">
+        <v>0</v>
+      </c>
+      <c r="EW30">
         <v>0</v>
       </c>
     </row>
@@ -15237,13 +15329,13 @@
         <v>0</v>
       </c>
       <c r="EI31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ31">
         <v>1</v>
       </c>
       <c r="EK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL31">
         <v>0</v>
@@ -15276,6 +15368,9 @@
         <v>0</v>
       </c>
       <c r="EV31">
+        <v>0</v>
+      </c>
+      <c r="EW31">
         <v>0</v>
       </c>
     </row>
@@ -15709,13 +15804,13 @@
         <v>0</v>
       </c>
       <c r="EI32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ32">
         <v>1</v>
       </c>
       <c r="EK32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL32">
         <v>0</v>
@@ -15748,6 +15843,9 @@
         <v>0</v>
       </c>
       <c r="EV32">
+        <v>0</v>
+      </c>
+      <c r="EW32">
         <v>0</v>
       </c>
     </row>
@@ -16181,13 +16279,13 @@
         <v>0</v>
       </c>
       <c r="EI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ33">
         <v>1</v>
       </c>
       <c r="EK33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL33">
         <v>0</v>
@@ -16220,6 +16318,9 @@
         <v>0</v>
       </c>
       <c r="EV33">
+        <v>0</v>
+      </c>
+      <c r="EW33">
         <v>0</v>
       </c>
     </row>
@@ -16653,13 +16754,13 @@
         <v>0</v>
       </c>
       <c r="EI34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ34">
         <v>1</v>
       </c>
       <c r="EK34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL34">
         <v>0</v>
@@ -16692,6 +16793,9 @@
         <v>0</v>
       </c>
       <c r="EV34">
+        <v>0</v>
+      </c>
+      <c r="EW34">
         <v>0</v>
       </c>
     </row>
@@ -17125,13 +17229,13 @@
         <v>0</v>
       </c>
       <c r="EI35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ35">
         <v>1</v>
       </c>
       <c r="EK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL35">
         <v>0</v>
@@ -17164,6 +17268,9 @@
         <v>0</v>
       </c>
       <c r="EV35">
+        <v>0</v>
+      </c>
+      <c r="EW35">
         <v>0</v>
       </c>
     </row>
@@ -17597,19 +17704,19 @@
         <v>0</v>
       </c>
       <c r="EI36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ36">
         <v>1</v>
       </c>
       <c r="EK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN36">
         <v>0</v>
@@ -17636,6 +17743,9 @@
         <v>0</v>
       </c>
       <c r="EV36">
+        <v>0</v>
+      </c>
+      <c r="EW36">
         <v>1</v>
       </c>
     </row>
@@ -18069,13 +18179,13 @@
         <v>0</v>
       </c>
       <c r="EI37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ37">
         <v>1</v>
       </c>
       <c r="EK37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL37">
         <v>0</v>
@@ -18108,6 +18218,9 @@
         <v>0</v>
       </c>
       <c r="EV37">
+        <v>0</v>
+      </c>
+      <c r="EW37">
         <v>0</v>
       </c>
     </row>
@@ -18541,13 +18654,13 @@
         <v>0</v>
       </c>
       <c r="EI38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ38">
         <v>1</v>
       </c>
       <c r="EK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL38">
         <v>0</v>
@@ -18580,6 +18693,9 @@
         <v>0</v>
       </c>
       <c r="EV38">
+        <v>0</v>
+      </c>
+      <c r="EW38">
         <v>0</v>
       </c>
     </row>
@@ -19016,10 +19132,10 @@
         <v>0</v>
       </c>
       <c r="EJ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL39">
         <v>0</v>
@@ -19052,6 +19168,9 @@
         <v>0</v>
       </c>
       <c r="EV39">
+        <v>0</v>
+      </c>
+      <c r="EW39">
         <v>0</v>
       </c>
     </row>
@@ -19485,13 +19604,13 @@
         <v>0</v>
       </c>
       <c r="EI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ40">
         <v>1</v>
       </c>
       <c r="EK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL40">
         <v>0</v>
@@ -19524,6 +19643,9 @@
         <v>0</v>
       </c>
       <c r="EV40">
+        <v>0</v>
+      </c>
+      <c r="EW40">
         <v>0</v>
       </c>
     </row>
@@ -19957,13 +20079,13 @@
         <v>0</v>
       </c>
       <c r="EI41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ41">
         <v>1</v>
       </c>
       <c r="EK41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL41">
         <v>0</v>
@@ -19996,6 +20118,9 @@
         <v>0</v>
       </c>
       <c r="EV41">
+        <v>0</v>
+      </c>
+      <c r="EW41">
         <v>0</v>
       </c>
     </row>
@@ -20429,13 +20554,13 @@
         <v>0</v>
       </c>
       <c r="EI42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ42">
         <v>1</v>
       </c>
       <c r="EK42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL42">
         <v>0</v>
@@ -20468,6 +20593,9 @@
         <v>0</v>
       </c>
       <c r="EV42">
+        <v>0</v>
+      </c>
+      <c r="EW42">
         <v>0</v>
       </c>
     </row>
@@ -20901,13 +21029,13 @@
         <v>0</v>
       </c>
       <c r="EI43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ43">
         <v>1</v>
       </c>
       <c r="EK43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL43">
         <v>0</v>
@@ -20937,9 +21065,12 @@
         <v>0</v>
       </c>
       <c r="EU43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV43">
+        <v>1</v>
+      </c>
+      <c r="EW43">
         <v>0</v>
       </c>
     </row>
@@ -21373,13 +21504,13 @@
         <v>0</v>
       </c>
       <c r="EI44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ44">
         <v>1</v>
       </c>
       <c r="EK44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL44">
         <v>0</v>
@@ -21412,6 +21543,9 @@
         <v>0</v>
       </c>
       <c r="EV44">
+        <v>0</v>
+      </c>
+      <c r="EW44">
         <v>0</v>
       </c>
     </row>
@@ -21845,13 +21979,13 @@
         <v>0</v>
       </c>
       <c r="EI45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ45">
         <v>1</v>
       </c>
       <c r="EK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL45">
         <v>0</v>
@@ -21884,6 +22018,9 @@
         <v>0</v>
       </c>
       <c r="EV45">
+        <v>0</v>
+      </c>
+      <c r="EW45">
         <v>0</v>
       </c>
     </row>
@@ -22317,13 +22454,13 @@
         <v>0</v>
       </c>
       <c r="EI46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ46">
         <v>1</v>
       </c>
       <c r="EK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL46">
         <v>0</v>
@@ -22356,6 +22493,9 @@
         <v>0</v>
       </c>
       <c r="EV46">
+        <v>0</v>
+      </c>
+      <c r="EW46">
         <v>0</v>
       </c>
     </row>
@@ -22789,13 +22929,13 @@
         <v>0</v>
       </c>
       <c r="EI47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ47">
         <v>1</v>
       </c>
       <c r="EK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL47">
         <v>0</v>
@@ -22828,6 +22968,9 @@
         <v>0</v>
       </c>
       <c r="EV47">
+        <v>0</v>
+      </c>
+      <c r="EW47">
         <v>0</v>
       </c>
     </row>
@@ -23261,13 +23404,13 @@
         <v>0</v>
       </c>
       <c r="EI48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ48">
         <v>1</v>
       </c>
       <c r="EK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL48">
         <v>0</v>
@@ -23300,6 +23443,9 @@
         <v>0</v>
       </c>
       <c r="EV48">
+        <v>0</v>
+      </c>
+      <c r="EW48">
         <v>0</v>
       </c>
     </row>
@@ -23733,13 +23879,13 @@
         <v>0</v>
       </c>
       <c r="EI49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ49">
         <v>1</v>
       </c>
       <c r="EK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL49">
         <v>0</v>
@@ -23772,6 +23918,9 @@
         <v>0</v>
       </c>
       <c r="EV49">
+        <v>0</v>
+      </c>
+      <c r="EW49">
         <v>0</v>
       </c>
     </row>
@@ -24205,13 +24354,13 @@
         <v>0</v>
       </c>
       <c r="EI50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ50">
         <v>1</v>
       </c>
       <c r="EK50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL50">
         <v>0</v>
@@ -24244,6 +24393,9 @@
         <v>0</v>
       </c>
       <c r="EV50">
+        <v>0</v>
+      </c>
+      <c r="EW50">
         <v>0</v>
       </c>
     </row>
@@ -24677,10 +24829,10 @@
         <v>0</v>
       </c>
       <c r="EI51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK51">
         <v>0</v>
@@ -24716,6 +24868,9 @@
         <v>0</v>
       </c>
       <c r="EV51">
+        <v>0</v>
+      </c>
+      <c r="EW51">
         <v>0</v>
       </c>
     </row>
@@ -25152,10 +25307,10 @@
         <v>0</v>
       </c>
       <c r="EJ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL52">
         <v>0</v>
@@ -25188,6 +25343,9 @@
         <v>0</v>
       </c>
       <c r="EV52">
+        <v>0</v>
+      </c>
+      <c r="EW52">
         <v>0</v>
       </c>
     </row>
@@ -25621,13 +25779,13 @@
         <v>0</v>
       </c>
       <c r="EI53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ53">
         <v>1</v>
       </c>
       <c r="EK53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL53">
         <v>0</v>
@@ -25651,15 +25809,18 @@
         <v>0</v>
       </c>
       <c r="ES53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU53">
         <v>0</v>
       </c>
       <c r="EV53">
+        <v>0</v>
+      </c>
+      <c r="EW53">
         <v>0</v>
       </c>
     </row>
@@ -26093,13 +26254,13 @@
         <v>0</v>
       </c>
       <c r="EI54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ54">
         <v>1</v>
       </c>
       <c r="EK54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL54">
         <v>0</v>
@@ -26123,15 +26284,18 @@
         <v>0</v>
       </c>
       <c r="ES54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU54">
         <v>0</v>
       </c>
       <c r="EV54">
+        <v>0</v>
+      </c>
+      <c r="EW54">
         <v>0</v>
       </c>
     </row>
@@ -26568,10 +26732,10 @@
         <v>0</v>
       </c>
       <c r="EJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL55">
         <v>0</v>
@@ -26604,6 +26768,9 @@
         <v>0</v>
       </c>
       <c r="EV55">
+        <v>0</v>
+      </c>
+      <c r="EW55">
         <v>0</v>
       </c>
     </row>
@@ -27037,13 +27204,13 @@
         <v>0</v>
       </c>
       <c r="EI56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ56">
         <v>1</v>
       </c>
       <c r="EK56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL56">
         <v>0</v>
@@ -27076,6 +27243,9 @@
         <v>0</v>
       </c>
       <c r="EV56">
+        <v>0</v>
+      </c>
+      <c r="EW56">
         <v>0</v>
       </c>
     </row>
@@ -27512,10 +27682,10 @@
         <v>0</v>
       </c>
       <c r="EJ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL57">
         <v>0</v>
@@ -27548,6 +27718,9 @@
         <v>0</v>
       </c>
       <c r="EV57">
+        <v>0</v>
+      </c>
+      <c r="EW57">
         <v>0</v>
       </c>
     </row>
@@ -27984,10 +28157,10 @@
         <v>0</v>
       </c>
       <c r="EJ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL58">
         <v>0</v>
@@ -28020,6 +28193,9 @@
         <v>0</v>
       </c>
       <c r="EV58">
+        <v>0</v>
+      </c>
+      <c r="EW58">
         <v>0</v>
       </c>
     </row>
@@ -28453,13 +28629,13 @@
         <v>0</v>
       </c>
       <c r="EI59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ59">
         <v>1</v>
       </c>
       <c r="EK59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL59">
         <v>0</v>
@@ -28492,6 +28668,9 @@
         <v>0</v>
       </c>
       <c r="EV59">
+        <v>0</v>
+      </c>
+      <c r="EW59">
         <v>0</v>
       </c>
     </row>
@@ -28925,13 +29104,13 @@
         <v>0</v>
       </c>
       <c r="EI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ60">
         <v>1</v>
       </c>
       <c r="EK60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL60">
         <v>0</v>
@@ -28964,6 +29143,9 @@
         <v>0</v>
       </c>
       <c r="EV60">
+        <v>0</v>
+      </c>
+      <c r="EW60">
         <v>0</v>
       </c>
     </row>
@@ -29438,6 +29620,9 @@
       <c r="EV61">
         <v>0</v>
       </c>
+      <c r="EW61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -29869,13 +30054,13 @@
         <v>0</v>
       </c>
       <c r="EI62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ62">
         <v>1</v>
       </c>
       <c r="EK62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL62">
         <v>0</v>
@@ -29908,6 +30093,9 @@
         <v>0</v>
       </c>
       <c r="EV62">
+        <v>0</v>
+      </c>
+      <c r="EW62">
         <v>0</v>
       </c>
     </row>
@@ -30341,13 +30529,13 @@
         <v>0</v>
       </c>
       <c r="EI63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ63">
         <v>1</v>
       </c>
       <c r="EK63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL63">
         <v>0</v>
@@ -30359,10 +30547,10 @@
         <v>0</v>
       </c>
       <c r="EO63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ63">
         <v>0</v>
@@ -30380,6 +30568,9 @@
         <v>0</v>
       </c>
       <c r="EV63">
+        <v>0</v>
+      </c>
+      <c r="EW63">
         <v>0</v>
       </c>
     </row>
@@ -30813,13 +31004,13 @@
         <v>0</v>
       </c>
       <c r="EI64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ64">
         <v>1</v>
       </c>
       <c r="EK64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL64">
         <v>0</v>
@@ -30852,6 +31043,9 @@
         <v>0</v>
       </c>
       <c r="EV64">
+        <v>0</v>
+      </c>
+      <c r="EW64">
         <v>0</v>
       </c>
     </row>
@@ -31288,10 +31482,10 @@
         <v>0</v>
       </c>
       <c r="EJ65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL65">
         <v>0</v>
@@ -31324,6 +31518,9 @@
         <v>0</v>
       </c>
       <c r="EV65">
+        <v>0</v>
+      </c>
+      <c r="EW65">
         <v>0</v>
       </c>
     </row>
@@ -31757,13 +31954,13 @@
         <v>0</v>
       </c>
       <c r="EI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ66">
         <v>1</v>
       </c>
       <c r="EK66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL66">
         <v>0</v>
@@ -31781,10 +31978,10 @@
         <v>0</v>
       </c>
       <c r="EQ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES66">
         <v>0</v>
@@ -31796,6 +31993,9 @@
         <v>0</v>
       </c>
       <c r="EV66">
+        <v>0</v>
+      </c>
+      <c r="EW66">
         <v>0</v>
       </c>
     </row>
@@ -32232,10 +32432,10 @@
         <v>0</v>
       </c>
       <c r="EJ67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL67">
         <v>0</v>
@@ -32268,6 +32468,9 @@
         <v>0</v>
       </c>
       <c r="EV67">
+        <v>0</v>
+      </c>
+      <c r="EW67">
         <v>0</v>
       </c>
     </row>
@@ -32701,13 +32904,13 @@
         <v>0</v>
       </c>
       <c r="EI68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ68">
         <v>1</v>
       </c>
       <c r="EK68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL68">
         <v>0</v>
@@ -32725,10 +32928,10 @@
         <v>0</v>
       </c>
       <c r="EQ68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES68">
         <v>0</v>
@@ -32740,6 +32943,9 @@
         <v>0</v>
       </c>
       <c r="EV68">
+        <v>0</v>
+      </c>
+      <c r="EW68">
         <v>0</v>
       </c>
     </row>
@@ -33173,13 +33379,13 @@
         <v>0</v>
       </c>
       <c r="EI69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ69">
         <v>1</v>
       </c>
       <c r="EK69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL69">
         <v>0</v>
@@ -33197,10 +33403,10 @@
         <v>0</v>
       </c>
       <c r="EQ69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES69">
         <v>0</v>
@@ -33212,6 +33418,9 @@
         <v>0</v>
       </c>
       <c r="EV69">
+        <v>0</v>
+      </c>
+      <c r="EW69">
         <v>0</v>
       </c>
     </row>
@@ -33645,13 +33854,13 @@
         <v>0</v>
       </c>
       <c r="EI70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ70">
         <v>1</v>
       </c>
       <c r="EK70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL70">
         <v>0</v>
@@ -33669,10 +33878,10 @@
         <v>0</v>
       </c>
       <c r="EQ70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES70">
         <v>0</v>
@@ -33684,6 +33893,9 @@
         <v>0</v>
       </c>
       <c r="EV70">
+        <v>0</v>
+      </c>
+      <c r="EW70">
         <v>0</v>
       </c>
     </row>
@@ -34117,13 +34329,13 @@
         <v>0</v>
       </c>
       <c r="EI71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ71">
         <v>1</v>
       </c>
       <c r="EK71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL71">
         <v>0</v>
@@ -34141,10 +34353,10 @@
         <v>0</v>
       </c>
       <c r="EQ71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES71">
         <v>0</v>
@@ -34156,6 +34368,9 @@
         <v>0</v>
       </c>
       <c r="EV71">
+        <v>0</v>
+      </c>
+      <c r="EW71">
         <v>0</v>
       </c>
     </row>
@@ -34589,13 +34804,13 @@
         <v>0</v>
       </c>
       <c r="EI72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ72">
         <v>1</v>
       </c>
       <c r="EK72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL72">
         <v>0</v>
@@ -34613,10 +34828,10 @@
         <v>0</v>
       </c>
       <c r="EQ72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES72">
         <v>0</v>
@@ -34628,6 +34843,9 @@
         <v>0</v>
       </c>
       <c r="EV72">
+        <v>0</v>
+      </c>
+      <c r="EW72">
         <v>0</v>
       </c>
     </row>
@@ -35061,13 +35279,13 @@
         <v>0</v>
       </c>
       <c r="EI73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ73">
         <v>1</v>
       </c>
       <c r="EK73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL73">
         <v>0</v>
@@ -35085,10 +35303,10 @@
         <v>0</v>
       </c>
       <c r="EQ73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES73">
         <v>0</v>
@@ -35100,6 +35318,9 @@
         <v>0</v>
       </c>
       <c r="EV73">
+        <v>0</v>
+      </c>
+      <c r="EW73">
         <v>0</v>
       </c>
     </row>
@@ -35533,13 +35754,13 @@
         <v>0</v>
       </c>
       <c r="EI74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ74">
         <v>1</v>
       </c>
       <c r="EK74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL74">
         <v>0</v>
@@ -35557,10 +35778,10 @@
         <v>0</v>
       </c>
       <c r="EQ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES74">
         <v>0</v>
@@ -35572,6 +35793,9 @@
         <v>0</v>
       </c>
       <c r="EV74">
+        <v>0</v>
+      </c>
+      <c r="EW74">
         <v>0</v>
       </c>
     </row>
@@ -36005,13 +36229,13 @@
         <v>0</v>
       </c>
       <c r="EI75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ75">
         <v>1</v>
       </c>
       <c r="EK75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL75">
         <v>0</v>
@@ -36029,10 +36253,10 @@
         <v>0</v>
       </c>
       <c r="EQ75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES75">
         <v>0</v>
@@ -36044,6 +36268,9 @@
         <v>0</v>
       </c>
       <c r="EV75">
+        <v>0</v>
+      </c>
+      <c r="EW75">
         <v>0</v>
       </c>
     </row>
@@ -36474,7 +36701,7 @@
         <v>0</v>
       </c>
       <c r="EH76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI76">
         <v>1</v>
@@ -36483,7 +36710,7 @@
         <v>1</v>
       </c>
       <c r="EK76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL76">
         <v>0</v>
@@ -36501,10 +36728,10 @@
         <v>0</v>
       </c>
       <c r="EQ76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES76">
         <v>0</v>
@@ -36516,6 +36743,9 @@
         <v>0</v>
       </c>
       <c r="EV76">
+        <v>0</v>
+      </c>
+      <c r="EW76">
         <v>0</v>
       </c>
     </row>
@@ -36946,7 +37176,7 @@
         <v>0</v>
       </c>
       <c r="EH77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI77">
         <v>1</v>
@@ -36955,7 +37185,7 @@
         <v>1</v>
       </c>
       <c r="EK77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL77">
         <v>0</v>
@@ -36973,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="EQ77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES77">
         <v>0</v>
@@ -36988,6 +37218,9 @@
         <v>0</v>
       </c>
       <c r="EV77">
+        <v>0</v>
+      </c>
+      <c r="EW77">
         <v>0</v>
       </c>
     </row>
@@ -37412,10 +37645,10 @@
         <v>0</v>
       </c>
       <c r="EF78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH78">
         <v>0</v>
@@ -37445,10 +37678,10 @@
         <v>0</v>
       </c>
       <c r="EQ78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES78">
         <v>0</v>
@@ -37460,6 +37693,9 @@
         <v>0</v>
       </c>
       <c r="EV78">
+        <v>0</v>
+      </c>
+      <c r="EW78">
         <v>0</v>
       </c>
     </row>
@@ -37896,10 +38132,10 @@
         <v>0</v>
       </c>
       <c r="EJ79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL79">
         <v>0</v>
@@ -37917,10 +38153,10 @@
         <v>0</v>
       </c>
       <c r="EQ79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES79">
         <v>0</v>
@@ -37932,6 +38168,9 @@
         <v>0</v>
       </c>
       <c r="EV79">
+        <v>0</v>
+      </c>
+      <c r="EW79">
         <v>0</v>
       </c>
     </row>
@@ -38365,13 +38604,13 @@
         <v>0</v>
       </c>
       <c r="EI80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ80">
         <v>1</v>
       </c>
       <c r="EK80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL80">
         <v>0</v>
@@ -38404,6 +38643,9 @@
         <v>0</v>
       </c>
       <c r="EV80">
+        <v>0</v>
+      </c>
+      <c r="EW80">
         <v>0</v>
       </c>
     </row>
@@ -38837,13 +39079,13 @@
         <v>0</v>
       </c>
       <c r="EI81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ81">
         <v>1</v>
       </c>
       <c r="EK81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL81">
         <v>0</v>
@@ -38861,10 +39103,10 @@
         <v>0</v>
       </c>
       <c r="EQ81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES81">
         <v>0</v>
@@ -38876,6 +39118,9 @@
         <v>0</v>
       </c>
       <c r="EV81">
+        <v>0</v>
+      </c>
+      <c r="EW81">
         <v>0</v>
       </c>
     </row>
@@ -39309,13 +39554,13 @@
         <v>0</v>
       </c>
       <c r="EI82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ82">
         <v>1</v>
       </c>
       <c r="EK82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL82">
         <v>0</v>
@@ -39348,6 +39593,9 @@
         <v>0</v>
       </c>
       <c r="EV82">
+        <v>0</v>
+      </c>
+      <c r="EW82">
         <v>0</v>
       </c>
     </row>
@@ -39784,10 +40032,10 @@
         <v>0</v>
       </c>
       <c r="EJ83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL83">
         <v>0</v>
@@ -39805,10 +40053,10 @@
         <v>0</v>
       </c>
       <c r="EQ83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES83">
         <v>0</v>
@@ -39820,6 +40068,9 @@
         <v>0</v>
       </c>
       <c r="EV83">
+        <v>0</v>
+      </c>
+      <c r="EW83">
         <v>0</v>
       </c>
     </row>
@@ -40256,10 +40507,10 @@
         <v>0</v>
       </c>
       <c r="EJ84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL84">
         <v>0</v>
@@ -40277,10 +40528,10 @@
         <v>0</v>
       </c>
       <c r="EQ84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES84">
         <v>0</v>
@@ -40292,6 +40543,9 @@
         <v>0</v>
       </c>
       <c r="EV84">
+        <v>0</v>
+      </c>
+      <c r="EW84">
         <v>0</v>
       </c>
     </row>
@@ -40728,10 +40982,10 @@
         <v>0</v>
       </c>
       <c r="EJ85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL85">
         <v>0</v>
@@ -40749,10 +41003,10 @@
         <v>0</v>
       </c>
       <c r="EQ85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES85">
         <v>0</v>
@@ -40764,6 +41018,9 @@
         <v>0</v>
       </c>
       <c r="EV85">
+        <v>0</v>
+      </c>
+      <c r="EW85">
         <v>0</v>
       </c>
     </row>
@@ -41200,10 +41457,10 @@
         <v>0</v>
       </c>
       <c r="EJ86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL86">
         <v>0</v>
@@ -41221,10 +41478,10 @@
         <v>0</v>
       </c>
       <c r="EQ86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES86">
         <v>0</v>
@@ -41236,6 +41493,9 @@
         <v>0</v>
       </c>
       <c r="EV86">
+        <v>0</v>
+      </c>
+      <c r="EW86">
         <v>0</v>
       </c>
     </row>
@@ -41672,10 +41932,10 @@
         <v>0</v>
       </c>
       <c r="EJ87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL87">
         <v>0</v>
@@ -41708,6 +41968,9 @@
         <v>0</v>
       </c>
       <c r="EV87">
+        <v>0</v>
+      </c>
+      <c r="EW87">
         <v>0</v>
       </c>
     </row>
@@ -42144,10 +42407,10 @@
         <v>0</v>
       </c>
       <c r="EJ88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL88">
         <v>0</v>
@@ -42180,6 +42443,9 @@
         <v>0</v>
       </c>
       <c r="EV88">
+        <v>0</v>
+      </c>
+      <c r="EW88">
         <v>0</v>
       </c>
     </row>
@@ -42616,10 +42882,10 @@
         <v>0</v>
       </c>
       <c r="EJ89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL89">
         <v>0</v>
@@ -42637,10 +42903,10 @@
         <v>0</v>
       </c>
       <c r="EQ89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES89">
         <v>0</v>
@@ -42652,6 +42918,9 @@
         <v>0</v>
       </c>
       <c r="EV89">
+        <v>0</v>
+      </c>
+      <c r="EW89">
         <v>0</v>
       </c>
     </row>
@@ -43088,10 +43357,10 @@
         <v>0</v>
       </c>
       <c r="EJ90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL90">
         <v>0</v>
@@ -43109,10 +43378,10 @@
         <v>0</v>
       </c>
       <c r="EQ90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES90">
         <v>0</v>
@@ -43124,6 +43393,9 @@
         <v>0</v>
       </c>
       <c r="EV90">
+        <v>0</v>
+      </c>
+      <c r="EW90">
         <v>0</v>
       </c>
     </row>
@@ -43560,10 +43832,10 @@
         <v>0</v>
       </c>
       <c r="EJ91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL91">
         <v>0</v>
@@ -43581,10 +43853,10 @@
         <v>0</v>
       </c>
       <c r="EQ91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES91">
         <v>0</v>
@@ -43596,6 +43868,9 @@
         <v>0</v>
       </c>
       <c r="EV91">
+        <v>0</v>
+      </c>
+      <c r="EW91">
         <v>0</v>
       </c>
     </row>
@@ -44032,10 +44307,10 @@
         <v>0</v>
       </c>
       <c r="EJ92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL92">
         <v>0</v>
@@ -44068,6 +44343,9 @@
         <v>0</v>
       </c>
       <c r="EV92">
+        <v>0</v>
+      </c>
+      <c r="EW92">
         <v>0</v>
       </c>
     </row>
@@ -44504,10 +44782,10 @@
         <v>0</v>
       </c>
       <c r="EJ93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL93">
         <v>0</v>
@@ -44540,6 +44818,9 @@
         <v>0</v>
       </c>
       <c r="EV93">
+        <v>0</v>
+      </c>
+      <c r="EW93">
         <v>0</v>
       </c>
     </row>
@@ -44976,10 +45257,10 @@
         <v>0</v>
       </c>
       <c r="EJ94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL94">
         <v>0</v>
@@ -44997,13 +45278,13 @@
         <v>0</v>
       </c>
       <c r="EQ94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER94">
         <v>1</v>
       </c>
       <c r="ES94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET94">
         <v>0</v>
@@ -45012,6 +45293,9 @@
         <v>0</v>
       </c>
       <c r="EV94">
+        <v>0</v>
+      </c>
+      <c r="EW94">
         <v>0</v>
       </c>
     </row>
@@ -45448,10 +45732,10 @@
         <v>0</v>
       </c>
       <c r="EJ95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL95">
         <v>0</v>
@@ -45469,10 +45753,10 @@
         <v>0</v>
       </c>
       <c r="EQ95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES95">
         <v>0</v>
@@ -45484,6 +45768,9 @@
         <v>0</v>
       </c>
       <c r="EV95">
+        <v>0</v>
+      </c>
+      <c r="EW95">
         <v>0</v>
       </c>
     </row>
@@ -45920,10 +46207,10 @@
         <v>0</v>
       </c>
       <c r="EJ96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL96">
         <v>0</v>
@@ -45941,10 +46228,10 @@
         <v>0</v>
       </c>
       <c r="EQ96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES96">
         <v>0</v>
@@ -45956,6 +46243,9 @@
         <v>0</v>
       </c>
       <c r="EV96">
+        <v>0</v>
+      </c>
+      <c r="EW96">
         <v>0</v>
       </c>
     </row>
@@ -46392,10 +46682,10 @@
         <v>0</v>
       </c>
       <c r="EJ97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL97">
         <v>0</v>
@@ -46413,10 +46703,10 @@
         <v>0</v>
       </c>
       <c r="EQ97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES97">
         <v>0</v>
@@ -46428,6 +46718,9 @@
         <v>0</v>
       </c>
       <c r="EV97">
+        <v>0</v>
+      </c>
+      <c r="EW97">
         <v>0</v>
       </c>
     </row>
@@ -46864,10 +47157,10 @@
         <v>0</v>
       </c>
       <c r="EJ98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL98">
         <v>0</v>
@@ -46885,10 +47178,10 @@
         <v>0</v>
       </c>
       <c r="EQ98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES98">
         <v>0</v>
@@ -46900,6 +47193,9 @@
         <v>0</v>
       </c>
       <c r="EV98">
+        <v>0</v>
+      </c>
+      <c r="EW98">
         <v>0</v>
       </c>
     </row>
@@ -47336,10 +47632,10 @@
         <v>0</v>
       </c>
       <c r="EJ99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL99">
         <v>0</v>
@@ -47357,10 +47653,10 @@
         <v>0</v>
       </c>
       <c r="EQ99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES99">
         <v>0</v>
@@ -47372,6 +47668,9 @@
         <v>0</v>
       </c>
       <c r="EV99">
+        <v>0</v>
+      </c>
+      <c r="EW99">
         <v>0</v>
       </c>
     </row>
@@ -47808,10 +48107,10 @@
         <v>0</v>
       </c>
       <c r="EJ100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL100">
         <v>0</v>
@@ -47829,10 +48128,10 @@
         <v>0</v>
       </c>
       <c r="EQ100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES100">
         <v>0</v>
@@ -47844,6 +48143,9 @@
         <v>0</v>
       </c>
       <c r="EV100">
+        <v>0</v>
+      </c>
+      <c r="EW100">
         <v>0</v>
       </c>
     </row>
@@ -48280,10 +48582,10 @@
         <v>0</v>
       </c>
       <c r="EJ101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL101">
         <v>0</v>
@@ -48301,10 +48603,10 @@
         <v>0</v>
       </c>
       <c r="EQ101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES101">
         <v>0</v>
@@ -48316,6 +48618,9 @@
         <v>0</v>
       </c>
       <c r="EV101">
+        <v>0</v>
+      </c>
+      <c r="EW101">
         <v>0</v>
       </c>
     </row>
@@ -48752,10 +49057,10 @@
         <v>0</v>
       </c>
       <c r="EJ102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL102">
         <v>0</v>
@@ -48773,10 +49078,10 @@
         <v>0</v>
       </c>
       <c r="EQ102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES102">
         <v>0</v>
@@ -48788,6 +49093,9 @@
         <v>0</v>
       </c>
       <c r="EV102">
+        <v>0</v>
+      </c>
+      <c r="EW102">
         <v>0</v>
       </c>
     </row>
@@ -49224,10 +49532,10 @@
         <v>0</v>
       </c>
       <c r="EJ103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL103">
         <v>0</v>
@@ -49260,6 +49568,9 @@
         <v>0</v>
       </c>
       <c r="EV103">
+        <v>0</v>
+      </c>
+      <c r="EW103">
         <v>0</v>
       </c>
     </row>
@@ -49696,10 +50007,10 @@
         <v>0</v>
       </c>
       <c r="EJ104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL104">
         <v>0</v>
@@ -49732,6 +50043,9 @@
         <v>0</v>
       </c>
       <c r="EV104">
+        <v>0</v>
+      </c>
+      <c r="EW104">
         <v>0</v>
       </c>
     </row>
@@ -50168,10 +50482,10 @@
         <v>0</v>
       </c>
       <c r="EJ105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL105">
         <v>0</v>
@@ -50204,6 +50518,9 @@
         <v>0</v>
       </c>
       <c r="EV105">
+        <v>0</v>
+      </c>
+      <c r="EW105">
         <v>0</v>
       </c>
     </row>
@@ -50640,10 +50957,10 @@
         <v>0</v>
       </c>
       <c r="EJ106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL106">
         <v>0</v>
@@ -50661,21 +50978,24 @@
         <v>0</v>
       </c>
       <c r="EQ106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU106">
         <v>0</v>
       </c>
       <c r="EV106">
+        <v>0</v>
+      </c>
+      <c r="EW106">
         <v>0</v>
       </c>
     </row>
@@ -51112,10 +51432,10 @@
         <v>0</v>
       </c>
       <c r="EJ107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL107">
         <v>0</v>
@@ -51148,6 +51468,9 @@
         <v>0</v>
       </c>
       <c r="EV107">
+        <v>0</v>
+      </c>
+      <c r="EW107">
         <v>0</v>
       </c>
     </row>
@@ -51584,10 +51907,10 @@
         <v>0</v>
       </c>
       <c r="EJ108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL108">
         <v>0</v>
@@ -51620,6 +51943,9 @@
         <v>0</v>
       </c>
       <c r="EV108">
+        <v>0</v>
+      </c>
+      <c r="EW108">
         <v>0</v>
       </c>
     </row>
@@ -52056,10 +52382,10 @@
         <v>0</v>
       </c>
       <c r="EJ109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL109">
         <v>0</v>
@@ -52077,10 +52403,10 @@
         <v>0</v>
       </c>
       <c r="EQ109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES109">
         <v>0</v>
@@ -52092,6 +52418,9 @@
         <v>0</v>
       </c>
       <c r="EV109">
+        <v>0</v>
+      </c>
+      <c r="EW109">
         <v>0</v>
       </c>
     </row>
@@ -52528,10 +52857,10 @@
         <v>0</v>
       </c>
       <c r="EJ110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL110">
         <v>0</v>
@@ -52549,10 +52878,10 @@
         <v>0</v>
       </c>
       <c r="EQ110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES110">
         <v>0</v>
@@ -52564,6 +52893,9 @@
         <v>0</v>
       </c>
       <c r="EV110">
+        <v>0</v>
+      </c>
+      <c r="EW110">
         <v>0</v>
       </c>
     </row>
@@ -53000,10 +53332,10 @@
         <v>0</v>
       </c>
       <c r="EJ111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL111">
         <v>0</v>
@@ -53036,6 +53368,9 @@
         <v>0</v>
       </c>
       <c r="EV111">
+        <v>0</v>
+      </c>
+      <c r="EW111">
         <v>0</v>
       </c>
     </row>
@@ -53472,10 +53807,10 @@
         <v>0</v>
       </c>
       <c r="EJ112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL112">
         <v>0</v>
@@ -53493,10 +53828,10 @@
         <v>0</v>
       </c>
       <c r="EQ112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES112">
         <v>0</v>
@@ -53508,6 +53843,9 @@
         <v>0</v>
       </c>
       <c r="EV112">
+        <v>0</v>
+      </c>
+      <c r="EW112">
         <v>0</v>
       </c>
     </row>
@@ -53935,19 +54273,19 @@
         <v>0</v>
       </c>
       <c r="EG113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI113">
         <v>0</v>
       </c>
       <c r="EJ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL113">
         <v>0</v>
@@ -53965,10 +54303,10 @@
         <v>0</v>
       </c>
       <c r="EQ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES113">
         <v>0</v>
@@ -53980,6 +54318,9 @@
         <v>0</v>
       </c>
       <c r="EV113">
+        <v>0</v>
+      </c>
+      <c r="EW113">
         <v>0</v>
       </c>
     </row>
@@ -54416,10 +54757,10 @@
         <v>0</v>
       </c>
       <c r="EJ114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL114">
         <v>0</v>
@@ -54452,6 +54793,9 @@
         <v>0</v>
       </c>
       <c r="EV114">
+        <v>0</v>
+      </c>
+      <c r="EW114">
         <v>0</v>
       </c>
     </row>
@@ -54888,10 +55232,10 @@
         <v>0</v>
       </c>
       <c r="EJ115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL115">
         <v>0</v>
@@ -54924,6 +55268,9 @@
         <v>0</v>
       </c>
       <c r="EV115">
+        <v>0</v>
+      </c>
+      <c r="EW115">
         <v>0</v>
       </c>
     </row>
@@ -55360,10 +55707,10 @@
         <v>0</v>
       </c>
       <c r="EJ116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL116">
         <v>0</v>
@@ -55396,6 +55743,9 @@
         <v>0</v>
       </c>
       <c r="EV116">
+        <v>0</v>
+      </c>
+      <c r="EW116">
         <v>0</v>
       </c>
     </row>
@@ -55832,10 +56182,10 @@
         <v>0</v>
       </c>
       <c r="EJ117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL117">
         <v>0</v>
@@ -55868,6 +56218,9 @@
         <v>0</v>
       </c>
       <c r="EV117">
+        <v>0</v>
+      </c>
+      <c r="EW117">
         <v>0</v>
       </c>
     </row>
@@ -56304,10 +56657,10 @@
         <v>0</v>
       </c>
       <c r="EJ118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL118">
         <v>0</v>
@@ -56340,6 +56693,9 @@
         <v>0</v>
       </c>
       <c r="EV118">
+        <v>0</v>
+      </c>
+      <c r="EW118">
         <v>0</v>
       </c>
     </row>
@@ -56776,10 +57132,10 @@
         <v>0</v>
       </c>
       <c r="EJ119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL119">
         <v>0</v>
@@ -56812,6 +57168,9 @@
         <v>0</v>
       </c>
       <c r="EV119">
+        <v>0</v>
+      </c>
+      <c r="EW119">
         <v>0</v>
       </c>
     </row>
@@ -57248,10 +57607,10 @@
         <v>0</v>
       </c>
       <c r="EJ120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL120">
         <v>0</v>
@@ -57284,6 +57643,9 @@
         <v>0</v>
       </c>
       <c r="EV120">
+        <v>0</v>
+      </c>
+      <c r="EW120">
         <v>0</v>
       </c>
     </row>
@@ -57720,10 +58082,10 @@
         <v>0</v>
       </c>
       <c r="EJ121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL121">
         <v>0</v>
@@ -57756,6 +58118,9 @@
         <v>0</v>
       </c>
       <c r="EV121">
+        <v>0</v>
+      </c>
+      <c r="EW121">
         <v>0</v>
       </c>
     </row>
@@ -58192,10 +58557,10 @@
         <v>0</v>
       </c>
       <c r="EJ122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL122">
         <v>0</v>
@@ -58228,6 +58593,9 @@
         <v>0</v>
       </c>
       <c r="EV122">
+        <v>0</v>
+      </c>
+      <c r="EW122">
         <v>0</v>
       </c>
     </row>
@@ -58664,10 +59032,10 @@
         <v>0</v>
       </c>
       <c r="EJ123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL123">
         <v>0</v>
@@ -58700,6 +59068,9 @@
         <v>0</v>
       </c>
       <c r="EV123">
+        <v>0</v>
+      </c>
+      <c r="EW123">
         <v>0</v>
       </c>
     </row>
@@ -59136,10 +59507,10 @@
         <v>0</v>
       </c>
       <c r="EJ124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL124">
         <v>0</v>
@@ -59172,6 +59543,9 @@
         <v>0</v>
       </c>
       <c r="EV124">
+        <v>0</v>
+      </c>
+      <c r="EW124">
         <v>0</v>
       </c>
     </row>
@@ -59608,10 +59982,10 @@
         <v>0</v>
       </c>
       <c r="EJ125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL125">
         <v>0</v>
@@ -59644,6 +60018,9 @@
         <v>0</v>
       </c>
       <c r="EV125">
+        <v>0</v>
+      </c>
+      <c r="EW125">
         <v>0</v>
       </c>
     </row>
@@ -60080,10 +60457,10 @@
         <v>0</v>
       </c>
       <c r="EJ126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL126">
         <v>0</v>
@@ -60116,6 +60493,9 @@
         <v>0</v>
       </c>
       <c r="EV126">
+        <v>0</v>
+      </c>
+      <c r="EW126">
         <v>0</v>
       </c>
     </row>
@@ -60552,10 +60932,10 @@
         <v>0</v>
       </c>
       <c r="EJ127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL127">
         <v>0</v>
@@ -60588,6 +60968,9 @@
         <v>0</v>
       </c>
       <c r="EV127">
+        <v>0</v>
+      </c>
+      <c r="EW127">
         <v>0</v>
       </c>
     </row>
@@ -61024,10 +61407,10 @@
         <v>0</v>
       </c>
       <c r="EJ128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL128">
         <v>0</v>
@@ -61060,6 +61443,9 @@
         <v>0</v>
       </c>
       <c r="EV128">
+        <v>0</v>
+      </c>
+      <c r="EW128">
         <v>0</v>
       </c>
     </row>
@@ -61496,10 +61882,10 @@
         <v>0</v>
       </c>
       <c r="EJ129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL129">
         <v>0</v>
@@ -61532,6 +61918,9 @@
         <v>0</v>
       </c>
       <c r="EV129">
+        <v>0</v>
+      </c>
+      <c r="EW129">
         <v>0</v>
       </c>
     </row>
@@ -61968,10 +62357,10 @@
         <v>0</v>
       </c>
       <c r="EJ130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL130">
         <v>0</v>
@@ -62004,6 +62393,9 @@
         <v>0</v>
       </c>
       <c r="EV130">
+        <v>0</v>
+      </c>
+      <c r="EW130">
         <v>0</v>
       </c>
     </row>
@@ -62440,10 +62832,10 @@
         <v>0</v>
       </c>
       <c r="EJ131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL131">
         <v>0</v>
@@ -62476,6 +62868,9 @@
         <v>0</v>
       </c>
       <c r="EV131">
+        <v>0</v>
+      </c>
+      <c r="EW131">
         <v>0</v>
       </c>
     </row>
@@ -62912,10 +63307,10 @@
         <v>0</v>
       </c>
       <c r="EJ132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL132">
         <v>0</v>
@@ -62948,6 +63343,9 @@
         <v>0</v>
       </c>
       <c r="EV132">
+        <v>0</v>
+      </c>
+      <c r="EW132">
         <v>0</v>
       </c>
     </row>
@@ -63384,10 +63782,10 @@
         <v>0</v>
       </c>
       <c r="EJ133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL133">
         <v>0</v>
@@ -63420,6 +63818,9 @@
         <v>0</v>
       </c>
       <c r="EV133">
+        <v>0</v>
+      </c>
+      <c r="EW133">
         <v>0</v>
       </c>
     </row>
@@ -63856,10 +64257,10 @@
         <v>0</v>
       </c>
       <c r="EJ134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL134">
         <v>0</v>
@@ -63892,6 +64293,9 @@
         <v>0</v>
       </c>
       <c r="EV134">
+        <v>0</v>
+      </c>
+      <c r="EW134">
         <v>0</v>
       </c>
     </row>
@@ -64328,10 +64732,10 @@
         <v>0</v>
       </c>
       <c r="EJ135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL135">
         <v>0</v>
@@ -64364,6 +64768,9 @@
         <v>0</v>
       </c>
       <c r="EV135">
+        <v>0</v>
+      </c>
+      <c r="EW135">
         <v>0</v>
       </c>
     </row>
@@ -64800,10 +65207,10 @@
         <v>0</v>
       </c>
       <c r="EJ136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL136">
         <v>0</v>
@@ -64818,10 +65225,10 @@
         <v>0</v>
       </c>
       <c r="EP136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER136">
         <v>0</v>
@@ -64836,6 +65243,9 @@
         <v>0</v>
       </c>
       <c r="EV136">
+        <v>0</v>
+      </c>
+      <c r="EW136">
         <v>0</v>
       </c>
     </row>
@@ -65272,10 +65682,10 @@
         <v>0</v>
       </c>
       <c r="EJ137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL137">
         <v>0</v>
@@ -65308,6 +65718,9 @@
         <v>0</v>
       </c>
       <c r="EV137">
+        <v>0</v>
+      </c>
+      <c r="EW137">
         <v>0</v>
       </c>
     </row>
@@ -65744,10 +66157,10 @@
         <v>0</v>
       </c>
       <c r="EJ138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL138">
         <v>0</v>
@@ -65780,6 +66193,9 @@
         <v>0</v>
       </c>
       <c r="EV138">
+        <v>0</v>
+      </c>
+      <c r="EW138">
         <v>0</v>
       </c>
     </row>
@@ -66216,10 +66632,10 @@
         <v>0</v>
       </c>
       <c r="EJ139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL139">
         <v>0</v>
@@ -66252,6 +66668,9 @@
         <v>0</v>
       </c>
       <c r="EV139">
+        <v>0</v>
+      </c>
+      <c r="EW139">
         <v>0</v>
       </c>
     </row>
@@ -66688,10 +67107,10 @@
         <v>0</v>
       </c>
       <c r="EJ140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL140">
         <v>0</v>
@@ -66724,6 +67143,9 @@
         <v>0</v>
       </c>
       <c r="EV140">
+        <v>0</v>
+      </c>
+      <c r="EW140">
         <v>0</v>
       </c>
     </row>
@@ -67160,10 +67582,10 @@
         <v>0</v>
       </c>
       <c r="EJ141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL141">
         <v>0</v>
@@ -67196,6 +67618,9 @@
         <v>0</v>
       </c>
       <c r="EV141">
+        <v>0</v>
+      </c>
+      <c r="EW141">
         <v>0</v>
       </c>
     </row>
@@ -67632,10 +68057,10 @@
         <v>0</v>
       </c>
       <c r="EJ142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL142">
         <v>0</v>
@@ -67668,6 +68093,9 @@
         <v>0</v>
       </c>
       <c r="EV142">
+        <v>0</v>
+      </c>
+      <c r="EW142">
         <v>0</v>
       </c>
     </row>
@@ -68104,10 +68532,10 @@
         <v>0</v>
       </c>
       <c r="EJ143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL143">
         <v>0</v>
@@ -68140,6 +68568,9 @@
         <v>0</v>
       </c>
       <c r="EV143">
+        <v>0</v>
+      </c>
+      <c r="EW143">
         <v>0</v>
       </c>
     </row>
@@ -68573,13 +69004,13 @@
         <v>0</v>
       </c>
       <c r="EI144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ144">
         <v>1</v>
       </c>
       <c r="EK144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL144">
         <v>0</v>
@@ -68612,6 +69043,9 @@
         <v>0</v>
       </c>
       <c r="EV144">
+        <v>0</v>
+      </c>
+      <c r="EW144">
         <v>0</v>
       </c>
     </row>
@@ -69045,13 +69479,13 @@
         <v>0</v>
       </c>
       <c r="EI145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ145">
         <v>1</v>
       </c>
       <c r="EK145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL145">
         <v>0</v>
@@ -69084,6 +69518,9 @@
         <v>0</v>
       </c>
       <c r="EV145">
+        <v>0</v>
+      </c>
+      <c r="EW145">
         <v>0</v>
       </c>
     </row>
@@ -69517,13 +69954,13 @@
         <v>0</v>
       </c>
       <c r="EI146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ146">
         <v>1</v>
       </c>
       <c r="EK146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL146">
         <v>0</v>
@@ -69556,6 +69993,9 @@
         <v>0</v>
       </c>
       <c r="EV146">
+        <v>0</v>
+      </c>
+      <c r="EW146">
         <v>0</v>
       </c>
     </row>
@@ -69992,10 +70432,10 @@
         <v>0</v>
       </c>
       <c r="EJ147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL147">
         <v>0</v>
@@ -70028,6 +70468,9 @@
         <v>0</v>
       </c>
       <c r="EV147">
+        <v>0</v>
+      </c>
+      <c r="EW147">
         <v>0</v>
       </c>
     </row>
@@ -70461,13 +70904,13 @@
         <v>0</v>
       </c>
       <c r="EI148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ148">
         <v>1</v>
       </c>
       <c r="EK148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL148">
         <v>0</v>
@@ -70494,12 +70937,15 @@
         <v>0</v>
       </c>
       <c r="ET148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV148">
+        <v>0</v>
+      </c>
+      <c r="EW148">
         <v>0</v>
       </c>
     </row>
@@ -70933,13 +71379,13 @@
         <v>0</v>
       </c>
       <c r="EI149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ149">
         <v>1</v>
       </c>
       <c r="EK149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL149">
         <v>0</v>
@@ -70972,6 +71418,9 @@
         <v>0</v>
       </c>
       <c r="EV149">
+        <v>0</v>
+      </c>
+      <c r="EW149">
         <v>0</v>
       </c>
     </row>
@@ -71405,13 +71854,13 @@
         <v>0</v>
       </c>
       <c r="EI150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ150">
         <v>1</v>
       </c>
       <c r="EK150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL150">
         <v>0</v>
@@ -71444,6 +71893,9 @@
         <v>0</v>
       </c>
       <c r="EV150">
+        <v>0</v>
+      </c>
+      <c r="EW150">
         <v>0</v>
       </c>
     </row>
@@ -71877,13 +72329,13 @@
         <v>0</v>
       </c>
       <c r="EI151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ151">
         <v>1</v>
       </c>
       <c r="EK151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL151">
         <v>0</v>
@@ -71916,6 +72368,9 @@
         <v>0</v>
       </c>
       <c r="EV151">
+        <v>0</v>
+      </c>
+      <c r="EW151">
         <v>0</v>
       </c>
     </row>
@@ -72349,13 +72804,13 @@
         <v>0</v>
       </c>
       <c r="EI152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ152">
         <v>1</v>
       </c>
       <c r="EK152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL152">
         <v>0</v>
@@ -72388,6 +72843,9 @@
         <v>0</v>
       </c>
       <c r="EV152">
+        <v>0</v>
+      </c>
+      <c r="EW152">
         <v>0</v>
       </c>
     </row>
@@ -72821,13 +73279,13 @@
         <v>0</v>
       </c>
       <c r="EI153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ153">
         <v>1</v>
       </c>
       <c r="EK153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL153">
         <v>0</v>
@@ -72860,6 +73318,9 @@
         <v>0</v>
       </c>
       <c r="EV153">
+        <v>0</v>
+      </c>
+      <c r="EW153">
         <v>0</v>
       </c>
     </row>
@@ -73293,13 +73754,13 @@
         <v>0</v>
       </c>
       <c r="EI154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ154">
         <v>1</v>
       </c>
       <c r="EK154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL154">
         <v>0</v>
@@ -73332,6 +73793,9 @@
         <v>0</v>
       </c>
       <c r="EV154">
+        <v>0</v>
+      </c>
+      <c r="EW154">
         <v>0</v>
       </c>
     </row>
@@ -73762,7 +74226,7 @@
         <v>0</v>
       </c>
       <c r="EH155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI155">
         <v>1</v>
@@ -73771,7 +74235,7 @@
         <v>1</v>
       </c>
       <c r="EK155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL155">
         <v>0</v>
@@ -73804,6 +74268,9 @@
         <v>0</v>
       </c>
       <c r="EV155">
+        <v>0</v>
+      </c>
+      <c r="EW155">
         <v>0</v>
       </c>
     </row>
@@ -74237,13 +74704,13 @@
         <v>0</v>
       </c>
       <c r="EI156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ156">
         <v>1</v>
       </c>
       <c r="EK156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL156">
         <v>0</v>
@@ -74276,6 +74743,9 @@
         <v>0</v>
       </c>
       <c r="EV156">
+        <v>0</v>
+      </c>
+      <c r="EW156">
         <v>0</v>
       </c>
     </row>
@@ -74709,13 +75179,13 @@
         <v>0</v>
       </c>
       <c r="EI157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ157">
         <v>1</v>
       </c>
       <c r="EK157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL157">
         <v>0</v>
@@ -74748,6 +75218,9 @@
         <v>0</v>
       </c>
       <c r="EV157">
+        <v>0</v>
+      </c>
+      <c r="EW157">
         <v>0</v>
       </c>
     </row>
@@ -75181,13 +75654,13 @@
         <v>0</v>
       </c>
       <c r="EI158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ158">
         <v>1</v>
       </c>
       <c r="EK158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL158">
         <v>0</v>
@@ -75220,6 +75693,9 @@
         <v>0</v>
       </c>
       <c r="EV158">
+        <v>0</v>
+      </c>
+      <c r="EW158">
         <v>0</v>
       </c>
     </row>
@@ -75653,13 +76129,13 @@
         <v>0</v>
       </c>
       <c r="EI159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ159">
         <v>1</v>
       </c>
       <c r="EK159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL159">
         <v>0</v>
@@ -75692,6 +76168,9 @@
         <v>0</v>
       </c>
       <c r="EV159">
+        <v>0</v>
+      </c>
+      <c r="EW159">
         <v>0</v>
       </c>
     </row>
@@ -76125,13 +76604,13 @@
         <v>0</v>
       </c>
       <c r="EI160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ160">
         <v>1</v>
       </c>
       <c r="EK160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL160">
         <v>0</v>
@@ -76164,6 +76643,9 @@
         <v>0</v>
       </c>
       <c r="EV160">
+        <v>0</v>
+      </c>
+      <c r="EW160">
         <v>0</v>
       </c>
     </row>
@@ -76597,13 +77079,13 @@
         <v>0</v>
       </c>
       <c r="EI161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ161">
         <v>1</v>
       </c>
       <c r="EK161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL161">
         <v>0</v>
@@ -76636,6 +77118,9 @@
         <v>0</v>
       </c>
       <c r="EV161">
+        <v>0</v>
+      </c>
+      <c r="EW161">
         <v>0</v>
       </c>
     </row>
@@ -77069,13 +77554,13 @@
         <v>0</v>
       </c>
       <c r="EI162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ162">
         <v>1</v>
       </c>
       <c r="EK162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL162">
         <v>0</v>
@@ -77108,6 +77593,9 @@
         <v>0</v>
       </c>
       <c r="EV162">
+        <v>0</v>
+      </c>
+      <c r="EW162">
         <v>0</v>
       </c>
     </row>
@@ -77541,13 +78029,13 @@
         <v>0</v>
       </c>
       <c r="EI163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ163">
         <v>1</v>
       </c>
       <c r="EK163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL163">
         <v>0</v>
@@ -77580,6 +78068,9 @@
         <v>0</v>
       </c>
       <c r="EV163">
+        <v>0</v>
+      </c>
+      <c r="EW163">
         <v>0</v>
       </c>
     </row>
@@ -78016,10 +78507,10 @@
         <v>0</v>
       </c>
       <c r="EJ164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL164">
         <v>0</v>
@@ -78052,6 +78543,9 @@
         <v>0</v>
       </c>
       <c r="EV164">
+        <v>0</v>
+      </c>
+      <c r="EW164">
         <v>0</v>
       </c>
     </row>
@@ -78485,13 +78979,13 @@
         <v>0</v>
       </c>
       <c r="EI165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ165">
         <v>1</v>
       </c>
       <c r="EK165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL165">
         <v>0</v>
@@ -78524,6 +79018,9 @@
         <v>0</v>
       </c>
       <c r="EV165">
+        <v>0</v>
+      </c>
+      <c r="EW165">
         <v>0</v>
       </c>
     </row>
@@ -78957,13 +79454,13 @@
         <v>0</v>
       </c>
       <c r="EI166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ166">
         <v>1</v>
       </c>
       <c r="EK166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL166">
         <v>0</v>
@@ -78981,10 +79478,10 @@
         <v>0</v>
       </c>
       <c r="EQ166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES166">
         <v>0</v>
@@ -78996,6 +79493,9 @@
         <v>0</v>
       </c>
       <c r="EV166">
+        <v>0</v>
+      </c>
+      <c r="EW166">
         <v>0</v>
       </c>
     </row>
@@ -79429,13 +79929,13 @@
         <v>0</v>
       </c>
       <c r="EI167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ167">
         <v>1</v>
       </c>
       <c r="EK167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL167">
         <v>0</v>
@@ -79468,6 +79968,9 @@
         <v>0</v>
       </c>
       <c r="EV167">
+        <v>0</v>
+      </c>
+      <c r="EW167">
         <v>0</v>
       </c>
     </row>
@@ -79901,13 +80404,13 @@
         <v>0</v>
       </c>
       <c r="EI168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ168">
         <v>1</v>
       </c>
       <c r="EK168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL168">
         <v>0</v>
@@ -79940,6 +80443,9 @@
         <v>0</v>
       </c>
       <c r="EV168">
+        <v>0</v>
+      </c>
+      <c r="EW168">
         <v>0</v>
       </c>
     </row>
@@ -80373,13 +80879,13 @@
         <v>0</v>
       </c>
       <c r="EI169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ169">
         <v>1</v>
       </c>
       <c r="EK169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL169">
         <v>0</v>
@@ -80412,6 +80918,9 @@
         <v>0</v>
       </c>
       <c r="EV169">
+        <v>0</v>
+      </c>
+      <c r="EW169">
         <v>0</v>
       </c>
     </row>
@@ -80845,13 +81354,13 @@
         <v>0</v>
       </c>
       <c r="EI170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ170">
         <v>1</v>
       </c>
       <c r="EK170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL170">
         <v>0</v>
@@ -80884,6 +81393,9 @@
         <v>0</v>
       </c>
       <c r="EV170">
+        <v>0</v>
+      </c>
+      <c r="EW170">
         <v>0</v>
       </c>
     </row>
@@ -81317,13 +81829,13 @@
         <v>0</v>
       </c>
       <c r="EI171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ171">
         <v>1</v>
       </c>
       <c r="EK171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL171">
         <v>0</v>
@@ -81350,12 +81862,15 @@
         <v>0</v>
       </c>
       <c r="ET171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV171">
+        <v>0</v>
+      </c>
+      <c r="EW171">
         <v>0</v>
       </c>
     </row>
@@ -81789,13 +82304,13 @@
         <v>0</v>
       </c>
       <c r="EI172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ172">
         <v>1</v>
       </c>
       <c r="EK172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL172">
         <v>0</v>
@@ -81828,6 +82343,9 @@
         <v>0</v>
       </c>
       <c r="EV172">
+        <v>0</v>
+      </c>
+      <c r="EW172">
         <v>0</v>
       </c>
     </row>
@@ -82261,13 +82779,13 @@
         <v>0</v>
       </c>
       <c r="EI173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ173">
         <v>1</v>
       </c>
       <c r="EK173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL173">
         <v>0</v>
@@ -82297,9 +82815,12 @@
         <v>0</v>
       </c>
       <c r="EU173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV173">
+        <v>1</v>
+      </c>
+      <c r="EW173">
         <v>0</v>
       </c>
     </row>
@@ -82733,13 +83254,13 @@
         <v>0</v>
       </c>
       <c r="EI174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ174">
         <v>1</v>
       </c>
       <c r="EK174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL174">
         <v>0</v>
@@ -82751,10 +83272,10 @@
         <v>0</v>
       </c>
       <c r="EO174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ174">
         <v>0</v>
@@ -82772,6 +83293,9 @@
         <v>0</v>
       </c>
       <c r="EV174">
+        <v>0</v>
+      </c>
+      <c r="EW174">
         <v>0</v>
       </c>
     </row>
@@ -83205,13 +83729,13 @@
         <v>0</v>
       </c>
       <c r="EI175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ175">
         <v>1</v>
       </c>
       <c r="EK175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL175">
         <v>0</v>
@@ -83244,6 +83768,9 @@
         <v>0</v>
       </c>
       <c r="EV175">
+        <v>0</v>
+      </c>
+      <c r="EW175">
         <v>0</v>
       </c>
     </row>
@@ -83677,13 +84204,13 @@
         <v>0</v>
       </c>
       <c r="EI176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ176">
         <v>1</v>
       </c>
       <c r="EK176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL176">
         <v>0</v>
@@ -83716,6 +84243,9 @@
         <v>0</v>
       </c>
       <c r="EV176">
+        <v>0</v>
+      </c>
+      <c r="EW176">
         <v>0</v>
       </c>
     </row>
@@ -84149,13 +84679,13 @@
         <v>0</v>
       </c>
       <c r="EI177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ177">
         <v>1</v>
       </c>
       <c r="EK177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL177">
         <v>0</v>
@@ -84188,6 +84718,9 @@
         <v>0</v>
       </c>
       <c r="EV177">
+        <v>0</v>
+      </c>
+      <c r="EW177">
         <v>0</v>
       </c>
     </row>
@@ -84621,13 +85154,13 @@
         <v>0</v>
       </c>
       <c r="EI178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ178">
         <v>1</v>
       </c>
       <c r="EK178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL178">
         <v>0</v>
@@ -84660,6 +85193,9 @@
         <v>0</v>
       </c>
       <c r="EV178">
+        <v>0</v>
+      </c>
+      <c r="EW178">
         <v>0</v>
       </c>
     </row>
@@ -85093,13 +85629,13 @@
         <v>0</v>
       </c>
       <c r="EI179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ179">
         <v>1</v>
       </c>
       <c r="EK179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL179">
         <v>0</v>
@@ -85132,6 +85668,9 @@
         <v>0</v>
       </c>
       <c r="EV179">
+        <v>0</v>
+      </c>
+      <c r="EW179">
         <v>0</v>
       </c>
     </row>
@@ -85565,13 +86104,13 @@
         <v>0</v>
       </c>
       <c r="EI180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ180">
         <v>1</v>
       </c>
       <c r="EK180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL180">
         <v>0</v>
@@ -85604,6 +86143,9 @@
         <v>0</v>
       </c>
       <c r="EV180">
+        <v>0</v>
+      </c>
+      <c r="EW180">
         <v>0</v>
       </c>
     </row>
@@ -86037,13 +86579,13 @@
         <v>0</v>
       </c>
       <c r="EI181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ181">
         <v>1</v>
       </c>
       <c r="EK181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL181">
         <v>0</v>
@@ -86076,6 +86618,9 @@
         <v>0</v>
       </c>
       <c r="EV181">
+        <v>0</v>
+      </c>
+      <c r="EW181">
         <v>0</v>
       </c>
     </row>
@@ -86509,13 +87054,13 @@
         <v>0</v>
       </c>
       <c r="EI182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ182">
         <v>1</v>
       </c>
       <c r="EK182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL182">
         <v>0</v>
@@ -86548,6 +87093,9 @@
         <v>0</v>
       </c>
       <c r="EV182">
+        <v>0</v>
+      </c>
+      <c r="EW182">
         <v>0</v>
       </c>
     </row>
@@ -86984,10 +87532,10 @@
         <v>0</v>
       </c>
       <c r="EJ183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL183">
         <v>0</v>
@@ -87020,6 +87568,9 @@
         <v>0</v>
       </c>
       <c r="EV183">
+        <v>0</v>
+      </c>
+      <c r="EW183">
         <v>0</v>
       </c>
     </row>
@@ -87453,13 +88004,13 @@
         <v>0</v>
       </c>
       <c r="EI184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ184">
         <v>1</v>
       </c>
       <c r="EK184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL184">
         <v>0</v>
@@ -87492,6 +88043,9 @@
         <v>0</v>
       </c>
       <c r="EV184">
+        <v>0</v>
+      </c>
+      <c r="EW184">
         <v>0</v>
       </c>
     </row>
@@ -87925,13 +88479,13 @@
         <v>0</v>
       </c>
       <c r="EI185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ185">
         <v>1</v>
       </c>
       <c r="EK185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL185">
         <v>0</v>
@@ -87964,6 +88518,9 @@
         <v>0</v>
       </c>
       <c r="EV185">
+        <v>0</v>
+      </c>
+      <c r="EW185">
         <v>0</v>
       </c>
     </row>
@@ -88397,13 +88954,13 @@
         <v>0</v>
       </c>
       <c r="EI186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ186">
         <v>1</v>
       </c>
       <c r="EK186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL186">
         <v>0</v>
@@ -88436,6 +88993,9 @@
         <v>0</v>
       </c>
       <c r="EV186">
+        <v>0</v>
+      </c>
+      <c r="EW186">
         <v>0</v>
       </c>
     </row>
@@ -88869,13 +89429,13 @@
         <v>0</v>
       </c>
       <c r="EI187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ187">
         <v>1</v>
       </c>
       <c r="EK187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL187">
         <v>0</v>
@@ -88908,6 +89468,9 @@
         <v>0</v>
       </c>
       <c r="EV187">
+        <v>0</v>
+      </c>
+      <c r="EW187">
         <v>0</v>
       </c>
     </row>
@@ -89341,13 +89904,13 @@
         <v>0</v>
       </c>
       <c r="EI188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ188">
         <v>1</v>
       </c>
       <c r="EK188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL188">
         <v>0</v>
@@ -89380,6 +89943,9 @@
         <v>0</v>
       </c>
       <c r="EV188">
+        <v>0</v>
+      </c>
+      <c r="EW188">
         <v>0</v>
       </c>
     </row>
@@ -89813,13 +90379,13 @@
         <v>0</v>
       </c>
       <c r="EI189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ189">
         <v>1</v>
       </c>
       <c r="EK189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL189">
         <v>0</v>
@@ -89852,6 +90418,9 @@
         <v>0</v>
       </c>
       <c r="EV189">
+        <v>0</v>
+      </c>
+      <c r="EW189">
         <v>0</v>
       </c>
     </row>
@@ -90285,13 +90854,13 @@
         <v>0</v>
       </c>
       <c r="EI190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ190">
         <v>1</v>
       </c>
       <c r="EK190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL190">
         <v>0</v>
@@ -90324,6 +90893,9 @@
         <v>0</v>
       </c>
       <c r="EV190">
+        <v>0</v>
+      </c>
+      <c r="EW190">
         <v>0</v>
       </c>
     </row>
@@ -90748,10 +91320,10 @@
         <v>0</v>
       </c>
       <c r="EF191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH191">
         <v>0</v>
@@ -90760,10 +91332,10 @@
         <v>0</v>
       </c>
       <c r="EJ191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL191">
         <v>0</v>
@@ -90796,6 +91368,9 @@
         <v>0</v>
       </c>
       <c r="EV191">
+        <v>0</v>
+      </c>
+      <c r="EW191">
         <v>0</v>
       </c>
     </row>
@@ -91270,6 +91845,9 @@
       <c r="EV192">
         <v>0</v>
       </c>
+      <c r="EW192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -91701,13 +92279,13 @@
         <v>0</v>
       </c>
       <c r="EI193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ193">
         <v>1</v>
       </c>
       <c r="EK193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL193">
         <v>0</v>
@@ -91740,6 +92318,9 @@
         <v>0</v>
       </c>
       <c r="EV193">
+        <v>0</v>
+      </c>
+      <c r="EW193">
         <v>0</v>
       </c>
     </row>
@@ -92173,13 +92754,13 @@
         <v>0</v>
       </c>
       <c r="EI194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ194">
         <v>1</v>
       </c>
       <c r="EK194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL194">
         <v>0</v>
@@ -92212,6 +92793,484 @@
         <v>0</v>
       </c>
       <c r="EV194">
+        <v>0</v>
+      </c>
+      <c r="EW194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Olympics Athletes and Medals</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, ggsankey, countrycode, readr, tibble</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2024/2024-08-06/20240806.R</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2024/2024-08-06///20240806.png</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>1</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+      <c r="AB195">
+        <v>0</v>
+      </c>
+      <c r="AC195">
+        <v>0</v>
+      </c>
+      <c r="AD195">
+        <v>0</v>
+      </c>
+      <c r="AE195">
+        <v>0</v>
+      </c>
+      <c r="AF195">
+        <v>0</v>
+      </c>
+      <c r="AG195">
+        <v>0</v>
+      </c>
+      <c r="AH195">
+        <v>0</v>
+      </c>
+      <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AJ195">
+        <v>0</v>
+      </c>
+      <c r="AK195">
+        <v>0</v>
+      </c>
+      <c r="AL195">
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <v>0</v>
+      </c>
+      <c r="AO195">
+        <v>0</v>
+      </c>
+      <c r="AP195">
+        <v>0</v>
+      </c>
+      <c r="AQ195">
+        <v>0</v>
+      </c>
+      <c r="AR195">
+        <v>0</v>
+      </c>
+      <c r="AS195">
+        <v>0</v>
+      </c>
+      <c r="AT195">
+        <v>0</v>
+      </c>
+      <c r="AU195">
+        <v>0</v>
+      </c>
+      <c r="AV195">
+        <v>0</v>
+      </c>
+      <c r="AW195">
+        <v>0</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>1</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>1</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>0</v>
+      </c>
+      <c r="BI195">
+        <v>0</v>
+      </c>
+      <c r="BJ195">
+        <v>0</v>
+      </c>
+      <c r="BK195">
+        <v>1</v>
+      </c>
+      <c r="BL195">
+        <v>0</v>
+      </c>
+      <c r="BM195">
+        <v>0</v>
+      </c>
+      <c r="BN195">
+        <v>0</v>
+      </c>
+      <c r="BO195">
+        <v>0</v>
+      </c>
+      <c r="BP195">
+        <v>0</v>
+      </c>
+      <c r="BQ195">
+        <v>0</v>
+      </c>
+      <c r="BR195">
+        <v>0</v>
+      </c>
+      <c r="BS195">
+        <v>0</v>
+      </c>
+      <c r="BT195">
+        <v>0</v>
+      </c>
+      <c r="BU195">
+        <v>0</v>
+      </c>
+      <c r="BV195">
+        <v>0</v>
+      </c>
+      <c r="BW195">
+        <v>0</v>
+      </c>
+      <c r="BX195">
+        <v>0</v>
+      </c>
+      <c r="BY195">
+        <v>0</v>
+      </c>
+      <c r="BZ195">
+        <v>0</v>
+      </c>
+      <c r="CA195">
+        <v>0</v>
+      </c>
+      <c r="CB195">
+        <v>0</v>
+      </c>
+      <c r="CC195">
+        <v>0</v>
+      </c>
+      <c r="CD195">
+        <v>0</v>
+      </c>
+      <c r="CE195">
+        <v>0</v>
+      </c>
+      <c r="CF195">
+        <v>0</v>
+      </c>
+      <c r="CG195">
+        <v>0</v>
+      </c>
+      <c r="CH195">
+        <v>0</v>
+      </c>
+      <c r="CI195">
+        <v>0</v>
+      </c>
+      <c r="CJ195">
+        <v>0</v>
+      </c>
+      <c r="CK195">
+        <v>1</v>
+      </c>
+      <c r="CL195">
+        <v>0</v>
+      </c>
+      <c r="CM195">
+        <v>0</v>
+      </c>
+      <c r="CN195">
+        <v>0</v>
+      </c>
+      <c r="CO195">
+        <v>0</v>
+      </c>
+      <c r="CP195">
+        <v>0</v>
+      </c>
+      <c r="CQ195">
+        <v>0</v>
+      </c>
+      <c r="CR195">
+        <v>1</v>
+      </c>
+      <c r="CS195">
+        <v>0</v>
+      </c>
+      <c r="CT195">
+        <v>0</v>
+      </c>
+      <c r="CU195">
+        <v>0</v>
+      </c>
+      <c r="CV195">
+        <v>0</v>
+      </c>
+      <c r="CW195">
+        <v>0</v>
+      </c>
+      <c r="CX195">
+        <v>0</v>
+      </c>
+      <c r="CY195">
+        <v>0</v>
+      </c>
+      <c r="CZ195">
+        <v>0</v>
+      </c>
+      <c r="DA195">
+        <v>0</v>
+      </c>
+      <c r="DB195">
+        <v>0</v>
+      </c>
+      <c r="DC195">
+        <v>0</v>
+      </c>
+      <c r="DD195">
+        <v>0</v>
+      </c>
+      <c r="DE195">
+        <v>0</v>
+      </c>
+      <c r="DF195">
+        <v>0</v>
+      </c>
+      <c r="DG195">
+        <v>1</v>
+      </c>
+      <c r="DH195">
+        <v>0</v>
+      </c>
+      <c r="DI195">
+        <v>0</v>
+      </c>
+      <c r="DJ195">
+        <v>0</v>
+      </c>
+      <c r="DK195">
+        <v>0</v>
+      </c>
+      <c r="DL195">
+        <v>0</v>
+      </c>
+      <c r="DM195">
+        <v>0</v>
+      </c>
+      <c r="DN195">
+        <v>0</v>
+      </c>
+      <c r="DO195">
+        <v>0</v>
+      </c>
+      <c r="DP195">
+        <v>0</v>
+      </c>
+      <c r="DQ195">
+        <v>0</v>
+      </c>
+      <c r="DR195">
+        <v>0</v>
+      </c>
+      <c r="DS195">
+        <v>1</v>
+      </c>
+      <c r="DT195">
+        <v>0</v>
+      </c>
+      <c r="DU195">
+        <v>0</v>
+      </c>
+      <c r="DV195">
+        <v>0</v>
+      </c>
+      <c r="DW195">
+        <v>0</v>
+      </c>
+      <c r="DX195">
+        <v>0</v>
+      </c>
+      <c r="DY195">
+        <v>0</v>
+      </c>
+      <c r="DZ195">
+        <v>0</v>
+      </c>
+      <c r="EA195">
+        <v>0</v>
+      </c>
+      <c r="EB195">
+        <v>0</v>
+      </c>
+      <c r="EC195">
+        <v>0</v>
+      </c>
+      <c r="ED195">
+        <v>0</v>
+      </c>
+      <c r="EE195">
+        <v>0</v>
+      </c>
+      <c r="EF195">
+        <v>1</v>
+      </c>
+      <c r="EG195">
+        <v>0</v>
+      </c>
+      <c r="EH195">
+        <v>0</v>
+      </c>
+      <c r="EI195">
+        <v>0</v>
+      </c>
+      <c r="EJ195">
+        <v>0</v>
+      </c>
+      <c r="EK195">
+        <v>1</v>
+      </c>
+      <c r="EL195">
+        <v>0</v>
+      </c>
+      <c r="EM195">
+        <v>0</v>
+      </c>
+      <c r="EN195">
+        <v>0</v>
+      </c>
+      <c r="EO195">
+        <v>0</v>
+      </c>
+      <c r="EP195">
+        <v>0</v>
+      </c>
+      <c r="EQ195">
+        <v>0</v>
+      </c>
+      <c r="ER195">
+        <v>0</v>
+      </c>
+      <c r="ES195">
+        <v>0</v>
+      </c>
+      <c r="ET195">
+        <v>0</v>
+      </c>
+      <c r="EU195">
+        <v>0</v>
+      </c>
+      <c r="EV195">
+        <v>0</v>
+      </c>
+      <c r="EW195">
         <v>0</v>
       </c>
     </row>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -92817,7 +92817,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, ggsankey, countrycode, readr, tibble</t>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggsankey, countrycode, readr, tibble</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -93100,7 +93100,7 @@
         <v>0</v>
       </c>
       <c r="CR195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS195">
         <v>0</v>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EW195"/>
+  <dimension ref="A1:EW196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -93274,6 +93274,481 @@
         <v>0</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>World's Fairs</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, lubridate, spiralize, ggimage, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2024/2024-08-13/20240813.R</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2024/2024-08-13///20240813.png</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>0</v>
+      </c>
+      <c r="AC196">
+        <v>0</v>
+      </c>
+      <c r="AD196">
+        <v>0</v>
+      </c>
+      <c r="AE196">
+        <v>0</v>
+      </c>
+      <c r="AF196">
+        <v>0</v>
+      </c>
+      <c r="AG196">
+        <v>0</v>
+      </c>
+      <c r="AH196">
+        <v>0</v>
+      </c>
+      <c r="AI196">
+        <v>0</v>
+      </c>
+      <c r="AJ196">
+        <v>0</v>
+      </c>
+      <c r="AK196">
+        <v>0</v>
+      </c>
+      <c r="AL196">
+        <v>0</v>
+      </c>
+      <c r="AM196">
+        <v>0</v>
+      </c>
+      <c r="AN196">
+        <v>1</v>
+      </c>
+      <c r="AO196">
+        <v>0</v>
+      </c>
+      <c r="AP196">
+        <v>0</v>
+      </c>
+      <c r="AQ196">
+        <v>0</v>
+      </c>
+      <c r="AR196">
+        <v>0</v>
+      </c>
+      <c r="AS196">
+        <v>0</v>
+      </c>
+      <c r="AT196">
+        <v>0</v>
+      </c>
+      <c r="AU196">
+        <v>0</v>
+      </c>
+      <c r="AV196">
+        <v>0</v>
+      </c>
+      <c r="AW196">
+        <v>0</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>1</v>
+      </c>
+      <c r="BG196">
+        <v>0</v>
+      </c>
+      <c r="BH196">
+        <v>0</v>
+      </c>
+      <c r="BI196">
+        <v>0</v>
+      </c>
+      <c r="BJ196">
+        <v>0</v>
+      </c>
+      <c r="BK196">
+        <v>1</v>
+      </c>
+      <c r="BL196">
+        <v>0</v>
+      </c>
+      <c r="BM196">
+        <v>0</v>
+      </c>
+      <c r="BN196">
+        <v>0</v>
+      </c>
+      <c r="BO196">
+        <v>0</v>
+      </c>
+      <c r="BP196">
+        <v>0</v>
+      </c>
+      <c r="BQ196">
+        <v>0</v>
+      </c>
+      <c r="BR196">
+        <v>0</v>
+      </c>
+      <c r="BS196">
+        <v>0</v>
+      </c>
+      <c r="BT196">
+        <v>0</v>
+      </c>
+      <c r="BU196">
+        <v>0</v>
+      </c>
+      <c r="BV196">
+        <v>0</v>
+      </c>
+      <c r="BW196">
+        <v>0</v>
+      </c>
+      <c r="BX196">
+        <v>0</v>
+      </c>
+      <c r="BY196">
+        <v>0</v>
+      </c>
+      <c r="BZ196">
+        <v>0</v>
+      </c>
+      <c r="CA196">
+        <v>1</v>
+      </c>
+      <c r="CB196">
+        <v>0</v>
+      </c>
+      <c r="CC196">
+        <v>0</v>
+      </c>
+      <c r="CD196">
+        <v>0</v>
+      </c>
+      <c r="CE196">
+        <v>0</v>
+      </c>
+      <c r="CF196">
+        <v>0</v>
+      </c>
+      <c r="CG196">
+        <v>0</v>
+      </c>
+      <c r="CH196">
+        <v>0</v>
+      </c>
+      <c r="CI196">
+        <v>0</v>
+      </c>
+      <c r="CJ196">
+        <v>0</v>
+      </c>
+      <c r="CK196">
+        <v>1</v>
+      </c>
+      <c r="CL196">
+        <v>0</v>
+      </c>
+      <c r="CM196">
+        <v>0</v>
+      </c>
+      <c r="CN196">
+        <v>0</v>
+      </c>
+      <c r="CO196">
+        <v>0</v>
+      </c>
+      <c r="CP196">
+        <v>0</v>
+      </c>
+      <c r="CQ196">
+        <v>0</v>
+      </c>
+      <c r="CR196">
+        <v>0</v>
+      </c>
+      <c r="CS196">
+        <v>0</v>
+      </c>
+      <c r="CT196">
+        <v>0</v>
+      </c>
+      <c r="CU196">
+        <v>0</v>
+      </c>
+      <c r="CV196">
+        <v>0</v>
+      </c>
+      <c r="CW196">
+        <v>0</v>
+      </c>
+      <c r="CX196">
+        <v>0</v>
+      </c>
+      <c r="CY196">
+        <v>0</v>
+      </c>
+      <c r="CZ196">
+        <v>0</v>
+      </c>
+      <c r="DA196">
+        <v>0</v>
+      </c>
+      <c r="DB196">
+        <v>0</v>
+      </c>
+      <c r="DC196">
+        <v>0</v>
+      </c>
+      <c r="DD196">
+        <v>0</v>
+      </c>
+      <c r="DE196">
+        <v>0</v>
+      </c>
+      <c r="DF196">
+        <v>0</v>
+      </c>
+      <c r="DG196">
+        <v>0</v>
+      </c>
+      <c r="DH196">
+        <v>0</v>
+      </c>
+      <c r="DI196">
+        <v>0</v>
+      </c>
+      <c r="DJ196">
+        <v>0</v>
+      </c>
+      <c r="DK196">
+        <v>0</v>
+      </c>
+      <c r="DL196">
+        <v>0</v>
+      </c>
+      <c r="DM196">
+        <v>0</v>
+      </c>
+      <c r="DN196">
+        <v>0</v>
+      </c>
+      <c r="DO196">
+        <v>0</v>
+      </c>
+      <c r="DP196">
+        <v>0</v>
+      </c>
+      <c r="DQ196">
+        <v>0</v>
+      </c>
+      <c r="DR196">
+        <v>0</v>
+      </c>
+      <c r="DS196">
+        <v>1</v>
+      </c>
+      <c r="DT196">
+        <v>0</v>
+      </c>
+      <c r="DU196">
+        <v>0</v>
+      </c>
+      <c r="DV196">
+        <v>0</v>
+      </c>
+      <c r="DW196">
+        <v>0</v>
+      </c>
+      <c r="DX196">
+        <v>0</v>
+      </c>
+      <c r="DY196">
+        <v>0</v>
+      </c>
+      <c r="DZ196">
+        <v>1</v>
+      </c>
+      <c r="EA196">
+        <v>0</v>
+      </c>
+      <c r="EB196">
+        <v>0</v>
+      </c>
+      <c r="EC196">
+        <v>0</v>
+      </c>
+      <c r="ED196">
+        <v>0</v>
+      </c>
+      <c r="EE196">
+        <v>0</v>
+      </c>
+      <c r="EF196">
+        <v>0</v>
+      </c>
+      <c r="EG196">
+        <v>0</v>
+      </c>
+      <c r="EH196">
+        <v>0</v>
+      </c>
+      <c r="EI196">
+        <v>0</v>
+      </c>
+      <c r="EJ196">
+        <v>1</v>
+      </c>
+      <c r="EK196">
+        <v>1</v>
+      </c>
+      <c r="EL196">
+        <v>0</v>
+      </c>
+      <c r="EM196">
+        <v>0</v>
+      </c>
+      <c r="EN196">
+        <v>0</v>
+      </c>
+      <c r="EO196">
+        <v>0</v>
+      </c>
+      <c r="EP196">
+        <v>0</v>
+      </c>
+      <c r="EQ196">
+        <v>0</v>
+      </c>
+      <c r="ER196">
+        <v>0</v>
+      </c>
+      <c r="ES196">
+        <v>0</v>
+      </c>
+      <c r="ET196">
+        <v>0</v>
+      </c>
+      <c r="EU196">
+        <v>0</v>
+      </c>
+      <c r="EV196">
+        <v>0</v>
+      </c>
+      <c r="EW196">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EW196"/>
+  <dimension ref="A1:EW197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -93749,6 +93749,481 @@
         <v>0</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>English Monarchs and Marriages</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tidytuesdayR, tibble</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2024/2024-08-20/20240820.R</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2024/2024-08-20///20240820.png</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+      <c r="AB197">
+        <v>0</v>
+      </c>
+      <c r="AC197">
+        <v>0</v>
+      </c>
+      <c r="AD197">
+        <v>0</v>
+      </c>
+      <c r="AE197">
+        <v>0</v>
+      </c>
+      <c r="AF197">
+        <v>0</v>
+      </c>
+      <c r="AG197">
+        <v>0</v>
+      </c>
+      <c r="AH197">
+        <v>0</v>
+      </c>
+      <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AJ197">
+        <v>0</v>
+      </c>
+      <c r="AK197">
+        <v>0</v>
+      </c>
+      <c r="AL197">
+        <v>0</v>
+      </c>
+      <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AN197">
+        <v>0</v>
+      </c>
+      <c r="AO197">
+        <v>0</v>
+      </c>
+      <c r="AP197">
+        <v>0</v>
+      </c>
+      <c r="AQ197">
+        <v>0</v>
+      </c>
+      <c r="AR197">
+        <v>0</v>
+      </c>
+      <c r="AS197">
+        <v>0</v>
+      </c>
+      <c r="AT197">
+        <v>0</v>
+      </c>
+      <c r="AU197">
+        <v>0</v>
+      </c>
+      <c r="AV197">
+        <v>0</v>
+      </c>
+      <c r="AW197">
+        <v>0</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="AZ197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>0</v>
+      </c>
+      <c r="BD197">
+        <v>0</v>
+      </c>
+      <c r="BE197">
+        <v>0</v>
+      </c>
+      <c r="BF197">
+        <v>1</v>
+      </c>
+      <c r="BG197">
+        <v>0</v>
+      </c>
+      <c r="BH197">
+        <v>0</v>
+      </c>
+      <c r="BI197">
+        <v>0</v>
+      </c>
+      <c r="BJ197">
+        <v>0</v>
+      </c>
+      <c r="BK197">
+        <v>1</v>
+      </c>
+      <c r="BL197">
+        <v>0</v>
+      </c>
+      <c r="BM197">
+        <v>0</v>
+      </c>
+      <c r="BN197">
+        <v>0</v>
+      </c>
+      <c r="BO197">
+        <v>0</v>
+      </c>
+      <c r="BP197">
+        <v>0</v>
+      </c>
+      <c r="BQ197">
+        <v>0</v>
+      </c>
+      <c r="BR197">
+        <v>0</v>
+      </c>
+      <c r="BS197">
+        <v>0</v>
+      </c>
+      <c r="BT197">
+        <v>0</v>
+      </c>
+      <c r="BU197">
+        <v>0</v>
+      </c>
+      <c r="BV197">
+        <v>0</v>
+      </c>
+      <c r="BW197">
+        <v>0</v>
+      </c>
+      <c r="BX197">
+        <v>0</v>
+      </c>
+      <c r="BY197">
+        <v>0</v>
+      </c>
+      <c r="BZ197">
+        <v>0</v>
+      </c>
+      <c r="CA197">
+        <v>0</v>
+      </c>
+      <c r="CB197">
+        <v>0</v>
+      </c>
+      <c r="CC197">
+        <v>0</v>
+      </c>
+      <c r="CD197">
+        <v>0</v>
+      </c>
+      <c r="CE197">
+        <v>0</v>
+      </c>
+      <c r="CF197">
+        <v>0</v>
+      </c>
+      <c r="CG197">
+        <v>0</v>
+      </c>
+      <c r="CH197">
+        <v>0</v>
+      </c>
+      <c r="CI197">
+        <v>0</v>
+      </c>
+      <c r="CJ197">
+        <v>0</v>
+      </c>
+      <c r="CK197">
+        <v>1</v>
+      </c>
+      <c r="CL197">
+        <v>0</v>
+      </c>
+      <c r="CM197">
+        <v>0</v>
+      </c>
+      <c r="CN197">
+        <v>0</v>
+      </c>
+      <c r="CO197">
+        <v>0</v>
+      </c>
+      <c r="CP197">
+        <v>0</v>
+      </c>
+      <c r="CQ197">
+        <v>0</v>
+      </c>
+      <c r="CR197">
+        <v>0</v>
+      </c>
+      <c r="CS197">
+        <v>0</v>
+      </c>
+      <c r="CT197">
+        <v>0</v>
+      </c>
+      <c r="CU197">
+        <v>0</v>
+      </c>
+      <c r="CV197">
+        <v>0</v>
+      </c>
+      <c r="CW197">
+        <v>0</v>
+      </c>
+      <c r="CX197">
+        <v>0</v>
+      </c>
+      <c r="CY197">
+        <v>0</v>
+      </c>
+      <c r="CZ197">
+        <v>0</v>
+      </c>
+      <c r="DA197">
+        <v>0</v>
+      </c>
+      <c r="DB197">
+        <v>0</v>
+      </c>
+      <c r="DC197">
+        <v>0</v>
+      </c>
+      <c r="DD197">
+        <v>0</v>
+      </c>
+      <c r="DE197">
+        <v>0</v>
+      </c>
+      <c r="DF197">
+        <v>0</v>
+      </c>
+      <c r="DG197">
+        <v>0</v>
+      </c>
+      <c r="DH197">
+        <v>0</v>
+      </c>
+      <c r="DI197">
+        <v>0</v>
+      </c>
+      <c r="DJ197">
+        <v>0</v>
+      </c>
+      <c r="DK197">
+        <v>0</v>
+      </c>
+      <c r="DL197">
+        <v>0</v>
+      </c>
+      <c r="DM197">
+        <v>0</v>
+      </c>
+      <c r="DN197">
+        <v>0</v>
+      </c>
+      <c r="DO197">
+        <v>0</v>
+      </c>
+      <c r="DP197">
+        <v>0</v>
+      </c>
+      <c r="DQ197">
+        <v>0</v>
+      </c>
+      <c r="DR197">
+        <v>0</v>
+      </c>
+      <c r="DS197">
+        <v>1</v>
+      </c>
+      <c r="DT197">
+        <v>0</v>
+      </c>
+      <c r="DU197">
+        <v>0</v>
+      </c>
+      <c r="DV197">
+        <v>0</v>
+      </c>
+      <c r="DW197">
+        <v>0</v>
+      </c>
+      <c r="DX197">
+        <v>0</v>
+      </c>
+      <c r="DY197">
+        <v>0</v>
+      </c>
+      <c r="DZ197">
+        <v>0</v>
+      </c>
+      <c r="EA197">
+        <v>0</v>
+      </c>
+      <c r="EB197">
+        <v>0</v>
+      </c>
+      <c r="EC197">
+        <v>0</v>
+      </c>
+      <c r="ED197">
+        <v>0</v>
+      </c>
+      <c r="EE197">
+        <v>0</v>
+      </c>
+      <c r="EF197">
+        <v>1</v>
+      </c>
+      <c r="EG197">
+        <v>0</v>
+      </c>
+      <c r="EH197">
+        <v>0</v>
+      </c>
+      <c r="EI197">
+        <v>0</v>
+      </c>
+      <c r="EJ197">
+        <v>1</v>
+      </c>
+      <c r="EK197">
+        <v>1</v>
+      </c>
+      <c r="EL197">
+        <v>0</v>
+      </c>
+      <c r="EM197">
+        <v>0</v>
+      </c>
+      <c r="EN197">
+        <v>0</v>
+      </c>
+      <c r="EO197">
+        <v>0</v>
+      </c>
+      <c r="EP197">
+        <v>0</v>
+      </c>
+      <c r="EQ197">
+        <v>0</v>
+      </c>
+      <c r="ER197">
+        <v>0</v>
+      </c>
+      <c r="ES197">
+        <v>0</v>
+      </c>
+      <c r="ET197">
+        <v>0</v>
+      </c>
+      <c r="EU197">
+        <v>0</v>
+      </c>
+      <c r="EV197">
+        <v>0</v>
+      </c>
+      <c r="EW197">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -94845,7 +94845,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2024/2024-08-27///20240827.png</t>
+          <t>2024/2024-08-27///20240827_safe.png</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EX198"/>
+  <dimension ref="A1:EX199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95295,6 +95295,484 @@
         <v>0</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Stack Overflow Annual Developer Survey 2024</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggalluvial, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2024/2024-09-03/20240903.R</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2024/2024-09-03///20240903.png</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+      <c r="AC199">
+        <v>1</v>
+      </c>
+      <c r="AD199">
+        <v>0</v>
+      </c>
+      <c r="AE199">
+        <v>0</v>
+      </c>
+      <c r="AF199">
+        <v>0</v>
+      </c>
+      <c r="AG199">
+        <v>0</v>
+      </c>
+      <c r="AH199">
+        <v>0</v>
+      </c>
+      <c r="AI199">
+        <v>0</v>
+      </c>
+      <c r="AJ199">
+        <v>0</v>
+      </c>
+      <c r="AK199">
+        <v>0</v>
+      </c>
+      <c r="AL199">
+        <v>0</v>
+      </c>
+      <c r="AM199">
+        <v>0</v>
+      </c>
+      <c r="AN199">
+        <v>0</v>
+      </c>
+      <c r="AO199">
+        <v>0</v>
+      </c>
+      <c r="AP199">
+        <v>0</v>
+      </c>
+      <c r="AQ199">
+        <v>0</v>
+      </c>
+      <c r="AR199">
+        <v>0</v>
+      </c>
+      <c r="AS199">
+        <v>0</v>
+      </c>
+      <c r="AT199">
+        <v>0</v>
+      </c>
+      <c r="AU199">
+        <v>0</v>
+      </c>
+      <c r="AV199">
+        <v>0</v>
+      </c>
+      <c r="AW199">
+        <v>0</v>
+      </c>
+      <c r="AX199">
+        <v>0</v>
+      </c>
+      <c r="AY199">
+        <v>0</v>
+      </c>
+      <c r="AZ199">
+        <v>0</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>0</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
+      <c r="BF199">
+        <v>0</v>
+      </c>
+      <c r="BG199">
+        <v>1</v>
+      </c>
+      <c r="BH199">
+        <v>0</v>
+      </c>
+      <c r="BI199">
+        <v>0</v>
+      </c>
+      <c r="BJ199">
+        <v>0</v>
+      </c>
+      <c r="BK199">
+        <v>0</v>
+      </c>
+      <c r="BL199">
+        <v>1</v>
+      </c>
+      <c r="BM199">
+        <v>0</v>
+      </c>
+      <c r="BN199">
+        <v>0</v>
+      </c>
+      <c r="BO199">
+        <v>0</v>
+      </c>
+      <c r="BP199">
+        <v>0</v>
+      </c>
+      <c r="BQ199">
+        <v>0</v>
+      </c>
+      <c r="BR199">
+        <v>0</v>
+      </c>
+      <c r="BS199">
+        <v>0</v>
+      </c>
+      <c r="BT199">
+        <v>0</v>
+      </c>
+      <c r="BU199">
+        <v>0</v>
+      </c>
+      <c r="BV199">
+        <v>0</v>
+      </c>
+      <c r="BW199">
+        <v>0</v>
+      </c>
+      <c r="BX199">
+        <v>0</v>
+      </c>
+      <c r="BY199">
+        <v>0</v>
+      </c>
+      <c r="BZ199">
+        <v>0</v>
+      </c>
+      <c r="CA199">
+        <v>0</v>
+      </c>
+      <c r="CB199">
+        <v>0</v>
+      </c>
+      <c r="CC199">
+        <v>0</v>
+      </c>
+      <c r="CD199">
+        <v>0</v>
+      </c>
+      <c r="CE199">
+        <v>0</v>
+      </c>
+      <c r="CF199">
+        <v>0</v>
+      </c>
+      <c r="CG199">
+        <v>0</v>
+      </c>
+      <c r="CH199">
+        <v>0</v>
+      </c>
+      <c r="CI199">
+        <v>0</v>
+      </c>
+      <c r="CJ199">
+        <v>0</v>
+      </c>
+      <c r="CK199">
+        <v>0</v>
+      </c>
+      <c r="CL199">
+        <v>1</v>
+      </c>
+      <c r="CM199">
+        <v>0</v>
+      </c>
+      <c r="CN199">
+        <v>0</v>
+      </c>
+      <c r="CO199">
+        <v>0</v>
+      </c>
+      <c r="CP199">
+        <v>0</v>
+      </c>
+      <c r="CQ199">
+        <v>0</v>
+      </c>
+      <c r="CR199">
+        <v>0</v>
+      </c>
+      <c r="CS199">
+        <v>0</v>
+      </c>
+      <c r="CT199">
+        <v>0</v>
+      </c>
+      <c r="CU199">
+        <v>0</v>
+      </c>
+      <c r="CV199">
+        <v>0</v>
+      </c>
+      <c r="CW199">
+        <v>0</v>
+      </c>
+      <c r="CX199">
+        <v>0</v>
+      </c>
+      <c r="CY199">
+        <v>0</v>
+      </c>
+      <c r="CZ199">
+        <v>0</v>
+      </c>
+      <c r="DA199">
+        <v>0</v>
+      </c>
+      <c r="DB199">
+        <v>0</v>
+      </c>
+      <c r="DC199">
+        <v>0</v>
+      </c>
+      <c r="DD199">
+        <v>0</v>
+      </c>
+      <c r="DE199">
+        <v>0</v>
+      </c>
+      <c r="DF199">
+        <v>0</v>
+      </c>
+      <c r="DG199">
+        <v>0</v>
+      </c>
+      <c r="DH199">
+        <v>0</v>
+      </c>
+      <c r="DI199">
+        <v>0</v>
+      </c>
+      <c r="DJ199">
+        <v>0</v>
+      </c>
+      <c r="DK199">
+        <v>0</v>
+      </c>
+      <c r="DL199">
+        <v>0</v>
+      </c>
+      <c r="DM199">
+        <v>0</v>
+      </c>
+      <c r="DN199">
+        <v>0</v>
+      </c>
+      <c r="DO199">
+        <v>0</v>
+      </c>
+      <c r="DP199">
+        <v>0</v>
+      </c>
+      <c r="DQ199">
+        <v>0</v>
+      </c>
+      <c r="DR199">
+        <v>0</v>
+      </c>
+      <c r="DS199">
+        <v>0</v>
+      </c>
+      <c r="DT199">
+        <v>1</v>
+      </c>
+      <c r="DU199">
+        <v>0</v>
+      </c>
+      <c r="DV199">
+        <v>0</v>
+      </c>
+      <c r="DW199">
+        <v>0</v>
+      </c>
+      <c r="DX199">
+        <v>0</v>
+      </c>
+      <c r="DY199">
+        <v>0</v>
+      </c>
+      <c r="DZ199">
+        <v>0</v>
+      </c>
+      <c r="EA199">
+        <v>0</v>
+      </c>
+      <c r="EB199">
+        <v>0</v>
+      </c>
+      <c r="EC199">
+        <v>0</v>
+      </c>
+      <c r="ED199">
+        <v>0</v>
+      </c>
+      <c r="EE199">
+        <v>0</v>
+      </c>
+      <c r="EF199">
+        <v>0</v>
+      </c>
+      <c r="EG199">
+        <v>0</v>
+      </c>
+      <c r="EH199">
+        <v>0</v>
+      </c>
+      <c r="EI199">
+        <v>0</v>
+      </c>
+      <c r="EJ199">
+        <v>0</v>
+      </c>
+      <c r="EK199">
+        <v>1</v>
+      </c>
+      <c r="EL199">
+        <v>1</v>
+      </c>
+      <c r="EM199">
+        <v>0</v>
+      </c>
+      <c r="EN199">
+        <v>0</v>
+      </c>
+      <c r="EO199">
+        <v>0</v>
+      </c>
+      <c r="EP199">
+        <v>0</v>
+      </c>
+      <c r="EQ199">
+        <v>0</v>
+      </c>
+      <c r="ER199">
+        <v>0</v>
+      </c>
+      <c r="ES199">
+        <v>0</v>
+      </c>
+      <c r="ET199">
+        <v>0</v>
+      </c>
+      <c r="EU199">
+        <v>0</v>
+      </c>
+      <c r="EV199">
+        <v>0</v>
+      </c>
+      <c r="EW199">
+        <v>0</v>
+      </c>
+      <c r="EX199">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EX199"/>
+  <dimension ref="A1:EX200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95773,6 +95773,484 @@
         <v>0</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Economic Diversity and Student Outcomes</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggbeeswarm, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2024/2024-09-10/20240910.R</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2024/2024-09-10///20240910.png</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+      <c r="AC200">
+        <v>0</v>
+      </c>
+      <c r="AD200">
+        <v>0</v>
+      </c>
+      <c r="AE200">
+        <v>0</v>
+      </c>
+      <c r="AF200">
+        <v>1</v>
+      </c>
+      <c r="AG200">
+        <v>0</v>
+      </c>
+      <c r="AH200">
+        <v>0</v>
+      </c>
+      <c r="AI200">
+        <v>0</v>
+      </c>
+      <c r="AJ200">
+        <v>0</v>
+      </c>
+      <c r="AK200">
+        <v>0</v>
+      </c>
+      <c r="AL200">
+        <v>0</v>
+      </c>
+      <c r="AM200">
+        <v>0</v>
+      </c>
+      <c r="AN200">
+        <v>0</v>
+      </c>
+      <c r="AO200">
+        <v>0</v>
+      </c>
+      <c r="AP200">
+        <v>0</v>
+      </c>
+      <c r="AQ200">
+        <v>0</v>
+      </c>
+      <c r="AR200">
+        <v>0</v>
+      </c>
+      <c r="AS200">
+        <v>0</v>
+      </c>
+      <c r="AT200">
+        <v>0</v>
+      </c>
+      <c r="AU200">
+        <v>0</v>
+      </c>
+      <c r="AV200">
+        <v>0</v>
+      </c>
+      <c r="AW200">
+        <v>0</v>
+      </c>
+      <c r="AX200">
+        <v>0</v>
+      </c>
+      <c r="AY200">
+        <v>0</v>
+      </c>
+      <c r="AZ200">
+        <v>0</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>0</v>
+      </c>
+      <c r="BC200">
+        <v>0</v>
+      </c>
+      <c r="BD200">
+        <v>0</v>
+      </c>
+      <c r="BE200">
+        <v>0</v>
+      </c>
+      <c r="BF200">
+        <v>0</v>
+      </c>
+      <c r="BG200">
+        <v>1</v>
+      </c>
+      <c r="BH200">
+        <v>0</v>
+      </c>
+      <c r="BI200">
+        <v>0</v>
+      </c>
+      <c r="BJ200">
+        <v>0</v>
+      </c>
+      <c r="BK200">
+        <v>0</v>
+      </c>
+      <c r="BL200">
+        <v>1</v>
+      </c>
+      <c r="BM200">
+        <v>0</v>
+      </c>
+      <c r="BN200">
+        <v>0</v>
+      </c>
+      <c r="BO200">
+        <v>0</v>
+      </c>
+      <c r="BP200">
+        <v>0</v>
+      </c>
+      <c r="BQ200">
+        <v>0</v>
+      </c>
+      <c r="BR200">
+        <v>0</v>
+      </c>
+      <c r="BS200">
+        <v>0</v>
+      </c>
+      <c r="BT200">
+        <v>0</v>
+      </c>
+      <c r="BU200">
+        <v>0</v>
+      </c>
+      <c r="BV200">
+        <v>0</v>
+      </c>
+      <c r="BW200">
+        <v>0</v>
+      </c>
+      <c r="BX200">
+        <v>0</v>
+      </c>
+      <c r="BY200">
+        <v>0</v>
+      </c>
+      <c r="BZ200">
+        <v>0</v>
+      </c>
+      <c r="CA200">
+        <v>0</v>
+      </c>
+      <c r="CB200">
+        <v>0</v>
+      </c>
+      <c r="CC200">
+        <v>0</v>
+      </c>
+      <c r="CD200">
+        <v>0</v>
+      </c>
+      <c r="CE200">
+        <v>0</v>
+      </c>
+      <c r="CF200">
+        <v>0</v>
+      </c>
+      <c r="CG200">
+        <v>0</v>
+      </c>
+      <c r="CH200">
+        <v>0</v>
+      </c>
+      <c r="CI200">
+        <v>0</v>
+      </c>
+      <c r="CJ200">
+        <v>0</v>
+      </c>
+      <c r="CK200">
+        <v>0</v>
+      </c>
+      <c r="CL200">
+        <v>1</v>
+      </c>
+      <c r="CM200">
+        <v>0</v>
+      </c>
+      <c r="CN200">
+        <v>0</v>
+      </c>
+      <c r="CO200">
+        <v>0</v>
+      </c>
+      <c r="CP200">
+        <v>0</v>
+      </c>
+      <c r="CQ200">
+        <v>0</v>
+      </c>
+      <c r="CR200">
+        <v>0</v>
+      </c>
+      <c r="CS200">
+        <v>0</v>
+      </c>
+      <c r="CT200">
+        <v>0</v>
+      </c>
+      <c r="CU200">
+        <v>0</v>
+      </c>
+      <c r="CV200">
+        <v>0</v>
+      </c>
+      <c r="CW200">
+        <v>0</v>
+      </c>
+      <c r="CX200">
+        <v>0</v>
+      </c>
+      <c r="CY200">
+        <v>0</v>
+      </c>
+      <c r="CZ200">
+        <v>0</v>
+      </c>
+      <c r="DA200">
+        <v>0</v>
+      </c>
+      <c r="DB200">
+        <v>0</v>
+      </c>
+      <c r="DC200">
+        <v>0</v>
+      </c>
+      <c r="DD200">
+        <v>0</v>
+      </c>
+      <c r="DE200">
+        <v>0</v>
+      </c>
+      <c r="DF200">
+        <v>0</v>
+      </c>
+      <c r="DG200">
+        <v>0</v>
+      </c>
+      <c r="DH200">
+        <v>0</v>
+      </c>
+      <c r="DI200">
+        <v>0</v>
+      </c>
+      <c r="DJ200">
+        <v>0</v>
+      </c>
+      <c r="DK200">
+        <v>0</v>
+      </c>
+      <c r="DL200">
+        <v>0</v>
+      </c>
+      <c r="DM200">
+        <v>0</v>
+      </c>
+      <c r="DN200">
+        <v>0</v>
+      </c>
+      <c r="DO200">
+        <v>0</v>
+      </c>
+      <c r="DP200">
+        <v>0</v>
+      </c>
+      <c r="DQ200">
+        <v>0</v>
+      </c>
+      <c r="DR200">
+        <v>0</v>
+      </c>
+      <c r="DS200">
+        <v>0</v>
+      </c>
+      <c r="DT200">
+        <v>1</v>
+      </c>
+      <c r="DU200">
+        <v>0</v>
+      </c>
+      <c r="DV200">
+        <v>0</v>
+      </c>
+      <c r="DW200">
+        <v>0</v>
+      </c>
+      <c r="DX200">
+        <v>0</v>
+      </c>
+      <c r="DY200">
+        <v>0</v>
+      </c>
+      <c r="DZ200">
+        <v>0</v>
+      </c>
+      <c r="EA200">
+        <v>0</v>
+      </c>
+      <c r="EB200">
+        <v>0</v>
+      </c>
+      <c r="EC200">
+        <v>0</v>
+      </c>
+      <c r="ED200">
+        <v>0</v>
+      </c>
+      <c r="EE200">
+        <v>0</v>
+      </c>
+      <c r="EF200">
+        <v>0</v>
+      </c>
+      <c r="EG200">
+        <v>0</v>
+      </c>
+      <c r="EH200">
+        <v>0</v>
+      </c>
+      <c r="EI200">
+        <v>0</v>
+      </c>
+      <c r="EJ200">
+        <v>0</v>
+      </c>
+      <c r="EK200">
+        <v>1</v>
+      </c>
+      <c r="EL200">
+        <v>1</v>
+      </c>
+      <c r="EM200">
+        <v>0</v>
+      </c>
+      <c r="EN200">
+        <v>0</v>
+      </c>
+      <c r="EO200">
+        <v>0</v>
+      </c>
+      <c r="EP200">
+        <v>0</v>
+      </c>
+      <c r="EQ200">
+        <v>0</v>
+      </c>
+      <c r="ER200">
+        <v>0</v>
+      </c>
+      <c r="ES200">
+        <v>0</v>
+      </c>
+      <c r="ET200">
+        <v>0</v>
+      </c>
+      <c r="EU200">
+        <v>0</v>
+      </c>
+      <c r="EV200">
+        <v>0</v>
+      </c>
+      <c r="EW200">
+        <v>0</v>
+      </c>
+      <c r="EX200">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EY201"/>
+  <dimension ref="A1:EY202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97334,6 +97334,487 @@
         <v>0</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>International Mathematical Olympiad</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggsankey, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2024/2024-09-24/20240924.R</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2024/2024-09-24///20240924.png</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>0</v>
+      </c>
+      <c r="AC202">
+        <v>0</v>
+      </c>
+      <c r="AD202">
+        <v>0</v>
+      </c>
+      <c r="AE202">
+        <v>0</v>
+      </c>
+      <c r="AF202">
+        <v>0</v>
+      </c>
+      <c r="AG202">
+        <v>0</v>
+      </c>
+      <c r="AH202">
+        <v>0</v>
+      </c>
+      <c r="AI202">
+        <v>0</v>
+      </c>
+      <c r="AJ202">
+        <v>0</v>
+      </c>
+      <c r="AK202">
+        <v>0</v>
+      </c>
+      <c r="AL202">
+        <v>0</v>
+      </c>
+      <c r="AM202">
+        <v>0</v>
+      </c>
+      <c r="AN202">
+        <v>0</v>
+      </c>
+      <c r="AO202">
+        <v>0</v>
+      </c>
+      <c r="AP202">
+        <v>0</v>
+      </c>
+      <c r="AQ202">
+        <v>0</v>
+      </c>
+      <c r="AR202">
+        <v>0</v>
+      </c>
+      <c r="AS202">
+        <v>0</v>
+      </c>
+      <c r="AT202">
+        <v>0</v>
+      </c>
+      <c r="AU202">
+        <v>0</v>
+      </c>
+      <c r="AV202">
+        <v>0</v>
+      </c>
+      <c r="AW202">
+        <v>0</v>
+      </c>
+      <c r="AX202">
+        <v>0</v>
+      </c>
+      <c r="AY202">
+        <v>0</v>
+      </c>
+      <c r="AZ202">
+        <v>0</v>
+      </c>
+      <c r="BA202">
+        <v>0</v>
+      </c>
+      <c r="BB202">
+        <v>1</v>
+      </c>
+      <c r="BC202">
+        <v>0</v>
+      </c>
+      <c r="BD202">
+        <v>0</v>
+      </c>
+      <c r="BE202">
+        <v>0</v>
+      </c>
+      <c r="BF202">
+        <v>0</v>
+      </c>
+      <c r="BG202">
+        <v>1</v>
+      </c>
+      <c r="BH202">
+        <v>0</v>
+      </c>
+      <c r="BI202">
+        <v>0</v>
+      </c>
+      <c r="BJ202">
+        <v>0</v>
+      </c>
+      <c r="BK202">
+        <v>0</v>
+      </c>
+      <c r="BL202">
+        <v>1</v>
+      </c>
+      <c r="BM202">
+        <v>0</v>
+      </c>
+      <c r="BN202">
+        <v>0</v>
+      </c>
+      <c r="BO202">
+        <v>0</v>
+      </c>
+      <c r="BP202">
+        <v>0</v>
+      </c>
+      <c r="BQ202">
+        <v>0</v>
+      </c>
+      <c r="BR202">
+        <v>0</v>
+      </c>
+      <c r="BS202">
+        <v>0</v>
+      </c>
+      <c r="BT202">
+        <v>0</v>
+      </c>
+      <c r="BU202">
+        <v>0</v>
+      </c>
+      <c r="BV202">
+        <v>0</v>
+      </c>
+      <c r="BW202">
+        <v>0</v>
+      </c>
+      <c r="BX202">
+        <v>0</v>
+      </c>
+      <c r="BY202">
+        <v>0</v>
+      </c>
+      <c r="BZ202">
+        <v>0</v>
+      </c>
+      <c r="CA202">
+        <v>0</v>
+      </c>
+      <c r="CB202">
+        <v>0</v>
+      </c>
+      <c r="CC202">
+        <v>0</v>
+      </c>
+      <c r="CD202">
+        <v>0</v>
+      </c>
+      <c r="CE202">
+        <v>0</v>
+      </c>
+      <c r="CF202">
+        <v>0</v>
+      </c>
+      <c r="CG202">
+        <v>0</v>
+      </c>
+      <c r="CH202">
+        <v>0</v>
+      </c>
+      <c r="CI202">
+        <v>0</v>
+      </c>
+      <c r="CJ202">
+        <v>0</v>
+      </c>
+      <c r="CK202">
+        <v>0</v>
+      </c>
+      <c r="CL202">
+        <v>0</v>
+      </c>
+      <c r="CM202">
+        <v>1</v>
+      </c>
+      <c r="CN202">
+        <v>0</v>
+      </c>
+      <c r="CO202">
+        <v>0</v>
+      </c>
+      <c r="CP202">
+        <v>0</v>
+      </c>
+      <c r="CQ202">
+        <v>0</v>
+      </c>
+      <c r="CR202">
+        <v>0</v>
+      </c>
+      <c r="CS202">
+        <v>0</v>
+      </c>
+      <c r="CT202">
+        <v>0</v>
+      </c>
+      <c r="CU202">
+        <v>0</v>
+      </c>
+      <c r="CV202">
+        <v>0</v>
+      </c>
+      <c r="CW202">
+        <v>0</v>
+      </c>
+      <c r="CX202">
+        <v>0</v>
+      </c>
+      <c r="CY202">
+        <v>0</v>
+      </c>
+      <c r="CZ202">
+        <v>0</v>
+      </c>
+      <c r="DA202">
+        <v>0</v>
+      </c>
+      <c r="DB202">
+        <v>0</v>
+      </c>
+      <c r="DC202">
+        <v>0</v>
+      </c>
+      <c r="DD202">
+        <v>0</v>
+      </c>
+      <c r="DE202">
+        <v>0</v>
+      </c>
+      <c r="DF202">
+        <v>0</v>
+      </c>
+      <c r="DG202">
+        <v>0</v>
+      </c>
+      <c r="DH202">
+        <v>0</v>
+      </c>
+      <c r="DI202">
+        <v>0</v>
+      </c>
+      <c r="DJ202">
+        <v>0</v>
+      </c>
+      <c r="DK202">
+        <v>0</v>
+      </c>
+      <c r="DL202">
+        <v>0</v>
+      </c>
+      <c r="DM202">
+        <v>0</v>
+      </c>
+      <c r="DN202">
+        <v>0</v>
+      </c>
+      <c r="DO202">
+        <v>0</v>
+      </c>
+      <c r="DP202">
+        <v>0</v>
+      </c>
+      <c r="DQ202">
+        <v>0</v>
+      </c>
+      <c r="DR202">
+        <v>0</v>
+      </c>
+      <c r="DS202">
+        <v>0</v>
+      </c>
+      <c r="DT202">
+        <v>0</v>
+      </c>
+      <c r="DU202">
+        <v>1</v>
+      </c>
+      <c r="DV202">
+        <v>0</v>
+      </c>
+      <c r="DW202">
+        <v>0</v>
+      </c>
+      <c r="DX202">
+        <v>0</v>
+      </c>
+      <c r="DY202">
+        <v>0</v>
+      </c>
+      <c r="DZ202">
+        <v>0</v>
+      </c>
+      <c r="EA202">
+        <v>0</v>
+      </c>
+      <c r="EB202">
+        <v>0</v>
+      </c>
+      <c r="EC202">
+        <v>0</v>
+      </c>
+      <c r="ED202">
+        <v>0</v>
+      </c>
+      <c r="EE202">
+        <v>0</v>
+      </c>
+      <c r="EF202">
+        <v>0</v>
+      </c>
+      <c r="EG202">
+        <v>0</v>
+      </c>
+      <c r="EH202">
+        <v>0</v>
+      </c>
+      <c r="EI202">
+        <v>0</v>
+      </c>
+      <c r="EJ202">
+        <v>0</v>
+      </c>
+      <c r="EK202">
+        <v>0</v>
+      </c>
+      <c r="EL202">
+        <v>1</v>
+      </c>
+      <c r="EM202">
+        <v>1</v>
+      </c>
+      <c r="EN202">
+        <v>0</v>
+      </c>
+      <c r="EO202">
+        <v>0</v>
+      </c>
+      <c r="EP202">
+        <v>0</v>
+      </c>
+      <c r="EQ202">
+        <v>0</v>
+      </c>
+      <c r="ER202">
+        <v>0</v>
+      </c>
+      <c r="ES202">
+        <v>0</v>
+      </c>
+      <c r="ET202">
+        <v>0</v>
+      </c>
+      <c r="EU202">
+        <v>0</v>
+      </c>
+      <c r="EV202">
+        <v>0</v>
+      </c>
+      <c r="EW202">
+        <v>0</v>
+      </c>
+      <c r="EX202">
+        <v>0</v>
+      </c>
+      <c r="EY202">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EZ203"/>
+  <dimension ref="A1:EZ204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -98907,6 +98907,490 @@
         <v>0</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>National Park Species</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggragged, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2024/2024-10-08/20241008.R</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2024/2024-10-08///20241008.png</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
+      <c r="AC204">
+        <v>0</v>
+      </c>
+      <c r="AD204">
+        <v>0</v>
+      </c>
+      <c r="AE204">
+        <v>0</v>
+      </c>
+      <c r="AF204">
+        <v>0</v>
+      </c>
+      <c r="AG204">
+        <v>0</v>
+      </c>
+      <c r="AH204">
+        <v>0</v>
+      </c>
+      <c r="AI204">
+        <v>0</v>
+      </c>
+      <c r="AJ204">
+        <v>0</v>
+      </c>
+      <c r="AK204">
+        <v>0</v>
+      </c>
+      <c r="AL204">
+        <v>0</v>
+      </c>
+      <c r="AM204">
+        <v>0</v>
+      </c>
+      <c r="AN204">
+        <v>0</v>
+      </c>
+      <c r="AO204">
+        <v>0</v>
+      </c>
+      <c r="AP204">
+        <v>0</v>
+      </c>
+      <c r="AQ204">
+        <v>0</v>
+      </c>
+      <c r="AR204">
+        <v>0</v>
+      </c>
+      <c r="AS204">
+        <v>0</v>
+      </c>
+      <c r="AT204">
+        <v>0</v>
+      </c>
+      <c r="AU204">
+        <v>0</v>
+      </c>
+      <c r="AV204">
+        <v>0</v>
+      </c>
+      <c r="AW204">
+        <v>0</v>
+      </c>
+      <c r="AX204">
+        <v>0</v>
+      </c>
+      <c r="AY204">
+        <v>1</v>
+      </c>
+      <c r="AZ204">
+        <v>0</v>
+      </c>
+      <c r="BA204">
+        <v>0</v>
+      </c>
+      <c r="BB204">
+        <v>0</v>
+      </c>
+      <c r="BC204">
+        <v>0</v>
+      </c>
+      <c r="BD204">
+        <v>0</v>
+      </c>
+      <c r="BE204">
+        <v>0</v>
+      </c>
+      <c r="BF204">
+        <v>0</v>
+      </c>
+      <c r="BG204">
+        <v>0</v>
+      </c>
+      <c r="BH204">
+        <v>1</v>
+      </c>
+      <c r="BI204">
+        <v>0</v>
+      </c>
+      <c r="BJ204">
+        <v>0</v>
+      </c>
+      <c r="BK204">
+        <v>0</v>
+      </c>
+      <c r="BL204">
+        <v>0</v>
+      </c>
+      <c r="BM204">
+        <v>1</v>
+      </c>
+      <c r="BN204">
+        <v>0</v>
+      </c>
+      <c r="BO204">
+        <v>0</v>
+      </c>
+      <c r="BP204">
+        <v>0</v>
+      </c>
+      <c r="BQ204">
+        <v>0</v>
+      </c>
+      <c r="BR204">
+        <v>0</v>
+      </c>
+      <c r="BS204">
+        <v>0</v>
+      </c>
+      <c r="BT204">
+        <v>0</v>
+      </c>
+      <c r="BU204">
+        <v>0</v>
+      </c>
+      <c r="BV204">
+        <v>0</v>
+      </c>
+      <c r="BW204">
+        <v>0</v>
+      </c>
+      <c r="BX204">
+        <v>0</v>
+      </c>
+      <c r="BY204">
+        <v>0</v>
+      </c>
+      <c r="BZ204">
+        <v>0</v>
+      </c>
+      <c r="CA204">
+        <v>0</v>
+      </c>
+      <c r="CB204">
+        <v>0</v>
+      </c>
+      <c r="CC204">
+        <v>0</v>
+      </c>
+      <c r="CD204">
+        <v>0</v>
+      </c>
+      <c r="CE204">
+        <v>0</v>
+      </c>
+      <c r="CF204">
+        <v>0</v>
+      </c>
+      <c r="CG204">
+        <v>0</v>
+      </c>
+      <c r="CH204">
+        <v>0</v>
+      </c>
+      <c r="CI204">
+        <v>0</v>
+      </c>
+      <c r="CJ204">
+        <v>0</v>
+      </c>
+      <c r="CK204">
+        <v>0</v>
+      </c>
+      <c r="CL204">
+        <v>0</v>
+      </c>
+      <c r="CM204">
+        <v>0</v>
+      </c>
+      <c r="CN204">
+        <v>1</v>
+      </c>
+      <c r="CO204">
+        <v>0</v>
+      </c>
+      <c r="CP204">
+        <v>0</v>
+      </c>
+      <c r="CQ204">
+        <v>0</v>
+      </c>
+      <c r="CR204">
+        <v>0</v>
+      </c>
+      <c r="CS204">
+        <v>0</v>
+      </c>
+      <c r="CT204">
+        <v>0</v>
+      </c>
+      <c r="CU204">
+        <v>0</v>
+      </c>
+      <c r="CV204">
+        <v>0</v>
+      </c>
+      <c r="CW204">
+        <v>0</v>
+      </c>
+      <c r="CX204">
+        <v>0</v>
+      </c>
+      <c r="CY204">
+        <v>0</v>
+      </c>
+      <c r="CZ204">
+        <v>0</v>
+      </c>
+      <c r="DA204">
+        <v>0</v>
+      </c>
+      <c r="DB204">
+        <v>0</v>
+      </c>
+      <c r="DC204">
+        <v>0</v>
+      </c>
+      <c r="DD204">
+        <v>0</v>
+      </c>
+      <c r="DE204">
+        <v>0</v>
+      </c>
+      <c r="DF204">
+        <v>0</v>
+      </c>
+      <c r="DG204">
+        <v>0</v>
+      </c>
+      <c r="DH204">
+        <v>0</v>
+      </c>
+      <c r="DI204">
+        <v>0</v>
+      </c>
+      <c r="DJ204">
+        <v>0</v>
+      </c>
+      <c r="DK204">
+        <v>0</v>
+      </c>
+      <c r="DL204">
+        <v>0</v>
+      </c>
+      <c r="DM204">
+        <v>0</v>
+      </c>
+      <c r="DN204">
+        <v>0</v>
+      </c>
+      <c r="DO204">
+        <v>0</v>
+      </c>
+      <c r="DP204">
+        <v>0</v>
+      </c>
+      <c r="DQ204">
+        <v>0</v>
+      </c>
+      <c r="DR204">
+        <v>0</v>
+      </c>
+      <c r="DS204">
+        <v>0</v>
+      </c>
+      <c r="DT204">
+        <v>0</v>
+      </c>
+      <c r="DU204">
+        <v>0</v>
+      </c>
+      <c r="DV204">
+        <v>1</v>
+      </c>
+      <c r="DW204">
+        <v>0</v>
+      </c>
+      <c r="DX204">
+        <v>0</v>
+      </c>
+      <c r="DY204">
+        <v>0</v>
+      </c>
+      <c r="DZ204">
+        <v>0</v>
+      </c>
+      <c r="EA204">
+        <v>0</v>
+      </c>
+      <c r="EB204">
+        <v>0</v>
+      </c>
+      <c r="EC204">
+        <v>0</v>
+      </c>
+      <c r="ED204">
+        <v>0</v>
+      </c>
+      <c r="EE204">
+        <v>0</v>
+      </c>
+      <c r="EF204">
+        <v>0</v>
+      </c>
+      <c r="EG204">
+        <v>0</v>
+      </c>
+      <c r="EH204">
+        <v>0</v>
+      </c>
+      <c r="EI204">
+        <v>0</v>
+      </c>
+      <c r="EJ204">
+        <v>0</v>
+      </c>
+      <c r="EK204">
+        <v>0</v>
+      </c>
+      <c r="EL204">
+        <v>0</v>
+      </c>
+      <c r="EM204">
+        <v>1</v>
+      </c>
+      <c r="EN204">
+        <v>1</v>
+      </c>
+      <c r="EO204">
+        <v>0</v>
+      </c>
+      <c r="EP204">
+        <v>0</v>
+      </c>
+      <c r="EQ204">
+        <v>0</v>
+      </c>
+      <c r="ER204">
+        <v>0</v>
+      </c>
+      <c r="ES204">
+        <v>0</v>
+      </c>
+      <c r="ET204">
+        <v>0</v>
+      </c>
+      <c r="EU204">
+        <v>0</v>
+      </c>
+      <c r="EV204">
+        <v>0</v>
+      </c>
+      <c r="EW204">
+        <v>0</v>
+      </c>
+      <c r="EX204">
+        <v>0</v>
+      </c>
+      <c r="EY204">
+        <v>0</v>
+      </c>
+      <c r="EZ204">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EZ204"/>
+  <dimension ref="A1:EZ205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -99391,6 +99391,490 @@
         <v>0</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>The CIA World Factbook</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, geofacet, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2024/2024-10-22/20241022.R</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2024/2024-10-22///20241022.png</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>1</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
+      <c r="AD205">
+        <v>0</v>
+      </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
+      <c r="AF205">
+        <v>0</v>
+      </c>
+      <c r="AG205">
+        <v>0</v>
+      </c>
+      <c r="AH205">
+        <v>0</v>
+      </c>
+      <c r="AI205">
+        <v>0</v>
+      </c>
+      <c r="AJ205">
+        <v>0</v>
+      </c>
+      <c r="AK205">
+        <v>0</v>
+      </c>
+      <c r="AL205">
+        <v>0</v>
+      </c>
+      <c r="AM205">
+        <v>0</v>
+      </c>
+      <c r="AN205">
+        <v>0</v>
+      </c>
+      <c r="AO205">
+        <v>0</v>
+      </c>
+      <c r="AP205">
+        <v>0</v>
+      </c>
+      <c r="AQ205">
+        <v>0</v>
+      </c>
+      <c r="AR205">
+        <v>0</v>
+      </c>
+      <c r="AS205">
+        <v>0</v>
+      </c>
+      <c r="AT205">
+        <v>0</v>
+      </c>
+      <c r="AU205">
+        <v>0</v>
+      </c>
+      <c r="AV205">
+        <v>0</v>
+      </c>
+      <c r="AW205">
+        <v>0</v>
+      </c>
+      <c r="AX205">
+        <v>0</v>
+      </c>
+      <c r="AY205">
+        <v>0</v>
+      </c>
+      <c r="AZ205">
+        <v>0</v>
+      </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
+      <c r="BB205">
+        <v>0</v>
+      </c>
+      <c r="BC205">
+        <v>0</v>
+      </c>
+      <c r="BD205">
+        <v>0</v>
+      </c>
+      <c r="BE205">
+        <v>0</v>
+      </c>
+      <c r="BF205">
+        <v>0</v>
+      </c>
+      <c r="BG205">
+        <v>0</v>
+      </c>
+      <c r="BH205">
+        <v>1</v>
+      </c>
+      <c r="BI205">
+        <v>0</v>
+      </c>
+      <c r="BJ205">
+        <v>0</v>
+      </c>
+      <c r="BK205">
+        <v>0</v>
+      </c>
+      <c r="BL205">
+        <v>0</v>
+      </c>
+      <c r="BM205">
+        <v>1</v>
+      </c>
+      <c r="BN205">
+        <v>0</v>
+      </c>
+      <c r="BO205">
+        <v>0</v>
+      </c>
+      <c r="BP205">
+        <v>0</v>
+      </c>
+      <c r="BQ205">
+        <v>0</v>
+      </c>
+      <c r="BR205">
+        <v>0</v>
+      </c>
+      <c r="BS205">
+        <v>0</v>
+      </c>
+      <c r="BT205">
+        <v>0</v>
+      </c>
+      <c r="BU205">
+        <v>0</v>
+      </c>
+      <c r="BV205">
+        <v>0</v>
+      </c>
+      <c r="BW205">
+        <v>0</v>
+      </c>
+      <c r="BX205">
+        <v>0</v>
+      </c>
+      <c r="BY205">
+        <v>0</v>
+      </c>
+      <c r="BZ205">
+        <v>0</v>
+      </c>
+      <c r="CA205">
+        <v>0</v>
+      </c>
+      <c r="CB205">
+        <v>0</v>
+      </c>
+      <c r="CC205">
+        <v>0</v>
+      </c>
+      <c r="CD205">
+        <v>0</v>
+      </c>
+      <c r="CE205">
+        <v>0</v>
+      </c>
+      <c r="CF205">
+        <v>0</v>
+      </c>
+      <c r="CG205">
+        <v>0</v>
+      </c>
+      <c r="CH205">
+        <v>0</v>
+      </c>
+      <c r="CI205">
+        <v>0</v>
+      </c>
+      <c r="CJ205">
+        <v>0</v>
+      </c>
+      <c r="CK205">
+        <v>0</v>
+      </c>
+      <c r="CL205">
+        <v>0</v>
+      </c>
+      <c r="CM205">
+        <v>0</v>
+      </c>
+      <c r="CN205">
+        <v>1</v>
+      </c>
+      <c r="CO205">
+        <v>0</v>
+      </c>
+      <c r="CP205">
+        <v>0</v>
+      </c>
+      <c r="CQ205">
+        <v>0</v>
+      </c>
+      <c r="CR205">
+        <v>0</v>
+      </c>
+      <c r="CS205">
+        <v>0</v>
+      </c>
+      <c r="CT205">
+        <v>0</v>
+      </c>
+      <c r="CU205">
+        <v>1</v>
+      </c>
+      <c r="CV205">
+        <v>0</v>
+      </c>
+      <c r="CW205">
+        <v>0</v>
+      </c>
+      <c r="CX205">
+        <v>0</v>
+      </c>
+      <c r="CY205">
+        <v>0</v>
+      </c>
+      <c r="CZ205">
+        <v>0</v>
+      </c>
+      <c r="DA205">
+        <v>0</v>
+      </c>
+      <c r="DB205">
+        <v>0</v>
+      </c>
+      <c r="DC205">
+        <v>0</v>
+      </c>
+      <c r="DD205">
+        <v>0</v>
+      </c>
+      <c r="DE205">
+        <v>0</v>
+      </c>
+      <c r="DF205">
+        <v>0</v>
+      </c>
+      <c r="DG205">
+        <v>0</v>
+      </c>
+      <c r="DH205">
+        <v>0</v>
+      </c>
+      <c r="DI205">
+        <v>0</v>
+      </c>
+      <c r="DJ205">
+        <v>0</v>
+      </c>
+      <c r="DK205">
+        <v>0</v>
+      </c>
+      <c r="DL205">
+        <v>0</v>
+      </c>
+      <c r="DM205">
+        <v>0</v>
+      </c>
+      <c r="DN205">
+        <v>0</v>
+      </c>
+      <c r="DO205">
+        <v>0</v>
+      </c>
+      <c r="DP205">
+        <v>0</v>
+      </c>
+      <c r="DQ205">
+        <v>0</v>
+      </c>
+      <c r="DR205">
+        <v>0</v>
+      </c>
+      <c r="DS205">
+        <v>0</v>
+      </c>
+      <c r="DT205">
+        <v>0</v>
+      </c>
+      <c r="DU205">
+        <v>0</v>
+      </c>
+      <c r="DV205">
+        <v>1</v>
+      </c>
+      <c r="DW205">
+        <v>0</v>
+      </c>
+      <c r="DX205">
+        <v>0</v>
+      </c>
+      <c r="DY205">
+        <v>0</v>
+      </c>
+      <c r="DZ205">
+        <v>0</v>
+      </c>
+      <c r="EA205">
+        <v>0</v>
+      </c>
+      <c r="EB205">
+        <v>0</v>
+      </c>
+      <c r="EC205">
+        <v>0</v>
+      </c>
+      <c r="ED205">
+        <v>0</v>
+      </c>
+      <c r="EE205">
+        <v>0</v>
+      </c>
+      <c r="EF205">
+        <v>0</v>
+      </c>
+      <c r="EG205">
+        <v>0</v>
+      </c>
+      <c r="EH205">
+        <v>0</v>
+      </c>
+      <c r="EI205">
+        <v>0</v>
+      </c>
+      <c r="EJ205">
+        <v>0</v>
+      </c>
+      <c r="EK205">
+        <v>0</v>
+      </c>
+      <c r="EL205">
+        <v>0</v>
+      </c>
+      <c r="EM205">
+        <v>1</v>
+      </c>
+      <c r="EN205">
+        <v>1</v>
+      </c>
+      <c r="EO205">
+        <v>0</v>
+      </c>
+      <c r="EP205">
+        <v>0</v>
+      </c>
+      <c r="EQ205">
+        <v>0</v>
+      </c>
+      <c r="ER205">
+        <v>0</v>
+      </c>
+      <c r="ES205">
+        <v>0</v>
+      </c>
+      <c r="ET205">
+        <v>0</v>
+      </c>
+      <c r="EU205">
+        <v>0</v>
+      </c>
+      <c r="EV205">
+        <v>0</v>
+      </c>
+      <c r="EW205">
+        <v>0</v>
+      </c>
+      <c r="EX205">
+        <v>0</v>
+      </c>
+      <c r="EY205">
+        <v>0</v>
+      </c>
+      <c r="EZ205">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EZ205"/>
+  <dimension ref="A1:EZ206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -99399,479 +99399,963 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Southern Resident Killer Whale Encounters</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2024/2024-10-15/20241015.R</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2024/2024-10-15///20241015_v2.png</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
+      <c r="AD205">
+        <v>0</v>
+      </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
+      <c r="AF205">
+        <v>0</v>
+      </c>
+      <c r="AG205">
+        <v>0</v>
+      </c>
+      <c r="AH205">
+        <v>0</v>
+      </c>
+      <c r="AI205">
+        <v>0</v>
+      </c>
+      <c r="AJ205">
+        <v>0</v>
+      </c>
+      <c r="AK205">
+        <v>0</v>
+      </c>
+      <c r="AL205">
+        <v>0</v>
+      </c>
+      <c r="AM205">
+        <v>0</v>
+      </c>
+      <c r="AN205">
+        <v>0</v>
+      </c>
+      <c r="AO205">
+        <v>0</v>
+      </c>
+      <c r="AP205">
+        <v>0</v>
+      </c>
+      <c r="AQ205">
+        <v>0</v>
+      </c>
+      <c r="AR205">
+        <v>0</v>
+      </c>
+      <c r="AS205">
+        <v>0</v>
+      </c>
+      <c r="AT205">
+        <v>0</v>
+      </c>
+      <c r="AU205">
+        <v>0</v>
+      </c>
+      <c r="AV205">
+        <v>0</v>
+      </c>
+      <c r="AW205">
+        <v>0</v>
+      </c>
+      <c r="AX205">
+        <v>0</v>
+      </c>
+      <c r="AY205">
+        <v>0</v>
+      </c>
+      <c r="AZ205">
+        <v>0</v>
+      </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
+      <c r="BB205">
+        <v>0</v>
+      </c>
+      <c r="BC205">
+        <v>0</v>
+      </c>
+      <c r="BD205">
+        <v>0</v>
+      </c>
+      <c r="BE205">
+        <v>0</v>
+      </c>
+      <c r="BF205">
+        <v>0</v>
+      </c>
+      <c r="BG205">
+        <v>0</v>
+      </c>
+      <c r="BH205">
+        <v>1</v>
+      </c>
+      <c r="BI205">
+        <v>0</v>
+      </c>
+      <c r="BJ205">
+        <v>0</v>
+      </c>
+      <c r="BK205">
+        <v>0</v>
+      </c>
+      <c r="BL205">
+        <v>0</v>
+      </c>
+      <c r="BM205">
+        <v>1</v>
+      </c>
+      <c r="BN205">
+        <v>0</v>
+      </c>
+      <c r="BO205">
+        <v>0</v>
+      </c>
+      <c r="BP205">
+        <v>0</v>
+      </c>
+      <c r="BQ205">
+        <v>0</v>
+      </c>
+      <c r="BR205">
+        <v>0</v>
+      </c>
+      <c r="BS205">
+        <v>0</v>
+      </c>
+      <c r="BT205">
+        <v>0</v>
+      </c>
+      <c r="BU205">
+        <v>0</v>
+      </c>
+      <c r="BV205">
+        <v>0</v>
+      </c>
+      <c r="BW205">
+        <v>0</v>
+      </c>
+      <c r="BX205">
+        <v>0</v>
+      </c>
+      <c r="BY205">
+        <v>0</v>
+      </c>
+      <c r="BZ205">
+        <v>0</v>
+      </c>
+      <c r="CA205">
+        <v>0</v>
+      </c>
+      <c r="CB205">
+        <v>0</v>
+      </c>
+      <c r="CC205">
+        <v>0</v>
+      </c>
+      <c r="CD205">
+        <v>0</v>
+      </c>
+      <c r="CE205">
+        <v>0</v>
+      </c>
+      <c r="CF205">
+        <v>0</v>
+      </c>
+      <c r="CG205">
+        <v>0</v>
+      </c>
+      <c r="CH205">
+        <v>0</v>
+      </c>
+      <c r="CI205">
+        <v>0</v>
+      </c>
+      <c r="CJ205">
+        <v>0</v>
+      </c>
+      <c r="CK205">
+        <v>0</v>
+      </c>
+      <c r="CL205">
+        <v>0</v>
+      </c>
+      <c r="CM205">
+        <v>0</v>
+      </c>
+      <c r="CN205">
+        <v>1</v>
+      </c>
+      <c r="CO205">
+        <v>0</v>
+      </c>
+      <c r="CP205">
+        <v>0</v>
+      </c>
+      <c r="CQ205">
+        <v>0</v>
+      </c>
+      <c r="CR205">
+        <v>0</v>
+      </c>
+      <c r="CS205">
+        <v>0</v>
+      </c>
+      <c r="CT205">
+        <v>0</v>
+      </c>
+      <c r="CU205">
+        <v>0</v>
+      </c>
+      <c r="CV205">
+        <v>0</v>
+      </c>
+      <c r="CW205">
+        <v>0</v>
+      </c>
+      <c r="CX205">
+        <v>0</v>
+      </c>
+      <c r="CY205">
+        <v>0</v>
+      </c>
+      <c r="CZ205">
+        <v>0</v>
+      </c>
+      <c r="DA205">
+        <v>0</v>
+      </c>
+      <c r="DB205">
+        <v>0</v>
+      </c>
+      <c r="DC205">
+        <v>0</v>
+      </c>
+      <c r="DD205">
+        <v>0</v>
+      </c>
+      <c r="DE205">
+        <v>0</v>
+      </c>
+      <c r="DF205">
+        <v>0</v>
+      </c>
+      <c r="DG205">
+        <v>0</v>
+      </c>
+      <c r="DH205">
+        <v>0</v>
+      </c>
+      <c r="DI205">
+        <v>0</v>
+      </c>
+      <c r="DJ205">
+        <v>0</v>
+      </c>
+      <c r="DK205">
+        <v>0</v>
+      </c>
+      <c r="DL205">
+        <v>0</v>
+      </c>
+      <c r="DM205">
+        <v>0</v>
+      </c>
+      <c r="DN205">
+        <v>0</v>
+      </c>
+      <c r="DO205">
+        <v>0</v>
+      </c>
+      <c r="DP205">
+        <v>0</v>
+      </c>
+      <c r="DQ205">
+        <v>0</v>
+      </c>
+      <c r="DR205">
+        <v>0</v>
+      </c>
+      <c r="DS205">
+        <v>0</v>
+      </c>
+      <c r="DT205">
+        <v>0</v>
+      </c>
+      <c r="DU205">
+        <v>0</v>
+      </c>
+      <c r="DV205">
+        <v>1</v>
+      </c>
+      <c r="DW205">
+        <v>0</v>
+      </c>
+      <c r="DX205">
+        <v>0</v>
+      </c>
+      <c r="DY205">
+        <v>0</v>
+      </c>
+      <c r="DZ205">
+        <v>0</v>
+      </c>
+      <c r="EA205">
+        <v>0</v>
+      </c>
+      <c r="EB205">
+        <v>0</v>
+      </c>
+      <c r="EC205">
+        <v>0</v>
+      </c>
+      <c r="ED205">
+        <v>0</v>
+      </c>
+      <c r="EE205">
+        <v>0</v>
+      </c>
+      <c r="EF205">
+        <v>0</v>
+      </c>
+      <c r="EG205">
+        <v>0</v>
+      </c>
+      <c r="EH205">
+        <v>0</v>
+      </c>
+      <c r="EI205">
+        <v>0</v>
+      </c>
+      <c r="EJ205">
+        <v>0</v>
+      </c>
+      <c r="EK205">
+        <v>0</v>
+      </c>
+      <c r="EL205">
+        <v>0</v>
+      </c>
+      <c r="EM205">
+        <v>1</v>
+      </c>
+      <c r="EN205">
+        <v>1</v>
+      </c>
+      <c r="EO205">
+        <v>0</v>
+      </c>
+      <c r="EP205">
+        <v>0</v>
+      </c>
+      <c r="EQ205">
+        <v>0</v>
+      </c>
+      <c r="ER205">
+        <v>0</v>
+      </c>
+      <c r="ES205">
+        <v>0</v>
+      </c>
+      <c r="ET205">
+        <v>0</v>
+      </c>
+      <c r="EU205">
+        <v>0</v>
+      </c>
+      <c r="EV205">
+        <v>0</v>
+      </c>
+      <c r="EW205">
+        <v>0</v>
+      </c>
+      <c r="EX205">
+        <v>0</v>
+      </c>
+      <c r="EY205">
+        <v>0</v>
+      </c>
+      <c r="EZ205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>2024-10-22</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>The CIA World Factbook</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, geofacet, tidytuesdayR</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2024/2024-10-22/20241022.R</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>2024/2024-10-22///20241022.png</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205">
-        <v>1</v>
-      </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-      <c r="M205">
-        <v>0</v>
-      </c>
-      <c r="N205">
-        <v>0</v>
-      </c>
-      <c r="O205">
-        <v>0</v>
-      </c>
-      <c r="P205">
-        <v>0</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-      <c r="R205">
-        <v>0</v>
-      </c>
-      <c r="S205">
-        <v>0</v>
-      </c>
-      <c r="T205">
-        <v>0</v>
-      </c>
-      <c r="U205">
-        <v>0</v>
-      </c>
-      <c r="V205">
-        <v>0</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
-      <c r="AA205">
-        <v>1</v>
-      </c>
-      <c r="AB205">
-        <v>0</v>
-      </c>
-      <c r="AC205">
-        <v>0</v>
-      </c>
-      <c r="AD205">
-        <v>0</v>
-      </c>
-      <c r="AE205">
-        <v>0</v>
-      </c>
-      <c r="AF205">
-        <v>0</v>
-      </c>
-      <c r="AG205">
-        <v>0</v>
-      </c>
-      <c r="AH205">
-        <v>0</v>
-      </c>
-      <c r="AI205">
-        <v>0</v>
-      </c>
-      <c r="AJ205">
-        <v>0</v>
-      </c>
-      <c r="AK205">
-        <v>0</v>
-      </c>
-      <c r="AL205">
-        <v>0</v>
-      </c>
-      <c r="AM205">
-        <v>0</v>
-      </c>
-      <c r="AN205">
-        <v>0</v>
-      </c>
-      <c r="AO205">
-        <v>0</v>
-      </c>
-      <c r="AP205">
-        <v>0</v>
-      </c>
-      <c r="AQ205">
-        <v>0</v>
-      </c>
-      <c r="AR205">
-        <v>0</v>
-      </c>
-      <c r="AS205">
-        <v>0</v>
-      </c>
-      <c r="AT205">
-        <v>0</v>
-      </c>
-      <c r="AU205">
-        <v>0</v>
-      </c>
-      <c r="AV205">
-        <v>0</v>
-      </c>
-      <c r="AW205">
-        <v>0</v>
-      </c>
-      <c r="AX205">
-        <v>0</v>
-      </c>
-      <c r="AY205">
-        <v>0</v>
-      </c>
-      <c r="AZ205">
-        <v>0</v>
-      </c>
-      <c r="BA205">
-        <v>0</v>
-      </c>
-      <c r="BB205">
-        <v>0</v>
-      </c>
-      <c r="BC205">
-        <v>0</v>
-      </c>
-      <c r="BD205">
-        <v>0</v>
-      </c>
-      <c r="BE205">
-        <v>0</v>
-      </c>
-      <c r="BF205">
-        <v>0</v>
-      </c>
-      <c r="BG205">
-        <v>0</v>
-      </c>
-      <c r="BH205">
-        <v>1</v>
-      </c>
-      <c r="BI205">
-        <v>0</v>
-      </c>
-      <c r="BJ205">
-        <v>0</v>
-      </c>
-      <c r="BK205">
-        <v>0</v>
-      </c>
-      <c r="BL205">
-        <v>0</v>
-      </c>
-      <c r="BM205">
-        <v>1</v>
-      </c>
-      <c r="BN205">
-        <v>0</v>
-      </c>
-      <c r="BO205">
-        <v>0</v>
-      </c>
-      <c r="BP205">
-        <v>0</v>
-      </c>
-      <c r="BQ205">
-        <v>0</v>
-      </c>
-      <c r="BR205">
-        <v>0</v>
-      </c>
-      <c r="BS205">
-        <v>0</v>
-      </c>
-      <c r="BT205">
-        <v>0</v>
-      </c>
-      <c r="BU205">
-        <v>0</v>
-      </c>
-      <c r="BV205">
-        <v>0</v>
-      </c>
-      <c r="BW205">
-        <v>0</v>
-      </c>
-      <c r="BX205">
-        <v>0</v>
-      </c>
-      <c r="BY205">
-        <v>0</v>
-      </c>
-      <c r="BZ205">
-        <v>0</v>
-      </c>
-      <c r="CA205">
-        <v>0</v>
-      </c>
-      <c r="CB205">
-        <v>0</v>
-      </c>
-      <c r="CC205">
-        <v>0</v>
-      </c>
-      <c r="CD205">
-        <v>0</v>
-      </c>
-      <c r="CE205">
-        <v>0</v>
-      </c>
-      <c r="CF205">
-        <v>0</v>
-      </c>
-      <c r="CG205">
-        <v>0</v>
-      </c>
-      <c r="CH205">
-        <v>0</v>
-      </c>
-      <c r="CI205">
-        <v>0</v>
-      </c>
-      <c r="CJ205">
-        <v>0</v>
-      </c>
-      <c r="CK205">
-        <v>0</v>
-      </c>
-      <c r="CL205">
-        <v>0</v>
-      </c>
-      <c r="CM205">
-        <v>0</v>
-      </c>
-      <c r="CN205">
-        <v>1</v>
-      </c>
-      <c r="CO205">
-        <v>0</v>
-      </c>
-      <c r="CP205">
-        <v>0</v>
-      </c>
-      <c r="CQ205">
-        <v>0</v>
-      </c>
-      <c r="CR205">
-        <v>0</v>
-      </c>
-      <c r="CS205">
-        <v>0</v>
-      </c>
-      <c r="CT205">
-        <v>0</v>
-      </c>
-      <c r="CU205">
-        <v>1</v>
-      </c>
-      <c r="CV205">
-        <v>0</v>
-      </c>
-      <c r="CW205">
-        <v>0</v>
-      </c>
-      <c r="CX205">
-        <v>0</v>
-      </c>
-      <c r="CY205">
-        <v>0</v>
-      </c>
-      <c r="CZ205">
-        <v>0</v>
-      </c>
-      <c r="DA205">
-        <v>0</v>
-      </c>
-      <c r="DB205">
-        <v>0</v>
-      </c>
-      <c r="DC205">
-        <v>0</v>
-      </c>
-      <c r="DD205">
-        <v>0</v>
-      </c>
-      <c r="DE205">
-        <v>0</v>
-      </c>
-      <c r="DF205">
-        <v>0</v>
-      </c>
-      <c r="DG205">
-        <v>0</v>
-      </c>
-      <c r="DH205">
-        <v>0</v>
-      </c>
-      <c r="DI205">
-        <v>0</v>
-      </c>
-      <c r="DJ205">
-        <v>0</v>
-      </c>
-      <c r="DK205">
-        <v>0</v>
-      </c>
-      <c r="DL205">
-        <v>0</v>
-      </c>
-      <c r="DM205">
-        <v>0</v>
-      </c>
-      <c r="DN205">
-        <v>0</v>
-      </c>
-      <c r="DO205">
-        <v>0</v>
-      </c>
-      <c r="DP205">
-        <v>0</v>
-      </c>
-      <c r="DQ205">
-        <v>0</v>
-      </c>
-      <c r="DR205">
-        <v>0</v>
-      </c>
-      <c r="DS205">
-        <v>0</v>
-      </c>
-      <c r="DT205">
-        <v>0</v>
-      </c>
-      <c r="DU205">
-        <v>0</v>
-      </c>
-      <c r="DV205">
-        <v>1</v>
-      </c>
-      <c r="DW205">
-        <v>0</v>
-      </c>
-      <c r="DX205">
-        <v>0</v>
-      </c>
-      <c r="DY205">
-        <v>0</v>
-      </c>
-      <c r="DZ205">
-        <v>0</v>
-      </c>
-      <c r="EA205">
-        <v>0</v>
-      </c>
-      <c r="EB205">
-        <v>0</v>
-      </c>
-      <c r="EC205">
-        <v>0</v>
-      </c>
-      <c r="ED205">
-        <v>0</v>
-      </c>
-      <c r="EE205">
-        <v>0</v>
-      </c>
-      <c r="EF205">
-        <v>0</v>
-      </c>
-      <c r="EG205">
-        <v>0</v>
-      </c>
-      <c r="EH205">
-        <v>0</v>
-      </c>
-      <c r="EI205">
-        <v>0</v>
-      </c>
-      <c r="EJ205">
-        <v>0</v>
-      </c>
-      <c r="EK205">
-        <v>0</v>
-      </c>
-      <c r="EL205">
-        <v>0</v>
-      </c>
-      <c r="EM205">
-        <v>1</v>
-      </c>
-      <c r="EN205">
-        <v>1</v>
-      </c>
-      <c r="EO205">
-        <v>0</v>
-      </c>
-      <c r="EP205">
-        <v>0</v>
-      </c>
-      <c r="EQ205">
-        <v>0</v>
-      </c>
-      <c r="ER205">
-        <v>0</v>
-      </c>
-      <c r="ES205">
-        <v>0</v>
-      </c>
-      <c r="ET205">
-        <v>0</v>
-      </c>
-      <c r="EU205">
-        <v>0</v>
-      </c>
-      <c r="EV205">
-        <v>0</v>
-      </c>
-      <c r="EW205">
-        <v>0</v>
-      </c>
-      <c r="EX205">
-        <v>0</v>
-      </c>
-      <c r="EY205">
-        <v>0</v>
-      </c>
-      <c r="EZ205">
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>1</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>0</v>
+      </c>
+      <c r="AD206">
+        <v>0</v>
+      </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
+      <c r="AG206">
+        <v>0</v>
+      </c>
+      <c r="AH206">
+        <v>0</v>
+      </c>
+      <c r="AI206">
+        <v>0</v>
+      </c>
+      <c r="AJ206">
+        <v>0</v>
+      </c>
+      <c r="AK206">
+        <v>0</v>
+      </c>
+      <c r="AL206">
+        <v>0</v>
+      </c>
+      <c r="AM206">
+        <v>0</v>
+      </c>
+      <c r="AN206">
+        <v>0</v>
+      </c>
+      <c r="AO206">
+        <v>0</v>
+      </c>
+      <c r="AP206">
+        <v>0</v>
+      </c>
+      <c r="AQ206">
+        <v>0</v>
+      </c>
+      <c r="AR206">
+        <v>0</v>
+      </c>
+      <c r="AS206">
+        <v>0</v>
+      </c>
+      <c r="AT206">
+        <v>0</v>
+      </c>
+      <c r="AU206">
+        <v>0</v>
+      </c>
+      <c r="AV206">
+        <v>0</v>
+      </c>
+      <c r="AW206">
+        <v>0</v>
+      </c>
+      <c r="AX206">
+        <v>0</v>
+      </c>
+      <c r="AY206">
+        <v>0</v>
+      </c>
+      <c r="AZ206">
+        <v>0</v>
+      </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
+      <c r="BB206">
+        <v>0</v>
+      </c>
+      <c r="BC206">
+        <v>0</v>
+      </c>
+      <c r="BD206">
+        <v>0</v>
+      </c>
+      <c r="BE206">
+        <v>0</v>
+      </c>
+      <c r="BF206">
+        <v>0</v>
+      </c>
+      <c r="BG206">
+        <v>0</v>
+      </c>
+      <c r="BH206">
+        <v>1</v>
+      </c>
+      <c r="BI206">
+        <v>0</v>
+      </c>
+      <c r="BJ206">
+        <v>0</v>
+      </c>
+      <c r="BK206">
+        <v>0</v>
+      </c>
+      <c r="BL206">
+        <v>0</v>
+      </c>
+      <c r="BM206">
+        <v>1</v>
+      </c>
+      <c r="BN206">
+        <v>0</v>
+      </c>
+      <c r="BO206">
+        <v>0</v>
+      </c>
+      <c r="BP206">
+        <v>0</v>
+      </c>
+      <c r="BQ206">
+        <v>0</v>
+      </c>
+      <c r="BR206">
+        <v>0</v>
+      </c>
+      <c r="BS206">
+        <v>0</v>
+      </c>
+      <c r="BT206">
+        <v>0</v>
+      </c>
+      <c r="BU206">
+        <v>0</v>
+      </c>
+      <c r="BV206">
+        <v>0</v>
+      </c>
+      <c r="BW206">
+        <v>0</v>
+      </c>
+      <c r="BX206">
+        <v>0</v>
+      </c>
+      <c r="BY206">
+        <v>0</v>
+      </c>
+      <c r="BZ206">
+        <v>0</v>
+      </c>
+      <c r="CA206">
+        <v>0</v>
+      </c>
+      <c r="CB206">
+        <v>0</v>
+      </c>
+      <c r="CC206">
+        <v>0</v>
+      </c>
+      <c r="CD206">
+        <v>0</v>
+      </c>
+      <c r="CE206">
+        <v>0</v>
+      </c>
+      <c r="CF206">
+        <v>0</v>
+      </c>
+      <c r="CG206">
+        <v>0</v>
+      </c>
+      <c r="CH206">
+        <v>0</v>
+      </c>
+      <c r="CI206">
+        <v>0</v>
+      </c>
+      <c r="CJ206">
+        <v>0</v>
+      </c>
+      <c r="CK206">
+        <v>0</v>
+      </c>
+      <c r="CL206">
+        <v>0</v>
+      </c>
+      <c r="CM206">
+        <v>0</v>
+      </c>
+      <c r="CN206">
+        <v>1</v>
+      </c>
+      <c r="CO206">
+        <v>0</v>
+      </c>
+      <c r="CP206">
+        <v>0</v>
+      </c>
+      <c r="CQ206">
+        <v>0</v>
+      </c>
+      <c r="CR206">
+        <v>0</v>
+      </c>
+      <c r="CS206">
+        <v>0</v>
+      </c>
+      <c r="CT206">
+        <v>0</v>
+      </c>
+      <c r="CU206">
+        <v>1</v>
+      </c>
+      <c r="CV206">
+        <v>0</v>
+      </c>
+      <c r="CW206">
+        <v>0</v>
+      </c>
+      <c r="CX206">
+        <v>0</v>
+      </c>
+      <c r="CY206">
+        <v>0</v>
+      </c>
+      <c r="CZ206">
+        <v>0</v>
+      </c>
+      <c r="DA206">
+        <v>0</v>
+      </c>
+      <c r="DB206">
+        <v>0</v>
+      </c>
+      <c r="DC206">
+        <v>0</v>
+      </c>
+      <c r="DD206">
+        <v>0</v>
+      </c>
+      <c r="DE206">
+        <v>0</v>
+      </c>
+      <c r="DF206">
+        <v>0</v>
+      </c>
+      <c r="DG206">
+        <v>0</v>
+      </c>
+      <c r="DH206">
+        <v>0</v>
+      </c>
+      <c r="DI206">
+        <v>0</v>
+      </c>
+      <c r="DJ206">
+        <v>0</v>
+      </c>
+      <c r="DK206">
+        <v>0</v>
+      </c>
+      <c r="DL206">
+        <v>0</v>
+      </c>
+      <c r="DM206">
+        <v>0</v>
+      </c>
+      <c r="DN206">
+        <v>0</v>
+      </c>
+      <c r="DO206">
+        <v>0</v>
+      </c>
+      <c r="DP206">
+        <v>0</v>
+      </c>
+      <c r="DQ206">
+        <v>0</v>
+      </c>
+      <c r="DR206">
+        <v>0</v>
+      </c>
+      <c r="DS206">
+        <v>0</v>
+      </c>
+      <c r="DT206">
+        <v>0</v>
+      </c>
+      <c r="DU206">
+        <v>0</v>
+      </c>
+      <c r="DV206">
+        <v>1</v>
+      </c>
+      <c r="DW206">
+        <v>0</v>
+      </c>
+      <c r="DX206">
+        <v>0</v>
+      </c>
+      <c r="DY206">
+        <v>0</v>
+      </c>
+      <c r="DZ206">
+        <v>0</v>
+      </c>
+      <c r="EA206">
+        <v>0</v>
+      </c>
+      <c r="EB206">
+        <v>0</v>
+      </c>
+      <c r="EC206">
+        <v>0</v>
+      </c>
+      <c r="ED206">
+        <v>0</v>
+      </c>
+      <c r="EE206">
+        <v>0</v>
+      </c>
+      <c r="EF206">
+        <v>0</v>
+      </c>
+      <c r="EG206">
+        <v>0</v>
+      </c>
+      <c r="EH206">
+        <v>0</v>
+      </c>
+      <c r="EI206">
+        <v>0</v>
+      </c>
+      <c r="EJ206">
+        <v>0</v>
+      </c>
+      <c r="EK206">
+        <v>0</v>
+      </c>
+      <c r="EL206">
+        <v>0</v>
+      </c>
+      <c r="EM206">
+        <v>1</v>
+      </c>
+      <c r="EN206">
+        <v>1</v>
+      </c>
+      <c r="EO206">
+        <v>0</v>
+      </c>
+      <c r="EP206">
+        <v>0</v>
+      </c>
+      <c r="EQ206">
+        <v>0</v>
+      </c>
+      <c r="ER206">
+        <v>0</v>
+      </c>
+      <c r="ES206">
+        <v>0</v>
+      </c>
+      <c r="ET206">
+        <v>0</v>
+      </c>
+      <c r="EU206">
+        <v>0</v>
+      </c>
+      <c r="EV206">
+        <v>0</v>
+      </c>
+      <c r="EW206">
+        <v>0</v>
+      </c>
+      <c r="EX206">
+        <v>0</v>
+      </c>
+      <c r="EY206">
+        <v>0</v>
+      </c>
+      <c r="EZ206">
         <v>0</v>
       </c>
     </row>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EZ206"/>
+  <dimension ref="A1:EZ207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100359,6 +100359,490 @@
         <v>0</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Monster Movies</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggfx, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024/2024-10-29/20241029.R</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2024/2024-10-29///20241029.png</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+      <c r="AC207">
+        <v>0</v>
+      </c>
+      <c r="AD207">
+        <v>0</v>
+      </c>
+      <c r="AE207">
+        <v>0</v>
+      </c>
+      <c r="AF207">
+        <v>0</v>
+      </c>
+      <c r="AG207">
+        <v>0</v>
+      </c>
+      <c r="AH207">
+        <v>0</v>
+      </c>
+      <c r="AI207">
+        <v>0</v>
+      </c>
+      <c r="AJ207">
+        <v>0</v>
+      </c>
+      <c r="AK207">
+        <v>0</v>
+      </c>
+      <c r="AL207">
+        <v>1</v>
+      </c>
+      <c r="AM207">
+        <v>0</v>
+      </c>
+      <c r="AN207">
+        <v>0</v>
+      </c>
+      <c r="AO207">
+        <v>0</v>
+      </c>
+      <c r="AP207">
+        <v>0</v>
+      </c>
+      <c r="AQ207">
+        <v>0</v>
+      </c>
+      <c r="AR207">
+        <v>0</v>
+      </c>
+      <c r="AS207">
+        <v>0</v>
+      </c>
+      <c r="AT207">
+        <v>0</v>
+      </c>
+      <c r="AU207">
+        <v>0</v>
+      </c>
+      <c r="AV207">
+        <v>0</v>
+      </c>
+      <c r="AW207">
+        <v>0</v>
+      </c>
+      <c r="AX207">
+        <v>0</v>
+      </c>
+      <c r="AY207">
+        <v>0</v>
+      </c>
+      <c r="AZ207">
+        <v>0</v>
+      </c>
+      <c r="BA207">
+        <v>0</v>
+      </c>
+      <c r="BB207">
+        <v>0</v>
+      </c>
+      <c r="BC207">
+        <v>0</v>
+      </c>
+      <c r="BD207">
+        <v>0</v>
+      </c>
+      <c r="BE207">
+        <v>0</v>
+      </c>
+      <c r="BF207">
+        <v>0</v>
+      </c>
+      <c r="BG207">
+        <v>0</v>
+      </c>
+      <c r="BH207">
+        <v>1</v>
+      </c>
+      <c r="BI207">
+        <v>0</v>
+      </c>
+      <c r="BJ207">
+        <v>0</v>
+      </c>
+      <c r="BK207">
+        <v>0</v>
+      </c>
+      <c r="BL207">
+        <v>0</v>
+      </c>
+      <c r="BM207">
+        <v>1</v>
+      </c>
+      <c r="BN207">
+        <v>0</v>
+      </c>
+      <c r="BO207">
+        <v>0</v>
+      </c>
+      <c r="BP207">
+        <v>0</v>
+      </c>
+      <c r="BQ207">
+        <v>0</v>
+      </c>
+      <c r="BR207">
+        <v>0</v>
+      </c>
+      <c r="BS207">
+        <v>0</v>
+      </c>
+      <c r="BT207">
+        <v>0</v>
+      </c>
+      <c r="BU207">
+        <v>0</v>
+      </c>
+      <c r="BV207">
+        <v>0</v>
+      </c>
+      <c r="BW207">
+        <v>0</v>
+      </c>
+      <c r="BX207">
+        <v>0</v>
+      </c>
+      <c r="BY207">
+        <v>0</v>
+      </c>
+      <c r="BZ207">
+        <v>0</v>
+      </c>
+      <c r="CA207">
+        <v>0</v>
+      </c>
+      <c r="CB207">
+        <v>0</v>
+      </c>
+      <c r="CC207">
+        <v>0</v>
+      </c>
+      <c r="CD207">
+        <v>0</v>
+      </c>
+      <c r="CE207">
+        <v>0</v>
+      </c>
+      <c r="CF207">
+        <v>0</v>
+      </c>
+      <c r="CG207">
+        <v>0</v>
+      </c>
+      <c r="CH207">
+        <v>0</v>
+      </c>
+      <c r="CI207">
+        <v>0</v>
+      </c>
+      <c r="CJ207">
+        <v>0</v>
+      </c>
+      <c r="CK207">
+        <v>0</v>
+      </c>
+      <c r="CL207">
+        <v>0</v>
+      </c>
+      <c r="CM207">
+        <v>0</v>
+      </c>
+      <c r="CN207">
+        <v>1</v>
+      </c>
+      <c r="CO207">
+        <v>0</v>
+      </c>
+      <c r="CP207">
+        <v>0</v>
+      </c>
+      <c r="CQ207">
+        <v>0</v>
+      </c>
+      <c r="CR207">
+        <v>0</v>
+      </c>
+      <c r="CS207">
+        <v>0</v>
+      </c>
+      <c r="CT207">
+        <v>0</v>
+      </c>
+      <c r="CU207">
+        <v>0</v>
+      </c>
+      <c r="CV207">
+        <v>0</v>
+      </c>
+      <c r="CW207">
+        <v>0</v>
+      </c>
+      <c r="CX207">
+        <v>0</v>
+      </c>
+      <c r="CY207">
+        <v>0</v>
+      </c>
+      <c r="CZ207">
+        <v>0</v>
+      </c>
+      <c r="DA207">
+        <v>0</v>
+      </c>
+      <c r="DB207">
+        <v>0</v>
+      </c>
+      <c r="DC207">
+        <v>0</v>
+      </c>
+      <c r="DD207">
+        <v>0</v>
+      </c>
+      <c r="DE207">
+        <v>0</v>
+      </c>
+      <c r="DF207">
+        <v>0</v>
+      </c>
+      <c r="DG207">
+        <v>0</v>
+      </c>
+      <c r="DH207">
+        <v>0</v>
+      </c>
+      <c r="DI207">
+        <v>0</v>
+      </c>
+      <c r="DJ207">
+        <v>0</v>
+      </c>
+      <c r="DK207">
+        <v>0</v>
+      </c>
+      <c r="DL207">
+        <v>0</v>
+      </c>
+      <c r="DM207">
+        <v>0</v>
+      </c>
+      <c r="DN207">
+        <v>0</v>
+      </c>
+      <c r="DO207">
+        <v>0</v>
+      </c>
+      <c r="DP207">
+        <v>0</v>
+      </c>
+      <c r="DQ207">
+        <v>0</v>
+      </c>
+      <c r="DR207">
+        <v>0</v>
+      </c>
+      <c r="DS207">
+        <v>0</v>
+      </c>
+      <c r="DT207">
+        <v>0</v>
+      </c>
+      <c r="DU207">
+        <v>0</v>
+      </c>
+      <c r="DV207">
+        <v>1</v>
+      </c>
+      <c r="DW207">
+        <v>0</v>
+      </c>
+      <c r="DX207">
+        <v>0</v>
+      </c>
+      <c r="DY207">
+        <v>0</v>
+      </c>
+      <c r="DZ207">
+        <v>0</v>
+      </c>
+      <c r="EA207">
+        <v>0</v>
+      </c>
+      <c r="EB207">
+        <v>0</v>
+      </c>
+      <c r="EC207">
+        <v>0</v>
+      </c>
+      <c r="ED207">
+        <v>0</v>
+      </c>
+      <c r="EE207">
+        <v>0</v>
+      </c>
+      <c r="EF207">
+        <v>0</v>
+      </c>
+      <c r="EG207">
+        <v>0</v>
+      </c>
+      <c r="EH207">
+        <v>0</v>
+      </c>
+      <c r="EI207">
+        <v>0</v>
+      </c>
+      <c r="EJ207">
+        <v>0</v>
+      </c>
+      <c r="EK207">
+        <v>0</v>
+      </c>
+      <c r="EL207">
+        <v>0</v>
+      </c>
+      <c r="EM207">
+        <v>1</v>
+      </c>
+      <c r="EN207">
+        <v>1</v>
+      </c>
+      <c r="EO207">
+        <v>0</v>
+      </c>
+      <c r="EP207">
+        <v>0</v>
+      </c>
+      <c r="EQ207">
+        <v>0</v>
+      </c>
+      <c r="ER207">
+        <v>0</v>
+      </c>
+      <c r="ES207">
+        <v>0</v>
+      </c>
+      <c r="ET207">
+        <v>0</v>
+      </c>
+      <c r="EU207">
+        <v>0</v>
+      </c>
+      <c r="EV207">
+        <v>0</v>
+      </c>
+      <c r="EW207">
+        <v>0</v>
+      </c>
+      <c r="EX207">
+        <v>0</v>
+      </c>
+      <c r="EY207">
+        <v>0</v>
+      </c>
+      <c r="EZ207">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EZ207"/>
+  <dimension ref="A1:EZ208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100843,6 +100843,490 @@
         <v>0</v>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Democracy and Dictatorship</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, geofacet, glue, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2024/2024-11-05/20241105.R</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2024/2024-11-05///20241105.png</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>1</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>0</v>
+      </c>
+      <c r="AD208">
+        <v>0</v>
+      </c>
+      <c r="AE208">
+        <v>0</v>
+      </c>
+      <c r="AF208">
+        <v>0</v>
+      </c>
+      <c r="AG208">
+        <v>0</v>
+      </c>
+      <c r="AH208">
+        <v>0</v>
+      </c>
+      <c r="AI208">
+        <v>0</v>
+      </c>
+      <c r="AJ208">
+        <v>0</v>
+      </c>
+      <c r="AK208">
+        <v>0</v>
+      </c>
+      <c r="AL208">
+        <v>0</v>
+      </c>
+      <c r="AM208">
+        <v>0</v>
+      </c>
+      <c r="AN208">
+        <v>0</v>
+      </c>
+      <c r="AO208">
+        <v>0</v>
+      </c>
+      <c r="AP208">
+        <v>0</v>
+      </c>
+      <c r="AQ208">
+        <v>0</v>
+      </c>
+      <c r="AR208">
+        <v>0</v>
+      </c>
+      <c r="AS208">
+        <v>0</v>
+      </c>
+      <c r="AT208">
+        <v>0</v>
+      </c>
+      <c r="AU208">
+        <v>0</v>
+      </c>
+      <c r="AV208">
+        <v>0</v>
+      </c>
+      <c r="AW208">
+        <v>0</v>
+      </c>
+      <c r="AX208">
+        <v>0</v>
+      </c>
+      <c r="AY208">
+        <v>0</v>
+      </c>
+      <c r="AZ208">
+        <v>0</v>
+      </c>
+      <c r="BA208">
+        <v>0</v>
+      </c>
+      <c r="BB208">
+        <v>0</v>
+      </c>
+      <c r="BC208">
+        <v>0</v>
+      </c>
+      <c r="BD208">
+        <v>0</v>
+      </c>
+      <c r="BE208">
+        <v>0</v>
+      </c>
+      <c r="BF208">
+        <v>0</v>
+      </c>
+      <c r="BG208">
+        <v>0</v>
+      </c>
+      <c r="BH208">
+        <v>1</v>
+      </c>
+      <c r="BI208">
+        <v>0</v>
+      </c>
+      <c r="BJ208">
+        <v>0</v>
+      </c>
+      <c r="BK208">
+        <v>0</v>
+      </c>
+      <c r="BL208">
+        <v>0</v>
+      </c>
+      <c r="BM208">
+        <v>1</v>
+      </c>
+      <c r="BN208">
+        <v>0</v>
+      </c>
+      <c r="BO208">
+        <v>0</v>
+      </c>
+      <c r="BP208">
+        <v>0</v>
+      </c>
+      <c r="BQ208">
+        <v>0</v>
+      </c>
+      <c r="BR208">
+        <v>0</v>
+      </c>
+      <c r="BS208">
+        <v>0</v>
+      </c>
+      <c r="BT208">
+        <v>0</v>
+      </c>
+      <c r="BU208">
+        <v>0</v>
+      </c>
+      <c r="BV208">
+        <v>0</v>
+      </c>
+      <c r="BW208">
+        <v>0</v>
+      </c>
+      <c r="BX208">
+        <v>0</v>
+      </c>
+      <c r="BY208">
+        <v>0</v>
+      </c>
+      <c r="BZ208">
+        <v>0</v>
+      </c>
+      <c r="CA208">
+        <v>0</v>
+      </c>
+      <c r="CB208">
+        <v>0</v>
+      </c>
+      <c r="CC208">
+        <v>0</v>
+      </c>
+      <c r="CD208">
+        <v>0</v>
+      </c>
+      <c r="CE208">
+        <v>0</v>
+      </c>
+      <c r="CF208">
+        <v>0</v>
+      </c>
+      <c r="CG208">
+        <v>0</v>
+      </c>
+      <c r="CH208">
+        <v>0</v>
+      </c>
+      <c r="CI208">
+        <v>0</v>
+      </c>
+      <c r="CJ208">
+        <v>0</v>
+      </c>
+      <c r="CK208">
+        <v>0</v>
+      </c>
+      <c r="CL208">
+        <v>0</v>
+      </c>
+      <c r="CM208">
+        <v>0</v>
+      </c>
+      <c r="CN208">
+        <v>1</v>
+      </c>
+      <c r="CO208">
+        <v>0</v>
+      </c>
+      <c r="CP208">
+        <v>0</v>
+      </c>
+      <c r="CQ208">
+        <v>0</v>
+      </c>
+      <c r="CR208">
+        <v>0</v>
+      </c>
+      <c r="CS208">
+        <v>0</v>
+      </c>
+      <c r="CT208">
+        <v>0</v>
+      </c>
+      <c r="CU208">
+        <v>0</v>
+      </c>
+      <c r="CV208">
+        <v>0</v>
+      </c>
+      <c r="CW208">
+        <v>0</v>
+      </c>
+      <c r="CX208">
+        <v>0</v>
+      </c>
+      <c r="CY208">
+        <v>0</v>
+      </c>
+      <c r="CZ208">
+        <v>0</v>
+      </c>
+      <c r="DA208">
+        <v>0</v>
+      </c>
+      <c r="DB208">
+        <v>0</v>
+      </c>
+      <c r="DC208">
+        <v>0</v>
+      </c>
+      <c r="DD208">
+        <v>0</v>
+      </c>
+      <c r="DE208">
+        <v>0</v>
+      </c>
+      <c r="DF208">
+        <v>0</v>
+      </c>
+      <c r="DG208">
+        <v>0</v>
+      </c>
+      <c r="DH208">
+        <v>0</v>
+      </c>
+      <c r="DI208">
+        <v>0</v>
+      </c>
+      <c r="DJ208">
+        <v>0</v>
+      </c>
+      <c r="DK208">
+        <v>0</v>
+      </c>
+      <c r="DL208">
+        <v>0</v>
+      </c>
+      <c r="DM208">
+        <v>0</v>
+      </c>
+      <c r="DN208">
+        <v>0</v>
+      </c>
+      <c r="DO208">
+        <v>0</v>
+      </c>
+      <c r="DP208">
+        <v>0</v>
+      </c>
+      <c r="DQ208">
+        <v>0</v>
+      </c>
+      <c r="DR208">
+        <v>0</v>
+      </c>
+      <c r="DS208">
+        <v>0</v>
+      </c>
+      <c r="DT208">
+        <v>0</v>
+      </c>
+      <c r="DU208">
+        <v>0</v>
+      </c>
+      <c r="DV208">
+        <v>1</v>
+      </c>
+      <c r="DW208">
+        <v>0</v>
+      </c>
+      <c r="DX208">
+        <v>0</v>
+      </c>
+      <c r="DY208">
+        <v>0</v>
+      </c>
+      <c r="DZ208">
+        <v>0</v>
+      </c>
+      <c r="EA208">
+        <v>0</v>
+      </c>
+      <c r="EB208">
+        <v>0</v>
+      </c>
+      <c r="EC208">
+        <v>0</v>
+      </c>
+      <c r="ED208">
+        <v>0</v>
+      </c>
+      <c r="EE208">
+        <v>0</v>
+      </c>
+      <c r="EF208">
+        <v>0</v>
+      </c>
+      <c r="EG208">
+        <v>0</v>
+      </c>
+      <c r="EH208">
+        <v>0</v>
+      </c>
+      <c r="EI208">
+        <v>0</v>
+      </c>
+      <c r="EJ208">
+        <v>0</v>
+      </c>
+      <c r="EK208">
+        <v>0</v>
+      </c>
+      <c r="EL208">
+        <v>0</v>
+      </c>
+      <c r="EM208">
+        <v>1</v>
+      </c>
+      <c r="EN208">
+        <v>1</v>
+      </c>
+      <c r="EO208">
+        <v>0</v>
+      </c>
+      <c r="EP208">
+        <v>0</v>
+      </c>
+      <c r="EQ208">
+        <v>0</v>
+      </c>
+      <c r="ER208">
+        <v>0</v>
+      </c>
+      <c r="ES208">
+        <v>0</v>
+      </c>
+      <c r="ET208">
+        <v>0</v>
+      </c>
+      <c r="EU208">
+        <v>0</v>
+      </c>
+      <c r="EV208">
+        <v>0</v>
+      </c>
+      <c r="EW208">
+        <v>0</v>
+      </c>
+      <c r="EX208">
+        <v>0</v>
+      </c>
+      <c r="EY208">
+        <v>0</v>
+      </c>
+      <c r="EZ208">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EZ208"/>
+  <dimension ref="A1:EZ209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101327,6 +101327,490 @@
         <v>0</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>ISO Country Codes</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, tidytuesdayR, PrettyCols, grDevices</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2024/2024-11-12/20241112.R</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2024/2024-11-12///20241112.png</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>0</v>
+      </c>
+      <c r="AC209">
+        <v>0</v>
+      </c>
+      <c r="AD209">
+        <v>0</v>
+      </c>
+      <c r="AE209">
+        <v>0</v>
+      </c>
+      <c r="AF209">
+        <v>0</v>
+      </c>
+      <c r="AG209">
+        <v>0</v>
+      </c>
+      <c r="AH209">
+        <v>0</v>
+      </c>
+      <c r="AI209">
+        <v>0</v>
+      </c>
+      <c r="AJ209">
+        <v>0</v>
+      </c>
+      <c r="AK209">
+        <v>0</v>
+      </c>
+      <c r="AL209">
+        <v>0</v>
+      </c>
+      <c r="AM209">
+        <v>0</v>
+      </c>
+      <c r="AN209">
+        <v>0</v>
+      </c>
+      <c r="AO209">
+        <v>0</v>
+      </c>
+      <c r="AP209">
+        <v>0</v>
+      </c>
+      <c r="AQ209">
+        <v>0</v>
+      </c>
+      <c r="AR209">
+        <v>0</v>
+      </c>
+      <c r="AS209">
+        <v>0</v>
+      </c>
+      <c r="AT209">
+        <v>0</v>
+      </c>
+      <c r="AU209">
+        <v>0</v>
+      </c>
+      <c r="AV209">
+        <v>0</v>
+      </c>
+      <c r="AW209">
+        <v>0</v>
+      </c>
+      <c r="AX209">
+        <v>0</v>
+      </c>
+      <c r="AY209">
+        <v>0</v>
+      </c>
+      <c r="AZ209">
+        <v>0</v>
+      </c>
+      <c r="BA209">
+        <v>0</v>
+      </c>
+      <c r="BB209">
+        <v>0</v>
+      </c>
+      <c r="BC209">
+        <v>0</v>
+      </c>
+      <c r="BD209">
+        <v>0</v>
+      </c>
+      <c r="BE209">
+        <v>0</v>
+      </c>
+      <c r="BF209">
+        <v>0</v>
+      </c>
+      <c r="BG209">
+        <v>0</v>
+      </c>
+      <c r="BH209">
+        <v>1</v>
+      </c>
+      <c r="BI209">
+        <v>0</v>
+      </c>
+      <c r="BJ209">
+        <v>0</v>
+      </c>
+      <c r="BK209">
+        <v>0</v>
+      </c>
+      <c r="BL209">
+        <v>0</v>
+      </c>
+      <c r="BM209">
+        <v>1</v>
+      </c>
+      <c r="BN209">
+        <v>1</v>
+      </c>
+      <c r="BO209">
+        <v>0</v>
+      </c>
+      <c r="BP209">
+        <v>0</v>
+      </c>
+      <c r="BQ209">
+        <v>0</v>
+      </c>
+      <c r="BR209">
+        <v>0</v>
+      </c>
+      <c r="BS209">
+        <v>0</v>
+      </c>
+      <c r="BT209">
+        <v>0</v>
+      </c>
+      <c r="BU209">
+        <v>0</v>
+      </c>
+      <c r="BV209">
+        <v>0</v>
+      </c>
+      <c r="BW209">
+        <v>0</v>
+      </c>
+      <c r="BX209">
+        <v>0</v>
+      </c>
+      <c r="BY209">
+        <v>0</v>
+      </c>
+      <c r="BZ209">
+        <v>0</v>
+      </c>
+      <c r="CA209">
+        <v>0</v>
+      </c>
+      <c r="CB209">
+        <v>0</v>
+      </c>
+      <c r="CC209">
+        <v>0</v>
+      </c>
+      <c r="CD209">
+        <v>0</v>
+      </c>
+      <c r="CE209">
+        <v>0</v>
+      </c>
+      <c r="CF209">
+        <v>0</v>
+      </c>
+      <c r="CG209">
+        <v>0</v>
+      </c>
+      <c r="CH209">
+        <v>0</v>
+      </c>
+      <c r="CI209">
+        <v>0</v>
+      </c>
+      <c r="CJ209">
+        <v>0</v>
+      </c>
+      <c r="CK209">
+        <v>0</v>
+      </c>
+      <c r="CL209">
+        <v>0</v>
+      </c>
+      <c r="CM209">
+        <v>0</v>
+      </c>
+      <c r="CN209">
+        <v>1</v>
+      </c>
+      <c r="CO209">
+        <v>0</v>
+      </c>
+      <c r="CP209">
+        <v>0</v>
+      </c>
+      <c r="CQ209">
+        <v>0</v>
+      </c>
+      <c r="CR209">
+        <v>0</v>
+      </c>
+      <c r="CS209">
+        <v>0</v>
+      </c>
+      <c r="CT209">
+        <v>0</v>
+      </c>
+      <c r="CU209">
+        <v>1</v>
+      </c>
+      <c r="CV209">
+        <v>0</v>
+      </c>
+      <c r="CW209">
+        <v>0</v>
+      </c>
+      <c r="CX209">
+        <v>0</v>
+      </c>
+      <c r="CY209">
+        <v>0</v>
+      </c>
+      <c r="CZ209">
+        <v>0</v>
+      </c>
+      <c r="DA209">
+        <v>0</v>
+      </c>
+      <c r="DB209">
+        <v>0</v>
+      </c>
+      <c r="DC209">
+        <v>1</v>
+      </c>
+      <c r="DD209">
+        <v>0</v>
+      </c>
+      <c r="DE209">
+        <v>0</v>
+      </c>
+      <c r="DF209">
+        <v>0</v>
+      </c>
+      <c r="DG209">
+        <v>0</v>
+      </c>
+      <c r="DH209">
+        <v>0</v>
+      </c>
+      <c r="DI209">
+        <v>0</v>
+      </c>
+      <c r="DJ209">
+        <v>0</v>
+      </c>
+      <c r="DK209">
+        <v>0</v>
+      </c>
+      <c r="DL209">
+        <v>0</v>
+      </c>
+      <c r="DM209">
+        <v>0</v>
+      </c>
+      <c r="DN209">
+        <v>0</v>
+      </c>
+      <c r="DO209">
+        <v>0</v>
+      </c>
+      <c r="DP209">
+        <v>0</v>
+      </c>
+      <c r="DQ209">
+        <v>0</v>
+      </c>
+      <c r="DR209">
+        <v>0</v>
+      </c>
+      <c r="DS209">
+        <v>0</v>
+      </c>
+      <c r="DT209">
+        <v>0</v>
+      </c>
+      <c r="DU209">
+        <v>0</v>
+      </c>
+      <c r="DV209">
+        <v>1</v>
+      </c>
+      <c r="DW209">
+        <v>0</v>
+      </c>
+      <c r="DX209">
+        <v>0</v>
+      </c>
+      <c r="DY209">
+        <v>0</v>
+      </c>
+      <c r="DZ209">
+        <v>0</v>
+      </c>
+      <c r="EA209">
+        <v>0</v>
+      </c>
+      <c r="EB209">
+        <v>0</v>
+      </c>
+      <c r="EC209">
+        <v>0</v>
+      </c>
+      <c r="ED209">
+        <v>0</v>
+      </c>
+      <c r="EE209">
+        <v>0</v>
+      </c>
+      <c r="EF209">
+        <v>0</v>
+      </c>
+      <c r="EG209">
+        <v>0</v>
+      </c>
+      <c r="EH209">
+        <v>0</v>
+      </c>
+      <c r="EI209">
+        <v>0</v>
+      </c>
+      <c r="EJ209">
+        <v>0</v>
+      </c>
+      <c r="EK209">
+        <v>0</v>
+      </c>
+      <c r="EL209">
+        <v>0</v>
+      </c>
+      <c r="EM209">
+        <v>1</v>
+      </c>
+      <c r="EN209">
+        <v>1</v>
+      </c>
+      <c r="EO209">
+        <v>0</v>
+      </c>
+      <c r="EP209">
+        <v>0</v>
+      </c>
+      <c r="EQ209">
+        <v>0</v>
+      </c>
+      <c r="ER209">
+        <v>0</v>
+      </c>
+      <c r="ES209">
+        <v>0</v>
+      </c>
+      <c r="ET209">
+        <v>0</v>
+      </c>
+      <c r="EU209">
+        <v>0</v>
+      </c>
+      <c r="EV209">
+        <v>0</v>
+      </c>
+      <c r="EW209">
+        <v>0</v>
+      </c>
+      <c r="EX209">
+        <v>0</v>
+      </c>
+      <c r="EY209">
+        <v>0</v>
+      </c>
+      <c r="EZ209">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FB210"/>
+  <dimension ref="A1:FB211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -103559,6 +103559,496 @@
         <v>0</v>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>U.S. Customs and Border Protection (CBP) Encounters</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, geofacet, tidytuesdayR, PrettyCols</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2024/2024-11-26/20241126.R</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2024/2024-11-26///20241126.png</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+      <c r="AB211">
+        <v>1</v>
+      </c>
+      <c r="AC211">
+        <v>0</v>
+      </c>
+      <c r="AD211">
+        <v>0</v>
+      </c>
+      <c r="AE211">
+        <v>0</v>
+      </c>
+      <c r="AF211">
+        <v>0</v>
+      </c>
+      <c r="AG211">
+        <v>0</v>
+      </c>
+      <c r="AH211">
+        <v>0</v>
+      </c>
+      <c r="AI211">
+        <v>0</v>
+      </c>
+      <c r="AJ211">
+        <v>0</v>
+      </c>
+      <c r="AK211">
+        <v>0</v>
+      </c>
+      <c r="AL211">
+        <v>0</v>
+      </c>
+      <c r="AM211">
+        <v>0</v>
+      </c>
+      <c r="AN211">
+        <v>0</v>
+      </c>
+      <c r="AO211">
+        <v>0</v>
+      </c>
+      <c r="AP211">
+        <v>0</v>
+      </c>
+      <c r="AQ211">
+        <v>0</v>
+      </c>
+      <c r="AR211">
+        <v>0</v>
+      </c>
+      <c r="AS211">
+        <v>0</v>
+      </c>
+      <c r="AT211">
+        <v>0</v>
+      </c>
+      <c r="AU211">
+        <v>0</v>
+      </c>
+      <c r="AV211">
+        <v>0</v>
+      </c>
+      <c r="AW211">
+        <v>0</v>
+      </c>
+      <c r="AX211">
+        <v>0</v>
+      </c>
+      <c r="AY211">
+        <v>0</v>
+      </c>
+      <c r="AZ211">
+        <v>0</v>
+      </c>
+      <c r="BA211">
+        <v>0</v>
+      </c>
+      <c r="BB211">
+        <v>0</v>
+      </c>
+      <c r="BC211">
+        <v>0</v>
+      </c>
+      <c r="BD211">
+        <v>0</v>
+      </c>
+      <c r="BE211">
+        <v>0</v>
+      </c>
+      <c r="BF211">
+        <v>0</v>
+      </c>
+      <c r="BG211">
+        <v>0</v>
+      </c>
+      <c r="BH211">
+        <v>0</v>
+      </c>
+      <c r="BI211">
+        <v>1</v>
+      </c>
+      <c r="BJ211">
+        <v>0</v>
+      </c>
+      <c r="BK211">
+        <v>0</v>
+      </c>
+      <c r="BL211">
+        <v>0</v>
+      </c>
+      <c r="BM211">
+        <v>0</v>
+      </c>
+      <c r="BN211">
+        <v>1</v>
+      </c>
+      <c r="BO211">
+        <v>0</v>
+      </c>
+      <c r="BP211">
+        <v>0</v>
+      </c>
+      <c r="BQ211">
+        <v>0</v>
+      </c>
+      <c r="BR211">
+        <v>0</v>
+      </c>
+      <c r="BS211">
+        <v>0</v>
+      </c>
+      <c r="BT211">
+        <v>0</v>
+      </c>
+      <c r="BU211">
+        <v>0</v>
+      </c>
+      <c r="BV211">
+        <v>0</v>
+      </c>
+      <c r="BW211">
+        <v>0</v>
+      </c>
+      <c r="BX211">
+        <v>0</v>
+      </c>
+      <c r="BY211">
+        <v>0</v>
+      </c>
+      <c r="BZ211">
+        <v>0</v>
+      </c>
+      <c r="CA211">
+        <v>0</v>
+      </c>
+      <c r="CB211">
+        <v>0</v>
+      </c>
+      <c r="CC211">
+        <v>0</v>
+      </c>
+      <c r="CD211">
+        <v>0</v>
+      </c>
+      <c r="CE211">
+        <v>0</v>
+      </c>
+      <c r="CF211">
+        <v>0</v>
+      </c>
+      <c r="CG211">
+        <v>0</v>
+      </c>
+      <c r="CH211">
+        <v>0</v>
+      </c>
+      <c r="CI211">
+        <v>0</v>
+      </c>
+      <c r="CJ211">
+        <v>0</v>
+      </c>
+      <c r="CK211">
+        <v>0</v>
+      </c>
+      <c r="CL211">
+        <v>0</v>
+      </c>
+      <c r="CM211">
+        <v>0</v>
+      </c>
+      <c r="CN211">
+        <v>0</v>
+      </c>
+      <c r="CO211">
+        <v>1</v>
+      </c>
+      <c r="CP211">
+        <v>0</v>
+      </c>
+      <c r="CQ211">
+        <v>0</v>
+      </c>
+      <c r="CR211">
+        <v>0</v>
+      </c>
+      <c r="CS211">
+        <v>0</v>
+      </c>
+      <c r="CT211">
+        <v>0</v>
+      </c>
+      <c r="CU211">
+        <v>0</v>
+      </c>
+      <c r="CV211">
+        <v>0</v>
+      </c>
+      <c r="CW211">
+        <v>0</v>
+      </c>
+      <c r="CX211">
+        <v>0</v>
+      </c>
+      <c r="CY211">
+        <v>0</v>
+      </c>
+      <c r="CZ211">
+        <v>0</v>
+      </c>
+      <c r="DA211">
+        <v>0</v>
+      </c>
+      <c r="DB211">
+        <v>0</v>
+      </c>
+      <c r="DC211">
+        <v>0</v>
+      </c>
+      <c r="DD211">
+        <v>1</v>
+      </c>
+      <c r="DE211">
+        <v>0</v>
+      </c>
+      <c r="DF211">
+        <v>0</v>
+      </c>
+      <c r="DG211">
+        <v>0</v>
+      </c>
+      <c r="DH211">
+        <v>0</v>
+      </c>
+      <c r="DI211">
+        <v>0</v>
+      </c>
+      <c r="DJ211">
+        <v>0</v>
+      </c>
+      <c r="DK211">
+        <v>0</v>
+      </c>
+      <c r="DL211">
+        <v>0</v>
+      </c>
+      <c r="DM211">
+        <v>0</v>
+      </c>
+      <c r="DN211">
+        <v>0</v>
+      </c>
+      <c r="DO211">
+        <v>0</v>
+      </c>
+      <c r="DP211">
+        <v>0</v>
+      </c>
+      <c r="DQ211">
+        <v>0</v>
+      </c>
+      <c r="DR211">
+        <v>0</v>
+      </c>
+      <c r="DS211">
+        <v>0</v>
+      </c>
+      <c r="DT211">
+        <v>0</v>
+      </c>
+      <c r="DU211">
+        <v>0</v>
+      </c>
+      <c r="DV211">
+        <v>0</v>
+      </c>
+      <c r="DW211">
+        <v>1</v>
+      </c>
+      <c r="DX211">
+        <v>0</v>
+      </c>
+      <c r="DY211">
+        <v>0</v>
+      </c>
+      <c r="DZ211">
+        <v>0</v>
+      </c>
+      <c r="EA211">
+        <v>0</v>
+      </c>
+      <c r="EB211">
+        <v>0</v>
+      </c>
+      <c r="EC211">
+        <v>0</v>
+      </c>
+      <c r="ED211">
+        <v>0</v>
+      </c>
+      <c r="EE211">
+        <v>0</v>
+      </c>
+      <c r="EF211">
+        <v>0</v>
+      </c>
+      <c r="EG211">
+        <v>0</v>
+      </c>
+      <c r="EH211">
+        <v>0</v>
+      </c>
+      <c r="EI211">
+        <v>0</v>
+      </c>
+      <c r="EJ211">
+        <v>0</v>
+      </c>
+      <c r="EK211">
+        <v>0</v>
+      </c>
+      <c r="EL211">
+        <v>0</v>
+      </c>
+      <c r="EM211">
+        <v>0</v>
+      </c>
+      <c r="EN211">
+        <v>0</v>
+      </c>
+      <c r="EO211">
+        <v>1</v>
+      </c>
+      <c r="EP211">
+        <v>1</v>
+      </c>
+      <c r="EQ211">
+        <v>0</v>
+      </c>
+      <c r="ER211">
+        <v>0</v>
+      </c>
+      <c r="ES211">
+        <v>0</v>
+      </c>
+      <c r="ET211">
+        <v>0</v>
+      </c>
+      <c r="EU211">
+        <v>0</v>
+      </c>
+      <c r="EV211">
+        <v>0</v>
+      </c>
+      <c r="EW211">
+        <v>0</v>
+      </c>
+      <c r="EX211">
+        <v>0</v>
+      </c>
+      <c r="EY211">
+        <v>0</v>
+      </c>
+      <c r="EZ211">
+        <v>0</v>
+      </c>
+      <c r="FA211">
+        <v>0</v>
+      </c>
+      <c r="FB211">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FB211"/>
+  <dimension ref="A1:FB212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -104049,6 +104049,496 @@
         <v>0</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>National Highways Traffic Flow</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, hms, tidytuesdayR, lubridate, stringr</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2024/2024-12-03/20241203.R</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2024/2024-12-03///20241203.png</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>0</v>
+      </c>
+      <c r="AD212">
+        <v>0</v>
+      </c>
+      <c r="AE212">
+        <v>0</v>
+      </c>
+      <c r="AF212">
+        <v>0</v>
+      </c>
+      <c r="AG212">
+        <v>0</v>
+      </c>
+      <c r="AH212">
+        <v>0</v>
+      </c>
+      <c r="AI212">
+        <v>0</v>
+      </c>
+      <c r="AJ212">
+        <v>0</v>
+      </c>
+      <c r="AK212">
+        <v>0</v>
+      </c>
+      <c r="AL212">
+        <v>0</v>
+      </c>
+      <c r="AM212">
+        <v>0</v>
+      </c>
+      <c r="AN212">
+        <v>0</v>
+      </c>
+      <c r="AO212">
+        <v>0</v>
+      </c>
+      <c r="AP212">
+        <v>0</v>
+      </c>
+      <c r="AQ212">
+        <v>0</v>
+      </c>
+      <c r="AR212">
+        <v>0</v>
+      </c>
+      <c r="AS212">
+        <v>0</v>
+      </c>
+      <c r="AT212">
+        <v>0</v>
+      </c>
+      <c r="AU212">
+        <v>0</v>
+      </c>
+      <c r="AV212">
+        <v>0</v>
+      </c>
+      <c r="AW212">
+        <v>0</v>
+      </c>
+      <c r="AX212">
+        <v>0</v>
+      </c>
+      <c r="AY212">
+        <v>0</v>
+      </c>
+      <c r="AZ212">
+        <v>0</v>
+      </c>
+      <c r="BA212">
+        <v>0</v>
+      </c>
+      <c r="BB212">
+        <v>0</v>
+      </c>
+      <c r="BC212">
+        <v>0</v>
+      </c>
+      <c r="BD212">
+        <v>0</v>
+      </c>
+      <c r="BE212">
+        <v>0</v>
+      </c>
+      <c r="BF212">
+        <v>0</v>
+      </c>
+      <c r="BG212">
+        <v>0</v>
+      </c>
+      <c r="BH212">
+        <v>0</v>
+      </c>
+      <c r="BI212">
+        <v>1</v>
+      </c>
+      <c r="BJ212">
+        <v>0</v>
+      </c>
+      <c r="BK212">
+        <v>0</v>
+      </c>
+      <c r="BL212">
+        <v>0</v>
+      </c>
+      <c r="BM212">
+        <v>0</v>
+      </c>
+      <c r="BN212">
+        <v>1</v>
+      </c>
+      <c r="BO212">
+        <v>0</v>
+      </c>
+      <c r="BP212">
+        <v>0</v>
+      </c>
+      <c r="BQ212">
+        <v>0</v>
+      </c>
+      <c r="BR212">
+        <v>0</v>
+      </c>
+      <c r="BS212">
+        <v>0</v>
+      </c>
+      <c r="BT212">
+        <v>0</v>
+      </c>
+      <c r="BU212">
+        <v>0</v>
+      </c>
+      <c r="BV212">
+        <v>1</v>
+      </c>
+      <c r="BW212">
+        <v>0</v>
+      </c>
+      <c r="BX212">
+        <v>0</v>
+      </c>
+      <c r="BY212">
+        <v>0</v>
+      </c>
+      <c r="BZ212">
+        <v>0</v>
+      </c>
+      <c r="CA212">
+        <v>0</v>
+      </c>
+      <c r="CB212">
+        <v>0</v>
+      </c>
+      <c r="CC212">
+        <v>0</v>
+      </c>
+      <c r="CD212">
+        <v>0</v>
+      </c>
+      <c r="CE212">
+        <v>1</v>
+      </c>
+      <c r="CF212">
+        <v>0</v>
+      </c>
+      <c r="CG212">
+        <v>0</v>
+      </c>
+      <c r="CH212">
+        <v>0</v>
+      </c>
+      <c r="CI212">
+        <v>0</v>
+      </c>
+      <c r="CJ212">
+        <v>0</v>
+      </c>
+      <c r="CK212">
+        <v>0</v>
+      </c>
+      <c r="CL212">
+        <v>0</v>
+      </c>
+      <c r="CM212">
+        <v>0</v>
+      </c>
+      <c r="CN212">
+        <v>0</v>
+      </c>
+      <c r="CO212">
+        <v>1</v>
+      </c>
+      <c r="CP212">
+        <v>0</v>
+      </c>
+      <c r="CQ212">
+        <v>0</v>
+      </c>
+      <c r="CR212">
+        <v>0</v>
+      </c>
+      <c r="CS212">
+        <v>0</v>
+      </c>
+      <c r="CT212">
+        <v>0</v>
+      </c>
+      <c r="CU212">
+        <v>0</v>
+      </c>
+      <c r="CV212">
+        <v>1</v>
+      </c>
+      <c r="CW212">
+        <v>0</v>
+      </c>
+      <c r="CX212">
+        <v>0</v>
+      </c>
+      <c r="CY212">
+        <v>0</v>
+      </c>
+      <c r="CZ212">
+        <v>0</v>
+      </c>
+      <c r="DA212">
+        <v>0</v>
+      </c>
+      <c r="DB212">
+        <v>0</v>
+      </c>
+      <c r="DC212">
+        <v>0</v>
+      </c>
+      <c r="DD212">
+        <v>0</v>
+      </c>
+      <c r="DE212">
+        <v>0</v>
+      </c>
+      <c r="DF212">
+        <v>0</v>
+      </c>
+      <c r="DG212">
+        <v>0</v>
+      </c>
+      <c r="DH212">
+        <v>0</v>
+      </c>
+      <c r="DI212">
+        <v>0</v>
+      </c>
+      <c r="DJ212">
+        <v>0</v>
+      </c>
+      <c r="DK212">
+        <v>0</v>
+      </c>
+      <c r="DL212">
+        <v>0</v>
+      </c>
+      <c r="DM212">
+        <v>0</v>
+      </c>
+      <c r="DN212">
+        <v>0</v>
+      </c>
+      <c r="DO212">
+        <v>0</v>
+      </c>
+      <c r="DP212">
+        <v>0</v>
+      </c>
+      <c r="DQ212">
+        <v>0</v>
+      </c>
+      <c r="DR212">
+        <v>0</v>
+      </c>
+      <c r="DS212">
+        <v>0</v>
+      </c>
+      <c r="DT212">
+        <v>0</v>
+      </c>
+      <c r="DU212">
+        <v>0</v>
+      </c>
+      <c r="DV212">
+        <v>0</v>
+      </c>
+      <c r="DW212">
+        <v>1</v>
+      </c>
+      <c r="DX212">
+        <v>0</v>
+      </c>
+      <c r="DY212">
+        <v>0</v>
+      </c>
+      <c r="DZ212">
+        <v>0</v>
+      </c>
+      <c r="EA212">
+        <v>0</v>
+      </c>
+      <c r="EB212">
+        <v>0</v>
+      </c>
+      <c r="EC212">
+        <v>0</v>
+      </c>
+      <c r="ED212">
+        <v>0</v>
+      </c>
+      <c r="EE212">
+        <v>0</v>
+      </c>
+      <c r="EF212">
+        <v>1</v>
+      </c>
+      <c r="EG212">
+        <v>0</v>
+      </c>
+      <c r="EH212">
+        <v>0</v>
+      </c>
+      <c r="EI212">
+        <v>0</v>
+      </c>
+      <c r="EJ212">
+        <v>0</v>
+      </c>
+      <c r="EK212">
+        <v>0</v>
+      </c>
+      <c r="EL212">
+        <v>0</v>
+      </c>
+      <c r="EM212">
+        <v>0</v>
+      </c>
+      <c r="EN212">
+        <v>0</v>
+      </c>
+      <c r="EO212">
+        <v>1</v>
+      </c>
+      <c r="EP212">
+        <v>1</v>
+      </c>
+      <c r="EQ212">
+        <v>0</v>
+      </c>
+      <c r="ER212">
+        <v>0</v>
+      </c>
+      <c r="ES212">
+        <v>0</v>
+      </c>
+      <c r="ET212">
+        <v>0</v>
+      </c>
+      <c r="EU212">
+        <v>0</v>
+      </c>
+      <c r="EV212">
+        <v>0</v>
+      </c>
+      <c r="EW212">
+        <v>0</v>
+      </c>
+      <c r="EX212">
+        <v>0</v>
+      </c>
+      <c r="EY212">
+        <v>0</v>
+      </c>
+      <c r="EZ212">
+        <v>0</v>
+      </c>
+      <c r="FA212">
+        <v>0</v>
+      </c>
+      <c r="FB212">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FB212"/>
+  <dimension ref="A1:FC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,160 +990,165 @@
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
+          <t>shadowtext</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
           <t>showtext</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>snakecase</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>sp</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>spatstat</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>spatstat.geom</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>spData</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>spDataLarge</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>spiralize</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>statebins</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>stringr</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>sysfonts</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>systemfonts</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>tayloRswift</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>terra</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>tibble</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>tidyr</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>tidyterra</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>tidytext</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>tidytuesdayR</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>tidyverse</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>tigris</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>tm</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>tmap</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>transformr</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>treemapify</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>tsibble</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>usefunc</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>usmap</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>viridis</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>VoronoiPlus</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>waffle</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>wordcloud2</t>
         </is>
@@ -1638,6 +1643,9 @@
       <c r="FB2">
         <v>0</v>
       </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2033,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY3">
         <v>0</v>
@@ -2090,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="EP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2126,6 +2134,9 @@
         <v>0</v>
       </c>
       <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
         <v>0</v>
       </c>
     </row>
@@ -2523,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY4">
         <v>0</v>
@@ -2577,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="EO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP4">
         <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2616,6 +2627,9 @@
         <v>0</v>
       </c>
       <c r="FB4">
+        <v>0</v>
+      </c>
+      <c r="FC4">
         <v>0</v>
       </c>
     </row>
@@ -3013,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY5">
         <v>0</v>
@@ -3067,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="EO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP5">
         <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3091,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="EW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY5">
         <v>0</v>
@@ -3106,6 +3120,9 @@
         <v>0</v>
       </c>
       <c r="FB5">
+        <v>0</v>
+      </c>
+      <c r="FC5">
         <v>0</v>
       </c>
     </row>
@@ -3503,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="DW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY6">
         <v>0</v>
@@ -3560,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="EP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3581,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="EW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY6">
         <v>0</v>
@@ -3596,6 +3613,9 @@
         <v>0</v>
       </c>
       <c r="FB6">
+        <v>0</v>
+      </c>
+      <c r="FC6">
         <v>0</v>
       </c>
     </row>
@@ -3993,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="DW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY7">
         <v>0</v>
@@ -4020,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="EF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG7">
         <v>1</v>
       </c>
       <c r="EH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI7">
         <v>0</v>
@@ -4050,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="EP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4083,9 +4103,12 @@
         <v>0</v>
       </c>
       <c r="FA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB7">
+        <v>1</v>
+      </c>
+      <c r="FC7">
         <v>0</v>
       </c>
     </row>
@@ -4483,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="DW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY8">
         <v>0</v>
@@ -4540,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="EP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4576,6 +4599,9 @@
         <v>0</v>
       </c>
       <c r="FB8">
+        <v>0</v>
+      </c>
+      <c r="FC8">
         <v>0</v>
       </c>
     </row>
@@ -4973,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="DW9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY9">
         <v>0</v>
@@ -5027,13 +5053,13 @@
         <v>0</v>
       </c>
       <c r="EO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP9">
         <v>1</v>
       </c>
       <c r="EQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -5066,6 +5092,9 @@
         <v>0</v>
       </c>
       <c r="FB9">
+        <v>0</v>
+      </c>
+      <c r="FC9">
         <v>0</v>
       </c>
     </row>
@@ -5517,13 +5546,13 @@
         <v>0</v>
       </c>
       <c r="EO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP10">
         <v>1</v>
       </c>
       <c r="EQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5556,6 +5585,9 @@
         <v>0</v>
       </c>
       <c r="FB10">
+        <v>0</v>
+      </c>
+      <c r="FC10">
         <v>0</v>
       </c>
     </row>
@@ -6048,6 +6080,9 @@
       <c r="FB11">
         <v>0</v>
       </c>
+      <c r="FC11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6497,13 +6532,13 @@
         <v>0</v>
       </c>
       <c r="EO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP12">
         <v>1</v>
       </c>
       <c r="EQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6536,6 +6571,9 @@
         <v>0</v>
       </c>
       <c r="FB12">
+        <v>0</v>
+      </c>
+      <c r="FC12">
         <v>0</v>
       </c>
     </row>
@@ -6939,22 +6977,22 @@
         <v>0</v>
       </c>
       <c r="DY13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA13">
         <v>0</v>
       </c>
       <c r="EB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC13">
         <v>1</v>
       </c>
       <c r="ED13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE13">
         <v>0</v>
@@ -6999,10 +7037,10 @@
         <v>0</v>
       </c>
       <c r="ES13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU13">
         <v>0</v>
@@ -7026,6 +7064,9 @@
         <v>0</v>
       </c>
       <c r="FB13">
+        <v>0</v>
+      </c>
+      <c r="FC13">
         <v>0</v>
       </c>
     </row>
@@ -7477,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="EO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP14">
         <v>1</v>
       </c>
       <c r="EQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -7516,6 +7557,9 @@
         <v>0</v>
       </c>
       <c r="FB14">
+        <v>0</v>
+      </c>
+      <c r="FC14">
         <v>0</v>
       </c>
     </row>
@@ -7967,13 +8011,13 @@
         <v>0</v>
       </c>
       <c r="EO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP15">
         <v>1</v>
       </c>
       <c r="EQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -8006,6 +8050,9 @@
         <v>0</v>
       </c>
       <c r="FB15">
+        <v>0</v>
+      </c>
+      <c r="FC15">
         <v>0</v>
       </c>
     </row>
@@ -8457,13 +8504,13 @@
         <v>0</v>
       </c>
       <c r="EO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP16">
         <v>1</v>
       </c>
       <c r="EQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -8496,6 +8543,9 @@
         <v>0</v>
       </c>
       <c r="FB16">
+        <v>0</v>
+      </c>
+      <c r="FC16">
         <v>0</v>
       </c>
     </row>
@@ -8947,13 +8997,13 @@
         <v>0</v>
       </c>
       <c r="EO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP17">
         <v>1</v>
       </c>
       <c r="EQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -8971,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="EW17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY17">
         <v>0</v>
@@ -8986,6 +9036,9 @@
         <v>0</v>
       </c>
       <c r="FB17">
+        <v>0</v>
+      </c>
+      <c r="FC17">
         <v>0</v>
       </c>
     </row>
@@ -9437,13 +9490,13 @@
         <v>0</v>
       </c>
       <c r="EO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP18">
         <v>1</v>
       </c>
       <c r="EQ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER18">
         <v>0</v>
@@ -9452,10 +9505,10 @@
         <v>0</v>
       </c>
       <c r="ET18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV18">
         <v>0</v>
@@ -9476,6 +9529,9 @@
         <v>0</v>
       </c>
       <c r="FB18">
+        <v>0</v>
+      </c>
+      <c r="FC18">
         <v>0</v>
       </c>
     </row>
@@ -9927,13 +9983,13 @@
         <v>0</v>
       </c>
       <c r="EO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP19">
         <v>1</v>
       </c>
       <c r="EQ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER19">
         <v>0</v>
@@ -9966,6 +10022,9 @@
         <v>0</v>
       </c>
       <c r="FB19">
+        <v>0</v>
+      </c>
+      <c r="FC19">
         <v>0</v>
       </c>
     </row>
@@ -10417,13 +10476,13 @@
         <v>0</v>
       </c>
       <c r="EO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP20">
         <v>1</v>
       </c>
       <c r="EQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER20">
         <v>0</v>
@@ -10456,6 +10515,9 @@
         <v>0</v>
       </c>
       <c r="FB20">
+        <v>0</v>
+      </c>
+      <c r="FC20">
         <v>0</v>
       </c>
     </row>
@@ -10874,10 +10936,10 @@
         <v>0</v>
       </c>
       <c r="ED21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF21">
         <v>0</v>
@@ -10907,13 +10969,13 @@
         <v>0</v>
       </c>
       <c r="EO21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP21">
         <v>1</v>
       </c>
       <c r="EQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER21">
         <v>0</v>
@@ -10946,6 +11008,9 @@
         <v>0</v>
       </c>
       <c r="FB21">
+        <v>0</v>
+      </c>
+      <c r="FC21">
         <v>0</v>
       </c>
     </row>
@@ -11397,13 +11462,13 @@
         <v>0</v>
       </c>
       <c r="EO22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP22">
         <v>1</v>
       </c>
       <c r="EQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER22">
         <v>0</v>
@@ -11436,6 +11501,9 @@
         <v>0</v>
       </c>
       <c r="FB22">
+        <v>0</v>
+      </c>
+      <c r="FC22">
         <v>0</v>
       </c>
     </row>
@@ -11887,13 +11955,13 @@
         <v>0</v>
       </c>
       <c r="EO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP23">
         <v>1</v>
       </c>
       <c r="EQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER23">
         <v>0</v>
@@ -11926,6 +11994,9 @@
         <v>0</v>
       </c>
       <c r="FB23">
+        <v>0</v>
+      </c>
+      <c r="FC23">
         <v>0</v>
       </c>
     </row>
@@ -12377,13 +12448,13 @@
         <v>0</v>
       </c>
       <c r="EO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP24">
         <v>1</v>
       </c>
       <c r="EQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER24">
         <v>0</v>
@@ -12416,6 +12487,9 @@
         <v>0</v>
       </c>
       <c r="FB24">
+        <v>0</v>
+      </c>
+      <c r="FC24">
         <v>0</v>
       </c>
     </row>
@@ -12813,10 +12887,10 @@
         <v>0</v>
       </c>
       <c r="DW25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY25">
         <v>0</v>
@@ -12870,10 +12944,10 @@
         <v>0</v>
       </c>
       <c r="EP25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER25">
         <v>0</v>
@@ -12906,6 +12980,9 @@
         <v>0</v>
       </c>
       <c r="FB25">
+        <v>0</v>
+      </c>
+      <c r="FC25">
         <v>0</v>
       </c>
     </row>
@@ -13357,13 +13434,13 @@
         <v>0</v>
       </c>
       <c r="EO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP26">
         <v>1</v>
       </c>
       <c r="EQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER26">
         <v>0</v>
@@ -13396,6 +13473,9 @@
         <v>0</v>
       </c>
       <c r="FB26">
+        <v>0</v>
+      </c>
+      <c r="FC26">
         <v>0</v>
       </c>
     </row>
@@ -13847,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="EO27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP27">
         <v>1</v>
@@ -13856,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="ER27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES27">
         <v>0</v>
@@ -13886,6 +13966,9 @@
         <v>0</v>
       </c>
       <c r="FB27">
+        <v>0</v>
+      </c>
+      <c r="FC27">
         <v>0</v>
       </c>
     </row>
@@ -14337,13 +14420,13 @@
         <v>0</v>
       </c>
       <c r="EO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP28">
         <v>1</v>
       </c>
       <c r="EQ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER28">
         <v>0</v>
@@ -14376,6 +14459,9 @@
         <v>0</v>
       </c>
       <c r="FB28">
+        <v>0</v>
+      </c>
+      <c r="FC28">
         <v>0</v>
       </c>
     </row>
@@ -14827,13 +14913,13 @@
         <v>0</v>
       </c>
       <c r="EO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP29">
         <v>1</v>
       </c>
       <c r="EQ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER29">
         <v>0</v>
@@ -14866,6 +14952,9 @@
         <v>0</v>
       </c>
       <c r="FB29">
+        <v>0</v>
+      </c>
+      <c r="FC29">
         <v>0</v>
       </c>
     </row>
@@ -15317,13 +15406,13 @@
         <v>0</v>
       </c>
       <c r="EO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP30">
         <v>1</v>
       </c>
       <c r="EQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER30">
         <v>0</v>
@@ -15356,6 +15445,9 @@
         <v>0</v>
       </c>
       <c r="FB30">
+        <v>0</v>
+      </c>
+      <c r="FC30">
         <v>0</v>
       </c>
     </row>
@@ -15807,13 +15899,13 @@
         <v>0</v>
       </c>
       <c r="EO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP31">
         <v>1</v>
       </c>
       <c r="EQ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER31">
         <v>0</v>
@@ -15846,6 +15938,9 @@
         <v>0</v>
       </c>
       <c r="FB31">
+        <v>0</v>
+      </c>
+      <c r="FC31">
         <v>0</v>
       </c>
     </row>
@@ -16297,13 +16392,13 @@
         <v>0</v>
       </c>
       <c r="EO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP32">
         <v>1</v>
       </c>
       <c r="EQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER32">
         <v>0</v>
@@ -16336,6 +16431,9 @@
         <v>0</v>
       </c>
       <c r="FB32">
+        <v>0</v>
+      </c>
+      <c r="FC32">
         <v>0</v>
       </c>
     </row>
@@ -16787,13 +16885,13 @@
         <v>0</v>
       </c>
       <c r="EO33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP33">
         <v>1</v>
       </c>
       <c r="EQ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER33">
         <v>0</v>
@@ -16826,6 +16924,9 @@
         <v>0</v>
       </c>
       <c r="FB33">
+        <v>0</v>
+      </c>
+      <c r="FC33">
         <v>0</v>
       </c>
     </row>
@@ -17277,13 +17378,13 @@
         <v>0</v>
       </c>
       <c r="EO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP34">
         <v>1</v>
       </c>
       <c r="EQ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER34">
         <v>0</v>
@@ -17316,6 +17417,9 @@
         <v>0</v>
       </c>
       <c r="FB34">
+        <v>0</v>
+      </c>
+      <c r="FC34">
         <v>0</v>
       </c>
     </row>
@@ -17767,13 +17871,13 @@
         <v>0</v>
       </c>
       <c r="EO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP35">
         <v>1</v>
       </c>
       <c r="EQ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER35">
         <v>0</v>
@@ -17806,6 +17910,9 @@
         <v>0</v>
       </c>
       <c r="FB35">
+        <v>0</v>
+      </c>
+      <c r="FC35">
         <v>0</v>
       </c>
     </row>
@@ -18257,19 +18364,19 @@
         <v>0</v>
       </c>
       <c r="EO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP36">
         <v>1</v>
       </c>
       <c r="EQ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET36">
         <v>0</v>
@@ -18296,6 +18403,9 @@
         <v>0</v>
       </c>
       <c r="FB36">
+        <v>0</v>
+      </c>
+      <c r="FC36">
         <v>1</v>
       </c>
     </row>
@@ -18747,13 +18857,13 @@
         <v>0</v>
       </c>
       <c r="EO37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP37">
         <v>1</v>
       </c>
       <c r="EQ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER37">
         <v>0</v>
@@ -18786,6 +18896,9 @@
         <v>0</v>
       </c>
       <c r="FB37">
+        <v>0</v>
+      </c>
+      <c r="FC37">
         <v>0</v>
       </c>
     </row>
@@ -19237,13 +19350,13 @@
         <v>0</v>
       </c>
       <c r="EO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP38">
         <v>1</v>
       </c>
       <c r="EQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER38">
         <v>0</v>
@@ -19276,6 +19389,9 @@
         <v>0</v>
       </c>
       <c r="FB38">
+        <v>0</v>
+      </c>
+      <c r="FC38">
         <v>0</v>
       </c>
     </row>
@@ -19730,10 +19846,10 @@
         <v>0</v>
       </c>
       <c r="EP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER39">
         <v>0</v>
@@ -19766,6 +19882,9 @@
         <v>0</v>
       </c>
       <c r="FB39">
+        <v>0</v>
+      </c>
+      <c r="FC39">
         <v>0</v>
       </c>
     </row>
@@ -20163,10 +20282,10 @@
         <v>0</v>
       </c>
       <c r="DW40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY40">
         <v>0</v>
@@ -20217,13 +20336,13 @@
         <v>0</v>
       </c>
       <c r="EO40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP40">
         <v>1</v>
       </c>
       <c r="EQ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER40">
         <v>0</v>
@@ -20256,6 +20375,9 @@
         <v>0</v>
       </c>
       <c r="FB40">
+        <v>0</v>
+      </c>
+      <c r="FC40">
         <v>0</v>
       </c>
     </row>
@@ -20707,13 +20829,13 @@
         <v>0</v>
       </c>
       <c r="EO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP41">
         <v>1</v>
       </c>
       <c r="EQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER41">
         <v>0</v>
@@ -20746,6 +20868,9 @@
         <v>0</v>
       </c>
       <c r="FB41">
+        <v>0</v>
+      </c>
+      <c r="FC41">
         <v>0</v>
       </c>
     </row>
@@ -21197,13 +21322,13 @@
         <v>0</v>
       </c>
       <c r="EO42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP42">
         <v>1</v>
       </c>
       <c r="EQ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER42">
         <v>0</v>
@@ -21236,6 +21361,9 @@
         <v>0</v>
       </c>
       <c r="FB42">
+        <v>0</v>
+      </c>
+      <c r="FC42">
         <v>0</v>
       </c>
     </row>
@@ -21687,13 +21815,13 @@
         <v>0</v>
       </c>
       <c r="EO43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP43">
         <v>1</v>
       </c>
       <c r="EQ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER43">
         <v>0</v>
@@ -21723,9 +21851,12 @@
         <v>0</v>
       </c>
       <c r="FA43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB43">
+        <v>1</v>
+      </c>
+      <c r="FC43">
         <v>0</v>
       </c>
     </row>
@@ -22177,13 +22308,13 @@
         <v>0</v>
       </c>
       <c r="EO44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP44">
         <v>1</v>
       </c>
       <c r="EQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER44">
         <v>0</v>
@@ -22216,6 +22347,9 @@
         <v>0</v>
       </c>
       <c r="FB44">
+        <v>0</v>
+      </c>
+      <c r="FC44">
         <v>0</v>
       </c>
     </row>
@@ -22667,13 +22801,13 @@
         <v>0</v>
       </c>
       <c r="EO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP45">
         <v>1</v>
       </c>
       <c r="EQ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER45">
         <v>0</v>
@@ -22706,6 +22840,9 @@
         <v>0</v>
       </c>
       <c r="FB45">
+        <v>0</v>
+      </c>
+      <c r="FC45">
         <v>0</v>
       </c>
     </row>
@@ -23157,13 +23294,13 @@
         <v>0</v>
       </c>
       <c r="EO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP46">
         <v>1</v>
       </c>
       <c r="EQ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER46">
         <v>0</v>
@@ -23196,6 +23333,9 @@
         <v>0</v>
       </c>
       <c r="FB46">
+        <v>0</v>
+      </c>
+      <c r="FC46">
         <v>0</v>
       </c>
     </row>
@@ -23647,13 +23787,13 @@
         <v>0</v>
       </c>
       <c r="EO47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP47">
         <v>1</v>
       </c>
       <c r="EQ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER47">
         <v>0</v>
@@ -23686,6 +23826,9 @@
         <v>0</v>
       </c>
       <c r="FB47">
+        <v>0</v>
+      </c>
+      <c r="FC47">
         <v>0</v>
       </c>
     </row>
@@ -24137,13 +24280,13 @@
         <v>0</v>
       </c>
       <c r="EO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP48">
         <v>1</v>
       </c>
       <c r="EQ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER48">
         <v>0</v>
@@ -24176,6 +24319,9 @@
         <v>0</v>
       </c>
       <c r="FB48">
+        <v>0</v>
+      </c>
+      <c r="FC48">
         <v>0</v>
       </c>
     </row>
@@ -24627,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="EO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP49">
         <v>1</v>
       </c>
       <c r="EQ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER49">
         <v>0</v>
@@ -24666,6 +24812,9 @@
         <v>0</v>
       </c>
       <c r="FB49">
+        <v>0</v>
+      </c>
+      <c r="FC49">
         <v>0</v>
       </c>
     </row>
@@ -25117,13 +25266,13 @@
         <v>0</v>
       </c>
       <c r="EO50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP50">
         <v>1</v>
       </c>
       <c r="EQ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER50">
         <v>0</v>
@@ -25156,6 +25305,9 @@
         <v>0</v>
       </c>
       <c r="FB50">
+        <v>0</v>
+      </c>
+      <c r="FC50">
         <v>0</v>
       </c>
     </row>
@@ -25607,10 +25759,10 @@
         <v>0</v>
       </c>
       <c r="EO51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ51">
         <v>0</v>
@@ -25646,6 +25798,9 @@
         <v>0</v>
       </c>
       <c r="FB51">
+        <v>0</v>
+      </c>
+      <c r="FC51">
         <v>0</v>
       </c>
     </row>
@@ -26100,10 +26255,10 @@
         <v>0</v>
       </c>
       <c r="EP52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER52">
         <v>0</v>
@@ -26136,6 +26291,9 @@
         <v>0</v>
       </c>
       <c r="FB52">
+        <v>0</v>
+      </c>
+      <c r="FC52">
         <v>0</v>
       </c>
     </row>
@@ -26587,13 +26745,13 @@
         <v>0</v>
       </c>
       <c r="EO53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP53">
         <v>1</v>
       </c>
       <c r="EQ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER53">
         <v>0</v>
@@ -26617,15 +26775,18 @@
         <v>0</v>
       </c>
       <c r="EY53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA53">
         <v>0</v>
       </c>
       <c r="FB53">
+        <v>0</v>
+      </c>
+      <c r="FC53">
         <v>0</v>
       </c>
     </row>
@@ -27077,13 +27238,13 @@
         <v>0</v>
       </c>
       <c r="EO54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP54">
         <v>1</v>
       </c>
       <c r="EQ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER54">
         <v>0</v>
@@ -27107,15 +27268,18 @@
         <v>0</v>
       </c>
       <c r="EY54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA54">
         <v>0</v>
       </c>
       <c r="FB54">
+        <v>0</v>
+      </c>
+      <c r="FC54">
         <v>0</v>
       </c>
     </row>
@@ -27570,10 +27734,10 @@
         <v>0</v>
       </c>
       <c r="EP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER55">
         <v>0</v>
@@ -27606,6 +27770,9 @@
         <v>0</v>
       </c>
       <c r="FB55">
+        <v>0</v>
+      </c>
+      <c r="FC55">
         <v>0</v>
       </c>
     </row>
@@ -28057,13 +28224,13 @@
         <v>0</v>
       </c>
       <c r="EO56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP56">
         <v>1</v>
       </c>
       <c r="EQ56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER56">
         <v>0</v>
@@ -28096,6 +28263,9 @@
         <v>0</v>
       </c>
       <c r="FB56">
+        <v>0</v>
+      </c>
+      <c r="FC56">
         <v>0</v>
       </c>
     </row>
@@ -28550,10 +28720,10 @@
         <v>0</v>
       </c>
       <c r="EP57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER57">
         <v>0</v>
@@ -28586,6 +28756,9 @@
         <v>0</v>
       </c>
       <c r="FB57">
+        <v>0</v>
+      </c>
+      <c r="FC57">
         <v>0</v>
       </c>
     </row>
@@ -29040,10 +29213,10 @@
         <v>0</v>
       </c>
       <c r="EP58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER58">
         <v>0</v>
@@ -29076,6 +29249,9 @@
         <v>0</v>
       </c>
       <c r="FB58">
+        <v>0</v>
+      </c>
+      <c r="FC58">
         <v>0</v>
       </c>
     </row>
@@ -29527,13 +29703,13 @@
         <v>0</v>
       </c>
       <c r="EO59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP59">
         <v>1</v>
       </c>
       <c r="EQ59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER59">
         <v>0</v>
@@ -29566,6 +29742,9 @@
         <v>0</v>
       </c>
       <c r="FB59">
+        <v>0</v>
+      </c>
+      <c r="FC59">
         <v>0</v>
       </c>
     </row>
@@ -30017,13 +30196,13 @@
         <v>0</v>
       </c>
       <c r="EO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP60">
         <v>1</v>
       </c>
       <c r="EQ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER60">
         <v>0</v>
@@ -30056,6 +30235,9 @@
         <v>0</v>
       </c>
       <c r="FB60">
+        <v>0</v>
+      </c>
+      <c r="FC60">
         <v>0</v>
       </c>
     </row>
@@ -30548,6 +30730,9 @@
       <c r="FB61">
         <v>0</v>
       </c>
+      <c r="FC61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -30943,10 +31128,10 @@
         <v>0</v>
       </c>
       <c r="DW62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY62">
         <v>0</v>
@@ -30997,13 +31182,13 @@
         <v>0</v>
       </c>
       <c r="EO62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP62">
         <v>1</v>
       </c>
       <c r="EQ62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER62">
         <v>0</v>
@@ -31036,6 +31221,9 @@
         <v>0</v>
       </c>
       <c r="FB62">
+        <v>0</v>
+      </c>
+      <c r="FC62">
         <v>0</v>
       </c>
     </row>
@@ -31433,10 +31621,10 @@
         <v>0</v>
       </c>
       <c r="DW63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY63">
         <v>0</v>
@@ -31487,13 +31675,13 @@
         <v>0</v>
       </c>
       <c r="EO63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP63">
         <v>1</v>
       </c>
       <c r="EQ63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER63">
         <v>0</v>
@@ -31505,10 +31693,10 @@
         <v>0</v>
       </c>
       <c r="EU63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW63">
         <v>0</v>
@@ -31526,6 +31714,9 @@
         <v>0</v>
       </c>
       <c r="FB63">
+        <v>0</v>
+      </c>
+      <c r="FC63">
         <v>0</v>
       </c>
     </row>
@@ -31923,10 +32114,10 @@
         <v>0</v>
       </c>
       <c r="DW64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY64">
         <v>0</v>
@@ -31977,13 +32168,13 @@
         <v>0</v>
       </c>
       <c r="EO64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP64">
         <v>1</v>
       </c>
       <c r="EQ64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER64">
         <v>0</v>
@@ -32016,6 +32207,9 @@
         <v>0</v>
       </c>
       <c r="FB64">
+        <v>0</v>
+      </c>
+      <c r="FC64">
         <v>0</v>
       </c>
     </row>
@@ -32413,10 +32607,10 @@
         <v>0</v>
       </c>
       <c r="DW65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY65">
         <v>0</v>
@@ -32470,10 +32664,10 @@
         <v>0</v>
       </c>
       <c r="EP65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER65">
         <v>0</v>
@@ -32506,6 +32700,9 @@
         <v>0</v>
       </c>
       <c r="FB65">
+        <v>0</v>
+      </c>
+      <c r="FC65">
         <v>0</v>
       </c>
     </row>
@@ -32903,10 +33100,10 @@
         <v>0</v>
       </c>
       <c r="DW66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY66">
         <v>0</v>
@@ -32957,13 +33154,13 @@
         <v>0</v>
       </c>
       <c r="EO66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP66">
         <v>1</v>
       </c>
       <c r="EQ66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER66">
         <v>0</v>
@@ -32981,10 +33178,10 @@
         <v>0</v>
       </c>
       <c r="EW66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY66">
         <v>0</v>
@@ -32996,6 +33193,9 @@
         <v>0</v>
       </c>
       <c r="FB66">
+        <v>0</v>
+      </c>
+      <c r="FC66">
         <v>0</v>
       </c>
     </row>
@@ -33393,10 +33593,10 @@
         <v>0</v>
       </c>
       <c r="DW67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY67">
         <v>0</v>
@@ -33450,10 +33650,10 @@
         <v>0</v>
       </c>
       <c r="EP67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER67">
         <v>0</v>
@@ -33486,6 +33686,9 @@
         <v>0</v>
       </c>
       <c r="FB67">
+        <v>0</v>
+      </c>
+      <c r="FC67">
         <v>0</v>
       </c>
     </row>
@@ -33883,10 +34086,10 @@
         <v>0</v>
       </c>
       <c r="DW68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY68">
         <v>0</v>
@@ -33937,13 +34140,13 @@
         <v>0</v>
       </c>
       <c r="EO68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP68">
         <v>1</v>
       </c>
       <c r="EQ68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER68">
         <v>0</v>
@@ -33961,10 +34164,10 @@
         <v>0</v>
       </c>
       <c r="EW68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY68">
         <v>0</v>
@@ -33976,6 +34179,9 @@
         <v>0</v>
       </c>
       <c r="FB68">
+        <v>0</v>
+      </c>
+      <c r="FC68">
         <v>0</v>
       </c>
     </row>
@@ -34373,10 +34579,10 @@
         <v>0</v>
       </c>
       <c r="DW69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY69">
         <v>0</v>
@@ -34427,13 +34633,13 @@
         <v>0</v>
       </c>
       <c r="EO69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP69">
         <v>1</v>
       </c>
       <c r="EQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER69">
         <v>0</v>
@@ -34451,10 +34657,10 @@
         <v>0</v>
       </c>
       <c r="EW69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY69">
         <v>0</v>
@@ -34466,6 +34672,9 @@
         <v>0</v>
       </c>
       <c r="FB69">
+        <v>0</v>
+      </c>
+      <c r="FC69">
         <v>0</v>
       </c>
     </row>
@@ -34863,10 +35072,10 @@
         <v>0</v>
       </c>
       <c r="DW70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY70">
         <v>0</v>
@@ -34917,13 +35126,13 @@
         <v>0</v>
       </c>
       <c r="EO70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP70">
         <v>1</v>
       </c>
       <c r="EQ70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER70">
         <v>0</v>
@@ -34941,10 +35150,10 @@
         <v>0</v>
       </c>
       <c r="EW70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY70">
         <v>0</v>
@@ -34956,6 +35165,9 @@
         <v>0</v>
       </c>
       <c r="FB70">
+        <v>0</v>
+      </c>
+      <c r="FC70">
         <v>0</v>
       </c>
     </row>
@@ -35353,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="DW71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY71">
         <v>0</v>
@@ -35407,13 +35619,13 @@
         <v>0</v>
       </c>
       <c r="EO71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP71">
         <v>1</v>
       </c>
       <c r="EQ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER71">
         <v>0</v>
@@ -35431,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="EW71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY71">
         <v>0</v>
@@ -35446,6 +35658,9 @@
         <v>0</v>
       </c>
       <c r="FB71">
+        <v>0</v>
+      </c>
+      <c r="FC71">
         <v>0</v>
       </c>
     </row>
@@ -35843,10 +36058,10 @@
         <v>0</v>
       </c>
       <c r="DW72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY72">
         <v>0</v>
@@ -35897,13 +36112,13 @@
         <v>0</v>
       </c>
       <c r="EO72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP72">
         <v>1</v>
       </c>
       <c r="EQ72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER72">
         <v>0</v>
@@ -35921,10 +36136,10 @@
         <v>0</v>
       </c>
       <c r="EW72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY72">
         <v>0</v>
@@ -35936,6 +36151,9 @@
         <v>0</v>
       </c>
       <c r="FB72">
+        <v>0</v>
+      </c>
+      <c r="FC72">
         <v>0</v>
       </c>
     </row>
@@ -36333,10 +36551,10 @@
         <v>0</v>
       </c>
       <c r="DW73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY73">
         <v>0</v>
@@ -36387,13 +36605,13 @@
         <v>0</v>
       </c>
       <c r="EO73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP73">
         <v>1</v>
       </c>
       <c r="EQ73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER73">
         <v>0</v>
@@ -36411,10 +36629,10 @@
         <v>0</v>
       </c>
       <c r="EW73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY73">
         <v>0</v>
@@ -36426,6 +36644,9 @@
         <v>0</v>
       </c>
       <c r="FB73">
+        <v>0</v>
+      </c>
+      <c r="FC73">
         <v>0</v>
       </c>
     </row>
@@ -36823,10 +37044,10 @@
         <v>0</v>
       </c>
       <c r="DW74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY74">
         <v>0</v>
@@ -36877,13 +37098,13 @@
         <v>0</v>
       </c>
       <c r="EO74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP74">
         <v>1</v>
       </c>
       <c r="EQ74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER74">
         <v>0</v>
@@ -36901,10 +37122,10 @@
         <v>0</v>
       </c>
       <c r="EW74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY74">
         <v>0</v>
@@ -36916,6 +37137,9 @@
         <v>0</v>
       </c>
       <c r="FB74">
+        <v>0</v>
+      </c>
+      <c r="FC74">
         <v>0</v>
       </c>
     </row>
@@ -37367,13 +37591,13 @@
         <v>0</v>
       </c>
       <c r="EO75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP75">
         <v>1</v>
       </c>
       <c r="EQ75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER75">
         <v>0</v>
@@ -37391,10 +37615,10 @@
         <v>0</v>
       </c>
       <c r="EW75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY75">
         <v>0</v>
@@ -37406,6 +37630,9 @@
         <v>0</v>
       </c>
       <c r="FB75">
+        <v>0</v>
+      </c>
+      <c r="FC75">
         <v>0</v>
       </c>
     </row>
@@ -37803,10 +38030,10 @@
         <v>0</v>
       </c>
       <c r="DW76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY76">
         <v>0</v>
@@ -37854,7 +38081,7 @@
         <v>0</v>
       </c>
       <c r="EN76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO76">
         <v>1</v>
@@ -37863,7 +38090,7 @@
         <v>1</v>
       </c>
       <c r="EQ76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER76">
         <v>0</v>
@@ -37881,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="EW76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY76">
         <v>0</v>
@@ -37896,6 +38123,9 @@
         <v>0</v>
       </c>
       <c r="FB76">
+        <v>0</v>
+      </c>
+      <c r="FC76">
         <v>0</v>
       </c>
     </row>
@@ -38293,10 +38523,10 @@
         <v>0</v>
       </c>
       <c r="DW77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY77">
         <v>0</v>
@@ -38344,7 +38574,7 @@
         <v>0</v>
       </c>
       <c r="EN77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO77">
         <v>1</v>
@@ -38353,7 +38583,7 @@
         <v>1</v>
       </c>
       <c r="EQ77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER77">
         <v>0</v>
@@ -38371,10 +38601,10 @@
         <v>0</v>
       </c>
       <c r="EW77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY77">
         <v>0</v>
@@ -38386,6 +38616,9 @@
         <v>0</v>
       </c>
       <c r="FB77">
+        <v>0</v>
+      </c>
+      <c r="FC77">
         <v>0</v>
       </c>
     </row>
@@ -38783,10 +39016,10 @@
         <v>0</v>
       </c>
       <c r="DW78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY78">
         <v>0</v>
@@ -38828,10 +39061,10 @@
         <v>0</v>
       </c>
       <c r="EL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN78">
         <v>0</v>
@@ -38861,10 +39094,10 @@
         <v>0</v>
       </c>
       <c r="EW78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY78">
         <v>0</v>
@@ -38876,6 +39109,9 @@
         <v>0</v>
       </c>
       <c r="FB78">
+        <v>0</v>
+      </c>
+      <c r="FC78">
         <v>0</v>
       </c>
     </row>
@@ -39273,10 +39509,10 @@
         <v>0</v>
       </c>
       <c r="DW79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY79">
         <v>0</v>
@@ -39330,10 +39566,10 @@
         <v>0</v>
       </c>
       <c r="EP79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER79">
         <v>0</v>
@@ -39351,10 +39587,10 @@
         <v>0</v>
       </c>
       <c r="EW79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY79">
         <v>0</v>
@@ -39366,6 +39602,9 @@
         <v>0</v>
       </c>
       <c r="FB79">
+        <v>0</v>
+      </c>
+      <c r="FC79">
         <v>0</v>
       </c>
     </row>
@@ -39763,10 +40002,10 @@
         <v>0</v>
       </c>
       <c r="DW80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY80">
         <v>0</v>
@@ -39817,13 +40056,13 @@
         <v>0</v>
       </c>
       <c r="EO80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP80">
         <v>1</v>
       </c>
       <c r="EQ80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER80">
         <v>0</v>
@@ -39856,6 +40095,9 @@
         <v>0</v>
       </c>
       <c r="FB80">
+        <v>0</v>
+      </c>
+      <c r="FC80">
         <v>0</v>
       </c>
     </row>
@@ -40253,10 +40495,10 @@
         <v>0</v>
       </c>
       <c r="DW81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY81">
         <v>0</v>
@@ -40307,13 +40549,13 @@
         <v>0</v>
       </c>
       <c r="EO81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP81">
         <v>1</v>
       </c>
       <c r="EQ81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER81">
         <v>0</v>
@@ -40331,10 +40573,10 @@
         <v>0</v>
       </c>
       <c r="EW81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY81">
         <v>0</v>
@@ -40346,6 +40588,9 @@
         <v>0</v>
       </c>
       <c r="FB81">
+        <v>0</v>
+      </c>
+      <c r="FC81">
         <v>0</v>
       </c>
     </row>
@@ -40743,10 +40988,10 @@
         <v>0</v>
       </c>
       <c r="DW82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY82">
         <v>0</v>
@@ -40797,13 +41042,13 @@
         <v>0</v>
       </c>
       <c r="EO82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP82">
         <v>1</v>
       </c>
       <c r="EQ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER82">
         <v>0</v>
@@ -40836,6 +41081,9 @@
         <v>0</v>
       </c>
       <c r="FB82">
+        <v>0</v>
+      </c>
+      <c r="FC82">
         <v>0</v>
       </c>
     </row>
@@ -41233,10 +41481,10 @@
         <v>0</v>
       </c>
       <c r="DW83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY83">
         <v>0</v>
@@ -41290,10 +41538,10 @@
         <v>0</v>
       </c>
       <c r="EP83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER83">
         <v>0</v>
@@ -41311,10 +41559,10 @@
         <v>0</v>
       </c>
       <c r="EW83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY83">
         <v>0</v>
@@ -41326,6 +41574,9 @@
         <v>0</v>
       </c>
       <c r="FB83">
+        <v>0</v>
+      </c>
+      <c r="FC83">
         <v>0</v>
       </c>
     </row>
@@ -41723,10 +41974,10 @@
         <v>0</v>
       </c>
       <c r="DW84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY84">
         <v>0</v>
@@ -41780,10 +42031,10 @@
         <v>0</v>
       </c>
       <c r="EP84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER84">
         <v>0</v>
@@ -41801,10 +42052,10 @@
         <v>0</v>
       </c>
       <c r="EW84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY84">
         <v>0</v>
@@ -41816,6 +42067,9 @@
         <v>0</v>
       </c>
       <c r="FB84">
+        <v>0</v>
+      </c>
+      <c r="FC84">
         <v>0</v>
       </c>
     </row>
@@ -42213,10 +42467,10 @@
         <v>0</v>
       </c>
       <c r="DW85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY85">
         <v>0</v>
@@ -42240,10 +42494,10 @@
         <v>0</v>
       </c>
       <c r="EF85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH85">
         <v>0</v>
@@ -42270,10 +42524,10 @@
         <v>0</v>
       </c>
       <c r="EP85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER85">
         <v>0</v>
@@ -42291,10 +42545,10 @@
         <v>0</v>
       </c>
       <c r="EW85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY85">
         <v>0</v>
@@ -42306,6 +42560,9 @@
         <v>0</v>
       </c>
       <c r="FB85">
+        <v>0</v>
+      </c>
+      <c r="FC85">
         <v>0</v>
       </c>
     </row>
@@ -42703,10 +42960,10 @@
         <v>0</v>
       </c>
       <c r="DW86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY86">
         <v>0</v>
@@ -42760,10 +43017,10 @@
         <v>0</v>
       </c>
       <c r="EP86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER86">
         <v>0</v>
@@ -42781,10 +43038,10 @@
         <v>0</v>
       </c>
       <c r="EW86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY86">
         <v>0</v>
@@ -42796,6 +43053,9 @@
         <v>0</v>
       </c>
       <c r="FB86">
+        <v>0</v>
+      </c>
+      <c r="FC86">
         <v>0</v>
       </c>
     </row>
@@ -43193,10 +43453,10 @@
         <v>0</v>
       </c>
       <c r="DW87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY87">
         <v>0</v>
@@ -43220,10 +43480,10 @@
         <v>0</v>
       </c>
       <c r="EF87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH87">
         <v>0</v>
@@ -43250,10 +43510,10 @@
         <v>0</v>
       </c>
       <c r="EP87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER87">
         <v>0</v>
@@ -43286,6 +43546,9 @@
         <v>0</v>
       </c>
       <c r="FB87">
+        <v>0</v>
+      </c>
+      <c r="FC87">
         <v>0</v>
       </c>
     </row>
@@ -43683,10 +43946,10 @@
         <v>0</v>
       </c>
       <c r="DW88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY88">
         <v>0</v>
@@ -43740,10 +44003,10 @@
         <v>0</v>
       </c>
       <c r="EP88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER88">
         <v>0</v>
@@ -43776,6 +44039,9 @@
         <v>0</v>
       </c>
       <c r="FB88">
+        <v>0</v>
+      </c>
+      <c r="FC88">
         <v>0</v>
       </c>
     </row>
@@ -44173,10 +44439,10 @@
         <v>0</v>
       </c>
       <c r="DW89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY89">
         <v>0</v>
@@ -44230,10 +44496,10 @@
         <v>0</v>
       </c>
       <c r="EP89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER89">
         <v>0</v>
@@ -44251,10 +44517,10 @@
         <v>0</v>
       </c>
       <c r="EW89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY89">
         <v>0</v>
@@ -44266,6 +44532,9 @@
         <v>0</v>
       </c>
       <c r="FB89">
+        <v>0</v>
+      </c>
+      <c r="FC89">
         <v>0</v>
       </c>
     </row>
@@ -44663,10 +44932,10 @@
         <v>0</v>
       </c>
       <c r="DW90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY90">
         <v>0</v>
@@ -44720,10 +44989,10 @@
         <v>0</v>
       </c>
       <c r="EP90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER90">
         <v>0</v>
@@ -44741,10 +45010,10 @@
         <v>0</v>
       </c>
       <c r="EW90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY90">
         <v>0</v>
@@ -44756,6 +45025,9 @@
         <v>0</v>
       </c>
       <c r="FB90">
+        <v>0</v>
+      </c>
+      <c r="FC90">
         <v>0</v>
       </c>
     </row>
@@ -45153,10 +45425,10 @@
         <v>0</v>
       </c>
       <c r="DW91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY91">
         <v>0</v>
@@ -45210,10 +45482,10 @@
         <v>0</v>
       </c>
       <c r="EP91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER91">
         <v>0</v>
@@ -45231,10 +45503,10 @@
         <v>0</v>
       </c>
       <c r="EW91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY91">
         <v>0</v>
@@ -45246,6 +45518,9 @@
         <v>0</v>
       </c>
       <c r="FB91">
+        <v>0</v>
+      </c>
+      <c r="FC91">
         <v>0</v>
       </c>
     </row>
@@ -45643,10 +45918,10 @@
         <v>0</v>
       </c>
       <c r="DW92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY92">
         <v>0</v>
@@ -45670,10 +45945,10 @@
         <v>0</v>
       </c>
       <c r="EF92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH92">
         <v>0</v>
@@ -45700,10 +45975,10 @@
         <v>0</v>
       </c>
       <c r="EP92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER92">
         <v>0</v>
@@ -45736,6 +46011,9 @@
         <v>0</v>
       </c>
       <c r="FB92">
+        <v>0</v>
+      </c>
+      <c r="FC92">
         <v>0</v>
       </c>
     </row>
@@ -46133,10 +46411,10 @@
         <v>0</v>
       </c>
       <c r="DW93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY93">
         <v>0</v>
@@ -46190,10 +46468,10 @@
         <v>0</v>
       </c>
       <c r="EP93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER93">
         <v>0</v>
@@ -46226,6 +46504,9 @@
         <v>0</v>
       </c>
       <c r="FB93">
+        <v>0</v>
+      </c>
+      <c r="FC93">
         <v>0</v>
       </c>
     </row>
@@ -46623,10 +46904,10 @@
         <v>0</v>
       </c>
       <c r="DW94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY94">
         <v>0</v>
@@ -46680,10 +46961,10 @@
         <v>0</v>
       </c>
       <c r="EP94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER94">
         <v>0</v>
@@ -46701,13 +46982,13 @@
         <v>0</v>
       </c>
       <c r="EW94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX94">
         <v>1</v>
       </c>
       <c r="EY94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ94">
         <v>0</v>
@@ -46716,6 +46997,9 @@
         <v>0</v>
       </c>
       <c r="FB94">
+        <v>0</v>
+      </c>
+      <c r="FC94">
         <v>0</v>
       </c>
     </row>
@@ -47113,10 +47397,10 @@
         <v>0</v>
       </c>
       <c r="DW95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY95">
         <v>0</v>
@@ -47170,10 +47454,10 @@
         <v>0</v>
       </c>
       <c r="EP95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER95">
         <v>0</v>
@@ -47191,10 +47475,10 @@
         <v>0</v>
       </c>
       <c r="EW95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY95">
         <v>0</v>
@@ -47206,6 +47490,9 @@
         <v>0</v>
       </c>
       <c r="FB95">
+        <v>0</v>
+      </c>
+      <c r="FC95">
         <v>0</v>
       </c>
     </row>
@@ -47603,10 +47890,10 @@
         <v>0</v>
       </c>
       <c r="DW96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY96">
         <v>0</v>
@@ -47660,10 +47947,10 @@
         <v>0</v>
       </c>
       <c r="EP96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER96">
         <v>0</v>
@@ -47681,10 +47968,10 @@
         <v>0</v>
       </c>
       <c r="EW96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY96">
         <v>0</v>
@@ -47696,6 +47983,9 @@
         <v>0</v>
       </c>
       <c r="FB96">
+        <v>0</v>
+      </c>
+      <c r="FC96">
         <v>0</v>
       </c>
     </row>
@@ -48093,10 +48383,10 @@
         <v>0</v>
       </c>
       <c r="DW97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY97">
         <v>0</v>
@@ -48150,10 +48440,10 @@
         <v>0</v>
       </c>
       <c r="EP97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER97">
         <v>0</v>
@@ -48171,10 +48461,10 @@
         <v>0</v>
       </c>
       <c r="EW97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY97">
         <v>0</v>
@@ -48186,6 +48476,9 @@
         <v>0</v>
       </c>
       <c r="FB97">
+        <v>0</v>
+      </c>
+      <c r="FC97">
         <v>0</v>
       </c>
     </row>
@@ -48583,10 +48876,10 @@
         <v>0</v>
       </c>
       <c r="DW98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY98">
         <v>0</v>
@@ -48610,10 +48903,10 @@
         <v>0</v>
       </c>
       <c r="EF98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH98">
         <v>0</v>
@@ -48640,10 +48933,10 @@
         <v>0</v>
       </c>
       <c r="EP98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER98">
         <v>0</v>
@@ -48661,10 +48954,10 @@
         <v>0</v>
       </c>
       <c r="EW98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY98">
         <v>0</v>
@@ -48676,6 +48969,9 @@
         <v>0</v>
       </c>
       <c r="FB98">
+        <v>0</v>
+      </c>
+      <c r="FC98">
         <v>0</v>
       </c>
     </row>
@@ -49073,10 +49369,10 @@
         <v>0</v>
       </c>
       <c r="DW99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY99">
         <v>0</v>
@@ -49130,10 +49426,10 @@
         <v>0</v>
       </c>
       <c r="EP99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER99">
         <v>0</v>
@@ -49151,10 +49447,10 @@
         <v>0</v>
       </c>
       <c r="EW99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY99">
         <v>0</v>
@@ -49166,6 +49462,9 @@
         <v>0</v>
       </c>
       <c r="FB99">
+        <v>0</v>
+      </c>
+      <c r="FC99">
         <v>0</v>
       </c>
     </row>
@@ -49563,10 +49862,10 @@
         <v>0</v>
       </c>
       <c r="DW100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY100">
         <v>0</v>
@@ -49620,10 +49919,10 @@
         <v>0</v>
       </c>
       <c r="EP100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER100">
         <v>0</v>
@@ -49641,10 +49940,10 @@
         <v>0</v>
       </c>
       <c r="EW100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY100">
         <v>0</v>
@@ -49656,6 +49955,9 @@
         <v>0</v>
       </c>
       <c r="FB100">
+        <v>0</v>
+      </c>
+      <c r="FC100">
         <v>0</v>
       </c>
     </row>
@@ -50053,10 +50355,10 @@
         <v>0</v>
       </c>
       <c r="DW101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY101">
         <v>0</v>
@@ -50110,10 +50412,10 @@
         <v>0</v>
       </c>
       <c r="EP101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER101">
         <v>0</v>
@@ -50131,10 +50433,10 @@
         <v>0</v>
       </c>
       <c r="EW101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY101">
         <v>0</v>
@@ -50146,6 +50448,9 @@
         <v>0</v>
       </c>
       <c r="FB101">
+        <v>0</v>
+      </c>
+      <c r="FC101">
         <v>0</v>
       </c>
     </row>
@@ -50543,10 +50848,10 @@
         <v>0</v>
       </c>
       <c r="DW102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY102">
         <v>0</v>
@@ -50600,10 +50905,10 @@
         <v>0</v>
       </c>
       <c r="EP102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER102">
         <v>0</v>
@@ -50621,10 +50926,10 @@
         <v>0</v>
       </c>
       <c r="EW102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY102">
         <v>0</v>
@@ -50636,6 +50941,9 @@
         <v>0</v>
       </c>
       <c r="FB102">
+        <v>0</v>
+      </c>
+      <c r="FC102">
         <v>0</v>
       </c>
     </row>
@@ -51033,10 +51341,10 @@
         <v>0</v>
       </c>
       <c r="DW103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY103">
         <v>0</v>
@@ -51090,10 +51398,10 @@
         <v>0</v>
       </c>
       <c r="EP103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER103">
         <v>0</v>
@@ -51126,6 +51434,9 @@
         <v>0</v>
       </c>
       <c r="FB103">
+        <v>0</v>
+      </c>
+      <c r="FC103">
         <v>0</v>
       </c>
     </row>
@@ -51523,10 +51834,10 @@
         <v>0</v>
       </c>
       <c r="DW104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY104">
         <v>0</v>
@@ -51580,10 +51891,10 @@
         <v>0</v>
       </c>
       <c r="EP104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER104">
         <v>0</v>
@@ -51616,6 +51927,9 @@
         <v>0</v>
       </c>
       <c r="FB104">
+        <v>0</v>
+      </c>
+      <c r="FC104">
         <v>0</v>
       </c>
     </row>
@@ -52070,10 +52384,10 @@
         <v>0</v>
       </c>
       <c r="EP105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER105">
         <v>0</v>
@@ -52106,6 +52420,9 @@
         <v>0</v>
       </c>
       <c r="FB105">
+        <v>0</v>
+      </c>
+      <c r="FC105">
         <v>0</v>
       </c>
     </row>
@@ -52503,10 +52820,10 @@
         <v>0</v>
       </c>
       <c r="DW106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY106">
         <v>0</v>
@@ -52560,10 +52877,10 @@
         <v>0</v>
       </c>
       <c r="EP106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER106">
         <v>0</v>
@@ -52581,21 +52898,24 @@
         <v>0</v>
       </c>
       <c r="EW106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA106">
         <v>0</v>
       </c>
       <c r="FB106">
+        <v>0</v>
+      </c>
+      <c r="FC106">
         <v>0</v>
       </c>
     </row>
@@ -52993,10 +53313,10 @@
         <v>0</v>
       </c>
       <c r="DW107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY107">
         <v>0</v>
@@ -53050,10 +53370,10 @@
         <v>0</v>
       </c>
       <c r="EP107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER107">
         <v>0</v>
@@ -53086,6 +53406,9 @@
         <v>0</v>
       </c>
       <c r="FB107">
+        <v>0</v>
+      </c>
+      <c r="FC107">
         <v>0</v>
       </c>
     </row>
@@ -53483,10 +53806,10 @@
         <v>0</v>
       </c>
       <c r="DW108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY108">
         <v>0</v>
@@ -53540,10 +53863,10 @@
         <v>0</v>
       </c>
       <c r="EP108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER108">
         <v>0</v>
@@ -53576,6 +53899,9 @@
         <v>0</v>
       </c>
       <c r="FB108">
+        <v>0</v>
+      </c>
+      <c r="FC108">
         <v>0</v>
       </c>
     </row>
@@ -53973,10 +54299,10 @@
         <v>0</v>
       </c>
       <c r="DW109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY109">
         <v>0</v>
@@ -54030,10 +54356,10 @@
         <v>0</v>
       </c>
       <c r="EP109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER109">
         <v>0</v>
@@ -54051,10 +54377,10 @@
         <v>0</v>
       </c>
       <c r="EW109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY109">
         <v>0</v>
@@ -54066,6 +54392,9 @@
         <v>0</v>
       </c>
       <c r="FB109">
+        <v>0</v>
+      </c>
+      <c r="FC109">
         <v>0</v>
       </c>
     </row>
@@ -54463,10 +54792,10 @@
         <v>0</v>
       </c>
       <c r="DW110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY110">
         <v>0</v>
@@ -54520,10 +54849,10 @@
         <v>0</v>
       </c>
       <c r="EP110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER110">
         <v>0</v>
@@ -54541,10 +54870,10 @@
         <v>0</v>
       </c>
       <c r="EW110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY110">
         <v>0</v>
@@ -54556,6 +54885,9 @@
         <v>0</v>
       </c>
       <c r="FB110">
+        <v>0</v>
+      </c>
+      <c r="FC110">
         <v>0</v>
       </c>
     </row>
@@ -54953,10 +55285,10 @@
         <v>0</v>
       </c>
       <c r="DW111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY111">
         <v>0</v>
@@ -55010,10 +55342,10 @@
         <v>0</v>
       </c>
       <c r="EP111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER111">
         <v>0</v>
@@ -55046,6 +55378,9 @@
         <v>0</v>
       </c>
       <c r="FB111">
+        <v>0</v>
+      </c>
+      <c r="FC111">
         <v>0</v>
       </c>
     </row>
@@ -55443,10 +55778,10 @@
         <v>0</v>
       </c>
       <c r="DW112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY112">
         <v>0</v>
@@ -55500,10 +55835,10 @@
         <v>0</v>
       </c>
       <c r="EP112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER112">
         <v>0</v>
@@ -55521,10 +55856,10 @@
         <v>0</v>
       </c>
       <c r="EW112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY112">
         <v>0</v>
@@ -55536,6 +55871,9 @@
         <v>0</v>
       </c>
       <c r="FB112">
+        <v>0</v>
+      </c>
+      <c r="FC112">
         <v>0</v>
       </c>
     </row>
@@ -55933,22 +56271,22 @@
         <v>0</v>
       </c>
       <c r="DW113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY113">
         <v>0</v>
       </c>
       <c r="DZ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA113">
         <v>1</v>
       </c>
       <c r="EB113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC113">
         <v>0</v>
@@ -55972,28 +56310,28 @@
         <v>0</v>
       </c>
       <c r="EJ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL113">
         <v>0</v>
       </c>
       <c r="EM113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO113">
         <v>0</v>
       </c>
       <c r="EP113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER113">
         <v>0</v>
@@ -56011,10 +56349,10 @@
         <v>0</v>
       </c>
       <c r="EW113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY113">
         <v>0</v>
@@ -56026,6 +56364,9 @@
         <v>0</v>
       </c>
       <c r="FB113">
+        <v>0</v>
+      </c>
+      <c r="FC113">
         <v>0</v>
       </c>
     </row>
@@ -56423,10 +56764,10 @@
         <v>0</v>
       </c>
       <c r="DW114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY114">
         <v>0</v>
@@ -56480,10 +56821,10 @@
         <v>0</v>
       </c>
       <c r="EP114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER114">
         <v>0</v>
@@ -56516,6 +56857,9 @@
         <v>0</v>
       </c>
       <c r="FB114">
+        <v>0</v>
+      </c>
+      <c r="FC114">
         <v>0</v>
       </c>
     </row>
@@ -56913,10 +57257,10 @@
         <v>0</v>
       </c>
       <c r="DW115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY115">
         <v>0</v>
@@ -56970,10 +57314,10 @@
         <v>0</v>
       </c>
       <c r="EP115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER115">
         <v>0</v>
@@ -57006,6 +57350,9 @@
         <v>0</v>
       </c>
       <c r="FB115">
+        <v>0</v>
+      </c>
+      <c r="FC115">
         <v>0</v>
       </c>
     </row>
@@ -57403,10 +57750,10 @@
         <v>0</v>
       </c>
       <c r="DW116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY116">
         <v>0</v>
@@ -57460,10 +57807,10 @@
         <v>0</v>
       </c>
       <c r="EP116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER116">
         <v>0</v>
@@ -57496,6 +57843,9 @@
         <v>0</v>
       </c>
       <c r="FB116">
+        <v>0</v>
+      </c>
+      <c r="FC116">
         <v>0</v>
       </c>
     </row>
@@ -57893,10 +58243,10 @@
         <v>0</v>
       </c>
       <c r="DW117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY117">
         <v>0</v>
@@ -57950,10 +58300,10 @@
         <v>0</v>
       </c>
       <c r="EP117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER117">
         <v>0</v>
@@ -57986,6 +58336,9 @@
         <v>0</v>
       </c>
       <c r="FB117">
+        <v>0</v>
+      </c>
+      <c r="FC117">
         <v>0</v>
       </c>
     </row>
@@ -58383,10 +58736,10 @@
         <v>0</v>
       </c>
       <c r="DW118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY118">
         <v>0</v>
@@ -58440,10 +58793,10 @@
         <v>0</v>
       </c>
       <c r="EP118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER118">
         <v>0</v>
@@ -58476,6 +58829,9 @@
         <v>0</v>
       </c>
       <c r="FB118">
+        <v>0</v>
+      </c>
+      <c r="FC118">
         <v>0</v>
       </c>
     </row>
@@ -58873,10 +59229,10 @@
         <v>0</v>
       </c>
       <c r="DW119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY119">
         <v>0</v>
@@ -58930,10 +59286,10 @@
         <v>0</v>
       </c>
       <c r="EP119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER119">
         <v>0</v>
@@ -58966,6 +59322,9 @@
         <v>0</v>
       </c>
       <c r="FB119">
+        <v>0</v>
+      </c>
+      <c r="FC119">
         <v>0</v>
       </c>
     </row>
@@ -59363,10 +59722,10 @@
         <v>0</v>
       </c>
       <c r="DW120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY120">
         <v>0</v>
@@ -59420,10 +59779,10 @@
         <v>0</v>
       </c>
       <c r="EP120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER120">
         <v>0</v>
@@ -59456,6 +59815,9 @@
         <v>0</v>
       </c>
       <c r="FB120">
+        <v>0</v>
+      </c>
+      <c r="FC120">
         <v>0</v>
       </c>
     </row>
@@ -59853,10 +60215,10 @@
         <v>0</v>
       </c>
       <c r="DW121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY121">
         <v>0</v>
@@ -59910,10 +60272,10 @@
         <v>0</v>
       </c>
       <c r="EP121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER121">
         <v>0</v>
@@ -59946,6 +60308,9 @@
         <v>0</v>
       </c>
       <c r="FB121">
+        <v>0</v>
+      </c>
+      <c r="FC121">
         <v>0</v>
       </c>
     </row>
@@ -60343,10 +60708,10 @@
         <v>0</v>
       </c>
       <c r="DW122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY122">
         <v>0</v>
@@ -60400,10 +60765,10 @@
         <v>0</v>
       </c>
       <c r="EP122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER122">
         <v>0</v>
@@ -60436,6 +60801,9 @@
         <v>0</v>
       </c>
       <c r="FB122">
+        <v>0</v>
+      </c>
+      <c r="FC122">
         <v>0</v>
       </c>
     </row>
@@ -60833,10 +61201,10 @@
         <v>0</v>
       </c>
       <c r="DW123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY123">
         <v>0</v>
@@ -60890,10 +61258,10 @@
         <v>0</v>
       </c>
       <c r="EP123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER123">
         <v>0</v>
@@ -60926,6 +61294,9 @@
         <v>0</v>
       </c>
       <c r="FB123">
+        <v>0</v>
+      </c>
+      <c r="FC123">
         <v>0</v>
       </c>
     </row>
@@ -61323,10 +61694,10 @@
         <v>0</v>
       </c>
       <c r="DW124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY124">
         <v>0</v>
@@ -61380,10 +61751,10 @@
         <v>0</v>
       </c>
       <c r="EP124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER124">
         <v>0</v>
@@ -61416,6 +61787,9 @@
         <v>0</v>
       </c>
       <c r="FB124">
+        <v>0</v>
+      </c>
+      <c r="FC124">
         <v>0</v>
       </c>
     </row>
@@ -61813,10 +62187,10 @@
         <v>0</v>
       </c>
       <c r="DW125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY125">
         <v>0</v>
@@ -61843,10 +62217,10 @@
         <v>0</v>
       </c>
       <c r="EG125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI125">
         <v>0</v>
@@ -61870,10 +62244,10 @@
         <v>0</v>
       </c>
       <c r="EP125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER125">
         <v>0</v>
@@ -61906,6 +62280,9 @@
         <v>0</v>
       </c>
       <c r="FB125">
+        <v>0</v>
+      </c>
+      <c r="FC125">
         <v>0</v>
       </c>
     </row>
@@ -62303,10 +62680,10 @@
         <v>0</v>
       </c>
       <c r="DW126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY126">
         <v>0</v>
@@ -62360,10 +62737,10 @@
         <v>0</v>
       </c>
       <c r="EP126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER126">
         <v>0</v>
@@ -62396,6 +62773,9 @@
         <v>0</v>
       </c>
       <c r="FB126">
+        <v>0</v>
+      </c>
+      <c r="FC126">
         <v>0</v>
       </c>
     </row>
@@ -62793,10 +63173,10 @@
         <v>0</v>
       </c>
       <c r="DW127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY127">
         <v>0</v>
@@ -62850,10 +63230,10 @@
         <v>0</v>
       </c>
       <c r="EP127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER127">
         <v>0</v>
@@ -62886,6 +63266,9 @@
         <v>0</v>
       </c>
       <c r="FB127">
+        <v>0</v>
+      </c>
+      <c r="FC127">
         <v>0</v>
       </c>
     </row>
@@ -63283,10 +63666,10 @@
         <v>0</v>
       </c>
       <c r="DW128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY128">
         <v>0</v>
@@ -63340,10 +63723,10 @@
         <v>0</v>
       </c>
       <c r="EP128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER128">
         <v>0</v>
@@ -63376,6 +63759,9 @@
         <v>0</v>
       </c>
       <c r="FB128">
+        <v>0</v>
+      </c>
+      <c r="FC128">
         <v>0</v>
       </c>
     </row>
@@ -63773,10 +64159,10 @@
         <v>0</v>
       </c>
       <c r="DW129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY129">
         <v>0</v>
@@ -63830,10 +64216,10 @@
         <v>0</v>
       </c>
       <c r="EP129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER129">
         <v>0</v>
@@ -63866,6 +64252,9 @@
         <v>0</v>
       </c>
       <c r="FB129">
+        <v>0</v>
+      </c>
+      <c r="FC129">
         <v>0</v>
       </c>
     </row>
@@ -64263,10 +64652,10 @@
         <v>0</v>
       </c>
       <c r="DW130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY130">
         <v>0</v>
@@ -64320,10 +64709,10 @@
         <v>0</v>
       </c>
       <c r="EP130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER130">
         <v>0</v>
@@ -64356,6 +64745,9 @@
         <v>0</v>
       </c>
       <c r="FB130">
+        <v>0</v>
+      </c>
+      <c r="FC130">
         <v>0</v>
       </c>
     </row>
@@ -64753,10 +65145,10 @@
         <v>0</v>
       </c>
       <c r="DW131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY131">
         <v>0</v>
@@ -64810,10 +65202,10 @@
         <v>0</v>
       </c>
       <c r="EP131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER131">
         <v>0</v>
@@ -64846,6 +65238,9 @@
         <v>0</v>
       </c>
       <c r="FB131">
+        <v>0</v>
+      </c>
+      <c r="FC131">
         <v>0</v>
       </c>
     </row>
@@ -65243,10 +65638,10 @@
         <v>0</v>
       </c>
       <c r="DW132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY132">
         <v>0</v>
@@ -65300,10 +65695,10 @@
         <v>0</v>
       </c>
       <c r="EP132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER132">
         <v>0</v>
@@ -65336,6 +65731,9 @@
         <v>0</v>
       </c>
       <c r="FB132">
+        <v>0</v>
+      </c>
+      <c r="FC132">
         <v>0</v>
       </c>
     </row>
@@ -65733,10 +66131,10 @@
         <v>0</v>
       </c>
       <c r="DW133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY133">
         <v>0</v>
@@ -65790,10 +66188,10 @@
         <v>0</v>
       </c>
       <c r="EP133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER133">
         <v>0</v>
@@ -65826,6 +66224,9 @@
         <v>0</v>
       </c>
       <c r="FB133">
+        <v>0</v>
+      </c>
+      <c r="FC133">
         <v>0</v>
       </c>
     </row>
@@ -66223,10 +66624,10 @@
         <v>0</v>
       </c>
       <c r="DW134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY134">
         <v>0</v>
@@ -66280,10 +66681,10 @@
         <v>0</v>
       </c>
       <c r="EP134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER134">
         <v>0</v>
@@ -66316,6 +66717,9 @@
         <v>0</v>
       </c>
       <c r="FB134">
+        <v>0</v>
+      </c>
+      <c r="FC134">
         <v>0</v>
       </c>
     </row>
@@ -66713,10 +67117,10 @@
         <v>0</v>
       </c>
       <c r="DW135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY135">
         <v>0</v>
@@ -66770,10 +67174,10 @@
         <v>0</v>
       </c>
       <c r="EP135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER135">
         <v>0</v>
@@ -66806,6 +67210,9 @@
         <v>0</v>
       </c>
       <c r="FB135">
+        <v>0</v>
+      </c>
+      <c r="FC135">
         <v>0</v>
       </c>
     </row>
@@ -67203,10 +67610,10 @@
         <v>0</v>
       </c>
       <c r="DW136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY136">
         <v>0</v>
@@ -67260,10 +67667,10 @@
         <v>0</v>
       </c>
       <c r="EP136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER136">
         <v>0</v>
@@ -67278,10 +67685,10 @@
         <v>0</v>
       </c>
       <c r="EV136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX136">
         <v>0</v>
@@ -67296,6 +67703,9 @@
         <v>0</v>
       </c>
       <c r="FB136">
+        <v>0</v>
+      </c>
+      <c r="FC136">
         <v>0</v>
       </c>
     </row>
@@ -67693,10 +68103,10 @@
         <v>0</v>
       </c>
       <c r="DW137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY137">
         <v>0</v>
@@ -67720,10 +68130,10 @@
         <v>0</v>
       </c>
       <c r="EF137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH137">
         <v>0</v>
@@ -67750,10 +68160,10 @@
         <v>0</v>
       </c>
       <c r="EP137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER137">
         <v>0</v>
@@ -67786,6 +68196,9 @@
         <v>0</v>
       </c>
       <c r="FB137">
+        <v>0</v>
+      </c>
+      <c r="FC137">
         <v>0</v>
       </c>
     </row>
@@ -68183,10 +68596,10 @@
         <v>0</v>
       </c>
       <c r="DW138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY138">
         <v>0</v>
@@ -68240,10 +68653,10 @@
         <v>0</v>
       </c>
       <c r="EP138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER138">
         <v>0</v>
@@ -68276,6 +68689,9 @@
         <v>0</v>
       </c>
       <c r="FB138">
+        <v>0</v>
+      </c>
+      <c r="FC138">
         <v>0</v>
       </c>
     </row>
@@ -68673,10 +69089,10 @@
         <v>0</v>
       </c>
       <c r="DW139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY139">
         <v>0</v>
@@ -68730,10 +69146,10 @@
         <v>0</v>
       </c>
       <c r="EP139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER139">
         <v>0</v>
@@ -68766,6 +69182,9 @@
         <v>0</v>
       </c>
       <c r="FB139">
+        <v>0</v>
+      </c>
+      <c r="FC139">
         <v>0</v>
       </c>
     </row>
@@ -69163,10 +69582,10 @@
         <v>0</v>
       </c>
       <c r="DW140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY140">
         <v>0</v>
@@ -69220,10 +69639,10 @@
         <v>0</v>
       </c>
       <c r="EP140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER140">
         <v>0</v>
@@ -69256,6 +69675,9 @@
         <v>0</v>
       </c>
       <c r="FB140">
+        <v>0</v>
+      </c>
+      <c r="FC140">
         <v>0</v>
       </c>
     </row>
@@ -69653,10 +70075,10 @@
         <v>0</v>
       </c>
       <c r="DW141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY141">
         <v>0</v>
@@ -69680,10 +70102,10 @@
         <v>0</v>
       </c>
       <c r="EF141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH141">
         <v>0</v>
@@ -69710,10 +70132,10 @@
         <v>0</v>
       </c>
       <c r="EP141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER141">
         <v>0</v>
@@ -69746,6 +70168,9 @@
         <v>0</v>
       </c>
       <c r="FB141">
+        <v>0</v>
+      </c>
+      <c r="FC141">
         <v>0</v>
       </c>
     </row>
@@ -70143,10 +70568,10 @@
         <v>0</v>
       </c>
       <c r="DW142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY142">
         <v>0</v>
@@ -70200,10 +70625,10 @@
         <v>0</v>
       </c>
       <c r="EP142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER142">
         <v>0</v>
@@ -70236,6 +70661,9 @@
         <v>0</v>
       </c>
       <c r="FB142">
+        <v>0</v>
+      </c>
+      <c r="FC142">
         <v>0</v>
       </c>
     </row>
@@ -70633,10 +71061,10 @@
         <v>0</v>
       </c>
       <c r="DW143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY143">
         <v>0</v>
@@ -70660,10 +71088,10 @@
         <v>0</v>
       </c>
       <c r="EF143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH143">
         <v>0</v>
@@ -70690,10 +71118,10 @@
         <v>0</v>
       </c>
       <c r="EP143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER143">
         <v>0</v>
@@ -70726,6 +71154,9 @@
         <v>0</v>
       </c>
       <c r="FB143">
+        <v>0</v>
+      </c>
+      <c r="FC143">
         <v>0</v>
       </c>
     </row>
@@ -71123,10 +71554,10 @@
         <v>0</v>
       </c>
       <c r="DW144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY144">
         <v>0</v>
@@ -71150,10 +71581,10 @@
         <v>0</v>
       </c>
       <c r="EF144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH144">
         <v>0</v>
@@ -71177,13 +71608,13 @@
         <v>0</v>
       </c>
       <c r="EO144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP144">
         <v>1</v>
       </c>
       <c r="EQ144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER144">
         <v>0</v>
@@ -71216,6 +71647,9 @@
         <v>0</v>
       </c>
       <c r="FB144">
+        <v>0</v>
+      </c>
+      <c r="FC144">
         <v>0</v>
       </c>
     </row>
@@ -71613,10 +72047,10 @@
         <v>0</v>
       </c>
       <c r="DW145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY145">
         <v>0</v>
@@ -71640,10 +72074,10 @@
         <v>0</v>
       </c>
       <c r="EF145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH145">
         <v>0</v>
@@ -71667,13 +72101,13 @@
         <v>0</v>
       </c>
       <c r="EO145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP145">
         <v>1</v>
       </c>
       <c r="EQ145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER145">
         <v>0</v>
@@ -71706,6 +72140,9 @@
         <v>0</v>
       </c>
       <c r="FB145">
+        <v>0</v>
+      </c>
+      <c r="FC145">
         <v>0</v>
       </c>
     </row>
@@ -72103,10 +72540,10 @@
         <v>0</v>
       </c>
       <c r="DW146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY146">
         <v>0</v>
@@ -72157,13 +72594,13 @@
         <v>0</v>
       </c>
       <c r="EO146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP146">
         <v>1</v>
       </c>
       <c r="EQ146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER146">
         <v>0</v>
@@ -72196,6 +72633,9 @@
         <v>0</v>
       </c>
       <c r="FB146">
+        <v>0</v>
+      </c>
+      <c r="FC146">
         <v>0</v>
       </c>
     </row>
@@ -72593,10 +73033,10 @@
         <v>0</v>
       </c>
       <c r="DW147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY147">
         <v>0</v>
@@ -72650,10 +73090,10 @@
         <v>0</v>
       </c>
       <c r="EP147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER147">
         <v>0</v>
@@ -72686,6 +73126,9 @@
         <v>0</v>
       </c>
       <c r="FB147">
+        <v>0</v>
+      </c>
+      <c r="FC147">
         <v>0</v>
       </c>
     </row>
@@ -73083,10 +73526,10 @@
         <v>0</v>
       </c>
       <c r="DW148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY148">
         <v>0</v>
@@ -73137,13 +73580,13 @@
         <v>0</v>
       </c>
       <c r="EO148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP148">
         <v>1</v>
       </c>
       <c r="EQ148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER148">
         <v>0</v>
@@ -73170,12 +73613,15 @@
         <v>0</v>
       </c>
       <c r="EZ148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB148">
+        <v>0</v>
+      </c>
+      <c r="FC148">
         <v>0</v>
       </c>
     </row>
@@ -73573,10 +74019,10 @@
         <v>0</v>
       </c>
       <c r="DW149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY149">
         <v>0</v>
@@ -73627,13 +74073,13 @@
         <v>0</v>
       </c>
       <c r="EO149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP149">
         <v>1</v>
       </c>
       <c r="EQ149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER149">
         <v>0</v>
@@ -73666,6 +74112,9 @@
         <v>0</v>
       </c>
       <c r="FB149">
+        <v>0</v>
+      </c>
+      <c r="FC149">
         <v>0</v>
       </c>
     </row>
@@ -74063,10 +74512,10 @@
         <v>0</v>
       </c>
       <c r="DW150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY150">
         <v>0</v>
@@ -74117,13 +74566,13 @@
         <v>0</v>
       </c>
       <c r="EO150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP150">
         <v>1</v>
       </c>
       <c r="EQ150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER150">
         <v>0</v>
@@ -74156,6 +74605,9 @@
         <v>0</v>
       </c>
       <c r="FB150">
+        <v>0</v>
+      </c>
+      <c r="FC150">
         <v>0</v>
       </c>
     </row>
@@ -74553,10 +75005,10 @@
         <v>0</v>
       </c>
       <c r="DW151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY151">
         <v>0</v>
@@ -74607,13 +75059,13 @@
         <v>0</v>
       </c>
       <c r="EO151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP151">
         <v>1</v>
       </c>
       <c r="EQ151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER151">
         <v>0</v>
@@ -74646,6 +75098,9 @@
         <v>0</v>
       </c>
       <c r="FB151">
+        <v>0</v>
+      </c>
+      <c r="FC151">
         <v>0</v>
       </c>
     </row>
@@ -75043,10 +75498,10 @@
         <v>0</v>
       </c>
       <c r="DW152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY152">
         <v>0</v>
@@ -75097,13 +75552,13 @@
         <v>0</v>
       </c>
       <c r="EO152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP152">
         <v>1</v>
       </c>
       <c r="EQ152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER152">
         <v>0</v>
@@ -75136,6 +75591,9 @@
         <v>0</v>
       </c>
       <c r="FB152">
+        <v>0</v>
+      </c>
+      <c r="FC152">
         <v>0</v>
       </c>
     </row>
@@ -75533,10 +75991,10 @@
         <v>0</v>
       </c>
       <c r="DW153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY153">
         <v>0</v>
@@ -75557,10 +76015,10 @@
         <v>0</v>
       </c>
       <c r="EE153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG153">
         <v>0</v>
@@ -75569,10 +76027,10 @@
         <v>0</v>
       </c>
       <c r="EI153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK153">
         <v>0</v>
@@ -75587,13 +76045,13 @@
         <v>0</v>
       </c>
       <c r="EO153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP153">
         <v>1</v>
       </c>
       <c r="EQ153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER153">
         <v>0</v>
@@ -75626,6 +76084,9 @@
         <v>0</v>
       </c>
       <c r="FB153">
+        <v>0</v>
+      </c>
+      <c r="FC153">
         <v>0</v>
       </c>
     </row>
@@ -76023,10 +76484,10 @@
         <v>0</v>
       </c>
       <c r="DW154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY154">
         <v>0</v>
@@ -76050,10 +76511,10 @@
         <v>0</v>
       </c>
       <c r="EF154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH154">
         <v>0</v>
@@ -76077,13 +76538,13 @@
         <v>0</v>
       </c>
       <c r="EO154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP154">
         <v>1</v>
       </c>
       <c r="EQ154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER154">
         <v>0</v>
@@ -76116,6 +76577,9 @@
         <v>0</v>
       </c>
       <c r="FB154">
+        <v>0</v>
+      </c>
+      <c r="FC154">
         <v>0</v>
       </c>
     </row>
@@ -76513,10 +76977,10 @@
         <v>0</v>
       </c>
       <c r="DW155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY155">
         <v>0</v>
@@ -76564,7 +77028,7 @@
         <v>0</v>
       </c>
       <c r="EN155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO155">
         <v>1</v>
@@ -76573,7 +77037,7 @@
         <v>1</v>
       </c>
       <c r="EQ155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER155">
         <v>0</v>
@@ -76606,6 +77070,9 @@
         <v>0</v>
       </c>
       <c r="FB155">
+        <v>0</v>
+      </c>
+      <c r="FC155">
         <v>0</v>
       </c>
     </row>
@@ -77003,10 +77470,10 @@
         <v>0</v>
       </c>
       <c r="DW156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY156">
         <v>0</v>
@@ -77057,13 +77524,13 @@
         <v>0</v>
       </c>
       <c r="EO156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP156">
         <v>1</v>
       </c>
       <c r="EQ156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER156">
         <v>0</v>
@@ -77096,6 +77563,9 @@
         <v>0</v>
       </c>
       <c r="FB156">
+        <v>0</v>
+      </c>
+      <c r="FC156">
         <v>0</v>
       </c>
     </row>
@@ -77493,10 +77963,10 @@
         <v>0</v>
       </c>
       <c r="DW157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY157">
         <v>0</v>
@@ -77547,13 +78017,13 @@
         <v>0</v>
       </c>
       <c r="EO157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP157">
         <v>1</v>
       </c>
       <c r="EQ157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER157">
         <v>0</v>
@@ -77586,6 +78056,9 @@
         <v>0</v>
       </c>
       <c r="FB157">
+        <v>0</v>
+      </c>
+      <c r="FC157">
         <v>0</v>
       </c>
     </row>
@@ -77983,10 +78456,10 @@
         <v>0</v>
       </c>
       <c r="DW158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY158">
         <v>0</v>
@@ -78037,13 +78510,13 @@
         <v>0</v>
       </c>
       <c r="EO158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP158">
         <v>1</v>
       </c>
       <c r="EQ158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER158">
         <v>0</v>
@@ -78076,6 +78549,9 @@
         <v>0</v>
       </c>
       <c r="FB158">
+        <v>0</v>
+      </c>
+      <c r="FC158">
         <v>0</v>
       </c>
     </row>
@@ -78473,10 +78949,10 @@
         <v>0</v>
       </c>
       <c r="DW159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY159">
         <v>0</v>
@@ -78527,13 +79003,13 @@
         <v>0</v>
       </c>
       <c r="EO159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP159">
         <v>1</v>
       </c>
       <c r="EQ159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER159">
         <v>0</v>
@@ -78566,6 +79042,9 @@
         <v>0</v>
       </c>
       <c r="FB159">
+        <v>0</v>
+      </c>
+      <c r="FC159">
         <v>0</v>
       </c>
     </row>
@@ -78963,10 +79442,10 @@
         <v>0</v>
       </c>
       <c r="DW160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY160">
         <v>0</v>
@@ -78990,10 +79469,10 @@
         <v>0</v>
       </c>
       <c r="EF160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH160">
         <v>0</v>
@@ -79017,13 +79496,13 @@
         <v>0</v>
       </c>
       <c r="EO160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP160">
         <v>1</v>
       </c>
       <c r="EQ160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER160">
         <v>0</v>
@@ -79056,6 +79535,9 @@
         <v>0</v>
       </c>
       <c r="FB160">
+        <v>0</v>
+      </c>
+      <c r="FC160">
         <v>0</v>
       </c>
     </row>
@@ -79453,10 +79935,10 @@
         <v>0</v>
       </c>
       <c r="DW161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY161">
         <v>0</v>
@@ -79507,13 +79989,13 @@
         <v>0</v>
       </c>
       <c r="EO161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP161">
         <v>1</v>
       </c>
       <c r="EQ161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER161">
         <v>0</v>
@@ -79546,6 +80028,9 @@
         <v>0</v>
       </c>
       <c r="FB161">
+        <v>0</v>
+      </c>
+      <c r="FC161">
         <v>0</v>
       </c>
     </row>
@@ -79943,10 +80428,10 @@
         <v>0</v>
       </c>
       <c r="DW162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY162">
         <v>0</v>
@@ -79997,13 +80482,13 @@
         <v>0</v>
       </c>
       <c r="EO162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP162">
         <v>1</v>
       </c>
       <c r="EQ162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER162">
         <v>0</v>
@@ -80036,6 +80521,9 @@
         <v>0</v>
       </c>
       <c r="FB162">
+        <v>0</v>
+      </c>
+      <c r="FC162">
         <v>0</v>
       </c>
     </row>
@@ -80433,10 +80921,10 @@
         <v>0</v>
       </c>
       <c r="DW163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY163">
         <v>0</v>
@@ -80460,10 +80948,10 @@
         <v>0</v>
       </c>
       <c r="EF163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH163">
         <v>0</v>
@@ -80487,13 +80975,13 @@
         <v>0</v>
       </c>
       <c r="EO163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP163">
         <v>1</v>
       </c>
       <c r="EQ163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER163">
         <v>0</v>
@@ -80526,6 +81014,9 @@
         <v>0</v>
       </c>
       <c r="FB163">
+        <v>0</v>
+      </c>
+      <c r="FC163">
         <v>0</v>
       </c>
     </row>
@@ -80923,10 +81414,10 @@
         <v>0</v>
       </c>
       <c r="DW164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY164">
         <v>0</v>
@@ -80947,10 +81438,10 @@
         <v>0</v>
       </c>
       <c r="EE164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG164">
         <v>0</v>
@@ -80980,10 +81471,10 @@
         <v>0</v>
       </c>
       <c r="EP164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER164">
         <v>0</v>
@@ -81016,6 +81507,9 @@
         <v>0</v>
       </c>
       <c r="FB164">
+        <v>0</v>
+      </c>
+      <c r="FC164">
         <v>0</v>
       </c>
     </row>
@@ -81413,10 +81907,10 @@
         <v>0</v>
       </c>
       <c r="DW165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY165">
         <v>0</v>
@@ -81437,10 +81931,10 @@
         <v>0</v>
       </c>
       <c r="EE165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG165">
         <v>0</v>
@@ -81467,13 +81961,13 @@
         <v>0</v>
       </c>
       <c r="EO165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP165">
         <v>1</v>
       </c>
       <c r="EQ165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER165">
         <v>0</v>
@@ -81506,6 +82000,9 @@
         <v>0</v>
       </c>
       <c r="FB165">
+        <v>0</v>
+      </c>
+      <c r="FC165">
         <v>0</v>
       </c>
     </row>
@@ -81903,10 +82400,10 @@
         <v>0</v>
       </c>
       <c r="DW166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY166">
         <v>0</v>
@@ -81927,10 +82424,10 @@
         <v>0</v>
       </c>
       <c r="EE166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG166">
         <v>0</v>
@@ -81957,13 +82454,13 @@
         <v>0</v>
       </c>
       <c r="EO166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP166">
         <v>1</v>
       </c>
       <c r="EQ166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER166">
         <v>0</v>
@@ -81981,10 +82478,10 @@
         <v>0</v>
       </c>
       <c r="EW166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY166">
         <v>0</v>
@@ -81996,6 +82493,9 @@
         <v>0</v>
       </c>
       <c r="FB166">
+        <v>0</v>
+      </c>
+      <c r="FC166">
         <v>0</v>
       </c>
     </row>
@@ -82393,10 +82893,10 @@
         <v>0</v>
       </c>
       <c r="DW167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY167">
         <v>0</v>
@@ -82447,13 +82947,13 @@
         <v>0</v>
       </c>
       <c r="EO167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP167">
         <v>1</v>
       </c>
       <c r="EQ167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER167">
         <v>0</v>
@@ -82486,6 +82986,9 @@
         <v>0</v>
       </c>
       <c r="FB167">
+        <v>0</v>
+      </c>
+      <c r="FC167">
         <v>0</v>
       </c>
     </row>
@@ -82883,10 +83386,10 @@
         <v>0</v>
       </c>
       <c r="DW168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY168">
         <v>0</v>
@@ -82937,13 +83440,13 @@
         <v>0</v>
       </c>
       <c r="EO168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP168">
         <v>1</v>
       </c>
       <c r="EQ168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER168">
         <v>0</v>
@@ -82976,6 +83479,9 @@
         <v>0</v>
       </c>
       <c r="FB168">
+        <v>0</v>
+      </c>
+      <c r="FC168">
         <v>0</v>
       </c>
     </row>
@@ -83373,10 +83879,10 @@
         <v>0</v>
       </c>
       <c r="DW169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY169">
         <v>0</v>
@@ -83403,10 +83909,10 @@
         <v>0</v>
       </c>
       <c r="EG169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI169">
         <v>0</v>
@@ -83427,13 +83933,13 @@
         <v>0</v>
       </c>
       <c r="EO169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP169">
         <v>1</v>
       </c>
       <c r="EQ169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER169">
         <v>0</v>
@@ -83466,6 +83972,9 @@
         <v>0</v>
       </c>
       <c r="FB169">
+        <v>0</v>
+      </c>
+      <c r="FC169">
         <v>0</v>
       </c>
     </row>
@@ -83863,13 +84372,13 @@
         <v>0</v>
       </c>
       <c r="DW170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX170">
         <v>1</v>
       </c>
       <c r="DY170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ170">
         <v>0</v>
@@ -83917,13 +84426,13 @@
         <v>0</v>
       </c>
       <c r="EO170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP170">
         <v>1</v>
       </c>
       <c r="EQ170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER170">
         <v>0</v>
@@ -83956,6 +84465,9 @@
         <v>0</v>
       </c>
       <c r="FB170">
+        <v>0</v>
+      </c>
+      <c r="FC170">
         <v>0</v>
       </c>
     </row>
@@ -84353,10 +84865,10 @@
         <v>0</v>
       </c>
       <c r="DW171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY171">
         <v>0</v>
@@ -84407,13 +84919,13 @@
         <v>0</v>
       </c>
       <c r="EO171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP171">
         <v>1</v>
       </c>
       <c r="EQ171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER171">
         <v>0</v>
@@ -84440,12 +84952,15 @@
         <v>0</v>
       </c>
       <c r="EZ171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB171">
+        <v>0</v>
+      </c>
+      <c r="FC171">
         <v>0</v>
       </c>
     </row>
@@ -84843,10 +85358,10 @@
         <v>0</v>
       </c>
       <c r="DW172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY172">
         <v>0</v>
@@ -84897,13 +85412,13 @@
         <v>0</v>
       </c>
       <c r="EO172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP172">
         <v>1</v>
       </c>
       <c r="EQ172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER172">
         <v>0</v>
@@ -84936,6 +85451,9 @@
         <v>0</v>
       </c>
       <c r="FB172">
+        <v>0</v>
+      </c>
+      <c r="FC172">
         <v>0</v>
       </c>
     </row>
@@ -85333,10 +85851,10 @@
         <v>0</v>
       </c>
       <c r="DW173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY173">
         <v>0</v>
@@ -85363,10 +85881,10 @@
         <v>0</v>
       </c>
       <c r="EG173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI173">
         <v>0</v>
@@ -85387,13 +85905,13 @@
         <v>0</v>
       </c>
       <c r="EO173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP173">
         <v>1</v>
       </c>
       <c r="EQ173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER173">
         <v>0</v>
@@ -85423,9 +85941,12 @@
         <v>0</v>
       </c>
       <c r="FA173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB173">
+        <v>1</v>
+      </c>
+      <c r="FC173">
         <v>0</v>
       </c>
     </row>
@@ -85823,10 +86344,10 @@
         <v>0</v>
       </c>
       <c r="DW174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY174">
         <v>0</v>
@@ -85877,13 +86398,13 @@
         <v>0</v>
       </c>
       <c r="EO174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP174">
         <v>1</v>
       </c>
       <c r="EQ174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER174">
         <v>0</v>
@@ -85895,10 +86416,10 @@
         <v>0</v>
       </c>
       <c r="EU174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW174">
         <v>0</v>
@@ -85916,6 +86437,9 @@
         <v>0</v>
       </c>
       <c r="FB174">
+        <v>0</v>
+      </c>
+      <c r="FC174">
         <v>0</v>
       </c>
     </row>
@@ -86313,13 +86837,13 @@
         <v>0</v>
       </c>
       <c r="DW175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX175">
         <v>1</v>
       </c>
       <c r="DY175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ175">
         <v>0</v>
@@ -86367,13 +86891,13 @@
         <v>0</v>
       </c>
       <c r="EO175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP175">
         <v>1</v>
       </c>
       <c r="EQ175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER175">
         <v>0</v>
@@ -86406,6 +86930,9 @@
         <v>0</v>
       </c>
       <c r="FB175">
+        <v>0</v>
+      </c>
+      <c r="FC175">
         <v>0</v>
       </c>
     </row>
@@ -86803,10 +87330,10 @@
         <v>0</v>
       </c>
       <c r="DW176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY176">
         <v>0</v>
@@ -86857,13 +87384,13 @@
         <v>0</v>
       </c>
       <c r="EO176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP176">
         <v>1</v>
       </c>
       <c r="EQ176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER176">
         <v>0</v>
@@ -86896,6 +87423,9 @@
         <v>0</v>
       </c>
       <c r="FB176">
+        <v>0</v>
+      </c>
+      <c r="FC176">
         <v>0</v>
       </c>
     </row>
@@ -87293,10 +87823,10 @@
         <v>0</v>
       </c>
       <c r="DW177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY177">
         <v>0</v>
@@ -87347,13 +87877,13 @@
         <v>0</v>
       </c>
       <c r="EO177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP177">
         <v>1</v>
       </c>
       <c r="EQ177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER177">
         <v>0</v>
@@ -87386,6 +87916,9 @@
         <v>0</v>
       </c>
       <c r="FB177">
+        <v>0</v>
+      </c>
+      <c r="FC177">
         <v>0</v>
       </c>
     </row>
@@ -87783,10 +88316,10 @@
         <v>0</v>
       </c>
       <c r="DW178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY178">
         <v>0</v>
@@ -87813,10 +88346,10 @@
         <v>0</v>
       </c>
       <c r="EG178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI178">
         <v>0</v>
@@ -87837,13 +88370,13 @@
         <v>0</v>
       </c>
       <c r="EO178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP178">
         <v>1</v>
       </c>
       <c r="EQ178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER178">
         <v>0</v>
@@ -87876,6 +88409,9 @@
         <v>0</v>
       </c>
       <c r="FB178">
+        <v>0</v>
+      </c>
+      <c r="FC178">
         <v>0</v>
       </c>
     </row>
@@ -88273,13 +88809,13 @@
         <v>0</v>
       </c>
       <c r="DW179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX179">
         <v>1</v>
       </c>
       <c r="DY179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ179">
         <v>0</v>
@@ -88300,10 +88836,10 @@
         <v>0</v>
       </c>
       <c r="EF179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH179">
         <v>0</v>
@@ -88327,13 +88863,13 @@
         <v>0</v>
       </c>
       <c r="EO179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP179">
         <v>1</v>
       </c>
       <c r="EQ179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER179">
         <v>0</v>
@@ -88366,6 +88902,9 @@
         <v>0</v>
       </c>
       <c r="FB179">
+        <v>0</v>
+      </c>
+      <c r="FC179">
         <v>0</v>
       </c>
     </row>
@@ -88763,10 +89302,10 @@
         <v>0</v>
       </c>
       <c r="DW180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY180">
         <v>0</v>
@@ -88817,13 +89356,13 @@
         <v>0</v>
       </c>
       <c r="EO180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP180">
         <v>1</v>
       </c>
       <c r="EQ180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER180">
         <v>0</v>
@@ -88856,6 +89395,9 @@
         <v>0</v>
       </c>
       <c r="FB180">
+        <v>0</v>
+      </c>
+      <c r="FC180">
         <v>0</v>
       </c>
     </row>
@@ -89253,10 +89795,10 @@
         <v>0</v>
       </c>
       <c r="DW181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY181">
         <v>0</v>
@@ -89307,13 +89849,13 @@
         <v>0</v>
       </c>
       <c r="EO181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP181">
         <v>1</v>
       </c>
       <c r="EQ181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER181">
         <v>0</v>
@@ -89346,6 +89888,9 @@
         <v>0</v>
       </c>
       <c r="FB181">
+        <v>0</v>
+      </c>
+      <c r="FC181">
         <v>0</v>
       </c>
     </row>
@@ -89743,10 +90288,10 @@
         <v>0</v>
       </c>
       <c r="DW182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY182">
         <v>0</v>
@@ -89797,13 +90342,13 @@
         <v>0</v>
       </c>
       <c r="EO182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP182">
         <v>1</v>
       </c>
       <c r="EQ182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER182">
         <v>0</v>
@@ -89836,6 +90381,9 @@
         <v>0</v>
       </c>
       <c r="FB182">
+        <v>0</v>
+      </c>
+      <c r="FC182">
         <v>0</v>
       </c>
     </row>
@@ -90233,10 +90781,10 @@
         <v>0</v>
       </c>
       <c r="DW183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY183">
         <v>0</v>
@@ -90257,16 +90805,16 @@
         <v>0</v>
       </c>
       <c r="EE183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI183">
         <v>0</v>
@@ -90290,10 +90838,10 @@
         <v>0</v>
       </c>
       <c r="EP183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER183">
         <v>0</v>
@@ -90326,6 +90874,9 @@
         <v>0</v>
       </c>
       <c r="FB183">
+        <v>0</v>
+      </c>
+      <c r="FC183">
         <v>0</v>
       </c>
     </row>
@@ -90723,10 +91274,10 @@
         <v>0</v>
       </c>
       <c r="DW184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY184">
         <v>0</v>
@@ -90777,13 +91328,13 @@
         <v>0</v>
       </c>
       <c r="EO184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP184">
         <v>1</v>
       </c>
       <c r="EQ184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER184">
         <v>0</v>
@@ -90816,6 +91367,9 @@
         <v>0</v>
       </c>
       <c r="FB184">
+        <v>0</v>
+      </c>
+      <c r="FC184">
         <v>0</v>
       </c>
     </row>
@@ -91213,10 +91767,10 @@
         <v>0</v>
       </c>
       <c r="DW185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY185">
         <v>0</v>
@@ -91267,13 +91821,13 @@
         <v>0</v>
       </c>
       <c r="EO185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP185">
         <v>1</v>
       </c>
       <c r="EQ185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER185">
         <v>0</v>
@@ -91306,6 +91860,9 @@
         <v>0</v>
       </c>
       <c r="FB185">
+        <v>0</v>
+      </c>
+      <c r="FC185">
         <v>0</v>
       </c>
     </row>
@@ -91703,10 +92260,10 @@
         <v>0</v>
       </c>
       <c r="DW186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY186">
         <v>0</v>
@@ -91757,13 +92314,13 @@
         <v>0</v>
       </c>
       <c r="EO186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP186">
         <v>1</v>
       </c>
       <c r="EQ186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER186">
         <v>0</v>
@@ -91796,6 +92353,9 @@
         <v>0</v>
       </c>
       <c r="FB186">
+        <v>0</v>
+      </c>
+      <c r="FC186">
         <v>0</v>
       </c>
     </row>
@@ -92193,10 +92753,10 @@
         <v>1</v>
       </c>
       <c r="DW187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY187">
         <v>0</v>
@@ -92247,13 +92807,13 @@
         <v>0</v>
       </c>
       <c r="EO187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP187">
         <v>1</v>
       </c>
       <c r="EQ187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER187">
         <v>0</v>
@@ -92286,6 +92846,9 @@
         <v>0</v>
       </c>
       <c r="FB187">
+        <v>0</v>
+      </c>
+      <c r="FC187">
         <v>0</v>
       </c>
     </row>
@@ -92683,10 +93246,10 @@
         <v>0</v>
       </c>
       <c r="DW188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY188">
         <v>0</v>
@@ -92737,13 +93300,13 @@
         <v>0</v>
       </c>
       <c r="EO188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP188">
         <v>1</v>
       </c>
       <c r="EQ188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER188">
         <v>0</v>
@@ -92776,6 +93339,9 @@
         <v>0</v>
       </c>
       <c r="FB188">
+        <v>0</v>
+      </c>
+      <c r="FC188">
         <v>0</v>
       </c>
     </row>
@@ -93173,10 +93739,10 @@
         <v>0</v>
       </c>
       <c r="DW189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY189">
         <v>0</v>
@@ -93227,13 +93793,13 @@
         <v>0</v>
       </c>
       <c r="EO189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP189">
         <v>1</v>
       </c>
       <c r="EQ189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER189">
         <v>0</v>
@@ -93266,6 +93832,9 @@
         <v>0</v>
       </c>
       <c r="FB189">
+        <v>0</v>
+      </c>
+      <c r="FC189">
         <v>0</v>
       </c>
     </row>
@@ -93663,10 +94232,10 @@
         <v>0</v>
       </c>
       <c r="DW190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY190">
         <v>0</v>
@@ -93717,13 +94286,13 @@
         <v>0</v>
       </c>
       <c r="EO190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP190">
         <v>1</v>
       </c>
       <c r="EQ190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER190">
         <v>0</v>
@@ -93756,6 +94325,9 @@
         <v>0</v>
       </c>
       <c r="FB190">
+        <v>0</v>
+      </c>
+      <c r="FC190">
         <v>0</v>
       </c>
     </row>
@@ -94153,10 +94725,10 @@
         <v>0</v>
       </c>
       <c r="DW191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY191">
         <v>0</v>
@@ -94180,10 +94752,10 @@
         <v>0</v>
       </c>
       <c r="EF191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH191">
         <v>0</v>
@@ -94198,10 +94770,10 @@
         <v>0</v>
       </c>
       <c r="EL191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN191">
         <v>0</v>
@@ -94210,10 +94782,10 @@
         <v>0</v>
       </c>
       <c r="EP191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER191">
         <v>0</v>
@@ -94246,6 +94818,9 @@
         <v>0</v>
       </c>
       <c r="FB191">
+        <v>0</v>
+      </c>
+      <c r="FC191">
         <v>0</v>
       </c>
     </row>
@@ -94738,6 +95313,9 @@
       <c r="FB192">
         <v>0</v>
       </c>
+      <c r="FC192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -95133,10 +95711,10 @@
         <v>0</v>
       </c>
       <c r="DW193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY193">
         <v>0</v>
@@ -95187,13 +95765,13 @@
         <v>0</v>
       </c>
       <c r="EO193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP193">
         <v>1</v>
       </c>
       <c r="EQ193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER193">
         <v>0</v>
@@ -95226,6 +95804,9 @@
         <v>0</v>
       </c>
       <c r="FB193">
+        <v>0</v>
+      </c>
+      <c r="FC193">
         <v>0</v>
       </c>
     </row>
@@ -95623,10 +96204,10 @@
         <v>0</v>
       </c>
       <c r="DW194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY194">
         <v>0</v>
@@ -95677,13 +96258,13 @@
         <v>0</v>
       </c>
       <c r="EO194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP194">
         <v>1</v>
       </c>
       <c r="EQ194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER194">
         <v>0</v>
@@ -95716,6 +96297,9 @@
         <v>0</v>
       </c>
       <c r="FB194">
+        <v>0</v>
+      </c>
+      <c r="FC194">
         <v>0</v>
       </c>
     </row>
@@ -96113,10 +96697,10 @@
         <v>0</v>
       </c>
       <c r="DW195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY195">
         <v>0</v>
@@ -96155,10 +96739,10 @@
         <v>0</v>
       </c>
       <c r="EK195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM195">
         <v>0</v>
@@ -96170,10 +96754,10 @@
         <v>0</v>
       </c>
       <c r="EP195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER195">
         <v>0</v>
@@ -96206,6 +96790,9 @@
         <v>0</v>
       </c>
       <c r="FB195">
+        <v>0</v>
+      </c>
+      <c r="FC195">
         <v>0</v>
       </c>
     </row>
@@ -96603,10 +97190,10 @@
         <v>0</v>
       </c>
       <c r="DW196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY196">
         <v>0</v>
@@ -96624,10 +97211,10 @@
         <v>0</v>
       </c>
       <c r="ED196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF196">
         <v>0</v>
@@ -96657,13 +97244,13 @@
         <v>0</v>
       </c>
       <c r="EO196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP196">
         <v>1</v>
       </c>
       <c r="EQ196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER196">
         <v>0</v>
@@ -96696,6 +97283,9 @@
         <v>0</v>
       </c>
       <c r="FB196">
+        <v>0</v>
+      </c>
+      <c r="FC196">
         <v>0</v>
       </c>
     </row>
@@ -97093,10 +97683,10 @@
         <v>0</v>
       </c>
       <c r="DW197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY197">
         <v>0</v>
@@ -97135,10 +97725,10 @@
         <v>0</v>
       </c>
       <c r="EK197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM197">
         <v>0</v>
@@ -97147,13 +97737,13 @@
         <v>0</v>
       </c>
       <c r="EO197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP197">
         <v>1</v>
       </c>
       <c r="EQ197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER197">
         <v>0</v>
@@ -97186,6 +97776,9 @@
         <v>0</v>
       </c>
       <c r="FB197">
+        <v>0</v>
+      </c>
+      <c r="FC197">
         <v>0</v>
       </c>
     </row>
@@ -97583,10 +98176,10 @@
         <v>0</v>
       </c>
       <c r="DW198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY198">
         <v>0</v>
@@ -97637,13 +98230,13 @@
         <v>0</v>
       </c>
       <c r="EO198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP198">
         <v>1</v>
       </c>
       <c r="EQ198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER198">
         <v>0</v>
@@ -97676,6 +98269,9 @@
         <v>0</v>
       </c>
       <c r="FB198">
+        <v>0</v>
+      </c>
+      <c r="FC198">
         <v>0</v>
       </c>
     </row>
@@ -98073,10 +98669,10 @@
         <v>0</v>
       </c>
       <c r="DW199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY199">
         <v>0</v>
@@ -98127,13 +98723,13 @@
         <v>0</v>
       </c>
       <c r="EO199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP199">
         <v>1</v>
       </c>
       <c r="EQ199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER199">
         <v>0</v>
@@ -98166,6 +98762,9 @@
         <v>0</v>
       </c>
       <c r="FB199">
+        <v>0</v>
+      </c>
+      <c r="FC199">
         <v>0</v>
       </c>
     </row>
@@ -98563,10 +99162,10 @@
         <v>0</v>
       </c>
       <c r="DW200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY200">
         <v>0</v>
@@ -98617,13 +99216,13 @@
         <v>0</v>
       </c>
       <c r="EO200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP200">
         <v>1</v>
       </c>
       <c r="EQ200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER200">
         <v>0</v>
@@ -98656,6 +99255,9 @@
         <v>0</v>
       </c>
       <c r="FB200">
+        <v>0</v>
+      </c>
+      <c r="FC200">
         <v>0</v>
       </c>
     </row>
@@ -99053,10 +99655,10 @@
         <v>0</v>
       </c>
       <c r="DW201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY201">
         <v>0</v>
@@ -99080,10 +99682,10 @@
         <v>0</v>
       </c>
       <c r="EF201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH201">
         <v>0</v>
@@ -99095,25 +99697,25 @@
         <v>0</v>
       </c>
       <c r="EK201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL201">
         <v>1</v>
       </c>
       <c r="EM201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN201">
         <v>0</v>
       </c>
       <c r="EO201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP201">
         <v>1</v>
       </c>
       <c r="EQ201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER201">
         <v>0</v>
@@ -99146,6 +99748,9 @@
         <v>0</v>
       </c>
       <c r="FB201">
+        <v>0</v>
+      </c>
+      <c r="FC201">
         <v>0</v>
       </c>
     </row>
@@ -99543,10 +100148,10 @@
         <v>0</v>
       </c>
       <c r="DW202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY202">
         <v>0</v>
@@ -99597,13 +100202,13 @@
         <v>0</v>
       </c>
       <c r="EO202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP202">
         <v>1</v>
       </c>
       <c r="EQ202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER202">
         <v>0</v>
@@ -99636,6 +100241,9 @@
         <v>0</v>
       </c>
       <c r="FB202">
+        <v>0</v>
+      </c>
+      <c r="FC202">
         <v>0</v>
       </c>
     </row>
@@ -100033,10 +100641,10 @@
         <v>0</v>
       </c>
       <c r="DW203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY203">
         <v>0</v>
@@ -100087,13 +100695,13 @@
         <v>0</v>
       </c>
       <c r="EO203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP203">
         <v>1</v>
       </c>
       <c r="EQ203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER203">
         <v>0</v>
@@ -100126,6 +100734,9 @@
         <v>0</v>
       </c>
       <c r="FB203">
+        <v>0</v>
+      </c>
+      <c r="FC203">
         <v>0</v>
       </c>
     </row>
@@ -100523,10 +101134,10 @@
         <v>0</v>
       </c>
       <c r="DW204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY204">
         <v>0</v>
@@ -100577,13 +101188,13 @@
         <v>0</v>
       </c>
       <c r="EO204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP204">
         <v>1</v>
       </c>
       <c r="EQ204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER204">
         <v>0</v>
@@ -100616,6 +101227,9 @@
         <v>0</v>
       </c>
       <c r="FB204">
+        <v>0</v>
+      </c>
+      <c r="FC204">
         <v>0</v>
       </c>
     </row>
@@ -101013,10 +101627,10 @@
         <v>0</v>
       </c>
       <c r="DW205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY205">
         <v>0</v>
@@ -101067,13 +101681,13 @@
         <v>0</v>
       </c>
       <c r="EO205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP205">
         <v>1</v>
       </c>
       <c r="EQ205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER205">
         <v>0</v>
@@ -101106,6 +101720,9 @@
         <v>0</v>
       </c>
       <c r="FB205">
+        <v>0</v>
+      </c>
+      <c r="FC205">
         <v>0</v>
       </c>
     </row>
@@ -101503,10 +102120,10 @@
         <v>0</v>
       </c>
       <c r="DW206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY206">
         <v>0</v>
@@ -101557,13 +102174,13 @@
         <v>0</v>
       </c>
       <c r="EO206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP206">
         <v>1</v>
       </c>
       <c r="EQ206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER206">
         <v>0</v>
@@ -101596,6 +102213,9 @@
         <v>0</v>
       </c>
       <c r="FB206">
+        <v>0</v>
+      </c>
+      <c r="FC206">
         <v>0</v>
       </c>
     </row>
@@ -101993,10 +102613,10 @@
         <v>0</v>
       </c>
       <c r="DW207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY207">
         <v>0</v>
@@ -102047,13 +102667,13 @@
         <v>0</v>
       </c>
       <c r="EO207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP207">
         <v>1</v>
       </c>
       <c r="EQ207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER207">
         <v>0</v>
@@ -102086,6 +102706,9 @@
         <v>0</v>
       </c>
       <c r="FB207">
+        <v>0</v>
+      </c>
+      <c r="FC207">
         <v>0</v>
       </c>
     </row>
@@ -102483,10 +103106,10 @@
         <v>0</v>
       </c>
       <c r="DW208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY208">
         <v>0</v>
@@ -102537,13 +103160,13 @@
         <v>0</v>
       </c>
       <c r="EO208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP208">
         <v>1</v>
       </c>
       <c r="EQ208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER208">
         <v>0</v>
@@ -102576,6 +103199,9 @@
         <v>0</v>
       </c>
       <c r="FB208">
+        <v>0</v>
+      </c>
+      <c r="FC208">
         <v>0</v>
       </c>
     </row>
@@ -102973,10 +103599,10 @@
         <v>0</v>
       </c>
       <c r="DW209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY209">
         <v>0</v>
@@ -103027,13 +103653,13 @@
         <v>0</v>
       </c>
       <c r="EO209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP209">
         <v>1</v>
       </c>
       <c r="EQ209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER209">
         <v>0</v>
@@ -103066,6 +103692,9 @@
         <v>0</v>
       </c>
       <c r="FB209">
+        <v>0</v>
+      </c>
+      <c r="FC209">
         <v>0</v>
       </c>
     </row>
@@ -103496,10 +104125,10 @@
         <v>0</v>
       </c>
       <c r="EH210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ210">
         <v>0</v>
@@ -103517,13 +104146,13 @@
         <v>0</v>
       </c>
       <c r="EO210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP210">
         <v>1</v>
       </c>
       <c r="EQ210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER210">
         <v>0</v>
@@ -103556,6 +104185,9 @@
         <v>0</v>
       </c>
       <c r="FB210">
+        <v>0</v>
+      </c>
+      <c r="FC210">
         <v>0</v>
       </c>
     </row>
@@ -103953,10 +104585,10 @@
         <v>0</v>
       </c>
       <c r="DW211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY211">
         <v>0</v>
@@ -104007,13 +104639,13 @@
         <v>0</v>
       </c>
       <c r="EO211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP211">
         <v>1</v>
       </c>
       <c r="EQ211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER211">
         <v>0</v>
@@ -104046,6 +104678,9 @@
         <v>0</v>
       </c>
       <c r="FB211">
+        <v>0</v>
+      </c>
+      <c r="FC211">
         <v>0</v>
       </c>
     </row>
@@ -104443,10 +105078,10 @@
         <v>0</v>
       </c>
       <c r="DW212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY212">
         <v>0</v>
@@ -104470,10 +105105,10 @@
         <v>0</v>
       </c>
       <c r="EF212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH212">
         <v>0</v>
@@ -104497,13 +105132,13 @@
         <v>0</v>
       </c>
       <c r="EO212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP212">
         <v>1</v>
       </c>
       <c r="EQ212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER212">
         <v>0</v>
@@ -104536,6 +105171,502 @@
         <v>0</v>
       </c>
       <c r="FB212">
+        <v>0</v>
+      </c>
+      <c r="FC212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>The Scent of Data: Parfumo Fragrances</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, packcircles, PrettyCols, ggforce, ggimage, shadowtext, tidytuesdayR, usefunc</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024/2024-12-10/20241210.R</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2024/2024-12-10///20241210.png</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
+        <v>0</v>
+      </c>
+      <c r="AD213">
+        <v>0</v>
+      </c>
+      <c r="AE213">
+        <v>0</v>
+      </c>
+      <c r="AF213">
+        <v>0</v>
+      </c>
+      <c r="AG213">
+        <v>0</v>
+      </c>
+      <c r="AH213">
+        <v>0</v>
+      </c>
+      <c r="AI213">
+        <v>0</v>
+      </c>
+      <c r="AJ213">
+        <v>0</v>
+      </c>
+      <c r="AK213">
+        <v>0</v>
+      </c>
+      <c r="AL213">
+        <v>1</v>
+      </c>
+      <c r="AM213">
+        <v>0</v>
+      </c>
+      <c r="AN213">
+        <v>0</v>
+      </c>
+      <c r="AO213">
+        <v>0</v>
+      </c>
+      <c r="AP213">
+        <v>0</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>0</v>
+      </c>
+      <c r="AS213">
+        <v>0</v>
+      </c>
+      <c r="AT213">
+        <v>0</v>
+      </c>
+      <c r="AU213">
+        <v>0</v>
+      </c>
+      <c r="AV213">
+        <v>0</v>
+      </c>
+      <c r="AW213">
+        <v>0</v>
+      </c>
+      <c r="AX213">
+        <v>0</v>
+      </c>
+      <c r="AY213">
+        <v>0</v>
+      </c>
+      <c r="AZ213">
+        <v>0</v>
+      </c>
+      <c r="BA213">
+        <v>0</v>
+      </c>
+      <c r="BB213">
+        <v>0</v>
+      </c>
+      <c r="BC213">
+        <v>0</v>
+      </c>
+      <c r="BD213">
+        <v>0</v>
+      </c>
+      <c r="BE213">
+        <v>0</v>
+      </c>
+      <c r="BF213">
+        <v>0</v>
+      </c>
+      <c r="BG213">
+        <v>0</v>
+      </c>
+      <c r="BH213">
+        <v>0</v>
+      </c>
+      <c r="BI213">
+        <v>1</v>
+      </c>
+      <c r="BJ213">
+        <v>0</v>
+      </c>
+      <c r="BK213">
+        <v>0</v>
+      </c>
+      <c r="BL213">
+        <v>0</v>
+      </c>
+      <c r="BM213">
+        <v>0</v>
+      </c>
+      <c r="BN213">
+        <v>1</v>
+      </c>
+      <c r="BO213">
+        <v>0</v>
+      </c>
+      <c r="BP213">
+        <v>0</v>
+      </c>
+      <c r="BQ213">
+        <v>0</v>
+      </c>
+      <c r="BR213">
+        <v>0</v>
+      </c>
+      <c r="BS213">
+        <v>0</v>
+      </c>
+      <c r="BT213">
+        <v>0</v>
+      </c>
+      <c r="BU213">
+        <v>0</v>
+      </c>
+      <c r="BV213">
+        <v>0</v>
+      </c>
+      <c r="BW213">
+        <v>0</v>
+      </c>
+      <c r="BX213">
+        <v>0</v>
+      </c>
+      <c r="BY213">
+        <v>0</v>
+      </c>
+      <c r="BZ213">
+        <v>0</v>
+      </c>
+      <c r="CA213">
+        <v>0</v>
+      </c>
+      <c r="CB213">
+        <v>0</v>
+      </c>
+      <c r="CC213">
+        <v>0</v>
+      </c>
+      <c r="CD213">
+        <v>0</v>
+      </c>
+      <c r="CE213">
+        <v>0</v>
+      </c>
+      <c r="CF213">
+        <v>0</v>
+      </c>
+      <c r="CG213">
+        <v>0</v>
+      </c>
+      <c r="CH213">
+        <v>0</v>
+      </c>
+      <c r="CI213">
+        <v>0</v>
+      </c>
+      <c r="CJ213">
+        <v>0</v>
+      </c>
+      <c r="CK213">
+        <v>0</v>
+      </c>
+      <c r="CL213">
+        <v>0</v>
+      </c>
+      <c r="CM213">
+        <v>0</v>
+      </c>
+      <c r="CN213">
+        <v>0</v>
+      </c>
+      <c r="CO213">
+        <v>1</v>
+      </c>
+      <c r="CP213">
+        <v>0</v>
+      </c>
+      <c r="CQ213">
+        <v>0</v>
+      </c>
+      <c r="CR213">
+        <v>1</v>
+      </c>
+      <c r="CS213">
+        <v>0</v>
+      </c>
+      <c r="CT213">
+        <v>0</v>
+      </c>
+      <c r="CU213">
+        <v>0</v>
+      </c>
+      <c r="CV213">
+        <v>0</v>
+      </c>
+      <c r="CW213">
+        <v>0</v>
+      </c>
+      <c r="CX213">
+        <v>0</v>
+      </c>
+      <c r="CY213">
+        <v>0</v>
+      </c>
+      <c r="CZ213">
+        <v>0</v>
+      </c>
+      <c r="DA213">
+        <v>0</v>
+      </c>
+      <c r="DB213">
+        <v>0</v>
+      </c>
+      <c r="DC213">
+        <v>0</v>
+      </c>
+      <c r="DD213">
+        <v>1</v>
+      </c>
+      <c r="DE213">
+        <v>0</v>
+      </c>
+      <c r="DF213">
+        <v>0</v>
+      </c>
+      <c r="DG213">
+        <v>0</v>
+      </c>
+      <c r="DH213">
+        <v>0</v>
+      </c>
+      <c r="DI213">
+        <v>0</v>
+      </c>
+      <c r="DJ213">
+        <v>0</v>
+      </c>
+      <c r="DK213">
+        <v>0</v>
+      </c>
+      <c r="DL213">
+        <v>0</v>
+      </c>
+      <c r="DM213">
+        <v>0</v>
+      </c>
+      <c r="DN213">
+        <v>0</v>
+      </c>
+      <c r="DO213">
+        <v>0</v>
+      </c>
+      <c r="DP213">
+        <v>0</v>
+      </c>
+      <c r="DQ213">
+        <v>0</v>
+      </c>
+      <c r="DR213">
+        <v>0</v>
+      </c>
+      <c r="DS213">
+        <v>0</v>
+      </c>
+      <c r="DT213">
+        <v>0</v>
+      </c>
+      <c r="DU213">
+        <v>0</v>
+      </c>
+      <c r="DV213">
+        <v>0</v>
+      </c>
+      <c r="DW213">
+        <v>1</v>
+      </c>
+      <c r="DX213">
+        <v>1</v>
+      </c>
+      <c r="DY213">
+        <v>0</v>
+      </c>
+      <c r="DZ213">
+        <v>0</v>
+      </c>
+      <c r="EA213">
+        <v>0</v>
+      </c>
+      <c r="EB213">
+        <v>0</v>
+      </c>
+      <c r="EC213">
+        <v>0</v>
+      </c>
+      <c r="ED213">
+        <v>0</v>
+      </c>
+      <c r="EE213">
+        <v>0</v>
+      </c>
+      <c r="EF213">
+        <v>0</v>
+      </c>
+      <c r="EG213">
+        <v>0</v>
+      </c>
+      <c r="EH213">
+        <v>0</v>
+      </c>
+      <c r="EI213">
+        <v>0</v>
+      </c>
+      <c r="EJ213">
+        <v>0</v>
+      </c>
+      <c r="EK213">
+        <v>0</v>
+      </c>
+      <c r="EL213">
+        <v>0</v>
+      </c>
+      <c r="EM213">
+        <v>0</v>
+      </c>
+      <c r="EN213">
+        <v>0</v>
+      </c>
+      <c r="EO213">
+        <v>0</v>
+      </c>
+      <c r="EP213">
+        <v>1</v>
+      </c>
+      <c r="EQ213">
+        <v>1</v>
+      </c>
+      <c r="ER213">
+        <v>0</v>
+      </c>
+      <c r="ES213">
+        <v>0</v>
+      </c>
+      <c r="ET213">
+        <v>0</v>
+      </c>
+      <c r="EU213">
+        <v>0</v>
+      </c>
+      <c r="EV213">
+        <v>0</v>
+      </c>
+      <c r="EW213">
+        <v>0</v>
+      </c>
+      <c r="EX213">
+        <v>1</v>
+      </c>
+      <c r="EY213">
+        <v>0</v>
+      </c>
+      <c r="EZ213">
+        <v>0</v>
+      </c>
+      <c r="FA213">
+        <v>0</v>
+      </c>
+      <c r="FB213">
+        <v>0</v>
+      </c>
+      <c r="FC213">
         <v>0</v>
       </c>
     </row>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FC213"/>
+  <dimension ref="A1:FC214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -105670,6 +105670,499 @@
         <v>0</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>James Beard Awards</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, PrettyCols, shadowtext, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024/2024-12-31/20241231.R</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2024/2024-12-31///20241231.png</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>0</v>
+      </c>
+      <c r="AD214">
+        <v>0</v>
+      </c>
+      <c r="AE214">
+        <v>0</v>
+      </c>
+      <c r="AF214">
+        <v>0</v>
+      </c>
+      <c r="AG214">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <v>0</v>
+      </c>
+      <c r="AJ214">
+        <v>0</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>0</v>
+      </c>
+      <c r="AN214">
+        <v>0</v>
+      </c>
+      <c r="AO214">
+        <v>0</v>
+      </c>
+      <c r="AP214">
+        <v>0</v>
+      </c>
+      <c r="AQ214">
+        <v>0</v>
+      </c>
+      <c r="AR214">
+        <v>0</v>
+      </c>
+      <c r="AS214">
+        <v>0</v>
+      </c>
+      <c r="AT214">
+        <v>0</v>
+      </c>
+      <c r="AU214">
+        <v>0</v>
+      </c>
+      <c r="AV214">
+        <v>0</v>
+      </c>
+      <c r="AW214">
+        <v>0</v>
+      </c>
+      <c r="AX214">
+        <v>0</v>
+      </c>
+      <c r="AY214">
+        <v>0</v>
+      </c>
+      <c r="AZ214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>0</v>
+      </c>
+      <c r="BB214">
+        <v>0</v>
+      </c>
+      <c r="BC214">
+        <v>0</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>0</v>
+      </c>
+      <c r="BF214">
+        <v>0</v>
+      </c>
+      <c r="BG214">
+        <v>0</v>
+      </c>
+      <c r="BH214">
+        <v>0</v>
+      </c>
+      <c r="BI214">
+        <v>1</v>
+      </c>
+      <c r="BJ214">
+        <v>0</v>
+      </c>
+      <c r="BK214">
+        <v>0</v>
+      </c>
+      <c r="BL214">
+        <v>0</v>
+      </c>
+      <c r="BM214">
+        <v>0</v>
+      </c>
+      <c r="BN214">
+        <v>1</v>
+      </c>
+      <c r="BO214">
+        <v>0</v>
+      </c>
+      <c r="BP214">
+        <v>0</v>
+      </c>
+      <c r="BQ214">
+        <v>0</v>
+      </c>
+      <c r="BR214">
+        <v>0</v>
+      </c>
+      <c r="BS214">
+        <v>0</v>
+      </c>
+      <c r="BT214">
+        <v>0</v>
+      </c>
+      <c r="BU214">
+        <v>0</v>
+      </c>
+      <c r="BV214">
+        <v>0</v>
+      </c>
+      <c r="BW214">
+        <v>0</v>
+      </c>
+      <c r="BX214">
+        <v>0</v>
+      </c>
+      <c r="BY214">
+        <v>0</v>
+      </c>
+      <c r="BZ214">
+        <v>0</v>
+      </c>
+      <c r="CA214">
+        <v>0</v>
+      </c>
+      <c r="CB214">
+        <v>0</v>
+      </c>
+      <c r="CC214">
+        <v>0</v>
+      </c>
+      <c r="CD214">
+        <v>0</v>
+      </c>
+      <c r="CE214">
+        <v>0</v>
+      </c>
+      <c r="CF214">
+        <v>0</v>
+      </c>
+      <c r="CG214">
+        <v>0</v>
+      </c>
+      <c r="CH214">
+        <v>0</v>
+      </c>
+      <c r="CI214">
+        <v>0</v>
+      </c>
+      <c r="CJ214">
+        <v>0</v>
+      </c>
+      <c r="CK214">
+        <v>0</v>
+      </c>
+      <c r="CL214">
+        <v>0</v>
+      </c>
+      <c r="CM214">
+        <v>0</v>
+      </c>
+      <c r="CN214">
+        <v>0</v>
+      </c>
+      <c r="CO214">
+        <v>1</v>
+      </c>
+      <c r="CP214">
+        <v>0</v>
+      </c>
+      <c r="CQ214">
+        <v>0</v>
+      </c>
+      <c r="CR214">
+        <v>0</v>
+      </c>
+      <c r="CS214">
+        <v>0</v>
+      </c>
+      <c r="CT214">
+        <v>0</v>
+      </c>
+      <c r="CU214">
+        <v>0</v>
+      </c>
+      <c r="CV214">
+        <v>0</v>
+      </c>
+      <c r="CW214">
+        <v>0</v>
+      </c>
+      <c r="CX214">
+        <v>0</v>
+      </c>
+      <c r="CY214">
+        <v>0</v>
+      </c>
+      <c r="CZ214">
+        <v>0</v>
+      </c>
+      <c r="DA214">
+        <v>0</v>
+      </c>
+      <c r="DB214">
+        <v>0</v>
+      </c>
+      <c r="DC214">
+        <v>0</v>
+      </c>
+      <c r="DD214">
+        <v>1</v>
+      </c>
+      <c r="DE214">
+        <v>0</v>
+      </c>
+      <c r="DF214">
+        <v>0</v>
+      </c>
+      <c r="DG214">
+        <v>0</v>
+      </c>
+      <c r="DH214">
+        <v>0</v>
+      </c>
+      <c r="DI214">
+        <v>0</v>
+      </c>
+      <c r="DJ214">
+        <v>0</v>
+      </c>
+      <c r="DK214">
+        <v>0</v>
+      </c>
+      <c r="DL214">
+        <v>0</v>
+      </c>
+      <c r="DM214">
+        <v>0</v>
+      </c>
+      <c r="DN214">
+        <v>0</v>
+      </c>
+      <c r="DO214">
+        <v>0</v>
+      </c>
+      <c r="DP214">
+        <v>0</v>
+      </c>
+      <c r="DQ214">
+        <v>0</v>
+      </c>
+      <c r="DR214">
+        <v>0</v>
+      </c>
+      <c r="DS214">
+        <v>0</v>
+      </c>
+      <c r="DT214">
+        <v>0</v>
+      </c>
+      <c r="DU214">
+        <v>0</v>
+      </c>
+      <c r="DV214">
+        <v>0</v>
+      </c>
+      <c r="DW214">
+        <v>1</v>
+      </c>
+      <c r="DX214">
+        <v>1</v>
+      </c>
+      <c r="DY214">
+        <v>0</v>
+      </c>
+      <c r="DZ214">
+        <v>0</v>
+      </c>
+      <c r="EA214">
+        <v>0</v>
+      </c>
+      <c r="EB214">
+        <v>0</v>
+      </c>
+      <c r="EC214">
+        <v>0</v>
+      </c>
+      <c r="ED214">
+        <v>0</v>
+      </c>
+      <c r="EE214">
+        <v>0</v>
+      </c>
+      <c r="EF214">
+        <v>0</v>
+      </c>
+      <c r="EG214">
+        <v>0</v>
+      </c>
+      <c r="EH214">
+        <v>0</v>
+      </c>
+      <c r="EI214">
+        <v>0</v>
+      </c>
+      <c r="EJ214">
+        <v>0</v>
+      </c>
+      <c r="EK214">
+        <v>0</v>
+      </c>
+      <c r="EL214">
+        <v>0</v>
+      </c>
+      <c r="EM214">
+        <v>0</v>
+      </c>
+      <c r="EN214">
+        <v>0</v>
+      </c>
+      <c r="EO214">
+        <v>0</v>
+      </c>
+      <c r="EP214">
+        <v>1</v>
+      </c>
+      <c r="EQ214">
+        <v>1</v>
+      </c>
+      <c r="ER214">
+        <v>0</v>
+      </c>
+      <c r="ES214">
+        <v>0</v>
+      </c>
+      <c r="ET214">
+        <v>0</v>
+      </c>
+      <c r="EU214">
+        <v>0</v>
+      </c>
+      <c r="EV214">
+        <v>0</v>
+      </c>
+      <c r="EW214">
+        <v>0</v>
+      </c>
+      <c r="EX214">
+        <v>0</v>
+      </c>
+      <c r="EY214">
+        <v>0</v>
+      </c>
+      <c r="EZ214">
+        <v>0</v>
+      </c>
+      <c r="FA214">
+        <v>0</v>
+      </c>
+      <c r="FB214">
+        <v>0</v>
+      </c>
+      <c r="FC214">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FC214"/>
+  <dimension ref="A1:FC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -105678,488 +105678,981 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Dungeons and Dragons Spells (2024)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggalluvial, ggimage, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024/2024-12-17/20241217.R</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2024/2024-12-17///20241217.png</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>0</v>
+      </c>
+      <c r="AD214">
+        <v>1</v>
+      </c>
+      <c r="AE214">
+        <v>0</v>
+      </c>
+      <c r="AF214">
+        <v>0</v>
+      </c>
+      <c r="AG214">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <v>0</v>
+      </c>
+      <c r="AJ214">
+        <v>0</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>0</v>
+      </c>
+      <c r="AN214">
+        <v>0</v>
+      </c>
+      <c r="AO214">
+        <v>0</v>
+      </c>
+      <c r="AP214">
+        <v>0</v>
+      </c>
+      <c r="AQ214">
+        <v>1</v>
+      </c>
+      <c r="AR214">
+        <v>0</v>
+      </c>
+      <c r="AS214">
+        <v>0</v>
+      </c>
+      <c r="AT214">
+        <v>0</v>
+      </c>
+      <c r="AU214">
+        <v>0</v>
+      </c>
+      <c r="AV214">
+        <v>0</v>
+      </c>
+      <c r="AW214">
+        <v>0</v>
+      </c>
+      <c r="AX214">
+        <v>0</v>
+      </c>
+      <c r="AY214">
+        <v>0</v>
+      </c>
+      <c r="AZ214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>0</v>
+      </c>
+      <c r="BB214">
+        <v>0</v>
+      </c>
+      <c r="BC214">
+        <v>0</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>0</v>
+      </c>
+      <c r="BF214">
+        <v>0</v>
+      </c>
+      <c r="BG214">
+        <v>0</v>
+      </c>
+      <c r="BH214">
+        <v>0</v>
+      </c>
+      <c r="BI214">
+        <v>1</v>
+      </c>
+      <c r="BJ214">
+        <v>0</v>
+      </c>
+      <c r="BK214">
+        <v>0</v>
+      </c>
+      <c r="BL214">
+        <v>0</v>
+      </c>
+      <c r="BM214">
+        <v>0</v>
+      </c>
+      <c r="BN214">
+        <v>1</v>
+      </c>
+      <c r="BO214">
+        <v>0</v>
+      </c>
+      <c r="BP214">
+        <v>0</v>
+      </c>
+      <c r="BQ214">
+        <v>0</v>
+      </c>
+      <c r="BR214">
+        <v>0</v>
+      </c>
+      <c r="BS214">
+        <v>0</v>
+      </c>
+      <c r="BT214">
+        <v>0</v>
+      </c>
+      <c r="BU214">
+        <v>0</v>
+      </c>
+      <c r="BV214">
+        <v>0</v>
+      </c>
+      <c r="BW214">
+        <v>0</v>
+      </c>
+      <c r="BX214">
+        <v>0</v>
+      </c>
+      <c r="BY214">
+        <v>0</v>
+      </c>
+      <c r="BZ214">
+        <v>0</v>
+      </c>
+      <c r="CA214">
+        <v>0</v>
+      </c>
+      <c r="CB214">
+        <v>0</v>
+      </c>
+      <c r="CC214">
+        <v>0</v>
+      </c>
+      <c r="CD214">
+        <v>0</v>
+      </c>
+      <c r="CE214">
+        <v>0</v>
+      </c>
+      <c r="CF214">
+        <v>0</v>
+      </c>
+      <c r="CG214">
+        <v>0</v>
+      </c>
+      <c r="CH214">
+        <v>0</v>
+      </c>
+      <c r="CI214">
+        <v>0</v>
+      </c>
+      <c r="CJ214">
+        <v>0</v>
+      </c>
+      <c r="CK214">
+        <v>0</v>
+      </c>
+      <c r="CL214">
+        <v>0</v>
+      </c>
+      <c r="CM214">
+        <v>0</v>
+      </c>
+      <c r="CN214">
+        <v>0</v>
+      </c>
+      <c r="CO214">
+        <v>1</v>
+      </c>
+      <c r="CP214">
+        <v>0</v>
+      </c>
+      <c r="CQ214">
+        <v>0</v>
+      </c>
+      <c r="CR214">
+        <v>0</v>
+      </c>
+      <c r="CS214">
+        <v>0</v>
+      </c>
+      <c r="CT214">
+        <v>0</v>
+      </c>
+      <c r="CU214">
+        <v>0</v>
+      </c>
+      <c r="CV214">
+        <v>0</v>
+      </c>
+      <c r="CW214">
+        <v>0</v>
+      </c>
+      <c r="CX214">
+        <v>0</v>
+      </c>
+      <c r="CY214">
+        <v>0</v>
+      </c>
+      <c r="CZ214">
+        <v>0</v>
+      </c>
+      <c r="DA214">
+        <v>0</v>
+      </c>
+      <c r="DB214">
+        <v>0</v>
+      </c>
+      <c r="DC214">
+        <v>0</v>
+      </c>
+      <c r="DD214">
+        <v>0</v>
+      </c>
+      <c r="DE214">
+        <v>0</v>
+      </c>
+      <c r="DF214">
+        <v>0</v>
+      </c>
+      <c r="DG214">
+        <v>0</v>
+      </c>
+      <c r="DH214">
+        <v>0</v>
+      </c>
+      <c r="DI214">
+        <v>0</v>
+      </c>
+      <c r="DJ214">
+        <v>0</v>
+      </c>
+      <c r="DK214">
+        <v>0</v>
+      </c>
+      <c r="DL214">
+        <v>0</v>
+      </c>
+      <c r="DM214">
+        <v>0</v>
+      </c>
+      <c r="DN214">
+        <v>0</v>
+      </c>
+      <c r="DO214">
+        <v>0</v>
+      </c>
+      <c r="DP214">
+        <v>0</v>
+      </c>
+      <c r="DQ214">
+        <v>0</v>
+      </c>
+      <c r="DR214">
+        <v>0</v>
+      </c>
+      <c r="DS214">
+        <v>0</v>
+      </c>
+      <c r="DT214">
+        <v>0</v>
+      </c>
+      <c r="DU214">
+        <v>0</v>
+      </c>
+      <c r="DV214">
+        <v>0</v>
+      </c>
+      <c r="DW214">
+        <v>0</v>
+      </c>
+      <c r="DX214">
+        <v>1</v>
+      </c>
+      <c r="DY214">
+        <v>0</v>
+      </c>
+      <c r="DZ214">
+        <v>0</v>
+      </c>
+      <c r="EA214">
+        <v>0</v>
+      </c>
+      <c r="EB214">
+        <v>0</v>
+      </c>
+      <c r="EC214">
+        <v>0</v>
+      </c>
+      <c r="ED214">
+        <v>0</v>
+      </c>
+      <c r="EE214">
+        <v>0</v>
+      </c>
+      <c r="EF214">
+        <v>0</v>
+      </c>
+      <c r="EG214">
+        <v>0</v>
+      </c>
+      <c r="EH214">
+        <v>0</v>
+      </c>
+      <c r="EI214">
+        <v>0</v>
+      </c>
+      <c r="EJ214">
+        <v>0</v>
+      </c>
+      <c r="EK214">
+        <v>0</v>
+      </c>
+      <c r="EL214">
+        <v>0</v>
+      </c>
+      <c r="EM214">
+        <v>0</v>
+      </c>
+      <c r="EN214">
+        <v>0</v>
+      </c>
+      <c r="EO214">
+        <v>0</v>
+      </c>
+      <c r="EP214">
+        <v>1</v>
+      </c>
+      <c r="EQ214">
+        <v>1</v>
+      </c>
+      <c r="ER214">
+        <v>0</v>
+      </c>
+      <c r="ES214">
+        <v>0</v>
+      </c>
+      <c r="ET214">
+        <v>0</v>
+      </c>
+      <c r="EU214">
+        <v>0</v>
+      </c>
+      <c r="EV214">
+        <v>0</v>
+      </c>
+      <c r="EW214">
+        <v>0</v>
+      </c>
+      <c r="EX214">
+        <v>0</v>
+      </c>
+      <c r="EY214">
+        <v>0</v>
+      </c>
+      <c r="EZ214">
+        <v>0</v>
+      </c>
+      <c r="FA214">
+        <v>0</v>
+      </c>
+      <c r="FB214">
+        <v>0</v>
+      </c>
+      <c r="FC214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
           <t>2024-12-31</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>James Beard Awards</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, PrettyCols, shadowtext, tidytuesdayR</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>2024/2024-12-31/20241231.R</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>2024/2024-12-31///20241231.png</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H214">
-        <v>0</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="J214">
-        <v>1</v>
-      </c>
-      <c r="K214">
-        <v>0</v>
-      </c>
-      <c r="L214">
-        <v>0</v>
-      </c>
-      <c r="M214">
-        <v>0</v>
-      </c>
-      <c r="N214">
-        <v>0</v>
-      </c>
-      <c r="O214">
-        <v>0</v>
-      </c>
-      <c r="P214">
-        <v>0</v>
-      </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>0</v>
-      </c>
-      <c r="S214">
-        <v>0</v>
-      </c>
-      <c r="T214">
-        <v>0</v>
-      </c>
-      <c r="U214">
-        <v>0</v>
-      </c>
-      <c r="V214">
-        <v>0</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
-        <v>0</v>
-      </c>
-      <c r="AB214">
-        <v>0</v>
-      </c>
-      <c r="AC214">
-        <v>0</v>
-      </c>
-      <c r="AD214">
-        <v>0</v>
-      </c>
-      <c r="AE214">
-        <v>0</v>
-      </c>
-      <c r="AF214">
-        <v>0</v>
-      </c>
-      <c r="AG214">
-        <v>0</v>
-      </c>
-      <c r="AH214">
-        <v>0</v>
-      </c>
-      <c r="AI214">
-        <v>0</v>
-      </c>
-      <c r="AJ214">
-        <v>0</v>
-      </c>
-      <c r="AK214">
-        <v>0</v>
-      </c>
-      <c r="AL214">
-        <v>0</v>
-      </c>
-      <c r="AM214">
-        <v>0</v>
-      </c>
-      <c r="AN214">
-        <v>0</v>
-      </c>
-      <c r="AO214">
-        <v>0</v>
-      </c>
-      <c r="AP214">
-        <v>0</v>
-      </c>
-      <c r="AQ214">
-        <v>0</v>
-      </c>
-      <c r="AR214">
-        <v>0</v>
-      </c>
-      <c r="AS214">
-        <v>0</v>
-      </c>
-      <c r="AT214">
-        <v>0</v>
-      </c>
-      <c r="AU214">
-        <v>0</v>
-      </c>
-      <c r="AV214">
-        <v>0</v>
-      </c>
-      <c r="AW214">
-        <v>0</v>
-      </c>
-      <c r="AX214">
-        <v>0</v>
-      </c>
-      <c r="AY214">
-        <v>0</v>
-      </c>
-      <c r="AZ214">
-        <v>0</v>
-      </c>
-      <c r="BA214">
-        <v>0</v>
-      </c>
-      <c r="BB214">
-        <v>0</v>
-      </c>
-      <c r="BC214">
-        <v>0</v>
-      </c>
-      <c r="BD214">
-        <v>0</v>
-      </c>
-      <c r="BE214">
-        <v>0</v>
-      </c>
-      <c r="BF214">
-        <v>0</v>
-      </c>
-      <c r="BG214">
-        <v>0</v>
-      </c>
-      <c r="BH214">
-        <v>0</v>
-      </c>
-      <c r="BI214">
-        <v>1</v>
-      </c>
-      <c r="BJ214">
-        <v>0</v>
-      </c>
-      <c r="BK214">
-        <v>0</v>
-      </c>
-      <c r="BL214">
-        <v>0</v>
-      </c>
-      <c r="BM214">
-        <v>0</v>
-      </c>
-      <c r="BN214">
-        <v>1</v>
-      </c>
-      <c r="BO214">
-        <v>0</v>
-      </c>
-      <c r="BP214">
-        <v>0</v>
-      </c>
-      <c r="BQ214">
-        <v>0</v>
-      </c>
-      <c r="BR214">
-        <v>0</v>
-      </c>
-      <c r="BS214">
-        <v>0</v>
-      </c>
-      <c r="BT214">
-        <v>0</v>
-      </c>
-      <c r="BU214">
-        <v>0</v>
-      </c>
-      <c r="BV214">
-        <v>0</v>
-      </c>
-      <c r="BW214">
-        <v>0</v>
-      </c>
-      <c r="BX214">
-        <v>0</v>
-      </c>
-      <c r="BY214">
-        <v>0</v>
-      </c>
-      <c r="BZ214">
-        <v>0</v>
-      </c>
-      <c r="CA214">
-        <v>0</v>
-      </c>
-      <c r="CB214">
-        <v>0</v>
-      </c>
-      <c r="CC214">
-        <v>0</v>
-      </c>
-      <c r="CD214">
-        <v>0</v>
-      </c>
-      <c r="CE214">
-        <v>0</v>
-      </c>
-      <c r="CF214">
-        <v>0</v>
-      </c>
-      <c r="CG214">
-        <v>0</v>
-      </c>
-      <c r="CH214">
-        <v>0</v>
-      </c>
-      <c r="CI214">
-        <v>0</v>
-      </c>
-      <c r="CJ214">
-        <v>0</v>
-      </c>
-      <c r="CK214">
-        <v>0</v>
-      </c>
-      <c r="CL214">
-        <v>0</v>
-      </c>
-      <c r="CM214">
-        <v>0</v>
-      </c>
-      <c r="CN214">
-        <v>0</v>
-      </c>
-      <c r="CO214">
-        <v>1</v>
-      </c>
-      <c r="CP214">
-        <v>0</v>
-      </c>
-      <c r="CQ214">
-        <v>0</v>
-      </c>
-      <c r="CR214">
-        <v>0</v>
-      </c>
-      <c r="CS214">
-        <v>0</v>
-      </c>
-      <c r="CT214">
-        <v>0</v>
-      </c>
-      <c r="CU214">
-        <v>0</v>
-      </c>
-      <c r="CV214">
-        <v>0</v>
-      </c>
-      <c r="CW214">
-        <v>0</v>
-      </c>
-      <c r="CX214">
-        <v>0</v>
-      </c>
-      <c r="CY214">
-        <v>0</v>
-      </c>
-      <c r="CZ214">
-        <v>0</v>
-      </c>
-      <c r="DA214">
-        <v>0</v>
-      </c>
-      <c r="DB214">
-        <v>0</v>
-      </c>
-      <c r="DC214">
-        <v>0</v>
-      </c>
-      <c r="DD214">
-        <v>1</v>
-      </c>
-      <c r="DE214">
-        <v>0</v>
-      </c>
-      <c r="DF214">
-        <v>0</v>
-      </c>
-      <c r="DG214">
-        <v>0</v>
-      </c>
-      <c r="DH214">
-        <v>0</v>
-      </c>
-      <c r="DI214">
-        <v>0</v>
-      </c>
-      <c r="DJ214">
-        <v>0</v>
-      </c>
-      <c r="DK214">
-        <v>0</v>
-      </c>
-      <c r="DL214">
-        <v>0</v>
-      </c>
-      <c r="DM214">
-        <v>0</v>
-      </c>
-      <c r="DN214">
-        <v>0</v>
-      </c>
-      <c r="DO214">
-        <v>0</v>
-      </c>
-      <c r="DP214">
-        <v>0</v>
-      </c>
-      <c r="DQ214">
-        <v>0</v>
-      </c>
-      <c r="DR214">
-        <v>0</v>
-      </c>
-      <c r="DS214">
-        <v>0</v>
-      </c>
-      <c r="DT214">
-        <v>0</v>
-      </c>
-      <c r="DU214">
-        <v>0</v>
-      </c>
-      <c r="DV214">
-        <v>0</v>
-      </c>
-      <c r="DW214">
-        <v>1</v>
-      </c>
-      <c r="DX214">
-        <v>1</v>
-      </c>
-      <c r="DY214">
-        <v>0</v>
-      </c>
-      <c r="DZ214">
-        <v>0</v>
-      </c>
-      <c r="EA214">
-        <v>0</v>
-      </c>
-      <c r="EB214">
-        <v>0</v>
-      </c>
-      <c r="EC214">
-        <v>0</v>
-      </c>
-      <c r="ED214">
-        <v>0</v>
-      </c>
-      <c r="EE214">
-        <v>0</v>
-      </c>
-      <c r="EF214">
-        <v>0</v>
-      </c>
-      <c r="EG214">
-        <v>0</v>
-      </c>
-      <c r="EH214">
-        <v>0</v>
-      </c>
-      <c r="EI214">
-        <v>0</v>
-      </c>
-      <c r="EJ214">
-        <v>0</v>
-      </c>
-      <c r="EK214">
-        <v>0</v>
-      </c>
-      <c r="EL214">
-        <v>0</v>
-      </c>
-      <c r="EM214">
-        <v>0</v>
-      </c>
-      <c r="EN214">
-        <v>0</v>
-      </c>
-      <c r="EO214">
-        <v>0</v>
-      </c>
-      <c r="EP214">
-        <v>1</v>
-      </c>
-      <c r="EQ214">
-        <v>1</v>
-      </c>
-      <c r="ER214">
-        <v>0</v>
-      </c>
-      <c r="ES214">
-        <v>0</v>
-      </c>
-      <c r="ET214">
-        <v>0</v>
-      </c>
-      <c r="EU214">
-        <v>0</v>
-      </c>
-      <c r="EV214">
-        <v>0</v>
-      </c>
-      <c r="EW214">
-        <v>0</v>
-      </c>
-      <c r="EX214">
-        <v>0</v>
-      </c>
-      <c r="EY214">
-        <v>0</v>
-      </c>
-      <c r="EZ214">
-        <v>0</v>
-      </c>
-      <c r="FA214">
-        <v>0</v>
-      </c>
-      <c r="FB214">
-        <v>0</v>
-      </c>
-      <c r="FC214">
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>0</v>
+      </c>
+      <c r="AD215">
+        <v>0</v>
+      </c>
+      <c r="AE215">
+        <v>0</v>
+      </c>
+      <c r="AF215">
+        <v>0</v>
+      </c>
+      <c r="AG215">
+        <v>0</v>
+      </c>
+      <c r="AH215">
+        <v>0</v>
+      </c>
+      <c r="AI215">
+        <v>0</v>
+      </c>
+      <c r="AJ215">
+        <v>0</v>
+      </c>
+      <c r="AK215">
+        <v>0</v>
+      </c>
+      <c r="AL215">
+        <v>0</v>
+      </c>
+      <c r="AM215">
+        <v>0</v>
+      </c>
+      <c r="AN215">
+        <v>0</v>
+      </c>
+      <c r="AO215">
+        <v>0</v>
+      </c>
+      <c r="AP215">
+        <v>0</v>
+      </c>
+      <c r="AQ215">
+        <v>0</v>
+      </c>
+      <c r="AR215">
+        <v>0</v>
+      </c>
+      <c r="AS215">
+        <v>0</v>
+      </c>
+      <c r="AT215">
+        <v>0</v>
+      </c>
+      <c r="AU215">
+        <v>0</v>
+      </c>
+      <c r="AV215">
+        <v>0</v>
+      </c>
+      <c r="AW215">
+        <v>0</v>
+      </c>
+      <c r="AX215">
+        <v>0</v>
+      </c>
+      <c r="AY215">
+        <v>0</v>
+      </c>
+      <c r="AZ215">
+        <v>0</v>
+      </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>0</v>
+      </c>
+      <c r="BD215">
+        <v>0</v>
+      </c>
+      <c r="BE215">
+        <v>0</v>
+      </c>
+      <c r="BF215">
+        <v>0</v>
+      </c>
+      <c r="BG215">
+        <v>0</v>
+      </c>
+      <c r="BH215">
+        <v>0</v>
+      </c>
+      <c r="BI215">
+        <v>1</v>
+      </c>
+      <c r="BJ215">
+        <v>0</v>
+      </c>
+      <c r="BK215">
+        <v>0</v>
+      </c>
+      <c r="BL215">
+        <v>0</v>
+      </c>
+      <c r="BM215">
+        <v>0</v>
+      </c>
+      <c r="BN215">
+        <v>1</v>
+      </c>
+      <c r="BO215">
+        <v>0</v>
+      </c>
+      <c r="BP215">
+        <v>0</v>
+      </c>
+      <c r="BQ215">
+        <v>0</v>
+      </c>
+      <c r="BR215">
+        <v>0</v>
+      </c>
+      <c r="BS215">
+        <v>0</v>
+      </c>
+      <c r="BT215">
+        <v>0</v>
+      </c>
+      <c r="BU215">
+        <v>0</v>
+      </c>
+      <c r="BV215">
+        <v>0</v>
+      </c>
+      <c r="BW215">
+        <v>0</v>
+      </c>
+      <c r="BX215">
+        <v>0</v>
+      </c>
+      <c r="BY215">
+        <v>0</v>
+      </c>
+      <c r="BZ215">
+        <v>0</v>
+      </c>
+      <c r="CA215">
+        <v>0</v>
+      </c>
+      <c r="CB215">
+        <v>0</v>
+      </c>
+      <c r="CC215">
+        <v>0</v>
+      </c>
+      <c r="CD215">
+        <v>0</v>
+      </c>
+      <c r="CE215">
+        <v>0</v>
+      </c>
+      <c r="CF215">
+        <v>0</v>
+      </c>
+      <c r="CG215">
+        <v>0</v>
+      </c>
+      <c r="CH215">
+        <v>0</v>
+      </c>
+      <c r="CI215">
+        <v>0</v>
+      </c>
+      <c r="CJ215">
+        <v>0</v>
+      </c>
+      <c r="CK215">
+        <v>0</v>
+      </c>
+      <c r="CL215">
+        <v>0</v>
+      </c>
+      <c r="CM215">
+        <v>0</v>
+      </c>
+      <c r="CN215">
+        <v>0</v>
+      </c>
+      <c r="CO215">
+        <v>1</v>
+      </c>
+      <c r="CP215">
+        <v>0</v>
+      </c>
+      <c r="CQ215">
+        <v>0</v>
+      </c>
+      <c r="CR215">
+        <v>0</v>
+      </c>
+      <c r="CS215">
+        <v>0</v>
+      </c>
+      <c r="CT215">
+        <v>0</v>
+      </c>
+      <c r="CU215">
+        <v>0</v>
+      </c>
+      <c r="CV215">
+        <v>0</v>
+      </c>
+      <c r="CW215">
+        <v>0</v>
+      </c>
+      <c r="CX215">
+        <v>0</v>
+      </c>
+      <c r="CY215">
+        <v>0</v>
+      </c>
+      <c r="CZ215">
+        <v>0</v>
+      </c>
+      <c r="DA215">
+        <v>0</v>
+      </c>
+      <c r="DB215">
+        <v>0</v>
+      </c>
+      <c r="DC215">
+        <v>0</v>
+      </c>
+      <c r="DD215">
+        <v>1</v>
+      </c>
+      <c r="DE215">
+        <v>0</v>
+      </c>
+      <c r="DF215">
+        <v>0</v>
+      </c>
+      <c r="DG215">
+        <v>0</v>
+      </c>
+      <c r="DH215">
+        <v>0</v>
+      </c>
+      <c r="DI215">
+        <v>0</v>
+      </c>
+      <c r="DJ215">
+        <v>0</v>
+      </c>
+      <c r="DK215">
+        <v>0</v>
+      </c>
+      <c r="DL215">
+        <v>0</v>
+      </c>
+      <c r="DM215">
+        <v>0</v>
+      </c>
+      <c r="DN215">
+        <v>0</v>
+      </c>
+      <c r="DO215">
+        <v>0</v>
+      </c>
+      <c r="DP215">
+        <v>0</v>
+      </c>
+      <c r="DQ215">
+        <v>0</v>
+      </c>
+      <c r="DR215">
+        <v>0</v>
+      </c>
+      <c r="DS215">
+        <v>0</v>
+      </c>
+      <c r="DT215">
+        <v>0</v>
+      </c>
+      <c r="DU215">
+        <v>0</v>
+      </c>
+      <c r="DV215">
+        <v>0</v>
+      </c>
+      <c r="DW215">
+        <v>1</v>
+      </c>
+      <c r="DX215">
+        <v>1</v>
+      </c>
+      <c r="DY215">
+        <v>0</v>
+      </c>
+      <c r="DZ215">
+        <v>0</v>
+      </c>
+      <c r="EA215">
+        <v>0</v>
+      </c>
+      <c r="EB215">
+        <v>0</v>
+      </c>
+      <c r="EC215">
+        <v>0</v>
+      </c>
+      <c r="ED215">
+        <v>0</v>
+      </c>
+      <c r="EE215">
+        <v>0</v>
+      </c>
+      <c r="EF215">
+        <v>0</v>
+      </c>
+      <c r="EG215">
+        <v>0</v>
+      </c>
+      <c r="EH215">
+        <v>0</v>
+      </c>
+      <c r="EI215">
+        <v>0</v>
+      </c>
+      <c r="EJ215">
+        <v>0</v>
+      </c>
+      <c r="EK215">
+        <v>0</v>
+      </c>
+      <c r="EL215">
+        <v>0</v>
+      </c>
+      <c r="EM215">
+        <v>0</v>
+      </c>
+      <c r="EN215">
+        <v>0</v>
+      </c>
+      <c r="EO215">
+        <v>0</v>
+      </c>
+      <c r="EP215">
+        <v>1</v>
+      </c>
+      <c r="EQ215">
+        <v>1</v>
+      </c>
+      <c r="ER215">
+        <v>0</v>
+      </c>
+      <c r="ES215">
+        <v>0</v>
+      </c>
+      <c r="ET215">
+        <v>0</v>
+      </c>
+      <c r="EU215">
+        <v>0</v>
+      </c>
+      <c r="EV215">
+        <v>0</v>
+      </c>
+      <c r="EW215">
+        <v>0</v>
+      </c>
+      <c r="EX215">
+        <v>0</v>
+      </c>
+      <c r="EY215">
+        <v>0</v>
+      </c>
+      <c r="EZ215">
+        <v>0</v>
+      </c>
+      <c r="FA215">
+        <v>0</v>
+      </c>
+      <c r="FB215">
+        <v>0</v>
+      </c>
+      <c r="FC215">
         <v>0</v>
       </c>
     </row>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -106825,7 +106825,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, countrycode, lemon, tidytuesdayR</t>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, countrycode, lemon, tidytuesdayR</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -107123,7 +107123,7 @@
         <v>0</v>
       </c>
       <c r="CW215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX215">
         <v>0</v>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FD216"/>
+  <dimension ref="A1:FD217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -107799,6 +107799,502 @@
         <v>0</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Talks and Workshops 2024</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, cowplot, grid, readr, PrettyCols</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2025/2025-01-07/20250107.R</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2025/2025-01-07///20250107.png</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>1</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <v>0</v>
+      </c>
+      <c r="AC217">
+        <v>0</v>
+      </c>
+      <c r="AD217">
+        <v>0</v>
+      </c>
+      <c r="AE217">
+        <v>0</v>
+      </c>
+      <c r="AF217">
+        <v>0</v>
+      </c>
+      <c r="AG217">
+        <v>0</v>
+      </c>
+      <c r="AH217">
+        <v>0</v>
+      </c>
+      <c r="AI217">
+        <v>0</v>
+      </c>
+      <c r="AJ217">
+        <v>0</v>
+      </c>
+      <c r="AK217">
+        <v>0</v>
+      </c>
+      <c r="AL217">
+        <v>0</v>
+      </c>
+      <c r="AM217">
+        <v>0</v>
+      </c>
+      <c r="AN217">
+        <v>0</v>
+      </c>
+      <c r="AO217">
+        <v>0</v>
+      </c>
+      <c r="AP217">
+        <v>0</v>
+      </c>
+      <c r="AQ217">
+        <v>0</v>
+      </c>
+      <c r="AR217">
+        <v>0</v>
+      </c>
+      <c r="AS217">
+        <v>0</v>
+      </c>
+      <c r="AT217">
+        <v>0</v>
+      </c>
+      <c r="AU217">
+        <v>0</v>
+      </c>
+      <c r="AV217">
+        <v>0</v>
+      </c>
+      <c r="AW217">
+        <v>0</v>
+      </c>
+      <c r="AX217">
+        <v>0</v>
+      </c>
+      <c r="AY217">
+        <v>0</v>
+      </c>
+      <c r="AZ217">
+        <v>0</v>
+      </c>
+      <c r="BA217">
+        <v>0</v>
+      </c>
+      <c r="BB217">
+        <v>0</v>
+      </c>
+      <c r="BC217">
+        <v>0</v>
+      </c>
+      <c r="BD217">
+        <v>0</v>
+      </c>
+      <c r="BE217">
+        <v>0</v>
+      </c>
+      <c r="BF217">
+        <v>0</v>
+      </c>
+      <c r="BG217">
+        <v>0</v>
+      </c>
+      <c r="BH217">
+        <v>0</v>
+      </c>
+      <c r="BI217">
+        <v>1</v>
+      </c>
+      <c r="BJ217">
+        <v>0</v>
+      </c>
+      <c r="BK217">
+        <v>0</v>
+      </c>
+      <c r="BL217">
+        <v>0</v>
+      </c>
+      <c r="BM217">
+        <v>0</v>
+      </c>
+      <c r="BN217">
+        <v>1</v>
+      </c>
+      <c r="BO217">
+        <v>0</v>
+      </c>
+      <c r="BP217">
+        <v>1</v>
+      </c>
+      <c r="BQ217">
+        <v>0</v>
+      </c>
+      <c r="BR217">
+        <v>0</v>
+      </c>
+      <c r="BS217">
+        <v>0</v>
+      </c>
+      <c r="BT217">
+        <v>0</v>
+      </c>
+      <c r="BU217">
+        <v>0</v>
+      </c>
+      <c r="BV217">
+        <v>0</v>
+      </c>
+      <c r="BW217">
+        <v>0</v>
+      </c>
+      <c r="BX217">
+        <v>0</v>
+      </c>
+      <c r="BY217">
+        <v>0</v>
+      </c>
+      <c r="BZ217">
+        <v>0</v>
+      </c>
+      <c r="CA217">
+        <v>0</v>
+      </c>
+      <c r="CB217">
+        <v>0</v>
+      </c>
+      <c r="CC217">
+        <v>0</v>
+      </c>
+      <c r="CD217">
+        <v>0</v>
+      </c>
+      <c r="CE217">
+        <v>0</v>
+      </c>
+      <c r="CF217">
+        <v>0</v>
+      </c>
+      <c r="CG217">
+        <v>0</v>
+      </c>
+      <c r="CH217">
+        <v>0</v>
+      </c>
+      <c r="CI217">
+        <v>0</v>
+      </c>
+      <c r="CJ217">
+        <v>0</v>
+      </c>
+      <c r="CK217">
+        <v>0</v>
+      </c>
+      <c r="CL217">
+        <v>0</v>
+      </c>
+      <c r="CM217">
+        <v>0</v>
+      </c>
+      <c r="CN217">
+        <v>0</v>
+      </c>
+      <c r="CO217">
+        <v>0</v>
+      </c>
+      <c r="CP217">
+        <v>1</v>
+      </c>
+      <c r="CQ217">
+        <v>0</v>
+      </c>
+      <c r="CR217">
+        <v>0</v>
+      </c>
+      <c r="CS217">
+        <v>0</v>
+      </c>
+      <c r="CT217">
+        <v>0</v>
+      </c>
+      <c r="CU217">
+        <v>0</v>
+      </c>
+      <c r="CV217">
+        <v>0</v>
+      </c>
+      <c r="CW217">
+        <v>0</v>
+      </c>
+      <c r="CX217">
+        <v>0</v>
+      </c>
+      <c r="CY217">
+        <v>0</v>
+      </c>
+      <c r="CZ217">
+        <v>0</v>
+      </c>
+      <c r="DA217">
+        <v>0</v>
+      </c>
+      <c r="DB217">
+        <v>0</v>
+      </c>
+      <c r="DC217">
+        <v>0</v>
+      </c>
+      <c r="DD217">
+        <v>0</v>
+      </c>
+      <c r="DE217">
+        <v>1</v>
+      </c>
+      <c r="DF217">
+        <v>0</v>
+      </c>
+      <c r="DG217">
+        <v>0</v>
+      </c>
+      <c r="DH217">
+        <v>0</v>
+      </c>
+      <c r="DI217">
+        <v>0</v>
+      </c>
+      <c r="DJ217">
+        <v>0</v>
+      </c>
+      <c r="DK217">
+        <v>0</v>
+      </c>
+      <c r="DL217">
+        <v>1</v>
+      </c>
+      <c r="DM217">
+        <v>0</v>
+      </c>
+      <c r="DN217">
+        <v>0</v>
+      </c>
+      <c r="DO217">
+        <v>0</v>
+      </c>
+      <c r="DP217">
+        <v>0</v>
+      </c>
+      <c r="DQ217">
+        <v>0</v>
+      </c>
+      <c r="DR217">
+        <v>0</v>
+      </c>
+      <c r="DS217">
+        <v>0</v>
+      </c>
+      <c r="DT217">
+        <v>0</v>
+      </c>
+      <c r="DU217">
+        <v>0</v>
+      </c>
+      <c r="DV217">
+        <v>0</v>
+      </c>
+      <c r="DW217">
+        <v>0</v>
+      </c>
+      <c r="DX217">
+        <v>0</v>
+      </c>
+      <c r="DY217">
+        <v>1</v>
+      </c>
+      <c r="DZ217">
+        <v>0</v>
+      </c>
+      <c r="EA217">
+        <v>0</v>
+      </c>
+      <c r="EB217">
+        <v>0</v>
+      </c>
+      <c r="EC217">
+        <v>0</v>
+      </c>
+      <c r="ED217">
+        <v>0</v>
+      </c>
+      <c r="EE217">
+        <v>0</v>
+      </c>
+      <c r="EF217">
+        <v>0</v>
+      </c>
+      <c r="EG217">
+        <v>0</v>
+      </c>
+      <c r="EH217">
+        <v>0</v>
+      </c>
+      <c r="EI217">
+        <v>0</v>
+      </c>
+      <c r="EJ217">
+        <v>0</v>
+      </c>
+      <c r="EK217">
+        <v>0</v>
+      </c>
+      <c r="EL217">
+        <v>0</v>
+      </c>
+      <c r="EM217">
+        <v>0</v>
+      </c>
+      <c r="EN217">
+        <v>0</v>
+      </c>
+      <c r="EO217">
+        <v>0</v>
+      </c>
+      <c r="EP217">
+        <v>0</v>
+      </c>
+      <c r="EQ217">
+        <v>0</v>
+      </c>
+      <c r="ER217">
+        <v>1</v>
+      </c>
+      <c r="ES217">
+        <v>0</v>
+      </c>
+      <c r="ET217">
+        <v>0</v>
+      </c>
+      <c r="EU217">
+        <v>0</v>
+      </c>
+      <c r="EV217">
+        <v>0</v>
+      </c>
+      <c r="EW217">
+        <v>0</v>
+      </c>
+      <c r="EX217">
+        <v>0</v>
+      </c>
+      <c r="EY217">
+        <v>0</v>
+      </c>
+      <c r="EZ217">
+        <v>0</v>
+      </c>
+      <c r="FA217">
+        <v>0</v>
+      </c>
+      <c r="FB217">
+        <v>0</v>
+      </c>
+      <c r="FC217">
+        <v>0</v>
+      </c>
+      <c r="FD217">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FF219"/>
+  <dimension ref="A1:FF220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -110605,6 +110605,508 @@
         <v>0</v>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Water Insecurity</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, PrettyCols, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2025/2025-01-28/20250128.R</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2025/2025-01-28///20250128.png</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+      <c r="AC220">
+        <v>0</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>0</v>
+      </c>
+      <c r="AF220">
+        <v>0</v>
+      </c>
+      <c r="AG220">
+        <v>0</v>
+      </c>
+      <c r="AH220">
+        <v>0</v>
+      </c>
+      <c r="AI220">
+        <v>0</v>
+      </c>
+      <c r="AJ220">
+        <v>0</v>
+      </c>
+      <c r="AK220">
+        <v>0</v>
+      </c>
+      <c r="AL220">
+        <v>0</v>
+      </c>
+      <c r="AM220">
+        <v>0</v>
+      </c>
+      <c r="AN220">
+        <v>0</v>
+      </c>
+      <c r="AO220">
+        <v>0</v>
+      </c>
+      <c r="AP220">
+        <v>0</v>
+      </c>
+      <c r="AQ220">
+        <v>0</v>
+      </c>
+      <c r="AR220">
+        <v>0</v>
+      </c>
+      <c r="AS220">
+        <v>0</v>
+      </c>
+      <c r="AT220">
+        <v>0</v>
+      </c>
+      <c r="AU220">
+        <v>0</v>
+      </c>
+      <c r="AV220">
+        <v>0</v>
+      </c>
+      <c r="AW220">
+        <v>0</v>
+      </c>
+      <c r="AX220">
+        <v>0</v>
+      </c>
+      <c r="AY220">
+        <v>0</v>
+      </c>
+      <c r="AZ220">
+        <v>0</v>
+      </c>
+      <c r="BA220">
+        <v>0</v>
+      </c>
+      <c r="BB220">
+        <v>0</v>
+      </c>
+      <c r="BC220">
+        <v>0</v>
+      </c>
+      <c r="BD220">
+        <v>0</v>
+      </c>
+      <c r="BE220">
+        <v>0</v>
+      </c>
+      <c r="BF220">
+        <v>0</v>
+      </c>
+      <c r="BG220">
+        <v>0</v>
+      </c>
+      <c r="BH220">
+        <v>0</v>
+      </c>
+      <c r="BI220">
+        <v>0</v>
+      </c>
+      <c r="BJ220">
+        <v>1</v>
+      </c>
+      <c r="BK220">
+        <v>0</v>
+      </c>
+      <c r="BL220">
+        <v>0</v>
+      </c>
+      <c r="BM220">
+        <v>0</v>
+      </c>
+      <c r="BN220">
+        <v>0</v>
+      </c>
+      <c r="BO220">
+        <v>1</v>
+      </c>
+      <c r="BP220">
+        <v>0</v>
+      </c>
+      <c r="BQ220">
+        <v>0</v>
+      </c>
+      <c r="BR220">
+        <v>0</v>
+      </c>
+      <c r="BS220">
+        <v>0</v>
+      </c>
+      <c r="BT220">
+        <v>0</v>
+      </c>
+      <c r="BU220">
+        <v>0</v>
+      </c>
+      <c r="BV220">
+        <v>0</v>
+      </c>
+      <c r="BW220">
+        <v>0</v>
+      </c>
+      <c r="BX220">
+        <v>0</v>
+      </c>
+      <c r="BY220">
+        <v>0</v>
+      </c>
+      <c r="BZ220">
+        <v>0</v>
+      </c>
+      <c r="CA220">
+        <v>0</v>
+      </c>
+      <c r="CB220">
+        <v>0</v>
+      </c>
+      <c r="CC220">
+        <v>0</v>
+      </c>
+      <c r="CD220">
+        <v>0</v>
+      </c>
+      <c r="CE220">
+        <v>0</v>
+      </c>
+      <c r="CF220">
+        <v>0</v>
+      </c>
+      <c r="CG220">
+        <v>0</v>
+      </c>
+      <c r="CH220">
+        <v>0</v>
+      </c>
+      <c r="CI220">
+        <v>0</v>
+      </c>
+      <c r="CJ220">
+        <v>0</v>
+      </c>
+      <c r="CK220">
+        <v>0</v>
+      </c>
+      <c r="CL220">
+        <v>0</v>
+      </c>
+      <c r="CM220">
+        <v>0</v>
+      </c>
+      <c r="CN220">
+        <v>0</v>
+      </c>
+      <c r="CO220">
+        <v>0</v>
+      </c>
+      <c r="CP220">
+        <v>0</v>
+      </c>
+      <c r="CQ220">
+        <v>1</v>
+      </c>
+      <c r="CR220">
+        <v>0</v>
+      </c>
+      <c r="CS220">
+        <v>0</v>
+      </c>
+      <c r="CT220">
+        <v>0</v>
+      </c>
+      <c r="CU220">
+        <v>0</v>
+      </c>
+      <c r="CV220">
+        <v>0</v>
+      </c>
+      <c r="CW220">
+        <v>0</v>
+      </c>
+      <c r="CX220">
+        <v>0</v>
+      </c>
+      <c r="CY220">
+        <v>0</v>
+      </c>
+      <c r="CZ220">
+        <v>0</v>
+      </c>
+      <c r="DA220">
+        <v>0</v>
+      </c>
+      <c r="DB220">
+        <v>0</v>
+      </c>
+      <c r="DC220">
+        <v>0</v>
+      </c>
+      <c r="DD220">
+        <v>0</v>
+      </c>
+      <c r="DE220">
+        <v>0</v>
+      </c>
+      <c r="DF220">
+        <v>0</v>
+      </c>
+      <c r="DG220">
+        <v>1</v>
+      </c>
+      <c r="DH220">
+        <v>0</v>
+      </c>
+      <c r="DI220">
+        <v>0</v>
+      </c>
+      <c r="DJ220">
+        <v>0</v>
+      </c>
+      <c r="DK220">
+        <v>0</v>
+      </c>
+      <c r="DL220">
+        <v>0</v>
+      </c>
+      <c r="DM220">
+        <v>0</v>
+      </c>
+      <c r="DN220">
+        <v>0</v>
+      </c>
+      <c r="DO220">
+        <v>0</v>
+      </c>
+      <c r="DP220">
+        <v>0</v>
+      </c>
+      <c r="DQ220">
+        <v>0</v>
+      </c>
+      <c r="DR220">
+        <v>0</v>
+      </c>
+      <c r="DS220">
+        <v>0</v>
+      </c>
+      <c r="DT220">
+        <v>0</v>
+      </c>
+      <c r="DU220">
+        <v>0</v>
+      </c>
+      <c r="DV220">
+        <v>0</v>
+      </c>
+      <c r="DW220">
+        <v>0</v>
+      </c>
+      <c r="DX220">
+        <v>0</v>
+      </c>
+      <c r="DY220">
+        <v>0</v>
+      </c>
+      <c r="DZ220">
+        <v>0</v>
+      </c>
+      <c r="EA220">
+        <v>1</v>
+      </c>
+      <c r="EB220">
+        <v>0</v>
+      </c>
+      <c r="EC220">
+        <v>0</v>
+      </c>
+      <c r="ED220">
+        <v>0</v>
+      </c>
+      <c r="EE220">
+        <v>0</v>
+      </c>
+      <c r="EF220">
+        <v>0</v>
+      </c>
+      <c r="EG220">
+        <v>0</v>
+      </c>
+      <c r="EH220">
+        <v>0</v>
+      </c>
+      <c r="EI220">
+        <v>0</v>
+      </c>
+      <c r="EJ220">
+        <v>0</v>
+      </c>
+      <c r="EK220">
+        <v>0</v>
+      </c>
+      <c r="EL220">
+        <v>0</v>
+      </c>
+      <c r="EM220">
+        <v>0</v>
+      </c>
+      <c r="EN220">
+        <v>0</v>
+      </c>
+      <c r="EO220">
+        <v>0</v>
+      </c>
+      <c r="EP220">
+        <v>0</v>
+      </c>
+      <c r="EQ220">
+        <v>0</v>
+      </c>
+      <c r="ER220">
+        <v>0</v>
+      </c>
+      <c r="ES220">
+        <v>1</v>
+      </c>
+      <c r="ET220">
+        <v>1</v>
+      </c>
+      <c r="EU220">
+        <v>0</v>
+      </c>
+      <c r="EV220">
+        <v>0</v>
+      </c>
+      <c r="EW220">
+        <v>0</v>
+      </c>
+      <c r="EX220">
+        <v>0</v>
+      </c>
+      <c r="EY220">
+        <v>0</v>
+      </c>
+      <c r="EZ220">
+        <v>0</v>
+      </c>
+      <c r="FA220">
+        <v>0</v>
+      </c>
+      <c r="FB220">
+        <v>0</v>
+      </c>
+      <c r="FC220">
+        <v>0</v>
+      </c>
+      <c r="FD220">
+        <v>0</v>
+      </c>
+      <c r="FE220">
+        <v>0</v>
+      </c>
+      <c r="FF220">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FF220"/>
+  <dimension ref="A1:FF221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -111107,6 +111107,508 @@
         <v>0</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Donuts, Data, and D'oh</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>tidyverse, patchwork, showtext, camcorder, ggtext, nrBrand, glue, waffle, tidytuesdayR, dplyr, stringr, ggpattern</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2025/2025-02-04/20250204.R</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2025/2025-02-04///20250204.png</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>1</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
+      <c r="AH221">
+        <v>0</v>
+      </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
+      <c r="AJ221">
+        <v>0</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
+      <c r="AN221">
+        <v>0</v>
+      </c>
+      <c r="AO221">
+        <v>0</v>
+      </c>
+      <c r="AP221">
+        <v>0</v>
+      </c>
+      <c r="AQ221">
+        <v>0</v>
+      </c>
+      <c r="AR221">
+        <v>0</v>
+      </c>
+      <c r="AS221">
+        <v>0</v>
+      </c>
+      <c r="AT221">
+        <v>0</v>
+      </c>
+      <c r="AU221">
+        <v>0</v>
+      </c>
+      <c r="AV221">
+        <v>0</v>
+      </c>
+      <c r="AW221">
+        <v>1</v>
+      </c>
+      <c r="AX221">
+        <v>0</v>
+      </c>
+      <c r="AY221">
+        <v>0</v>
+      </c>
+      <c r="AZ221">
+        <v>0</v>
+      </c>
+      <c r="BA221">
+        <v>0</v>
+      </c>
+      <c r="BB221">
+        <v>0</v>
+      </c>
+      <c r="BC221">
+        <v>0</v>
+      </c>
+      <c r="BD221">
+        <v>0</v>
+      </c>
+      <c r="BE221">
+        <v>0</v>
+      </c>
+      <c r="BF221">
+        <v>0</v>
+      </c>
+      <c r="BG221">
+        <v>0</v>
+      </c>
+      <c r="BH221">
+        <v>0</v>
+      </c>
+      <c r="BI221">
+        <v>0</v>
+      </c>
+      <c r="BJ221">
+        <v>1</v>
+      </c>
+      <c r="BK221">
+        <v>0</v>
+      </c>
+      <c r="BL221">
+        <v>0</v>
+      </c>
+      <c r="BM221">
+        <v>0</v>
+      </c>
+      <c r="BN221">
+        <v>0</v>
+      </c>
+      <c r="BO221">
+        <v>1</v>
+      </c>
+      <c r="BP221">
+        <v>0</v>
+      </c>
+      <c r="BQ221">
+        <v>0</v>
+      </c>
+      <c r="BR221">
+        <v>0</v>
+      </c>
+      <c r="BS221">
+        <v>0</v>
+      </c>
+      <c r="BT221">
+        <v>0</v>
+      </c>
+      <c r="BU221">
+        <v>0</v>
+      </c>
+      <c r="BV221">
+        <v>0</v>
+      </c>
+      <c r="BW221">
+        <v>0</v>
+      </c>
+      <c r="BX221">
+        <v>0</v>
+      </c>
+      <c r="BY221">
+        <v>0</v>
+      </c>
+      <c r="BZ221">
+        <v>0</v>
+      </c>
+      <c r="CA221">
+        <v>0</v>
+      </c>
+      <c r="CB221">
+        <v>0</v>
+      </c>
+      <c r="CC221">
+        <v>0</v>
+      </c>
+      <c r="CD221">
+        <v>0</v>
+      </c>
+      <c r="CE221">
+        <v>0</v>
+      </c>
+      <c r="CF221">
+        <v>0</v>
+      </c>
+      <c r="CG221">
+        <v>0</v>
+      </c>
+      <c r="CH221">
+        <v>0</v>
+      </c>
+      <c r="CI221">
+        <v>0</v>
+      </c>
+      <c r="CJ221">
+        <v>0</v>
+      </c>
+      <c r="CK221">
+        <v>0</v>
+      </c>
+      <c r="CL221">
+        <v>0</v>
+      </c>
+      <c r="CM221">
+        <v>0</v>
+      </c>
+      <c r="CN221">
+        <v>0</v>
+      </c>
+      <c r="CO221">
+        <v>0</v>
+      </c>
+      <c r="CP221">
+        <v>0</v>
+      </c>
+      <c r="CQ221">
+        <v>1</v>
+      </c>
+      <c r="CR221">
+        <v>0</v>
+      </c>
+      <c r="CS221">
+        <v>0</v>
+      </c>
+      <c r="CT221">
+        <v>0</v>
+      </c>
+      <c r="CU221">
+        <v>0</v>
+      </c>
+      <c r="CV221">
+        <v>0</v>
+      </c>
+      <c r="CW221">
+        <v>0</v>
+      </c>
+      <c r="CX221">
+        <v>1</v>
+      </c>
+      <c r="CY221">
+        <v>0</v>
+      </c>
+      <c r="CZ221">
+        <v>0</v>
+      </c>
+      <c r="DA221">
+        <v>0</v>
+      </c>
+      <c r="DB221">
+        <v>0</v>
+      </c>
+      <c r="DC221">
+        <v>0</v>
+      </c>
+      <c r="DD221">
+        <v>0</v>
+      </c>
+      <c r="DE221">
+        <v>0</v>
+      </c>
+      <c r="DF221">
+        <v>0</v>
+      </c>
+      <c r="DG221">
+        <v>0</v>
+      </c>
+      <c r="DH221">
+        <v>0</v>
+      </c>
+      <c r="DI221">
+        <v>0</v>
+      </c>
+      <c r="DJ221">
+        <v>0</v>
+      </c>
+      <c r="DK221">
+        <v>0</v>
+      </c>
+      <c r="DL221">
+        <v>0</v>
+      </c>
+      <c r="DM221">
+        <v>0</v>
+      </c>
+      <c r="DN221">
+        <v>0</v>
+      </c>
+      <c r="DO221">
+        <v>0</v>
+      </c>
+      <c r="DP221">
+        <v>0</v>
+      </c>
+      <c r="DQ221">
+        <v>0</v>
+      </c>
+      <c r="DR221">
+        <v>0</v>
+      </c>
+      <c r="DS221">
+        <v>0</v>
+      </c>
+      <c r="DT221">
+        <v>0</v>
+      </c>
+      <c r="DU221">
+        <v>0</v>
+      </c>
+      <c r="DV221">
+        <v>0</v>
+      </c>
+      <c r="DW221">
+        <v>0</v>
+      </c>
+      <c r="DX221">
+        <v>0</v>
+      </c>
+      <c r="DY221">
+        <v>0</v>
+      </c>
+      <c r="DZ221">
+        <v>0</v>
+      </c>
+      <c r="EA221">
+        <v>1</v>
+      </c>
+      <c r="EB221">
+        <v>0</v>
+      </c>
+      <c r="EC221">
+        <v>0</v>
+      </c>
+      <c r="ED221">
+        <v>0</v>
+      </c>
+      <c r="EE221">
+        <v>0</v>
+      </c>
+      <c r="EF221">
+        <v>0</v>
+      </c>
+      <c r="EG221">
+        <v>0</v>
+      </c>
+      <c r="EH221">
+        <v>0</v>
+      </c>
+      <c r="EI221">
+        <v>0</v>
+      </c>
+      <c r="EJ221">
+        <v>1</v>
+      </c>
+      <c r="EK221">
+        <v>0</v>
+      </c>
+      <c r="EL221">
+        <v>0</v>
+      </c>
+      <c r="EM221">
+        <v>0</v>
+      </c>
+      <c r="EN221">
+        <v>0</v>
+      </c>
+      <c r="EO221">
+        <v>0</v>
+      </c>
+      <c r="EP221">
+        <v>0</v>
+      </c>
+      <c r="EQ221">
+        <v>0</v>
+      </c>
+      <c r="ER221">
+        <v>0</v>
+      </c>
+      <c r="ES221">
+        <v>1</v>
+      </c>
+      <c r="ET221">
+        <v>1</v>
+      </c>
+      <c r="EU221">
+        <v>0</v>
+      </c>
+      <c r="EV221">
+        <v>0</v>
+      </c>
+      <c r="EW221">
+        <v>0</v>
+      </c>
+      <c r="EX221">
+        <v>0</v>
+      </c>
+      <c r="EY221">
+        <v>0</v>
+      </c>
+      <c r="EZ221">
+        <v>0</v>
+      </c>
+      <c r="FA221">
+        <v>0</v>
+      </c>
+      <c r="FB221">
+        <v>0</v>
+      </c>
+      <c r="FC221">
+        <v>0</v>
+      </c>
+      <c r="FD221">
+        <v>0</v>
+      </c>
+      <c r="FE221">
+        <v>1</v>
+      </c>
+      <c r="FF221">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FF221"/>
+  <dimension ref="A1:FF222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -111609,6 +111609,508 @@
         <v>0</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>CDC Datasets</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, sf, rcartocolor, VoronoiPlus, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2025/2025-02-11/20250211.R</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2025/2025-02-11///20250211.png</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>0</v>
+      </c>
+      <c r="AN222">
+        <v>0</v>
+      </c>
+      <c r="AO222">
+        <v>0</v>
+      </c>
+      <c r="AP222">
+        <v>0</v>
+      </c>
+      <c r="AQ222">
+        <v>0</v>
+      </c>
+      <c r="AR222">
+        <v>0</v>
+      </c>
+      <c r="AS222">
+        <v>0</v>
+      </c>
+      <c r="AT222">
+        <v>0</v>
+      </c>
+      <c r="AU222">
+        <v>0</v>
+      </c>
+      <c r="AV222">
+        <v>0</v>
+      </c>
+      <c r="AW222">
+        <v>0</v>
+      </c>
+      <c r="AX222">
+        <v>0</v>
+      </c>
+      <c r="AY222">
+        <v>0</v>
+      </c>
+      <c r="AZ222">
+        <v>0</v>
+      </c>
+      <c r="BA222">
+        <v>0</v>
+      </c>
+      <c r="BB222">
+        <v>0</v>
+      </c>
+      <c r="BC222">
+        <v>0</v>
+      </c>
+      <c r="BD222">
+        <v>0</v>
+      </c>
+      <c r="BE222">
+        <v>0</v>
+      </c>
+      <c r="BF222">
+        <v>0</v>
+      </c>
+      <c r="BG222">
+        <v>0</v>
+      </c>
+      <c r="BH222">
+        <v>0</v>
+      </c>
+      <c r="BI222">
+        <v>0</v>
+      </c>
+      <c r="BJ222">
+        <v>1</v>
+      </c>
+      <c r="BK222">
+        <v>0</v>
+      </c>
+      <c r="BL222">
+        <v>0</v>
+      </c>
+      <c r="BM222">
+        <v>0</v>
+      </c>
+      <c r="BN222">
+        <v>0</v>
+      </c>
+      <c r="BO222">
+        <v>1</v>
+      </c>
+      <c r="BP222">
+        <v>0</v>
+      </c>
+      <c r="BQ222">
+        <v>0</v>
+      </c>
+      <c r="BR222">
+        <v>0</v>
+      </c>
+      <c r="BS222">
+        <v>0</v>
+      </c>
+      <c r="BT222">
+        <v>0</v>
+      </c>
+      <c r="BU222">
+        <v>0</v>
+      </c>
+      <c r="BV222">
+        <v>0</v>
+      </c>
+      <c r="BW222">
+        <v>0</v>
+      </c>
+      <c r="BX222">
+        <v>0</v>
+      </c>
+      <c r="BY222">
+        <v>0</v>
+      </c>
+      <c r="BZ222">
+        <v>0</v>
+      </c>
+      <c r="CA222">
+        <v>0</v>
+      </c>
+      <c r="CB222">
+        <v>0</v>
+      </c>
+      <c r="CC222">
+        <v>0</v>
+      </c>
+      <c r="CD222">
+        <v>0</v>
+      </c>
+      <c r="CE222">
+        <v>0</v>
+      </c>
+      <c r="CF222">
+        <v>0</v>
+      </c>
+      <c r="CG222">
+        <v>0</v>
+      </c>
+      <c r="CH222">
+        <v>0</v>
+      </c>
+      <c r="CI222">
+        <v>0</v>
+      </c>
+      <c r="CJ222">
+        <v>0</v>
+      </c>
+      <c r="CK222">
+        <v>0</v>
+      </c>
+      <c r="CL222">
+        <v>0</v>
+      </c>
+      <c r="CM222">
+        <v>0</v>
+      </c>
+      <c r="CN222">
+        <v>0</v>
+      </c>
+      <c r="CO222">
+        <v>0</v>
+      </c>
+      <c r="CP222">
+        <v>0</v>
+      </c>
+      <c r="CQ222">
+        <v>1</v>
+      </c>
+      <c r="CR222">
+        <v>0</v>
+      </c>
+      <c r="CS222">
+        <v>0</v>
+      </c>
+      <c r="CT222">
+        <v>0</v>
+      </c>
+      <c r="CU222">
+        <v>0</v>
+      </c>
+      <c r="CV222">
+        <v>0</v>
+      </c>
+      <c r="CW222">
+        <v>0</v>
+      </c>
+      <c r="CX222">
+        <v>0</v>
+      </c>
+      <c r="CY222">
+        <v>0</v>
+      </c>
+      <c r="CZ222">
+        <v>0</v>
+      </c>
+      <c r="DA222">
+        <v>0</v>
+      </c>
+      <c r="DB222">
+        <v>0</v>
+      </c>
+      <c r="DC222">
+        <v>0</v>
+      </c>
+      <c r="DD222">
+        <v>0</v>
+      </c>
+      <c r="DE222">
+        <v>0</v>
+      </c>
+      <c r="DF222">
+        <v>0</v>
+      </c>
+      <c r="DG222">
+        <v>0</v>
+      </c>
+      <c r="DH222">
+        <v>0</v>
+      </c>
+      <c r="DI222">
+        <v>0</v>
+      </c>
+      <c r="DJ222">
+        <v>0</v>
+      </c>
+      <c r="DK222">
+        <v>1</v>
+      </c>
+      <c r="DL222">
+        <v>0</v>
+      </c>
+      <c r="DM222">
+        <v>0</v>
+      </c>
+      <c r="DN222">
+        <v>0</v>
+      </c>
+      <c r="DO222">
+        <v>0</v>
+      </c>
+      <c r="DP222">
+        <v>0</v>
+      </c>
+      <c r="DQ222">
+        <v>0</v>
+      </c>
+      <c r="DR222">
+        <v>0</v>
+      </c>
+      <c r="DS222">
+        <v>0</v>
+      </c>
+      <c r="DT222">
+        <v>0</v>
+      </c>
+      <c r="DU222">
+        <v>0</v>
+      </c>
+      <c r="DV222">
+        <v>0</v>
+      </c>
+      <c r="DW222">
+        <v>0</v>
+      </c>
+      <c r="DX222">
+        <v>1</v>
+      </c>
+      <c r="DY222">
+        <v>0</v>
+      </c>
+      <c r="DZ222">
+        <v>0</v>
+      </c>
+      <c r="EA222">
+        <v>1</v>
+      </c>
+      <c r="EB222">
+        <v>0</v>
+      </c>
+      <c r="EC222">
+        <v>0</v>
+      </c>
+      <c r="ED222">
+        <v>0</v>
+      </c>
+      <c r="EE222">
+        <v>0</v>
+      </c>
+      <c r="EF222">
+        <v>0</v>
+      </c>
+      <c r="EG222">
+        <v>0</v>
+      </c>
+      <c r="EH222">
+        <v>0</v>
+      </c>
+      <c r="EI222">
+        <v>0</v>
+      </c>
+      <c r="EJ222">
+        <v>0</v>
+      </c>
+      <c r="EK222">
+        <v>0</v>
+      </c>
+      <c r="EL222">
+        <v>0</v>
+      </c>
+      <c r="EM222">
+        <v>0</v>
+      </c>
+      <c r="EN222">
+        <v>0</v>
+      </c>
+      <c r="EO222">
+        <v>0</v>
+      </c>
+      <c r="EP222">
+        <v>0</v>
+      </c>
+      <c r="EQ222">
+        <v>0</v>
+      </c>
+      <c r="ER222">
+        <v>0</v>
+      </c>
+      <c r="ES222">
+        <v>1</v>
+      </c>
+      <c r="ET222">
+        <v>1</v>
+      </c>
+      <c r="EU222">
+        <v>0</v>
+      </c>
+      <c r="EV222">
+        <v>0</v>
+      </c>
+      <c r="EW222">
+        <v>0</v>
+      </c>
+      <c r="EX222">
+        <v>0</v>
+      </c>
+      <c r="EY222">
+        <v>0</v>
+      </c>
+      <c r="EZ222">
+        <v>0</v>
+      </c>
+      <c r="FA222">
+        <v>0</v>
+      </c>
+      <c r="FB222">
+        <v>0</v>
+      </c>
+      <c r="FC222">
+        <v>0</v>
+      </c>
+      <c r="FD222">
+        <v>1</v>
+      </c>
+      <c r="FE222">
+        <v>0</v>
+      </c>
+      <c r="FF222">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FF222"/>
+  <dimension ref="A1:FF223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -112111,6 +112111,508 @@
         <v>0</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>FBI Crime Data</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, geofacet, tidytuesdayR, purrr</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2025/2025-02-18/20250218.R</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2025/2025-02-18///20250218.png</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>1</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>0</v>
+      </c>
+      <c r="AO223">
+        <v>0</v>
+      </c>
+      <c r="AP223">
+        <v>0</v>
+      </c>
+      <c r="AQ223">
+        <v>0</v>
+      </c>
+      <c r="AR223">
+        <v>0</v>
+      </c>
+      <c r="AS223">
+        <v>0</v>
+      </c>
+      <c r="AT223">
+        <v>0</v>
+      </c>
+      <c r="AU223">
+        <v>0</v>
+      </c>
+      <c r="AV223">
+        <v>0</v>
+      </c>
+      <c r="AW223">
+        <v>0</v>
+      </c>
+      <c r="AX223">
+        <v>0</v>
+      </c>
+      <c r="AY223">
+        <v>0</v>
+      </c>
+      <c r="AZ223">
+        <v>0</v>
+      </c>
+      <c r="BA223">
+        <v>0</v>
+      </c>
+      <c r="BB223">
+        <v>0</v>
+      </c>
+      <c r="BC223">
+        <v>0</v>
+      </c>
+      <c r="BD223">
+        <v>0</v>
+      </c>
+      <c r="BE223">
+        <v>0</v>
+      </c>
+      <c r="BF223">
+        <v>0</v>
+      </c>
+      <c r="BG223">
+        <v>0</v>
+      </c>
+      <c r="BH223">
+        <v>0</v>
+      </c>
+      <c r="BI223">
+        <v>0</v>
+      </c>
+      <c r="BJ223">
+        <v>1</v>
+      </c>
+      <c r="BK223">
+        <v>0</v>
+      </c>
+      <c r="BL223">
+        <v>0</v>
+      </c>
+      <c r="BM223">
+        <v>0</v>
+      </c>
+      <c r="BN223">
+        <v>0</v>
+      </c>
+      <c r="BO223">
+        <v>1</v>
+      </c>
+      <c r="BP223">
+        <v>0</v>
+      </c>
+      <c r="BQ223">
+        <v>0</v>
+      </c>
+      <c r="BR223">
+        <v>0</v>
+      </c>
+      <c r="BS223">
+        <v>0</v>
+      </c>
+      <c r="BT223">
+        <v>0</v>
+      </c>
+      <c r="BU223">
+        <v>0</v>
+      </c>
+      <c r="BV223">
+        <v>0</v>
+      </c>
+      <c r="BW223">
+        <v>0</v>
+      </c>
+      <c r="BX223">
+        <v>0</v>
+      </c>
+      <c r="BY223">
+        <v>0</v>
+      </c>
+      <c r="BZ223">
+        <v>0</v>
+      </c>
+      <c r="CA223">
+        <v>0</v>
+      </c>
+      <c r="CB223">
+        <v>0</v>
+      </c>
+      <c r="CC223">
+        <v>0</v>
+      </c>
+      <c r="CD223">
+        <v>0</v>
+      </c>
+      <c r="CE223">
+        <v>0</v>
+      </c>
+      <c r="CF223">
+        <v>0</v>
+      </c>
+      <c r="CG223">
+        <v>0</v>
+      </c>
+      <c r="CH223">
+        <v>0</v>
+      </c>
+      <c r="CI223">
+        <v>0</v>
+      </c>
+      <c r="CJ223">
+        <v>0</v>
+      </c>
+      <c r="CK223">
+        <v>0</v>
+      </c>
+      <c r="CL223">
+        <v>0</v>
+      </c>
+      <c r="CM223">
+        <v>0</v>
+      </c>
+      <c r="CN223">
+        <v>0</v>
+      </c>
+      <c r="CO223">
+        <v>0</v>
+      </c>
+      <c r="CP223">
+        <v>0</v>
+      </c>
+      <c r="CQ223">
+        <v>1</v>
+      </c>
+      <c r="CR223">
+        <v>0</v>
+      </c>
+      <c r="CS223">
+        <v>0</v>
+      </c>
+      <c r="CT223">
+        <v>0</v>
+      </c>
+      <c r="CU223">
+        <v>0</v>
+      </c>
+      <c r="CV223">
+        <v>0</v>
+      </c>
+      <c r="CW223">
+        <v>0</v>
+      </c>
+      <c r="CX223">
+        <v>0</v>
+      </c>
+      <c r="CY223">
+        <v>0</v>
+      </c>
+      <c r="CZ223">
+        <v>0</v>
+      </c>
+      <c r="DA223">
+        <v>0</v>
+      </c>
+      <c r="DB223">
+        <v>0</v>
+      </c>
+      <c r="DC223">
+        <v>0</v>
+      </c>
+      <c r="DD223">
+        <v>0</v>
+      </c>
+      <c r="DE223">
+        <v>0</v>
+      </c>
+      <c r="DF223">
+        <v>0</v>
+      </c>
+      <c r="DG223">
+        <v>0</v>
+      </c>
+      <c r="DH223">
+        <v>1</v>
+      </c>
+      <c r="DI223">
+        <v>0</v>
+      </c>
+      <c r="DJ223">
+        <v>0</v>
+      </c>
+      <c r="DK223">
+        <v>0</v>
+      </c>
+      <c r="DL223">
+        <v>0</v>
+      </c>
+      <c r="DM223">
+        <v>0</v>
+      </c>
+      <c r="DN223">
+        <v>0</v>
+      </c>
+      <c r="DO223">
+        <v>0</v>
+      </c>
+      <c r="DP223">
+        <v>0</v>
+      </c>
+      <c r="DQ223">
+        <v>0</v>
+      </c>
+      <c r="DR223">
+        <v>0</v>
+      </c>
+      <c r="DS223">
+        <v>0</v>
+      </c>
+      <c r="DT223">
+        <v>0</v>
+      </c>
+      <c r="DU223">
+        <v>0</v>
+      </c>
+      <c r="DV223">
+        <v>0</v>
+      </c>
+      <c r="DW223">
+        <v>0</v>
+      </c>
+      <c r="DX223">
+        <v>0</v>
+      </c>
+      <c r="DY223">
+        <v>0</v>
+      </c>
+      <c r="DZ223">
+        <v>0</v>
+      </c>
+      <c r="EA223">
+        <v>1</v>
+      </c>
+      <c r="EB223">
+        <v>0</v>
+      </c>
+      <c r="EC223">
+        <v>0</v>
+      </c>
+      <c r="ED223">
+        <v>0</v>
+      </c>
+      <c r="EE223">
+        <v>0</v>
+      </c>
+      <c r="EF223">
+        <v>0</v>
+      </c>
+      <c r="EG223">
+        <v>0</v>
+      </c>
+      <c r="EH223">
+        <v>0</v>
+      </c>
+      <c r="EI223">
+        <v>0</v>
+      </c>
+      <c r="EJ223">
+        <v>0</v>
+      </c>
+      <c r="EK223">
+        <v>0</v>
+      </c>
+      <c r="EL223">
+        <v>0</v>
+      </c>
+      <c r="EM223">
+        <v>0</v>
+      </c>
+      <c r="EN223">
+        <v>0</v>
+      </c>
+      <c r="EO223">
+        <v>0</v>
+      </c>
+      <c r="EP223">
+        <v>0</v>
+      </c>
+      <c r="EQ223">
+        <v>0</v>
+      </c>
+      <c r="ER223">
+        <v>0</v>
+      </c>
+      <c r="ES223">
+        <v>1</v>
+      </c>
+      <c r="ET223">
+        <v>1</v>
+      </c>
+      <c r="EU223">
+        <v>0</v>
+      </c>
+      <c r="EV223">
+        <v>0</v>
+      </c>
+      <c r="EW223">
+        <v>0</v>
+      </c>
+      <c r="EX223">
+        <v>0</v>
+      </c>
+      <c r="EY223">
+        <v>0</v>
+      </c>
+      <c r="EZ223">
+        <v>0</v>
+      </c>
+      <c r="FA223">
+        <v>0</v>
+      </c>
+      <c r="FB223">
+        <v>0</v>
+      </c>
+      <c r="FC223">
+        <v>0</v>
+      </c>
+      <c r="FD223">
+        <v>0</v>
+      </c>
+      <c r="FE223">
+        <v>0</v>
+      </c>
+      <c r="FF223">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FF223"/>
+  <dimension ref="A1:FF224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -112613,6 +112613,508 @@
         <v>0</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Academic Literature on Racial and Ethnic Disparities in Reproductive Medicine in the US</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, rcartocolor, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2025/2025-02-25/20250225.R</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2025/2025-02-25///20250225_art.png</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>0</v>
+      </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
+      <c r="AP224">
+        <v>0</v>
+      </c>
+      <c r="AQ224">
+        <v>0</v>
+      </c>
+      <c r="AR224">
+        <v>0</v>
+      </c>
+      <c r="AS224">
+        <v>0</v>
+      </c>
+      <c r="AT224">
+        <v>0</v>
+      </c>
+      <c r="AU224">
+        <v>0</v>
+      </c>
+      <c r="AV224">
+        <v>0</v>
+      </c>
+      <c r="AW224">
+        <v>0</v>
+      </c>
+      <c r="AX224">
+        <v>0</v>
+      </c>
+      <c r="AY224">
+        <v>0</v>
+      </c>
+      <c r="AZ224">
+        <v>0</v>
+      </c>
+      <c r="BA224">
+        <v>0</v>
+      </c>
+      <c r="BB224">
+        <v>0</v>
+      </c>
+      <c r="BC224">
+        <v>0</v>
+      </c>
+      <c r="BD224">
+        <v>0</v>
+      </c>
+      <c r="BE224">
+        <v>0</v>
+      </c>
+      <c r="BF224">
+        <v>0</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>0</v>
+      </c>
+      <c r="BI224">
+        <v>0</v>
+      </c>
+      <c r="BJ224">
+        <v>1</v>
+      </c>
+      <c r="BK224">
+        <v>0</v>
+      </c>
+      <c r="BL224">
+        <v>0</v>
+      </c>
+      <c r="BM224">
+        <v>0</v>
+      </c>
+      <c r="BN224">
+        <v>0</v>
+      </c>
+      <c r="BO224">
+        <v>1</v>
+      </c>
+      <c r="BP224">
+        <v>0</v>
+      </c>
+      <c r="BQ224">
+        <v>0</v>
+      </c>
+      <c r="BR224">
+        <v>0</v>
+      </c>
+      <c r="BS224">
+        <v>0</v>
+      </c>
+      <c r="BT224">
+        <v>0</v>
+      </c>
+      <c r="BU224">
+        <v>0</v>
+      </c>
+      <c r="BV224">
+        <v>0</v>
+      </c>
+      <c r="BW224">
+        <v>0</v>
+      </c>
+      <c r="BX224">
+        <v>0</v>
+      </c>
+      <c r="BY224">
+        <v>0</v>
+      </c>
+      <c r="BZ224">
+        <v>0</v>
+      </c>
+      <c r="CA224">
+        <v>0</v>
+      </c>
+      <c r="CB224">
+        <v>0</v>
+      </c>
+      <c r="CC224">
+        <v>0</v>
+      </c>
+      <c r="CD224">
+        <v>0</v>
+      </c>
+      <c r="CE224">
+        <v>0</v>
+      </c>
+      <c r="CF224">
+        <v>0</v>
+      </c>
+      <c r="CG224">
+        <v>0</v>
+      </c>
+      <c r="CH224">
+        <v>0</v>
+      </c>
+      <c r="CI224">
+        <v>0</v>
+      </c>
+      <c r="CJ224">
+        <v>0</v>
+      </c>
+      <c r="CK224">
+        <v>0</v>
+      </c>
+      <c r="CL224">
+        <v>0</v>
+      </c>
+      <c r="CM224">
+        <v>0</v>
+      </c>
+      <c r="CN224">
+        <v>0</v>
+      </c>
+      <c r="CO224">
+        <v>0</v>
+      </c>
+      <c r="CP224">
+        <v>0</v>
+      </c>
+      <c r="CQ224">
+        <v>1</v>
+      </c>
+      <c r="CR224">
+        <v>0</v>
+      </c>
+      <c r="CS224">
+        <v>0</v>
+      </c>
+      <c r="CT224">
+        <v>0</v>
+      </c>
+      <c r="CU224">
+        <v>0</v>
+      </c>
+      <c r="CV224">
+        <v>0</v>
+      </c>
+      <c r="CW224">
+        <v>0</v>
+      </c>
+      <c r="CX224">
+        <v>0</v>
+      </c>
+      <c r="CY224">
+        <v>0</v>
+      </c>
+      <c r="CZ224">
+        <v>0</v>
+      </c>
+      <c r="DA224">
+        <v>0</v>
+      </c>
+      <c r="DB224">
+        <v>0</v>
+      </c>
+      <c r="DC224">
+        <v>0</v>
+      </c>
+      <c r="DD224">
+        <v>0</v>
+      </c>
+      <c r="DE224">
+        <v>0</v>
+      </c>
+      <c r="DF224">
+        <v>0</v>
+      </c>
+      <c r="DG224">
+        <v>0</v>
+      </c>
+      <c r="DH224">
+        <v>0</v>
+      </c>
+      <c r="DI224">
+        <v>0</v>
+      </c>
+      <c r="DJ224">
+        <v>0</v>
+      </c>
+      <c r="DK224">
+        <v>1</v>
+      </c>
+      <c r="DL224">
+        <v>0</v>
+      </c>
+      <c r="DM224">
+        <v>0</v>
+      </c>
+      <c r="DN224">
+        <v>0</v>
+      </c>
+      <c r="DO224">
+        <v>0</v>
+      </c>
+      <c r="DP224">
+        <v>0</v>
+      </c>
+      <c r="DQ224">
+        <v>0</v>
+      </c>
+      <c r="DR224">
+        <v>0</v>
+      </c>
+      <c r="DS224">
+        <v>0</v>
+      </c>
+      <c r="DT224">
+        <v>0</v>
+      </c>
+      <c r="DU224">
+        <v>0</v>
+      </c>
+      <c r="DV224">
+        <v>0</v>
+      </c>
+      <c r="DW224">
+        <v>0</v>
+      </c>
+      <c r="DX224">
+        <v>0</v>
+      </c>
+      <c r="DY224">
+        <v>0</v>
+      </c>
+      <c r="DZ224">
+        <v>0</v>
+      </c>
+      <c r="EA224">
+        <v>1</v>
+      </c>
+      <c r="EB224">
+        <v>0</v>
+      </c>
+      <c r="EC224">
+        <v>0</v>
+      </c>
+      <c r="ED224">
+        <v>0</v>
+      </c>
+      <c r="EE224">
+        <v>0</v>
+      </c>
+      <c r="EF224">
+        <v>0</v>
+      </c>
+      <c r="EG224">
+        <v>0</v>
+      </c>
+      <c r="EH224">
+        <v>0</v>
+      </c>
+      <c r="EI224">
+        <v>0</v>
+      </c>
+      <c r="EJ224">
+        <v>0</v>
+      </c>
+      <c r="EK224">
+        <v>0</v>
+      </c>
+      <c r="EL224">
+        <v>0</v>
+      </c>
+      <c r="EM224">
+        <v>0</v>
+      </c>
+      <c r="EN224">
+        <v>0</v>
+      </c>
+      <c r="EO224">
+        <v>0</v>
+      </c>
+      <c r="EP224">
+        <v>0</v>
+      </c>
+      <c r="EQ224">
+        <v>0</v>
+      </c>
+      <c r="ER224">
+        <v>0</v>
+      </c>
+      <c r="ES224">
+        <v>1</v>
+      </c>
+      <c r="ET224">
+        <v>1</v>
+      </c>
+      <c r="EU224">
+        <v>0</v>
+      </c>
+      <c r="EV224">
+        <v>0</v>
+      </c>
+      <c r="EW224">
+        <v>0</v>
+      </c>
+      <c r="EX224">
+        <v>0</v>
+      </c>
+      <c r="EY224">
+        <v>0</v>
+      </c>
+      <c r="EZ224">
+        <v>0</v>
+      </c>
+      <c r="FA224">
+        <v>0</v>
+      </c>
+      <c r="FB224">
+        <v>0</v>
+      </c>
+      <c r="FC224">
+        <v>0</v>
+      </c>
+      <c r="FD224">
+        <v>0</v>
+      </c>
+      <c r="FE224">
+        <v>0</v>
+      </c>
+      <c r="FF224">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FF224"/>
+  <dimension ref="A1:FF225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -113115,6 +113115,508 @@
         <v>0</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Long Beach Animal Shelter</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tsibble, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2025/2025-03-04/20250304.R</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2025/2025-03-04///20250304.png</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>0</v>
+      </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
+      <c r="AP225">
+        <v>0</v>
+      </c>
+      <c r="AQ225">
+        <v>0</v>
+      </c>
+      <c r="AR225">
+        <v>0</v>
+      </c>
+      <c r="AS225">
+        <v>0</v>
+      </c>
+      <c r="AT225">
+        <v>0</v>
+      </c>
+      <c r="AU225">
+        <v>0</v>
+      </c>
+      <c r="AV225">
+        <v>0</v>
+      </c>
+      <c r="AW225">
+        <v>0</v>
+      </c>
+      <c r="AX225">
+        <v>0</v>
+      </c>
+      <c r="AY225">
+        <v>0</v>
+      </c>
+      <c r="AZ225">
+        <v>0</v>
+      </c>
+      <c r="BA225">
+        <v>0</v>
+      </c>
+      <c r="BB225">
+        <v>0</v>
+      </c>
+      <c r="BC225">
+        <v>0</v>
+      </c>
+      <c r="BD225">
+        <v>0</v>
+      </c>
+      <c r="BE225">
+        <v>0</v>
+      </c>
+      <c r="BF225">
+        <v>0</v>
+      </c>
+      <c r="BG225">
+        <v>0</v>
+      </c>
+      <c r="BH225">
+        <v>0</v>
+      </c>
+      <c r="BI225">
+        <v>0</v>
+      </c>
+      <c r="BJ225">
+        <v>1</v>
+      </c>
+      <c r="BK225">
+        <v>0</v>
+      </c>
+      <c r="BL225">
+        <v>0</v>
+      </c>
+      <c r="BM225">
+        <v>0</v>
+      </c>
+      <c r="BN225">
+        <v>0</v>
+      </c>
+      <c r="BO225">
+        <v>1</v>
+      </c>
+      <c r="BP225">
+        <v>0</v>
+      </c>
+      <c r="BQ225">
+        <v>0</v>
+      </c>
+      <c r="BR225">
+        <v>0</v>
+      </c>
+      <c r="BS225">
+        <v>0</v>
+      </c>
+      <c r="BT225">
+        <v>0</v>
+      </c>
+      <c r="BU225">
+        <v>0</v>
+      </c>
+      <c r="BV225">
+        <v>0</v>
+      </c>
+      <c r="BW225">
+        <v>0</v>
+      </c>
+      <c r="BX225">
+        <v>0</v>
+      </c>
+      <c r="BY225">
+        <v>0</v>
+      </c>
+      <c r="BZ225">
+        <v>0</v>
+      </c>
+      <c r="CA225">
+        <v>0</v>
+      </c>
+      <c r="CB225">
+        <v>0</v>
+      </c>
+      <c r="CC225">
+        <v>0</v>
+      </c>
+      <c r="CD225">
+        <v>0</v>
+      </c>
+      <c r="CE225">
+        <v>0</v>
+      </c>
+      <c r="CF225">
+        <v>0</v>
+      </c>
+      <c r="CG225">
+        <v>0</v>
+      </c>
+      <c r="CH225">
+        <v>0</v>
+      </c>
+      <c r="CI225">
+        <v>0</v>
+      </c>
+      <c r="CJ225">
+        <v>0</v>
+      </c>
+      <c r="CK225">
+        <v>0</v>
+      </c>
+      <c r="CL225">
+        <v>0</v>
+      </c>
+      <c r="CM225">
+        <v>0</v>
+      </c>
+      <c r="CN225">
+        <v>0</v>
+      </c>
+      <c r="CO225">
+        <v>0</v>
+      </c>
+      <c r="CP225">
+        <v>0</v>
+      </c>
+      <c r="CQ225">
+        <v>1</v>
+      </c>
+      <c r="CR225">
+        <v>0</v>
+      </c>
+      <c r="CS225">
+        <v>0</v>
+      </c>
+      <c r="CT225">
+        <v>0</v>
+      </c>
+      <c r="CU225">
+        <v>0</v>
+      </c>
+      <c r="CV225">
+        <v>0</v>
+      </c>
+      <c r="CW225">
+        <v>0</v>
+      </c>
+      <c r="CX225">
+        <v>0</v>
+      </c>
+      <c r="CY225">
+        <v>0</v>
+      </c>
+      <c r="CZ225">
+        <v>0</v>
+      </c>
+      <c r="DA225">
+        <v>0</v>
+      </c>
+      <c r="DB225">
+        <v>0</v>
+      </c>
+      <c r="DC225">
+        <v>0</v>
+      </c>
+      <c r="DD225">
+        <v>0</v>
+      </c>
+      <c r="DE225">
+        <v>0</v>
+      </c>
+      <c r="DF225">
+        <v>0</v>
+      </c>
+      <c r="DG225">
+        <v>0</v>
+      </c>
+      <c r="DH225">
+        <v>0</v>
+      </c>
+      <c r="DI225">
+        <v>0</v>
+      </c>
+      <c r="DJ225">
+        <v>0</v>
+      </c>
+      <c r="DK225">
+        <v>0</v>
+      </c>
+      <c r="DL225">
+        <v>0</v>
+      </c>
+      <c r="DM225">
+        <v>0</v>
+      </c>
+      <c r="DN225">
+        <v>0</v>
+      </c>
+      <c r="DO225">
+        <v>0</v>
+      </c>
+      <c r="DP225">
+        <v>0</v>
+      </c>
+      <c r="DQ225">
+        <v>0</v>
+      </c>
+      <c r="DR225">
+        <v>0</v>
+      </c>
+      <c r="DS225">
+        <v>0</v>
+      </c>
+      <c r="DT225">
+        <v>0</v>
+      </c>
+      <c r="DU225">
+        <v>0</v>
+      </c>
+      <c r="DV225">
+        <v>0</v>
+      </c>
+      <c r="DW225">
+        <v>0</v>
+      </c>
+      <c r="DX225">
+        <v>0</v>
+      </c>
+      <c r="DY225">
+        <v>0</v>
+      </c>
+      <c r="DZ225">
+        <v>0</v>
+      </c>
+      <c r="EA225">
+        <v>1</v>
+      </c>
+      <c r="EB225">
+        <v>0</v>
+      </c>
+      <c r="EC225">
+        <v>0</v>
+      </c>
+      <c r="ED225">
+        <v>0</v>
+      </c>
+      <c r="EE225">
+        <v>0</v>
+      </c>
+      <c r="EF225">
+        <v>0</v>
+      </c>
+      <c r="EG225">
+        <v>0</v>
+      </c>
+      <c r="EH225">
+        <v>0</v>
+      </c>
+      <c r="EI225">
+        <v>0</v>
+      </c>
+      <c r="EJ225">
+        <v>0</v>
+      </c>
+      <c r="EK225">
+        <v>0</v>
+      </c>
+      <c r="EL225">
+        <v>0</v>
+      </c>
+      <c r="EM225">
+        <v>0</v>
+      </c>
+      <c r="EN225">
+        <v>0</v>
+      </c>
+      <c r="EO225">
+        <v>0</v>
+      </c>
+      <c r="EP225">
+        <v>0</v>
+      </c>
+      <c r="EQ225">
+        <v>0</v>
+      </c>
+      <c r="ER225">
+        <v>0</v>
+      </c>
+      <c r="ES225">
+        <v>1</v>
+      </c>
+      <c r="ET225">
+        <v>1</v>
+      </c>
+      <c r="EU225">
+        <v>0</v>
+      </c>
+      <c r="EV225">
+        <v>0</v>
+      </c>
+      <c r="EW225">
+        <v>0</v>
+      </c>
+      <c r="EX225">
+        <v>0</v>
+      </c>
+      <c r="EY225">
+        <v>0</v>
+      </c>
+      <c r="EZ225">
+        <v>1</v>
+      </c>
+      <c r="FA225">
+        <v>0</v>
+      </c>
+      <c r="FB225">
+        <v>0</v>
+      </c>
+      <c r="FC225">
+        <v>0</v>
+      </c>
+      <c r="FD225">
+        <v>0</v>
+      </c>
+      <c r="FE225">
+        <v>0</v>
+      </c>
+      <c r="FF225">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ227"/>
+  <dimension ref="A1:FJ228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -117353,6 +117353,520 @@
         <v>0</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Amazon's Annual Reports</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, geomtextpath, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2025/2025-03-25/20250325.R</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2025/2025-03-25///20250325.png</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>1</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>0</v>
+      </c>
+      <c r="AO228">
+        <v>0</v>
+      </c>
+      <c r="AP228">
+        <v>0</v>
+      </c>
+      <c r="AQ228">
+        <v>0</v>
+      </c>
+      <c r="AR228">
+        <v>0</v>
+      </c>
+      <c r="AS228">
+        <v>0</v>
+      </c>
+      <c r="AT228">
+        <v>0</v>
+      </c>
+      <c r="AU228">
+        <v>0</v>
+      </c>
+      <c r="AV228">
+        <v>0</v>
+      </c>
+      <c r="AW228">
+        <v>0</v>
+      </c>
+      <c r="AX228">
+        <v>0</v>
+      </c>
+      <c r="AY228">
+        <v>0</v>
+      </c>
+      <c r="AZ228">
+        <v>0</v>
+      </c>
+      <c r="BA228">
+        <v>0</v>
+      </c>
+      <c r="BB228">
+        <v>0</v>
+      </c>
+      <c r="BC228">
+        <v>0</v>
+      </c>
+      <c r="BD228">
+        <v>0</v>
+      </c>
+      <c r="BE228">
+        <v>0</v>
+      </c>
+      <c r="BF228">
+        <v>0</v>
+      </c>
+      <c r="BG228">
+        <v>0</v>
+      </c>
+      <c r="BH228">
+        <v>0</v>
+      </c>
+      <c r="BI228">
+        <v>0</v>
+      </c>
+      <c r="BJ228">
+        <v>0</v>
+      </c>
+      <c r="BK228">
+        <v>1</v>
+      </c>
+      <c r="BL228">
+        <v>0</v>
+      </c>
+      <c r="BM228">
+        <v>0</v>
+      </c>
+      <c r="BN228">
+        <v>0</v>
+      </c>
+      <c r="BO228">
+        <v>0</v>
+      </c>
+      <c r="BP228">
+        <v>1</v>
+      </c>
+      <c r="BQ228">
+        <v>0</v>
+      </c>
+      <c r="BR228">
+        <v>0</v>
+      </c>
+      <c r="BS228">
+        <v>0</v>
+      </c>
+      <c r="BT228">
+        <v>0</v>
+      </c>
+      <c r="BU228">
+        <v>0</v>
+      </c>
+      <c r="BV228">
+        <v>0</v>
+      </c>
+      <c r="BW228">
+        <v>0</v>
+      </c>
+      <c r="BX228">
+        <v>0</v>
+      </c>
+      <c r="BY228">
+        <v>0</v>
+      </c>
+      <c r="BZ228">
+        <v>0</v>
+      </c>
+      <c r="CA228">
+        <v>0</v>
+      </c>
+      <c r="CB228">
+        <v>0</v>
+      </c>
+      <c r="CC228">
+        <v>0</v>
+      </c>
+      <c r="CD228">
+        <v>0</v>
+      </c>
+      <c r="CE228">
+        <v>0</v>
+      </c>
+      <c r="CF228">
+        <v>0</v>
+      </c>
+      <c r="CG228">
+        <v>0</v>
+      </c>
+      <c r="CH228">
+        <v>0</v>
+      </c>
+      <c r="CI228">
+        <v>0</v>
+      </c>
+      <c r="CJ228">
+        <v>0</v>
+      </c>
+      <c r="CK228">
+        <v>0</v>
+      </c>
+      <c r="CL228">
+        <v>0</v>
+      </c>
+      <c r="CM228">
+        <v>0</v>
+      </c>
+      <c r="CN228">
+        <v>0</v>
+      </c>
+      <c r="CO228">
+        <v>0</v>
+      </c>
+      <c r="CP228">
+        <v>0</v>
+      </c>
+      <c r="CQ228">
+        <v>0</v>
+      </c>
+      <c r="CR228">
+        <v>1</v>
+      </c>
+      <c r="CS228">
+        <v>0</v>
+      </c>
+      <c r="CT228">
+        <v>0</v>
+      </c>
+      <c r="CU228">
+        <v>0</v>
+      </c>
+      <c r="CV228">
+        <v>0</v>
+      </c>
+      <c r="CW228">
+        <v>0</v>
+      </c>
+      <c r="CX228">
+        <v>0</v>
+      </c>
+      <c r="CY228">
+        <v>0</v>
+      </c>
+      <c r="CZ228">
+        <v>0</v>
+      </c>
+      <c r="DA228">
+        <v>0</v>
+      </c>
+      <c r="DB228">
+        <v>0</v>
+      </c>
+      <c r="DC228">
+        <v>0</v>
+      </c>
+      <c r="DD228">
+        <v>0</v>
+      </c>
+      <c r="DE228">
+        <v>0</v>
+      </c>
+      <c r="DF228">
+        <v>0</v>
+      </c>
+      <c r="DG228">
+        <v>0</v>
+      </c>
+      <c r="DH228">
+        <v>0</v>
+      </c>
+      <c r="DI228">
+        <v>0</v>
+      </c>
+      <c r="DJ228">
+        <v>0</v>
+      </c>
+      <c r="DK228">
+        <v>0</v>
+      </c>
+      <c r="DL228">
+        <v>0</v>
+      </c>
+      <c r="DM228">
+        <v>0</v>
+      </c>
+      <c r="DN228">
+        <v>0</v>
+      </c>
+      <c r="DO228">
+        <v>0</v>
+      </c>
+      <c r="DP228">
+        <v>0</v>
+      </c>
+      <c r="DQ228">
+        <v>0</v>
+      </c>
+      <c r="DR228">
+        <v>0</v>
+      </c>
+      <c r="DS228">
+        <v>0</v>
+      </c>
+      <c r="DT228">
+        <v>0</v>
+      </c>
+      <c r="DU228">
+        <v>0</v>
+      </c>
+      <c r="DV228">
+        <v>0</v>
+      </c>
+      <c r="DW228">
+        <v>0</v>
+      </c>
+      <c r="DX228">
+        <v>0</v>
+      </c>
+      <c r="DY228">
+        <v>0</v>
+      </c>
+      <c r="DZ228">
+        <v>0</v>
+      </c>
+      <c r="EA228">
+        <v>0</v>
+      </c>
+      <c r="EB228">
+        <v>0</v>
+      </c>
+      <c r="EC228">
+        <v>0</v>
+      </c>
+      <c r="ED228">
+        <v>0</v>
+      </c>
+      <c r="EE228">
+        <v>1</v>
+      </c>
+      <c r="EF228">
+        <v>0</v>
+      </c>
+      <c r="EG228">
+        <v>0</v>
+      </c>
+      <c r="EH228">
+        <v>0</v>
+      </c>
+      <c r="EI228">
+        <v>0</v>
+      </c>
+      <c r="EJ228">
+        <v>0</v>
+      </c>
+      <c r="EK228">
+        <v>0</v>
+      </c>
+      <c r="EL228">
+        <v>0</v>
+      </c>
+      <c r="EM228">
+        <v>0</v>
+      </c>
+      <c r="EN228">
+        <v>0</v>
+      </c>
+      <c r="EO228">
+        <v>0</v>
+      </c>
+      <c r="EP228">
+        <v>0</v>
+      </c>
+      <c r="EQ228">
+        <v>0</v>
+      </c>
+      <c r="ER228">
+        <v>0</v>
+      </c>
+      <c r="ES228">
+        <v>0</v>
+      </c>
+      <c r="ET228">
+        <v>0</v>
+      </c>
+      <c r="EU228">
+        <v>0</v>
+      </c>
+      <c r="EV228">
+        <v>0</v>
+      </c>
+      <c r="EW228">
+        <v>1</v>
+      </c>
+      <c r="EX228">
+        <v>1</v>
+      </c>
+      <c r="EY228">
+        <v>0</v>
+      </c>
+      <c r="EZ228">
+        <v>0</v>
+      </c>
+      <c r="FA228">
+        <v>0</v>
+      </c>
+      <c r="FB228">
+        <v>0</v>
+      </c>
+      <c r="FC228">
+        <v>0</v>
+      </c>
+      <c r="FD228">
+        <v>0</v>
+      </c>
+      <c r="FE228">
+        <v>0</v>
+      </c>
+      <c r="FF228">
+        <v>0</v>
+      </c>
+      <c r="FG228">
+        <v>0</v>
+      </c>
+      <c r="FH228">
+        <v>0</v>
+      </c>
+      <c r="FI228">
+        <v>0</v>
+      </c>
+      <c r="FJ228">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ228"/>
+  <dimension ref="A1:FJ229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -117867,6 +117867,520 @@
         <v>0</v>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggstream, ggimage, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2025/2025-04-01/20250401.R</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2025/2025-04-01///20250401.png</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>0</v>
+      </c>
+      <c r="AO229">
+        <v>0</v>
+      </c>
+      <c r="AP229">
+        <v>0</v>
+      </c>
+      <c r="AQ229">
+        <v>0</v>
+      </c>
+      <c r="AR229">
+        <v>1</v>
+      </c>
+      <c r="AS229">
+        <v>0</v>
+      </c>
+      <c r="AT229">
+        <v>0</v>
+      </c>
+      <c r="AU229">
+        <v>0</v>
+      </c>
+      <c r="AV229">
+        <v>0</v>
+      </c>
+      <c r="AW229">
+        <v>0</v>
+      </c>
+      <c r="AX229">
+        <v>0</v>
+      </c>
+      <c r="AY229">
+        <v>0</v>
+      </c>
+      <c r="AZ229">
+        <v>0</v>
+      </c>
+      <c r="BA229">
+        <v>0</v>
+      </c>
+      <c r="BB229">
+        <v>0</v>
+      </c>
+      <c r="BC229">
+        <v>0</v>
+      </c>
+      <c r="BD229">
+        <v>0</v>
+      </c>
+      <c r="BE229">
+        <v>0</v>
+      </c>
+      <c r="BF229">
+        <v>0</v>
+      </c>
+      <c r="BG229">
+        <v>0</v>
+      </c>
+      <c r="BH229">
+        <v>0</v>
+      </c>
+      <c r="BI229">
+        <v>0</v>
+      </c>
+      <c r="BJ229">
+        <v>1</v>
+      </c>
+      <c r="BK229">
+        <v>1</v>
+      </c>
+      <c r="BL229">
+        <v>0</v>
+      </c>
+      <c r="BM229">
+        <v>0</v>
+      </c>
+      <c r="BN229">
+        <v>0</v>
+      </c>
+      <c r="BO229">
+        <v>0</v>
+      </c>
+      <c r="BP229">
+        <v>1</v>
+      </c>
+      <c r="BQ229">
+        <v>0</v>
+      </c>
+      <c r="BR229">
+        <v>0</v>
+      </c>
+      <c r="BS229">
+        <v>0</v>
+      </c>
+      <c r="BT229">
+        <v>0</v>
+      </c>
+      <c r="BU229">
+        <v>0</v>
+      </c>
+      <c r="BV229">
+        <v>0</v>
+      </c>
+      <c r="BW229">
+        <v>0</v>
+      </c>
+      <c r="BX229">
+        <v>0</v>
+      </c>
+      <c r="BY229">
+        <v>0</v>
+      </c>
+      <c r="BZ229">
+        <v>0</v>
+      </c>
+      <c r="CA229">
+        <v>0</v>
+      </c>
+      <c r="CB229">
+        <v>0</v>
+      </c>
+      <c r="CC229">
+        <v>0</v>
+      </c>
+      <c r="CD229">
+        <v>0</v>
+      </c>
+      <c r="CE229">
+        <v>0</v>
+      </c>
+      <c r="CF229">
+        <v>0</v>
+      </c>
+      <c r="CG229">
+        <v>0</v>
+      </c>
+      <c r="CH229">
+        <v>0</v>
+      </c>
+      <c r="CI229">
+        <v>0</v>
+      </c>
+      <c r="CJ229">
+        <v>0</v>
+      </c>
+      <c r="CK229">
+        <v>0</v>
+      </c>
+      <c r="CL229">
+        <v>0</v>
+      </c>
+      <c r="CM229">
+        <v>0</v>
+      </c>
+      <c r="CN229">
+        <v>0</v>
+      </c>
+      <c r="CO229">
+        <v>0</v>
+      </c>
+      <c r="CP229">
+        <v>0</v>
+      </c>
+      <c r="CQ229">
+        <v>0</v>
+      </c>
+      <c r="CR229">
+        <v>1</v>
+      </c>
+      <c r="CS229">
+        <v>0</v>
+      </c>
+      <c r="CT229">
+        <v>0</v>
+      </c>
+      <c r="CU229">
+        <v>0</v>
+      </c>
+      <c r="CV229">
+        <v>0</v>
+      </c>
+      <c r="CW229">
+        <v>0</v>
+      </c>
+      <c r="CX229">
+        <v>0</v>
+      </c>
+      <c r="CY229">
+        <v>0</v>
+      </c>
+      <c r="CZ229">
+        <v>0</v>
+      </c>
+      <c r="DA229">
+        <v>0</v>
+      </c>
+      <c r="DB229">
+        <v>0</v>
+      </c>
+      <c r="DC229">
+        <v>0</v>
+      </c>
+      <c r="DD229">
+        <v>0</v>
+      </c>
+      <c r="DE229">
+        <v>0</v>
+      </c>
+      <c r="DF229">
+        <v>0</v>
+      </c>
+      <c r="DG229">
+        <v>0</v>
+      </c>
+      <c r="DH229">
+        <v>0</v>
+      </c>
+      <c r="DI229">
+        <v>0</v>
+      </c>
+      <c r="DJ229">
+        <v>0</v>
+      </c>
+      <c r="DK229">
+        <v>0</v>
+      </c>
+      <c r="DL229">
+        <v>0</v>
+      </c>
+      <c r="DM229">
+        <v>0</v>
+      </c>
+      <c r="DN229">
+        <v>0</v>
+      </c>
+      <c r="DO229">
+        <v>0</v>
+      </c>
+      <c r="DP229">
+        <v>0</v>
+      </c>
+      <c r="DQ229">
+        <v>0</v>
+      </c>
+      <c r="DR229">
+        <v>0</v>
+      </c>
+      <c r="DS229">
+        <v>0</v>
+      </c>
+      <c r="DT229">
+        <v>0</v>
+      </c>
+      <c r="DU229">
+        <v>0</v>
+      </c>
+      <c r="DV229">
+        <v>0</v>
+      </c>
+      <c r="DW229">
+        <v>0</v>
+      </c>
+      <c r="DX229">
+        <v>0</v>
+      </c>
+      <c r="DY229">
+        <v>0</v>
+      </c>
+      <c r="DZ229">
+        <v>0</v>
+      </c>
+      <c r="EA229">
+        <v>0</v>
+      </c>
+      <c r="EB229">
+        <v>0</v>
+      </c>
+      <c r="EC229">
+        <v>0</v>
+      </c>
+      <c r="ED229">
+        <v>0</v>
+      </c>
+      <c r="EE229">
+        <v>1</v>
+      </c>
+      <c r="EF229">
+        <v>0</v>
+      </c>
+      <c r="EG229">
+        <v>0</v>
+      </c>
+      <c r="EH229">
+        <v>0</v>
+      </c>
+      <c r="EI229">
+        <v>0</v>
+      </c>
+      <c r="EJ229">
+        <v>0</v>
+      </c>
+      <c r="EK229">
+        <v>0</v>
+      </c>
+      <c r="EL229">
+        <v>0</v>
+      </c>
+      <c r="EM229">
+        <v>0</v>
+      </c>
+      <c r="EN229">
+        <v>0</v>
+      </c>
+      <c r="EO229">
+        <v>0</v>
+      </c>
+      <c r="EP229">
+        <v>0</v>
+      </c>
+      <c r="EQ229">
+        <v>0</v>
+      </c>
+      <c r="ER229">
+        <v>0</v>
+      </c>
+      <c r="ES229">
+        <v>0</v>
+      </c>
+      <c r="ET229">
+        <v>0</v>
+      </c>
+      <c r="EU229">
+        <v>0</v>
+      </c>
+      <c r="EV229">
+        <v>0</v>
+      </c>
+      <c r="EW229">
+        <v>1</v>
+      </c>
+      <c r="EX229">
+        <v>1</v>
+      </c>
+      <c r="EY229">
+        <v>0</v>
+      </c>
+      <c r="EZ229">
+        <v>0</v>
+      </c>
+      <c r="FA229">
+        <v>0</v>
+      </c>
+      <c r="FB229">
+        <v>0</v>
+      </c>
+      <c r="FC229">
+        <v>0</v>
+      </c>
+      <c r="FD229">
+        <v>0</v>
+      </c>
+      <c r="FE229">
+        <v>0</v>
+      </c>
+      <c r="FF229">
+        <v>0</v>
+      </c>
+      <c r="FG229">
+        <v>0</v>
+      </c>
+      <c r="FH229">
+        <v>0</v>
+      </c>
+      <c r="FI229">
+        <v>0</v>
+      </c>
+      <c r="FJ229">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ229"/>
+  <dimension ref="A1:FJ230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -118381,6 +118381,520 @@
         <v>0</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Timely and Effective Care by US State</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, geofacet, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2025/2025-04-08/20250408.R</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2025/2025-04-08///20250408_interactive.png</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>1</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
+      <c r="AP230">
+        <v>0</v>
+      </c>
+      <c r="AQ230">
+        <v>0</v>
+      </c>
+      <c r="AR230">
+        <v>0</v>
+      </c>
+      <c r="AS230">
+        <v>0</v>
+      </c>
+      <c r="AT230">
+        <v>0</v>
+      </c>
+      <c r="AU230">
+        <v>0</v>
+      </c>
+      <c r="AV230">
+        <v>0</v>
+      </c>
+      <c r="AW230">
+        <v>0</v>
+      </c>
+      <c r="AX230">
+        <v>0</v>
+      </c>
+      <c r="AY230">
+        <v>0</v>
+      </c>
+      <c r="AZ230">
+        <v>0</v>
+      </c>
+      <c r="BA230">
+        <v>0</v>
+      </c>
+      <c r="BB230">
+        <v>0</v>
+      </c>
+      <c r="BC230">
+        <v>0</v>
+      </c>
+      <c r="BD230">
+        <v>0</v>
+      </c>
+      <c r="BE230">
+        <v>0</v>
+      </c>
+      <c r="BF230">
+        <v>0</v>
+      </c>
+      <c r="BG230">
+        <v>0</v>
+      </c>
+      <c r="BH230">
+        <v>0</v>
+      </c>
+      <c r="BI230">
+        <v>0</v>
+      </c>
+      <c r="BJ230">
+        <v>0</v>
+      </c>
+      <c r="BK230">
+        <v>1</v>
+      </c>
+      <c r="BL230">
+        <v>0</v>
+      </c>
+      <c r="BM230">
+        <v>0</v>
+      </c>
+      <c r="BN230">
+        <v>0</v>
+      </c>
+      <c r="BO230">
+        <v>0</v>
+      </c>
+      <c r="BP230">
+        <v>1</v>
+      </c>
+      <c r="BQ230">
+        <v>0</v>
+      </c>
+      <c r="BR230">
+        <v>0</v>
+      </c>
+      <c r="BS230">
+        <v>0</v>
+      </c>
+      <c r="BT230">
+        <v>0</v>
+      </c>
+      <c r="BU230">
+        <v>0</v>
+      </c>
+      <c r="BV230">
+        <v>0</v>
+      </c>
+      <c r="BW230">
+        <v>0</v>
+      </c>
+      <c r="BX230">
+        <v>0</v>
+      </c>
+      <c r="BY230">
+        <v>0</v>
+      </c>
+      <c r="BZ230">
+        <v>0</v>
+      </c>
+      <c r="CA230">
+        <v>0</v>
+      </c>
+      <c r="CB230">
+        <v>0</v>
+      </c>
+      <c r="CC230">
+        <v>0</v>
+      </c>
+      <c r="CD230">
+        <v>0</v>
+      </c>
+      <c r="CE230">
+        <v>0</v>
+      </c>
+      <c r="CF230">
+        <v>0</v>
+      </c>
+      <c r="CG230">
+        <v>0</v>
+      </c>
+      <c r="CH230">
+        <v>0</v>
+      </c>
+      <c r="CI230">
+        <v>0</v>
+      </c>
+      <c r="CJ230">
+        <v>0</v>
+      </c>
+      <c r="CK230">
+        <v>0</v>
+      </c>
+      <c r="CL230">
+        <v>0</v>
+      </c>
+      <c r="CM230">
+        <v>0</v>
+      </c>
+      <c r="CN230">
+        <v>0</v>
+      </c>
+      <c r="CO230">
+        <v>0</v>
+      </c>
+      <c r="CP230">
+        <v>0</v>
+      </c>
+      <c r="CQ230">
+        <v>0</v>
+      </c>
+      <c r="CR230">
+        <v>1</v>
+      </c>
+      <c r="CS230">
+        <v>0</v>
+      </c>
+      <c r="CT230">
+        <v>0</v>
+      </c>
+      <c r="CU230">
+        <v>0</v>
+      </c>
+      <c r="CV230">
+        <v>0</v>
+      </c>
+      <c r="CW230">
+        <v>0</v>
+      </c>
+      <c r="CX230">
+        <v>0</v>
+      </c>
+      <c r="CY230">
+        <v>0</v>
+      </c>
+      <c r="CZ230">
+        <v>1</v>
+      </c>
+      <c r="DA230">
+        <v>0</v>
+      </c>
+      <c r="DB230">
+        <v>0</v>
+      </c>
+      <c r="DC230">
+        <v>0</v>
+      </c>
+      <c r="DD230">
+        <v>0</v>
+      </c>
+      <c r="DE230">
+        <v>0</v>
+      </c>
+      <c r="DF230">
+        <v>0</v>
+      </c>
+      <c r="DG230">
+        <v>0</v>
+      </c>
+      <c r="DH230">
+        <v>0</v>
+      </c>
+      <c r="DI230">
+        <v>0</v>
+      </c>
+      <c r="DJ230">
+        <v>0</v>
+      </c>
+      <c r="DK230">
+        <v>0</v>
+      </c>
+      <c r="DL230">
+        <v>0</v>
+      </c>
+      <c r="DM230">
+        <v>0</v>
+      </c>
+      <c r="DN230">
+        <v>0</v>
+      </c>
+      <c r="DO230">
+        <v>0</v>
+      </c>
+      <c r="DP230">
+        <v>0</v>
+      </c>
+      <c r="DQ230">
+        <v>0</v>
+      </c>
+      <c r="DR230">
+        <v>0</v>
+      </c>
+      <c r="DS230">
+        <v>0</v>
+      </c>
+      <c r="DT230">
+        <v>0</v>
+      </c>
+      <c r="DU230">
+        <v>0</v>
+      </c>
+      <c r="DV230">
+        <v>0</v>
+      </c>
+      <c r="DW230">
+        <v>0</v>
+      </c>
+      <c r="DX230">
+        <v>0</v>
+      </c>
+      <c r="DY230">
+        <v>0</v>
+      </c>
+      <c r="DZ230">
+        <v>0</v>
+      </c>
+      <c r="EA230">
+        <v>0</v>
+      </c>
+      <c r="EB230">
+        <v>0</v>
+      </c>
+      <c r="EC230">
+        <v>0</v>
+      </c>
+      <c r="ED230">
+        <v>0</v>
+      </c>
+      <c r="EE230">
+        <v>1</v>
+      </c>
+      <c r="EF230">
+        <v>0</v>
+      </c>
+      <c r="EG230">
+        <v>0</v>
+      </c>
+      <c r="EH230">
+        <v>0</v>
+      </c>
+      <c r="EI230">
+        <v>0</v>
+      </c>
+      <c r="EJ230">
+        <v>0</v>
+      </c>
+      <c r="EK230">
+        <v>0</v>
+      </c>
+      <c r="EL230">
+        <v>0</v>
+      </c>
+      <c r="EM230">
+        <v>0</v>
+      </c>
+      <c r="EN230">
+        <v>0</v>
+      </c>
+      <c r="EO230">
+        <v>0</v>
+      </c>
+      <c r="EP230">
+        <v>0</v>
+      </c>
+      <c r="EQ230">
+        <v>0</v>
+      </c>
+      <c r="ER230">
+        <v>0</v>
+      </c>
+      <c r="ES230">
+        <v>0</v>
+      </c>
+      <c r="ET230">
+        <v>0</v>
+      </c>
+      <c r="EU230">
+        <v>0</v>
+      </c>
+      <c r="EV230">
+        <v>0</v>
+      </c>
+      <c r="EW230">
+        <v>1</v>
+      </c>
+      <c r="EX230">
+        <v>1</v>
+      </c>
+      <c r="EY230">
+        <v>0</v>
+      </c>
+      <c r="EZ230">
+        <v>0</v>
+      </c>
+      <c r="FA230">
+        <v>0</v>
+      </c>
+      <c r="FB230">
+        <v>0</v>
+      </c>
+      <c r="FC230">
+        <v>0</v>
+      </c>
+      <c r="FD230">
+        <v>0</v>
+      </c>
+      <c r="FE230">
+        <v>0</v>
+      </c>
+      <c r="FF230">
+        <v>0</v>
+      </c>
+      <c r="FG230">
+        <v>0</v>
+      </c>
+      <c r="FH230">
+        <v>0</v>
+      </c>
+      <c r="FI230">
+        <v>0</v>
+      </c>
+      <c r="FJ230">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ230"/>
+  <dimension ref="A1:FJ231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -118895,6 +118895,520 @@
         <v>0</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Base R Penguins</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggdist</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2025/2025-04-15/20250415.R</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2025/2025-04-15///20250415.png</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>1</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>0</v>
+      </c>
+      <c r="AN231">
+        <v>0</v>
+      </c>
+      <c r="AO231">
+        <v>0</v>
+      </c>
+      <c r="AP231">
+        <v>0</v>
+      </c>
+      <c r="AQ231">
+        <v>0</v>
+      </c>
+      <c r="AR231">
+        <v>0</v>
+      </c>
+      <c r="AS231">
+        <v>0</v>
+      </c>
+      <c r="AT231">
+        <v>0</v>
+      </c>
+      <c r="AU231">
+        <v>0</v>
+      </c>
+      <c r="AV231">
+        <v>0</v>
+      </c>
+      <c r="AW231">
+        <v>0</v>
+      </c>
+      <c r="AX231">
+        <v>0</v>
+      </c>
+      <c r="AY231">
+        <v>0</v>
+      </c>
+      <c r="AZ231">
+        <v>0</v>
+      </c>
+      <c r="BA231">
+        <v>0</v>
+      </c>
+      <c r="BB231">
+        <v>0</v>
+      </c>
+      <c r="BC231">
+        <v>0</v>
+      </c>
+      <c r="BD231">
+        <v>0</v>
+      </c>
+      <c r="BE231">
+        <v>0</v>
+      </c>
+      <c r="BF231">
+        <v>0</v>
+      </c>
+      <c r="BG231">
+        <v>0</v>
+      </c>
+      <c r="BH231">
+        <v>0</v>
+      </c>
+      <c r="BI231">
+        <v>0</v>
+      </c>
+      <c r="BJ231">
+        <v>0</v>
+      </c>
+      <c r="BK231">
+        <v>1</v>
+      </c>
+      <c r="BL231">
+        <v>0</v>
+      </c>
+      <c r="BM231">
+        <v>0</v>
+      </c>
+      <c r="BN231">
+        <v>0</v>
+      </c>
+      <c r="BO231">
+        <v>0</v>
+      </c>
+      <c r="BP231">
+        <v>1</v>
+      </c>
+      <c r="BQ231">
+        <v>0</v>
+      </c>
+      <c r="BR231">
+        <v>0</v>
+      </c>
+      <c r="BS231">
+        <v>0</v>
+      </c>
+      <c r="BT231">
+        <v>0</v>
+      </c>
+      <c r="BU231">
+        <v>0</v>
+      </c>
+      <c r="BV231">
+        <v>0</v>
+      </c>
+      <c r="BW231">
+        <v>0</v>
+      </c>
+      <c r="BX231">
+        <v>0</v>
+      </c>
+      <c r="BY231">
+        <v>0</v>
+      </c>
+      <c r="BZ231">
+        <v>0</v>
+      </c>
+      <c r="CA231">
+        <v>0</v>
+      </c>
+      <c r="CB231">
+        <v>0</v>
+      </c>
+      <c r="CC231">
+        <v>0</v>
+      </c>
+      <c r="CD231">
+        <v>0</v>
+      </c>
+      <c r="CE231">
+        <v>0</v>
+      </c>
+      <c r="CF231">
+        <v>0</v>
+      </c>
+      <c r="CG231">
+        <v>0</v>
+      </c>
+      <c r="CH231">
+        <v>0</v>
+      </c>
+      <c r="CI231">
+        <v>0</v>
+      </c>
+      <c r="CJ231">
+        <v>0</v>
+      </c>
+      <c r="CK231">
+        <v>0</v>
+      </c>
+      <c r="CL231">
+        <v>0</v>
+      </c>
+      <c r="CM231">
+        <v>0</v>
+      </c>
+      <c r="CN231">
+        <v>0</v>
+      </c>
+      <c r="CO231">
+        <v>0</v>
+      </c>
+      <c r="CP231">
+        <v>0</v>
+      </c>
+      <c r="CQ231">
+        <v>0</v>
+      </c>
+      <c r="CR231">
+        <v>1</v>
+      </c>
+      <c r="CS231">
+        <v>0</v>
+      </c>
+      <c r="CT231">
+        <v>0</v>
+      </c>
+      <c r="CU231">
+        <v>0</v>
+      </c>
+      <c r="CV231">
+        <v>0</v>
+      </c>
+      <c r="CW231">
+        <v>0</v>
+      </c>
+      <c r="CX231">
+        <v>0</v>
+      </c>
+      <c r="CY231">
+        <v>0</v>
+      </c>
+      <c r="CZ231">
+        <v>0</v>
+      </c>
+      <c r="DA231">
+        <v>0</v>
+      </c>
+      <c r="DB231">
+        <v>0</v>
+      </c>
+      <c r="DC231">
+        <v>0</v>
+      </c>
+      <c r="DD231">
+        <v>0</v>
+      </c>
+      <c r="DE231">
+        <v>0</v>
+      </c>
+      <c r="DF231">
+        <v>0</v>
+      </c>
+      <c r="DG231">
+        <v>0</v>
+      </c>
+      <c r="DH231">
+        <v>0</v>
+      </c>
+      <c r="DI231">
+        <v>0</v>
+      </c>
+      <c r="DJ231">
+        <v>0</v>
+      </c>
+      <c r="DK231">
+        <v>0</v>
+      </c>
+      <c r="DL231">
+        <v>0</v>
+      </c>
+      <c r="DM231">
+        <v>0</v>
+      </c>
+      <c r="DN231">
+        <v>0</v>
+      </c>
+      <c r="DO231">
+        <v>0</v>
+      </c>
+      <c r="DP231">
+        <v>0</v>
+      </c>
+      <c r="DQ231">
+        <v>0</v>
+      </c>
+      <c r="DR231">
+        <v>0</v>
+      </c>
+      <c r="DS231">
+        <v>0</v>
+      </c>
+      <c r="DT231">
+        <v>0</v>
+      </c>
+      <c r="DU231">
+        <v>0</v>
+      </c>
+      <c r="DV231">
+        <v>0</v>
+      </c>
+      <c r="DW231">
+        <v>0</v>
+      </c>
+      <c r="DX231">
+        <v>0</v>
+      </c>
+      <c r="DY231">
+        <v>0</v>
+      </c>
+      <c r="DZ231">
+        <v>0</v>
+      </c>
+      <c r="EA231">
+        <v>0</v>
+      </c>
+      <c r="EB231">
+        <v>0</v>
+      </c>
+      <c r="EC231">
+        <v>0</v>
+      </c>
+      <c r="ED231">
+        <v>0</v>
+      </c>
+      <c r="EE231">
+        <v>1</v>
+      </c>
+      <c r="EF231">
+        <v>0</v>
+      </c>
+      <c r="EG231">
+        <v>0</v>
+      </c>
+      <c r="EH231">
+        <v>0</v>
+      </c>
+      <c r="EI231">
+        <v>0</v>
+      </c>
+      <c r="EJ231">
+        <v>0</v>
+      </c>
+      <c r="EK231">
+        <v>0</v>
+      </c>
+      <c r="EL231">
+        <v>0</v>
+      </c>
+      <c r="EM231">
+        <v>0</v>
+      </c>
+      <c r="EN231">
+        <v>0</v>
+      </c>
+      <c r="EO231">
+        <v>0</v>
+      </c>
+      <c r="EP231">
+        <v>0</v>
+      </c>
+      <c r="EQ231">
+        <v>0</v>
+      </c>
+      <c r="ER231">
+        <v>0</v>
+      </c>
+      <c r="ES231">
+        <v>0</v>
+      </c>
+      <c r="ET231">
+        <v>0</v>
+      </c>
+      <c r="EU231">
+        <v>0</v>
+      </c>
+      <c r="EV231">
+        <v>0</v>
+      </c>
+      <c r="EW231">
+        <v>0</v>
+      </c>
+      <c r="EX231">
+        <v>1</v>
+      </c>
+      <c r="EY231">
+        <v>0</v>
+      </c>
+      <c r="EZ231">
+        <v>0</v>
+      </c>
+      <c r="FA231">
+        <v>0</v>
+      </c>
+      <c r="FB231">
+        <v>0</v>
+      </c>
+      <c r="FC231">
+        <v>0</v>
+      </c>
+      <c r="FD231">
+        <v>0</v>
+      </c>
+      <c r="FE231">
+        <v>0</v>
+      </c>
+      <c r="FF231">
+        <v>0</v>
+      </c>
+      <c r="FG231">
+        <v>0</v>
+      </c>
+      <c r="FH231">
+        <v>0</v>
+      </c>
+      <c r="FI231">
+        <v>0</v>
+      </c>
+      <c r="FJ231">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -118923,7 +118923,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025/2025-04-15///20250415.png</t>
+          <t>2025/2025-04-15///20250415_dark.png</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ231"/>
+  <dimension ref="A1:FJ232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -119409,6 +119409,520 @@
         <v>0</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Fatal Car Crashes on 4/20</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2025/2025-04-22/20250422.R</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2025/2025-04-22///20250422.png</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>0</v>
+      </c>
+      <c r="AO232">
+        <v>0</v>
+      </c>
+      <c r="AP232">
+        <v>0</v>
+      </c>
+      <c r="AQ232">
+        <v>0</v>
+      </c>
+      <c r="AR232">
+        <v>0</v>
+      </c>
+      <c r="AS232">
+        <v>0</v>
+      </c>
+      <c r="AT232">
+        <v>0</v>
+      </c>
+      <c r="AU232">
+        <v>0</v>
+      </c>
+      <c r="AV232">
+        <v>0</v>
+      </c>
+      <c r="AW232">
+        <v>0</v>
+      </c>
+      <c r="AX232">
+        <v>0</v>
+      </c>
+      <c r="AY232">
+        <v>0</v>
+      </c>
+      <c r="AZ232">
+        <v>0</v>
+      </c>
+      <c r="BA232">
+        <v>0</v>
+      </c>
+      <c r="BB232">
+        <v>0</v>
+      </c>
+      <c r="BC232">
+        <v>0</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>0</v>
+      </c>
+      <c r="BG232">
+        <v>0</v>
+      </c>
+      <c r="BH232">
+        <v>0</v>
+      </c>
+      <c r="BI232">
+        <v>0</v>
+      </c>
+      <c r="BJ232">
+        <v>0</v>
+      </c>
+      <c r="BK232">
+        <v>1</v>
+      </c>
+      <c r="BL232">
+        <v>0</v>
+      </c>
+      <c r="BM232">
+        <v>0</v>
+      </c>
+      <c r="BN232">
+        <v>0</v>
+      </c>
+      <c r="BO232">
+        <v>0</v>
+      </c>
+      <c r="BP232">
+        <v>1</v>
+      </c>
+      <c r="BQ232">
+        <v>0</v>
+      </c>
+      <c r="BR232">
+        <v>0</v>
+      </c>
+      <c r="BS232">
+        <v>0</v>
+      </c>
+      <c r="BT232">
+        <v>0</v>
+      </c>
+      <c r="BU232">
+        <v>0</v>
+      </c>
+      <c r="BV232">
+        <v>0</v>
+      </c>
+      <c r="BW232">
+        <v>0</v>
+      </c>
+      <c r="BX232">
+        <v>0</v>
+      </c>
+      <c r="BY232">
+        <v>0</v>
+      </c>
+      <c r="BZ232">
+        <v>0</v>
+      </c>
+      <c r="CA232">
+        <v>0</v>
+      </c>
+      <c r="CB232">
+        <v>0</v>
+      </c>
+      <c r="CC232">
+        <v>0</v>
+      </c>
+      <c r="CD232">
+        <v>0</v>
+      </c>
+      <c r="CE232">
+        <v>0</v>
+      </c>
+      <c r="CF232">
+        <v>0</v>
+      </c>
+      <c r="CG232">
+        <v>0</v>
+      </c>
+      <c r="CH232">
+        <v>0</v>
+      </c>
+      <c r="CI232">
+        <v>0</v>
+      </c>
+      <c r="CJ232">
+        <v>0</v>
+      </c>
+      <c r="CK232">
+        <v>0</v>
+      </c>
+      <c r="CL232">
+        <v>0</v>
+      </c>
+      <c r="CM232">
+        <v>0</v>
+      </c>
+      <c r="CN232">
+        <v>0</v>
+      </c>
+      <c r="CO232">
+        <v>0</v>
+      </c>
+      <c r="CP232">
+        <v>0</v>
+      </c>
+      <c r="CQ232">
+        <v>0</v>
+      </c>
+      <c r="CR232">
+        <v>1</v>
+      </c>
+      <c r="CS232">
+        <v>0</v>
+      </c>
+      <c r="CT232">
+        <v>0</v>
+      </c>
+      <c r="CU232">
+        <v>0</v>
+      </c>
+      <c r="CV232">
+        <v>0</v>
+      </c>
+      <c r="CW232">
+        <v>0</v>
+      </c>
+      <c r="CX232">
+        <v>0</v>
+      </c>
+      <c r="CY232">
+        <v>0</v>
+      </c>
+      <c r="CZ232">
+        <v>0</v>
+      </c>
+      <c r="DA232">
+        <v>0</v>
+      </c>
+      <c r="DB232">
+        <v>0</v>
+      </c>
+      <c r="DC232">
+        <v>0</v>
+      </c>
+      <c r="DD232">
+        <v>0</v>
+      </c>
+      <c r="DE232">
+        <v>0</v>
+      </c>
+      <c r="DF232">
+        <v>0</v>
+      </c>
+      <c r="DG232">
+        <v>0</v>
+      </c>
+      <c r="DH232">
+        <v>0</v>
+      </c>
+      <c r="DI232">
+        <v>0</v>
+      </c>
+      <c r="DJ232">
+        <v>0</v>
+      </c>
+      <c r="DK232">
+        <v>0</v>
+      </c>
+      <c r="DL232">
+        <v>0</v>
+      </c>
+      <c r="DM232">
+        <v>0</v>
+      </c>
+      <c r="DN232">
+        <v>0</v>
+      </c>
+      <c r="DO232">
+        <v>0</v>
+      </c>
+      <c r="DP232">
+        <v>0</v>
+      </c>
+      <c r="DQ232">
+        <v>0</v>
+      </c>
+      <c r="DR232">
+        <v>0</v>
+      </c>
+      <c r="DS232">
+        <v>0</v>
+      </c>
+      <c r="DT232">
+        <v>0</v>
+      </c>
+      <c r="DU232">
+        <v>0</v>
+      </c>
+      <c r="DV232">
+        <v>0</v>
+      </c>
+      <c r="DW232">
+        <v>0</v>
+      </c>
+      <c r="DX232">
+        <v>0</v>
+      </c>
+      <c r="DY232">
+        <v>0</v>
+      </c>
+      <c r="DZ232">
+        <v>0</v>
+      </c>
+      <c r="EA232">
+        <v>0</v>
+      </c>
+      <c r="EB232">
+        <v>0</v>
+      </c>
+      <c r="EC232">
+        <v>0</v>
+      </c>
+      <c r="ED232">
+        <v>0</v>
+      </c>
+      <c r="EE232">
+        <v>1</v>
+      </c>
+      <c r="EF232">
+        <v>0</v>
+      </c>
+      <c r="EG232">
+        <v>0</v>
+      </c>
+      <c r="EH232">
+        <v>0</v>
+      </c>
+      <c r="EI232">
+        <v>0</v>
+      </c>
+      <c r="EJ232">
+        <v>0</v>
+      </c>
+      <c r="EK232">
+        <v>0</v>
+      </c>
+      <c r="EL232">
+        <v>0</v>
+      </c>
+      <c r="EM232">
+        <v>0</v>
+      </c>
+      <c r="EN232">
+        <v>0</v>
+      </c>
+      <c r="EO232">
+        <v>0</v>
+      </c>
+      <c r="EP232">
+        <v>0</v>
+      </c>
+      <c r="EQ232">
+        <v>0</v>
+      </c>
+      <c r="ER232">
+        <v>0</v>
+      </c>
+      <c r="ES232">
+        <v>0</v>
+      </c>
+      <c r="ET232">
+        <v>0</v>
+      </c>
+      <c r="EU232">
+        <v>0</v>
+      </c>
+      <c r="EV232">
+        <v>0</v>
+      </c>
+      <c r="EW232">
+        <v>1</v>
+      </c>
+      <c r="EX232">
+        <v>1</v>
+      </c>
+      <c r="EY232">
+        <v>0</v>
+      </c>
+      <c r="EZ232">
+        <v>0</v>
+      </c>
+      <c r="FA232">
+        <v>0</v>
+      </c>
+      <c r="FB232">
+        <v>0</v>
+      </c>
+      <c r="FC232">
+        <v>0</v>
+      </c>
+      <c r="FD232">
+        <v>0</v>
+      </c>
+      <c r="FE232">
+        <v>0</v>
+      </c>
+      <c r="FF232">
+        <v>0</v>
+      </c>
+      <c r="FG232">
+        <v>0</v>
+      </c>
+      <c r="FH232">
+        <v>0</v>
+      </c>
+      <c r="FI232">
+        <v>0</v>
+      </c>
+      <c r="FJ232">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ232"/>
+  <dimension ref="A1:FJ233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -119923,6 +119923,520 @@
         <v>0</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>useR! 2025 program</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, ggalluvial, ggimage, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2025/2025-04-29/20250429.R</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2025/2025-04-29///20250429_ai.png</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>1</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>0</v>
+      </c>
+      <c r="AN233">
+        <v>0</v>
+      </c>
+      <c r="AO233">
+        <v>0</v>
+      </c>
+      <c r="AP233">
+        <v>0</v>
+      </c>
+      <c r="AQ233">
+        <v>0</v>
+      </c>
+      <c r="AR233">
+        <v>1</v>
+      </c>
+      <c r="AS233">
+        <v>0</v>
+      </c>
+      <c r="AT233">
+        <v>0</v>
+      </c>
+      <c r="AU233">
+        <v>0</v>
+      </c>
+      <c r="AV233">
+        <v>0</v>
+      </c>
+      <c r="AW233">
+        <v>0</v>
+      </c>
+      <c r="AX233">
+        <v>0</v>
+      </c>
+      <c r="AY233">
+        <v>0</v>
+      </c>
+      <c r="AZ233">
+        <v>0</v>
+      </c>
+      <c r="BA233">
+        <v>0</v>
+      </c>
+      <c r="BB233">
+        <v>0</v>
+      </c>
+      <c r="BC233">
+        <v>0</v>
+      </c>
+      <c r="BD233">
+        <v>0</v>
+      </c>
+      <c r="BE233">
+        <v>0</v>
+      </c>
+      <c r="BF233">
+        <v>0</v>
+      </c>
+      <c r="BG233">
+        <v>0</v>
+      </c>
+      <c r="BH233">
+        <v>0</v>
+      </c>
+      <c r="BI233">
+        <v>0</v>
+      </c>
+      <c r="BJ233">
+        <v>0</v>
+      </c>
+      <c r="BK233">
+        <v>1</v>
+      </c>
+      <c r="BL233">
+        <v>0</v>
+      </c>
+      <c r="BM233">
+        <v>0</v>
+      </c>
+      <c r="BN233">
+        <v>0</v>
+      </c>
+      <c r="BO233">
+        <v>0</v>
+      </c>
+      <c r="BP233">
+        <v>1</v>
+      </c>
+      <c r="BQ233">
+        <v>0</v>
+      </c>
+      <c r="BR233">
+        <v>0</v>
+      </c>
+      <c r="BS233">
+        <v>0</v>
+      </c>
+      <c r="BT233">
+        <v>0</v>
+      </c>
+      <c r="BU233">
+        <v>0</v>
+      </c>
+      <c r="BV233">
+        <v>0</v>
+      </c>
+      <c r="BW233">
+        <v>0</v>
+      </c>
+      <c r="BX233">
+        <v>0</v>
+      </c>
+      <c r="BY233">
+        <v>0</v>
+      </c>
+      <c r="BZ233">
+        <v>0</v>
+      </c>
+      <c r="CA233">
+        <v>0</v>
+      </c>
+      <c r="CB233">
+        <v>0</v>
+      </c>
+      <c r="CC233">
+        <v>0</v>
+      </c>
+      <c r="CD233">
+        <v>0</v>
+      </c>
+      <c r="CE233">
+        <v>0</v>
+      </c>
+      <c r="CF233">
+        <v>0</v>
+      </c>
+      <c r="CG233">
+        <v>0</v>
+      </c>
+      <c r="CH233">
+        <v>0</v>
+      </c>
+      <c r="CI233">
+        <v>0</v>
+      </c>
+      <c r="CJ233">
+        <v>0</v>
+      </c>
+      <c r="CK233">
+        <v>0</v>
+      </c>
+      <c r="CL233">
+        <v>0</v>
+      </c>
+      <c r="CM233">
+        <v>0</v>
+      </c>
+      <c r="CN233">
+        <v>0</v>
+      </c>
+      <c r="CO233">
+        <v>0</v>
+      </c>
+      <c r="CP233">
+        <v>0</v>
+      </c>
+      <c r="CQ233">
+        <v>0</v>
+      </c>
+      <c r="CR233">
+        <v>1</v>
+      </c>
+      <c r="CS233">
+        <v>0</v>
+      </c>
+      <c r="CT233">
+        <v>0</v>
+      </c>
+      <c r="CU233">
+        <v>0</v>
+      </c>
+      <c r="CV233">
+        <v>0</v>
+      </c>
+      <c r="CW233">
+        <v>0</v>
+      </c>
+      <c r="CX233">
+        <v>0</v>
+      </c>
+      <c r="CY233">
+        <v>0</v>
+      </c>
+      <c r="CZ233">
+        <v>0</v>
+      </c>
+      <c r="DA233">
+        <v>0</v>
+      </c>
+      <c r="DB233">
+        <v>0</v>
+      </c>
+      <c r="DC233">
+        <v>0</v>
+      </c>
+      <c r="DD233">
+        <v>0</v>
+      </c>
+      <c r="DE233">
+        <v>0</v>
+      </c>
+      <c r="DF233">
+        <v>0</v>
+      </c>
+      <c r="DG233">
+        <v>0</v>
+      </c>
+      <c r="DH233">
+        <v>0</v>
+      </c>
+      <c r="DI233">
+        <v>0</v>
+      </c>
+      <c r="DJ233">
+        <v>0</v>
+      </c>
+      <c r="DK233">
+        <v>0</v>
+      </c>
+      <c r="DL233">
+        <v>0</v>
+      </c>
+      <c r="DM233">
+        <v>0</v>
+      </c>
+      <c r="DN233">
+        <v>0</v>
+      </c>
+      <c r="DO233">
+        <v>0</v>
+      </c>
+      <c r="DP233">
+        <v>0</v>
+      </c>
+      <c r="DQ233">
+        <v>0</v>
+      </c>
+      <c r="DR233">
+        <v>0</v>
+      </c>
+      <c r="DS233">
+        <v>0</v>
+      </c>
+      <c r="DT233">
+        <v>0</v>
+      </c>
+      <c r="DU233">
+        <v>0</v>
+      </c>
+      <c r="DV233">
+        <v>0</v>
+      </c>
+      <c r="DW233">
+        <v>0</v>
+      </c>
+      <c r="DX233">
+        <v>0</v>
+      </c>
+      <c r="DY233">
+        <v>0</v>
+      </c>
+      <c r="DZ233">
+        <v>0</v>
+      </c>
+      <c r="EA233">
+        <v>0</v>
+      </c>
+      <c r="EB233">
+        <v>0</v>
+      </c>
+      <c r="EC233">
+        <v>0</v>
+      </c>
+      <c r="ED233">
+        <v>0</v>
+      </c>
+      <c r="EE233">
+        <v>1</v>
+      </c>
+      <c r="EF233">
+        <v>0</v>
+      </c>
+      <c r="EG233">
+        <v>0</v>
+      </c>
+      <c r="EH233">
+        <v>0</v>
+      </c>
+      <c r="EI233">
+        <v>0</v>
+      </c>
+      <c r="EJ233">
+        <v>0</v>
+      </c>
+      <c r="EK233">
+        <v>0</v>
+      </c>
+      <c r="EL233">
+        <v>0</v>
+      </c>
+      <c r="EM233">
+        <v>0</v>
+      </c>
+      <c r="EN233">
+        <v>0</v>
+      </c>
+      <c r="EO233">
+        <v>0</v>
+      </c>
+      <c r="EP233">
+        <v>0</v>
+      </c>
+      <c r="EQ233">
+        <v>0</v>
+      </c>
+      <c r="ER233">
+        <v>0</v>
+      </c>
+      <c r="ES233">
+        <v>0</v>
+      </c>
+      <c r="ET233">
+        <v>0</v>
+      </c>
+      <c r="EU233">
+        <v>0</v>
+      </c>
+      <c r="EV233">
+        <v>0</v>
+      </c>
+      <c r="EW233">
+        <v>1</v>
+      </c>
+      <c r="EX233">
+        <v>1</v>
+      </c>
+      <c r="EY233">
+        <v>0</v>
+      </c>
+      <c r="EZ233">
+        <v>0</v>
+      </c>
+      <c r="FA233">
+        <v>0</v>
+      </c>
+      <c r="FB233">
+        <v>0</v>
+      </c>
+      <c r="FC233">
+        <v>0</v>
+      </c>
+      <c r="FD233">
+        <v>0</v>
+      </c>
+      <c r="FE233">
+        <v>0</v>
+      </c>
+      <c r="FF233">
+        <v>0</v>
+      </c>
+      <c r="FG233">
+        <v>0</v>
+      </c>
+      <c r="FH233">
+        <v>0</v>
+      </c>
+      <c r="FI233">
+        <v>0</v>
+      </c>
+      <c r="FJ233">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ233"/>
+  <dimension ref="A1:FJ234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -120437,6 +120437,520 @@
         <v>0</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>National Science Foundation Grant Terminations under the Trump Administration</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2025/2025-05-06/20250506.R</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2025/2025-05-06///20250506.png</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>0</v>
+      </c>
+      <c r="V234">
+        <v>0</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+      <c r="AB234">
+        <v>0</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>0</v>
+      </c>
+      <c r="AF234">
+        <v>0</v>
+      </c>
+      <c r="AG234">
+        <v>0</v>
+      </c>
+      <c r="AH234">
+        <v>0</v>
+      </c>
+      <c r="AI234">
+        <v>0</v>
+      </c>
+      <c r="AJ234">
+        <v>0</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>0</v>
+      </c>
+      <c r="AM234">
+        <v>0</v>
+      </c>
+      <c r="AN234">
+        <v>0</v>
+      </c>
+      <c r="AO234">
+        <v>0</v>
+      </c>
+      <c r="AP234">
+        <v>0</v>
+      </c>
+      <c r="AQ234">
+        <v>0</v>
+      </c>
+      <c r="AR234">
+        <v>0</v>
+      </c>
+      <c r="AS234">
+        <v>0</v>
+      </c>
+      <c r="AT234">
+        <v>0</v>
+      </c>
+      <c r="AU234">
+        <v>0</v>
+      </c>
+      <c r="AV234">
+        <v>0</v>
+      </c>
+      <c r="AW234">
+        <v>0</v>
+      </c>
+      <c r="AX234">
+        <v>0</v>
+      </c>
+      <c r="AY234">
+        <v>0</v>
+      </c>
+      <c r="AZ234">
+        <v>0</v>
+      </c>
+      <c r="BA234">
+        <v>0</v>
+      </c>
+      <c r="BB234">
+        <v>0</v>
+      </c>
+      <c r="BC234">
+        <v>0</v>
+      </c>
+      <c r="BD234">
+        <v>0</v>
+      </c>
+      <c r="BE234">
+        <v>0</v>
+      </c>
+      <c r="BF234">
+        <v>0</v>
+      </c>
+      <c r="BG234">
+        <v>0</v>
+      </c>
+      <c r="BH234">
+        <v>0</v>
+      </c>
+      <c r="BI234">
+        <v>0</v>
+      </c>
+      <c r="BJ234">
+        <v>0</v>
+      </c>
+      <c r="BK234">
+        <v>1</v>
+      </c>
+      <c r="BL234">
+        <v>0</v>
+      </c>
+      <c r="BM234">
+        <v>0</v>
+      </c>
+      <c r="BN234">
+        <v>0</v>
+      </c>
+      <c r="BO234">
+        <v>0</v>
+      </c>
+      <c r="BP234">
+        <v>1</v>
+      </c>
+      <c r="BQ234">
+        <v>0</v>
+      </c>
+      <c r="BR234">
+        <v>0</v>
+      </c>
+      <c r="BS234">
+        <v>0</v>
+      </c>
+      <c r="BT234">
+        <v>0</v>
+      </c>
+      <c r="BU234">
+        <v>0</v>
+      </c>
+      <c r="BV234">
+        <v>0</v>
+      </c>
+      <c r="BW234">
+        <v>0</v>
+      </c>
+      <c r="BX234">
+        <v>0</v>
+      </c>
+      <c r="BY234">
+        <v>0</v>
+      </c>
+      <c r="BZ234">
+        <v>0</v>
+      </c>
+      <c r="CA234">
+        <v>0</v>
+      </c>
+      <c r="CB234">
+        <v>0</v>
+      </c>
+      <c r="CC234">
+        <v>0</v>
+      </c>
+      <c r="CD234">
+        <v>0</v>
+      </c>
+      <c r="CE234">
+        <v>0</v>
+      </c>
+      <c r="CF234">
+        <v>0</v>
+      </c>
+      <c r="CG234">
+        <v>0</v>
+      </c>
+      <c r="CH234">
+        <v>0</v>
+      </c>
+      <c r="CI234">
+        <v>0</v>
+      </c>
+      <c r="CJ234">
+        <v>0</v>
+      </c>
+      <c r="CK234">
+        <v>0</v>
+      </c>
+      <c r="CL234">
+        <v>0</v>
+      </c>
+      <c r="CM234">
+        <v>0</v>
+      </c>
+      <c r="CN234">
+        <v>0</v>
+      </c>
+      <c r="CO234">
+        <v>0</v>
+      </c>
+      <c r="CP234">
+        <v>0</v>
+      </c>
+      <c r="CQ234">
+        <v>0</v>
+      </c>
+      <c r="CR234">
+        <v>1</v>
+      </c>
+      <c r="CS234">
+        <v>0</v>
+      </c>
+      <c r="CT234">
+        <v>0</v>
+      </c>
+      <c r="CU234">
+        <v>0</v>
+      </c>
+      <c r="CV234">
+        <v>0</v>
+      </c>
+      <c r="CW234">
+        <v>0</v>
+      </c>
+      <c r="CX234">
+        <v>0</v>
+      </c>
+      <c r="CY234">
+        <v>0</v>
+      </c>
+      <c r="CZ234">
+        <v>1</v>
+      </c>
+      <c r="DA234">
+        <v>0</v>
+      </c>
+      <c r="DB234">
+        <v>0</v>
+      </c>
+      <c r="DC234">
+        <v>0</v>
+      </c>
+      <c r="DD234">
+        <v>0</v>
+      </c>
+      <c r="DE234">
+        <v>0</v>
+      </c>
+      <c r="DF234">
+        <v>0</v>
+      </c>
+      <c r="DG234">
+        <v>0</v>
+      </c>
+      <c r="DH234">
+        <v>0</v>
+      </c>
+      <c r="DI234">
+        <v>0</v>
+      </c>
+      <c r="DJ234">
+        <v>0</v>
+      </c>
+      <c r="DK234">
+        <v>0</v>
+      </c>
+      <c r="DL234">
+        <v>0</v>
+      </c>
+      <c r="DM234">
+        <v>0</v>
+      </c>
+      <c r="DN234">
+        <v>0</v>
+      </c>
+      <c r="DO234">
+        <v>0</v>
+      </c>
+      <c r="DP234">
+        <v>0</v>
+      </c>
+      <c r="DQ234">
+        <v>0</v>
+      </c>
+      <c r="DR234">
+        <v>0</v>
+      </c>
+      <c r="DS234">
+        <v>0</v>
+      </c>
+      <c r="DT234">
+        <v>0</v>
+      </c>
+      <c r="DU234">
+        <v>0</v>
+      </c>
+      <c r="DV234">
+        <v>0</v>
+      </c>
+      <c r="DW234">
+        <v>0</v>
+      </c>
+      <c r="DX234">
+        <v>0</v>
+      </c>
+      <c r="DY234">
+        <v>0</v>
+      </c>
+      <c r="DZ234">
+        <v>0</v>
+      </c>
+      <c r="EA234">
+        <v>0</v>
+      </c>
+      <c r="EB234">
+        <v>0</v>
+      </c>
+      <c r="EC234">
+        <v>0</v>
+      </c>
+      <c r="ED234">
+        <v>0</v>
+      </c>
+      <c r="EE234">
+        <v>1</v>
+      </c>
+      <c r="EF234">
+        <v>0</v>
+      </c>
+      <c r="EG234">
+        <v>0</v>
+      </c>
+      <c r="EH234">
+        <v>0</v>
+      </c>
+      <c r="EI234">
+        <v>0</v>
+      </c>
+      <c r="EJ234">
+        <v>0</v>
+      </c>
+      <c r="EK234">
+        <v>0</v>
+      </c>
+      <c r="EL234">
+        <v>0</v>
+      </c>
+      <c r="EM234">
+        <v>0</v>
+      </c>
+      <c r="EN234">
+        <v>0</v>
+      </c>
+      <c r="EO234">
+        <v>0</v>
+      </c>
+      <c r="EP234">
+        <v>0</v>
+      </c>
+      <c r="EQ234">
+        <v>0</v>
+      </c>
+      <c r="ER234">
+        <v>0</v>
+      </c>
+      <c r="ES234">
+        <v>0</v>
+      </c>
+      <c r="ET234">
+        <v>0</v>
+      </c>
+      <c r="EU234">
+        <v>0</v>
+      </c>
+      <c r="EV234">
+        <v>0</v>
+      </c>
+      <c r="EW234">
+        <v>1</v>
+      </c>
+      <c r="EX234">
+        <v>1</v>
+      </c>
+      <c r="EY234">
+        <v>0</v>
+      </c>
+      <c r="EZ234">
+        <v>0</v>
+      </c>
+      <c r="FA234">
+        <v>0</v>
+      </c>
+      <c r="FB234">
+        <v>0</v>
+      </c>
+      <c r="FC234">
+        <v>0</v>
+      </c>
+      <c r="FD234">
+        <v>0</v>
+      </c>
+      <c r="FE234">
+        <v>0</v>
+      </c>
+      <c r="FF234">
+        <v>0</v>
+      </c>
+      <c r="FG234">
+        <v>0</v>
+      </c>
+      <c r="FH234">
+        <v>0</v>
+      </c>
+      <c r="FI234">
+        <v>0</v>
+      </c>
+      <c r="FJ234">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -120455,7 +120455,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -120762,7 +120762,7 @@
         <v>0</v>
       </c>
       <c r="CZ234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA234">
         <v>0</v>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ234"/>
+  <dimension ref="A1:FK235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1188,6 +1188,11 @@
           <t>wordcloud2</t>
         </is>
       </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1217,7 +1222,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2019/2019-01-29///20190129.png</t>
+          <t>2019/2019-01-29/20190129.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1700,6 +1705,9 @@
         <v>0</v>
       </c>
       <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
         <v>0</v>
       </c>
     </row>
@@ -1731,7 +1739,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019/2019-03-05///20190305.png</t>
+          <t>2019/2019-03-05/20190305.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2214,6 +2222,9 @@
         <v>0</v>
       </c>
       <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
         <v>0</v>
       </c>
     </row>
@@ -2245,7 +2256,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2019/2019-05-14///20190514-light.png</t>
+          <t>2019/2019-05-14/20190514-light.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2728,6 +2739,9 @@
         <v>0</v>
       </c>
       <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +2773,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020/2020-04-21///20200421.jpg</t>
+          <t>2020/2020-04-21/20200421.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3242,6 +3256,9 @@
         <v>0</v>
       </c>
       <c r="FJ5">
+        <v>0</v>
+      </c>
+      <c r="FK5">
         <v>0</v>
       </c>
     </row>
@@ -3273,7 +3290,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020/2020-07-28///20200728.jpg</t>
+          <t>2020/2020-07-28/20200728.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3756,6 +3773,9 @@
         <v>0</v>
       </c>
       <c r="FJ6">
+        <v>0</v>
+      </c>
+      <c r="FK6">
         <v>0</v>
       </c>
     </row>
@@ -3787,7 +3807,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020/2020-10-27///20201027.png</t>
+          <t>2020/2020-10-27/20201027.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4270,6 +4290,9 @@
         <v>1</v>
       </c>
       <c r="FJ7">
+        <v>0</v>
+      </c>
+      <c r="FK7">
         <v>0</v>
       </c>
     </row>
@@ -4301,7 +4324,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2020/2020-11-10///20201110.png</t>
+          <t>2020/2020-11-10/20201110.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4784,6 +4807,9 @@
         <v>0</v>
       </c>
       <c r="FJ8">
+        <v>0</v>
+      </c>
+      <c r="FK8">
         <v>0</v>
       </c>
     </row>
@@ -4815,7 +4841,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020/2020-12-08///20201208.jpg</t>
+          <t>2020/2020-12-08/20201208.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5298,6 +5324,9 @@
         <v>0</v>
       </c>
       <c r="FJ9">
+        <v>0</v>
+      </c>
+      <c r="FK9">
         <v>0</v>
       </c>
     </row>
@@ -5329,7 +5358,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/01-06-2021///01062021.jpg</t>
+          <t>2021/01-06-2021/01062021.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5812,6 +5841,9 @@
         <v>0</v>
       </c>
       <c r="FJ10">
+        <v>0</v>
+      </c>
+      <c r="FK10">
         <v>0</v>
       </c>
     </row>
@@ -5843,7 +5875,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/02-02-2021///02022021.jpg</t>
+          <t>2021/02-02-2021/02022021.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6326,6 +6358,9 @@
         <v>0</v>
       </c>
       <c r="FJ11">
+        <v>0</v>
+      </c>
+      <c r="FK11">
         <v>0</v>
       </c>
     </row>
@@ -6357,7 +6392,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/02-03-2021///02032021.jpg</t>
+          <t>2021/02-03-2021/02032021.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6840,6 +6875,9 @@
         <v>0</v>
       </c>
       <c r="FJ12">
+        <v>0</v>
+      </c>
+      <c r="FK12">
         <v>0</v>
       </c>
     </row>
@@ -6871,7 +6909,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/02-11-2021///02112021.png</t>
+          <t>2021/02-11-2021/02112021.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7354,6 +7392,9 @@
         <v>0</v>
       </c>
       <c r="FJ13">
+        <v>0</v>
+      </c>
+      <c r="FK13">
         <v>0</v>
       </c>
     </row>
@@ -7385,7 +7426,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/03-08-2021///03082021_table.png</t>
+          <t>2021/03-08-2021/03082021.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7868,6 +7909,9 @@
         <v>0</v>
       </c>
       <c r="FJ14">
+        <v>0</v>
+      </c>
+      <c r="FK14">
         <v>0</v>
       </c>
     </row>
@@ -7899,7 +7943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/04-05-2021///04052021.jpg</t>
+          <t>2021/04-05-2021/04052021.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8382,6 +8426,9 @@
         <v>0</v>
       </c>
       <c r="FJ15">
+        <v>0</v>
+      </c>
+      <c r="FK15">
         <v>0</v>
       </c>
     </row>
@@ -8413,7 +8460,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/05-01-2021///05012021.jpg</t>
+          <t>2021/05-01-2021/05012021.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8896,6 +8943,9 @@
         <v>0</v>
       </c>
       <c r="FJ16">
+        <v>0</v>
+      </c>
+      <c r="FK16">
         <v>0</v>
       </c>
     </row>
@@ -8927,7 +8977,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/05-10-2021///05102021.jpg</t>
+          <t>2021/05-10-2021/05102021.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9410,6 +9460,9 @@
         <v>0</v>
       </c>
       <c r="FJ17">
+        <v>0</v>
+      </c>
+      <c r="FK17">
         <v>0</v>
       </c>
     </row>
@@ -9441,7 +9494,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/06-04-2021///06042021_plot1.jpg</t>
+          <t>2021/06-04-2021/06042021.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -9924,6 +9977,9 @@
         <v>0</v>
       </c>
       <c r="FJ18">
+        <v>0</v>
+      </c>
+      <c r="FK18">
         <v>0</v>
       </c>
     </row>
@@ -9955,7 +10011,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/06-07-2021///06072021.jpg</t>
+          <t>2021/06-07-2021/06072021.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10438,6 +10494,9 @@
         <v>0</v>
       </c>
       <c r="FJ19">
+        <v>0</v>
+      </c>
+      <c r="FK19">
         <v>0</v>
       </c>
     </row>
@@ -10469,7 +10528,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/07-09-2021///07092021.jpg</t>
+          <t>2021/07-09-2021/07092021.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -10952,6 +11011,9 @@
         <v>0</v>
       </c>
       <c r="FJ20">
+        <v>0</v>
+      </c>
+      <c r="FK20">
         <v>0</v>
       </c>
     </row>
@@ -10983,7 +11045,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/07-12-2021///07122021.jpeg</t>
+          <t>2021/07-12-2021/07122021.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -11466,6 +11528,9 @@
         <v>0</v>
       </c>
       <c r="FJ21">
+        <v>0</v>
+      </c>
+      <c r="FK21">
         <v>0</v>
       </c>
     </row>
@@ -11497,7 +11562,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/08-06-2021///08062021.jpg</t>
+          <t>2021/08-06-2021/08062021.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -11980,6 +12045,9 @@
         <v>0</v>
       </c>
       <c r="FJ22">
+        <v>0</v>
+      </c>
+      <c r="FK22">
         <v>0</v>
       </c>
     </row>
@@ -12011,7 +12079,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/09-02-2021///09022021.jpg</t>
+          <t>2021/09-02-2021/09022021.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -12494,6 +12562,9 @@
         <v>0</v>
       </c>
       <c r="FJ23">
+        <v>0</v>
+      </c>
+      <c r="FK23">
         <v>0</v>
       </c>
     </row>
@@ -12525,7 +12596,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/09-03-2021///09032021.jpg</t>
+          <t>2021/09-03-2021/09032021.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -13008,6 +13079,9 @@
         <v>0</v>
       </c>
       <c r="FJ24">
+        <v>0</v>
+      </c>
+      <c r="FK24">
         <v>0</v>
       </c>
     </row>
@@ -13039,7 +13113,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/09-11-2021///09112021.jpg</t>
+          <t>2021/09-11-2021/09112021.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -13522,6 +13596,9 @@
         <v>0</v>
       </c>
       <c r="FJ25">
+        <v>0</v>
+      </c>
+      <c r="FK25">
         <v>0</v>
       </c>
     </row>
@@ -13553,7 +13630,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/10-08-2021///10082021.jpg</t>
+          <t>2021/10-08-2021/10082021.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -14036,6 +14113,9 @@
         <v>0</v>
       </c>
       <c r="FJ26">
+        <v>0</v>
+      </c>
+      <c r="FK26">
         <v>0</v>
       </c>
     </row>
@@ -14067,7 +14147,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/11-05-2021///11052021.jpg</t>
+          <t>2021/11-05-2021/11052021.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -14550,6 +14630,9 @@
         <v>0</v>
       </c>
       <c r="FJ27">
+        <v>0</v>
+      </c>
+      <c r="FK27">
         <v>0</v>
       </c>
     </row>
@@ -14581,7 +14664,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/12-01-2021///12012021.jpg</t>
+          <t>2021/12-01-2021/12012021.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -15064,6 +15147,9 @@
         <v>0</v>
       </c>
       <c r="FJ28">
+        <v>0</v>
+      </c>
+      <c r="FK28">
         <v>0</v>
       </c>
     </row>
@@ -15095,7 +15181,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/12-10-2021///12102021_f1.jpg</t>
+          <t>2021/12-10-2021/12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -15578,6 +15664,9 @@
         <v>0</v>
       </c>
       <c r="FJ29">
+        <v>0</v>
+      </c>
+      <c r="FK29">
         <v>0</v>
       </c>
     </row>
@@ -15609,7 +15698,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/13-04-2021///13042021.jpg</t>
+          <t>2021/13-04-2021/13042021.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -16092,6 +16181,9 @@
         <v>0</v>
       </c>
       <c r="FJ30">
+        <v>0</v>
+      </c>
+      <c r="FK30">
         <v>0</v>
       </c>
     </row>
@@ -16123,7 +16215,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/13-07-2021///13072021.jpg</t>
+          <t>2021/13-07-2021/13072021.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -16606,6 +16698,9 @@
         <v>0</v>
       </c>
       <c r="FJ31">
+        <v>0</v>
+      </c>
+      <c r="FK31">
         <v>0</v>
       </c>
     </row>
@@ -16637,7 +16732,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/14-09-2021///14092021.jpg</t>
+          <t>2021/14-09-2021/14092021.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -17120,6 +17215,9 @@
         <v>0</v>
       </c>
       <c r="FJ32">
+        <v>0</v>
+      </c>
+      <c r="FK32">
         <v>0</v>
       </c>
     </row>
@@ -17151,7 +17249,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/14-12-2021///14122021.jpg</t>
+          <t>2021/14-12-2021/14122021.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -17634,6 +17732,9 @@
         <v>0</v>
       </c>
       <c r="FJ33">
+        <v>0</v>
+      </c>
+      <c r="FK33">
         <v>0</v>
       </c>
     </row>
@@ -17665,7 +17766,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/15-06-2021///15062021.jpg</t>
+          <t>2021/15-06-2021/15062021.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -18148,6 +18249,9 @@
         <v>0</v>
       </c>
       <c r="FJ34">
+        <v>0</v>
+      </c>
+      <c r="FK34">
         <v>0</v>
       </c>
     </row>
@@ -18179,7 +18283,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/16-02-2021///16022021.jpg</t>
+          <t>2021/16-02-2021/16022021.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -18662,6 +18766,9 @@
         <v>0</v>
       </c>
       <c r="FJ35">
+        <v>0</v>
+      </c>
+      <c r="FK35">
         <v>0</v>
       </c>
     </row>
@@ -18693,7 +18800,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/16-03-2021///16032021.jpg</t>
+          <t>2021/16-03-2021/16032021.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -19177,6 +19284,9 @@
       </c>
       <c r="FJ36">
         <v>1</v>
+      </c>
+      <c r="FK36">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -19207,7 +19317,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/17-08-2021///17082021.jpg</t>
+          <t>2021/17-08-2021/17082021.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -19690,6 +19800,9 @@
         <v>0</v>
       </c>
       <c r="FJ37">
+        <v>0</v>
+      </c>
+      <c r="FK37">
         <v>0</v>
       </c>
     </row>
@@ -19721,7 +19834,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/18-05-2021///18052021.jpg</t>
+          <t>2021/18-05-2021/18052021.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -20204,6 +20317,9 @@
         <v>0</v>
       </c>
       <c r="FJ38">
+        <v>0</v>
+      </c>
+      <c r="FK38">
         <v>0</v>
       </c>
     </row>
@@ -20235,7 +20351,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/19-01-2021///19012021.jpg</t>
+          <t>2021/19-01-2021/19012021.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -20718,6 +20834,9 @@
         <v>0</v>
       </c>
       <c r="FJ39">
+        <v>0</v>
+      </c>
+      <c r="FK39">
         <v>0</v>
       </c>
     </row>
@@ -20749,7 +20868,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/19-10-2021///19102021.jpg</t>
+          <t>2021/19-10-2021/19102021.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -21232,6 +21351,9 @@
         <v>0</v>
       </c>
       <c r="FJ40">
+        <v>0</v>
+      </c>
+      <c r="FK40">
         <v>0</v>
       </c>
     </row>
@@ -21263,7 +21385,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/20-04-2021///20042021.png</t>
+          <t>2021/20-04-2021/20042021.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -21746,6 +21868,9 @@
         <v>0</v>
       </c>
       <c r="FJ41">
+        <v>0</v>
+      </c>
+      <c r="FK41">
         <v>0</v>
       </c>
     </row>
@@ -21777,7 +21902,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/20-07-2021///20072021.jpg</t>
+          <t>2021/20-07-2021/20072021.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -22260,6 +22385,9 @@
         <v>0</v>
       </c>
       <c r="FJ42">
+        <v>0</v>
+      </c>
+      <c r="FK42">
         <v>0</v>
       </c>
     </row>
@@ -22291,7 +22419,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/21-09-2021///21092021_waffle.jpg</t>
+          <t>2021/21-09-2021/21092021.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -22774,6 +22902,9 @@
         <v>1</v>
       </c>
       <c r="FJ43">
+        <v>0</v>
+      </c>
+      <c r="FK43">
         <v>0</v>
       </c>
     </row>
@@ -22805,7 +22936,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/21-12-2021///21122021.jpg</t>
+          <t>2021/21-12-2021/21122021.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -23288,6 +23419,9 @@
         <v>0</v>
       </c>
       <c r="FJ44">
+        <v>0</v>
+      </c>
+      <c r="FK44">
         <v>0</v>
       </c>
     </row>
@@ -23314,12 +23448,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021_stream_plots.R</t>
+          <t>2021/22-06-2021/22062021.R</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/22-06-2021///22062021_v2.jpg</t>
+          <t>2021/22-06-2021/22062021.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -23802,6 +23936,9 @@
         <v>0</v>
       </c>
       <c r="FJ45">
+        <v>0</v>
+      </c>
+      <c r="FK45">
         <v>0</v>
       </c>
     </row>
@@ -23833,7 +23970,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/23-02-2021///23022021.jpg</t>
+          <t>2021/23-02-2021/23022021.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -24316,6 +24453,9 @@
         <v>0</v>
       </c>
       <c r="FJ46">
+        <v>0</v>
+      </c>
+      <c r="FK46">
         <v>0</v>
       </c>
     </row>
@@ -24347,7 +24487,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/23-03-2021///23032021.jpg</t>
+          <t>2021/23-03-2021/23032021.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -24830,6 +24970,9 @@
         <v>0</v>
       </c>
       <c r="FJ47">
+        <v>0</v>
+      </c>
+      <c r="FK47">
         <v>0</v>
       </c>
     </row>
@@ -24861,7 +25004,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/23-11-2021///23112021.jpg</t>
+          <t>2021/23-11-2021/23112021.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -25344,6 +25487,9 @@
         <v>0</v>
       </c>
       <c r="FJ48">
+        <v>0</v>
+      </c>
+      <c r="FK48">
         <v>0</v>
       </c>
     </row>
@@ -25375,7 +25521,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/24-08-2021///24082021.jpg</t>
+          <t>2021/24-08-2021/24082021.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -25858,6 +26004,9 @@
         <v>0</v>
       </c>
       <c r="FJ49">
+        <v>0</v>
+      </c>
+      <c r="FK49">
         <v>0</v>
       </c>
     </row>
@@ -25889,7 +26038,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/25-05-2021///25052021.jpg</t>
+          <t>2021/25-05-2021/25052021.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -26372,6 +26521,9 @@
         <v>0</v>
       </c>
       <c r="FJ50">
+        <v>0</v>
+      </c>
+      <c r="FK50">
         <v>0</v>
       </c>
     </row>
@@ -26403,7 +26555,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/26-01-2021///26012021.jpg</t>
+          <t>2021/26-01-2021/26012021.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -26886,6 +27038,9 @@
         <v>0</v>
       </c>
       <c r="FJ51">
+        <v>0</v>
+      </c>
+      <c r="FK51">
         <v>0</v>
       </c>
     </row>
@@ -26917,7 +27072,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/26-10-2021///26102021.jpg</t>
+          <t>2021/26-10-2021/26102021.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -27400,6 +27555,9 @@
         <v>0</v>
       </c>
       <c r="FJ52">
+        <v>0</v>
+      </c>
+      <c r="FK52">
         <v>0</v>
       </c>
     </row>
@@ -27431,7 +27589,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/27-04-2021///27042021.jpg</t>
+          <t>2021/27-04-2021/27042021.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -27914,6 +28072,9 @@
         <v>0</v>
       </c>
       <c r="FJ53">
+        <v>0</v>
+      </c>
+      <c r="FK53">
         <v>0</v>
       </c>
     </row>
@@ -27945,7 +28106,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/27-07-2021///27072021.jpg</t>
+          <t>2021/27-07-2021/27072021.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28428,6 +28589,9 @@
         <v>0</v>
       </c>
       <c r="FJ54">
+        <v>0</v>
+      </c>
+      <c r="FK54">
         <v>0</v>
       </c>
     </row>
@@ -28459,7 +28623,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/28-09-2021///28092021.jpg</t>
+          <t>2021/28-09-2021/28092021.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -28942,6 +29106,9 @@
         <v>0</v>
       </c>
       <c r="FJ55">
+        <v>0</v>
+      </c>
+      <c r="FK55">
         <v>0</v>
       </c>
     </row>
@@ -28973,7 +29140,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/29-06-2021///29062021.jpg</t>
+          <t>2021/29-06-2021/29062021.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -29456,6 +29623,9 @@
         <v>0</v>
       </c>
       <c r="FJ56">
+        <v>0</v>
+      </c>
+      <c r="FK56">
         <v>0</v>
       </c>
     </row>
@@ -29487,7 +29657,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021/29-12-2020///29122020.jpg</t>
+          <t>2021/29-12-2020/29122020.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -29970,6 +30140,9 @@
         <v>0</v>
       </c>
       <c r="FJ57">
+        <v>0</v>
+      </c>
+      <c r="FK57">
         <v>0</v>
       </c>
     </row>
@@ -30001,7 +30174,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021/30-03-2021///30032021.jpg</t>
+          <t>2021/30-03-2021/30032021.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -30484,6 +30657,9 @@
         <v>0</v>
       </c>
       <c r="FJ58">
+        <v>0</v>
+      </c>
+      <c r="FK58">
         <v>0</v>
       </c>
     </row>
@@ -30515,7 +30691,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/30-11-2021///30112021_v2.jpeg</t>
+          <t>2021/30-11-2021/30112021.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -30998,6 +31174,9 @@
         <v>0</v>
       </c>
       <c r="FJ59">
+        <v>0</v>
+      </c>
+      <c r="FK59">
         <v>0</v>
       </c>
     </row>
@@ -31029,7 +31208,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021/31-08-2021///31082021.jpg</t>
+          <t>2021/31-08-2021/31082021.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -31512,6 +31691,9 @@
         <v>0</v>
       </c>
       <c r="FJ60">
+        <v>0</v>
+      </c>
+      <c r="FK60">
         <v>0</v>
       </c>
     </row>
@@ -31543,7 +31725,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-01-04///20220104.jpg</t>
+          <t>2022/2022-01-04/20220104.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -32026,6 +32208,9 @@
         <v>0</v>
       </c>
       <c r="FJ61">
+        <v>0</v>
+      </c>
+      <c r="FK61">
         <v>0</v>
       </c>
     </row>
@@ -32057,7 +32242,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-01-11///20220111.jpg</t>
+          <t>2022/2022-01-11/20220111.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -32540,6 +32725,9 @@
         <v>0</v>
       </c>
       <c r="FJ62">
+        <v>0</v>
+      </c>
+      <c r="FK62">
         <v>0</v>
       </c>
     </row>
@@ -32571,7 +32759,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-01-18///20220118.png</t>
+          <t>2022/2022-01-18/20220118.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -33054,6 +33242,9 @@
         <v>0</v>
       </c>
       <c r="FJ63">
+        <v>0</v>
+      </c>
+      <c r="FK63">
         <v>0</v>
       </c>
     </row>
@@ -33085,7 +33276,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-01-25///20220125.jpeg</t>
+          <t>2022/2022-01-25/20220125.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -33568,6 +33759,9 @@
         <v>0</v>
       </c>
       <c r="FJ64">
+        <v>0</v>
+      </c>
+      <c r="FK64">
         <v>0</v>
       </c>
     </row>
@@ -33599,7 +33793,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-02-01///20220201.jpg</t>
+          <t>2022/2022-02-01/20220201.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -34082,6 +34276,9 @@
         <v>0</v>
       </c>
       <c r="FJ65">
+        <v>0</v>
+      </c>
+      <c r="FK65">
         <v>0</v>
       </c>
     </row>
@@ -34113,7 +34310,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-02-08///20220208.jpeg</t>
+          <t>2022/2022-02-08/20220208.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -34596,6 +34793,9 @@
         <v>0</v>
       </c>
       <c r="FJ66">
+        <v>0</v>
+      </c>
+      <c r="FK66">
         <v>0</v>
       </c>
     </row>
@@ -34627,7 +34827,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-02-15///20220215.jpg</t>
+          <t>2022/2022-02-15/20220215.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -35110,6 +35310,9 @@
         <v>0</v>
       </c>
       <c r="FJ67">
+        <v>0</v>
+      </c>
+      <c r="FK67">
         <v>0</v>
       </c>
     </row>
@@ -35141,7 +35344,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-02-22///20220222.jpeg</t>
+          <t>2022/2022-02-22/20220222.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -35624,6 +35827,9 @@
         <v>0</v>
       </c>
       <c r="FJ68">
+        <v>0</v>
+      </c>
+      <c r="FK68">
         <v>0</v>
       </c>
     </row>
@@ -35655,7 +35861,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-03-01///20220301.jpg</t>
+          <t>2022/2022-03-01/20220301.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -36138,6 +36344,9 @@
         <v>0</v>
       </c>
       <c r="FJ69">
+        <v>0</v>
+      </c>
+      <c r="FK69">
         <v>0</v>
       </c>
     </row>
@@ -36169,7 +36378,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-03-08///20220308.jpeg</t>
+          <t>2022/2022-03-08/20220308.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -36652,6 +36861,9 @@
         <v>0</v>
       </c>
       <c r="FJ70">
+        <v>0</v>
+      </c>
+      <c r="FK70">
         <v>0</v>
       </c>
     </row>
@@ -36683,7 +36895,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-03-15///20220315.jpeg</t>
+          <t>2022/2022-03-15/20220315.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -37166,6 +37378,9 @@
         <v>0</v>
       </c>
       <c r="FJ71">
+        <v>0</v>
+      </c>
+      <c r="FK71">
         <v>0</v>
       </c>
     </row>
@@ -37197,7 +37412,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-03-22///20220322.jpeg</t>
+          <t>2022/2022-03-22/20220322.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -37680,6 +37895,9 @@
         <v>0</v>
       </c>
       <c r="FJ72">
+        <v>0</v>
+      </c>
+      <c r="FK72">
         <v>0</v>
       </c>
     </row>
@@ -37711,7 +37929,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-03-29///20220329.jpeg</t>
+          <t>2022/2022-03-29/20220329.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -38194,6 +38412,9 @@
         <v>0</v>
       </c>
       <c r="FJ73">
+        <v>0</v>
+      </c>
+      <c r="FK73">
         <v>0</v>
       </c>
     </row>
@@ -38225,7 +38446,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-04-05///20220405.png</t>
+          <t>2022/2022-04-05/20220405.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -38708,6 +38929,9 @@
         <v>0</v>
       </c>
       <c r="FJ74">
+        <v>0</v>
+      </c>
+      <c r="FK74">
         <v>0</v>
       </c>
     </row>
@@ -38739,7 +38963,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-04-12///20220412.png</t>
+          <t>2022/2022-04-12/20220412.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -39222,6 +39446,9 @@
         <v>0</v>
       </c>
       <c r="FJ75">
+        <v>0</v>
+      </c>
+      <c r="FK75">
         <v>0</v>
       </c>
     </row>
@@ -39253,7 +39480,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-04-19///20220419.jpeg</t>
+          <t>2022/2022-04-19/20220419.jpeg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -39736,6 +39963,9 @@
         <v>0</v>
       </c>
       <c r="FJ76">
+        <v>0</v>
+      </c>
+      <c r="FK76">
         <v>0</v>
       </c>
     </row>
@@ -39767,7 +39997,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-04-26///20220426.png</t>
+          <t>2022/2022-04-26/20220426.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -40250,6 +40480,9 @@
         <v>0</v>
       </c>
       <c r="FJ77">
+        <v>0</v>
+      </c>
+      <c r="FK77">
         <v>0</v>
       </c>
     </row>
@@ -40281,7 +40514,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-05-03///20220503_bar.png</t>
+          <t>2022/2022-05-03/20220503_bar.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -40764,6 +40997,9 @@
         <v>0</v>
       </c>
       <c r="FJ78">
+        <v>0</v>
+      </c>
+      <c r="FK78">
         <v>0</v>
       </c>
     </row>
@@ -40795,7 +41031,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-05-10///20220510.png</t>
+          <t>2022/2022-05-10/20220510.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -41278,6 +41514,9 @@
         <v>0</v>
       </c>
       <c r="FJ79">
+        <v>0</v>
+      </c>
+      <c r="FK79">
         <v>0</v>
       </c>
     </row>
@@ -41309,7 +41548,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-05-17///20220517_tableau.png</t>
+          <t>2022/2022-05-17/20220517.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -41792,6 +42031,9 @@
         <v>0</v>
       </c>
       <c r="FJ80">
+        <v>0</v>
+      </c>
+      <c r="FK80">
         <v>0</v>
       </c>
     </row>
@@ -41823,7 +42065,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-05-24///20220524.png</t>
+          <t>2022/2022-05-24/20220524.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -42306,6 +42548,9 @@
         <v>0</v>
       </c>
       <c r="FJ81">
+        <v>0</v>
+      </c>
+      <c r="FK81">
         <v>0</v>
       </c>
     </row>
@@ -42337,7 +42582,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-05-31///20220531.png</t>
+          <t>2022/2022-05-31/20220531.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -42820,6 +43065,9 @@
         <v>0</v>
       </c>
       <c r="FJ82">
+        <v>0</v>
+      </c>
+      <c r="FK82">
         <v>0</v>
       </c>
     </row>
@@ -42851,7 +43099,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-06-07///20220607.png</t>
+          <t>2022/2022-06-07/20220607.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -43334,6 +43582,9 @@
         <v>0</v>
       </c>
       <c r="FJ83">
+        <v>0</v>
+      </c>
+      <c r="FK83">
         <v>0</v>
       </c>
     </row>
@@ -43365,7 +43616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-06-14///20220614.png</t>
+          <t>2022/2022-06-14/20220614.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -43848,6 +44099,9 @@
         <v>0</v>
       </c>
       <c r="FJ84">
+        <v>0</v>
+      </c>
+      <c r="FK84">
         <v>0</v>
       </c>
     </row>
@@ -43879,7 +44133,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-06-21///20220621.png</t>
+          <t>2022/2022-06-21/20220621.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -44362,6 +44616,9 @@
         <v>0</v>
       </c>
       <c r="FJ85">
+        <v>0</v>
+      </c>
+      <c r="FK85">
         <v>0</v>
       </c>
     </row>
@@ -44393,7 +44650,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-06-28///20220628.png</t>
+          <t>2022/2022-06-28/20220628.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -44876,6 +45133,9 @@
         <v>0</v>
       </c>
       <c r="FJ86">
+        <v>0</v>
+      </c>
+      <c r="FK86">
         <v>0</v>
       </c>
     </row>
@@ -44907,7 +45167,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-07-05///20220705.png</t>
+          <t>2022/2022-07-05/20220705.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -45390,6 +45650,9 @@
         <v>0</v>
       </c>
       <c r="FJ87">
+        <v>0</v>
+      </c>
+      <c r="FK87">
         <v>0</v>
       </c>
     </row>
@@ -45421,7 +45684,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-07-12///20220712.png</t>
+          <t>2022/2022-07-12/20220712.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -45904,6 +46167,9 @@
         <v>0</v>
       </c>
       <c r="FJ88">
+        <v>0</v>
+      </c>
+      <c r="FK88">
         <v>0</v>
       </c>
     </row>
@@ -45935,7 +46201,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-07-19///20220719.png</t>
+          <t>2022/2022-07-19/20220719.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -46418,6 +46684,9 @@
         <v>0</v>
       </c>
       <c r="FJ89">
+        <v>0</v>
+      </c>
+      <c r="FK89">
         <v>0</v>
       </c>
     </row>
@@ -46449,7 +46718,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-08-02///20220802.png</t>
+          <t>2022/2022-08-02/20220802.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -46932,6 +47201,9 @@
         <v>0</v>
       </c>
       <c r="FJ90">
+        <v>0</v>
+      </c>
+      <c r="FK90">
         <v>0</v>
       </c>
     </row>
@@ -46963,7 +47235,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-08-09///20220809.png</t>
+          <t>2022/2022-08-09/20220809.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -47446,6 +47718,9 @@
         <v>0</v>
       </c>
       <c r="FJ91">
+        <v>0</v>
+      </c>
+      <c r="FK91">
         <v>0</v>
       </c>
     </row>
@@ -47477,7 +47752,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-08-16///20220816.png</t>
+          <t>2022/2022-08-16/20220816.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -47960,6 +48235,9 @@
         <v>0</v>
       </c>
       <c r="FJ92">
+        <v>0</v>
+      </c>
+      <c r="FK92">
         <v>0</v>
       </c>
     </row>
@@ -47991,7 +48269,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-08-23///20220823.png</t>
+          <t>2022/2022-08-23/20220823.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -48474,6 +48752,9 @@
         <v>0</v>
       </c>
       <c r="FJ93">
+        <v>0</v>
+      </c>
+      <c r="FK93">
         <v>0</v>
       </c>
     </row>
@@ -48505,7 +48786,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-08-30///20220830.png</t>
+          <t>2022/2022-08-30/20220830.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -48988,6 +49269,9 @@
         <v>0</v>
       </c>
       <c r="FJ94">
+        <v>0</v>
+      </c>
+      <c r="FK94">
         <v>0</v>
       </c>
     </row>
@@ -49019,7 +49303,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-09-06///20220906.png</t>
+          <t>2022/2022-09-06/20220906.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -49502,6 +49786,9 @@
         <v>0</v>
       </c>
       <c r="FJ95">
+        <v>0</v>
+      </c>
+      <c r="FK95">
         <v>0</v>
       </c>
     </row>
@@ -49533,7 +49820,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-09-13///20220913.png</t>
+          <t>2022/2022-09-13/20220913.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -50016,6 +50303,9 @@
         <v>0</v>
       </c>
       <c r="FJ96">
+        <v>0</v>
+      </c>
+      <c r="FK96">
         <v>0</v>
       </c>
     </row>
@@ -50047,7 +50337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-09-20///20220920.png</t>
+          <t>2022/2022-09-20/20220920.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -50530,6 +50820,9 @@
         <v>0</v>
       </c>
       <c r="FJ97">
+        <v>0</v>
+      </c>
+      <c r="FK97">
         <v>0</v>
       </c>
     </row>
@@ -50561,7 +50854,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-09-27///20220927.png</t>
+          <t>2022/2022-09-27/20220927.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -51044,6 +51337,9 @@
         <v>0</v>
       </c>
       <c r="FJ98">
+        <v>0</v>
+      </c>
+      <c r="FK98">
         <v>0</v>
       </c>
     </row>
@@ -51075,7 +51371,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-10-04///20221004.png</t>
+          <t>2022/2022-10-04/20221004.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -51558,6 +51854,9 @@
         <v>0</v>
       </c>
       <c r="FJ99">
+        <v>0</v>
+      </c>
+      <c r="FK99">
         <v>0</v>
       </c>
     </row>
@@ -51589,7 +51888,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-10-11///20221011.png</t>
+          <t>2022/2022-10-11/20221011.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -52072,6 +52371,9 @@
         <v>0</v>
       </c>
       <c r="FJ100">
+        <v>0</v>
+      </c>
+      <c r="FK100">
         <v>0</v>
       </c>
     </row>
@@ -52103,7 +52405,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-10-18///20221018.png</t>
+          <t>2022/2022-10-18/20221018.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -52586,6 +52888,9 @@
         <v>0</v>
       </c>
       <c r="FJ101">
+        <v>0</v>
+      </c>
+      <c r="FK101">
         <v>0</v>
       </c>
     </row>
@@ -52617,7 +52922,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-10-25///20221025.png</t>
+          <t>2022/2022-10-25/20221025.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -53100,6 +53405,9 @@
         <v>0</v>
       </c>
       <c r="FJ102">
+        <v>0</v>
+      </c>
+      <c r="FK102">
         <v>0</v>
       </c>
     </row>
@@ -53131,7 +53439,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-11-01///20221101.png</t>
+          <t>2022/2022-11-01/20221101.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -53614,6 +53922,9 @@
         <v>0</v>
       </c>
       <c r="FJ103">
+        <v>0</v>
+      </c>
+      <c r="FK103">
         <v>0</v>
       </c>
     </row>
@@ -53645,7 +53956,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-11-08///20221108.png</t>
+          <t>2022/2022-11-08/20221108.png</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -54128,6 +54439,9 @@
         <v>0</v>
       </c>
       <c r="FJ104">
+        <v>0</v>
+      </c>
+      <c r="FK104">
         <v>0</v>
       </c>
     </row>
@@ -54159,7 +54473,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-11-15///20221115_plot1.png</t>
+          <t>2022/2022-11-15/20221115_plot1.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -54642,6 +54956,9 @@
         <v>0</v>
       </c>
       <c r="FJ105">
+        <v>0</v>
+      </c>
+      <c r="FK105">
         <v>0</v>
       </c>
     </row>
@@ -54673,7 +54990,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-11-22///20221122.png</t>
+          <t>2022/2022-11-22/20221122.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -55156,6 +55473,9 @@
         <v>0</v>
       </c>
       <c r="FJ106">
+        <v>0</v>
+      </c>
+      <c r="FK106">
         <v>0</v>
       </c>
     </row>
@@ -55187,7 +55507,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022/2022-11-29///20221129.png</t>
+          <t>2022/2022-11-29/20221129.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -55670,6 +55990,9 @@
         <v>0</v>
       </c>
       <c r="FJ107">
+        <v>0</v>
+      </c>
+      <c r="FK107">
         <v>0</v>
       </c>
     </row>
@@ -55701,7 +56024,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022/2022-12-06///20221206.png</t>
+          <t>2022/2022-12-06/20221206.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -56184,6 +56507,9 @@
         <v>0</v>
       </c>
       <c r="FJ108">
+        <v>0</v>
+      </c>
+      <c r="FK108">
         <v>0</v>
       </c>
     </row>
@@ -56215,7 +56541,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2022/2022-12-13///20221213.png</t>
+          <t>2022/2022-12-13/20221213.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -56698,6 +57024,9 @@
         <v>0</v>
       </c>
       <c r="FJ109">
+        <v>0</v>
+      </c>
+      <c r="FK109">
         <v>0</v>
       </c>
     </row>
@@ -56729,7 +57058,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2022/2022-12-20///20221220.png</t>
+          <t>2022/2022-12-20/20221220.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -57212,6 +57541,9 @@
         <v>0</v>
       </c>
       <c r="FJ110">
+        <v>0</v>
+      </c>
+      <c r="FK110">
         <v>0</v>
       </c>
     </row>
@@ -57243,7 +57575,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2022/2022-12-27///20221227.png</t>
+          <t>2022/2022-12-27/20221227.png</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -57726,6 +58058,9 @@
         <v>0</v>
       </c>
       <c r="FJ111">
+        <v>0</v>
+      </c>
+      <c r="FK111">
         <v>0</v>
       </c>
     </row>
@@ -57757,7 +58092,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-01-03///20230103_raw.png</t>
+          <t>2023/2023-01-03/20230103.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -58240,6 +58575,9 @@
         <v>0</v>
       </c>
       <c r="FJ112">
+        <v>0</v>
+      </c>
+      <c r="FK112">
         <v>0</v>
       </c>
     </row>
@@ -58271,7 +58609,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-01-10///20230110.png</t>
+          <t>2023/2023-01-10/20230110.png</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -58754,6 +59092,9 @@
         <v>0</v>
       </c>
       <c r="FJ113">
+        <v>0</v>
+      </c>
+      <c r="FK113">
         <v>0</v>
       </c>
     </row>
@@ -58785,7 +59126,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-01-17///20230117_book.png</t>
+          <t>2023/2023-01-17/20230117.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -59268,6 +59609,9 @@
         <v>0</v>
       </c>
       <c r="FJ114">
+        <v>0</v>
+      </c>
+      <c r="FK114">
         <v>0</v>
       </c>
     </row>
@@ -59299,7 +59643,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-01-24///20230124.png</t>
+          <t>2023/2023-01-24/20230124.png</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -59782,6 +60126,9 @@
         <v>0</v>
       </c>
       <c r="FJ115">
+        <v>0</v>
+      </c>
+      <c r="FK115">
         <v>0</v>
       </c>
     </row>
@@ -59813,7 +60160,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-01-31///20230131.png</t>
+          <t>2023/2023-01-31/20230131.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -60296,6 +60643,9 @@
         <v>0</v>
       </c>
       <c r="FJ116">
+        <v>0</v>
+      </c>
+      <c r="FK116">
         <v>0</v>
       </c>
     </row>
@@ -60327,7 +60677,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-02-07///20230207.png</t>
+          <t>2023/2023-02-07/20230207.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -60810,6 +61160,9 @@
         <v>0</v>
       </c>
       <c r="FJ117">
+        <v>0</v>
+      </c>
+      <c r="FK117">
         <v>0</v>
       </c>
     </row>
@@ -60831,17 +61184,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214_love_actually.R</t>
+          <t>2023/2023-02-14/20230214.R</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-02-14///20230214_love_actually.png</t>
+          <t>2023/2023-02-14/20230214.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -60952,7 +61305,7 @@
         <v>0</v>
       </c>
       <c r="AP118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>0</v>
@@ -61150,7 +61503,7 @@
         <v>0</v>
       </c>
       <c r="DD118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE118">
         <v>0</v>
@@ -61192,7 +61545,7 @@
         <v>0</v>
       </c>
       <c r="DR118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS118">
         <v>0</v>
@@ -61324,6 +61677,9 @@
         <v>0</v>
       </c>
       <c r="FJ118">
+        <v>0</v>
+      </c>
+      <c r="FK118">
         <v>0</v>
       </c>
     </row>
@@ -61355,7 +61711,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-02-21///20230221.png</t>
+          <t>2023/2023-02-21/20230221.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -61838,6 +62194,9 @@
         <v>0</v>
       </c>
       <c r="FJ119">
+        <v>0</v>
+      </c>
+      <c r="FK119">
         <v>0</v>
       </c>
     </row>
@@ -61869,7 +62228,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-02-28///20230228.png</t>
+          <t>2023/2023-02-28/20230228.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -62352,6 +62711,9 @@
         <v>0</v>
       </c>
       <c r="FJ120">
+        <v>0</v>
+      </c>
+      <c r="FK120">
         <v>0</v>
       </c>
     </row>
@@ -62383,7 +62745,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-03-07///20230307.png</t>
+          <t>2023/2023-03-07/20230307.png</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -62866,6 +63228,9 @@
         <v>0</v>
       </c>
       <c r="FJ121">
+        <v>0</v>
+      </c>
+      <c r="FK121">
         <v>0</v>
       </c>
     </row>
@@ -62897,7 +63262,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-03-14///20230314_b.png</t>
+          <t>2023/2023-03-14/20230314.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -63380,6 +63745,9 @@
         <v>0</v>
       </c>
       <c r="FJ122">
+        <v>0</v>
+      </c>
+      <c r="FK122">
         <v>0</v>
       </c>
     </row>
@@ -63411,7 +63779,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-03-21///20230321.png</t>
+          <t>2023/2023-03-21/20230321.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -63894,6 +64262,9 @@
         <v>0</v>
       </c>
       <c r="FJ123">
+        <v>0</v>
+      </c>
+      <c r="FK123">
         <v>0</v>
       </c>
     </row>
@@ -63925,7 +64296,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-03-28///20230328.png</t>
+          <t>2023/2023-03-28/20230328.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -64408,6 +64779,9 @@
         <v>0</v>
       </c>
       <c r="FJ124">
+        <v>0</v>
+      </c>
+      <c r="FK124">
         <v>0</v>
       </c>
     </row>
@@ -64439,7 +64813,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-04-04///20230404.png</t>
+          <t>2023/2023-04-04/20230404.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -64922,6 +65296,9 @@
         <v>0</v>
       </c>
       <c r="FJ125">
+        <v>0</v>
+      </c>
+      <c r="FK125">
         <v>0</v>
       </c>
     </row>
@@ -64953,7 +65330,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-04-11///20230411.png</t>
+          <t>2023/2023-04-11/20230411.png</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -65436,6 +65813,9 @@
         <v>0</v>
       </c>
       <c r="FJ126">
+        <v>0</v>
+      </c>
+      <c r="FK126">
         <v>0</v>
       </c>
     </row>
@@ -65467,7 +65847,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-04-18///20230418.png</t>
+          <t>2023/2023-04-18/20230418.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -65950,6 +66330,9 @@
         <v>0</v>
       </c>
       <c r="FJ127">
+        <v>0</v>
+      </c>
+      <c r="FK127">
         <v>0</v>
       </c>
     </row>
@@ -65981,7 +66364,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-04-25///20230425.png</t>
+          <t>2023/2023-04-25/20230425.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -66464,6 +66847,9 @@
         <v>0</v>
       </c>
       <c r="FJ128">
+        <v>0</v>
+      </c>
+      <c r="FK128">
         <v>0</v>
       </c>
     </row>
@@ -66495,7 +66881,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-05-02///20230502.png</t>
+          <t>2023/2023-05-02/20230502.png</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -66978,6 +67364,9 @@
         <v>0</v>
       </c>
       <c r="FJ129">
+        <v>0</v>
+      </c>
+      <c r="FK129">
         <v>0</v>
       </c>
     </row>
@@ -67009,7 +67398,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-05-09///20230509.png</t>
+          <t>2023/2023-05-09/20230509.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -67492,6 +67881,9 @@
         <v>0</v>
       </c>
       <c r="FJ130">
+        <v>0</v>
+      </c>
+      <c r="FK130">
         <v>0</v>
       </c>
     </row>
@@ -67523,7 +67915,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-05-16///20230516.png</t>
+          <t>2023/2023-05-16/20230516.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -68006,6 +68398,9 @@
         <v>0</v>
       </c>
       <c r="FJ131">
+        <v>0</v>
+      </c>
+      <c r="FK131">
         <v>0</v>
       </c>
     </row>
@@ -68037,7 +68432,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-05-23///20230523.png</t>
+          <t>2023/2023-05-23/20230523.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -68520,6 +68915,9 @@
         <v>0</v>
       </c>
       <c r="FJ132">
+        <v>0</v>
+      </c>
+      <c r="FK132">
         <v>0</v>
       </c>
     </row>
@@ -68551,7 +68949,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-05-30///20230530.png</t>
+          <t>2023/2023-05-30/20230530.png</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -69034,6 +69432,9 @@
         <v>0</v>
       </c>
       <c r="FJ133">
+        <v>0</v>
+      </c>
+      <c r="FK133">
         <v>0</v>
       </c>
     </row>
@@ -69055,17 +69456,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, readr</t>
+          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606_baseR.R</t>
+          <t>2023/2023-06-06/20230606.R</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-06-06///20230606_base.png</t>
+          <t>2023/2023-06-06/20230606.png</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -69080,7 +69481,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -69239,7 +69640,7 @@
         <v>0</v>
       </c>
       <c r="BK134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL134">
         <v>0</v>
@@ -69254,7 +69655,7 @@
         <v>0</v>
       </c>
       <c r="BP134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ134">
         <v>0</v>
@@ -69308,7 +69709,7 @@
         <v>0</v>
       </c>
       <c r="CH134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI134">
         <v>0</v>
@@ -69338,7 +69739,7 @@
         <v>0</v>
       </c>
       <c r="CR134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS134">
         <v>0</v>
@@ -69362,7 +69763,7 @@
         <v>0</v>
       </c>
       <c r="CZ134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA134">
         <v>0</v>
@@ -69548,6 +69949,9 @@
         <v>0</v>
       </c>
       <c r="FJ134">
+        <v>0</v>
+      </c>
+      <c r="FK134">
         <v>0</v>
       </c>
     </row>
@@ -69579,7 +69983,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-06-13///20230613.png</t>
+          <t>2023/2023-06-13/20230613.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -70062,6 +70466,9 @@
         <v>0</v>
       </c>
       <c r="FJ135">
+        <v>0</v>
+      </c>
+      <c r="FK135">
         <v>0</v>
       </c>
     </row>
@@ -70093,7 +70500,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-06-20///20230620.png</t>
+          <t>2023/2023-06-20/20230620.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -70576,6 +70983,9 @@
         <v>0</v>
       </c>
       <c r="FJ136">
+        <v>0</v>
+      </c>
+      <c r="FK136">
         <v>0</v>
       </c>
     </row>
@@ -70607,7 +71017,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-06-27///20230627.png</t>
+          <t>2023/2023-06-27/20230627.png</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -71090,6 +71500,9 @@
         <v>0</v>
       </c>
       <c r="FJ137">
+        <v>0</v>
+      </c>
+      <c r="FK137">
         <v>0</v>
       </c>
     </row>
@@ -71121,7 +71534,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-07-04///20230704.png</t>
+          <t>2023/2023-07-04/20230704.png</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -71604,6 +72017,9 @@
         <v>0</v>
       </c>
       <c r="FJ138">
+        <v>0</v>
+      </c>
+      <c r="FK138">
         <v>0</v>
       </c>
     </row>
@@ -71635,7 +72051,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-07-11///20230711.png</t>
+          <t>2023/2023-07-11/20230711.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -72118,6 +72534,9 @@
         <v>0</v>
       </c>
       <c r="FJ139">
+        <v>0</v>
+      </c>
+      <c r="FK139">
         <v>0</v>
       </c>
     </row>
@@ -72149,7 +72568,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-07-18///20230718.png</t>
+          <t>2023/2023-07-18/20230718.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -72632,6 +73051,9 @@
         <v>0</v>
       </c>
       <c r="FJ140">
+        <v>0</v>
+      </c>
+      <c r="FK140">
         <v>0</v>
       </c>
     </row>
@@ -72663,7 +73085,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-07-25///20230725_v2.png</t>
+          <t>2023/2023-07-25/20230725.png</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -73146,6 +73568,9 @@
         <v>0</v>
       </c>
       <c r="FJ141">
+        <v>0</v>
+      </c>
+      <c r="FK141">
         <v>0</v>
       </c>
     </row>
@@ -73177,7 +73602,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-08-01///20230801.png</t>
+          <t>2023/2023-08-01/20230801.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -73660,6 +74085,9 @@
         <v>0</v>
       </c>
       <c r="FJ142">
+        <v>0</v>
+      </c>
+      <c r="FK142">
         <v>0</v>
       </c>
     </row>
@@ -73691,7 +74119,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-08-08///20230808.png</t>
+          <t>2023/2023-08-08/20230808.png</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -74174,6 +74602,9 @@
         <v>0</v>
       </c>
       <c r="FJ143">
+        <v>0</v>
+      </c>
+      <c r="FK143">
         <v>0</v>
       </c>
     </row>
@@ -74205,7 +74636,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-08-15///20230815.png</t>
+          <t>2023/2023-08-15/20230815.png</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -74688,6 +75119,9 @@
         <v>0</v>
       </c>
       <c r="FJ144">
+        <v>0</v>
+      </c>
+      <c r="FK144">
         <v>0</v>
       </c>
     </row>
@@ -74719,7 +75153,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-08-22///20230822.png</t>
+          <t>2023/2023-08-22/20230822.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -75202,6 +75636,9 @@
         <v>0</v>
       </c>
       <c r="FJ145">
+        <v>0</v>
+      </c>
+      <c r="FK145">
         <v>0</v>
       </c>
     </row>
@@ -75233,7 +75670,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-08-29///20230829.png</t>
+          <t>2023/2023-08-29/20230829.png</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -75716,6 +76153,9 @@
         <v>0</v>
       </c>
       <c r="FJ146">
+        <v>0</v>
+      </c>
+      <c r="FK146">
         <v>0</v>
       </c>
     </row>
@@ -75747,7 +76187,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-09-05///20230905.png</t>
+          <t>2023/2023-09-05/20230905.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -76230,6 +76670,9 @@
         <v>0</v>
       </c>
       <c r="FJ147">
+        <v>0</v>
+      </c>
+      <c r="FK147">
         <v>0</v>
       </c>
     </row>
@@ -76261,7 +76704,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-09-12///20230912.png</t>
+          <t>2023/2023-09-12/20230912.png</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -76744,6 +77187,9 @@
         <v>0</v>
       </c>
       <c r="FJ148">
+        <v>0</v>
+      </c>
+      <c r="FK148">
         <v>0</v>
       </c>
     </row>
@@ -76775,7 +77221,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-09-19///20230919.png</t>
+          <t>2023/2023-09-19/20230919.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -77258,6 +77704,9 @@
         <v>0</v>
       </c>
       <c r="FJ149">
+        <v>0</v>
+      </c>
+      <c r="FK149">
         <v>0</v>
       </c>
     </row>
@@ -77289,7 +77738,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-09-26///20230926.png</t>
+          <t>2023/2023-09-26/20230926.png</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -77772,6 +78221,9 @@
         <v>0</v>
       </c>
       <c r="FJ150">
+        <v>0</v>
+      </c>
+      <c r="FK150">
         <v>0</v>
       </c>
     </row>
@@ -77803,7 +78255,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-10-03///20231003.png</t>
+          <t>2023/2023-10-03/20231003.png</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -78286,6 +78738,9 @@
         <v>0</v>
       </c>
       <c r="FJ151">
+        <v>0</v>
+      </c>
+      <c r="FK151">
         <v>0</v>
       </c>
     </row>
@@ -78317,7 +78772,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-10-10///20231010.png</t>
+          <t>2023/2023-10-10/20231010.png</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -78800,6 +79255,9 @@
         <v>0</v>
       </c>
       <c r="FJ152">
+        <v>0</v>
+      </c>
+      <c r="FK152">
         <v>0</v>
       </c>
     </row>
@@ -78831,7 +79289,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-10-17///20231017.png</t>
+          <t>2023/2023-10-17/20231017.png</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -79314,6 +79772,9 @@
         <v>0</v>
       </c>
       <c r="FJ153">
+        <v>0</v>
+      </c>
+      <c r="FK153">
         <v>0</v>
       </c>
     </row>
@@ -79345,7 +79806,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-10-24///20231024_clusters.png</t>
+          <t>2023/2023-10-24/20231024.png</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -79828,6 +80289,9 @@
         <v>0</v>
       </c>
       <c r="FJ154">
+        <v>0</v>
+      </c>
+      <c r="FK154">
         <v>0</v>
       </c>
     </row>
@@ -79859,7 +80323,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-10-31///20231031.png</t>
+          <t>2023/2023-10-31/20231031.png</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -80342,6 +80806,9 @@
         <v>0</v>
       </c>
       <c r="FJ155">
+        <v>0</v>
+      </c>
+      <c r="FK155">
         <v>0</v>
       </c>
     </row>
@@ -80373,7 +80840,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-11-07///20231107.png</t>
+          <t>2023/2023-11-07/20231107.png</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -80856,6 +81323,9 @@
         <v>0</v>
       </c>
       <c r="FJ156">
+        <v>0</v>
+      </c>
+      <c r="FK156">
         <v>0</v>
       </c>
     </row>
@@ -80887,7 +81357,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-11-14///20231114.png</t>
+          <t>2023/2023-11-14/20231114.png</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -81370,6 +81840,9 @@
         <v>0</v>
       </c>
       <c r="FJ157">
+        <v>0</v>
+      </c>
+      <c r="FK157">
         <v>0</v>
       </c>
     </row>
@@ -81401,7 +81874,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-11-21///20231121.png</t>
+          <t>2023/2023-11-21/20231121.png</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -81884,6 +82357,9 @@
         <v>0</v>
       </c>
       <c r="FJ158">
+        <v>0</v>
+      </c>
+      <c r="FK158">
         <v>0</v>
       </c>
     </row>
@@ -81915,7 +82391,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023/2023-11-28///20231128.png</t>
+          <t>2023/2023-11-28/20231128.png</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -82398,6 +82874,9 @@
         <v>0</v>
       </c>
       <c r="FJ159">
+        <v>0</v>
+      </c>
+      <c r="FK159">
         <v>0</v>
       </c>
     </row>
@@ -82429,7 +82908,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023/2023-12-05///20231205.png</t>
+          <t>2023/2023-12-05/20231205.png</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -82912,6 +83391,9 @@
         <v>0</v>
       </c>
       <c r="FJ160">
+        <v>0</v>
+      </c>
+      <c r="FK160">
         <v>0</v>
       </c>
     </row>
@@ -82943,7 +83425,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023/2023-12-12///20231212.png</t>
+          <t>2023/2023-12-12/20231212.png</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -83426,6 +83908,9 @@
         <v>0</v>
       </c>
       <c r="FJ161">
+        <v>0</v>
+      </c>
+      <c r="FK161">
         <v>0</v>
       </c>
     </row>
@@ -83457,7 +83942,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023/2023-12-19///20231219.png</t>
+          <t>2023/2023-12-19/20231219.png</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -83940,6 +84425,9 @@
         <v>0</v>
       </c>
       <c r="FJ162">
+        <v>0</v>
+      </c>
+      <c r="FK162">
         <v>0</v>
       </c>
     </row>
@@ -83971,7 +84459,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2023/2023-12-26///20231226.png</t>
+          <t>2023/2023-12-26/20231226.png</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -84454,6 +84942,9 @@
         <v>0</v>
       </c>
       <c r="FJ163">
+        <v>0</v>
+      </c>
+      <c r="FK163">
         <v>0</v>
       </c>
     </row>
@@ -84485,7 +84976,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-01-02///20240102.png</t>
+          <t>2024/2024-01-02/20240102.png</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -84968,6 +85459,9 @@
         <v>0</v>
       </c>
       <c r="FJ164">
+        <v>0</v>
+      </c>
+      <c r="FK164">
         <v>0</v>
       </c>
     </row>
@@ -84999,7 +85493,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-01-09///20240109_canada.png</t>
+          <t>2024/2024-01-09/20240109.png</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -85482,6 +85976,9 @@
         <v>0</v>
       </c>
       <c r="FJ165">
+        <v>0</v>
+      </c>
+      <c r="FK165">
         <v>0</v>
       </c>
     </row>
@@ -85513,7 +86010,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-01-16///20240116.png</t>
+          <t>2024/2024-01-16/20240116.png</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -85996,6 +86493,9 @@
         <v>0</v>
       </c>
       <c r="FJ166">
+        <v>0</v>
+      </c>
+      <c r="FK166">
         <v>0</v>
       </c>
     </row>
@@ -86027,7 +86527,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-01-23///20240123.png</t>
+          <t>2024/2024-01-23/20240123.png</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -86510,6 +87010,9 @@
         <v>0</v>
       </c>
       <c r="FJ167">
+        <v>0</v>
+      </c>
+      <c r="FK167">
         <v>0</v>
       </c>
     </row>
@@ -86541,7 +87044,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-01-30///20240130.png</t>
+          <t>2024/2024-01-30/20240130.png</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -87024,6 +87527,9 @@
         <v>0</v>
       </c>
       <c r="FJ168">
+        <v>0</v>
+      </c>
+      <c r="FK168">
         <v>0</v>
       </c>
     </row>
@@ -87055,7 +87561,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024/2024-02-06///20240206.png</t>
+          <t>2024/2024-02-06/20240206.png</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -87538,6 +88044,9 @@
         <v>0</v>
       </c>
       <c r="FJ169">
+        <v>0</v>
+      </c>
+      <c r="FK169">
         <v>0</v>
       </c>
     </row>
@@ -87569,7 +88078,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024/2024-02-13///20240213.png</t>
+          <t>2024/2024-02-13/20240213.png</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -88052,6 +88561,9 @@
         <v>0</v>
       </c>
       <c r="FJ170">
+        <v>0</v>
+      </c>
+      <c r="FK170">
         <v>0</v>
       </c>
     </row>
@@ -88083,7 +88595,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2024/2024-02-20///20240220.png</t>
+          <t>2024/2024-02-20/20240220.png</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -88566,6 +89078,9 @@
         <v>0</v>
       </c>
       <c r="FJ171">
+        <v>0</v>
+      </c>
+      <c r="FK171">
         <v>0</v>
       </c>
     </row>
@@ -88597,7 +89112,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2024/2024-02-27///20240227.png</t>
+          <t>2024/2024-02-27/20240227.png</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -89080,6 +89595,9 @@
         <v>0</v>
       </c>
       <c r="FJ172">
+        <v>0</v>
+      </c>
+      <c r="FK172">
         <v>0</v>
       </c>
     </row>
@@ -89111,7 +89629,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2024/2024-03-05///20240305.png</t>
+          <t>2024/2024-03-05/20240305.png</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -89594,6 +90112,9 @@
         <v>1</v>
       </c>
       <c r="FJ173">
+        <v>0</v>
+      </c>
+      <c r="FK173">
         <v>0</v>
       </c>
     </row>
@@ -89625,7 +90146,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2024/2024-03-12///20240312.png</t>
+          <t>2024/2024-03-12/20240312.png</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -90108,6 +90629,9 @@
         <v>0</v>
       </c>
       <c r="FJ174">
+        <v>0</v>
+      </c>
+      <c r="FK174">
         <v>0</v>
       </c>
     </row>
@@ -90139,7 +90663,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2024/2024-03-19///20240319.png</t>
+          <t>2024/2024-03-19/20240319.png</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -90622,6 +91146,9 @@
         <v>0</v>
       </c>
       <c r="FJ175">
+        <v>0</v>
+      </c>
+      <c r="FK175">
         <v>0</v>
       </c>
     </row>
@@ -90653,7 +91180,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2024/2024-03-26///20240326.png</t>
+          <t>2024/2024-03-26/20240326.png</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -91136,6 +91663,9 @@
         <v>0</v>
       </c>
       <c r="FJ176">
+        <v>0</v>
+      </c>
+      <c r="FK176">
         <v>0</v>
       </c>
     </row>
@@ -91167,7 +91697,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2024/2024-04-02///20240402.png</t>
+          <t>2024/2024-04-02/20240402.png</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -91650,6 +92180,9 @@
         <v>0</v>
       </c>
       <c r="FJ177">
+        <v>0</v>
+      </c>
+      <c r="FK177">
         <v>0</v>
       </c>
     </row>
@@ -91681,7 +92214,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2024/2024-04-09///20240409.png</t>
+          <t>2024/2024-04-09/20240409.png</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -92164,6 +92697,9 @@
         <v>0</v>
       </c>
       <c r="FJ178">
+        <v>0</v>
+      </c>
+      <c r="FK178">
         <v>0</v>
       </c>
     </row>
@@ -92195,7 +92731,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2024/2024-04-16///20240416.png</t>
+          <t>2024/2024-04-16/20240416.png</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -92678,6 +93214,9 @@
         <v>0</v>
       </c>
       <c r="FJ179">
+        <v>0</v>
+      </c>
+      <c r="FK179">
         <v>0</v>
       </c>
     </row>
@@ -92709,7 +93248,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2024/2024-04-23///20240423.png</t>
+          <t>2024/2024-04-23/20240423.png</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -93192,6 +93731,9 @@
         <v>0</v>
       </c>
       <c r="FJ180">
+        <v>0</v>
+      </c>
+      <c r="FK180">
         <v>0</v>
       </c>
     </row>
@@ -93223,7 +93765,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2024/2024-04-30///20240430.png</t>
+          <t>2024/2024-04-30/20240430.png</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -93706,6 +94248,9 @@
         <v>0</v>
       </c>
       <c r="FJ181">
+        <v>0</v>
+      </c>
+      <c r="FK181">
         <v>0</v>
       </c>
     </row>
@@ -93737,7 +94282,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2024/2024-05-07///20240507.png</t>
+          <t>2024/2024-05-07/20240507.png</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -94220,6 +94765,9 @@
         <v>0</v>
       </c>
       <c r="FJ182">
+        <v>0</v>
+      </c>
+      <c r="FK182">
         <v>0</v>
       </c>
     </row>
@@ -94251,7 +94799,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2024/2024-05-14///20240514.png</t>
+          <t>2024/2024-05-14/20240514.png</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -94734,6 +95282,9 @@
         <v>0</v>
       </c>
       <c r="FJ183">
+        <v>0</v>
+      </c>
+      <c r="FK183">
         <v>0</v>
       </c>
     </row>
@@ -94765,7 +95316,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2024/2024-05-21///20240521.png</t>
+          <t>2024/2024-05-21/20240521.png</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -95248,6 +95799,9 @@
         <v>0</v>
       </c>
       <c r="FJ184">
+        <v>0</v>
+      </c>
+      <c r="FK184">
         <v>0</v>
       </c>
     </row>
@@ -95279,7 +95833,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2024/2024-05-28///20240528.png</t>
+          <t>2024/2024-05-28/20240528.png</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -95762,6 +96316,9 @@
         <v>0</v>
       </c>
       <c r="FJ185">
+        <v>0</v>
+      </c>
+      <c r="FK185">
         <v>0</v>
       </c>
     </row>
@@ -95793,7 +96350,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2024/2024-06-04///20240604.png</t>
+          <t>2024/2024-06-04/20240604.png</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -96276,6 +96833,9 @@
         <v>0</v>
       </c>
       <c r="FJ186">
+        <v>0</v>
+      </c>
+      <c r="FK186">
         <v>0</v>
       </c>
     </row>
@@ -96307,7 +96867,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2024/2024-06-11///20240611.png</t>
+          <t>2024/2024-06-11/20240611.png</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -96790,6 +97350,9 @@
         <v>0</v>
       </c>
       <c r="FJ187">
+        <v>0</v>
+      </c>
+      <c r="FK187">
         <v>0</v>
       </c>
     </row>
@@ -96821,7 +97384,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2024/2024-06-18///20240618.png</t>
+          <t>2024/2024-06-18/20240618.png</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -97304,6 +97867,9 @@
         <v>0</v>
       </c>
       <c r="FJ188">
+        <v>0</v>
+      </c>
+      <c r="FK188">
         <v>0</v>
       </c>
     </row>
@@ -97335,7 +97901,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2024/2024-06-25///20240625.png</t>
+          <t>2024/2024-06-25/20240625.png</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -97818,6 +98384,9 @@
         <v>0</v>
       </c>
       <c r="FJ189">
+        <v>0</v>
+      </c>
+      <c r="FK189">
         <v>0</v>
       </c>
     </row>
@@ -97849,7 +98418,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2024/2024-07-02///20240702_all.png</t>
+          <t>2024/2024-07-02/20240702.png</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -98332,6 +98901,9 @@
         <v>0</v>
       </c>
       <c r="FJ190">
+        <v>0</v>
+      </c>
+      <c r="FK190">
         <v>0</v>
       </c>
     </row>
@@ -98363,7 +98935,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2024/2024-07-09///20240709.png</t>
+          <t>2024/2024-07-09/20240709.png</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -98846,6 +99418,9 @@
         <v>0</v>
       </c>
       <c r="FJ191">
+        <v>0</v>
+      </c>
+      <c r="FK191">
         <v>0</v>
       </c>
     </row>
@@ -98877,7 +99452,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2024/2024-07-16///20240716.png</t>
+          <t>2024/2024-07-16/20240716.png</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -99360,6 +99935,9 @@
         <v>0</v>
       </c>
       <c r="FJ192">
+        <v>0</v>
+      </c>
+      <c r="FK192">
         <v>0</v>
       </c>
     </row>
@@ -99391,7 +99969,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2024/2024-07-23///20240723.png</t>
+          <t>2024/2024-07-23/20240723.png</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -99874,6 +100452,9 @@
         <v>0</v>
       </c>
       <c r="FJ193">
+        <v>0</v>
+      </c>
+      <c r="FK193">
         <v>0</v>
       </c>
     </row>
@@ -99905,7 +100486,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2024/2024-07-30///20240730.png</t>
+          <t>2024/2024-07-30/20240730.png</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -100388,6 +100969,9 @@
         <v>0</v>
       </c>
       <c r="FJ194">
+        <v>0</v>
+      </c>
+      <c r="FK194">
         <v>0</v>
       </c>
     </row>
@@ -100419,7 +101003,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2024/2024-08-06///20240806.png</t>
+          <t>2024/2024-08-06/20240806.png</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -100902,6 +101486,9 @@
         <v>0</v>
       </c>
       <c r="FJ195">
+        <v>0</v>
+      </c>
+      <c r="FK195">
         <v>0</v>
       </c>
     </row>
@@ -100933,7 +101520,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2024/2024-08-13///20240813.png</t>
+          <t>2024/2024-08-13/20240813.png</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -101416,6 +102003,9 @@
         <v>0</v>
       </c>
       <c r="FJ196">
+        <v>0</v>
+      </c>
+      <c r="FK196">
         <v>0</v>
       </c>
     </row>
@@ -101447,7 +102037,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2024/2024-08-20///20240820.png</t>
+          <t>2024/2024-08-20/20240820.png</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -101930,6 +102520,9 @@
         <v>0</v>
       </c>
       <c r="FJ197">
+        <v>0</v>
+      </c>
+      <c r="FK197">
         <v>0</v>
       </c>
     </row>
@@ -101961,7 +102554,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2024/2024-08-27///20240827_safe.png</t>
+          <t>2024/2024-08-27/20240827.png</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -102444,6 +103037,9 @@
         <v>0</v>
       </c>
       <c r="FJ198">
+        <v>0</v>
+      </c>
+      <c r="FK198">
         <v>0</v>
       </c>
     </row>
@@ -102475,7 +103071,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2024/2024-09-03///20240903.png</t>
+          <t>2024/2024-09-03/20240903.png</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -102958,6 +103554,9 @@
         <v>0</v>
       </c>
       <c r="FJ199">
+        <v>0</v>
+      </c>
+      <c r="FK199">
         <v>0</v>
       </c>
     </row>
@@ -102989,7 +103588,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2024/2024-09-10///20240910.png</t>
+          <t>2024/2024-09-10/20240910.png</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -103472,6 +104071,9 @@
         <v>0</v>
       </c>
       <c r="FJ200">
+        <v>0</v>
+      </c>
+      <c r="FK200">
         <v>0</v>
       </c>
     </row>
@@ -103503,7 +104105,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2024/2024-09-17///20240917.png</t>
+          <t>2024/2024-09-17/20240917.png</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -103986,6 +104588,9 @@
         <v>0</v>
       </c>
       <c r="FJ201">
+        <v>0</v>
+      </c>
+      <c r="FK201">
         <v>0</v>
       </c>
     </row>
@@ -104017,7 +104622,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2024/2024-09-24///20240924.png</t>
+          <t>2024/2024-09-24/20240924.png</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -104500,6 +105105,9 @@
         <v>0</v>
       </c>
       <c r="FJ202">
+        <v>0</v>
+      </c>
+      <c r="FK202">
         <v>0</v>
       </c>
     </row>
@@ -104531,7 +105139,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2024/2024-10-01///20241001.png</t>
+          <t>2024/2024-10-01/20241001.png</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -105014,6 +105622,9 @@
         <v>0</v>
       </c>
       <c r="FJ203">
+        <v>0</v>
+      </c>
+      <c r="FK203">
         <v>0</v>
       </c>
     </row>
@@ -105045,7 +105656,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2024/2024-10-08///20241008.png</t>
+          <t>2024/2024-10-08/20241008.png</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -105528,6 +106139,9 @@
         <v>0</v>
       </c>
       <c r="FJ204">
+        <v>0</v>
+      </c>
+      <c r="FK204">
         <v>0</v>
       </c>
     </row>
@@ -105559,7 +106173,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2024/2024-10-15///20241015_v2.png</t>
+          <t>2024/2024-10-15/20241015.png</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -106042,6 +106656,9 @@
         <v>0</v>
       </c>
       <c r="FJ205">
+        <v>0</v>
+      </c>
+      <c r="FK205">
         <v>0</v>
       </c>
     </row>
@@ -106073,7 +106690,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2024/2024-10-22///20241022.png</t>
+          <t>2024/2024-10-22/20241022.png</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -106556,6 +107173,9 @@
         <v>0</v>
       </c>
       <c r="FJ206">
+        <v>0</v>
+      </c>
+      <c r="FK206">
         <v>0</v>
       </c>
     </row>
@@ -106587,7 +107207,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2024/2024-10-29///20241029.png</t>
+          <t>2024/2024-10-29/20241029.png</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -107070,6 +107690,9 @@
         <v>0</v>
       </c>
       <c r="FJ207">
+        <v>0</v>
+      </c>
+      <c r="FK207">
         <v>0</v>
       </c>
     </row>
@@ -107101,7 +107724,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2024/2024-11-05///20241105.png</t>
+          <t>2024/2024-11-05/20241105.png</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -107584,6 +108207,9 @@
         <v>0</v>
       </c>
       <c r="FJ208">
+        <v>0</v>
+      </c>
+      <c r="FK208">
         <v>0</v>
       </c>
     </row>
@@ -107615,7 +108241,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2024/2024-11-12///20241112.png</t>
+          <t>2024/2024-11-12/20241112.png</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -108098,6 +108724,9 @@
         <v>0</v>
       </c>
       <c r="FJ209">
+        <v>0</v>
+      </c>
+      <c r="FK209">
         <v>0</v>
       </c>
     </row>
@@ -108129,7 +108758,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2024/2024-11-19///20241119.png</t>
+          <t>2024/2024-11-19/20241119.png</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -108612,6 +109241,9 @@
         <v>0</v>
       </c>
       <c r="FJ210">
+        <v>0</v>
+      </c>
+      <c r="FK210">
         <v>0</v>
       </c>
     </row>
@@ -108643,7 +109275,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2024/2024-11-26///20241126.png</t>
+          <t>2024/2024-11-26/20241126.png</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -109126,6 +109758,9 @@
         <v>0</v>
       </c>
       <c r="FJ211">
+        <v>0</v>
+      </c>
+      <c r="FK211">
         <v>0</v>
       </c>
     </row>
@@ -109157,7 +109792,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2024/2024-12-03///20241203.png</t>
+          <t>2024/2024-12-03/20241203.png</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -109640,6 +110275,9 @@
         <v>0</v>
       </c>
       <c r="FJ212">
+        <v>0</v>
+      </c>
+      <c r="FK212">
         <v>0</v>
       </c>
     </row>
@@ -109671,7 +110309,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2024/2024-12-10///20241210.png</t>
+          <t>2024/2024-12-10/20241210.png</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -110154,6 +110792,9 @@
         <v>0</v>
       </c>
       <c r="FJ213">
+        <v>0</v>
+      </c>
+      <c r="FK213">
         <v>0</v>
       </c>
     </row>
@@ -110185,7 +110826,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2024/2024-12-17///20241217.png</t>
+          <t>2024/2024-12-17/20241217.png</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -110668,6 +111309,9 @@
         <v>0</v>
       </c>
       <c r="FJ214">
+        <v>0</v>
+      </c>
+      <c r="FK214">
         <v>0</v>
       </c>
     </row>
@@ -110699,7 +111343,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2024/2024-12-24///20241224.png</t>
+          <t>2024/2024-12-24/20241224.png</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -111182,6 +111826,9 @@
         <v>0</v>
       </c>
       <c r="FJ215">
+        <v>0</v>
+      </c>
+      <c r="FK215">
         <v>0</v>
       </c>
     </row>
@@ -111213,7 +111860,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2024/2024-12-31///20241231.png</t>
+          <t>2024/2024-12-31/20241231.png</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -111696,6 +112343,9 @@
         <v>0</v>
       </c>
       <c r="FJ216">
+        <v>0</v>
+      </c>
+      <c r="FK216">
         <v>0</v>
       </c>
     </row>
@@ -111727,7 +112377,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2025/2025-01-07///20250107.png</t>
+          <t>2025/2025-01-07/20250107.png</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -112210,6 +112860,9 @@
         <v>0</v>
       </c>
       <c r="FJ217">
+        <v>0</v>
+      </c>
+      <c r="FK217">
         <v>0</v>
       </c>
     </row>
@@ -112241,7 +112894,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2025/2025-01-14///20250114.png</t>
+          <t>2025/2025-01-14/20250114.png</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -112724,6 +113377,9 @@
         <v>0</v>
       </c>
       <c r="FJ218">
+        <v>0</v>
+      </c>
+      <c r="FK218">
         <v>0</v>
       </c>
     </row>
@@ -112755,7 +113411,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2025/2025-01-21///20250121.png</t>
+          <t>2025/2025-01-21/20250121.png</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -113238,6 +113894,9 @@
         <v>0</v>
       </c>
       <c r="FJ219">
+        <v>0</v>
+      </c>
+      <c r="FK219">
         <v>0</v>
       </c>
     </row>
@@ -113269,7 +113928,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2025/2025-01-28///20250128.png</t>
+          <t>2025/2025-01-28/20250128.png</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -113752,6 +114411,9 @@
         <v>0</v>
       </c>
       <c r="FJ220">
+        <v>0</v>
+      </c>
+      <c r="FK220">
         <v>0</v>
       </c>
     </row>
@@ -113783,7 +114445,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2025/2025-02-04///20250204.png</t>
+          <t>2025/2025-02-04/20250204.png</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -114266,6 +114928,9 @@
         <v>1</v>
       </c>
       <c r="FJ221">
+        <v>0</v>
+      </c>
+      <c r="FK221">
         <v>0</v>
       </c>
     </row>
@@ -114297,7 +114962,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025/2025-02-11///20250211.png</t>
+          <t>2025/2025-02-11/20250211.png</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -114780,6 +115445,9 @@
         <v>0</v>
       </c>
       <c r="FJ222">
+        <v>0</v>
+      </c>
+      <c r="FK222">
         <v>0</v>
       </c>
     </row>
@@ -114811,7 +115479,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025/2025-02-18///20250218.png</t>
+          <t>2025/2025-02-18/20250218.png</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -115294,6 +115962,9 @@
         <v>0</v>
       </c>
       <c r="FJ223">
+        <v>0</v>
+      </c>
+      <c r="FK223">
         <v>0</v>
       </c>
     </row>
@@ -115325,7 +115996,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2025/2025-02-25///20250225_art.png</t>
+          <t>2025/2025-02-25/20250225.png</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -115808,6 +116479,9 @@
         <v>0</v>
       </c>
       <c r="FJ224">
+        <v>0</v>
+      </c>
+      <c r="FK224">
         <v>0</v>
       </c>
     </row>
@@ -115839,7 +116513,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025/2025-03-04///20250304.png</t>
+          <t>2025/2025-03-04/20250304.png</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -116322,6 +116996,9 @@
         <v>0</v>
       </c>
       <c r="FJ225">
+        <v>0</v>
+      </c>
+      <c r="FK225">
         <v>0</v>
       </c>
     </row>
@@ -116353,7 +117030,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2025/2025-03-11///20250311.png</t>
+          <t>2025/2025-03-11/20250311.png</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -116836,6 +117513,9 @@
         <v>0</v>
       </c>
       <c r="FJ226">
+        <v>0</v>
+      </c>
+      <c r="FK226">
         <v>0</v>
       </c>
     </row>
@@ -116867,7 +117547,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025/2025-03-18///20250318.png</t>
+          <t>2025/2025-03-18/20250318.png</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -117350,6 +118030,9 @@
         <v>0</v>
       </c>
       <c r="FJ227">
+        <v>0</v>
+      </c>
+      <c r="FK227">
         <v>0</v>
       </c>
     </row>
@@ -117381,7 +118064,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025/2025-03-25///20250325.png</t>
+          <t>2025/2025-03-25/20250325.png</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -117864,6 +118547,9 @@
         <v>0</v>
       </c>
       <c r="FJ228">
+        <v>0</v>
+      </c>
+      <c r="FK228">
         <v>0</v>
       </c>
     </row>
@@ -117895,7 +118581,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025/2025-04-01///20250401.png</t>
+          <t>2025/2025-04-01/20250401.png</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -118378,6 +119064,9 @@
         <v>0</v>
       </c>
       <c r="FJ229">
+        <v>0</v>
+      </c>
+      <c r="FK229">
         <v>0</v>
       </c>
     </row>
@@ -118409,7 +119098,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2025/2025-04-08///20250408_interactive.png</t>
+          <t>2025/2025-04-08/20250408.png</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -118892,6 +119581,9 @@
         <v>0</v>
       </c>
       <c r="FJ230">
+        <v>0</v>
+      </c>
+      <c r="FK230">
         <v>0</v>
       </c>
     </row>
@@ -118923,7 +119615,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025/2025-04-15///20250415_dark.png</t>
+          <t>2025/2025-04-15/20250415.png</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -119406,6 +120098,9 @@
         <v>0</v>
       </c>
       <c r="FJ231">
+        <v>0</v>
+      </c>
+      <c r="FK231">
         <v>0</v>
       </c>
     </row>
@@ -119437,7 +120132,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025/2025-04-22///20250422.png</t>
+          <t>2025/2025-04-22/20250422.png</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -119920,6 +120615,9 @@
         <v>0</v>
       </c>
       <c r="FJ232">
+        <v>0</v>
+      </c>
+      <c r="FK232">
         <v>0</v>
       </c>
     </row>
@@ -119951,7 +120649,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025/2025-04-29///20250429_ai.png</t>
+          <t>2025/2025-04-29/20250429.png</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -120434,6 +121132,9 @@
         <v>0</v>
       </c>
       <c r="FJ233">
+        <v>0</v>
+      </c>
+      <c r="FK233">
         <v>0</v>
       </c>
     </row>
@@ -120465,7 +121166,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2025/2025-05-06///20250506.png</t>
+          <t>2025/2025-05-06/20250506.png</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -120949,6 +121650,521 @@
       </c>
       <c r="FJ234">
         <v>0</v>
+      </c>
+      <c r="FK234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Water Quality at Sydney Beaches</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2025/2025-05-20/+page.svelte</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2025/2025-05-20/20250520.png</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>SveltePlot</t>
+        </is>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0</v>
+      </c>
+      <c r="V235">
+        <v>0</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+      <c r="AB235">
+        <v>0</v>
+      </c>
+      <c r="AC235">
+        <v>0</v>
+      </c>
+      <c r="AD235">
+        <v>0</v>
+      </c>
+      <c r="AE235">
+        <v>0</v>
+      </c>
+      <c r="AF235">
+        <v>0</v>
+      </c>
+      <c r="AG235">
+        <v>0</v>
+      </c>
+      <c r="AH235">
+        <v>0</v>
+      </c>
+      <c r="AI235">
+        <v>0</v>
+      </c>
+      <c r="AJ235">
+        <v>0</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AL235">
+        <v>0</v>
+      </c>
+      <c r="AM235">
+        <v>0</v>
+      </c>
+      <c r="AN235">
+        <v>0</v>
+      </c>
+      <c r="AO235">
+        <v>0</v>
+      </c>
+      <c r="AP235">
+        <v>0</v>
+      </c>
+      <c r="AQ235">
+        <v>0</v>
+      </c>
+      <c r="AR235">
+        <v>0</v>
+      </c>
+      <c r="AS235">
+        <v>0</v>
+      </c>
+      <c r="AT235">
+        <v>0</v>
+      </c>
+      <c r="AU235">
+        <v>0</v>
+      </c>
+      <c r="AV235">
+        <v>0</v>
+      </c>
+      <c r="AW235">
+        <v>0</v>
+      </c>
+      <c r="AX235">
+        <v>0</v>
+      </c>
+      <c r="AY235">
+        <v>0</v>
+      </c>
+      <c r="AZ235">
+        <v>0</v>
+      </c>
+      <c r="BA235">
+        <v>0</v>
+      </c>
+      <c r="BB235">
+        <v>0</v>
+      </c>
+      <c r="BC235">
+        <v>0</v>
+      </c>
+      <c r="BD235">
+        <v>0</v>
+      </c>
+      <c r="BE235">
+        <v>0</v>
+      </c>
+      <c r="BF235">
+        <v>0</v>
+      </c>
+      <c r="BG235">
+        <v>0</v>
+      </c>
+      <c r="BH235">
+        <v>0</v>
+      </c>
+      <c r="BI235">
+        <v>0</v>
+      </c>
+      <c r="BJ235">
+        <v>0</v>
+      </c>
+      <c r="BK235">
+        <v>0</v>
+      </c>
+      <c r="BL235">
+        <v>0</v>
+      </c>
+      <c r="BM235">
+        <v>0</v>
+      </c>
+      <c r="BN235">
+        <v>0</v>
+      </c>
+      <c r="BO235">
+        <v>0</v>
+      </c>
+      <c r="BP235">
+        <v>0</v>
+      </c>
+      <c r="BQ235">
+        <v>0</v>
+      </c>
+      <c r="BR235">
+        <v>0</v>
+      </c>
+      <c r="BS235">
+        <v>0</v>
+      </c>
+      <c r="BT235">
+        <v>0</v>
+      </c>
+      <c r="BU235">
+        <v>0</v>
+      </c>
+      <c r="BV235">
+        <v>0</v>
+      </c>
+      <c r="BW235">
+        <v>0</v>
+      </c>
+      <c r="BX235">
+        <v>0</v>
+      </c>
+      <c r="BY235">
+        <v>0</v>
+      </c>
+      <c r="BZ235">
+        <v>0</v>
+      </c>
+      <c r="CA235">
+        <v>0</v>
+      </c>
+      <c r="CB235">
+        <v>0</v>
+      </c>
+      <c r="CC235">
+        <v>0</v>
+      </c>
+      <c r="CD235">
+        <v>0</v>
+      </c>
+      <c r="CE235">
+        <v>0</v>
+      </c>
+      <c r="CF235">
+        <v>0</v>
+      </c>
+      <c r="CG235">
+        <v>0</v>
+      </c>
+      <c r="CH235">
+        <v>0</v>
+      </c>
+      <c r="CI235">
+        <v>0</v>
+      </c>
+      <c r="CJ235">
+        <v>0</v>
+      </c>
+      <c r="CK235">
+        <v>0</v>
+      </c>
+      <c r="CL235">
+        <v>0</v>
+      </c>
+      <c r="CM235">
+        <v>0</v>
+      </c>
+      <c r="CN235">
+        <v>0</v>
+      </c>
+      <c r="CO235">
+        <v>0</v>
+      </c>
+      <c r="CP235">
+        <v>0</v>
+      </c>
+      <c r="CQ235">
+        <v>0</v>
+      </c>
+      <c r="CR235">
+        <v>0</v>
+      </c>
+      <c r="CS235">
+        <v>0</v>
+      </c>
+      <c r="CT235">
+        <v>0</v>
+      </c>
+      <c r="CU235">
+        <v>0</v>
+      </c>
+      <c r="CV235">
+        <v>0</v>
+      </c>
+      <c r="CW235">
+        <v>0</v>
+      </c>
+      <c r="CX235">
+        <v>0</v>
+      </c>
+      <c r="CY235">
+        <v>0</v>
+      </c>
+      <c r="CZ235">
+        <v>0</v>
+      </c>
+      <c r="DA235">
+        <v>0</v>
+      </c>
+      <c r="DB235">
+        <v>0</v>
+      </c>
+      <c r="DC235">
+        <v>0</v>
+      </c>
+      <c r="DD235">
+        <v>0</v>
+      </c>
+      <c r="DE235">
+        <v>0</v>
+      </c>
+      <c r="DF235">
+        <v>0</v>
+      </c>
+      <c r="DG235">
+        <v>0</v>
+      </c>
+      <c r="DH235">
+        <v>0</v>
+      </c>
+      <c r="DI235">
+        <v>0</v>
+      </c>
+      <c r="DJ235">
+        <v>0</v>
+      </c>
+      <c r="DK235">
+        <v>0</v>
+      </c>
+      <c r="DL235">
+        <v>0</v>
+      </c>
+      <c r="DM235">
+        <v>0</v>
+      </c>
+      <c r="DN235">
+        <v>0</v>
+      </c>
+      <c r="DO235">
+        <v>0</v>
+      </c>
+      <c r="DP235">
+        <v>0</v>
+      </c>
+      <c r="DQ235">
+        <v>0</v>
+      </c>
+      <c r="DR235">
+        <v>0</v>
+      </c>
+      <c r="DS235">
+        <v>0</v>
+      </c>
+      <c r="DT235">
+        <v>0</v>
+      </c>
+      <c r="DU235">
+        <v>0</v>
+      </c>
+      <c r="DV235">
+        <v>0</v>
+      </c>
+      <c r="DW235">
+        <v>0</v>
+      </c>
+      <c r="DX235">
+        <v>0</v>
+      </c>
+      <c r="DY235">
+        <v>0</v>
+      </c>
+      <c r="DZ235">
+        <v>0</v>
+      </c>
+      <c r="EA235">
+        <v>0</v>
+      </c>
+      <c r="EB235">
+        <v>0</v>
+      </c>
+      <c r="EC235">
+        <v>0</v>
+      </c>
+      <c r="ED235">
+        <v>0</v>
+      </c>
+      <c r="EE235">
+        <v>0</v>
+      </c>
+      <c r="EF235">
+        <v>0</v>
+      </c>
+      <c r="EG235">
+        <v>0</v>
+      </c>
+      <c r="EH235">
+        <v>0</v>
+      </c>
+      <c r="EI235">
+        <v>0</v>
+      </c>
+      <c r="EJ235">
+        <v>0</v>
+      </c>
+      <c r="EK235">
+        <v>0</v>
+      </c>
+      <c r="EL235">
+        <v>0</v>
+      </c>
+      <c r="EM235">
+        <v>0</v>
+      </c>
+      <c r="EN235">
+        <v>0</v>
+      </c>
+      <c r="EO235">
+        <v>0</v>
+      </c>
+      <c r="EP235">
+        <v>0</v>
+      </c>
+      <c r="EQ235">
+        <v>0</v>
+      </c>
+      <c r="ER235">
+        <v>0</v>
+      </c>
+      <c r="ES235">
+        <v>0</v>
+      </c>
+      <c r="ET235">
+        <v>0</v>
+      </c>
+      <c r="EU235">
+        <v>0</v>
+      </c>
+      <c r="EV235">
+        <v>0</v>
+      </c>
+      <c r="EW235">
+        <v>0</v>
+      </c>
+      <c r="EX235">
+        <v>0</v>
+      </c>
+      <c r="EY235">
+        <v>0</v>
+      </c>
+      <c r="EZ235">
+        <v>0</v>
+      </c>
+      <c r="FA235">
+        <v>0</v>
+      </c>
+      <c r="FB235">
+        <v>0</v>
+      </c>
+      <c r="FC235">
+        <v>0</v>
+      </c>
+      <c r="FD235">
+        <v>0</v>
+      </c>
+      <c r="FE235">
+        <v>0</v>
+      </c>
+      <c r="FF235">
+        <v>0</v>
+      </c>
+      <c r="FG235">
+        <v>0</v>
+      </c>
+      <c r="FH235">
+        <v>0</v>
+      </c>
+      <c r="FI235">
+        <v>0</v>
+      </c>
+      <c r="FJ235">
+        <v>0</v>
+      </c>
+      <c r="FK235">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -1222,7 +1222,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2019/2019-01-29/20190129.png</t>
+          <t>2019/2019-01-29///20190129.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019/2019-03-05/20190305.png</t>
+          <t>2019/2019-03-05///20190305.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2019/2019-05-14/20190514-light.png</t>
+          <t>2019/2019-05-14///20190514-light.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020/2020-04-21/20200421.jpg</t>
+          <t>2020/2020-04-21///20200421.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020/2020-07-28/20200728.jpg</t>
+          <t>2020/2020-07-28///20200728.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020/2020-10-27/20201027.png</t>
+          <t>2020/2020-10-27///20201027.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2020/2020-11-10/20201110.png</t>
+          <t>2020/2020-11-10///20201110.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020/2020-12-08/20201208.jpg</t>
+          <t>2020/2020-12-08///20201208.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/01-06-2021/01062021.jpg</t>
+          <t>2021/01-06-2021///01062021.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/02-02-2021/02022021.jpg</t>
+          <t>2021/02-02-2021///02022021.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/02-03-2021/02032021.jpg</t>
+          <t>2021/02-03-2021///02032021.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/02-11-2021/02112021.png</t>
+          <t>2021/02-11-2021///02112021.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/03-08-2021/03082021.jpg</t>
+          <t>2021/03-08-2021///03082021_table.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/04-05-2021/04052021.jpg</t>
+          <t>2021/04-05-2021///04052021.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/05-01-2021/05012021.jpg</t>
+          <t>2021/05-01-2021///05012021.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/05-10-2021/05102021.jpg</t>
+          <t>2021/05-10-2021///05102021.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/06-04-2021/06042021.jpg</t>
+          <t>2021/06-04-2021///06042021_plot1.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/06-07-2021/06072021.jpg</t>
+          <t>2021/06-07-2021///06072021.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/07-09-2021/07092021.jpg</t>
+          <t>2021/07-09-2021///07092021.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/07-12-2021/07122021.jpeg</t>
+          <t>2021/07-12-2021///07122021.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/08-06-2021/08062021.jpg</t>
+          <t>2021/08-06-2021///08062021.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/09-02-2021/09022021.jpg</t>
+          <t>2021/09-02-2021///09022021.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/09-03-2021/09032021.jpg</t>
+          <t>2021/09-03-2021///09032021.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/09-11-2021/09112021.jpg</t>
+          <t>2021/09-11-2021///09112021.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/10-08-2021/10082021.jpg</t>
+          <t>2021/10-08-2021///10082021.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/11-05-2021/11052021.jpg</t>
+          <t>2021/11-05-2021///11052021.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/12-01-2021/12012021.jpg</t>
+          <t>2021/12-01-2021///12012021.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/12-10-2021/12102021_f1.jpg</t>
+          <t>2021/12-10-2021///12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/13-04-2021/13042021.jpg</t>
+          <t>2021/13-04-2021///13042021.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -16215,7 +16215,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/13-07-2021/13072021.jpg</t>
+          <t>2021/13-07-2021///13072021.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/14-09-2021/14092021.jpg</t>
+          <t>2021/14-09-2021///14092021.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/14-12-2021/14122021.jpg</t>
+          <t>2021/14-12-2021///14122021.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/15-06-2021/15062021.jpg</t>
+          <t>2021/15-06-2021///15062021.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/16-02-2021/16022021.jpg</t>
+          <t>2021/16-02-2021///16022021.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/16-03-2021/16032021.jpg</t>
+          <t>2021/16-03-2021///16032021.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -19317,7 +19317,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/17-08-2021/17082021.jpg</t>
+          <t>2021/17-08-2021///17082021.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/18-05-2021/18052021.jpg</t>
+          <t>2021/18-05-2021///18052021.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -20351,7 +20351,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/19-01-2021/19012021.jpg</t>
+          <t>2021/19-01-2021///19012021.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/19-10-2021/19102021.jpg</t>
+          <t>2021/19-10-2021///19102021.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/20-04-2021/20042021.png</t>
+          <t>2021/20-04-2021///20042021.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/20-07-2021/20072021.jpg</t>
+          <t>2021/20-07-2021///20072021.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/21-09-2021/21092021.jpg</t>
+          <t>2021/21-09-2021///21092021_waffle.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/21-12-2021/21122021.jpg</t>
+          <t>2021/21-12-2021///21122021.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -23448,12 +23448,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.R</t>
+          <t>2021/22-06-2021/22062021_stream_plots.R</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.jpg</t>
+          <t>2021/22-06-2021///22062021_v2.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -23970,7 +23970,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/23-02-2021/23022021.jpg</t>
+          <t>2021/23-02-2021///23022021.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -24487,7 +24487,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/23-03-2021/23032021.jpg</t>
+          <t>2021/23-03-2021///23032021.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -25004,7 +25004,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/23-11-2021/23112021.jpg</t>
+          <t>2021/23-11-2021///23112021.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -25521,7 +25521,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/24-08-2021/24082021.jpg</t>
+          <t>2021/24-08-2021///24082021.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -26038,7 +26038,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/25-05-2021/25052021.jpg</t>
+          <t>2021/25-05-2021///25052021.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -26555,7 +26555,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/26-01-2021/26012021.jpg</t>
+          <t>2021/26-01-2021///26012021.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/26-10-2021/26102021.jpg</t>
+          <t>2021/26-10-2021///26102021.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -27589,7 +27589,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/27-04-2021/27042021.jpg</t>
+          <t>2021/27-04-2021///27042021.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -28106,7 +28106,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/27-07-2021/27072021.jpg</t>
+          <t>2021/27-07-2021///27072021.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28623,7 +28623,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/28-09-2021/28092021.jpg</t>
+          <t>2021/28-09-2021///28092021.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -29140,7 +29140,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/29-06-2021/29062021.jpg</t>
+          <t>2021/29-06-2021///29062021.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -29657,7 +29657,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021/29-12-2020/29122020.jpg</t>
+          <t>2021/29-12-2020///29122020.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -30174,7 +30174,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021/30-03-2021/30032021.jpg</t>
+          <t>2021/30-03-2021///30032021.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -30691,7 +30691,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/30-11-2021/30112021.jpeg</t>
+          <t>2021/30-11-2021///30112021_v2.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -31208,7 +31208,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021/31-08-2021/31082021.jpg</t>
+          <t>2021/31-08-2021///31082021.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -31725,7 +31725,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-01-04/20220104.jpg</t>
+          <t>2022/2022-01-04///20220104.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -32242,7 +32242,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-01-11/20220111.jpg</t>
+          <t>2022/2022-01-11///20220111.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -32759,7 +32759,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-01-18/20220118.png</t>
+          <t>2022/2022-01-18///20220118.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -33276,7 +33276,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-01-25/20220125.jpeg</t>
+          <t>2022/2022-01-25///20220125.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -33793,7 +33793,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-02-01/20220201.jpg</t>
+          <t>2022/2022-02-01///20220201.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -34310,7 +34310,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-02-08/20220208.jpeg</t>
+          <t>2022/2022-02-08///20220208.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -34827,7 +34827,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-02-15/20220215.jpg</t>
+          <t>2022/2022-02-15///20220215.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -35344,7 +35344,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-02-22/20220222.jpeg</t>
+          <t>2022/2022-02-22///20220222.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -35861,7 +35861,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-03-01/20220301.jpg</t>
+          <t>2022/2022-03-01///20220301.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -36378,7 +36378,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-03-08/20220308.jpeg</t>
+          <t>2022/2022-03-08///20220308.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -36895,7 +36895,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-03-15/20220315.jpeg</t>
+          <t>2022/2022-03-15///20220315.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -37412,7 +37412,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-03-22/20220322.jpeg</t>
+          <t>2022/2022-03-22///20220322.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -37929,7 +37929,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-03-29/20220329.jpeg</t>
+          <t>2022/2022-03-29///20220329.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -38446,7 +38446,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-04-05/20220405.png</t>
+          <t>2022/2022-04-05///20220405.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -38963,7 +38963,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-04-12/20220412.png</t>
+          <t>2022/2022-04-12///20220412.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -39480,7 +39480,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-04-19/20220419.jpeg</t>
+          <t>2022/2022-04-19///20220419.jpeg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -39997,7 +39997,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-04-26/20220426.png</t>
+          <t>2022/2022-04-26///20220426.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -40514,7 +40514,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-05-03/20220503_bar.png</t>
+          <t>2022/2022-05-03///20220503_bar.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -41031,7 +41031,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-05-10/20220510.png</t>
+          <t>2022/2022-05-10///20220510.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -41548,7 +41548,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-05-17/20220517.png</t>
+          <t>2022/2022-05-17///20220517_tableau.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -42065,7 +42065,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-05-24/20220524.png</t>
+          <t>2022/2022-05-24///20220524.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -42582,7 +42582,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-05-31/20220531.png</t>
+          <t>2022/2022-05-31///20220531.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -43099,7 +43099,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-06-07/20220607.png</t>
+          <t>2022/2022-06-07///20220607.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -43616,7 +43616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-06-14/20220614.png</t>
+          <t>2022/2022-06-14///20220614.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -44133,7 +44133,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-06-21/20220621.png</t>
+          <t>2022/2022-06-21///20220621.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -44650,7 +44650,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-06-28/20220628.png</t>
+          <t>2022/2022-06-28///20220628.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -45167,7 +45167,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-07-05/20220705.png</t>
+          <t>2022/2022-07-05///20220705.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -45684,7 +45684,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-07-12/20220712.png</t>
+          <t>2022/2022-07-12///20220712.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -46201,7 +46201,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-07-19/20220719.png</t>
+          <t>2022/2022-07-19///20220719.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -46718,7 +46718,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-08-02/20220802.png</t>
+          <t>2022/2022-08-02///20220802.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-08-09/20220809.png</t>
+          <t>2022/2022-08-09///20220809.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -47752,7 +47752,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-08-16/20220816.png</t>
+          <t>2022/2022-08-16///20220816.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -48269,7 +48269,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-08-23/20220823.png</t>
+          <t>2022/2022-08-23///20220823.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -48786,7 +48786,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-08-30/20220830.png</t>
+          <t>2022/2022-08-30///20220830.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -49303,7 +49303,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-09-06/20220906.png</t>
+          <t>2022/2022-09-06///20220906.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -49820,7 +49820,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-09-13/20220913.png</t>
+          <t>2022/2022-09-13///20220913.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -50337,7 +50337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-09-20/20220920.png</t>
+          <t>2022/2022-09-20///20220920.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -50854,7 +50854,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-09-27/20220927.png</t>
+          <t>2022/2022-09-27///20220927.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -51371,7 +51371,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-10-04/20221004.png</t>
+          <t>2022/2022-10-04///20221004.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -51888,7 +51888,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-10-11/20221011.png</t>
+          <t>2022/2022-10-11///20221011.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -52405,7 +52405,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-10-18/20221018.png</t>
+          <t>2022/2022-10-18///20221018.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -52922,7 +52922,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-10-25/20221025.png</t>
+          <t>2022/2022-10-25///20221025.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -53439,7 +53439,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-11-01/20221101.png</t>
+          <t>2022/2022-11-01///20221101.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -53956,7 +53956,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-11-08/20221108.png</t>
+          <t>2022/2022-11-08///20221108.png</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -54473,7 +54473,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-11-15/20221115_plot1.png</t>
+          <t>2022/2022-11-15///20221115_plot1.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -54990,7 +54990,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-11-22/20221122.png</t>
+          <t>2022/2022-11-22///20221122.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -55507,7 +55507,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022/2022-11-29/20221129.png</t>
+          <t>2022/2022-11-29///20221129.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -56024,7 +56024,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022/2022-12-06/20221206.png</t>
+          <t>2022/2022-12-06///20221206.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -56541,7 +56541,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2022/2022-12-13/20221213.png</t>
+          <t>2022/2022-12-13///20221213.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -57058,7 +57058,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2022/2022-12-20/20221220.png</t>
+          <t>2022/2022-12-20///20221220.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -57575,7 +57575,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2022/2022-12-27/20221227.png</t>
+          <t>2022/2022-12-27///20221227.png</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -58092,7 +58092,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-01-03/20230103.png</t>
+          <t>2023/2023-01-03///20230103_raw.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -58609,7 +58609,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-01-10/20230110.png</t>
+          <t>2023/2023-01-10///20230110.png</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -59126,7 +59126,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-01-17/20230117.png</t>
+          <t>2023/2023-01-17///20230117_book.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -59643,7 +59643,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-01-24/20230124.png</t>
+          <t>2023/2023-01-24///20230124.png</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -60160,7 +60160,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-01-31/20230131.png</t>
+          <t>2023/2023-01-31///20230131.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -60677,7 +60677,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-02-07/20230207.png</t>
+          <t>2023/2023-02-07///20230207.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -61184,17 +61184,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.R</t>
+          <t>2023/2023-02-14/20230214_love_actually.R</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.png</t>
+          <t>2023/2023-02-14///20230214_love_actually.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -61305,7 +61305,7 @@
         <v>0</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ118">
         <v>0</v>
@@ -61503,7 +61503,7 @@
         <v>0</v>
       </c>
       <c r="DD118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE118">
         <v>0</v>
@@ -61545,7 +61545,7 @@
         <v>0</v>
       </c>
       <c r="DR118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS118">
         <v>0</v>
@@ -61711,7 +61711,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-02-21/20230221.png</t>
+          <t>2023/2023-02-21///20230221.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -62228,7 +62228,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-02-28/20230228.png</t>
+          <t>2023/2023-02-28///20230228.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -62745,7 +62745,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-03-07/20230307.png</t>
+          <t>2023/2023-03-07///20230307.png</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -63262,7 +63262,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-03-14/20230314.png</t>
+          <t>2023/2023-03-14///20230314_b.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -63779,7 +63779,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-03-21/20230321.png</t>
+          <t>2023/2023-03-21///20230321.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -64296,7 +64296,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-03-28/20230328.png</t>
+          <t>2023/2023-03-28///20230328.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -64813,7 +64813,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-04-04/20230404.png</t>
+          <t>2023/2023-04-04///20230404.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -65330,7 +65330,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-04-11/20230411.png</t>
+          <t>2023/2023-04-11///20230411.png</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -65847,7 +65847,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-04-18/20230418.png</t>
+          <t>2023/2023-04-18///20230418.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -66364,7 +66364,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-04-25/20230425.png</t>
+          <t>2023/2023-04-25///20230425.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -66881,7 +66881,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-05-02/20230502.png</t>
+          <t>2023/2023-05-02///20230502.png</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -67398,7 +67398,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-05-09/20230509.png</t>
+          <t>2023/2023-05-09///20230509.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -67915,7 +67915,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-05-16/20230516.png</t>
+          <t>2023/2023-05-16///20230516.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -68432,7 +68432,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-05-23/20230523.png</t>
+          <t>2023/2023-05-23///20230523.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -68949,7 +68949,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-05-30/20230530.png</t>
+          <t>2023/2023-05-30///20230530.png</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -69456,17 +69456,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
+          <t>tidyverse, showtext, readr</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.R</t>
+          <t>2023/2023-06-06/20230606_baseR.R</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.png</t>
+          <t>2023/2023-06-06///20230606_base.png</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -69481,7 +69481,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -69640,7 +69640,7 @@
         <v>0</v>
       </c>
       <c r="BK134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL134">
         <v>0</v>
@@ -69655,7 +69655,7 @@
         <v>0</v>
       </c>
       <c r="BP134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ134">
         <v>0</v>
@@ -69709,7 +69709,7 @@
         <v>0</v>
       </c>
       <c r="CH134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI134">
         <v>0</v>
@@ -69739,7 +69739,7 @@
         <v>0</v>
       </c>
       <c r="CR134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS134">
         <v>0</v>
@@ -69763,7 +69763,7 @@
         <v>0</v>
       </c>
       <c r="CZ134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA134">
         <v>0</v>
@@ -69983,7 +69983,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-06-13/20230613.png</t>
+          <t>2023/2023-06-13///20230613.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -70500,7 +70500,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-06-20/20230620.png</t>
+          <t>2023/2023-06-20///20230620.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -71017,7 +71017,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-06-27/20230627.png</t>
+          <t>2023/2023-06-27///20230627.png</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -71534,7 +71534,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-07-04/20230704.png</t>
+          <t>2023/2023-07-04///20230704.png</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -72051,7 +72051,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-07-11/20230711.png</t>
+          <t>2023/2023-07-11///20230711.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -72568,7 +72568,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-07-18/20230718.png</t>
+          <t>2023/2023-07-18///20230718.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -73085,7 +73085,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-07-25/20230725.png</t>
+          <t>2023/2023-07-25///20230725_v2.png</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -73602,7 +73602,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-08-01/20230801.png</t>
+          <t>2023/2023-08-01///20230801.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -74119,7 +74119,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-08-08/20230808.png</t>
+          <t>2023/2023-08-08///20230808.png</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -74636,7 +74636,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-08-15/20230815.png</t>
+          <t>2023/2023-08-15///20230815.png</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -75153,7 +75153,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-08-22/20230822.png</t>
+          <t>2023/2023-08-22///20230822.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -75670,7 +75670,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-08-29/20230829.png</t>
+          <t>2023/2023-08-29///20230829.png</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -76187,7 +76187,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-09-05/20230905.png</t>
+          <t>2023/2023-09-05///20230905.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -76704,7 +76704,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-09-12/20230912.png</t>
+          <t>2023/2023-09-12///20230912.png</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -77221,7 +77221,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-09-19/20230919.png</t>
+          <t>2023/2023-09-19///20230919.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -77738,7 +77738,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-09-26/20230926.png</t>
+          <t>2023/2023-09-26///20230926.png</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -78255,7 +78255,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-10-03/20231003.png</t>
+          <t>2023/2023-10-03///20231003.png</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -78772,7 +78772,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-10-10/20231010.png</t>
+          <t>2023/2023-10-10///20231010.png</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -79289,7 +79289,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-10-17/20231017.png</t>
+          <t>2023/2023-10-17///20231017.png</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -79806,7 +79806,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-10-24/20231024.png</t>
+          <t>2023/2023-10-24///20231024_clusters.png</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -80323,7 +80323,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-10-31/20231031.png</t>
+          <t>2023/2023-10-31///20231031.png</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -80840,7 +80840,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-11-07/20231107.png</t>
+          <t>2023/2023-11-07///20231107.png</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -81357,7 +81357,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-11-14/20231114.png</t>
+          <t>2023/2023-11-14///20231114.png</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -81874,7 +81874,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-11-21/20231121.png</t>
+          <t>2023/2023-11-21///20231121.png</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -82391,7 +82391,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023/2023-11-28/20231128.png</t>
+          <t>2023/2023-11-28///20231128.png</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -82908,7 +82908,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023/2023-12-05/20231205.png</t>
+          <t>2023/2023-12-05///20231205.png</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -83425,7 +83425,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023/2023-12-12/20231212.png</t>
+          <t>2023/2023-12-12///20231212.png</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -83942,7 +83942,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023/2023-12-19/20231219.png</t>
+          <t>2023/2023-12-19///20231219.png</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -84459,7 +84459,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2023/2023-12-26/20231226.png</t>
+          <t>2023/2023-12-26///20231226.png</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -84976,7 +84976,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-01-02/20240102.png</t>
+          <t>2024/2024-01-02///20240102.png</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -85493,7 +85493,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-01-09/20240109.png</t>
+          <t>2024/2024-01-09///20240109_canada.png</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -86010,7 +86010,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-01-16/20240116.png</t>
+          <t>2024/2024-01-16///20240116.png</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -86527,7 +86527,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-01-23/20240123.png</t>
+          <t>2024/2024-01-23///20240123.png</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -87044,7 +87044,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-01-30/20240130.png</t>
+          <t>2024/2024-01-30///20240130.png</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -87561,7 +87561,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024/2024-02-06/20240206.png</t>
+          <t>2024/2024-02-06///20240206.png</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -88078,7 +88078,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024/2024-02-13/20240213.png</t>
+          <t>2024/2024-02-13///20240213.png</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -88595,7 +88595,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2024/2024-02-20/20240220.png</t>
+          <t>2024/2024-02-20///20240220.png</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -89112,7 +89112,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2024/2024-02-27/20240227.png</t>
+          <t>2024/2024-02-27///20240227.png</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -89629,7 +89629,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2024/2024-03-05/20240305.png</t>
+          <t>2024/2024-03-05///20240305.png</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -90146,7 +90146,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2024/2024-03-12/20240312.png</t>
+          <t>2024/2024-03-12///20240312.png</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -90663,7 +90663,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2024/2024-03-19/20240319.png</t>
+          <t>2024/2024-03-19///20240319.png</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -91180,7 +91180,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2024/2024-03-26/20240326.png</t>
+          <t>2024/2024-03-26///20240326.png</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -91697,7 +91697,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2024/2024-04-02/20240402.png</t>
+          <t>2024/2024-04-02///20240402.png</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -92214,7 +92214,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2024/2024-04-09/20240409.png</t>
+          <t>2024/2024-04-09///20240409.png</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -92731,7 +92731,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2024/2024-04-16/20240416.png</t>
+          <t>2024/2024-04-16///20240416.png</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -93248,7 +93248,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2024/2024-04-23/20240423.png</t>
+          <t>2024/2024-04-23///20240423.png</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -93765,7 +93765,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2024/2024-04-30/20240430.png</t>
+          <t>2024/2024-04-30///20240430.png</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -94282,7 +94282,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2024/2024-05-07/20240507.png</t>
+          <t>2024/2024-05-07///20240507.png</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -94799,7 +94799,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2024/2024-05-14/20240514.png</t>
+          <t>2024/2024-05-14///20240514.png</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -95316,7 +95316,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2024/2024-05-21/20240521.png</t>
+          <t>2024/2024-05-21///20240521.png</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -95833,7 +95833,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2024/2024-05-28/20240528.png</t>
+          <t>2024/2024-05-28///20240528.png</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -96350,7 +96350,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2024/2024-06-04/20240604.png</t>
+          <t>2024/2024-06-04///20240604.png</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -96867,7 +96867,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2024/2024-06-11/20240611.png</t>
+          <t>2024/2024-06-11///20240611.png</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -97384,7 +97384,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2024/2024-06-18/20240618.png</t>
+          <t>2024/2024-06-18///20240618.png</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -97901,7 +97901,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2024/2024-06-25/20240625.png</t>
+          <t>2024/2024-06-25///20240625.png</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -98418,7 +98418,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2024/2024-07-02/20240702.png</t>
+          <t>2024/2024-07-02///20240702_all.png</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -98935,7 +98935,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2024/2024-07-09/20240709.png</t>
+          <t>2024/2024-07-09///20240709.png</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -99452,7 +99452,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2024/2024-07-16/20240716.png</t>
+          <t>2024/2024-07-16///20240716.png</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -99969,7 +99969,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2024/2024-07-23/20240723.png</t>
+          <t>2024/2024-07-23///20240723.png</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -100486,7 +100486,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2024/2024-07-30/20240730.png</t>
+          <t>2024/2024-07-30///20240730.png</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -101003,7 +101003,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2024/2024-08-06/20240806.png</t>
+          <t>2024/2024-08-06///20240806.png</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -101520,7 +101520,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2024/2024-08-13/20240813.png</t>
+          <t>2024/2024-08-13///20240813.png</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -102037,7 +102037,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2024/2024-08-20/20240820.png</t>
+          <t>2024/2024-08-20///20240820.png</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -102554,7 +102554,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2024/2024-08-27/20240827.png</t>
+          <t>2024/2024-08-27///20240827_safe.png</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -103071,7 +103071,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2024/2024-09-03/20240903.png</t>
+          <t>2024/2024-09-03///20240903.png</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -103588,7 +103588,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2024/2024-09-10/20240910.png</t>
+          <t>2024/2024-09-10///20240910.png</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -104105,7 +104105,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2024/2024-09-17/20240917.png</t>
+          <t>2024/2024-09-17///20240917.png</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -104622,7 +104622,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2024/2024-09-24/20240924.png</t>
+          <t>2024/2024-09-24///20240924.png</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -105139,7 +105139,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2024/2024-10-01/20241001.png</t>
+          <t>2024/2024-10-01///20241001.png</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -105656,7 +105656,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2024/2024-10-08/20241008.png</t>
+          <t>2024/2024-10-08///20241008.png</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -106173,7 +106173,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2024/2024-10-15/20241015.png</t>
+          <t>2024/2024-10-15///20241015_v2.png</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -106690,7 +106690,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2024/2024-10-22/20241022.png</t>
+          <t>2024/2024-10-22///20241022.png</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -107207,7 +107207,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2024/2024-10-29/20241029.png</t>
+          <t>2024/2024-10-29///20241029.png</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -107724,7 +107724,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2024/2024-11-05/20241105.png</t>
+          <t>2024/2024-11-05///20241105.png</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -108241,7 +108241,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2024/2024-11-12/20241112.png</t>
+          <t>2024/2024-11-12///20241112.png</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -108758,7 +108758,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2024/2024-11-19/20241119.png</t>
+          <t>2024/2024-11-19///20241119.png</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -109275,7 +109275,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2024/2024-11-26/20241126.png</t>
+          <t>2024/2024-11-26///20241126.png</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -109792,7 +109792,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2024/2024-12-03/20241203.png</t>
+          <t>2024/2024-12-03///20241203.png</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -110309,7 +110309,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2024/2024-12-10/20241210.png</t>
+          <t>2024/2024-12-10///20241210.png</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -110826,7 +110826,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2024/2024-12-17/20241217.png</t>
+          <t>2024/2024-12-17///20241217.png</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -111343,7 +111343,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2024/2024-12-24/20241224.png</t>
+          <t>2024/2024-12-24///20241224.png</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -111860,7 +111860,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2024/2024-12-31/20241231.png</t>
+          <t>2024/2024-12-31///20241231.png</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -112377,7 +112377,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2025/2025-01-07/20250107.png</t>
+          <t>2025/2025-01-07///20250107.png</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -112894,7 +112894,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2025/2025-01-14/20250114.png</t>
+          <t>2025/2025-01-14///20250114.png</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -113411,7 +113411,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2025/2025-01-21/20250121.png</t>
+          <t>2025/2025-01-21///20250121.png</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -113928,7 +113928,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2025/2025-01-28/20250128.png</t>
+          <t>2025/2025-01-28///20250128.png</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -114445,7 +114445,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2025/2025-02-04/20250204.png</t>
+          <t>2025/2025-02-04///20250204.png</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -114962,7 +114962,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025/2025-02-11/20250211.png</t>
+          <t>2025/2025-02-11///20250211.png</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -115479,7 +115479,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025/2025-02-18/20250218.png</t>
+          <t>2025/2025-02-18///20250218.png</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -115996,7 +115996,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2025/2025-02-25/20250225.png</t>
+          <t>2025/2025-02-25///20250225_art.png</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -116513,7 +116513,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025/2025-03-04/20250304.png</t>
+          <t>2025/2025-03-04///20250304.png</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -117030,7 +117030,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2025/2025-03-11/20250311.png</t>
+          <t>2025/2025-03-11///20250311.png</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -117547,7 +117547,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025/2025-03-18/20250318.png</t>
+          <t>2025/2025-03-18///20250318.png</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -118064,7 +118064,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025/2025-03-25/20250325.png</t>
+          <t>2025/2025-03-25///20250325.png</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -118581,7 +118581,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025/2025-04-01/20250401.png</t>
+          <t>2025/2025-04-01///20250401.png</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -119098,7 +119098,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2025/2025-04-08/20250408.png</t>
+          <t>2025/2025-04-08///20250408_interactive.png</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -119615,7 +119615,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025/2025-04-15/20250415.png</t>
+          <t>2025/2025-04-15///20250415_dark.png</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -120132,7 +120132,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025/2025-04-22/20250422.png</t>
+          <t>2025/2025-04-22///20250422.png</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -120649,7 +120649,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025/2025-04-29/20250429.png</t>
+          <t>2025/2025-04-29///20250429_ai.png</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -121166,7 +121166,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2025/2025-05-06/20250506.png</t>
+          <t>2025/2025-05-06///20250506.png</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -121678,7 +121678,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2025/2025-05-20/20250520.png</t>
+          <t>2025/2025-05-20///20250520.png</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -1080,117 +1080,117 @@
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
+          <t>SveltePlot</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
           <t>sysfonts</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>systemfonts</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>tayloRswift</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>terra</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>tibble</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>tidyr</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>tidyterra</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>tidytext</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>tidytuesdayR</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>tidyverse</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>tigris</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>tm</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>tmap</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>transformr</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>treemapify</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>tsibble</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>usefunc</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>usmap</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>viridis</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>VoronoiPlus</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>waffle</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>wordcloud2</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>NA</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2019/2019-01-29///20190129.png</t>
+          <t>2019/2019-01-29/20190129.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019/2019-03-05///20190305.png</t>
+          <t>2019/2019-03-05/20190305.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
         <v>0</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2019/2019-05-14///20190514-light.png</t>
+          <t>2019/2019-05-14/20190514-light.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2700,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="EW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX4">
         <v>1</v>
       </c>
       <c r="EY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
         <v>0</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020/2020-04-21///20200421.jpg</t>
+          <t>2020/2020-04-21/20200421.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3217,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="EW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX5">
         <v>1</v>
       </c>
       <c r="EY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="FE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG5">
         <v>0</v>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020/2020-07-28///20200728.jpg</t>
+          <t>2020/2020-07-28/20200728.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="EX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="FE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG6">
         <v>0</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020/2020-10-27///20201027.png</t>
+          <t>2020/2020-10-27/20201027.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4227,10 +4227,10 @@
         <v>1</v>
       </c>
       <c r="EO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ7">
         <v>0</v>
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="EX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ7">
         <v>0</v>
@@ -4287,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="FI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK7">
         <v>0</v>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2020/2020-11-10///20201110.png</t>
+          <t>2020/2020-11-10/20201110.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4771,10 +4771,10 @@
         <v>0</v>
       </c>
       <c r="EX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ8">
         <v>0</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020/2020-12-08///20201208.jpg</t>
+          <t>2020/2020-12-08/20201208.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5285,13 +5285,13 @@
         <v>0</v>
       </c>
       <c r="EW9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX9">
         <v>1</v>
       </c>
       <c r="EY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ9">
         <v>0</v>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/01-06-2021///01062021.jpg</t>
+          <t>2021/01-06-2021/01062021.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5802,13 +5802,13 @@
         <v>0</v>
       </c>
       <c r="EW10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX10">
         <v>1</v>
       </c>
       <c r="EY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ10">
         <v>0</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/02-02-2021///02022021.jpg</t>
+          <t>2021/02-02-2021/02022021.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/02-03-2021///02032021.jpg</t>
+          <t>2021/02-03-2021/02032021.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6836,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="EW12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX12">
         <v>1</v>
       </c>
       <c r="EY12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ12">
         <v>0</v>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/02-11-2021///02112021.png</t>
+          <t>2021/02-11-2021/02112021.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7365,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="FA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC13">
         <v>0</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/03-08-2021///03082021_table.png</t>
+          <t>2021/03-08-2021/03082021.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7870,13 +7870,13 @@
         <v>0</v>
       </c>
       <c r="EW14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX14">
         <v>1</v>
       </c>
       <c r="EY14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ14">
         <v>0</v>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/04-05-2021///04052021.jpg</t>
+          <t>2021/04-05-2021/04052021.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8387,13 +8387,13 @@
         <v>0</v>
       </c>
       <c r="EW15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX15">
         <v>1</v>
       </c>
       <c r="EY15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ15">
         <v>0</v>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/05-01-2021///05012021.jpg</t>
+          <t>2021/05-01-2021/05012021.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8904,13 +8904,13 @@
         <v>0</v>
       </c>
       <c r="EW16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX16">
         <v>1</v>
       </c>
       <c r="EY16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ16">
         <v>0</v>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/05-10-2021///05102021.jpg</t>
+          <t>2021/05-10-2021/05102021.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9421,13 +9421,13 @@
         <v>0</v>
       </c>
       <c r="EW17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX17">
         <v>1</v>
       </c>
       <c r="EY17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ17">
         <v>0</v>
@@ -9445,10 +9445,10 @@
         <v>0</v>
       </c>
       <c r="FE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG17">
         <v>0</v>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/06-04-2021///06042021_plot1.jpg</t>
+          <t>2021/06-04-2021/06042021.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -9938,13 +9938,13 @@
         <v>0</v>
       </c>
       <c r="EW18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX18">
         <v>1</v>
       </c>
       <c r="EY18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ18">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="FB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD18">
         <v>0</v>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/06-07-2021///06072021.jpg</t>
+          <t>2021/06-07-2021/06072021.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10455,13 +10455,13 @@
         <v>0</v>
       </c>
       <c r="EW19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX19">
         <v>1</v>
       </c>
       <c r="EY19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ19">
         <v>0</v>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/07-09-2021///07092021.jpg</t>
+          <t>2021/07-09-2021/07092021.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -10972,13 +10972,13 @@
         <v>0</v>
       </c>
       <c r="EW20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX20">
         <v>1</v>
       </c>
       <c r="EY20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ20">
         <v>0</v>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/07-12-2021///07122021.jpeg</t>
+          <t>2021/07-12-2021/07122021.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -11489,13 +11489,13 @@
         <v>0</v>
       </c>
       <c r="EW21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX21">
         <v>1</v>
       </c>
       <c r="EY21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ21">
         <v>0</v>
@@ -11562,7 +11562,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/08-06-2021///08062021.jpg</t>
+          <t>2021/08-06-2021/08062021.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -12006,13 +12006,13 @@
         <v>0</v>
       </c>
       <c r="EW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX22">
         <v>1</v>
       </c>
       <c r="EY22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ22">
         <v>0</v>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/09-02-2021///09022021.jpg</t>
+          <t>2021/09-02-2021/09022021.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -12523,13 +12523,13 @@
         <v>0</v>
       </c>
       <c r="EW23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX23">
         <v>1</v>
       </c>
       <c r="EY23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ23">
         <v>0</v>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/09-03-2021///09032021.jpg</t>
+          <t>2021/09-03-2021/09032021.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -13040,13 +13040,13 @@
         <v>0</v>
       </c>
       <c r="EW24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX24">
         <v>1</v>
       </c>
       <c r="EY24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ24">
         <v>0</v>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/09-11-2021///09112021.jpg</t>
+          <t>2021/09-11-2021/09112021.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="EX25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ25">
         <v>0</v>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/10-08-2021///10082021.jpg</t>
+          <t>2021/10-08-2021/10082021.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -14074,13 +14074,13 @@
         <v>0</v>
       </c>
       <c r="EW26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX26">
         <v>1</v>
       </c>
       <c r="EY26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ26">
         <v>0</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/11-05-2021///11052021.jpg</t>
+          <t>2021/11-05-2021/11052021.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -14591,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="EW27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX27">
         <v>1</v>
@@ -14600,7 +14600,7 @@
         <v>1</v>
       </c>
       <c r="EZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA27">
         <v>0</v>
@@ -14664,7 +14664,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/12-01-2021///12012021.jpg</t>
+          <t>2021/12-01-2021/12012021.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -15108,13 +15108,13 @@
         <v>0</v>
       </c>
       <c r="EW28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX28">
         <v>1</v>
       </c>
       <c r="EY28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ28">
         <v>0</v>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/12-10-2021///12102021_f1.jpg</t>
+          <t>2021/12-10-2021/12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -15625,13 +15625,13 @@
         <v>0</v>
       </c>
       <c r="EW29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX29">
         <v>1</v>
       </c>
       <c r="EY29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ29">
         <v>0</v>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/13-04-2021///13042021.jpg</t>
+          <t>2021/13-04-2021/13042021.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -16142,13 +16142,13 @@
         <v>0</v>
       </c>
       <c r="EW30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX30">
         <v>1</v>
       </c>
       <c r="EY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ30">
         <v>0</v>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/13-07-2021///13072021.jpg</t>
+          <t>2021/13-07-2021/13072021.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -16659,13 +16659,13 @@
         <v>0</v>
       </c>
       <c r="EW31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX31">
         <v>1</v>
       </c>
       <c r="EY31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ31">
         <v>0</v>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/14-09-2021///14092021.jpg</t>
+          <t>2021/14-09-2021/14092021.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -17176,13 +17176,13 @@
         <v>0</v>
       </c>
       <c r="EW32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX32">
         <v>1</v>
       </c>
       <c r="EY32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ32">
         <v>0</v>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/14-12-2021///14122021.jpg</t>
+          <t>2021/14-12-2021/14122021.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -17693,13 +17693,13 @@
         <v>0</v>
       </c>
       <c r="EW33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX33">
         <v>1</v>
       </c>
       <c r="EY33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ33">
         <v>0</v>
@@ -17766,7 +17766,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/15-06-2021///15062021.jpg</t>
+          <t>2021/15-06-2021/15062021.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -18210,13 +18210,13 @@
         <v>0</v>
       </c>
       <c r="EW34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX34">
         <v>1</v>
       </c>
       <c r="EY34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ34">
         <v>0</v>
@@ -18283,7 +18283,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/16-02-2021///16022021.jpg</t>
+          <t>2021/16-02-2021/16022021.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -18727,13 +18727,13 @@
         <v>0</v>
       </c>
       <c r="EW35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX35">
         <v>1</v>
       </c>
       <c r="EY35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ35">
         <v>0</v>
@@ -18800,7 +18800,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/16-03-2021///16032021.jpg</t>
+          <t>2021/16-03-2021/16032021.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -19244,19 +19244,19 @@
         <v>0</v>
       </c>
       <c r="EW36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX36">
         <v>1</v>
       </c>
       <c r="EY36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB36">
         <v>0</v>
@@ -19283,10 +19283,10 @@
         <v>0</v>
       </c>
       <c r="FJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -19317,7 +19317,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/17-08-2021///17082021.jpg</t>
+          <t>2021/17-08-2021/17082021.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -19761,13 +19761,13 @@
         <v>0</v>
       </c>
       <c r="EW37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX37">
         <v>1</v>
       </c>
       <c r="EY37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ37">
         <v>0</v>
@@ -19834,7 +19834,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/18-05-2021///18052021.jpg</t>
+          <t>2021/18-05-2021/18052021.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -20278,13 +20278,13 @@
         <v>0</v>
       </c>
       <c r="EW38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX38">
         <v>1</v>
       </c>
       <c r="EY38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ38">
         <v>0</v>
@@ -20351,7 +20351,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/19-01-2021///19012021.jpg</t>
+          <t>2021/19-01-2021/19012021.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -20798,10 +20798,10 @@
         <v>0</v>
       </c>
       <c r="EX39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ39">
         <v>0</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/19-10-2021///19102021.jpg</t>
+          <t>2021/19-10-2021/19102021.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -21312,13 +21312,13 @@
         <v>0</v>
       </c>
       <c r="EW40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX40">
         <v>1</v>
       </c>
       <c r="EY40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ40">
         <v>0</v>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/20-04-2021///20042021.png</t>
+          <t>2021/20-04-2021/20042021.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -21829,13 +21829,13 @@
         <v>0</v>
       </c>
       <c r="EW41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX41">
         <v>1</v>
       </c>
       <c r="EY41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ41">
         <v>0</v>
@@ -21902,7 +21902,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/20-07-2021///20072021.jpg</t>
+          <t>2021/20-07-2021/20072021.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -22346,13 +22346,13 @@
         <v>0</v>
       </c>
       <c r="EW42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX42">
         <v>1</v>
       </c>
       <c r="EY42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ42">
         <v>0</v>
@@ -22419,7 +22419,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/21-09-2021///21092021_waffle.jpg</t>
+          <t>2021/21-09-2021/21092021.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -22863,13 +22863,13 @@
         <v>0</v>
       </c>
       <c r="EW43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX43">
         <v>1</v>
       </c>
       <c r="EY43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ43">
         <v>0</v>
@@ -22899,10 +22899,10 @@
         <v>0</v>
       </c>
       <c r="FI43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK43">
         <v>0</v>
@@ -22936,7 +22936,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/21-12-2021///21122021.jpg</t>
+          <t>2021/21-12-2021/21122021.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -23380,13 +23380,13 @@
         <v>0</v>
       </c>
       <c r="EW44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX44">
         <v>1</v>
       </c>
       <c r="EY44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ44">
         <v>0</v>
@@ -23448,12 +23448,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021_stream_plots.R</t>
+          <t>2021/22-06-2021/22062021.R</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/22-06-2021///22062021_v2.jpg</t>
+          <t>2021/22-06-2021/22062021.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -23897,13 +23897,13 @@
         <v>0</v>
       </c>
       <c r="EW45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX45">
         <v>1</v>
       </c>
       <c r="EY45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ45">
         <v>0</v>
@@ -23970,7 +23970,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/23-02-2021///23022021.jpg</t>
+          <t>2021/23-02-2021/23022021.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="EW46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX46">
         <v>1</v>
       </c>
       <c r="EY46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ46">
         <v>0</v>
@@ -24487,7 +24487,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/23-03-2021///23032021.jpg</t>
+          <t>2021/23-03-2021/23032021.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="EW47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX47">
         <v>1</v>
       </c>
       <c r="EY47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ47">
         <v>0</v>
@@ -25004,7 +25004,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/23-11-2021///23112021.jpg</t>
+          <t>2021/23-11-2021/23112021.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -25448,13 +25448,13 @@
         <v>0</v>
       </c>
       <c r="EW48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX48">
         <v>1</v>
       </c>
       <c r="EY48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ48">
         <v>0</v>
@@ -25521,7 +25521,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/24-08-2021///24082021.jpg</t>
+          <t>2021/24-08-2021/24082021.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -25965,13 +25965,13 @@
         <v>0</v>
       </c>
       <c r="EW49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX49">
         <v>1</v>
       </c>
       <c r="EY49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ49">
         <v>0</v>
@@ -26038,7 +26038,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/25-05-2021///25052021.jpg</t>
+          <t>2021/25-05-2021/25052021.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -26482,13 +26482,13 @@
         <v>0</v>
       </c>
       <c r="EW50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX50">
         <v>1</v>
       </c>
       <c r="EY50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ50">
         <v>0</v>
@@ -26555,7 +26555,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/26-01-2021///26012021.jpg</t>
+          <t>2021/26-01-2021/26012021.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -26999,10 +26999,10 @@
         <v>0</v>
       </c>
       <c r="EW51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY51">
         <v>0</v>
@@ -27072,7 +27072,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/26-10-2021///26102021.jpg</t>
+          <t>2021/26-10-2021/26102021.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -27519,10 +27519,10 @@
         <v>0</v>
       </c>
       <c r="EX52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ52">
         <v>0</v>
@@ -27589,7 +27589,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/27-04-2021///27042021.jpg</t>
+          <t>2021/27-04-2021/27042021.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -28033,13 +28033,13 @@
         <v>0</v>
       </c>
       <c r="EW53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX53">
         <v>1</v>
       </c>
       <c r="EY53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ53">
         <v>0</v>
@@ -28063,10 +28063,10 @@
         <v>0</v>
       </c>
       <c r="FG53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI53">
         <v>0</v>
@@ -28106,7 +28106,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/27-07-2021///27072021.jpg</t>
+          <t>2021/27-07-2021/27072021.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28550,13 +28550,13 @@
         <v>0</v>
       </c>
       <c r="EW54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX54">
         <v>1</v>
       </c>
       <c r="EY54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ54">
         <v>0</v>
@@ -28580,10 +28580,10 @@
         <v>0</v>
       </c>
       <c r="FG54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI54">
         <v>0</v>
@@ -28623,7 +28623,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/28-09-2021///28092021.jpg</t>
+          <t>2021/28-09-2021/28092021.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -29070,10 +29070,10 @@
         <v>0</v>
       </c>
       <c r="EX55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ55">
         <v>0</v>
@@ -29140,7 +29140,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/29-06-2021///29062021.jpg</t>
+          <t>2021/29-06-2021/29062021.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -29584,13 +29584,13 @@
         <v>0</v>
       </c>
       <c r="EW56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX56">
         <v>1</v>
       </c>
       <c r="EY56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ56">
         <v>0</v>
@@ -29657,7 +29657,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021/29-12-2020///29122020.jpg</t>
+          <t>2021/29-12-2020/29122020.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -30104,10 +30104,10 @@
         <v>0</v>
       </c>
       <c r="EX57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ57">
         <v>0</v>
@@ -30174,7 +30174,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021/30-03-2021///30032021.jpg</t>
+          <t>2021/30-03-2021/30032021.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -30621,10 +30621,10 @@
         <v>0</v>
       </c>
       <c r="EX58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ58">
         <v>0</v>
@@ -30691,7 +30691,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/30-11-2021///30112021_v2.jpeg</t>
+          <t>2021/30-11-2021/30112021.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -31135,13 +31135,13 @@
         <v>0</v>
       </c>
       <c r="EW59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX59">
         <v>1</v>
       </c>
       <c r="EY59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ59">
         <v>0</v>
@@ -31208,7 +31208,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021/31-08-2021///31082021.jpg</t>
+          <t>2021/31-08-2021/31082021.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -31652,13 +31652,13 @@
         <v>0</v>
       </c>
       <c r="EW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX60">
         <v>1</v>
       </c>
       <c r="EY60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ60">
         <v>0</v>
@@ -31725,7 +31725,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-01-04///20220104.jpg</t>
+          <t>2022/2022-01-04/20220104.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -32242,7 +32242,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-01-11///20220111.jpg</t>
+          <t>2022/2022-01-11/20220111.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -32686,13 +32686,13 @@
         <v>0</v>
       </c>
       <c r="EW62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX62">
         <v>1</v>
       </c>
       <c r="EY62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ62">
         <v>0</v>
@@ -32759,7 +32759,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-01-18///20220118.png</t>
+          <t>2022/2022-01-18/20220118.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -33203,13 +33203,13 @@
         <v>0</v>
       </c>
       <c r="EW63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX63">
         <v>1</v>
       </c>
       <c r="EY63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ63">
         <v>0</v>
@@ -33221,10 +33221,10 @@
         <v>0</v>
       </c>
       <c r="FC63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE63">
         <v>0</v>
@@ -33276,7 +33276,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-01-25///20220125.jpeg</t>
+          <t>2022/2022-01-25/20220125.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -33720,13 +33720,13 @@
         <v>0</v>
       </c>
       <c r="EW64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX64">
         <v>1</v>
       </c>
       <c r="EY64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ64">
         <v>0</v>
@@ -33793,7 +33793,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-02-01///20220201.jpg</t>
+          <t>2022/2022-02-01/20220201.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -34240,10 +34240,10 @@
         <v>0</v>
       </c>
       <c r="EX65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ65">
         <v>0</v>
@@ -34310,7 +34310,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-02-08///20220208.jpeg</t>
+          <t>2022/2022-02-08/20220208.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -34754,13 +34754,13 @@
         <v>0</v>
       </c>
       <c r="EW66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX66">
         <v>1</v>
       </c>
       <c r="EY66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ66">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="FE66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG66">
         <v>0</v>
@@ -34827,7 +34827,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-02-15///20220215.jpg</t>
+          <t>2022/2022-02-15/20220215.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -35274,10 +35274,10 @@
         <v>0</v>
       </c>
       <c r="EX67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ67">
         <v>0</v>
@@ -35344,7 +35344,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-02-22///20220222.jpeg</t>
+          <t>2022/2022-02-22/20220222.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -35788,13 +35788,13 @@
         <v>0</v>
       </c>
       <c r="EW68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX68">
         <v>1</v>
       </c>
       <c r="EY68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ68">
         <v>0</v>
@@ -35812,10 +35812,10 @@
         <v>0</v>
       </c>
       <c r="FE68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG68">
         <v>0</v>
@@ -35861,7 +35861,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-03-01///20220301.jpg</t>
+          <t>2022/2022-03-01/20220301.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -36305,13 +36305,13 @@
         <v>0</v>
       </c>
       <c r="EW69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX69">
         <v>1</v>
       </c>
       <c r="EY69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ69">
         <v>0</v>
@@ -36329,10 +36329,10 @@
         <v>0</v>
       </c>
       <c r="FE69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG69">
         <v>0</v>
@@ -36378,7 +36378,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-03-08///20220308.jpeg</t>
+          <t>2022/2022-03-08/20220308.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -36822,13 +36822,13 @@
         <v>0</v>
       </c>
       <c r="EW70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX70">
         <v>1</v>
       </c>
       <c r="EY70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ70">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="FE70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG70">
         <v>0</v>
@@ -36895,7 +36895,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-03-15///20220315.jpeg</t>
+          <t>2022/2022-03-15/20220315.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -37339,13 +37339,13 @@
         <v>0</v>
       </c>
       <c r="EW71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX71">
         <v>1</v>
       </c>
       <c r="EY71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ71">
         <v>0</v>
@@ -37363,10 +37363,10 @@
         <v>0</v>
       </c>
       <c r="FE71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG71">
         <v>0</v>
@@ -37412,7 +37412,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-03-22///20220322.jpeg</t>
+          <t>2022/2022-03-22/20220322.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="EW72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX72">
         <v>1</v>
       </c>
       <c r="EY72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ72">
         <v>0</v>
@@ -37880,10 +37880,10 @@
         <v>0</v>
       </c>
       <c r="FE72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG72">
         <v>0</v>
@@ -37929,7 +37929,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-03-29///20220329.jpeg</t>
+          <t>2022/2022-03-29/20220329.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -38373,13 +38373,13 @@
         <v>0</v>
       </c>
       <c r="EW73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX73">
         <v>1</v>
       </c>
       <c r="EY73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ73">
         <v>0</v>
@@ -38397,10 +38397,10 @@
         <v>0</v>
       </c>
       <c r="FE73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG73">
         <v>0</v>
@@ -38446,7 +38446,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-04-05///20220405.png</t>
+          <t>2022/2022-04-05/20220405.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -38890,13 +38890,13 @@
         <v>0</v>
       </c>
       <c r="EW74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX74">
         <v>1</v>
       </c>
       <c r="EY74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ74">
         <v>0</v>
@@ -38914,10 +38914,10 @@
         <v>0</v>
       </c>
       <c r="FE74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG74">
         <v>0</v>
@@ -38963,7 +38963,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-04-12///20220412.png</t>
+          <t>2022/2022-04-12/20220412.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -39407,13 +39407,13 @@
         <v>0</v>
       </c>
       <c r="EW75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX75">
         <v>1</v>
       </c>
       <c r="EY75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ75">
         <v>0</v>
@@ -39431,10 +39431,10 @@
         <v>0</v>
       </c>
       <c r="FE75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG75">
         <v>0</v>
@@ -39480,7 +39480,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-04-19///20220419.jpeg</t>
+          <t>2022/2022-04-19/20220419.jpeg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -39921,7 +39921,7 @@
         <v>0</v>
       </c>
       <c r="EV76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW76">
         <v>1</v>
@@ -39930,7 +39930,7 @@
         <v>1</v>
       </c>
       <c r="EY76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ76">
         <v>0</v>
@@ -39948,10 +39948,10 @@
         <v>0</v>
       </c>
       <c r="FE76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG76">
         <v>0</v>
@@ -39997,7 +39997,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-04-26///20220426.png</t>
+          <t>2022/2022-04-26/20220426.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -40438,7 +40438,7 @@
         <v>0</v>
       </c>
       <c r="EV77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW77">
         <v>1</v>
@@ -40447,7 +40447,7 @@
         <v>1</v>
       </c>
       <c r="EY77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ77">
         <v>0</v>
@@ -40465,10 +40465,10 @@
         <v>0</v>
       </c>
       <c r="FE77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG77">
         <v>0</v>
@@ -40514,7 +40514,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-05-03///20220503_bar.png</t>
+          <t>2022/2022-05-03/20220503_bar.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -40949,10 +40949,10 @@
         <v>0</v>
       </c>
       <c r="ET78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV78">
         <v>0</v>
@@ -40982,10 +40982,10 @@
         <v>0</v>
       </c>
       <c r="FE78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG78">
         <v>0</v>
@@ -41031,7 +41031,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-05-10///20220510.png</t>
+          <t>2022/2022-05-10/20220510.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -41478,10 +41478,10 @@
         <v>0</v>
       </c>
       <c r="EX79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ79">
         <v>0</v>
@@ -41499,10 +41499,10 @@
         <v>0</v>
       </c>
       <c r="FE79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG79">
         <v>0</v>
@@ -41548,7 +41548,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-05-17///20220517_tableau.png</t>
+          <t>2022/2022-05-17/20220517.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -41992,13 +41992,13 @@
         <v>0</v>
       </c>
       <c r="EW80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX80">
         <v>1</v>
       </c>
       <c r="EY80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ80">
         <v>0</v>
@@ -42065,7 +42065,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-05-24///20220524.png</t>
+          <t>2022/2022-05-24/20220524.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -42509,13 +42509,13 @@
         <v>0</v>
       </c>
       <c r="EW81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX81">
         <v>1</v>
       </c>
       <c r="EY81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ81">
         <v>0</v>
@@ -42533,10 +42533,10 @@
         <v>0</v>
       </c>
       <c r="FE81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG81">
         <v>0</v>
@@ -42582,7 +42582,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-05-31///20220531.png</t>
+          <t>2022/2022-05-31/20220531.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -43026,13 +43026,13 @@
         <v>0</v>
       </c>
       <c r="EW82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX82">
         <v>1</v>
       </c>
       <c r="EY82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ82">
         <v>0</v>
@@ -43099,7 +43099,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-06-07///20220607.png</t>
+          <t>2022/2022-06-07/20220607.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -43546,10 +43546,10 @@
         <v>0</v>
       </c>
       <c r="EX83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ83">
         <v>0</v>
@@ -43567,10 +43567,10 @@
         <v>0</v>
       </c>
       <c r="FE83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG83">
         <v>0</v>
@@ -43616,7 +43616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-06-14///20220614.png</t>
+          <t>2022/2022-06-14/20220614.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -44063,10 +44063,10 @@
         <v>0</v>
       </c>
       <c r="EX84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ84">
         <v>0</v>
@@ -44084,10 +44084,10 @@
         <v>0</v>
       </c>
       <c r="FE84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG84">
         <v>0</v>
@@ -44133,7 +44133,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-06-21///20220621.png</t>
+          <t>2022/2022-06-21/20220621.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -44580,10 +44580,10 @@
         <v>0</v>
       </c>
       <c r="EX85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ85">
         <v>0</v>
@@ -44601,10 +44601,10 @@
         <v>0</v>
       </c>
       <c r="FE85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG85">
         <v>0</v>
@@ -44650,7 +44650,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-06-28///20220628.png</t>
+          <t>2022/2022-06-28/20220628.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -45097,10 +45097,10 @@
         <v>0</v>
       </c>
       <c r="EX86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ86">
         <v>0</v>
@@ -45118,10 +45118,10 @@
         <v>0</v>
       </c>
       <c r="FE86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG86">
         <v>0</v>
@@ -45167,7 +45167,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-07-05///20220705.png</t>
+          <t>2022/2022-07-05/20220705.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -45614,10 +45614,10 @@
         <v>0</v>
       </c>
       <c r="EX87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ87">
         <v>0</v>
@@ -45684,7 +45684,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-07-12///20220712.png</t>
+          <t>2022/2022-07-12/20220712.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -46131,10 +46131,10 @@
         <v>0</v>
       </c>
       <c r="EX88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ88">
         <v>0</v>
@@ -46201,7 +46201,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-07-19///20220719.png</t>
+          <t>2022/2022-07-19/20220719.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -46648,10 +46648,10 @@
         <v>0</v>
       </c>
       <c r="EX89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ89">
         <v>0</v>
@@ -46669,10 +46669,10 @@
         <v>0</v>
       </c>
       <c r="FE89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG89">
         <v>0</v>
@@ -46718,7 +46718,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-08-02///20220802.png</t>
+          <t>2022/2022-08-02/20220802.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -47165,10 +47165,10 @@
         <v>0</v>
       </c>
       <c r="EX90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ90">
         <v>0</v>
@@ -47186,10 +47186,10 @@
         <v>0</v>
       </c>
       <c r="FE90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG90">
         <v>0</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-08-09///20220809.png</t>
+          <t>2022/2022-08-09/20220809.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -47682,10 +47682,10 @@
         <v>0</v>
       </c>
       <c r="EX91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ91">
         <v>0</v>
@@ -47703,10 +47703,10 @@
         <v>0</v>
       </c>
       <c r="FE91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG91">
         <v>0</v>
@@ -47752,7 +47752,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-08-16///20220816.png</t>
+          <t>2022/2022-08-16/20220816.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -48199,10 +48199,10 @@
         <v>0</v>
       </c>
       <c r="EX92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ92">
         <v>0</v>
@@ -48269,7 +48269,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-08-23///20220823.png</t>
+          <t>2022/2022-08-23/20220823.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -48716,10 +48716,10 @@
         <v>0</v>
       </c>
       <c r="EX93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ93">
         <v>0</v>
@@ -48786,7 +48786,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-08-30///20220830.png</t>
+          <t>2022/2022-08-30/20220830.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -49233,10 +49233,10 @@
         <v>0</v>
       </c>
       <c r="EX94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ94">
         <v>0</v>
@@ -49254,13 +49254,13 @@
         <v>0</v>
       </c>
       <c r="FE94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF94">
         <v>1</v>
       </c>
       <c r="FG94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH94">
         <v>0</v>
@@ -49303,7 +49303,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-09-06///20220906.png</t>
+          <t>2022/2022-09-06/20220906.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -49750,10 +49750,10 @@
         <v>0</v>
       </c>
       <c r="EX95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ95">
         <v>0</v>
@@ -49771,10 +49771,10 @@
         <v>0</v>
       </c>
       <c r="FE95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG95">
         <v>0</v>
@@ -49820,7 +49820,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-09-13///20220913.png</t>
+          <t>2022/2022-09-13/20220913.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -50267,10 +50267,10 @@
         <v>0</v>
       </c>
       <c r="EX96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ96">
         <v>0</v>
@@ -50288,10 +50288,10 @@
         <v>0</v>
       </c>
       <c r="FE96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG96">
         <v>0</v>
@@ -50337,7 +50337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-09-20///20220920.png</t>
+          <t>2022/2022-09-20/20220920.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -50784,10 +50784,10 @@
         <v>0</v>
       </c>
       <c r="EX97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ97">
         <v>0</v>
@@ -50805,10 +50805,10 @@
         <v>0</v>
       </c>
       <c r="FE97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG97">
         <v>0</v>
@@ -50854,7 +50854,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-09-27///20220927.png</t>
+          <t>2022/2022-09-27/20220927.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -51301,10 +51301,10 @@
         <v>0</v>
       </c>
       <c r="EX98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ98">
         <v>0</v>
@@ -51322,10 +51322,10 @@
         <v>0</v>
       </c>
       <c r="FE98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG98">
         <v>0</v>
@@ -51371,7 +51371,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-10-04///20221004.png</t>
+          <t>2022/2022-10-04/20221004.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -51818,10 +51818,10 @@
         <v>0</v>
       </c>
       <c r="EX99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ99">
         <v>0</v>
@@ -51839,10 +51839,10 @@
         <v>0</v>
       </c>
       <c r="FE99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG99">
         <v>0</v>
@@ -51888,7 +51888,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-10-11///20221011.png</t>
+          <t>2022/2022-10-11/20221011.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -52335,10 +52335,10 @@
         <v>0</v>
       </c>
       <c r="EX100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ100">
         <v>0</v>
@@ -52356,10 +52356,10 @@
         <v>0</v>
       </c>
       <c r="FE100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG100">
         <v>0</v>
@@ -52405,7 +52405,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-10-18///20221018.png</t>
+          <t>2022/2022-10-18/20221018.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -52852,10 +52852,10 @@
         <v>0</v>
       </c>
       <c r="EX101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ101">
         <v>0</v>
@@ -52873,10 +52873,10 @@
         <v>0</v>
       </c>
       <c r="FE101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG101">
         <v>0</v>
@@ -52922,7 +52922,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-10-25///20221025.png</t>
+          <t>2022/2022-10-25/20221025.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -53369,10 +53369,10 @@
         <v>0</v>
       </c>
       <c r="EX102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ102">
         <v>0</v>
@@ -53390,10 +53390,10 @@
         <v>0</v>
       </c>
       <c r="FE102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG102">
         <v>0</v>
@@ -53439,7 +53439,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-11-01///20221101.png</t>
+          <t>2022/2022-11-01/20221101.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -53886,10 +53886,10 @@
         <v>0</v>
       </c>
       <c r="EX103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ103">
         <v>0</v>
@@ -53956,7 +53956,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-11-08///20221108.png</t>
+          <t>2022/2022-11-08/20221108.png</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -54403,10 +54403,10 @@
         <v>0</v>
       </c>
       <c r="EX104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ104">
         <v>0</v>
@@ -54473,7 +54473,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-11-15///20221115_plot1.png</t>
+          <t>2022/2022-11-15/20221115_plot1.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -54920,10 +54920,10 @@
         <v>0</v>
       </c>
       <c r="EX105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ105">
         <v>0</v>
@@ -54990,7 +54990,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-11-22///20221122.png</t>
+          <t>2022/2022-11-22/20221122.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -55437,10 +55437,10 @@
         <v>0</v>
       </c>
       <c r="EX106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ106">
         <v>0</v>
@@ -55458,16 +55458,16 @@
         <v>0</v>
       </c>
       <c r="FE106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI106">
         <v>0</v>
@@ -55507,7 +55507,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022/2022-11-29///20221129.png</t>
+          <t>2022/2022-11-29/20221129.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -55954,10 +55954,10 @@
         <v>0</v>
       </c>
       <c r="EX107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ107">
         <v>0</v>
@@ -56024,7 +56024,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022/2022-12-06///20221206.png</t>
+          <t>2022/2022-12-06/20221206.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -56471,10 +56471,10 @@
         <v>0</v>
       </c>
       <c r="EX108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ108">
         <v>0</v>
@@ -56541,7 +56541,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2022/2022-12-13///20221213.png</t>
+          <t>2022/2022-12-13/20221213.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -56988,10 +56988,10 @@
         <v>0</v>
       </c>
       <c r="EX109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ109">
         <v>0</v>
@@ -57009,10 +57009,10 @@
         <v>0</v>
       </c>
       <c r="FE109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG109">
         <v>0</v>
@@ -57058,7 +57058,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2022/2022-12-20///20221220.png</t>
+          <t>2022/2022-12-20/20221220.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -57505,10 +57505,10 @@
         <v>0</v>
       </c>
       <c r="EX110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ110">
         <v>0</v>
@@ -57526,10 +57526,10 @@
         <v>0</v>
       </c>
       <c r="FE110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG110">
         <v>0</v>
@@ -57575,7 +57575,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2022/2022-12-27///20221227.png</t>
+          <t>2022/2022-12-27/20221227.png</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -58022,10 +58022,10 @@
         <v>0</v>
       </c>
       <c r="EX111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ111">
         <v>0</v>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-01-03///20230103_raw.png</t>
+          <t>2023/2023-01-03/20230103.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -58539,10 +58539,10 @@
         <v>0</v>
       </c>
       <c r="EX112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ112">
         <v>0</v>
@@ -58560,10 +58560,10 @@
         <v>0</v>
       </c>
       <c r="FE112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG112">
         <v>0</v>
@@ -58609,7 +58609,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-01-10///20230110.png</t>
+          <t>2023/2023-01-10/20230110.png</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -59038,28 +59038,28 @@
         <v>0</v>
       </c>
       <c r="ER113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET113">
         <v>0</v>
       </c>
       <c r="EU113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW113">
         <v>0</v>
       </c>
       <c r="EX113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ113">
         <v>0</v>
@@ -59077,10 +59077,10 @@
         <v>0</v>
       </c>
       <c r="FE113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG113">
         <v>0</v>
@@ -59126,7 +59126,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-01-17///20230117_book.png</t>
+          <t>2023/2023-01-17/20230117.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -59573,10 +59573,10 @@
         <v>0</v>
       </c>
       <c r="EX114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ114">
         <v>0</v>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-01-24///20230124.png</t>
+          <t>2023/2023-01-24/20230124.png</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -60090,10 +60090,10 @@
         <v>0</v>
       </c>
       <c r="EX115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ115">
         <v>0</v>
@@ -60160,7 +60160,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-01-31///20230131.png</t>
+          <t>2023/2023-01-31/20230131.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -60607,10 +60607,10 @@
         <v>0</v>
       </c>
       <c r="EX116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ116">
         <v>0</v>
@@ -60677,7 +60677,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-02-07///20230207.png</t>
+          <t>2023/2023-02-07/20230207.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -61124,10 +61124,10 @@
         <v>0</v>
       </c>
       <c r="EX117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ117">
         <v>0</v>
@@ -61184,17 +61184,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214_love_actually.R</t>
+          <t>2023/2023-02-14/20230214.R</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-02-14///20230214_love_actually.png</t>
+          <t>2023/2023-02-14/20230214.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -61305,7 +61305,7 @@
         <v>0</v>
       </c>
       <c r="AP118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>0</v>
@@ -61503,7 +61503,7 @@
         <v>0</v>
       </c>
       <c r="DD118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE118">
         <v>0</v>
@@ -61545,7 +61545,7 @@
         <v>0</v>
       </c>
       <c r="DR118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS118">
         <v>0</v>
@@ -61641,10 +61641,10 @@
         <v>0</v>
       </c>
       <c r="EX118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ118">
         <v>0</v>
@@ -61711,7 +61711,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-02-21///20230221.png</t>
+          <t>2023/2023-02-21/20230221.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -62158,10 +62158,10 @@
         <v>0</v>
       </c>
       <c r="EX119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ119">
         <v>0</v>
@@ -62228,7 +62228,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-02-28///20230228.png</t>
+          <t>2023/2023-02-28/20230228.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -62675,10 +62675,10 @@
         <v>0</v>
       </c>
       <c r="EX120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ120">
         <v>0</v>
@@ -62745,7 +62745,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-03-07///20230307.png</t>
+          <t>2023/2023-03-07/20230307.png</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -63192,10 +63192,10 @@
         <v>0</v>
       </c>
       <c r="EX121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ121">
         <v>0</v>
@@ -63262,7 +63262,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-03-14///20230314_b.png</t>
+          <t>2023/2023-03-14/20230314.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -63709,10 +63709,10 @@
         <v>0</v>
       </c>
       <c r="EX122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ122">
         <v>0</v>
@@ -63779,7 +63779,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-03-21///20230321.png</t>
+          <t>2023/2023-03-21/20230321.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -64226,10 +64226,10 @@
         <v>0</v>
       </c>
       <c r="EX123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ123">
         <v>0</v>
@@ -64296,7 +64296,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-03-28///20230328.png</t>
+          <t>2023/2023-03-28/20230328.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -64743,10 +64743,10 @@
         <v>0</v>
       </c>
       <c r="EX124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ124">
         <v>0</v>
@@ -64813,7 +64813,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-04-04///20230404.png</t>
+          <t>2023/2023-04-04/20230404.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -65233,10 +65233,10 @@
         <v>0</v>
       </c>
       <c r="EO125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ125">
         <v>0</v>
@@ -65260,10 +65260,10 @@
         <v>0</v>
       </c>
       <c r="EX125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ125">
         <v>0</v>
@@ -65330,7 +65330,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-04-11///20230411.png</t>
+          <t>2023/2023-04-11/20230411.png</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -65777,10 +65777,10 @@
         <v>0</v>
       </c>
       <c r="EX126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ126">
         <v>0</v>
@@ -65847,7 +65847,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-04-18///20230418.png</t>
+          <t>2023/2023-04-18/20230418.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -66294,10 +66294,10 @@
         <v>0</v>
       </c>
       <c r="EX127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ127">
         <v>0</v>
@@ -66364,7 +66364,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-04-25///20230425.png</t>
+          <t>2023/2023-04-25/20230425.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -66811,10 +66811,10 @@
         <v>0</v>
       </c>
       <c r="EX128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ128">
         <v>0</v>
@@ -66881,7 +66881,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-05-02///20230502.png</t>
+          <t>2023/2023-05-02/20230502.png</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -67328,10 +67328,10 @@
         <v>0</v>
       </c>
       <c r="EX129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ129">
         <v>0</v>
@@ -67398,7 +67398,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-05-09///20230509.png</t>
+          <t>2023/2023-05-09/20230509.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -67845,10 +67845,10 @@
         <v>0</v>
       </c>
       <c r="EX130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ130">
         <v>0</v>
@@ -67915,7 +67915,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-05-16///20230516.png</t>
+          <t>2023/2023-05-16/20230516.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -68362,10 +68362,10 @@
         <v>0</v>
       </c>
       <c r="EX131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ131">
         <v>0</v>
@@ -68432,7 +68432,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-05-23///20230523.png</t>
+          <t>2023/2023-05-23/20230523.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -68879,10 +68879,10 @@
         <v>0</v>
       </c>
       <c r="EX132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ132">
         <v>0</v>
@@ -68949,7 +68949,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-05-30///20230530.png</t>
+          <t>2023/2023-05-30/20230530.png</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -69396,10 +69396,10 @@
         <v>0</v>
       </c>
       <c r="EX133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ133">
         <v>0</v>
@@ -69456,17 +69456,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, readr</t>
+          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606_baseR.R</t>
+          <t>2023/2023-06-06/20230606.R</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-06-06///20230606_base.png</t>
+          <t>2023/2023-06-06/20230606.png</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -69481,7 +69481,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -69640,7 +69640,7 @@
         <v>0</v>
       </c>
       <c r="BK134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL134">
         <v>0</v>
@@ -69655,7 +69655,7 @@
         <v>0</v>
       </c>
       <c r="BP134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ134">
         <v>0</v>
@@ -69709,7 +69709,7 @@
         <v>0</v>
       </c>
       <c r="CH134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI134">
         <v>0</v>
@@ -69739,7 +69739,7 @@
         <v>0</v>
       </c>
       <c r="CR134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS134">
         <v>0</v>
@@ -69763,7 +69763,7 @@
         <v>0</v>
       </c>
       <c r="CZ134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA134">
         <v>0</v>
@@ -69913,10 +69913,10 @@
         <v>0</v>
       </c>
       <c r="EX134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ134">
         <v>0</v>
@@ -69983,7 +69983,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-06-13///20230613.png</t>
+          <t>2023/2023-06-13/20230613.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -70430,10 +70430,10 @@
         <v>0</v>
       </c>
       <c r="EX135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ135">
         <v>0</v>
@@ -70500,7 +70500,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-06-20///20230620.png</t>
+          <t>2023/2023-06-20/20230620.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -70947,10 +70947,10 @@
         <v>0</v>
       </c>
       <c r="EX136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ136">
         <v>0</v>
@@ -70965,10 +70965,10 @@
         <v>0</v>
       </c>
       <c r="FD136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF136">
         <v>0</v>
@@ -71017,7 +71017,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-06-27///20230627.png</t>
+          <t>2023/2023-06-27/20230627.png</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -71464,10 +71464,10 @@
         <v>0</v>
       </c>
       <c r="EX137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ137">
         <v>0</v>
@@ -71534,7 +71534,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-07-04///20230704.png</t>
+          <t>2023/2023-07-04/20230704.png</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -71981,10 +71981,10 @@
         <v>0</v>
       </c>
       <c r="EX138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ138">
         <v>0</v>
@@ -72051,7 +72051,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-07-11///20230711.png</t>
+          <t>2023/2023-07-11/20230711.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -72498,10 +72498,10 @@
         <v>0</v>
       </c>
       <c r="EX139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ139">
         <v>0</v>
@@ -72568,7 +72568,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-07-18///20230718.png</t>
+          <t>2023/2023-07-18/20230718.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -73015,10 +73015,10 @@
         <v>0</v>
       </c>
       <c r="EX140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ140">
         <v>0</v>
@@ -73085,7 +73085,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-07-25///20230725_v2.png</t>
+          <t>2023/2023-07-25/20230725.png</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -73532,10 +73532,10 @@
         <v>0</v>
       </c>
       <c r="EX141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ141">
         <v>0</v>
@@ -73602,7 +73602,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-08-01///20230801.png</t>
+          <t>2023/2023-08-01/20230801.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -74049,10 +74049,10 @@
         <v>0</v>
       </c>
       <c r="EX142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ142">
         <v>0</v>
@@ -74119,7 +74119,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-08-08///20230808.png</t>
+          <t>2023/2023-08-08/20230808.png</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -74566,10 +74566,10 @@
         <v>0</v>
       </c>
       <c r="EX143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ143">
         <v>0</v>
@@ -74636,7 +74636,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-08-15///20230815.png</t>
+          <t>2023/2023-08-15/20230815.png</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -75080,13 +75080,13 @@
         <v>0</v>
       </c>
       <c r="EW144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX144">
         <v>1</v>
       </c>
       <c r="EY144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ144">
         <v>0</v>
@@ -75153,7 +75153,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-08-22///20230822.png</t>
+          <t>2023/2023-08-22/20230822.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -75597,13 +75597,13 @@
         <v>0</v>
       </c>
       <c r="EW145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX145">
         <v>1</v>
       </c>
       <c r="EY145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ145">
         <v>0</v>
@@ -75670,7 +75670,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-08-29///20230829.png</t>
+          <t>2023/2023-08-29/20230829.png</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -76114,13 +76114,13 @@
         <v>0</v>
       </c>
       <c r="EW146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX146">
         <v>1</v>
       </c>
       <c r="EY146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ146">
         <v>0</v>
@@ -76187,7 +76187,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-09-05///20230905.png</t>
+          <t>2023/2023-09-05/20230905.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -76634,10 +76634,10 @@
         <v>0</v>
       </c>
       <c r="EX147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ147">
         <v>0</v>
@@ -76704,7 +76704,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-09-12///20230912.png</t>
+          <t>2023/2023-09-12/20230912.png</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -77148,13 +77148,13 @@
         <v>0</v>
       </c>
       <c r="EW148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX148">
         <v>1</v>
       </c>
       <c r="EY148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ148">
         <v>0</v>
@@ -77181,10 +77181,10 @@
         <v>0</v>
       </c>
       <c r="FH148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ148">
         <v>0</v>
@@ -77221,7 +77221,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-09-19///20230919.png</t>
+          <t>2023/2023-09-19/20230919.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -77665,13 +77665,13 @@
         <v>0</v>
       </c>
       <c r="EW149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX149">
         <v>1</v>
       </c>
       <c r="EY149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ149">
         <v>0</v>
@@ -77738,7 +77738,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-09-26///20230926.png</t>
+          <t>2023/2023-09-26/20230926.png</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -78182,13 +78182,13 @@
         <v>0</v>
       </c>
       <c r="EW150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX150">
         <v>1</v>
       </c>
       <c r="EY150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ150">
         <v>0</v>
@@ -78255,7 +78255,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-10-03///20231003.png</t>
+          <t>2023/2023-10-03/20231003.png</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -78699,13 +78699,13 @@
         <v>0</v>
       </c>
       <c r="EW151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX151">
         <v>1</v>
       </c>
       <c r="EY151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ151">
         <v>0</v>
@@ -78772,7 +78772,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-10-10///20231010.png</t>
+          <t>2023/2023-10-10/20231010.png</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -79216,13 +79216,13 @@
         <v>0</v>
       </c>
       <c r="EW152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX152">
         <v>1</v>
       </c>
       <c r="EY152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ152">
         <v>0</v>
@@ -79289,7 +79289,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-10-17///20231017.png</t>
+          <t>2023/2023-10-17/20231017.png</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -79715,10 +79715,10 @@
         <v>0</v>
       </c>
       <c r="EQ153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES153">
         <v>0</v>
@@ -79733,13 +79733,13 @@
         <v>0</v>
       </c>
       <c r="EW153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX153">
         <v>1</v>
       </c>
       <c r="EY153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ153">
         <v>0</v>
@@ -79806,7 +79806,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-10-24///20231024_clusters.png</t>
+          <t>2023/2023-10-24/20231024.png</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -80250,13 +80250,13 @@
         <v>0</v>
       </c>
       <c r="EW154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX154">
         <v>1</v>
       </c>
       <c r="EY154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ154">
         <v>0</v>
@@ -80323,7 +80323,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-10-31///20231031.png</t>
+          <t>2023/2023-10-31/20231031.png</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -80764,7 +80764,7 @@
         <v>0</v>
       </c>
       <c r="EV155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW155">
         <v>1</v>
@@ -80773,7 +80773,7 @@
         <v>1</v>
       </c>
       <c r="EY155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ155">
         <v>0</v>
@@ -80840,7 +80840,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-11-07///20231107.png</t>
+          <t>2023/2023-11-07/20231107.png</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -81284,13 +81284,13 @@
         <v>0</v>
       </c>
       <c r="EW156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX156">
         <v>1</v>
       </c>
       <c r="EY156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ156">
         <v>0</v>
@@ -81357,7 +81357,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-11-14///20231114.png</t>
+          <t>2023/2023-11-14/20231114.png</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -81801,13 +81801,13 @@
         <v>0</v>
       </c>
       <c r="EW157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX157">
         <v>1</v>
       </c>
       <c r="EY157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ157">
         <v>0</v>
@@ -81874,7 +81874,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-11-21///20231121.png</t>
+          <t>2023/2023-11-21/20231121.png</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -82318,13 +82318,13 @@
         <v>0</v>
       </c>
       <c r="EW158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX158">
         <v>1</v>
       </c>
       <c r="EY158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ158">
         <v>0</v>
@@ -82391,7 +82391,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023/2023-11-28///20231128.png</t>
+          <t>2023/2023-11-28/20231128.png</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -82835,13 +82835,13 @@
         <v>0</v>
       </c>
       <c r="EW159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX159">
         <v>1</v>
       </c>
       <c r="EY159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ159">
         <v>0</v>
@@ -82908,7 +82908,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023/2023-12-05///20231205.png</t>
+          <t>2023/2023-12-05/20231205.png</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -83352,13 +83352,13 @@
         <v>0</v>
       </c>
       <c r="EW160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX160">
         <v>1</v>
       </c>
       <c r="EY160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ160">
         <v>0</v>
@@ -83425,7 +83425,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023/2023-12-12///20231212.png</t>
+          <t>2023/2023-12-12/20231212.png</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -83869,13 +83869,13 @@
         <v>0</v>
       </c>
       <c r="EW161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX161">
         <v>1</v>
       </c>
       <c r="EY161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ161">
         <v>0</v>
@@ -83942,7 +83942,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023/2023-12-19///20231219.png</t>
+          <t>2023/2023-12-19/20231219.png</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -84386,13 +84386,13 @@
         <v>0</v>
       </c>
       <c r="EW162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX162">
         <v>1</v>
       </c>
       <c r="EY162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ162">
         <v>0</v>
@@ -84459,7 +84459,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2023/2023-12-26///20231226.png</t>
+          <t>2023/2023-12-26/20231226.png</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -84903,13 +84903,13 @@
         <v>0</v>
       </c>
       <c r="EW163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX163">
         <v>1</v>
       </c>
       <c r="EY163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ163">
         <v>0</v>
@@ -84976,7 +84976,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-01-02///20240102.png</t>
+          <t>2024/2024-01-02/20240102.png</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -85423,10 +85423,10 @@
         <v>0</v>
       </c>
       <c r="EX164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ164">
         <v>0</v>
@@ -85493,7 +85493,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-01-09///20240109_canada.png</t>
+          <t>2024/2024-01-09/20240109.png</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -85937,13 +85937,13 @@
         <v>0</v>
       </c>
       <c r="EW165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX165">
         <v>1</v>
       </c>
       <c r="EY165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ165">
         <v>0</v>
@@ -86010,7 +86010,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-01-16///20240116.png</t>
+          <t>2024/2024-01-16/20240116.png</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -86454,13 +86454,13 @@
         <v>0</v>
       </c>
       <c r="EW166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX166">
         <v>1</v>
       </c>
       <c r="EY166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ166">
         <v>0</v>
@@ -86478,10 +86478,10 @@
         <v>0</v>
       </c>
       <c r="FE166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG166">
         <v>0</v>
@@ -86527,7 +86527,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-01-23///20240123.png</t>
+          <t>2024/2024-01-23/20240123.png</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -86971,13 +86971,13 @@
         <v>0</v>
       </c>
       <c r="EW167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX167">
         <v>1</v>
       </c>
       <c r="EY167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ167">
         <v>0</v>
@@ -87044,7 +87044,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-01-30///20240130.png</t>
+          <t>2024/2024-01-30/20240130.png</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -87488,13 +87488,13 @@
         <v>0</v>
       </c>
       <c r="EW168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX168">
         <v>1</v>
       </c>
       <c r="EY168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ168">
         <v>0</v>
@@ -87561,7 +87561,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024/2024-02-06///20240206.png</t>
+          <t>2024/2024-02-06/20240206.png</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -87981,10 +87981,10 @@
         <v>0</v>
       </c>
       <c r="EO169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ169">
         <v>0</v>
@@ -88005,13 +88005,13 @@
         <v>0</v>
       </c>
       <c r="EW169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX169">
         <v>1</v>
       </c>
       <c r="EY169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ169">
         <v>0</v>
@@ -88078,7 +88078,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024/2024-02-13///20240213.png</t>
+          <t>2024/2024-02-13/20240213.png</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -88522,13 +88522,13 @@
         <v>0</v>
       </c>
       <c r="EW170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX170">
         <v>1</v>
       </c>
       <c r="EY170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ170">
         <v>0</v>
@@ -88595,7 +88595,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2024/2024-02-20///20240220.png</t>
+          <t>2024/2024-02-20/20240220.png</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -89039,13 +89039,13 @@
         <v>0</v>
       </c>
       <c r="EW171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX171">
         <v>1</v>
       </c>
       <c r="EY171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ171">
         <v>0</v>
@@ -89072,10 +89072,10 @@
         <v>0</v>
       </c>
       <c r="FH171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ171">
         <v>0</v>
@@ -89112,7 +89112,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2024/2024-02-27///20240227.png</t>
+          <t>2024/2024-02-27/20240227.png</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -89556,13 +89556,13 @@
         <v>0</v>
       </c>
       <c r="EW172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX172">
         <v>1</v>
       </c>
       <c r="EY172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ172">
         <v>0</v>
@@ -89629,7 +89629,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2024/2024-03-05///20240305.png</t>
+          <t>2024/2024-03-05/20240305.png</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -90049,10 +90049,10 @@
         <v>0</v>
       </c>
       <c r="EO173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ173">
         <v>0</v>
@@ -90073,13 +90073,13 @@
         <v>0</v>
       </c>
       <c r="EW173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX173">
         <v>1</v>
       </c>
       <c r="EY173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ173">
         <v>0</v>
@@ -90109,10 +90109,10 @@
         <v>0</v>
       </c>
       <c r="FI173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK173">
         <v>0</v>
@@ -90146,7 +90146,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2024/2024-03-12///20240312.png</t>
+          <t>2024/2024-03-12/20240312.png</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -90590,13 +90590,13 @@
         <v>0</v>
       </c>
       <c r="EW174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX174">
         <v>1</v>
       </c>
       <c r="EY174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ174">
         <v>0</v>
@@ -90608,10 +90608,10 @@
         <v>0</v>
       </c>
       <c r="FC174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE174">
         <v>0</v>
@@ -90663,7 +90663,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2024/2024-03-19///20240319.png</t>
+          <t>2024/2024-03-19/20240319.png</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -91107,13 +91107,13 @@
         <v>0</v>
       </c>
       <c r="EW175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX175">
         <v>1</v>
       </c>
       <c r="EY175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ175">
         <v>0</v>
@@ -91180,7 +91180,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2024/2024-03-26///20240326.png</t>
+          <t>2024/2024-03-26/20240326.png</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -91624,13 +91624,13 @@
         <v>0</v>
       </c>
       <c r="EW176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX176">
         <v>1</v>
       </c>
       <c r="EY176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ176">
         <v>0</v>
@@ -91697,7 +91697,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2024/2024-04-02///20240402.png</t>
+          <t>2024/2024-04-02/20240402.png</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -92141,13 +92141,13 @@
         <v>0</v>
       </c>
       <c r="EW177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX177">
         <v>1</v>
       </c>
       <c r="EY177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ177">
         <v>0</v>
@@ -92214,7 +92214,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2024/2024-04-09///20240409.png</t>
+          <t>2024/2024-04-09/20240409.png</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -92634,10 +92634,10 @@
         <v>0</v>
       </c>
       <c r="EO178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ178">
         <v>0</v>
@@ -92658,13 +92658,13 @@
         <v>0</v>
       </c>
       <c r="EW178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX178">
         <v>1</v>
       </c>
       <c r="EY178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ178">
         <v>0</v>
@@ -92731,7 +92731,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2024/2024-04-16///20240416.png</t>
+          <t>2024/2024-04-16/20240416.png</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -93175,13 +93175,13 @@
         <v>0</v>
       </c>
       <c r="EW179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX179">
         <v>1</v>
       </c>
       <c r="EY179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ179">
         <v>0</v>
@@ -93248,7 +93248,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2024/2024-04-23///20240423.png</t>
+          <t>2024/2024-04-23/20240423.png</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -93692,13 +93692,13 @@
         <v>0</v>
       </c>
       <c r="EW180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX180">
         <v>1</v>
       </c>
       <c r="EY180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ180">
         <v>0</v>
@@ -93765,7 +93765,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2024/2024-04-30///20240430.png</t>
+          <t>2024/2024-04-30/20240430.png</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -94209,13 +94209,13 @@
         <v>0</v>
       </c>
       <c r="EW181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX181">
         <v>1</v>
       </c>
       <c r="EY181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ181">
         <v>0</v>
@@ -94282,7 +94282,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2024/2024-05-07///20240507.png</t>
+          <t>2024/2024-05-07/20240507.png</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -94726,13 +94726,13 @@
         <v>0</v>
       </c>
       <c r="EW182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX182">
         <v>1</v>
       </c>
       <c r="EY182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ182">
         <v>0</v>
@@ -94799,7 +94799,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2024/2024-05-14///20240514.png</t>
+          <t>2024/2024-05-14/20240514.png</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -95219,10 +95219,10 @@
         <v>0</v>
       </c>
       <c r="EO183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ183">
         <v>0</v>
@@ -95246,10 +95246,10 @@
         <v>0</v>
       </c>
       <c r="EX183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ183">
         <v>0</v>
@@ -95316,7 +95316,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2024/2024-05-21///20240521.png</t>
+          <t>2024/2024-05-21/20240521.png</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -95760,13 +95760,13 @@
         <v>0</v>
       </c>
       <c r="EW184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX184">
         <v>1</v>
       </c>
       <c r="EY184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ184">
         <v>0</v>
@@ -95833,7 +95833,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2024/2024-05-28///20240528.png</t>
+          <t>2024/2024-05-28/20240528.png</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -96277,13 +96277,13 @@
         <v>0</v>
       </c>
       <c r="EW185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX185">
         <v>1</v>
       </c>
       <c r="EY185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ185">
         <v>0</v>
@@ -96350,7 +96350,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2024/2024-06-04///20240604.png</t>
+          <t>2024/2024-06-04/20240604.png</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -96794,13 +96794,13 @@
         <v>0</v>
       </c>
       <c r="EW186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX186">
         <v>1</v>
       </c>
       <c r="EY186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ186">
         <v>0</v>
@@ -96867,7 +96867,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2024/2024-06-11///20240611.png</t>
+          <t>2024/2024-06-11/20240611.png</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -97311,13 +97311,13 @@
         <v>0</v>
       </c>
       <c r="EW187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX187">
         <v>1</v>
       </c>
       <c r="EY187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ187">
         <v>0</v>
@@ -97384,7 +97384,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2024/2024-06-18///20240618.png</t>
+          <t>2024/2024-06-18/20240618.png</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -97828,13 +97828,13 @@
         <v>0</v>
       </c>
       <c r="EW188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX188">
         <v>1</v>
       </c>
       <c r="EY188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ188">
         <v>0</v>
@@ -97901,7 +97901,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2024/2024-06-25///20240625.png</t>
+          <t>2024/2024-06-25/20240625.png</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -98345,13 +98345,13 @@
         <v>0</v>
       </c>
       <c r="EW189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX189">
         <v>1</v>
       </c>
       <c r="EY189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ189">
         <v>0</v>
@@ -98418,7 +98418,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2024/2024-07-02///20240702_all.png</t>
+          <t>2024/2024-07-02/20240702.png</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -98862,13 +98862,13 @@
         <v>0</v>
       </c>
       <c r="EW190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX190">
         <v>1</v>
       </c>
       <c r="EY190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ190">
         <v>0</v>
@@ -98935,7 +98935,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2024/2024-07-09///20240709.png</t>
+          <t>2024/2024-07-09/20240709.png</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -99370,10 +99370,10 @@
         <v>0</v>
       </c>
       <c r="ET191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV191">
         <v>0</v>
@@ -99382,10 +99382,10 @@
         <v>0</v>
       </c>
       <c r="EX191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ191">
         <v>0</v>
@@ -99452,7 +99452,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2024/2024-07-16///20240716.png</t>
+          <t>2024/2024-07-16/20240716.png</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -99969,7 +99969,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2024/2024-07-23///20240723.png</t>
+          <t>2024/2024-07-23/20240723.png</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -100413,13 +100413,13 @@
         <v>0</v>
       </c>
       <c r="EW193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX193">
         <v>1</v>
       </c>
       <c r="EY193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ193">
         <v>0</v>
@@ -100486,7 +100486,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2024/2024-07-30///20240730.png</t>
+          <t>2024/2024-07-30/20240730.png</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -100930,13 +100930,13 @@
         <v>0</v>
       </c>
       <c r="EW194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX194">
         <v>1</v>
       </c>
       <c r="EY194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ194">
         <v>0</v>
@@ -101003,7 +101003,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2024/2024-08-06///20240806.png</t>
+          <t>2024/2024-08-06/20240806.png</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -101435,10 +101435,10 @@
         <v>0</v>
       </c>
       <c r="ES195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU195">
         <v>0</v>
@@ -101450,10 +101450,10 @@
         <v>0</v>
       </c>
       <c r="EX195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ195">
         <v>0</v>
@@ -101520,7 +101520,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2024/2024-08-13///20240813.png</t>
+          <t>2024/2024-08-13/20240813.png</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -101964,13 +101964,13 @@
         <v>0</v>
       </c>
       <c r="EW196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX196">
         <v>1</v>
       </c>
       <c r="EY196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ196">
         <v>0</v>
@@ -102037,7 +102037,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2024/2024-08-20///20240820.png</t>
+          <t>2024/2024-08-20/20240820.png</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -102469,10 +102469,10 @@
         <v>0</v>
       </c>
       <c r="ES197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU197">
         <v>0</v>
@@ -102481,13 +102481,13 @@
         <v>0</v>
       </c>
       <c r="EW197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX197">
         <v>1</v>
       </c>
       <c r="EY197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ197">
         <v>0</v>
@@ -102554,7 +102554,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2024/2024-08-27///20240827_safe.png</t>
+          <t>2024/2024-08-27/20240827.png</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -102998,13 +102998,13 @@
         <v>0</v>
       </c>
       <c r="EW198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX198">
         <v>1</v>
       </c>
       <c r="EY198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ198">
         <v>0</v>
@@ -103071,7 +103071,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2024/2024-09-03///20240903.png</t>
+          <t>2024/2024-09-03/20240903.png</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -103515,13 +103515,13 @@
         <v>0</v>
       </c>
       <c r="EW199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX199">
         <v>1</v>
       </c>
       <c r="EY199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ199">
         <v>0</v>
@@ -103588,7 +103588,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2024/2024-09-10///20240910.png</t>
+          <t>2024/2024-09-10/20240910.png</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -104032,13 +104032,13 @@
         <v>0</v>
       </c>
       <c r="EW200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX200">
         <v>1</v>
       </c>
       <c r="EY200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ200">
         <v>0</v>
@@ -104105,7 +104105,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2024/2024-09-17///20240917.png</t>
+          <t>2024/2024-09-17/20240917.png</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -104537,25 +104537,25 @@
         <v>0</v>
       </c>
       <c r="ES201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET201">
         <v>1</v>
       </c>
       <c r="EU201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV201">
         <v>0</v>
       </c>
       <c r="EW201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX201">
         <v>1</v>
       </c>
       <c r="EY201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ201">
         <v>0</v>
@@ -104622,7 +104622,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2024/2024-09-24///20240924.png</t>
+          <t>2024/2024-09-24/20240924.png</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -105066,13 +105066,13 @@
         <v>0</v>
       </c>
       <c r="EW202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX202">
         <v>1</v>
       </c>
       <c r="EY202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ202">
         <v>0</v>
@@ -105139,7 +105139,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2024/2024-10-01///20241001.png</t>
+          <t>2024/2024-10-01/20241001.png</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -105583,13 +105583,13 @@
         <v>0</v>
       </c>
       <c r="EW203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX203">
         <v>1</v>
       </c>
       <c r="EY203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ203">
         <v>0</v>
@@ -105656,7 +105656,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2024/2024-10-08///20241008.png</t>
+          <t>2024/2024-10-08/20241008.png</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -106100,13 +106100,13 @@
         <v>0</v>
       </c>
       <c r="EW204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX204">
         <v>1</v>
       </c>
       <c r="EY204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ204">
         <v>0</v>
@@ -106173,7 +106173,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2024/2024-10-15///20241015_v2.png</t>
+          <t>2024/2024-10-15/20241015.png</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -106617,13 +106617,13 @@
         <v>0</v>
       </c>
       <c r="EW205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX205">
         <v>1</v>
       </c>
       <c r="EY205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ205">
         <v>0</v>
@@ -106690,7 +106690,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2024/2024-10-22///20241022.png</t>
+          <t>2024/2024-10-22/20241022.png</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -107134,13 +107134,13 @@
         <v>0</v>
       </c>
       <c r="EW206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX206">
         <v>1</v>
       </c>
       <c r="EY206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ206">
         <v>0</v>
@@ -107207,7 +107207,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2024/2024-10-29///20241029.png</t>
+          <t>2024/2024-10-29/20241029.png</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -107651,13 +107651,13 @@
         <v>0</v>
       </c>
       <c r="EW207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX207">
         <v>1</v>
       </c>
       <c r="EY207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ207">
         <v>0</v>
@@ -107724,7 +107724,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2024/2024-11-05///20241105.png</t>
+          <t>2024/2024-11-05/20241105.png</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -108168,13 +108168,13 @@
         <v>0</v>
       </c>
       <c r="EW208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX208">
         <v>1</v>
       </c>
       <c r="EY208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ208">
         <v>0</v>
@@ -108241,7 +108241,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2024/2024-11-12///20241112.png</t>
+          <t>2024/2024-11-12/20241112.png</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -108685,13 +108685,13 @@
         <v>0</v>
       </c>
       <c r="EW209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX209">
         <v>1</v>
       </c>
       <c r="EY209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ209">
         <v>0</v>
@@ -108758,7 +108758,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2024/2024-11-19///20241119.png</t>
+          <t>2024/2024-11-19/20241119.png</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -109181,10 +109181,10 @@
         <v>0</v>
       </c>
       <c r="EP210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER210">
         <v>0</v>
@@ -109202,13 +109202,13 @@
         <v>0</v>
       </c>
       <c r="EW210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX210">
         <v>1</v>
       </c>
       <c r="EY210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ210">
         <v>0</v>
@@ -109275,7 +109275,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2024/2024-11-26///20241126.png</t>
+          <t>2024/2024-11-26/20241126.png</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -109719,13 +109719,13 @@
         <v>0</v>
       </c>
       <c r="EW211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX211">
         <v>1</v>
       </c>
       <c r="EY211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ211">
         <v>0</v>
@@ -109792,7 +109792,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2024/2024-12-03///20241203.png</t>
+          <t>2024/2024-12-03/20241203.png</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -110236,13 +110236,13 @@
         <v>0</v>
       </c>
       <c r="EW212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX212">
         <v>1</v>
       </c>
       <c r="EY212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ212">
         <v>0</v>
@@ -110309,7 +110309,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2024/2024-12-10///20241210.png</t>
+          <t>2024/2024-12-10/20241210.png</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -110753,13 +110753,13 @@
         <v>0</v>
       </c>
       <c r="EW213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX213">
         <v>1</v>
       </c>
       <c r="EY213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ213">
         <v>0</v>
@@ -110777,10 +110777,10 @@
         <v>0</v>
       </c>
       <c r="FE213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG213">
         <v>0</v>
@@ -110826,7 +110826,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2024/2024-12-17///20241217.png</t>
+          <t>2024/2024-12-17/20241217.png</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -111270,13 +111270,13 @@
         <v>0</v>
       </c>
       <c r="EW214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX214">
         <v>1</v>
       </c>
       <c r="EY214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ214">
         <v>0</v>
@@ -111343,7 +111343,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2024/2024-12-24///20241224.png</t>
+          <t>2024/2024-12-24/20241224.png</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -111787,13 +111787,13 @@
         <v>0</v>
       </c>
       <c r="EW215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX215">
         <v>1</v>
       </c>
       <c r="EY215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ215">
         <v>0</v>
@@ -111860,7 +111860,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2024/2024-12-31///20241231.png</t>
+          <t>2024/2024-12-31/20241231.png</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -112304,13 +112304,13 @@
         <v>0</v>
       </c>
       <c r="EW216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX216">
         <v>1</v>
       </c>
       <c r="EY216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ216">
         <v>0</v>
@@ -112377,7 +112377,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2025/2025-01-07///20250107.png</t>
+          <t>2025/2025-01-07/20250107.png</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -112824,10 +112824,10 @@
         <v>0</v>
       </c>
       <c r="EX217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ217">
         <v>0</v>
@@ -112894,7 +112894,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2025/2025-01-14///20250114.png</t>
+          <t>2025/2025-01-14/20250114.png</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -113338,13 +113338,13 @@
         <v>0</v>
       </c>
       <c r="EW218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX218">
         <v>1</v>
       </c>
       <c r="EY218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ218">
         <v>0</v>
@@ -113411,7 +113411,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2025/2025-01-21///20250121.png</t>
+          <t>2025/2025-01-21/20250121.png</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -113855,13 +113855,13 @@
         <v>0</v>
       </c>
       <c r="EW219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX219">
         <v>1</v>
       </c>
       <c r="EY219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ219">
         <v>0</v>
@@ -113928,7 +113928,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2025/2025-01-28///20250128.png</t>
+          <t>2025/2025-01-28/20250128.png</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -114372,13 +114372,13 @@
         <v>0</v>
       </c>
       <c r="EW220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX220">
         <v>1</v>
       </c>
       <c r="EY220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ220">
         <v>0</v>
@@ -114445,7 +114445,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2025/2025-02-04///20250204.png</t>
+          <t>2025/2025-02-04/20250204.png</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -114889,13 +114889,13 @@
         <v>0</v>
       </c>
       <c r="EW221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX221">
         <v>1</v>
       </c>
       <c r="EY221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ221">
         <v>0</v>
@@ -114925,10 +114925,10 @@
         <v>0</v>
       </c>
       <c r="FI221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK221">
         <v>0</v>
@@ -114962,7 +114962,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025/2025-02-11///20250211.png</t>
+          <t>2025/2025-02-11/20250211.png</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -115406,13 +115406,13 @@
         <v>0</v>
       </c>
       <c r="EW222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX222">
         <v>1</v>
       </c>
       <c r="EY222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ222">
         <v>0</v>
@@ -115439,10 +115439,10 @@
         <v>0</v>
       </c>
       <c r="FH222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ222">
         <v>0</v>
@@ -115479,7 +115479,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025/2025-02-18///20250218.png</t>
+          <t>2025/2025-02-18/20250218.png</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -115923,13 +115923,13 @@
         <v>0</v>
       </c>
       <c r="EW223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX223">
         <v>1</v>
       </c>
       <c r="EY223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ223">
         <v>0</v>
@@ -115996,7 +115996,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2025/2025-02-25///20250225_art.png</t>
+          <t>2025/2025-02-25/20250225.png</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -116440,13 +116440,13 @@
         <v>0</v>
       </c>
       <c r="EW224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX224">
         <v>1</v>
       </c>
       <c r="EY224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ224">
         <v>0</v>
@@ -116513,7 +116513,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025/2025-03-04///20250304.png</t>
+          <t>2025/2025-03-04/20250304.png</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -116957,13 +116957,13 @@
         <v>0</v>
       </c>
       <c r="EW225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX225">
         <v>1</v>
       </c>
       <c r="EY225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ225">
         <v>0</v>
@@ -116978,10 +116978,10 @@
         <v>0</v>
       </c>
       <c r="FD225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF225">
         <v>0</v>
@@ -117030,7 +117030,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2025/2025-03-11///20250311.png</t>
+          <t>2025/2025-03-11/20250311.png</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -117547,7 +117547,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025/2025-03-18///20250318.png</t>
+          <t>2025/2025-03-18/20250318.png</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -117991,13 +117991,13 @@
         <v>0</v>
       </c>
       <c r="EW227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX227">
         <v>1</v>
       </c>
       <c r="EY227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ227">
         <v>0</v>
@@ -118009,10 +118009,10 @@
         <v>0</v>
       </c>
       <c r="FC227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE227">
         <v>0</v>
@@ -118064,7 +118064,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025/2025-03-25///20250325.png</t>
+          <t>2025/2025-03-25/20250325.png</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -118508,13 +118508,13 @@
         <v>0</v>
       </c>
       <c r="EW228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX228">
         <v>1</v>
       </c>
       <c r="EY228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ228">
         <v>0</v>
@@ -118581,7 +118581,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025/2025-04-01///20250401.png</t>
+          <t>2025/2025-04-01/20250401.png</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -119025,13 +119025,13 @@
         <v>0</v>
       </c>
       <c r="EW229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX229">
         <v>1</v>
       </c>
       <c r="EY229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ229">
         <v>0</v>
@@ -119098,7 +119098,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2025/2025-04-08///20250408_interactive.png</t>
+          <t>2025/2025-04-08/20250408.png</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -119542,13 +119542,13 @@
         <v>0</v>
       </c>
       <c r="EW230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX230">
         <v>1</v>
       </c>
       <c r="EY230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ230">
         <v>0</v>
@@ -119615,7 +119615,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025/2025-04-15///20250415_dark.png</t>
+          <t>2025/2025-04-15/20250415.png</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -120062,10 +120062,10 @@
         <v>0</v>
       </c>
       <c r="EX231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ231">
         <v>0</v>
@@ -120132,7 +120132,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025/2025-04-22///20250422.png</t>
+          <t>2025/2025-04-22/20250422.png</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -120576,13 +120576,13 @@
         <v>0</v>
       </c>
       <c r="EW232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX232">
         <v>1</v>
       </c>
       <c r="EY232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ232">
         <v>0</v>
@@ -120649,7 +120649,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025/2025-04-29///20250429_ai.png</t>
+          <t>2025/2025-04-29/20250429.png</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -121093,13 +121093,13 @@
         <v>0</v>
       </c>
       <c r="EW233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX233">
         <v>1</v>
       </c>
       <c r="EY233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ233">
         <v>0</v>
@@ -121166,7 +121166,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2025/2025-05-06///20250506.png</t>
+          <t>2025/2025-05-06/20250506.png</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -121610,13 +121610,13 @@
         <v>0</v>
       </c>
       <c r="EW234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX234">
         <v>1</v>
       </c>
       <c r="EY234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ234">
         <v>0</v>
@@ -121671,6 +121671,11 @@
           <t>Water Quality at Sydney Beaches</t>
         </is>
       </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>SveltePlot</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
           <t>2025/2025-05-20/+page.svelte</t>
@@ -121678,12 +121683,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2025/2025-05-20///20250520.png</t>
+          <t>2025/2025-05-20/20250520.png</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>SveltePlot</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="H235">
@@ -122098,7 +122103,7 @@
         <v>0</v>
       </c>
       <c r="EO235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP235">
         <v>0</v>
@@ -122164,7 +122169,7 @@
         <v>0</v>
       </c>
       <c r="FK235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -1222,7 +1222,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2019/2019-01-29/20190129.png</t>
+          <t>2019/2019-01-29///20190129.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019/2019-03-05/20190305.png</t>
+          <t>2019/2019-03-05///20190305.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2019/2019-05-14/20190514-light.png</t>
+          <t>2019/2019-05-14///20190514-light.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020/2020-04-21/20200421.jpg</t>
+          <t>2020/2020-04-21///20200421.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020/2020-07-28/20200728.jpg</t>
+          <t>2020/2020-07-28///20200728.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020/2020-10-27/20201027.png</t>
+          <t>2020/2020-10-27///20201027.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2020/2020-11-10/20201110.png</t>
+          <t>2020/2020-11-10///20201110.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020/2020-12-08/20201208.jpg</t>
+          <t>2020/2020-12-08///20201208.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021/01-06-2021/01062021.jpg</t>
+          <t>2021/01-06-2021///01062021.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021/02-02-2021/02022021.jpg</t>
+          <t>2021/02-02-2021///02022021.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021/02-03-2021/02032021.jpg</t>
+          <t>2021/02-03-2021///02032021.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021/02-11-2021/02112021.png</t>
+          <t>2021/02-11-2021///02112021.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021/03-08-2021/03082021.jpg</t>
+          <t>2021/03-08-2021///03082021_table.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021/04-05-2021/04052021.jpg</t>
+          <t>2021/04-05-2021///04052021.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021/05-01-2021/05012021.jpg</t>
+          <t>2021/05-01-2021///05012021.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021/05-10-2021/05102021.jpg</t>
+          <t>2021/05-10-2021///05102021.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021/06-04-2021/06042021.jpg</t>
+          <t>2021/06-04-2021///06042021_plot1.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/06-07-2021/06072021.jpg</t>
+          <t>2021/06-07-2021///06072021.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021/07-09-2021/07092021.jpg</t>
+          <t>2021/07-09-2021///07092021.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021/07-12-2021/07122021.jpeg</t>
+          <t>2021/07-12-2021///07122021.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/08-06-2021/08062021.jpg</t>
+          <t>2021/08-06-2021///08062021.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021/09-02-2021/09022021.jpg</t>
+          <t>2021/09-02-2021///09022021.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021/09-03-2021/09032021.jpg</t>
+          <t>2021/09-03-2021///09032021.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021/09-11-2021/09112021.jpg</t>
+          <t>2021/09-11-2021///09112021.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021/10-08-2021/10082021.jpg</t>
+          <t>2021/10-08-2021///10082021.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021/11-05-2021/11052021.jpg</t>
+          <t>2021/11-05-2021///11052021.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021/12-01-2021/12012021.jpg</t>
+          <t>2021/12-01-2021///12012021.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021/12-10-2021/12102021_f1.jpg</t>
+          <t>2021/12-10-2021///12102021_f1.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021/13-04-2021/13042021.jpg</t>
+          <t>2021/13-04-2021///13042021.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -16215,7 +16215,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021/13-07-2021/13072021.jpg</t>
+          <t>2021/13-07-2021///13072021.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/14-09-2021/14092021.jpg</t>
+          <t>2021/14-09-2021///14092021.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021/14-12-2021/14122021.jpg</t>
+          <t>2021/14-12-2021///14122021.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021/15-06-2021/15062021.jpg</t>
+          <t>2021/15-06-2021///15062021.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021/16-02-2021/16022021.jpg</t>
+          <t>2021/16-02-2021///16022021.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021/16-03-2021/16032021.jpg</t>
+          <t>2021/16-03-2021///16032021.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -19317,7 +19317,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021/17-08-2021/17082021.jpg</t>
+          <t>2021/17-08-2021///17082021.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021/18-05-2021/18052021.jpg</t>
+          <t>2021/18-05-2021///18052021.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -20351,7 +20351,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021/19-01-2021/19012021.jpg</t>
+          <t>2021/19-01-2021///19012021.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021/19-10-2021/19102021.jpg</t>
+          <t>2021/19-10-2021///19102021.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021/20-04-2021/20042021.png</t>
+          <t>2021/20-04-2021///20042021.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021/20-07-2021/20072021.jpg</t>
+          <t>2021/20-07-2021///20072021.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021/21-09-2021/21092021.jpg</t>
+          <t>2021/21-09-2021///21092021_waffle.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021/21-12-2021/21122021.jpg</t>
+          <t>2021/21-12-2021///21122021.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -23448,12 +23448,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.R</t>
+          <t>2021/22-06-2021/22062021_stream_plots.R</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021/22-06-2021/22062021.jpg</t>
+          <t>2021/22-06-2021///22062021_v2.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -23970,7 +23970,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021/23-02-2021/23022021.jpg</t>
+          <t>2021/23-02-2021///23022021.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -24487,7 +24487,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021/23-03-2021/23032021.jpg</t>
+          <t>2021/23-03-2021///23032021.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -25004,7 +25004,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021/23-11-2021/23112021.jpg</t>
+          <t>2021/23-11-2021///23112021.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -25521,7 +25521,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/24-08-2021/24082021.jpg</t>
+          <t>2021/24-08-2021///24082021.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -26038,7 +26038,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/25-05-2021/25052021.jpg</t>
+          <t>2021/25-05-2021///25052021.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -26555,7 +26555,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021/26-01-2021/26012021.jpg</t>
+          <t>2021/26-01-2021///26012021.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021/26-10-2021/26102021.jpg</t>
+          <t>2021/26-10-2021///26102021.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -27589,7 +27589,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021/27-04-2021/27042021.jpg</t>
+          <t>2021/27-04-2021///27042021.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -28106,7 +28106,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/27-07-2021/27072021.jpg</t>
+          <t>2021/27-07-2021///27072021.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28623,7 +28623,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/28-09-2021/28092021.jpg</t>
+          <t>2021/28-09-2021///28092021.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -29140,7 +29140,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/29-06-2021/29062021.jpg</t>
+          <t>2021/29-06-2021///29062021.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -29657,7 +29657,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021/29-12-2020/29122020.jpg</t>
+          <t>2021/29-12-2020///29122020.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -30174,7 +30174,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021/30-03-2021/30032021.jpg</t>
+          <t>2021/30-03-2021///30032021.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -30691,7 +30691,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/30-11-2021/30112021.jpeg</t>
+          <t>2021/30-11-2021///30112021_v2.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -31208,7 +31208,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021/31-08-2021/31082021.jpg</t>
+          <t>2021/31-08-2021///31082021.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -31725,7 +31725,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022/2022-01-04/20220104.jpg</t>
+          <t>2022/2022-01-04///20220104.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -32242,7 +32242,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/2022-01-11/20220111.jpg</t>
+          <t>2022/2022-01-11///20220111.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -32759,7 +32759,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022/2022-01-18/20220118.png</t>
+          <t>2022/2022-01-18///20220118.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -33276,7 +33276,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022/2022-01-25/20220125.jpeg</t>
+          <t>2022/2022-01-25///20220125.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -33793,7 +33793,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022/2022-02-01/20220201.jpg</t>
+          <t>2022/2022-02-01///20220201.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -34310,7 +34310,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022/2022-02-08/20220208.jpeg</t>
+          <t>2022/2022-02-08///20220208.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -34827,7 +34827,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022/2022-02-15/20220215.jpg</t>
+          <t>2022/2022-02-15///20220215.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -35344,7 +35344,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022/2022-02-22/20220222.jpeg</t>
+          <t>2022/2022-02-22///20220222.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -35861,7 +35861,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022/2022-03-01/20220301.jpg</t>
+          <t>2022/2022-03-01///20220301.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -36378,7 +36378,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022/2022-03-08/20220308.jpeg</t>
+          <t>2022/2022-03-08///20220308.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -36895,7 +36895,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022/2022-03-15/20220315.jpeg</t>
+          <t>2022/2022-03-15///20220315.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -37412,7 +37412,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022/2022-03-22/20220322.jpeg</t>
+          <t>2022/2022-03-22///20220322.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -37929,7 +37929,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022/2022-03-29/20220329.jpeg</t>
+          <t>2022/2022-03-29///20220329.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -38446,7 +38446,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022/2022-04-05/20220405.png</t>
+          <t>2022/2022-04-05///20220405.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -38963,7 +38963,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022/2022-04-12/20220412.png</t>
+          <t>2022/2022-04-12///20220412.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -39480,7 +39480,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022/2022-04-19/20220419.jpeg</t>
+          <t>2022/2022-04-19///20220419.jpeg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -39997,7 +39997,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022/2022-04-26/20220426.png</t>
+          <t>2022/2022-04-26///20220426.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -40514,7 +40514,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022/2022-05-03/20220503_bar.png</t>
+          <t>2022/2022-05-03///20220503_bar.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -41031,7 +41031,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022/2022-05-10/20220510.png</t>
+          <t>2022/2022-05-10///20220510.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -41548,7 +41548,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022/2022-05-17/20220517.png</t>
+          <t>2022/2022-05-17///20220517_tableau.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -42065,7 +42065,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022/2022-05-24/20220524.png</t>
+          <t>2022/2022-05-24///20220524.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -42582,7 +42582,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022/2022-05-31/20220531.png</t>
+          <t>2022/2022-05-31///20220531.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -43099,7 +43099,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022/2022-06-07/20220607.png</t>
+          <t>2022/2022-06-07///20220607.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -43616,7 +43616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022/2022-06-14/20220614.png</t>
+          <t>2022/2022-06-14///20220614.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -44133,7 +44133,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022/2022-06-21/20220621.png</t>
+          <t>2022/2022-06-21///20220621.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -44650,7 +44650,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022/2022-06-28/20220628.png</t>
+          <t>2022/2022-06-28///20220628.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -45167,7 +45167,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022/2022-07-05/20220705.png</t>
+          <t>2022/2022-07-05///20220705.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -45684,7 +45684,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2022/2022-07-12/20220712.png</t>
+          <t>2022/2022-07-12///20220712.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -46201,7 +46201,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2022/2022-07-19/20220719.png</t>
+          <t>2022/2022-07-19///20220719.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -46718,7 +46718,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022/2022-08-02/20220802.png</t>
+          <t>2022/2022-08-02///20220802.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022/2022-08-09/20220809.png</t>
+          <t>2022/2022-08-09///20220809.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -47752,7 +47752,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022/2022-08-16/20220816.png</t>
+          <t>2022/2022-08-16///20220816.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -48269,7 +48269,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022/2022-08-23/20220823.png</t>
+          <t>2022/2022-08-23///20220823.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -48786,7 +48786,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022/2022-08-30/20220830.png</t>
+          <t>2022/2022-08-30///20220830.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -49303,7 +49303,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2022/2022-09-06/20220906.png</t>
+          <t>2022/2022-09-06///20220906.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -49820,7 +49820,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2022/2022-09-13/20220913.png</t>
+          <t>2022/2022-09-13///20220913.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -50337,7 +50337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022/2022-09-20/20220920.png</t>
+          <t>2022/2022-09-20///20220920.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -50854,7 +50854,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2022/2022-09-27/20220927.png</t>
+          <t>2022/2022-09-27///20220927.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -51371,7 +51371,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2022/2022-10-04/20221004.png</t>
+          <t>2022/2022-10-04///20221004.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -51888,7 +51888,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022/2022-10-11/20221011.png</t>
+          <t>2022/2022-10-11///20221011.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -52405,7 +52405,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2022/2022-10-18/20221018.png</t>
+          <t>2022/2022-10-18///20221018.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -52922,7 +52922,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2022/2022-10-25/20221025.png</t>
+          <t>2022/2022-10-25///20221025.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -53439,7 +53439,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2022/2022-11-01/20221101.png</t>
+          <t>2022/2022-11-01///20221101.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -53956,7 +53956,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2022/2022-11-08/20221108.png</t>
+          <t>2022/2022-11-08///20221108.png</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -54473,7 +54473,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2022/2022-11-15/20221115_plot1.png</t>
+          <t>2022/2022-11-15///20221115_plot1.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -54990,7 +54990,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2022/2022-11-22/20221122.png</t>
+          <t>2022/2022-11-22///20221122.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -55507,7 +55507,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2022/2022-11-29/20221129.png</t>
+          <t>2022/2022-11-29///20221129.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -56024,7 +56024,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2022/2022-12-06/20221206.png</t>
+          <t>2022/2022-12-06///20221206.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -56541,7 +56541,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2022/2022-12-13/20221213.png</t>
+          <t>2022/2022-12-13///20221213.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -57058,7 +57058,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2022/2022-12-20/20221220.png</t>
+          <t>2022/2022-12-20///20221220.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -57575,7 +57575,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2022/2022-12-27/20221227.png</t>
+          <t>2022/2022-12-27///20221227.png</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -58092,7 +58092,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023/2023-01-03/20230103.png</t>
+          <t>2023/2023-01-03///20230103_raw.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -58609,7 +58609,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023/2023-01-10/20230110.png</t>
+          <t>2023/2023-01-10///20230110.png</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -59126,7 +59126,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023/2023-01-17/20230117.png</t>
+          <t>2023/2023-01-17///20230117_book.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -59643,7 +59643,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023/2023-01-24/20230124.png</t>
+          <t>2023/2023-01-24///20230124.png</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -60160,7 +60160,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023/2023-01-31/20230131.png</t>
+          <t>2023/2023-01-31///20230131.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -60677,7 +60677,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023/2023-02-07/20230207.png</t>
+          <t>2023/2023-02-07///20230207.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -61184,17 +61184,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, gghighlight, readr</t>
+          <t>tidyverse, showtext, camcorder, ggtext, glue, patchwork, nrBrand, png</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.R</t>
+          <t>2023/2023-02-14/20230214_love_actually.R</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023/2023-02-14/20230214.png</t>
+          <t>2023/2023-02-14///20230214_love_actually.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -61305,7 +61305,7 @@
         <v>0</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ118">
         <v>0</v>
@@ -61503,7 +61503,7 @@
         <v>0</v>
       </c>
       <c r="DD118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE118">
         <v>0</v>
@@ -61545,7 +61545,7 @@
         <v>0</v>
       </c>
       <c r="DR118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS118">
         <v>0</v>
@@ -61711,7 +61711,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023/2023-02-21/20230221.png</t>
+          <t>2023/2023-02-21///20230221.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -62228,7 +62228,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023/2023-02-28/20230228.png</t>
+          <t>2023/2023-02-28///20230228.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -62745,7 +62745,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023/2023-03-07/20230307.png</t>
+          <t>2023/2023-03-07///20230307.png</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -63262,7 +63262,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023/2023-03-14/20230314.png</t>
+          <t>2023/2023-03-14///20230314_b.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -63779,7 +63779,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023/2023-03-21/20230321.png</t>
+          <t>2023/2023-03-21///20230321.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -64296,7 +64296,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023/2023-03-28/20230328.png</t>
+          <t>2023/2023-03-28///20230328.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -64813,7 +64813,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023/2023-04-04/20230404.png</t>
+          <t>2023/2023-04-04///20230404.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -65330,7 +65330,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023/2023-04-11/20230411.png</t>
+          <t>2023/2023-04-11///20230411.png</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -65847,7 +65847,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023/2023-04-18/20230418.png</t>
+          <t>2023/2023-04-18///20230418.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -66364,7 +66364,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023/2023-04-25/20230425.png</t>
+          <t>2023/2023-04-25///20230425.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -66881,7 +66881,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023/2023-05-02/20230502.png</t>
+          <t>2023/2023-05-02///20230502.png</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -67398,7 +67398,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023/2023-05-09/20230509.png</t>
+          <t>2023/2023-05-09///20230509.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -67915,7 +67915,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023/2023-05-16/20230516.png</t>
+          <t>2023/2023-05-16///20230516.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -68432,7 +68432,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023/2023-05-23/20230523.png</t>
+          <t>2023/2023-05-23///20230523.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -68949,7 +68949,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023/2023-05-30/20230530.png</t>
+          <t>2023/2023-05-30///20230530.png</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -69456,17 +69456,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>tidyverse, lubridate, showtext, patchwork, camcorder, ggtext, glue, nrBrand, readr</t>
+          <t>tidyverse, showtext, readr</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.R</t>
+          <t>2023/2023-06-06/20230606_baseR.R</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023/2023-06-06/20230606.png</t>
+          <t>2023/2023-06-06///20230606_base.png</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -69481,7 +69481,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -69640,7 +69640,7 @@
         <v>0</v>
       </c>
       <c r="BK134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL134">
         <v>0</v>
@@ -69655,7 +69655,7 @@
         <v>0</v>
       </c>
       <c r="BP134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ134">
         <v>0</v>
@@ -69709,7 +69709,7 @@
         <v>0</v>
       </c>
       <c r="CH134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI134">
         <v>0</v>
@@ -69739,7 +69739,7 @@
         <v>0</v>
       </c>
       <c r="CR134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS134">
         <v>0</v>
@@ -69763,7 +69763,7 @@
         <v>0</v>
       </c>
       <c r="CZ134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA134">
         <v>0</v>
@@ -69983,7 +69983,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023/2023-06-13/20230613.png</t>
+          <t>2023/2023-06-13///20230613.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -70500,7 +70500,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023/2023-06-20/20230620.png</t>
+          <t>2023/2023-06-20///20230620.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -71017,7 +71017,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023/2023-06-27/20230627.png</t>
+          <t>2023/2023-06-27///20230627.png</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -71534,7 +71534,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023/2023-07-04/20230704.png</t>
+          <t>2023/2023-07-04///20230704.png</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -72051,7 +72051,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023/2023-07-11/20230711.png</t>
+          <t>2023/2023-07-11///20230711.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -72568,7 +72568,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023/2023-07-18/20230718.png</t>
+          <t>2023/2023-07-18///20230718.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -73085,7 +73085,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023/2023-07-25/20230725.png</t>
+          <t>2023/2023-07-25///20230725_v2.png</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -73602,7 +73602,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023/2023-08-01/20230801.png</t>
+          <t>2023/2023-08-01///20230801.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -74119,7 +74119,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023/2023-08-08/20230808.png</t>
+          <t>2023/2023-08-08///20230808.png</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -74636,7 +74636,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023/2023-08-15/20230815.png</t>
+          <t>2023/2023-08-15///20230815.png</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -75153,7 +75153,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023/2023-08-22/20230822.png</t>
+          <t>2023/2023-08-22///20230822.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -75670,7 +75670,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023/2023-08-29/20230829.png</t>
+          <t>2023/2023-08-29///20230829.png</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -76187,7 +76187,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023/2023-09-05/20230905.png</t>
+          <t>2023/2023-09-05///20230905.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -76704,7 +76704,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023/2023-09-12/20230912.png</t>
+          <t>2023/2023-09-12///20230912.png</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -77221,7 +77221,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023/2023-09-19/20230919.png</t>
+          <t>2023/2023-09-19///20230919.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -77738,7 +77738,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023/2023-09-26/20230926.png</t>
+          <t>2023/2023-09-26///20230926.png</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -78255,7 +78255,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023/2023-10-03/20231003.png</t>
+          <t>2023/2023-10-03///20231003.png</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -78772,7 +78772,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023/2023-10-10/20231010.png</t>
+          <t>2023/2023-10-10///20231010.png</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -79289,7 +79289,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023/2023-10-17/20231017.png</t>
+          <t>2023/2023-10-17///20231017.png</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -79806,7 +79806,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023/2023-10-24/20231024.png</t>
+          <t>2023/2023-10-24///20231024_clusters.png</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -80323,7 +80323,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023/2023-10-31/20231031.png</t>
+          <t>2023/2023-10-31///20231031.png</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -80840,7 +80840,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023/2023-11-07/20231107.png</t>
+          <t>2023/2023-11-07///20231107.png</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -81357,7 +81357,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023/2023-11-14/20231114.png</t>
+          <t>2023/2023-11-14///20231114.png</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -81874,7 +81874,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023/2023-11-21/20231121.png</t>
+          <t>2023/2023-11-21///20231121.png</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -82391,7 +82391,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023/2023-11-28/20231128.png</t>
+          <t>2023/2023-11-28///20231128.png</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -82908,7 +82908,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023/2023-12-05/20231205.png</t>
+          <t>2023/2023-12-05///20231205.png</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -83425,7 +83425,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023/2023-12-12/20231212.png</t>
+          <t>2023/2023-12-12///20231212.png</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -83942,7 +83942,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023/2023-12-19/20231219.png</t>
+          <t>2023/2023-12-19///20231219.png</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -84459,7 +84459,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2023/2023-12-26/20231226.png</t>
+          <t>2023/2023-12-26///20231226.png</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -84976,7 +84976,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024/2024-01-02/20240102.png</t>
+          <t>2024/2024-01-02///20240102.png</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -85493,7 +85493,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024/2024-01-09/20240109.png</t>
+          <t>2024/2024-01-09///20240109_canada.png</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -86010,7 +86010,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024/2024-01-16/20240116.png</t>
+          <t>2024/2024-01-16///20240116.png</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -86527,7 +86527,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024/2024-01-23/20240123.png</t>
+          <t>2024/2024-01-23///20240123.png</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -87044,7 +87044,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024/2024-01-30/20240130.png</t>
+          <t>2024/2024-01-30///20240130.png</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -87561,7 +87561,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024/2024-02-06/20240206.png</t>
+          <t>2024/2024-02-06///20240206.png</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -88078,7 +88078,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024/2024-02-13/20240213.png</t>
+          <t>2024/2024-02-13///20240213.png</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -88595,7 +88595,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2024/2024-02-20/20240220.png</t>
+          <t>2024/2024-02-20///20240220.png</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -89112,7 +89112,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2024/2024-02-27/20240227.png</t>
+          <t>2024/2024-02-27///20240227.png</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -89629,7 +89629,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2024/2024-03-05/20240305.png</t>
+          <t>2024/2024-03-05///20240305.png</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -90146,7 +90146,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2024/2024-03-12/20240312.png</t>
+          <t>2024/2024-03-12///20240312.png</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -90663,7 +90663,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2024/2024-03-19/20240319.png</t>
+          <t>2024/2024-03-19///20240319.png</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -91180,7 +91180,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2024/2024-03-26/20240326.png</t>
+          <t>2024/2024-03-26///20240326.png</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -91697,7 +91697,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2024/2024-04-02/20240402.png</t>
+          <t>2024/2024-04-02///20240402.png</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -92214,7 +92214,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2024/2024-04-09/20240409.png</t>
+          <t>2024/2024-04-09///20240409.png</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -92731,7 +92731,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2024/2024-04-16/20240416.png</t>
+          <t>2024/2024-04-16///20240416.png</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -93248,7 +93248,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2024/2024-04-23/20240423.png</t>
+          <t>2024/2024-04-23///20240423.png</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -93765,7 +93765,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2024/2024-04-30/20240430.png</t>
+          <t>2024/2024-04-30///20240430.png</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -94282,7 +94282,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2024/2024-05-07/20240507.png</t>
+          <t>2024/2024-05-07///20240507.png</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -94799,7 +94799,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2024/2024-05-14/20240514.png</t>
+          <t>2024/2024-05-14///20240514.png</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -95316,7 +95316,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2024/2024-05-21/20240521.png</t>
+          <t>2024/2024-05-21///20240521.png</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -95833,7 +95833,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2024/2024-05-28/20240528.png</t>
+          <t>2024/2024-05-28///20240528.png</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -96350,7 +96350,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2024/2024-06-04/20240604.png</t>
+          <t>2024/2024-06-04///20240604.png</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -96867,7 +96867,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2024/2024-06-11/20240611.png</t>
+          <t>2024/2024-06-11///20240611.png</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -97384,7 +97384,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2024/2024-06-18/20240618.png</t>
+          <t>2024/2024-06-18///20240618.png</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -97901,7 +97901,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2024/2024-06-25/20240625.png</t>
+          <t>2024/2024-06-25///20240625.png</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -98418,7 +98418,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2024/2024-07-02/20240702.png</t>
+          <t>2024/2024-07-02///20240702_all.png</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -98935,7 +98935,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2024/2024-07-09/20240709.png</t>
+          <t>2024/2024-07-09///20240709.png</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -99452,7 +99452,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2024/2024-07-16/20240716.png</t>
+          <t>2024/2024-07-16///20240716.png</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -99969,7 +99969,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2024/2024-07-23/20240723.png</t>
+          <t>2024/2024-07-23///20240723.png</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -100486,7 +100486,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2024/2024-07-30/20240730.png</t>
+          <t>2024/2024-07-30///20240730.png</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -101003,7 +101003,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2024/2024-08-06/20240806.png</t>
+          <t>2024/2024-08-06///20240806.png</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -101520,7 +101520,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2024/2024-08-13/20240813.png</t>
+          <t>2024/2024-08-13///20240813.png</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -102037,7 +102037,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2024/2024-08-20/20240820.png</t>
+          <t>2024/2024-08-20///20240820.png</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -102554,7 +102554,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2024/2024-08-27/20240827.png</t>
+          <t>2024/2024-08-27///20240827_safe.png</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -103071,7 +103071,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2024/2024-09-03/20240903.png</t>
+          <t>2024/2024-09-03///20240903.png</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -103588,7 +103588,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2024/2024-09-10/20240910.png</t>
+          <t>2024/2024-09-10///20240910.png</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -104105,7 +104105,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2024/2024-09-17/20240917.png</t>
+          <t>2024/2024-09-17///20240917.png</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -104622,7 +104622,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2024/2024-09-24/20240924.png</t>
+          <t>2024/2024-09-24///20240924.png</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -105139,7 +105139,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2024/2024-10-01/20241001.png</t>
+          <t>2024/2024-10-01///20241001.png</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -105656,7 +105656,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2024/2024-10-08/20241008.png</t>
+          <t>2024/2024-10-08///20241008.png</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -106173,7 +106173,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2024/2024-10-15/20241015.png</t>
+          <t>2024/2024-10-15///20241015_v2.png</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -106690,7 +106690,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2024/2024-10-22/20241022.png</t>
+          <t>2024/2024-10-22///20241022.png</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -107207,7 +107207,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2024/2024-10-29/20241029.png</t>
+          <t>2024/2024-10-29///20241029.png</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -107724,7 +107724,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2024/2024-11-05/20241105.png</t>
+          <t>2024/2024-11-05///20241105.png</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -108241,7 +108241,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2024/2024-11-12/20241112.png</t>
+          <t>2024/2024-11-12///20241112.png</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -108758,7 +108758,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2024/2024-11-19/20241119.png</t>
+          <t>2024/2024-11-19///20241119.png</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -109275,7 +109275,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2024/2024-11-26/20241126.png</t>
+          <t>2024/2024-11-26///20241126.png</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -109792,7 +109792,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2024/2024-12-03/20241203.png</t>
+          <t>2024/2024-12-03///20241203.png</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -110309,7 +110309,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2024/2024-12-10/20241210.png</t>
+          <t>2024/2024-12-10///20241210.png</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -110826,7 +110826,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2024/2024-12-17/20241217.png</t>
+          <t>2024/2024-12-17///20241217.png</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -111343,7 +111343,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2024/2024-12-24/20241224.png</t>
+          <t>2024/2024-12-24///20241224.png</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -111860,7 +111860,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2024/2024-12-31/20241231.png</t>
+          <t>2024/2024-12-31///20241231.png</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -112377,7 +112377,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2025/2025-01-07/20250107.png</t>
+          <t>2025/2025-01-07///20250107.png</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -112894,7 +112894,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2025/2025-01-14/20250114.png</t>
+          <t>2025/2025-01-14///20250114.png</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -113411,7 +113411,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2025/2025-01-21/20250121.png</t>
+          <t>2025/2025-01-21///20250121.png</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -113928,7 +113928,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2025/2025-01-28/20250128.png</t>
+          <t>2025/2025-01-28///20250128.png</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -114445,7 +114445,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2025/2025-02-04/20250204.png</t>
+          <t>2025/2025-02-04///20250204.png</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -114962,7 +114962,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025/2025-02-11/20250211.png</t>
+          <t>2025/2025-02-11///20250211.png</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -115479,7 +115479,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025/2025-02-18/20250218.png</t>
+          <t>2025/2025-02-18///20250218.png</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -115996,7 +115996,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2025/2025-02-25/20250225.png</t>
+          <t>2025/2025-02-25///20250225_art.png</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -116513,7 +116513,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025/2025-03-04/20250304.png</t>
+          <t>2025/2025-03-04///20250304.png</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -117030,7 +117030,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2025/2025-03-11/20250311.png</t>
+          <t>2025/2025-03-11///20250311.png</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -117547,7 +117547,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025/2025-03-18/20250318.png</t>
+          <t>2025/2025-03-18///20250318.png</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -118064,7 +118064,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025/2025-03-25/20250325.png</t>
+          <t>2025/2025-03-25///20250325.png</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -118581,7 +118581,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025/2025-04-01/20250401.png</t>
+          <t>2025/2025-04-01///20250401.png</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -119098,7 +119098,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2025/2025-04-08/20250408.png</t>
+          <t>2025/2025-04-08///20250408_interactive.png</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -119615,7 +119615,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025/2025-04-15/20250415.png</t>
+          <t>2025/2025-04-15///20250415_dark.png</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -120132,7 +120132,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025/2025-04-22/20250422.png</t>
+          <t>2025/2025-04-22///20250422.png</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -120649,7 +120649,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025/2025-04-29/20250429.png</t>
+          <t>2025/2025-04-29///20250429_ai.png</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -121166,7 +121166,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2025/2025-05-06/20250506.png</t>
+          <t>2025/2025-05-06///20250506.png</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -121683,7 +121683,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2025/2025-05-20/20250520.png</t>
+          <t>2025/2025-05-20///20250520.png</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
